--- a/jee_latest_st.xlsx
+++ b/jee_latest_st.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3422" uniqueCount="1632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3469" uniqueCount="1652">
   <si>
     <t>java server - tomcat</t>
   </si>
@@ -5427,6 +5427,66 @@
   </si>
   <si>
     <t>&gt;&gt;width</t>
+  </si>
+  <si>
+    <t>Client- Browser</t>
+  </si>
+  <si>
+    <t>mode of transport = Http</t>
+  </si>
+  <si>
+    <t>when is connection tiggered ?</t>
+  </si>
+  <si>
+    <t>login button is linked to HTTP URL</t>
+  </si>
+  <si>
+    <t>Http://loginamazon</t>
+  </si>
+  <si>
+    <t>http://loginamazon</t>
+  </si>
+  <si>
+    <t>java 1</t>
+  </si>
+  <si>
+    <t>java 2</t>
+  </si>
+  <si>
+    <t>http://regamazon</t>
+  </si>
+  <si>
+    <t>http://loginamazon/?userid=java&amp;password=jee</t>
+  </si>
+  <si>
+    <t>userid=java</t>
+  </si>
+  <si>
+    <t>password=jee</t>
+  </si>
+  <si>
+    <t>grapes</t>
+  </si>
+  <si>
+    <t>Table - alignment, html elements neat</t>
+  </si>
+  <si>
+    <t>&lt;td&gt;userid&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t>&lt;td&gt;&lt;input id="userid" name="userid" type="text"&gt;&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t>&lt;td&gt;password&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t>&lt;td&gt;&lt;input id="password" name="password"  type="password"&gt;&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t>&lt;td&gt;&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t>&lt;td&gt;&lt;input type="submit" value="login"&gt;&lt;/td&gt;</t>
   </si>
 </sst>
 </file>
@@ -6186,7 +6246,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="512">
+  <cellXfs count="513">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -6631,6 +6691,55 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="12" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6640,53 +6749,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6707,6 +6777,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6732,6 +6811,42 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6838,6 +6953,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6868,9 +6989,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6880,8 +6998,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6905,9 +7077,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6937,60 +7106,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7018,52 +7133,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7126,73 +7211,49 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="12" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7503,21 +7564,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A1" s="480" t="s">
+      <c r="A1" s="310" t="s">
         <v>1541</v>
       </c>
-      <c r="B1" s="480"/>
-      <c r="C1" s="480"/>
-      <c r="D1" s="480"/>
+      <c r="B1" s="310"/>
+      <c r="C1" s="310"/>
+      <c r="D1" s="310"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1">
-      <c r="G2" s="472" t="s">
+      <c r="G2" s="302" t="s">
         <v>35</v>
       </c>
       <c r="K2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="486" t="s">
+      <c r="L2" s="316" t="s">
         <v>1515</v>
       </c>
       <c r="M2" s="24" t="s">
@@ -7533,28 +7594,28 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1">
-      <c r="B4" s="472" t="s">
+      <c r="B4" s="302" t="s">
         <v>12</v>
       </c>
       <c r="J4" s="156" t="s">
         <v>1114</v>
       </c>
-      <c r="K4" s="482" t="s">
+      <c r="K4" s="312" t="s">
         <v>1539</v>
       </c>
-      <c r="L4" s="482"/>
-      <c r="M4" s="482"/>
+      <c r="L4" s="312"/>
+      <c r="M4" s="312"/>
       <c r="N4" s="151"/>
       <c r="O4" s="137"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1">
-      <c r="G5" s="483" t="s">
+      <c r="G5" s="313" t="s">
         <v>1544</v>
       </c>
       <c r="J5" s="123" t="s">
         <v>1516</v>
       </c>
-      <c r="K5" s="472" t="s">
+      <c r="K5" s="302" t="s">
         <v>1518</v>
       </c>
       <c r="N5" s="24" t="s">
@@ -7579,7 +7640,7 @@
       <c r="C7" s="151"/>
       <c r="D7" s="151"/>
       <c r="E7" s="137"/>
-      <c r="G7" s="483" t="s">
+      <c r="G7" s="313" t="s">
         <v>1545</v>
       </c>
       <c r="J7" s="123"/>
@@ -7589,10 +7650,10 @@
       <c r="O7" s="73"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A8" s="481" t="s">
+      <c r="A8" s="311" t="s">
         <v>1538</v>
       </c>
-      <c r="C8" s="472" t="s">
+      <c r="C8" s="302" t="s">
         <v>1515</v>
       </c>
       <c r="D8" s="24" t="s">
@@ -7606,24 +7667,24 @@
       <c r="K8" s="24" t="s">
         <v>1517</v>
       </c>
-      <c r="M8" s="472"/>
+      <c r="M8" s="302"/>
       <c r="O8" s="73"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1">
       <c r="A9" s="123"/>
-      <c r="E9" s="479" t="s">
+      <c r="E9" s="309" t="s">
         <v>169</v>
       </c>
-      <c r="I9" s="485"/>
-      <c r="J9" s="483"/>
+      <c r="I9" s="315"/>
+      <c r="J9" s="313"/>
       <c r="O9" s="73"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" thickBot="1">
       <c r="A10" s="123"/>
-      <c r="B10" s="486" t="s">
+      <c r="B10" s="316" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="484" t="s">
+      <c r="E10" s="314" t="s">
         <v>1537</v>
       </c>
       <c r="G10" s="162" t="s">
@@ -7643,12 +7704,12 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1">
       <c r="A12" s="123"/>
-      <c r="C12" s="472" t="s">
+      <c r="C12" s="302" t="s">
         <v>1463</v>
       </c>
       <c r="E12" s="73"/>
       <c r="J12" s="123"/>
-      <c r="K12" s="472"/>
+      <c r="K12" s="302"/>
       <c r="O12" s="73"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" thickBot="1">
@@ -7668,7 +7729,7 @@
         <v>1529</v>
       </c>
       <c r="J14" s="123"/>
-      <c r="N14" s="472"/>
+      <c r="N14" s="302"/>
       <c r="O14" s="73"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" thickBot="1">
@@ -7694,7 +7755,7 @@
       <c r="C16" s="24" t="s">
         <v>1527</v>
       </c>
-      <c r="E16" s="472" t="s">
+      <c r="E16" s="302" t="s">
         <v>18</v>
       </c>
       <c r="F16" s="24" t="s">
@@ -7749,10 +7810,10 @@
       <c r="E21" s="151"/>
       <c r="F21" s="151"/>
       <c r="G21" s="137"/>
-      <c r="J21" s="488" t="s">
+      <c r="J21" s="318" t="s">
         <v>52</v>
       </c>
-      <c r="K21" s="488" t="s">
+      <c r="K21" s="318" t="s">
         <v>1554</v>
       </c>
       <c r="M21" s="24" t="s">
@@ -7769,12 +7830,12 @@
     </row>
     <row r="22" spans="1:17" ht="15.75" thickBot="1">
       <c r="B22" s="123"/>
-      <c r="C22" s="472" t="s">
+      <c r="C22" s="302" t="s">
         <v>1560</v>
       </c>
       <c r="G22" s="73"/>
-      <c r="J22" s="488"/>
-      <c r="K22" s="488" t="s">
+      <c r="J22" s="318"/>
+      <c r="K22" s="318" t="s">
         <v>169</v>
       </c>
       <c r="N22" s="24" t="s">
@@ -7794,8 +7855,8 @@
         <v>1556</v>
       </c>
       <c r="G23" s="73"/>
-      <c r="J23" s="488"/>
-      <c r="K23" s="488" t="s">
+      <c r="J23" s="318"/>
+      <c r="K23" s="318" t="s">
         <v>169</v>
       </c>
       <c r="O23" s="138"/>
@@ -7807,15 +7868,15 @@
       <c r="C24" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="E24" s="472" t="s">
+      <c r="E24" s="302" t="s">
         <v>446</v>
       </c>
       <c r="F24" s="24" t="s">
         <v>1555</v>
       </c>
       <c r="G24" s="73"/>
-      <c r="J24" s="488"/>
-      <c r="K24" s="488" t="s">
+      <c r="J24" s="318"/>
+      <c r="K24" s="318" t="s">
         <v>169</v>
       </c>
     </row>
@@ -7830,8 +7891,8 @@
       <c r="G25" s="73" t="s">
         <v>1603</v>
       </c>
-      <c r="J25" s="488"/>
-      <c r="K25" s="488" t="s">
+      <c r="J25" s="318"/>
+      <c r="K25" s="318" t="s">
         <v>169</v>
       </c>
       <c r="N25" s="24" t="s">
@@ -7851,8 +7912,8 @@
       <c r="G26" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="J26" s="488"/>
-      <c r="K26" s="488" t="s">
+      <c r="J26" s="318"/>
+      <c r="K26" s="318" t="s">
         <v>169</v>
       </c>
       <c r="N26" s="24" t="s">
@@ -7868,8 +7929,8 @@
       </c>
       <c r="G27" s="280"/>
       <c r="H27" s="162"/>
-      <c r="J27" s="488"/>
-      <c r="K27" s="488"/>
+      <c r="J27" s="318"/>
+      <c r="K27" s="318"/>
       <c r="O27" s="123"/>
       <c r="Q27" s="73"/>
     </row>
@@ -7881,8 +7942,8 @@
       <c r="G28" s="73" t="s">
         <v>1552</v>
       </c>
-      <c r="J28" s="488"/>
-      <c r="K28" s="488" t="s">
+      <c r="J28" s="318"/>
+      <c r="K28" s="318" t="s">
         <v>169</v>
       </c>
       <c r="O28" s="138"/>
@@ -7897,8 +7958,8 @@
       <c r="G29" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="J29" s="488"/>
-      <c r="K29" s="488" t="s">
+      <c r="J29" s="318"/>
+      <c r="K29" s="318" t="s">
         <v>169</v>
       </c>
     </row>
@@ -7909,8 +7970,8 @@
         <v>169</v>
       </c>
       <c r="G30" s="73"/>
-      <c r="J30" s="488"/>
-      <c r="K30" s="488" t="s">
+      <c r="J30" s="318"/>
+      <c r="K30" s="318" t="s">
         <v>169</v>
       </c>
       <c r="N30" s="24" t="s">
@@ -7931,8 +7992,8 @@
         <v>169</v>
       </c>
       <c r="G31" s="73"/>
-      <c r="J31" s="488"/>
-      <c r="K31" s="488" t="s">
+      <c r="J31" s="318"/>
+      <c r="K31" s="318" t="s">
         <v>448</v>
       </c>
       <c r="M31" s="24" t="s">
@@ -7945,18 +8006,18 @@
       <c r="B32" s="123" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="472" t="s">
+      <c r="C32" s="302" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="487" t="s">
+      <c r="D32" s="317" t="s">
         <v>1551</v>
       </c>
       <c r="F32" s="24" t="s">
         <v>169</v>
       </c>
       <c r="G32" s="73"/>
-      <c r="J32" s="488"/>
-      <c r="K32" s="488"/>
+      <c r="J32" s="318"/>
+      <c r="K32" s="318"/>
       <c r="N32" s="24" t="s">
         <v>33</v>
       </c>
@@ -7969,8 +8030,8 @@
         <v>16</v>
       </c>
       <c r="G33" s="73"/>
-      <c r="J33" s="488"/>
-      <c r="K33" s="488"/>
+      <c r="J33" s="318"/>
+      <c r="K33" s="318"/>
       <c r="O33" s="138"/>
       <c r="P33" s="62"/>
       <c r="Q33" s="272"/>
@@ -7978,8 +8039,8 @@
     <row r="34" spans="2:17">
       <c r="B34" s="123"/>
       <c r="G34" s="73"/>
-      <c r="J34" s="488"/>
-      <c r="K34" s="488"/>
+      <c r="J34" s="318"/>
+      <c r="K34" s="318"/>
     </row>
     <row r="35" spans="2:17" ht="15.75" thickBot="1">
       <c r="B35" s="138"/>
@@ -7989,8 +8050,8 @@
       <c r="F35" s="62"/>
       <c r="G35" s="272"/>
       <c r="H35" s="158"/>
-      <c r="J35" s="488"/>
-      <c r="K35" s="488"/>
+      <c r="J35" s="318"/>
+      <c r="K35" s="318"/>
     </row>
     <row r="36" spans="2:17">
       <c r="H36" s="158"/>
@@ -8032,10 +8093,10 @@
       <c r="E43" s="151"/>
       <c r="F43" s="151"/>
       <c r="G43" s="137"/>
-      <c r="J43" s="488" t="s">
+      <c r="J43" s="318" t="s">
         <v>52</v>
       </c>
-      <c r="K43" s="488" t="s">
+      <c r="K43" s="318" t="s">
         <v>1554</v>
       </c>
       <c r="M43" s="24" t="s">
@@ -8056,8 +8117,8 @@
         <v>1118</v>
       </c>
       <c r="G44" s="73"/>
-      <c r="J44" s="488"/>
-      <c r="K44" s="488" t="s">
+      <c r="J44" s="318"/>
+      <c r="K44" s="318" t="s">
         <v>169</v>
       </c>
       <c r="N44" s="24" t="s">
@@ -8074,8 +8135,8 @@
       <c r="D45" s="274"/>
       <c r="E45" s="275"/>
       <c r="G45" s="73"/>
-      <c r="J45" s="488"/>
-      <c r="K45" s="488" t="s">
+      <c r="J45" s="318"/>
+      <c r="K45" s="318" t="s">
         <v>169</v>
       </c>
       <c r="O45" s="138"/>
@@ -8084,13 +8145,13 @@
     </row>
     <row r="46" spans="2:17" ht="15.75" thickBot="1">
       <c r="B46" s="123"/>
-      <c r="C46" s="476" t="s">
+      <c r="C46" s="306" t="s">
         <v>34</v>
       </c>
-      <c r="D46" s="476" t="s">
+      <c r="D46" s="306" t="s">
         <v>446</v>
       </c>
-      <c r="E46" s="476" t="s">
+      <c r="E46" s="306" t="s">
         <v>447</v>
       </c>
       <c r="F46" s="24" t="s">
@@ -8099,8 +8160,8 @@
       <c r="G46" s="73" t="s">
         <v>169</v>
       </c>
-      <c r="J46" s="488"/>
-      <c r="K46" s="488" t="s">
+      <c r="J46" s="318"/>
+      <c r="K46" s="318" t="s">
         <v>169</v>
       </c>
     </row>
@@ -8114,8 +8175,8 @@
       <c r="G47" s="73" t="s">
         <v>169</v>
       </c>
-      <c r="J47" s="488"/>
-      <c r="K47" s="488" t="s">
+      <c r="J47" s="318"/>
+      <c r="K47" s="318" t="s">
         <v>169</v>
       </c>
       <c r="N47" s="24" t="s">
@@ -8131,20 +8192,20 @@
       <c r="B48" s="123" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="477">
+      <c r="C48" s="307">
         <v>1234</v>
       </c>
-      <c r="D48" s="477">
+      <c r="D48" s="307">
         <v>1111</v>
       </c>
-      <c r="E48" s="477">
+      <c r="E48" s="307">
         <v>2222</v>
       </c>
       <c r="G48" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="J48" s="488"/>
-      <c r="K48" s="488" t="s">
+      <c r="J48" s="318"/>
+      <c r="K48" s="318" t="s">
         <v>169</v>
       </c>
       <c r="N48" s="24" t="s">
@@ -8160,8 +8221,8 @@
       </c>
       <c r="G49" s="280"/>
       <c r="H49" s="162"/>
-      <c r="J49" s="488"/>
-      <c r="K49" s="488"/>
+      <c r="J49" s="318"/>
+      <c r="K49" s="318"/>
       <c r="O49" s="123"/>
       <c r="Q49" s="73"/>
     </row>
@@ -8170,8 +8231,8 @@
       <c r="G50" s="73" t="s">
         <v>1552</v>
       </c>
-      <c r="J50" s="488"/>
-      <c r="K50" s="488" t="s">
+      <c r="J50" s="318"/>
+      <c r="K50" s="318" t="s">
         <v>169</v>
       </c>
       <c r="O50" s="138"/>
@@ -8183,8 +8244,8 @@
       <c r="G51" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="J51" s="488"/>
-      <c r="K51" s="488" t="s">
+      <c r="J51" s="318"/>
+      <c r="K51" s="318" t="s">
         <v>169</v>
       </c>
     </row>
@@ -8194,8 +8255,8 @@
         <v>31</v>
       </c>
       <c r="G52" s="73"/>
-      <c r="J52" s="488"/>
-      <c r="K52" s="488" t="s">
+      <c r="J52" s="318"/>
+      <c r="K52" s="318" t="s">
         <v>169</v>
       </c>
       <c r="N52" s="24" t="s">
@@ -8215,8 +8276,8 @@
       <c r="D53" s="274"/>
       <c r="E53" s="275"/>
       <c r="G53" s="73"/>
-      <c r="J53" s="488"/>
-      <c r="K53" s="488" t="s">
+      <c r="J53" s="318"/>
+      <c r="K53" s="318" t="s">
         <v>448</v>
       </c>
       <c r="M53" s="24" t="s">
@@ -8228,11 +8289,11 @@
     <row r="54" spans="2:17">
       <c r="B54" s="123"/>
       <c r="C54" s="90"/>
-      <c r="D54" s="487"/>
+      <c r="D54" s="317"/>
       <c r="E54" s="276"/>
       <c r="G54" s="73"/>
-      <c r="J54" s="488"/>
-      <c r="K54" s="488"/>
+      <c r="J54" s="318"/>
+      <c r="K54" s="318"/>
       <c r="N54" s="24" t="s">
         <v>33</v>
       </c>
@@ -8245,8 +8306,8 @@
       <c r="D55" s="70"/>
       <c r="E55" s="279"/>
       <c r="G55" s="73"/>
-      <c r="J55" s="488"/>
-      <c r="K55" s="488"/>
+      <c r="J55" s="318"/>
+      <c r="K55" s="318"/>
       <c r="O55" s="138"/>
       <c r="P55" s="62"/>
       <c r="Q55" s="272"/>
@@ -8254,8 +8315,8 @@
     <row r="56" spans="2:17">
       <c r="B56" s="123"/>
       <c r="G56" s="73"/>
-      <c r="J56" s="488"/>
-      <c r="K56" s="488"/>
+      <c r="J56" s="318"/>
+      <c r="K56" s="318"/>
     </row>
     <row r="57" spans="2:17" ht="15.75" thickBot="1">
       <c r="B57" s="138"/>
@@ -8265,8 +8326,8 @@
       <c r="F57" s="62"/>
       <c r="G57" s="272"/>
       <c r="H57" s="158"/>
-      <c r="J57" s="488"/>
-      <c r="K57" s="488"/>
+      <c r="J57" s="318"/>
+      <c r="K57" s="318"/>
     </row>
     <row r="58" spans="2:17">
       <c r="H58" s="158"/>
@@ -8352,43 +8413,43 @@
       <c r="K67" s="285"/>
     </row>
     <row r="68" spans="2:14" ht="15.75" thickBot="1">
-      <c r="C68" s="475">
+      <c r="C68" s="305">
         <v>2</v>
       </c>
       <c r="D68" s="203"/>
       <c r="E68" s="51"/>
-      <c r="F68" s="489"/>
+      <c r="F68" s="319"/>
       <c r="G68" s="60"/>
-      <c r="H68" s="474"/>
-      <c r="K68" s="478"/>
+      <c r="H68" s="304"/>
+      <c r="K68" s="308"/>
     </row>
     <row r="69" spans="2:14">
-      <c r="C69" s="475">
+      <c r="C69" s="305">
         <v>3</v>
       </c>
       <c r="D69" s="30"/>
       <c r="E69" s="34"/>
-      <c r="F69" s="490"/>
+      <c r="F69" s="320"/>
       <c r="G69" s="45"/>
-      <c r="H69" s="474"/>
+      <c r="H69" s="304"/>
       <c r="K69" s="285"/>
       <c r="L69" s="136"/>
       <c r="M69" s="151"/>
       <c r="N69" s="137"/>
     </row>
     <row r="70" spans="2:14">
-      <c r="C70" s="499">
+      <c r="C70" s="329">
         <v>8009</v>
       </c>
       <c r="D70" s="30" t="s">
         <v>28</v>
       </c>
       <c r="E70" s="34"/>
-      <c r="F70" s="490" t="s">
+      <c r="F70" s="320" t="s">
         <v>34</v>
       </c>
       <c r="G70" s="45"/>
-      <c r="H70" s="501">
+      <c r="H70" s="331">
         <v>40230</v>
       </c>
       <c r="I70" s="24" t="s">
@@ -8402,14 +8463,14 @@
       <c r="N70" s="73"/>
     </row>
     <row r="71" spans="2:14">
-      <c r="C71" s="475">
+      <c r="C71" s="305">
         <v>5</v>
       </c>
       <c r="D71" s="30"/>
       <c r="E71" s="34"/>
-      <c r="F71" s="490"/>
+      <c r="F71" s="320"/>
       <c r="G71" s="45"/>
-      <c r="H71" s="474"/>
+      <c r="H71" s="304"/>
       <c r="J71" s="24" t="s">
         <v>169</v>
       </c>
@@ -8418,45 +8479,45 @@
       <c r="N71" s="73"/>
     </row>
     <row r="72" spans="2:14" ht="15.75" thickBot="1">
-      <c r="C72" s="475"/>
+      <c r="C72" s="305"/>
       <c r="D72" s="204"/>
       <c r="E72" s="205"/>
-      <c r="F72" s="491"/>
-      <c r="G72" s="492"/>
-      <c r="H72" s="474"/>
+      <c r="F72" s="321"/>
+      <c r="G72" s="322"/>
+      <c r="H72" s="304"/>
       <c r="J72" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="K72" s="478"/>
+      <c r="K72" s="308"/>
       <c r="L72" s="138"/>
       <c r="M72" s="62"/>
       <c r="N72" s="272"/>
     </row>
     <row r="73" spans="2:14" ht="15.75" thickBot="1">
-      <c r="C73" s="475"/>
+      <c r="C73" s="305"/>
       <c r="D73" s="144"/>
       <c r="E73" s="145"/>
       <c r="F73" s="145"/>
       <c r="G73" s="146"/>
-      <c r="H73" s="474"/>
+      <c r="H73" s="304"/>
       <c r="J73" s="24" t="s">
         <v>169</v>
       </c>
       <c r="K73" s="285"/>
     </row>
     <row r="74" spans="2:14">
-      <c r="C74" s="475"/>
+      <c r="C74" s="305"/>
       <c r="D74" s="161" t="s">
         <v>447</v>
       </c>
       <c r="E74" s="162" t="s">
         <v>1562</v>
       </c>
-      <c r="F74" s="493" t="s">
+      <c r="F74" s="323" t="s">
         <v>1566</v>
       </c>
       <c r="G74" s="280"/>
-      <c r="H74" s="474"/>
+      <c r="H74" s="304"/>
       <c r="J74" s="24" t="s">
         <v>169</v>
       </c>
@@ -8465,12 +8526,12 @@
       <c r="N74" s="137"/>
     </row>
     <row r="75" spans="2:14" ht="15.75" thickBot="1">
-      <c r="C75" s="475"/>
+      <c r="C75" s="305"/>
       <c r="D75" s="55"/>
       <c r="E75" s="56"/>
       <c r="F75" s="56"/>
       <c r="G75" s="57"/>
-      <c r="H75" s="474"/>
+      <c r="H75" s="304"/>
       <c r="J75" s="24" t="s">
         <v>169</v>
       </c>
@@ -8479,12 +8540,12 @@
     </row>
     <row r="76" spans="2:14">
       <c r="C76" s="141"/>
-      <c r="D76" s="477"/>
-      <c r="E76" s="500">
+      <c r="D76" s="307"/>
+      <c r="E76" s="330">
         <v>15230</v>
       </c>
-      <c r="F76" s="477"/>
-      <c r="G76" s="477"/>
+      <c r="F76" s="307"/>
+      <c r="G76" s="307"/>
       <c r="H76" s="141"/>
       <c r="J76" s="24" t="s">
         <v>169</v>
@@ -8716,9 +8777,9 @@
     </row>
     <row r="102" spans="1:13">
       <c r="B102" s="143"/>
-      <c r="C102" s="496"/>
-      <c r="D102" s="496"/>
-      <c r="E102" s="496"/>
+      <c r="C102" s="326"/>
+      <c r="D102" s="326"/>
+      <c r="E102" s="326"/>
       <c r="G102" s="24" t="s">
         <v>1581</v>
       </c>
@@ -8753,7 +8814,7 @@
       <c r="M104" s="143"/>
     </row>
     <row r="105" spans="1:13">
-      <c r="B105" s="497"/>
+      <c r="B105" s="327"/>
       <c r="E105" s="143"/>
       <c r="H105" s="143">
         <v>3</v>
@@ -8780,7 +8841,7 @@
       <c r="B108" s="143"/>
       <c r="C108" s="158"/>
       <c r="D108" s="158"/>
-      <c r="E108" s="496"/>
+      <c r="E108" s="326"/>
       <c r="H108" s="143"/>
       <c r="M108" s="143"/>
     </row>
@@ -8805,11 +8866,11 @@
       <c r="M111" s="143"/>
     </row>
     <row r="112" spans="1:13">
-      <c r="B112" s="495"/>
+      <c r="B112" s="325"/>
       <c r="D112" s="24" t="s">
         <v>1580</v>
       </c>
-      <c r="E112" s="495"/>
+      <c r="E112" s="325"/>
       <c r="H112" s="143"/>
       <c r="M112" s="143"/>
     </row>
@@ -8818,11 +8879,11 @@
       <c r="C113" s="143"/>
       <c r="D113" s="14"/>
       <c r="E113" s="143"/>
-      <c r="H113" s="495"/>
+      <c r="H113" s="325"/>
       <c r="K113" s="24" t="s">
         <v>1583</v>
       </c>
-      <c r="M113" s="495"/>
+      <c r="M113" s="325"/>
     </row>
     <row r="114" spans="2:13">
       <c r="C114" s="158"/>
@@ -8967,7 +9028,7 @@
       <c r="G133" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H133" s="498" t="s">
+      <c r="H133" s="328" t="s">
         <v>36</v>
       </c>
     </row>
@@ -8975,7 +9036,7 @@
       <c r="G134" s="14" t="s">
         <v>450</v>
       </c>
-      <c r="H134" s="498" t="s">
+      <c r="H134" s="328" t="s">
         <v>449</v>
       </c>
       <c r="K134" s="136" t="s">
@@ -8991,7 +9052,7 @@
       <c r="G135" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H135" s="498" t="s">
+      <c r="H135" s="328" t="s">
         <v>1597</v>
       </c>
       <c r="J135" s="24" t="s">
@@ -9010,7 +9071,7 @@
       <c r="M136" s="73"/>
     </row>
     <row r="137" spans="2:13">
-      <c r="B137" s="473" t="s">
+      <c r="B137" s="303" t="s">
         <v>1591</v>
       </c>
       <c r="D137" s="73"/>
@@ -9037,7 +9098,7 @@
       <c r="E139" s="24" t="s">
         <v>1163</v>
       </c>
-      <c r="F139" s="472" t="s">
+      <c r="F139" s="302" t="s">
         <v>7</v>
       </c>
       <c r="G139" s="53"/>
@@ -9514,7 +9575,7 @@
         <v>1616</v>
       </c>
       <c r="J199" s="151"/>
-      <c r="K199" s="494" t="s">
+      <c r="K199" s="324" t="s">
         <v>1618</v>
       </c>
       <c r="L199" s="151"/>
@@ -9523,7 +9584,7 @@
       <c r="O199" s="137"/>
     </row>
     <row r="200" spans="2:15">
-      <c r="B200" s="473" t="s">
+      <c r="B200" s="303" t="s">
         <v>1619</v>
       </c>
       <c r="C200" s="73"/>
@@ -11787,10 +11848,10 @@
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="354" t="s">
+      <c r="L35" s="395" t="s">
         <v>246</v>
       </c>
-      <c r="M35" s="354"/>
+      <c r="M35" s="395"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
@@ -13720,10 +13781,10 @@
       </c>
     </row>
     <row r="155" spans="1:17">
-      <c r="A155" s="355" t="s">
+      <c r="A155" s="396" t="s">
         <v>770</v>
       </c>
-      <c r="B155" s="355"/>
+      <c r="B155" s="396"/>
     </row>
     <row r="156" spans="1:17">
       <c r="A156" s="84" t="s">
@@ -14508,19 +14569,19 @@
       </c>
     </row>
     <row r="29" spans="2:17">
-      <c r="B29" s="356" t="s">
+      <c r="B29" s="397" t="s">
         <v>1107</v>
       </c>
-      <c r="C29" s="356"/>
-      <c r="D29" s="356"/>
-      <c r="E29" s="356"/>
-      <c r="F29" s="356"/>
-      <c r="I29" s="356" t="s">
+      <c r="C29" s="397"/>
+      <c r="D29" s="397"/>
+      <c r="E29" s="397"/>
+      <c r="F29" s="397"/>
+      <c r="I29" s="397" t="s">
         <v>1311</v>
       </c>
-      <c r="J29" s="356"/>
-      <c r="K29" s="356"/>
-      <c r="L29" s="356"/>
+      <c r="J29" s="397"/>
+      <c r="K29" s="397"/>
+      <c r="L29" s="397"/>
     </row>
     <row r="31" spans="2:17">
       <c r="I31" t="s">
@@ -16209,18 +16270,18 @@
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1">
       <c r="D6" s="4"/>
-      <c r="E6" s="364" t="s">
+      <c r="E6" s="405" t="s">
         <v>278</v>
       </c>
-      <c r="F6" s="365"/>
-      <c r="G6" s="366" t="s">
+      <c r="F6" s="406"/>
+      <c r="G6" s="407" t="s">
         <v>78</v>
       </c>
-      <c r="H6" s="366"/>
-      <c r="I6" s="366"/>
-      <c r="J6" s="366"/>
-      <c r="K6" s="366"/>
-      <c r="L6" s="365"/>
+      <c r="H6" s="407"/>
+      <c r="I6" s="407"/>
+      <c r="J6" s="407"/>
+      <c r="K6" s="407"/>
+      <c r="L6" s="406"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="26" t="s">
@@ -16233,7 +16294,7 @@
       <c r="B7" t="s">
         <v>1408</v>
       </c>
-      <c r="D7" s="357">
+      <c r="D7" s="398">
         <v>80</v>
       </c>
       <c r="E7" s="287" t="s">
@@ -16253,7 +16314,7 @@
       <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1">
-      <c r="D8" s="357"/>
+      <c r="D8" s="398"/>
       <c r="E8" s="282" t="s">
         <v>280</v>
       </c>
@@ -16288,7 +16349,7 @@
       <c r="B9" t="s">
         <v>279</v>
       </c>
-      <c r="D9" s="357"/>
+      <c r="D9" s="398"/>
       <c r="E9" s="290"/>
       <c r="F9" s="291"/>
       <c r="G9" s="290"/>
@@ -16315,7 +16376,7 @@
       <c r="A10" t="s">
         <v>1413</v>
       </c>
-      <c r="D10" s="357"/>
+      <c r="D10" s="398"/>
       <c r="E10" s="287"/>
       <c r="F10" s="288"/>
       <c r="G10" s="287"/>
@@ -16339,7 +16400,7 @@
       <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1">
-      <c r="D11" s="357"/>
+      <c r="D11" s="398"/>
       <c r="E11" s="282" t="s">
         <v>284</v>
       </c>
@@ -16368,7 +16429,7 @@
       <c r="B12" s="177" t="s">
         <v>288</v>
       </c>
-      <c r="D12" s="357"/>
+      <c r="D12" s="398"/>
       <c r="E12" s="290"/>
       <c r="F12" s="291"/>
       <c r="G12" s="290"/>
@@ -16389,7 +16450,7 @@
       <c r="B13" t="s">
         <v>1409</v>
       </c>
-      <c r="D13" s="357"/>
+      <c r="D13" s="398"/>
       <c r="E13" s="287"/>
       <c r="F13" s="288"/>
       <c r="G13" s="287"/>
@@ -16408,7 +16469,7 @@
       <c r="B14" t="s">
         <v>1410</v>
       </c>
-      <c r="D14" s="357"/>
+      <c r="D14" s="398"/>
       <c r="E14" s="282" t="s">
         <v>289</v>
       </c>
@@ -16435,7 +16496,7 @@
       <c r="B15" t="s">
         <v>1411</v>
       </c>
-      <c r="D15" s="357"/>
+      <c r="D15" s="398"/>
       <c r="E15" s="290"/>
       <c r="F15" s="291"/>
       <c r="G15" s="290"/>
@@ -16454,7 +16515,7 @@
       <c r="B16" t="s">
         <v>1412</v>
       </c>
-      <c r="D16" s="357"/>
+      <c r="D16" s="398"/>
       <c r="E16" s="287"/>
       <c r="F16" s="288"/>
       <c r="G16" s="292"/>
@@ -16470,7 +16531,7 @@
       <c r="Q16" s="6"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1">
-      <c r="D17" s="357"/>
+      <c r="D17" s="398"/>
       <c r="E17" s="282" t="s">
         <v>293</v>
       </c>
@@ -16494,7 +16555,7 @@
       <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" thickBot="1">
-      <c r="D18" s="357"/>
+      <c r="D18" s="398"/>
       <c r="E18" s="290"/>
       <c r="F18" s="291"/>
       <c r="G18" s="293"/>
@@ -16511,20 +16572,20 @@
     </row>
     <row r="19" spans="1:17" ht="15.75" thickBot="1">
       <c r="D19" s="8"/>
-      <c r="E19" s="367" t="s">
+      <c r="E19" s="408" t="s">
         <v>94</v>
       </c>
-      <c r="F19" s="368"/>
-      <c r="G19" s="367" t="s">
+      <c r="F19" s="409"/>
+      <c r="G19" s="408" t="s">
         <v>95</v>
       </c>
-      <c r="H19" s="368"/>
-      <c r="I19" s="367" t="s">
+      <c r="H19" s="409"/>
+      <c r="I19" s="408" t="s">
         <v>96</v>
       </c>
-      <c r="J19" s="369"/>
-      <c r="K19" s="369"/>
-      <c r="L19" s="368"/>
+      <c r="J19" s="410"/>
+      <c r="K19" s="410"/>
+      <c r="L19" s="409"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
@@ -16589,12 +16650,12 @@
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="361"/>
-      <c r="H24" s="361"/>
-      <c r="I24" s="361"/>
-      <c r="J24" s="361"/>
-      <c r="K24" s="361"/>
-      <c r="L24" s="361"/>
+      <c r="G24" s="402"/>
+      <c r="H24" s="402"/>
+      <c r="I24" s="402"/>
+      <c r="J24" s="402"/>
+      <c r="K24" s="402"/>
+      <c r="L24" s="402"/>
       <c r="O24" s="35" t="s">
         <v>79</v>
       </c>
@@ -16969,11 +17030,11 @@
       <c r="G47" s="190" t="s">
         <v>672</v>
       </c>
-      <c r="H47" s="358" t="s">
+      <c r="H47" s="399" t="s">
         <v>1074</v>
       </c>
-      <c r="I47" s="359"/>
-      <c r="J47" s="360"/>
+      <c r="I47" s="400"/>
+      <c r="J47" s="401"/>
     </row>
     <row r="48" spans="1:17">
       <c r="F48" t="s">
@@ -17596,14 +17657,14 @@
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
       <c r="E97" s="6"/>
-      <c r="F97" s="362" t="s">
+      <c r="F97" s="403" t="s">
         <v>1228</v>
       </c>
-      <c r="G97" s="356"/>
-      <c r="H97" s="356"/>
-      <c r="I97" s="356"/>
-      <c r="J97" s="356"/>
-      <c r="K97" s="363"/>
+      <c r="G97" s="397"/>
+      <c r="H97" s="397"/>
+      <c r="I97" s="397"/>
+      <c r="J97" s="397"/>
+      <c r="K97" s="404"/>
       <c r="L97" s="4" t="s">
         <v>1398</v>
       </c>
@@ -20204,13 +20265,13 @@
       <c r="C20" s="107">
         <v>43908</v>
       </c>
-      <c r="D20" s="370" t="s">
+      <c r="D20" s="411" t="s">
         <v>328</v>
       </c>
-      <c r="E20" s="370"/>
-      <c r="F20" s="370"/>
-      <c r="G20" s="370"/>
-      <c r="H20" s="370"/>
+      <c r="E20" s="411"/>
+      <c r="F20" s="411"/>
+      <c r="G20" s="411"/>
+      <c r="H20" s="411"/>
       <c r="I20" s="33" t="s">
         <v>329</v>
       </c>
@@ -20221,37 +20282,37 @@
       <c r="N20" s="33"/>
     </row>
     <row r="21" spans="3:14">
-      <c r="C21" s="381">
+      <c r="C21" s="413">
         <v>43909</v>
       </c>
-      <c r="D21" s="370"/>
-      <c r="E21" s="370"/>
-      <c r="F21" s="370"/>
-      <c r="G21" s="370"/>
-      <c r="H21" s="370"/>
+      <c r="D21" s="411"/>
+      <c r="E21" s="411"/>
+      <c r="F21" s="411"/>
+      <c r="G21" s="411"/>
+      <c r="H21" s="411"/>
       <c r="I21" s="33" t="s">
         <v>330</v>
       </c>
-      <c r="J21" s="370"/>
-      <c r="K21" s="370"/>
-      <c r="L21" s="370" t="s">
+      <c r="J21" s="411"/>
+      <c r="K21" s="411"/>
+      <c r="L21" s="411" t="s">
         <v>331</v>
       </c>
-      <c r="M21" s="370"/>
-      <c r="N21" s="370"/>
+      <c r="M21" s="411"/>
+      <c r="N21" s="411"/>
     </row>
     <row r="22" spans="3:14">
-      <c r="C22" s="381"/>
-      <c r="D22" s="370"/>
-      <c r="E22" s="370"/>
-      <c r="F22" s="370"/>
-      <c r="G22" s="370"/>
-      <c r="H22" s="370"/>
-      <c r="I22" s="305" t="s">
+      <c r="C22" s="413"/>
+      <c r="D22" s="411"/>
+      <c r="E22" s="411"/>
+      <c r="F22" s="411"/>
+      <c r="G22" s="411"/>
+      <c r="H22" s="411"/>
+      <c r="I22" s="412" t="s">
         <v>332</v>
       </c>
-      <c r="J22" s="370"/>
-      <c r="K22" s="370"/>
+      <c r="J22" s="411"/>
+      <c r="K22" s="411"/>
       <c r="L22" s="108" t="s">
         <v>333</v>
       </c>
@@ -20259,31 +20320,31 @@
       <c r="N22" s="33"/>
     </row>
     <row r="23" spans="3:14">
-      <c r="C23" s="381"/>
-      <c r="D23" s="370"/>
-      <c r="E23" s="370"/>
-      <c r="F23" s="370"/>
-      <c r="G23" s="370"/>
-      <c r="H23" s="370"/>
-      <c r="I23" s="305"/>
-      <c r="J23" s="370"/>
-      <c r="K23" s="370"/>
-      <c r="L23" s="370" t="s">
+      <c r="C23" s="413"/>
+      <c r="D23" s="411"/>
+      <c r="E23" s="411"/>
+      <c r="F23" s="411"/>
+      <c r="G23" s="411"/>
+      <c r="H23" s="411"/>
+      <c r="I23" s="412"/>
+      <c r="J23" s="411"/>
+      <c r="K23" s="411"/>
+      <c r="L23" s="411" t="s">
         <v>334</v>
       </c>
-      <c r="M23" s="370"/>
-      <c r="N23" s="370"/>
+      <c r="M23" s="411"/>
+      <c r="N23" s="411"/>
     </row>
     <row r="24" spans="3:14">
-      <c r="C24" s="381"/>
-      <c r="D24" s="370"/>
-      <c r="E24" s="370"/>
-      <c r="F24" s="370"/>
-      <c r="G24" s="370"/>
-      <c r="H24" s="370"/>
-      <c r="I24" s="305"/>
-      <c r="J24" s="370"/>
-      <c r="K24" s="370"/>
+      <c r="C24" s="413"/>
+      <c r="D24" s="411"/>
+      <c r="E24" s="411"/>
+      <c r="F24" s="411"/>
+      <c r="G24" s="411"/>
+      <c r="H24" s="411"/>
+      <c r="I24" s="412"/>
+      <c r="J24" s="411"/>
+      <c r="K24" s="411"/>
       <c r="L24" s="109" t="s">
         <v>332</v>
       </c>
@@ -20294,13 +20355,13 @@
       <c r="C25" s="107">
         <v>43910</v>
       </c>
-      <c r="D25" s="370" t="s">
+      <c r="D25" s="411" t="s">
         <v>335</v>
       </c>
-      <c r="E25" s="370"/>
-      <c r="F25" s="370"/>
-      <c r="G25" s="370"/>
-      <c r="H25" s="370"/>
+      <c r="E25" s="411"/>
+      <c r="F25" s="411"/>
+      <c r="G25" s="411"/>
+      <c r="H25" s="411"/>
       <c r="I25" s="33" t="s">
         <v>336</v>
       </c>
@@ -20314,16 +20375,16 @@
       <c r="C26" s="107">
         <v>43911</v>
       </c>
-      <c r="D26" s="371"/>
-      <c r="E26" s="372"/>
-      <c r="F26" s="372"/>
-      <c r="G26" s="372"/>
-      <c r="H26" s="373"/>
-      <c r="I26" s="378" t="s">
+      <c r="D26" s="414"/>
+      <c r="E26" s="415"/>
+      <c r="F26" s="415"/>
+      <c r="G26" s="415"/>
+      <c r="H26" s="416"/>
+      <c r="I26" s="421" t="s">
         <v>332</v>
       </c>
-      <c r="J26" s="371"/>
-      <c r="K26" s="373"/>
+      <c r="J26" s="414"/>
+      <c r="K26" s="416"/>
       <c r="L26" s="108" t="s">
         <v>333</v>
       </c>
@@ -20332,30 +20393,30 @@
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="33"/>
-      <c r="D27" s="374"/>
-      <c r="E27" s="361"/>
-      <c r="F27" s="361"/>
-      <c r="G27" s="361"/>
-      <c r="H27" s="375"/>
-      <c r="I27" s="379"/>
-      <c r="J27" s="374"/>
-      <c r="K27" s="375"/>
-      <c r="L27" s="370" t="s">
+      <c r="D27" s="417"/>
+      <c r="E27" s="402"/>
+      <c r="F27" s="402"/>
+      <c r="G27" s="402"/>
+      <c r="H27" s="418"/>
+      <c r="I27" s="422"/>
+      <c r="J27" s="417"/>
+      <c r="K27" s="418"/>
+      <c r="L27" s="411" t="s">
         <v>337</v>
       </c>
-      <c r="M27" s="370"/>
-      <c r="N27" s="370"/>
+      <c r="M27" s="411"/>
+      <c r="N27" s="411"/>
     </row>
     <row r="28" spans="3:14">
       <c r="C28" s="33"/>
-      <c r="D28" s="374"/>
-      <c r="E28" s="361"/>
-      <c r="F28" s="361"/>
-      <c r="G28" s="361"/>
-      <c r="H28" s="375"/>
-      <c r="I28" s="379"/>
-      <c r="J28" s="374"/>
-      <c r="K28" s="375"/>
+      <c r="D28" s="417"/>
+      <c r="E28" s="402"/>
+      <c r="F28" s="402"/>
+      <c r="G28" s="402"/>
+      <c r="H28" s="418"/>
+      <c r="I28" s="422"/>
+      <c r="J28" s="417"/>
+      <c r="K28" s="418"/>
       <c r="L28" s="109" t="s">
         <v>332</v>
       </c>
@@ -20364,14 +20425,14 @@
     </row>
     <row r="29" spans="3:14">
       <c r="C29" s="33"/>
-      <c r="D29" s="376"/>
-      <c r="E29" s="354"/>
-      <c r="F29" s="354"/>
-      <c r="G29" s="354"/>
-      <c r="H29" s="377"/>
-      <c r="I29" s="380"/>
-      <c r="J29" s="376"/>
-      <c r="K29" s="377"/>
+      <c r="D29" s="419"/>
+      <c r="E29" s="395"/>
+      <c r="F29" s="395"/>
+      <c r="G29" s="395"/>
+      <c r="H29" s="420"/>
+      <c r="I29" s="423"/>
+      <c r="J29" s="419"/>
+      <c r="K29" s="420"/>
       <c r="L29" s="110" t="s">
         <v>338</v>
       </c>
@@ -20419,13 +20480,13 @@
       <c r="C33" s="107">
         <v>43908</v>
       </c>
-      <c r="D33" s="370" t="s">
+      <c r="D33" s="411" t="s">
         <v>328</v>
       </c>
-      <c r="E33" s="370"/>
-      <c r="F33" s="370"/>
-      <c r="G33" s="370"/>
-      <c r="H33" s="370"/>
+      <c r="E33" s="411"/>
+      <c r="F33" s="411"/>
+      <c r="G33" s="411"/>
+      <c r="H33" s="411"/>
       <c r="I33" s="33" t="s">
         <v>329</v>
       </c>
@@ -20436,33 +20497,33 @@
       <c r="N33" s="33"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="C34" s="381">
+      <c r="C34" s="413">
         <v>43909</v>
       </c>
-      <c r="D34" s="370"/>
-      <c r="E34" s="370"/>
-      <c r="F34" s="370"/>
-      <c r="G34" s="370"/>
-      <c r="H34" s="370"/>
-      <c r="I34" s="382"/>
-      <c r="J34" s="370"/>
-      <c r="K34" s="370"/>
-      <c r="L34" s="370" t="s">
+      <c r="D34" s="411"/>
+      <c r="E34" s="411"/>
+      <c r="F34" s="411"/>
+      <c r="G34" s="411"/>
+      <c r="H34" s="411"/>
+      <c r="I34" s="424"/>
+      <c r="J34" s="411"/>
+      <c r="K34" s="411"/>
+      <c r="L34" s="411" t="s">
         <v>331</v>
       </c>
-      <c r="M34" s="370"/>
-      <c r="N34" s="370"/>
+      <c r="M34" s="411"/>
+      <c r="N34" s="411"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="C35" s="381"/>
-      <c r="D35" s="370"/>
-      <c r="E35" s="370"/>
-      <c r="F35" s="370"/>
-      <c r="G35" s="370"/>
-      <c r="H35" s="370"/>
-      <c r="I35" s="383"/>
-      <c r="J35" s="370"/>
-      <c r="K35" s="370"/>
+      <c r="C35" s="413"/>
+      <c r="D35" s="411"/>
+      <c r="E35" s="411"/>
+      <c r="F35" s="411"/>
+      <c r="G35" s="411"/>
+      <c r="H35" s="411"/>
+      <c r="I35" s="425"/>
+      <c r="J35" s="411"/>
+      <c r="K35" s="411"/>
       <c r="L35" s="108" t="s">
         <v>333</v>
       </c>
@@ -20470,31 +20531,31 @@
       <c r="N35" s="33"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="C36" s="381"/>
-      <c r="D36" s="370"/>
-      <c r="E36" s="370"/>
-      <c r="F36" s="370"/>
-      <c r="G36" s="370"/>
-      <c r="H36" s="370"/>
-      <c r="I36" s="383"/>
-      <c r="J36" s="370"/>
-      <c r="K36" s="370"/>
-      <c r="L36" s="370" t="s">
+      <c r="C36" s="413"/>
+      <c r="D36" s="411"/>
+      <c r="E36" s="411"/>
+      <c r="F36" s="411"/>
+      <c r="G36" s="411"/>
+      <c r="H36" s="411"/>
+      <c r="I36" s="425"/>
+      <c r="J36" s="411"/>
+      <c r="K36" s="411"/>
+      <c r="L36" s="411" t="s">
         <v>334</v>
       </c>
-      <c r="M36" s="370"/>
-      <c r="N36" s="370"/>
+      <c r="M36" s="411"/>
+      <c r="N36" s="411"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="C37" s="381"/>
-      <c r="D37" s="370"/>
-      <c r="E37" s="370"/>
-      <c r="F37" s="370"/>
-      <c r="G37" s="370"/>
-      <c r="H37" s="370"/>
-      <c r="I37" s="384"/>
-      <c r="J37" s="370"/>
-      <c r="K37" s="370"/>
+      <c r="C37" s="413"/>
+      <c r="D37" s="411"/>
+      <c r="E37" s="411"/>
+      <c r="F37" s="411"/>
+      <c r="G37" s="411"/>
+      <c r="H37" s="411"/>
+      <c r="I37" s="426"/>
+      <c r="J37" s="411"/>
+      <c r="K37" s="411"/>
       <c r="L37" s="109" t="s">
         <v>339</v>
       </c>
@@ -20505,13 +20566,13 @@
       <c r="C38" s="107">
         <v>43910</v>
       </c>
-      <c r="D38" s="370" t="s">
+      <c r="D38" s="411" t="s">
         <v>335</v>
       </c>
-      <c r="E38" s="370"/>
-      <c r="F38" s="370"/>
-      <c r="G38" s="370"/>
-      <c r="H38" s="370"/>
+      <c r="E38" s="411"/>
+      <c r="F38" s="411"/>
+      <c r="G38" s="411"/>
+      <c r="H38" s="411"/>
       <c r="I38" s="33" t="s">
         <v>336</v>
       </c>
@@ -20525,14 +20586,14 @@
       <c r="C39" s="107">
         <v>43911</v>
       </c>
-      <c r="D39" s="371"/>
-      <c r="E39" s="372"/>
-      <c r="F39" s="372"/>
-      <c r="G39" s="372"/>
-      <c r="H39" s="373"/>
-      <c r="I39" s="378"/>
-      <c r="J39" s="371"/>
-      <c r="K39" s="373"/>
+      <c r="D39" s="414"/>
+      <c r="E39" s="415"/>
+      <c r="F39" s="415"/>
+      <c r="G39" s="415"/>
+      <c r="H39" s="416"/>
+      <c r="I39" s="421"/>
+      <c r="J39" s="414"/>
+      <c r="K39" s="416"/>
       <c r="L39" s="108" t="s">
         <v>333</v>
       </c>
@@ -20541,30 +20602,30 @@
     </row>
     <row r="40" spans="1:14">
       <c r="C40" s="33"/>
-      <c r="D40" s="374"/>
-      <c r="E40" s="361"/>
-      <c r="F40" s="361"/>
-      <c r="G40" s="361"/>
-      <c r="H40" s="375"/>
-      <c r="I40" s="379"/>
-      <c r="J40" s="374"/>
-      <c r="K40" s="375"/>
-      <c r="L40" s="370" t="s">
+      <c r="D40" s="417"/>
+      <c r="E40" s="402"/>
+      <c r="F40" s="402"/>
+      <c r="G40" s="402"/>
+      <c r="H40" s="418"/>
+      <c r="I40" s="422"/>
+      <c r="J40" s="417"/>
+      <c r="K40" s="418"/>
+      <c r="L40" s="411" t="s">
         <v>337</v>
       </c>
-      <c r="M40" s="370"/>
-      <c r="N40" s="370"/>
+      <c r="M40" s="411"/>
+      <c r="N40" s="411"/>
     </row>
     <row r="41" spans="1:14">
       <c r="C41" s="33"/>
-      <c r="D41" s="374"/>
-      <c r="E41" s="361"/>
-      <c r="F41" s="361"/>
-      <c r="G41" s="361"/>
-      <c r="H41" s="375"/>
-      <c r="I41" s="380"/>
-      <c r="J41" s="374"/>
-      <c r="K41" s="375"/>
+      <c r="D41" s="417"/>
+      <c r="E41" s="402"/>
+      <c r="F41" s="402"/>
+      <c r="G41" s="402"/>
+      <c r="H41" s="418"/>
+      <c r="I41" s="423"/>
+      <c r="J41" s="417"/>
+      <c r="K41" s="418"/>
       <c r="L41" s="109" t="s">
         <v>339</v>
       </c>
@@ -20573,16 +20634,16 @@
     </row>
     <row r="42" spans="1:14">
       <c r="C42" s="33"/>
-      <c r="D42" s="376"/>
-      <c r="E42" s="354"/>
-      <c r="F42" s="354"/>
-      <c r="G42" s="354"/>
-      <c r="H42" s="377"/>
+      <c r="D42" s="419"/>
+      <c r="E42" s="395"/>
+      <c r="F42" s="395"/>
+      <c r="G42" s="395"/>
+      <c r="H42" s="420"/>
       <c r="I42" s="33" t="s">
         <v>330</v>
       </c>
-      <c r="J42" s="376"/>
-      <c r="K42" s="377"/>
+      <c r="J42" s="419"/>
+      <c r="K42" s="420"/>
       <c r="L42" s="110" t="s">
         <v>338</v>
       </c>
@@ -20894,12 +20955,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H42"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="J39:K42"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:H37"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="J34:K37"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="L36:N36"/>
     <mergeCell ref="C21:C24"/>
     <mergeCell ref="D21:H24"/>
     <mergeCell ref="J21:K24"/>
@@ -20907,17 +20973,12 @@
     <mergeCell ref="D26:H29"/>
     <mergeCell ref="I26:I29"/>
     <mergeCell ref="J26:K29"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:H37"/>
-    <mergeCell ref="I34:I37"/>
-    <mergeCell ref="J34:K37"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H42"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="J39:K42"/>
-    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="L27:N27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20939,29 +21000,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="21">
-      <c r="B2" s="404" t="s">
+      <c r="B2" s="437" t="s">
         <v>824</v>
       </c>
-      <c r="C2" s="404"/>
-      <c r="D2" s="404"/>
-      <c r="E2" s="404"/>
-      <c r="F2" s="404"/>
-      <c r="G2" s="404"/>
-      <c r="H2" s="404"/>
-      <c r="I2" s="404"/>
-      <c r="J2" s="404"/>
-      <c r="K2" s="404"/>
-      <c r="L2" s="404"/>
-      <c r="M2" s="404"/>
-      <c r="N2" s="404"/>
-      <c r="O2" s="404"/>
-      <c r="P2" s="404"/>
-      <c r="Q2" s="404"/>
-      <c r="R2" s="404"/>
-      <c r="S2" s="404"/>
-      <c r="T2" s="404"/>
-      <c r="U2" s="404"/>
-      <c r="V2" s="404"/>
+      <c r="C2" s="437"/>
+      <c r="D2" s="437"/>
+      <c r="E2" s="437"/>
+      <c r="F2" s="437"/>
+      <c r="G2" s="437"/>
+      <c r="H2" s="437"/>
+      <c r="I2" s="437"/>
+      <c r="J2" s="437"/>
+      <c r="K2" s="437"/>
+      <c r="L2" s="437"/>
+      <c r="M2" s="437"/>
+      <c r="N2" s="437"/>
+      <c r="O2" s="437"/>
+      <c r="P2" s="437"/>
+      <c r="Q2" s="437"/>
+      <c r="R2" s="437"/>
+      <c r="S2" s="437"/>
+      <c r="T2" s="437"/>
+      <c r="U2" s="437"/>
+      <c r="V2" s="437"/>
     </row>
     <row r="3" spans="2:22" ht="15.75" thickBot="1"/>
     <row r="4" spans="2:22">
@@ -20994,22 +21055,22 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="385" t="s">
+      <c r="G5" s="441" t="s">
         <v>360</v>
       </c>
-      <c r="H5" s="385"/>
-      <c r="I5" s="385" t="s">
+      <c r="H5" s="441"/>
+      <c r="I5" s="441" t="s">
         <v>361</v>
       </c>
-      <c r="J5" s="385"/>
-      <c r="K5" s="385"/>
-      <c r="L5" s="385"/>
-      <c r="M5" s="385"/>
-      <c r="N5" s="385"/>
-      <c r="O5" s="385" t="s">
+      <c r="J5" s="441"/>
+      <c r="K5" s="441"/>
+      <c r="L5" s="441"/>
+      <c r="M5" s="441"/>
+      <c r="N5" s="441"/>
+      <c r="O5" s="441" t="s">
         <v>362</v>
       </c>
-      <c r="P5" s="385"/>
+      <c r="P5" s="441"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
@@ -21021,7 +21082,7 @@
       <c r="D6" s="124"/>
       <c r="E6" s="125"/>
       <c r="F6" s="127"/>
-      <c r="G6" s="386" t="s">
+      <c r="G6" s="446" t="s">
         <v>363</v>
       </c>
       <c r="H6" s="102"/>
@@ -21050,26 +21111,26 @@
       </c>
       <c r="E7" s="127"/>
       <c r="F7" s="127"/>
-      <c r="G7" s="309"/>
-      <c r="H7" s="387" t="s">
+      <c r="G7" s="366"/>
+      <c r="H7" s="447" t="s">
         <v>365</v>
       </c>
-      <c r="I7" s="390" t="s">
+      <c r="I7" s="450" t="s">
         <v>366</v>
       </c>
-      <c r="J7" s="391"/>
-      <c r="K7" s="392" t="s">
+      <c r="J7" s="451"/>
+      <c r="K7" s="452" t="s">
         <v>367</v>
       </c>
-      <c r="L7" s="393"/>
-      <c r="M7" s="390" t="s">
+      <c r="L7" s="453"/>
+      <c r="M7" s="450" t="s">
         <v>368</v>
       </c>
-      <c r="N7" s="391"/>
-      <c r="O7" s="398" t="s">
+      <c r="N7" s="451"/>
+      <c r="O7" s="457" t="s">
         <v>369</v>
       </c>
-      <c r="P7" s="399"/>
+      <c r="P7" s="458"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
@@ -21081,16 +21142,16 @@
       <c r="D8" s="128"/>
       <c r="E8" s="129"/>
       <c r="F8" s="127"/>
-      <c r="G8" s="309"/>
-      <c r="H8" s="388"/>
-      <c r="I8" s="306"/>
-      <c r="J8" s="307"/>
-      <c r="K8" s="394"/>
-      <c r="L8" s="395"/>
-      <c r="M8" s="306"/>
-      <c r="N8" s="307"/>
-      <c r="O8" s="400"/>
-      <c r="P8" s="401"/>
+      <c r="G8" s="366"/>
+      <c r="H8" s="448"/>
+      <c r="I8" s="354"/>
+      <c r="J8" s="356"/>
+      <c r="K8" s="344"/>
+      <c r="L8" s="454"/>
+      <c r="M8" s="354"/>
+      <c r="N8" s="356"/>
+      <c r="O8" s="459"/>
+      <c r="P8" s="460"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="33" t="s">
         <v>82</v>
@@ -21108,16 +21169,16 @@
       <c r="D9" s="4"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="309"/>
-      <c r="H9" s="388"/>
-      <c r="I9" s="306"/>
-      <c r="J9" s="307"/>
-      <c r="K9" s="394"/>
-      <c r="L9" s="395"/>
-      <c r="M9" s="306"/>
-      <c r="N9" s="307"/>
-      <c r="O9" s="400"/>
-      <c r="P9" s="401"/>
+      <c r="G9" s="366"/>
+      <c r="H9" s="448"/>
+      <c r="I9" s="354"/>
+      <c r="J9" s="356"/>
+      <c r="K9" s="344"/>
+      <c r="L9" s="454"/>
+      <c r="M9" s="354"/>
+      <c r="N9" s="356"/>
+      <c r="O9" s="459"/>
+      <c r="P9" s="460"/>
       <c r="Q9" s="5" t="s">
         <v>2</v>
       </c>
@@ -21137,16 +21198,16 @@
       <c r="D10" s="1"/>
       <c r="E10" s="3"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="309"/>
-      <c r="H10" s="388"/>
-      <c r="I10" s="306"/>
-      <c r="J10" s="307"/>
-      <c r="K10" s="394"/>
-      <c r="L10" s="395"/>
-      <c r="M10" s="306"/>
-      <c r="N10" s="307"/>
-      <c r="O10" s="400"/>
-      <c r="P10" s="401"/>
+      <c r="G10" s="366"/>
+      <c r="H10" s="448"/>
+      <c r="I10" s="354"/>
+      <c r="J10" s="356"/>
+      <c r="K10" s="344"/>
+      <c r="L10" s="454"/>
+      <c r="M10" s="354"/>
+      <c r="N10" s="356"/>
+      <c r="O10" s="459"/>
+      <c r="P10" s="460"/>
       <c r="Q10" s="5" t="s">
         <v>87</v>
       </c>
@@ -21162,16 +21223,16 @@
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="309"/>
-      <c r="H11" s="388"/>
-      <c r="I11" s="306"/>
-      <c r="J11" s="307"/>
-      <c r="K11" s="394"/>
-      <c r="L11" s="395"/>
-      <c r="M11" s="306"/>
-      <c r="N11" s="307"/>
-      <c r="O11" s="400"/>
-      <c r="P11" s="401"/>
+      <c r="G11" s="366"/>
+      <c r="H11" s="448"/>
+      <c r="I11" s="354"/>
+      <c r="J11" s="356"/>
+      <c r="K11" s="344"/>
+      <c r="L11" s="454"/>
+      <c r="M11" s="354"/>
+      <c r="N11" s="356"/>
+      <c r="O11" s="459"/>
+      <c r="P11" s="460"/>
       <c r="Q11" s="5">
         <v>1000</v>
       </c>
@@ -21189,16 +21250,16 @@
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="309"/>
-      <c r="H12" s="388"/>
-      <c r="I12" s="306"/>
-      <c r="J12" s="307"/>
-      <c r="K12" s="394"/>
-      <c r="L12" s="395"/>
-      <c r="M12" s="306"/>
-      <c r="N12" s="307"/>
-      <c r="O12" s="400"/>
-      <c r="P12" s="401"/>
+      <c r="G12" s="366"/>
+      <c r="H12" s="448"/>
+      <c r="I12" s="354"/>
+      <c r="J12" s="356"/>
+      <c r="K12" s="344"/>
+      <c r="L12" s="454"/>
+      <c r="M12" s="354"/>
+      <c r="N12" s="356"/>
+      <c r="O12" s="459"/>
+      <c r="P12" s="460"/>
       <c r="Q12" s="5" t="s">
         <v>2</v>
       </c>
@@ -21212,16 +21273,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="309"/>
-      <c r="H13" s="388"/>
-      <c r="I13" s="306"/>
-      <c r="J13" s="307"/>
-      <c r="K13" s="394"/>
-      <c r="L13" s="395"/>
-      <c r="M13" s="306"/>
-      <c r="N13" s="307"/>
-      <c r="O13" s="400"/>
-      <c r="P13" s="401"/>
+      <c r="G13" s="366"/>
+      <c r="H13" s="448"/>
+      <c r="I13" s="354"/>
+      <c r="J13" s="356"/>
+      <c r="K13" s="344"/>
+      <c r="L13" s="454"/>
+      <c r="M13" s="354"/>
+      <c r="N13" s="356"/>
+      <c r="O13" s="459"/>
+      <c r="P13" s="460"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="33"/>
       <c r="S13" s="33"/>
@@ -21233,16 +21294,16 @@
       <c r="D14" s="1"/>
       <c r="E14" s="3"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="309"/>
-      <c r="H14" s="388"/>
-      <c r="I14" s="306"/>
-      <c r="J14" s="307"/>
-      <c r="K14" s="394"/>
-      <c r="L14" s="395"/>
-      <c r="M14" s="306"/>
-      <c r="N14" s="307"/>
-      <c r="O14" s="400"/>
-      <c r="P14" s="401"/>
+      <c r="G14" s="366"/>
+      <c r="H14" s="448"/>
+      <c r="I14" s="354"/>
+      <c r="J14" s="356"/>
+      <c r="K14" s="344"/>
+      <c r="L14" s="454"/>
+      <c r="M14" s="354"/>
+      <c r="N14" s="356"/>
+      <c r="O14" s="459"/>
+      <c r="P14" s="460"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="33"/>
       <c r="S14" s="33"/>
@@ -21256,16 +21317,16 @@
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="309"/>
-      <c r="H15" s="388"/>
-      <c r="I15" s="306"/>
-      <c r="J15" s="307"/>
-      <c r="K15" s="394"/>
-      <c r="L15" s="395"/>
-      <c r="M15" s="306"/>
-      <c r="N15" s="307"/>
-      <c r="O15" s="400"/>
-      <c r="P15" s="401"/>
+      <c r="G15" s="366"/>
+      <c r="H15" s="448"/>
+      <c r="I15" s="354"/>
+      <c r="J15" s="356"/>
+      <c r="K15" s="344"/>
+      <c r="L15" s="454"/>
+      <c r="M15" s="354"/>
+      <c r="N15" s="356"/>
+      <c r="O15" s="459"/>
+      <c r="P15" s="460"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
@@ -21277,16 +21338,16 @@
       <c r="D16" s="4"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="309"/>
-      <c r="H16" s="388"/>
-      <c r="I16" s="306"/>
-      <c r="J16" s="307"/>
-      <c r="K16" s="394"/>
-      <c r="L16" s="395"/>
-      <c r="M16" s="306"/>
-      <c r="N16" s="307"/>
-      <c r="O16" s="400"/>
-      <c r="P16" s="401"/>
+      <c r="G16" s="366"/>
+      <c r="H16" s="448"/>
+      <c r="I16" s="354"/>
+      <c r="J16" s="356"/>
+      <c r="K16" s="344"/>
+      <c r="L16" s="454"/>
+      <c r="M16" s="354"/>
+      <c r="N16" s="356"/>
+      <c r="O16" s="459"/>
+      <c r="P16" s="460"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
@@ -21298,16 +21359,16 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="309"/>
-      <c r="H17" s="388"/>
-      <c r="I17" s="306"/>
-      <c r="J17" s="307"/>
-      <c r="K17" s="394"/>
-      <c r="L17" s="395"/>
-      <c r="M17" s="306"/>
-      <c r="N17" s="307"/>
-      <c r="O17" s="400"/>
-      <c r="P17" s="401"/>
+      <c r="G17" s="366"/>
+      <c r="H17" s="448"/>
+      <c r="I17" s="354"/>
+      <c r="J17" s="356"/>
+      <c r="K17" s="344"/>
+      <c r="L17" s="454"/>
+      <c r="M17" s="354"/>
+      <c r="N17" s="356"/>
+      <c r="O17" s="459"/>
+      <c r="P17" s="460"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
@@ -21319,16 +21380,16 @@
       <c r="D18" s="4"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="309"/>
-      <c r="H18" s="388"/>
-      <c r="I18" s="306"/>
-      <c r="J18" s="307"/>
-      <c r="K18" s="394"/>
-      <c r="L18" s="395"/>
-      <c r="M18" s="306"/>
-      <c r="N18" s="307"/>
-      <c r="O18" s="400"/>
-      <c r="P18" s="401"/>
+      <c r="G18" s="366"/>
+      <c r="H18" s="448"/>
+      <c r="I18" s="354"/>
+      <c r="J18" s="356"/>
+      <c r="K18" s="344"/>
+      <c r="L18" s="454"/>
+      <c r="M18" s="354"/>
+      <c r="N18" s="356"/>
+      <c r="O18" s="459"/>
+      <c r="P18" s="460"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
@@ -21342,16 +21403,16 @@
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="309"/>
-      <c r="H19" s="388"/>
-      <c r="I19" s="306"/>
-      <c r="J19" s="307"/>
-      <c r="K19" s="394"/>
-      <c r="L19" s="395"/>
-      <c r="M19" s="306"/>
-      <c r="N19" s="307"/>
-      <c r="O19" s="400"/>
-      <c r="P19" s="401"/>
+      <c r="G19" s="366"/>
+      <c r="H19" s="448"/>
+      <c r="I19" s="354"/>
+      <c r="J19" s="356"/>
+      <c r="K19" s="344"/>
+      <c r="L19" s="454"/>
+      <c r="M19" s="354"/>
+      <c r="N19" s="356"/>
+      <c r="O19" s="459"/>
+      <c r="P19" s="460"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
@@ -21363,16 +21424,16 @@
       <c r="D20" s="8"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="310"/>
-      <c r="H20" s="389"/>
-      <c r="I20" s="328"/>
-      <c r="J20" s="330"/>
-      <c r="K20" s="396"/>
-      <c r="L20" s="397"/>
-      <c r="M20" s="328"/>
-      <c r="N20" s="330"/>
-      <c r="O20" s="402"/>
-      <c r="P20" s="403"/>
+      <c r="G20" s="367"/>
+      <c r="H20" s="449"/>
+      <c r="I20" s="357"/>
+      <c r="J20" s="359"/>
+      <c r="K20" s="455"/>
+      <c r="L20" s="456"/>
+      <c r="M20" s="357"/>
+      <c r="N20" s="359"/>
+      <c r="O20" s="461"/>
+      <c r="P20" s="462"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
@@ -21402,27 +21463,27 @@
     </row>
     <row r="22" spans="2:22" ht="15.75" thickBot="1">
       <c r="C22" s="4"/>
-      <c r="D22" s="331" t="s">
+      <c r="D22" s="360" t="s">
         <v>94</v>
       </c>
-      <c r="E22" s="332"/>
+      <c r="E22" s="361"/>
       <c r="F22" s="220"/>
       <c r="G22" s="101" t="s">
         <v>95</v>
       </c>
-      <c r="H22" s="331" t="s">
+      <c r="H22" s="360" t="s">
         <v>96</v>
       </c>
-      <c r="I22" s="333"/>
-      <c r="J22" s="333"/>
-      <c r="K22" s="333"/>
-      <c r="L22" s="333"/>
-      <c r="M22" s="333"/>
-      <c r="N22" s="332"/>
-      <c r="O22" s="331" t="s">
+      <c r="I22" s="362"/>
+      <c r="J22" s="362"/>
+      <c r="K22" s="362"/>
+      <c r="L22" s="362"/>
+      <c r="M22" s="362"/>
+      <c r="N22" s="361"/>
+      <c r="O22" s="360" t="s">
         <v>370</v>
       </c>
-      <c r="P22" s="332"/>
+      <c r="P22" s="361"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
@@ -21453,59 +21514,59 @@
       <c r="U23" s="9"/>
     </row>
     <row r="25" spans="2:22" ht="21">
-      <c r="B25" s="404" t="s">
+      <c r="B25" s="437" t="s">
         <v>823</v>
       </c>
-      <c r="C25" s="404"/>
-      <c r="D25" s="404"/>
-      <c r="E25" s="404"/>
-      <c r="F25" s="404"/>
-      <c r="G25" s="404"/>
-      <c r="H25" s="404"/>
-      <c r="I25" s="404"/>
-      <c r="J25" s="404"/>
-      <c r="K25" s="404"/>
-      <c r="L25" s="404"/>
-      <c r="M25" s="404"/>
-      <c r="N25" s="404"/>
-      <c r="O25" s="404"/>
-      <c r="P25" s="404"/>
-      <c r="Q25" s="404"/>
-      <c r="R25" s="404"/>
-      <c r="S25" s="404"/>
-      <c r="T25" s="404"/>
-      <c r="U25" s="404"/>
-      <c r="V25" s="404"/>
+      <c r="C25" s="437"/>
+      <c r="D25" s="437"/>
+      <c r="E25" s="437"/>
+      <c r="F25" s="437"/>
+      <c r="G25" s="437"/>
+      <c r="H25" s="437"/>
+      <c r="I25" s="437"/>
+      <c r="J25" s="437"/>
+      <c r="K25" s="437"/>
+      <c r="L25" s="437"/>
+      <c r="M25" s="437"/>
+      <c r="N25" s="437"/>
+      <c r="O25" s="437"/>
+      <c r="P25" s="437"/>
+      <c r="Q25" s="437"/>
+      <c r="R25" s="437"/>
+      <c r="S25" s="437"/>
+      <c r="T25" s="437"/>
+      <c r="U25" s="437"/>
+      <c r="V25" s="437"/>
     </row>
     <row r="26" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C26" s="405" t="s">
+      <c r="C26" s="438" t="s">
         <v>397</v>
       </c>
-      <c r="D26" s="405"/>
-      <c r="E26" s="405"/>
-      <c r="F26" s="405"/>
-      <c r="G26" s="405"/>
-      <c r="H26" s="405"/>
-      <c r="I26" s="405"/>
-      <c r="J26" s="405"/>
-      <c r="K26" s="405"/>
-      <c r="L26" s="405"/>
-      <c r="M26" s="405"/>
+      <c r="D26" s="438"/>
+      <c r="E26" s="438"/>
+      <c r="F26" s="438"/>
+      <c r="G26" s="438"/>
+      <c r="H26" s="438"/>
+      <c r="I26" s="438"/>
+      <c r="J26" s="438"/>
+      <c r="K26" s="438"/>
+      <c r="L26" s="438"/>
+      <c r="M26" s="438"/>
     </row>
     <row r="27" spans="2:22" ht="15.75" thickBot="1">
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="406" t="s">
+      <c r="E27" s="439" t="s">
         <v>78</v>
       </c>
-      <c r="F27" s="303"/>
-      <c r="G27" s="303"/>
-      <c r="H27" s="322"/>
-      <c r="I27" s="322"/>
-      <c r="J27" s="322"/>
-      <c r="K27" s="322"/>
-      <c r="L27" s="322"/>
-      <c r="M27" s="323"/>
+      <c r="F27" s="342"/>
+      <c r="G27" s="342"/>
+      <c r="H27" s="348"/>
+      <c r="I27" s="348"/>
+      <c r="J27" s="348"/>
+      <c r="K27" s="348"/>
+      <c r="L27" s="348"/>
+      <c r="M27" s="349"/>
     </row>
     <row r="28" spans="2:22">
       <c r="C28" s="4" t="s">
@@ -21538,11 +21599,11 @@
       <c r="K29" s="4"/>
       <c r="L29" s="5"/>
       <c r="M29" s="6"/>
-      <c r="O29" s="407" t="s">
+      <c r="O29" s="440" t="s">
         <v>79</v>
       </c>
-      <c r="P29" s="407"/>
-      <c r="Q29" s="407"/>
+      <c r="P29" s="440"/>
+      <c r="Q29" s="440"/>
     </row>
     <row r="30" spans="2:22" ht="15.75" thickBot="1">
       <c r="C30" s="4"/>
@@ -21587,21 +21648,21 @@
         <v>90</v>
       </c>
       <c r="D32" s="6"/>
-      <c r="E32" s="411" t="s">
+      <c r="E32" s="434" t="s">
         <v>827</v>
       </c>
-      <c r="F32" s="412"/>
-      <c r="G32" s="413"/>
-      <c r="H32" s="411" t="s">
+      <c r="F32" s="435"/>
+      <c r="G32" s="436"/>
+      <c r="H32" s="434" t="s">
         <v>828</v>
       </c>
-      <c r="I32" s="412"/>
-      <c r="J32" s="413"/>
-      <c r="K32" s="411" t="s">
+      <c r="I32" s="435"/>
+      <c r="J32" s="436"/>
+      <c r="K32" s="434" t="s">
         <v>829</v>
       </c>
-      <c r="L32" s="412"/>
-      <c r="M32" s="413"/>
+      <c r="L32" s="435"/>
+      <c r="M32" s="436"/>
       <c r="N32" s="5" t="s">
         <v>2</v>
       </c>
@@ -21618,15 +21679,15 @@
     <row r="33" spans="2:22">
       <c r="C33" s="4"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="411"/>
-      <c r="F33" s="412"/>
-      <c r="G33" s="413"/>
-      <c r="H33" s="411"/>
-      <c r="I33" s="412"/>
-      <c r="J33" s="413"/>
-      <c r="K33" s="411"/>
-      <c r="L33" s="412"/>
-      <c r="M33" s="413"/>
+      <c r="E33" s="434"/>
+      <c r="F33" s="435"/>
+      <c r="G33" s="436"/>
+      <c r="H33" s="434"/>
+      <c r="I33" s="435"/>
+      <c r="J33" s="436"/>
+      <c r="K33" s="434"/>
+      <c r="L33" s="435"/>
+      <c r="M33" s="436"/>
       <c r="N33" s="5" t="s">
         <v>87</v>
       </c>
@@ -21643,15 +21704,15 @@
     <row r="34" spans="2:22" ht="15.75" thickBot="1">
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="411"/>
-      <c r="F34" s="412"/>
-      <c r="G34" s="413"/>
-      <c r="H34" s="411"/>
-      <c r="I34" s="412"/>
-      <c r="J34" s="413"/>
-      <c r="K34" s="411"/>
-      <c r="L34" s="412"/>
-      <c r="M34" s="413"/>
+      <c r="E34" s="434"/>
+      <c r="F34" s="435"/>
+      <c r="G34" s="436"/>
+      <c r="H34" s="434"/>
+      <c r="I34" s="435"/>
+      <c r="J34" s="436"/>
+      <c r="K34" s="434"/>
+      <c r="L34" s="435"/>
+      <c r="M34" s="436"/>
       <c r="N34" s="5">
         <v>1000</v>
       </c>
@@ -21662,15 +21723,15 @@
     <row r="35" spans="2:22">
       <c r="C35" s="1"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="411"/>
-      <c r="F35" s="412"/>
-      <c r="G35" s="413"/>
-      <c r="H35" s="411"/>
-      <c r="I35" s="412"/>
-      <c r="J35" s="413"/>
-      <c r="K35" s="411"/>
-      <c r="L35" s="412"/>
-      <c r="M35" s="413"/>
+      <c r="E35" s="434"/>
+      <c r="F35" s="435"/>
+      <c r="G35" s="436"/>
+      <c r="H35" s="434"/>
+      <c r="I35" s="435"/>
+      <c r="J35" s="436"/>
+      <c r="K35" s="434"/>
+      <c r="L35" s="435"/>
+      <c r="M35" s="436"/>
       <c r="N35" s="5" t="s">
         <v>2</v>
       </c>
@@ -21801,15 +21862,15 @@
     <row r="42" spans="2:22" ht="19.5" thickBot="1">
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="415"/>
-      <c r="F42" s="416"/>
-      <c r="G42" s="416"/>
-      <c r="H42" s="416"/>
-      <c r="I42" s="416"/>
-      <c r="J42" s="416"/>
-      <c r="K42" s="416"/>
-      <c r="L42" s="416"/>
-      <c r="M42" s="417"/>
+      <c r="E42" s="427"/>
+      <c r="F42" s="428"/>
+      <c r="G42" s="428"/>
+      <c r="H42" s="428"/>
+      <c r="I42" s="428"/>
+      <c r="J42" s="428"/>
+      <c r="K42" s="428"/>
+      <c r="L42" s="428"/>
+      <c r="M42" s="429"/>
       <c r="N42" s="35" t="s">
         <v>402</v>
       </c>
@@ -21828,23 +21889,23 @@
       <c r="K43" s="5"/>
     </row>
     <row r="44" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C44" s="331" t="s">
+      <c r="C44" s="360" t="s">
         <v>94</v>
       </c>
-      <c r="D44" s="332"/>
-      <c r="E44" s="331" t="s">
+      <c r="D44" s="361"/>
+      <c r="E44" s="360" t="s">
         <v>95</v>
       </c>
-      <c r="F44" s="333"/>
-      <c r="G44" s="332"/>
-      <c r="H44" s="331" t="s">
+      <c r="F44" s="362"/>
+      <c r="G44" s="361"/>
+      <c r="H44" s="360" t="s">
         <v>96</v>
       </c>
-      <c r="I44" s="333"/>
-      <c r="J44" s="333"/>
-      <c r="K44" s="333"/>
-      <c r="L44" s="333"/>
-      <c r="M44" s="332"/>
+      <c r="I44" s="362"/>
+      <c r="J44" s="362"/>
+      <c r="K44" s="362"/>
+      <c r="L44" s="362"/>
+      <c r="M44" s="361"/>
       <c r="Q44" t="s">
         <v>826</v>
       </c>
@@ -21864,61 +21925,61 @@
       </c>
     </row>
     <row r="47" spans="2:22" ht="21">
-      <c r="B47" s="404" t="s">
+      <c r="B47" s="437" t="s">
         <v>825</v>
       </c>
-      <c r="C47" s="404"/>
-      <c r="D47" s="404"/>
-      <c r="E47" s="404"/>
-      <c r="F47" s="404"/>
-      <c r="G47" s="404"/>
-      <c r="H47" s="404"/>
-      <c r="I47" s="404"/>
-      <c r="J47" s="404"/>
-      <c r="K47" s="404"/>
-      <c r="L47" s="404"/>
-      <c r="M47" s="404"/>
-      <c r="N47" s="404"/>
-      <c r="O47" s="404"/>
-      <c r="P47" s="404"/>
-      <c r="Q47" s="404"/>
-      <c r="R47" s="404"/>
-      <c r="S47" s="404"/>
-      <c r="T47" s="404"/>
-      <c r="U47" s="404"/>
-      <c r="V47" s="404"/>
+      <c r="C47" s="437"/>
+      <c r="D47" s="437"/>
+      <c r="E47" s="437"/>
+      <c r="F47" s="437"/>
+      <c r="G47" s="437"/>
+      <c r="H47" s="437"/>
+      <c r="I47" s="437"/>
+      <c r="J47" s="437"/>
+      <c r="K47" s="437"/>
+      <c r="L47" s="437"/>
+      <c r="M47" s="437"/>
+      <c r="N47" s="437"/>
+      <c r="O47" s="437"/>
+      <c r="P47" s="437"/>
+      <c r="Q47" s="437"/>
+      <c r="R47" s="437"/>
+      <c r="S47" s="437"/>
+      <c r="T47" s="437"/>
+      <c r="U47" s="437"/>
+      <c r="V47" s="437"/>
     </row>
     <row r="48" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C48" s="405" t="s">
+      <c r="C48" s="438" t="s">
         <v>397</v>
       </c>
-      <c r="D48" s="405"/>
-      <c r="E48" s="405"/>
-      <c r="F48" s="405"/>
-      <c r="G48" s="405"/>
-      <c r="H48" s="405"/>
-      <c r="I48" s="405"/>
-      <c r="J48" s="405"/>
-      <c r="K48" s="405"/>
-      <c r="L48" s="405"/>
-      <c r="M48" s="405"/>
+      <c r="D48" s="438"/>
+      <c r="E48" s="438"/>
+      <c r="F48" s="438"/>
+      <c r="G48" s="438"/>
+      <c r="H48" s="438"/>
+      <c r="I48" s="438"/>
+      <c r="J48" s="438"/>
+      <c r="K48" s="438"/>
+      <c r="L48" s="438"/>
+      <c r="M48" s="438"/>
       <c r="S48" s="24"/>
       <c r="T48" s="24"/>
     </row>
     <row r="49" spans="1:24" ht="15.75" thickBot="1">
       <c r="C49" s="1"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="406" t="s">
+      <c r="E49" s="439" t="s">
         <v>78</v>
       </c>
-      <c r="F49" s="303"/>
-      <c r="G49" s="303"/>
-      <c r="H49" s="322"/>
-      <c r="I49" s="322"/>
-      <c r="J49" s="322"/>
-      <c r="K49" s="322"/>
-      <c r="L49" s="322"/>
-      <c r="M49" s="323"/>
+      <c r="F49" s="342"/>
+      <c r="G49" s="342"/>
+      <c r="H49" s="348"/>
+      <c r="I49" s="348"/>
+      <c r="J49" s="348"/>
+      <c r="K49" s="348"/>
+      <c r="L49" s="348"/>
+      <c r="M49" s="349"/>
       <c r="S49" s="24"/>
       <c r="T49" s="24"/>
       <c r="U49" s="18"/>
@@ -21938,16 +21999,16 @@
       <c r="G50" s="200" t="s">
         <v>1416</v>
       </c>
-      <c r="H50" s="408" t="s">
+      <c r="H50" s="442" t="s">
         <v>828</v>
       </c>
-      <c r="I50" s="409"/>
-      <c r="J50" s="410"/>
-      <c r="K50" s="408" t="s">
+      <c r="I50" s="443"/>
+      <c r="J50" s="444"/>
+      <c r="K50" s="442" t="s">
         <v>829</v>
       </c>
-      <c r="L50" s="409"/>
-      <c r="M50" s="410"/>
+      <c r="L50" s="443"/>
+      <c r="M50" s="444"/>
       <c r="S50" s="24"/>
       <c r="T50" s="24"/>
       <c r="W50" t="s">
@@ -21961,20 +22022,20 @@
         <v>843</v>
       </c>
       <c r="F51" s="241"/>
-      <c r="G51" s="414" t="s">
+      <c r="G51" s="445" t="s">
         <v>851</v>
       </c>
-      <c r="H51" s="411"/>
-      <c r="I51" s="412"/>
-      <c r="J51" s="413"/>
-      <c r="K51" s="411"/>
-      <c r="L51" s="412"/>
-      <c r="M51" s="413"/>
-      <c r="O51" s="407" t="s">
+      <c r="H51" s="434"/>
+      <c r="I51" s="435"/>
+      <c r="J51" s="436"/>
+      <c r="K51" s="434"/>
+      <c r="L51" s="435"/>
+      <c r="M51" s="436"/>
+      <c r="O51" s="440" t="s">
         <v>79</v>
       </c>
-      <c r="P51" s="407"/>
-      <c r="Q51" s="407"/>
+      <c r="P51" s="440"/>
+      <c r="Q51" s="440"/>
       <c r="S51" s="228"/>
       <c r="T51" s="228"/>
       <c r="W51" s="35" t="s">
@@ -21988,13 +22049,13 @@
         <v>844</v>
       </c>
       <c r="F52" s="242"/>
-      <c r="G52" s="414"/>
-      <c r="H52" s="411"/>
-      <c r="I52" s="412"/>
-      <c r="J52" s="413"/>
-      <c r="K52" s="411"/>
-      <c r="L52" s="412"/>
-      <c r="M52" s="413"/>
+      <c r="G52" s="445"/>
+      <c r="H52" s="434"/>
+      <c r="I52" s="435"/>
+      <c r="J52" s="436"/>
+      <c r="K52" s="434"/>
+      <c r="L52" s="435"/>
+      <c r="M52" s="436"/>
       <c r="S52" s="24"/>
       <c r="T52" s="24"/>
     </row>
@@ -22005,13 +22066,13 @@
         <v>845</v>
       </c>
       <c r="F53" s="243"/>
-      <c r="G53" s="414"/>
-      <c r="H53" s="411"/>
-      <c r="I53" s="412"/>
-      <c r="J53" s="413"/>
-      <c r="K53" s="411"/>
-      <c r="L53" s="412"/>
-      <c r="M53" s="413"/>
+      <c r="G53" s="445"/>
+      <c r="H53" s="434"/>
+      <c r="I53" s="435"/>
+      <c r="J53" s="436"/>
+      <c r="K53" s="434"/>
+      <c r="L53" s="435"/>
+      <c r="M53" s="436"/>
       <c r="N53" s="5"/>
       <c r="O53" s="33" t="s">
         <v>82</v>
@@ -22050,7 +22111,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="229"/>
       <c r="F54" s="244"/>
-      <c r="G54" s="420" t="s">
+      <c r="G54" s="432" t="s">
         <v>855</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -22097,11 +22158,11 @@
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="418" t="s">
+      <c r="E55" s="430" t="s">
         <v>856</v>
       </c>
-      <c r="F55" s="419"/>
-      <c r="G55" s="421"/>
+      <c r="F55" s="431"/>
+      <c r="G55" s="433"/>
       <c r="H55" s="130" t="s">
         <v>847</v>
       </c>
@@ -22145,9 +22206,9 @@
     <row r="56" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="C56" s="8"/>
       <c r="D56" s="9"/>
-      <c r="E56" s="418"/>
-      <c r="F56" s="419"/>
-      <c r="G56" s="421"/>
+      <c r="E56" s="430"/>
+      <c r="F56" s="431"/>
+      <c r="G56" s="433"/>
       <c r="H56" s="130" t="s">
         <v>848</v>
       </c>
@@ -22177,9 +22238,9 @@
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="418"/>
-      <c r="F57" s="419"/>
-      <c r="G57" s="421"/>
+      <c r="E57" s="430"/>
+      <c r="F57" s="431"/>
+      <c r="G57" s="433"/>
       <c r="H57" s="4" t="s">
         <v>860</v>
       </c>
@@ -22209,9 +22270,9 @@
         <v>92</v>
       </c>
       <c r="D58" s="6"/>
-      <c r="E58" s="418"/>
-      <c r="F58" s="419"/>
-      <c r="G58" s="421"/>
+      <c r="E58" s="430"/>
+      <c r="F58" s="431"/>
+      <c r="G58" s="433"/>
       <c r="H58" s="233" t="s">
         <v>846</v>
       </c>
@@ -22236,9 +22297,9 @@
     <row r="59" spans="1:24">
       <c r="C59" s="4"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="418"/>
-      <c r="F59" s="419"/>
-      <c r="G59" s="421"/>
+      <c r="E59" s="430"/>
+      <c r="F59" s="431"/>
+      <c r="G59" s="433"/>
       <c r="H59" s="233" t="s">
         <v>390</v>
       </c>
@@ -22263,9 +22324,9 @@
     <row r="60" spans="1:24" ht="15.75" thickBot="1">
       <c r="C60" s="8"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="418"/>
-      <c r="F60" s="419"/>
-      <c r="G60" s="421"/>
+      <c r="E60" s="430"/>
+      <c r="F60" s="431"/>
+      <c r="G60" s="433"/>
       <c r="H60" s="235"/>
       <c r="I60" s="236" t="s">
         <v>862</v>
@@ -22285,9 +22346,9 @@
     <row r="61" spans="1:24">
       <c r="C61" s="4"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="418"/>
-      <c r="F61" s="419"/>
-      <c r="G61" s="421"/>
+      <c r="E61" s="430"/>
+      <c r="F61" s="431"/>
+      <c r="G61" s="433"/>
       <c r="H61" s="235"/>
       <c r="I61" s="236" t="s">
         <v>863</v>
@@ -22307,7 +22368,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="224"/>
       <c r="F62" s="240"/>
-      <c r="G62" s="421"/>
+      <c r="G62" s="433"/>
       <c r="H62" s="237"/>
       <c r="I62" s="239" t="s">
         <v>864</v>
@@ -22349,17 +22410,17 @@
     <row r="64" spans="1:24" ht="19.5" thickBot="1">
       <c r="C64" s="8"/>
       <c r="D64" s="9"/>
-      <c r="E64" s="415" t="s">
+      <c r="E64" s="427" t="s">
         <v>1417</v>
       </c>
-      <c r="F64" s="416"/>
-      <c r="G64" s="416"/>
-      <c r="H64" s="416"/>
-      <c r="I64" s="416"/>
-      <c r="J64" s="416"/>
-      <c r="K64" s="416"/>
-      <c r="L64" s="416"/>
-      <c r="M64" s="417"/>
+      <c r="F64" s="428"/>
+      <c r="G64" s="428"/>
+      <c r="H64" s="428"/>
+      <c r="I64" s="428"/>
+      <c r="J64" s="428"/>
+      <c r="K64" s="428"/>
+      <c r="L64" s="428"/>
+      <c r="M64" s="429"/>
       <c r="N64" s="35" t="s">
         <v>402</v>
       </c>
@@ -22388,23 +22449,23 @@
       </c>
     </row>
     <row r="66" spans="2:24" ht="15.75" thickBot="1">
-      <c r="C66" s="331" t="s">
+      <c r="C66" s="360" t="s">
         <v>94</v>
       </c>
-      <c r="D66" s="332"/>
-      <c r="E66" s="331" t="s">
+      <c r="D66" s="361"/>
+      <c r="E66" s="360" t="s">
         <v>95</v>
       </c>
-      <c r="F66" s="333"/>
-      <c r="G66" s="332"/>
-      <c r="H66" s="331" t="s">
+      <c r="F66" s="362"/>
+      <c r="G66" s="361"/>
+      <c r="H66" s="360" t="s">
         <v>96</v>
       </c>
-      <c r="I66" s="333"/>
-      <c r="J66" s="333"/>
-      <c r="K66" s="333"/>
-      <c r="L66" s="333"/>
-      <c r="M66" s="332"/>
+      <c r="I66" s="362"/>
+      <c r="J66" s="362"/>
+      <c r="K66" s="362"/>
+      <c r="L66" s="362"/>
+      <c r="M66" s="361"/>
       <c r="Q66" t="s">
         <v>826</v>
       </c>
@@ -22425,23 +22486,23 @@
       </c>
     </row>
     <row r="68" spans="2:24">
-      <c r="C68" s="370" t="s">
+      <c r="C68" s="411" t="s">
         <v>81</v>
       </c>
-      <c r="D68" s="370"/>
-      <c r="E68" s="370" t="s">
+      <c r="D68" s="411"/>
+      <c r="E68" s="411" t="s">
         <v>1076</v>
       </c>
-      <c r="F68" s="370"/>
-      <c r="G68" s="370"/>
-      <c r="H68" s="370" t="s">
+      <c r="F68" s="411"/>
+      <c r="G68" s="411"/>
+      <c r="H68" s="411" t="s">
         <v>1092</v>
       </c>
-      <c r="I68" s="370"/>
-      <c r="J68" s="370"/>
-      <c r="K68" s="370"/>
-      <c r="L68" s="370"/>
-      <c r="M68" s="370"/>
+      <c r="I68" s="411"/>
+      <c r="J68" s="411"/>
+      <c r="K68" s="411"/>
+      <c r="L68" s="411"/>
+      <c r="M68" s="411"/>
       <c r="S68" s="24"/>
       <c r="T68" s="24"/>
       <c r="U68" s="2" t="s">
@@ -23238,30 +23299,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E64:M64"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:M66"/>
-    <mergeCell ref="E55:F61"/>
-    <mergeCell ref="G54:G62"/>
-    <mergeCell ref="E32:G35"/>
-    <mergeCell ref="H32:J35"/>
-    <mergeCell ref="K32:M35"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="H22:N22"/>
-    <mergeCell ref="B2:V2"/>
-    <mergeCell ref="B25:V25"/>
-    <mergeCell ref="C26:M26"/>
-    <mergeCell ref="E27:M27"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="K50:M53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="E42:M42"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:M44"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="E68:G68"/>
     <mergeCell ref="H68:M68"/>
@@ -23278,6 +23315,30 @@
     <mergeCell ref="E49:M49"/>
     <mergeCell ref="O51:Q51"/>
     <mergeCell ref="H50:J53"/>
+    <mergeCell ref="K50:M53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="E42:M42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:M44"/>
+    <mergeCell ref="B2:V2"/>
+    <mergeCell ref="B25:V25"/>
+    <mergeCell ref="C26:M26"/>
+    <mergeCell ref="E27:M27"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="E32:G35"/>
+    <mergeCell ref="H32:J35"/>
+    <mergeCell ref="K32:M35"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="E64:M64"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:M66"/>
+    <mergeCell ref="E55:F61"/>
+    <mergeCell ref="G54:G62"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="T9" r:id="rId1"/>
@@ -23311,12 +23372,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13">
-      <c r="B1" s="422" t="s">
+      <c r="B1" s="463" t="s">
         <v>380</v>
       </c>
-      <c r="C1" s="422"/>
-      <c r="D1" s="422"/>
-      <c r="E1" s="422"/>
+      <c r="C1" s="463"/>
+      <c r="D1" s="463"/>
+      <c r="E1" s="463"/>
       <c r="I1" s="299" t="s">
         <v>1448</v>
       </c>
@@ -23445,10 +23506,10 @@
       <c r="L7" s="297"/>
     </row>
     <row r="8" spans="2:13">
-      <c r="B8" s="361"/>
-      <c r="C8" s="361"/>
-      <c r="D8" s="361"/>
-      <c r="E8" s="361"/>
+      <c r="B8" s="402"/>
+      <c r="C8" s="402"/>
+      <c r="D8" s="402"/>
+      <c r="E8" s="402"/>
       <c r="G8" t="s">
         <v>1456</v>
       </c>
@@ -23543,11 +23604,11 @@
     </row>
     <row r="24" spans="2:18" ht="15.75" thickBot="1"/>
     <row r="25" spans="2:18">
-      <c r="B25" s="423" t="s">
+      <c r="B25" s="464" t="s">
         <v>1446</v>
       </c>
-      <c r="C25" s="424"/>
-      <c r="D25" s="424"/>
+      <c r="C25" s="465"/>
+      <c r="D25" s="465"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -24055,32 +24116,32 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:17" ht="15.75" thickBot="1">
-      <c r="C2" s="405" t="s">
+      <c r="C2" s="438" t="s">
         <v>397</v>
       </c>
-      <c r="D2" s="405"/>
-      <c r="E2" s="405"/>
-      <c r="F2" s="405"/>
-      <c r="G2" s="405"/>
-      <c r="H2" s="405"/>
-      <c r="I2" s="405"/>
-      <c r="J2" s="405"/>
-      <c r="K2" s="405"/>
-      <c r="L2" s="405"/>
+      <c r="D2" s="438"/>
+      <c r="E2" s="438"/>
+      <c r="F2" s="438"/>
+      <c r="G2" s="438"/>
+      <c r="H2" s="438"/>
+      <c r="I2" s="438"/>
+      <c r="J2" s="438"/>
+      <c r="K2" s="438"/>
+      <c r="L2" s="438"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1">
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="406" t="s">
+      <c r="E3" s="439" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="303"/>
-      <c r="G3" s="322"/>
-      <c r="H3" s="322"/>
-      <c r="I3" s="322"/>
-      <c r="J3" s="322"/>
-      <c r="K3" s="322"/>
-      <c r="L3" s="323"/>
+      <c r="F3" s="342"/>
+      <c r="G3" s="348"/>
+      <c r="H3" s="348"/>
+      <c r="I3" s="348"/>
+      <c r="J3" s="348"/>
+      <c r="K3" s="348"/>
+      <c r="L3" s="349"/>
     </row>
     <row r="4" spans="1:17">
       <c r="C4" s="4" t="s">
@@ -24111,11 +24172,11 @@
         <v>407</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="N5" s="407" t="s">
+      <c r="N5" s="440" t="s">
         <v>79</v>
       </c>
-      <c r="O5" s="407"/>
-      <c r="P5" s="407"/>
+      <c r="O5" s="440"/>
+      <c r="P5" s="440"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1">
       <c r="A6" t="s">
@@ -24175,20 +24236,20 @@
         <v>90</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="411" t="s">
+      <c r="E8" s="434" t="s">
         <v>398</v>
       </c>
-      <c r="F8" s="413"/>
-      <c r="G8" s="411" t="s">
+      <c r="F8" s="436"/>
+      <c r="G8" s="434" t="s">
         <v>399</v>
       </c>
-      <c r="H8" s="412"/>
-      <c r="I8" s="413"/>
-      <c r="J8" s="411" t="s">
+      <c r="H8" s="435"/>
+      <c r="I8" s="436"/>
+      <c r="J8" s="434" t="s">
         <v>400</v>
       </c>
-      <c r="K8" s="412"/>
-      <c r="L8" s="413"/>
+      <c r="K8" s="435"/>
+      <c r="L8" s="436"/>
       <c r="M8" s="5" t="s">
         <v>2</v>
       </c>
@@ -24211,14 +24272,14 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="411"/>
-      <c r="F9" s="413"/>
-      <c r="G9" s="411"/>
-      <c r="H9" s="412"/>
-      <c r="I9" s="413"/>
-      <c r="J9" s="411"/>
-      <c r="K9" s="412"/>
-      <c r="L9" s="413"/>
+      <c r="E9" s="434"/>
+      <c r="F9" s="436"/>
+      <c r="G9" s="434"/>
+      <c r="H9" s="435"/>
+      <c r="I9" s="436"/>
+      <c r="J9" s="434"/>
+      <c r="K9" s="435"/>
+      <c r="L9" s="436"/>
       <c r="M9" s="5" t="s">
         <v>87</v>
       </c>
@@ -24235,14 +24296,14 @@
     <row r="10" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="411"/>
-      <c r="F10" s="413"/>
-      <c r="G10" s="411"/>
-      <c r="H10" s="412"/>
-      <c r="I10" s="413"/>
-      <c r="J10" s="411"/>
-      <c r="K10" s="412"/>
-      <c r="L10" s="413"/>
+      <c r="E10" s="434"/>
+      <c r="F10" s="436"/>
+      <c r="G10" s="434"/>
+      <c r="H10" s="435"/>
+      <c r="I10" s="436"/>
+      <c r="J10" s="434"/>
+      <c r="K10" s="435"/>
+      <c r="L10" s="436"/>
       <c r="M10" s="5">
         <v>1000</v>
       </c>
@@ -24256,14 +24317,14 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="411"/>
-      <c r="F11" s="413"/>
-      <c r="G11" s="411"/>
-      <c r="H11" s="412"/>
-      <c r="I11" s="413"/>
-      <c r="J11" s="411"/>
-      <c r="K11" s="412"/>
-      <c r="L11" s="413"/>
+      <c r="E11" s="434"/>
+      <c r="F11" s="436"/>
+      <c r="G11" s="434"/>
+      <c r="H11" s="435"/>
+      <c r="I11" s="436"/>
+      <c r="J11" s="434"/>
+      <c r="K11" s="435"/>
+      <c r="L11" s="436"/>
       <c r="M11" s="5" t="s">
         <v>2</v>
       </c>
@@ -24387,16 +24448,16 @@
     <row r="17" spans="2:18" ht="19.5" thickBot="1">
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="415" t="s">
+      <c r="E17" s="427" t="s">
         <v>401</v>
       </c>
-      <c r="F17" s="416"/>
-      <c r="G17" s="416"/>
-      <c r="H17" s="416"/>
-      <c r="I17" s="416"/>
-      <c r="J17" s="416"/>
-      <c r="K17" s="416"/>
-      <c r="L17" s="417"/>
+      <c r="F17" s="428"/>
+      <c r="G17" s="428"/>
+      <c r="H17" s="428"/>
+      <c r="I17" s="428"/>
+      <c r="J17" s="428"/>
+      <c r="K17" s="428"/>
+      <c r="L17" s="429"/>
       <c r="M17" s="35" t="s">
         <v>402</v>
       </c>
@@ -24426,40 +24487,40 @@
       </c>
     </row>
     <row r="19" spans="2:18" ht="15.75" thickBot="1">
-      <c r="C19" s="331" t="s">
+      <c r="C19" s="360" t="s">
         <v>94</v>
       </c>
-      <c r="D19" s="332"/>
-      <c r="E19" s="331" t="s">
+      <c r="D19" s="361"/>
+      <c r="E19" s="360" t="s">
         <v>95</v>
       </c>
-      <c r="F19" s="332"/>
-      <c r="G19" s="331" t="s">
+      <c r="F19" s="361"/>
+      <c r="G19" s="360" t="s">
         <v>96</v>
       </c>
-      <c r="H19" s="333"/>
-      <c r="I19" s="333"/>
-      <c r="J19" s="333"/>
-      <c r="K19" s="333"/>
-      <c r="L19" s="332"/>
+      <c r="H19" s="362"/>
+      <c r="I19" s="362"/>
+      <c r="J19" s="362"/>
+      <c r="K19" s="362"/>
+      <c r="L19" s="361"/>
     </row>
     <row r="20" spans="2:18" ht="15.75" thickBot="1"/>
     <row r="21" spans="2:18" ht="15" customHeight="1">
-      <c r="E21" s="425" t="s">
+      <c r="E21" s="466" t="s">
         <v>1105</v>
       </c>
-      <c r="F21" s="426"/>
+      <c r="F21" s="467"/>
     </row>
     <row r="22" spans="2:18">
-      <c r="E22" s="427"/>
-      <c r="F22" s="428"/>
+      <c r="E22" s="468"/>
+      <c r="F22" s="469"/>
       <c r="J22" t="s">
         <v>1110</v>
       </c>
     </row>
     <row r="23" spans="2:18">
-      <c r="E23" s="427"/>
-      <c r="F23" s="428"/>
+      <c r="E23" s="468"/>
+      <c r="F23" s="469"/>
       <c r="H23" t="s">
         <v>1113</v>
       </c>
@@ -24471,8 +24532,8 @@
       </c>
     </row>
     <row r="24" spans="2:18" ht="15.75" thickBot="1">
-      <c r="E24" s="429"/>
-      <c r="F24" s="430"/>
+      <c r="E24" s="470"/>
+      <c r="F24" s="471"/>
     </row>
     <row r="25" spans="2:18" ht="15.75" thickBot="1"/>
     <row r="26" spans="2:18" ht="15.75" thickBot="1">
@@ -25967,22 +26028,22 @@
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="385" t="s">
+      <c r="E3" s="441" t="s">
         <v>360</v>
       </c>
-      <c r="F3" s="385"/>
-      <c r="G3" s="385" t="s">
+      <c r="F3" s="441"/>
+      <c r="G3" s="441" t="s">
         <v>361</v>
       </c>
-      <c r="H3" s="385"/>
-      <c r="I3" s="385"/>
-      <c r="J3" s="385"/>
-      <c r="K3" s="385"/>
-      <c r="L3" s="385"/>
-      <c r="M3" s="385" t="s">
+      <c r="H3" s="441"/>
+      <c r="I3" s="441"/>
+      <c r="J3" s="441"/>
+      <c r="K3" s="441"/>
+      <c r="L3" s="441"/>
+      <c r="M3" s="441" t="s">
         <v>362</v>
       </c>
-      <c r="N3" s="385"/>
+      <c r="N3" s="441"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
@@ -25993,7 +26054,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="124"/>
       <c r="D4" s="125"/>
-      <c r="E4" s="386" t="s">
+      <c r="E4" s="446" t="s">
         <v>363</v>
       </c>
       <c r="F4" s="120"/>
@@ -26021,22 +26082,22 @@
         <v>81</v>
       </c>
       <c r="D5" s="127"/>
-      <c r="E5" s="309"/>
-      <c r="F5" s="336" t="s">
+      <c r="E5" s="366"/>
+      <c r="F5" s="377" t="s">
         <v>435</v>
       </c>
-      <c r="G5" s="337"/>
-      <c r="H5" s="338"/>
-      <c r="I5" s="468" t="s">
+      <c r="G5" s="378"/>
+      <c r="H5" s="379"/>
+      <c r="I5" s="472" t="s">
         <v>436</v>
       </c>
-      <c r="J5" s="469"/>
-      <c r="K5" s="469"/>
-      <c r="L5" s="393"/>
-      <c r="M5" s="468" t="s">
+      <c r="J5" s="473"/>
+      <c r="K5" s="473"/>
+      <c r="L5" s="453"/>
+      <c r="M5" s="472" t="s">
         <v>437</v>
       </c>
-      <c r="N5" s="393"/>
+      <c r="N5" s="453"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -26047,16 +26108,16 @@
       <c r="B6" s="4"/>
       <c r="C6" s="128"/>
       <c r="D6" s="129"/>
-      <c r="E6" s="309"/>
-      <c r="F6" s="339"/>
-      <c r="G6" s="340"/>
-      <c r="H6" s="341"/>
-      <c r="I6" s="394"/>
-      <c r="J6" s="470"/>
-      <c r="K6" s="470"/>
-      <c r="L6" s="395"/>
-      <c r="M6" s="394"/>
-      <c r="N6" s="395"/>
+      <c r="E6" s="366"/>
+      <c r="F6" s="380"/>
+      <c r="G6" s="381"/>
+      <c r="H6" s="382"/>
+      <c r="I6" s="344"/>
+      <c r="J6" s="345"/>
+      <c r="K6" s="345"/>
+      <c r="L6" s="454"/>
+      <c r="M6" s="344"/>
+      <c r="N6" s="454"/>
       <c r="O6" s="5"/>
       <c r="P6" s="33" t="s">
         <v>82</v>
@@ -26073,16 +26134,16 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="309"/>
-      <c r="F7" s="339"/>
-      <c r="G7" s="340"/>
-      <c r="H7" s="341"/>
-      <c r="I7" s="394"/>
-      <c r="J7" s="470"/>
-      <c r="K7" s="470"/>
-      <c r="L7" s="395"/>
-      <c r="M7" s="394"/>
-      <c r="N7" s="395"/>
+      <c r="E7" s="366"/>
+      <c r="F7" s="380"/>
+      <c r="G7" s="381"/>
+      <c r="H7" s="382"/>
+      <c r="I7" s="344"/>
+      <c r="J7" s="345"/>
+      <c r="K7" s="345"/>
+      <c r="L7" s="454"/>
+      <c r="M7" s="344"/>
+      <c r="N7" s="454"/>
       <c r="O7" s="5" t="s">
         <v>2</v>
       </c>
@@ -26101,16 +26162,16 @@
       <c r="B8" s="4"/>
       <c r="C8" s="1"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="309"/>
-      <c r="F8" s="339"/>
-      <c r="G8" s="340"/>
-      <c r="H8" s="341"/>
-      <c r="I8" s="394"/>
-      <c r="J8" s="470"/>
-      <c r="K8" s="470"/>
-      <c r="L8" s="395"/>
-      <c r="M8" s="394"/>
-      <c r="N8" s="395"/>
+      <c r="E8" s="366"/>
+      <c r="F8" s="380"/>
+      <c r="G8" s="381"/>
+      <c r="H8" s="382"/>
+      <c r="I8" s="344"/>
+      <c r="J8" s="345"/>
+      <c r="K8" s="345"/>
+      <c r="L8" s="454"/>
+      <c r="M8" s="344"/>
+      <c r="N8" s="454"/>
       <c r="O8" s="5" t="s">
         <v>87</v>
       </c>
@@ -26131,16 +26192,16 @@
         <v>90</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="309"/>
-      <c r="F9" s="339"/>
-      <c r="G9" s="340"/>
-      <c r="H9" s="341"/>
-      <c r="I9" s="394"/>
-      <c r="J9" s="470"/>
-      <c r="K9" s="470"/>
-      <c r="L9" s="395"/>
-      <c r="M9" s="394"/>
-      <c r="N9" s="395"/>
+      <c r="E9" s="366"/>
+      <c r="F9" s="380"/>
+      <c r="G9" s="381"/>
+      <c r="H9" s="382"/>
+      <c r="I9" s="344"/>
+      <c r="J9" s="345"/>
+      <c r="K9" s="345"/>
+      <c r="L9" s="454"/>
+      <c r="M9" s="344"/>
+      <c r="N9" s="454"/>
       <c r="O9" s="5">
         <v>1000</v>
       </c>
@@ -26157,16 +26218,16 @@
         <v>379</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="309"/>
-      <c r="F10" s="339"/>
-      <c r="G10" s="340"/>
-      <c r="H10" s="341"/>
-      <c r="I10" s="394"/>
-      <c r="J10" s="470"/>
-      <c r="K10" s="470"/>
-      <c r="L10" s="395"/>
-      <c r="M10" s="394"/>
-      <c r="N10" s="395"/>
+      <c r="E10" s="366"/>
+      <c r="F10" s="380"/>
+      <c r="G10" s="381"/>
+      <c r="H10" s="382"/>
+      <c r="I10" s="344"/>
+      <c r="J10" s="345"/>
+      <c r="K10" s="345"/>
+      <c r="L10" s="454"/>
+      <c r="M10" s="344"/>
+      <c r="N10" s="454"/>
       <c r="O10" s="5" t="s">
         <v>2</v>
       </c>
@@ -26179,16 +26240,16 @@
       <c r="B11" s="4"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="309"/>
-      <c r="F11" s="339"/>
-      <c r="G11" s="340"/>
-      <c r="H11" s="341"/>
-      <c r="I11" s="394"/>
-      <c r="J11" s="470"/>
-      <c r="K11" s="470"/>
-      <c r="L11" s="395"/>
-      <c r="M11" s="394"/>
-      <c r="N11" s="395"/>
+      <c r="E11" s="366"/>
+      <c r="F11" s="380"/>
+      <c r="G11" s="381"/>
+      <c r="H11" s="382"/>
+      <c r="I11" s="344"/>
+      <c r="J11" s="345"/>
+      <c r="K11" s="345"/>
+      <c r="L11" s="454"/>
+      <c r="M11" s="344"/>
+      <c r="N11" s="454"/>
       <c r="O11" s="5"/>
       <c r="P11" s="33"/>
       <c r="Q11" s="33"/>
@@ -26199,16 +26260,16 @@
       <c r="B12" s="4"/>
       <c r="C12" s="1"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="309"/>
-      <c r="F12" s="339"/>
-      <c r="G12" s="340"/>
-      <c r="H12" s="341"/>
-      <c r="I12" s="394"/>
-      <c r="J12" s="470"/>
-      <c r="K12" s="470"/>
-      <c r="L12" s="395"/>
-      <c r="M12" s="394"/>
-      <c r="N12" s="395"/>
+      <c r="E12" s="366"/>
+      <c r="F12" s="380"/>
+      <c r="G12" s="381"/>
+      <c r="H12" s="382"/>
+      <c r="I12" s="344"/>
+      <c r="J12" s="345"/>
+      <c r="K12" s="345"/>
+      <c r="L12" s="454"/>
+      <c r="M12" s="344"/>
+      <c r="N12" s="454"/>
       <c r="O12" s="5"/>
       <c r="P12" s="33"/>
       <c r="Q12" s="33"/>
@@ -26221,16 +26282,16 @@
         <v>92</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="309"/>
-      <c r="F13" s="339"/>
-      <c r="G13" s="340"/>
-      <c r="H13" s="341"/>
-      <c r="I13" s="394"/>
-      <c r="J13" s="470"/>
-      <c r="K13" s="470"/>
-      <c r="L13" s="395"/>
-      <c r="M13" s="394"/>
-      <c r="N13" s="395"/>
+      <c r="E13" s="366"/>
+      <c r="F13" s="380"/>
+      <c r="G13" s="381"/>
+      <c r="H13" s="382"/>
+      <c r="I13" s="344"/>
+      <c r="J13" s="345"/>
+      <c r="K13" s="345"/>
+      <c r="L13" s="454"/>
+      <c r="M13" s="344"/>
+      <c r="N13" s="454"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
@@ -26241,16 +26302,16 @@
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="309"/>
-      <c r="F14" s="339"/>
-      <c r="G14" s="340"/>
-      <c r="H14" s="341"/>
-      <c r="I14" s="394"/>
-      <c r="J14" s="470"/>
-      <c r="K14" s="470"/>
-      <c r="L14" s="395"/>
-      <c r="M14" s="394"/>
-      <c r="N14" s="395"/>
+      <c r="E14" s="366"/>
+      <c r="F14" s="380"/>
+      <c r="G14" s="381"/>
+      <c r="H14" s="382"/>
+      <c r="I14" s="344"/>
+      <c r="J14" s="345"/>
+      <c r="K14" s="345"/>
+      <c r="L14" s="454"/>
+      <c r="M14" s="344"/>
+      <c r="N14" s="454"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
@@ -26261,16 +26322,16 @@
       <c r="B15" s="4"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="309"/>
-      <c r="F15" s="339"/>
-      <c r="G15" s="340"/>
-      <c r="H15" s="341"/>
-      <c r="I15" s="394"/>
-      <c r="J15" s="470"/>
-      <c r="K15" s="470"/>
-      <c r="L15" s="395"/>
-      <c r="M15" s="394"/>
-      <c r="N15" s="395"/>
+      <c r="E15" s="366"/>
+      <c r="F15" s="380"/>
+      <c r="G15" s="381"/>
+      <c r="H15" s="382"/>
+      <c r="I15" s="344"/>
+      <c r="J15" s="345"/>
+      <c r="K15" s="345"/>
+      <c r="L15" s="454"/>
+      <c r="M15" s="344"/>
+      <c r="N15" s="454"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
@@ -26281,16 +26342,16 @@
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="309"/>
-      <c r="F16" s="339"/>
-      <c r="G16" s="340"/>
-      <c r="H16" s="341"/>
-      <c r="I16" s="394"/>
-      <c r="J16" s="470"/>
-      <c r="K16" s="470"/>
-      <c r="L16" s="395"/>
-      <c r="M16" s="394"/>
-      <c r="N16" s="395"/>
+      <c r="E16" s="366"/>
+      <c r="F16" s="380"/>
+      <c r="G16" s="381"/>
+      <c r="H16" s="382"/>
+      <c r="I16" s="344"/>
+      <c r="J16" s="345"/>
+      <c r="K16" s="345"/>
+      <c r="L16" s="454"/>
+      <c r="M16" s="344"/>
+      <c r="N16" s="454"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
@@ -26303,16 +26364,16 @@
         <v>93</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="309"/>
-      <c r="F17" s="339"/>
-      <c r="G17" s="340"/>
-      <c r="H17" s="341"/>
-      <c r="I17" s="394"/>
-      <c r="J17" s="470"/>
-      <c r="K17" s="470"/>
-      <c r="L17" s="395"/>
-      <c r="M17" s="394"/>
-      <c r="N17" s="395"/>
+      <c r="E17" s="366"/>
+      <c r="F17" s="380"/>
+      <c r="G17" s="381"/>
+      <c r="H17" s="382"/>
+      <c r="I17" s="344"/>
+      <c r="J17" s="345"/>
+      <c r="K17" s="345"/>
+      <c r="L17" s="454"/>
+      <c r="M17" s="344"/>
+      <c r="N17" s="454"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
@@ -26323,16 +26384,16 @@
       <c r="B18" s="4"/>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="310"/>
-      <c r="F18" s="342"/>
-      <c r="G18" s="343"/>
-      <c r="H18" s="344"/>
-      <c r="I18" s="396"/>
-      <c r="J18" s="471"/>
-      <c r="K18" s="471"/>
-      <c r="L18" s="397"/>
-      <c r="M18" s="396"/>
-      <c r="N18" s="397"/>
+      <c r="E18" s="367"/>
+      <c r="F18" s="383"/>
+      <c r="G18" s="384"/>
+      <c r="H18" s="385"/>
+      <c r="I18" s="455"/>
+      <c r="J18" s="474"/>
+      <c r="K18" s="474"/>
+      <c r="L18" s="456"/>
+      <c r="M18" s="455"/>
+      <c r="N18" s="456"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
@@ -26361,26 +26422,26 @@
     </row>
     <row r="20" spans="2:19" ht="15.75" thickBot="1">
       <c r="B20" s="4"/>
-      <c r="C20" s="331" t="s">
+      <c r="C20" s="360" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="332"/>
+      <c r="D20" s="361"/>
       <c r="E20" s="119" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="331" t="s">
+      <c r="F20" s="360" t="s">
         <v>96</v>
       </c>
-      <c r="G20" s="333"/>
-      <c r="H20" s="333"/>
-      <c r="I20" s="333"/>
-      <c r="J20" s="333"/>
-      <c r="K20" s="333"/>
-      <c r="L20" s="332"/>
-      <c r="M20" s="331" t="s">
+      <c r="G20" s="362"/>
+      <c r="H20" s="362"/>
+      <c r="I20" s="362"/>
+      <c r="J20" s="362"/>
+      <c r="K20" s="362"/>
+      <c r="L20" s="361"/>
+      <c r="M20" s="360" t="s">
         <v>370</v>
       </c>
-      <c r="N20" s="332"/>
+      <c r="N20" s="361"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
@@ -26408,39 +26469,39 @@
       <c r="S21" s="9"/>
     </row>
     <row r="24" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B24" s="407" t="s">
+      <c r="B24" s="440" t="s">
         <v>397</v>
       </c>
-      <c r="C24" s="407"/>
-      <c r="D24" s="405"/>
-      <c r="E24" s="405"/>
-      <c r="F24" s="405"/>
-      <c r="G24" s="405"/>
-      <c r="H24" s="405"/>
-      <c r="I24" s="405"/>
-      <c r="J24" s="405"/>
-      <c r="K24" s="405"/>
-      <c r="M24" s="431" t="s">
+      <c r="C24" s="440"/>
+      <c r="D24" s="438"/>
+      <c r="E24" s="438"/>
+      <c r="F24" s="438"/>
+      <c r="G24" s="438"/>
+      <c r="H24" s="438"/>
+      <c r="I24" s="438"/>
+      <c r="J24" s="438"/>
+      <c r="K24" s="438"/>
+      <c r="M24" s="501" t="s">
         <v>79</v>
       </c>
-      <c r="N24" s="431"/>
-      <c r="O24" s="431"/>
+      <c r="N24" s="501"/>
+      <c r="O24" s="501"/>
     </row>
     <row r="25" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B25" s="432" t="s">
+      <c r="B25" s="502" t="s">
         <v>700</v>
       </c>
-      <c r="C25" s="373"/>
-      <c r="D25" s="322" t="s">
+      <c r="C25" s="416"/>
+      <c r="D25" s="348" t="s">
         <v>78</v>
       </c>
-      <c r="E25" s="322"/>
-      <c r="F25" s="322"/>
-      <c r="G25" s="322"/>
-      <c r="H25" s="322"/>
-      <c r="I25" s="322"/>
-      <c r="J25" s="322"/>
-      <c r="K25" s="323"/>
+      <c r="E25" s="348"/>
+      <c r="F25" s="348"/>
+      <c r="G25" s="348"/>
+      <c r="H25" s="348"/>
+      <c r="I25" s="348"/>
+      <c r="J25" s="348"/>
+      <c r="K25" s="349"/>
       <c r="M25" s="33" t="s">
         <v>82</v>
       </c>
@@ -26452,22 +26513,22 @@
       </c>
     </row>
     <row r="26" spans="2:19">
-      <c r="B26" s="374"/>
-      <c r="C26" s="375"/>
-      <c r="D26" s="445" t="s">
+      <c r="B26" s="417"/>
+      <c r="C26" s="418"/>
+      <c r="D26" s="475" t="s">
         <v>693</v>
       </c>
-      <c r="E26" s="446"/>
-      <c r="F26" s="463" t="s">
+      <c r="E26" s="476"/>
+      <c r="F26" s="494" t="s">
         <v>693</v>
       </c>
-      <c r="G26" s="464"/>
-      <c r="H26" s="465"/>
-      <c r="I26" s="467" t="s">
+      <c r="G26" s="495"/>
+      <c r="H26" s="496"/>
+      <c r="I26" s="499" t="s">
         <v>1506</v>
       </c>
-      <c r="J26" s="464"/>
-      <c r="K26" s="465"/>
+      <c r="J26" s="495"/>
+      <c r="K26" s="496"/>
       <c r="L26" s="5" t="s">
         <v>2</v>
       </c>
@@ -26482,22 +26543,22 @@
       </c>
     </row>
     <row r="27" spans="2:19">
-      <c r="B27" s="374"/>
-      <c r="C27" s="375"/>
-      <c r="D27" s="443" t="s">
+      <c r="B27" s="417"/>
+      <c r="C27" s="418"/>
+      <c r="D27" s="477" t="s">
         <v>698</v>
       </c>
-      <c r="E27" s="447"/>
-      <c r="F27" s="466" t="s">
+      <c r="E27" s="478"/>
+      <c r="F27" s="497" t="s">
         <v>694</v>
       </c>
-      <c r="G27" s="443"/>
-      <c r="H27" s="444"/>
-      <c r="I27" s="442" t="s">
+      <c r="G27" s="477"/>
+      <c r="H27" s="498"/>
+      <c r="I27" s="500" t="s">
         <v>1507</v>
       </c>
-      <c r="J27" s="443"/>
-      <c r="K27" s="444"/>
+      <c r="J27" s="477"/>
+      <c r="K27" s="498"/>
       <c r="L27" s="5" t="s">
         <v>2</v>
       </c>
@@ -26512,22 +26573,22 @@
       </c>
     </row>
     <row r="28" spans="2:19">
-      <c r="B28" s="374"/>
-      <c r="C28" s="375"/>
-      <c r="D28" s="443" t="s">
+      <c r="B28" s="417"/>
+      <c r="C28" s="418"/>
+      <c r="D28" s="477" t="s">
         <v>695</v>
       </c>
-      <c r="E28" s="447"/>
-      <c r="F28" s="466" t="s">
+      <c r="E28" s="478"/>
+      <c r="F28" s="497" t="s">
         <v>695</v>
       </c>
-      <c r="G28" s="443"/>
-      <c r="H28" s="444"/>
-      <c r="I28" s="442" t="s">
+      <c r="G28" s="477"/>
+      <c r="H28" s="498"/>
+      <c r="I28" s="500" t="s">
         <v>1508</v>
       </c>
-      <c r="J28" s="443"/>
-      <c r="K28" s="444"/>
+      <c r="J28" s="477"/>
+      <c r="K28" s="498"/>
       <c r="L28" s="5" t="s">
         <v>2</v>
       </c>
@@ -26536,22 +26597,22 @@
       <c r="O28" s="33"/>
     </row>
     <row r="29" spans="2:19">
-      <c r="B29" s="376"/>
-      <c r="C29" s="377"/>
-      <c r="D29" s="443" t="s">
+      <c r="B29" s="419"/>
+      <c r="C29" s="420"/>
+      <c r="D29" s="477" t="s">
         <v>696</v>
       </c>
-      <c r="E29" s="447"/>
-      <c r="F29" s="466" t="s">
+      <c r="E29" s="478"/>
+      <c r="F29" s="497" t="s">
         <v>696</v>
       </c>
-      <c r="G29" s="443"/>
-      <c r="H29" s="444"/>
-      <c r="I29" s="442" t="s">
+      <c r="G29" s="477"/>
+      <c r="H29" s="498"/>
+      <c r="I29" s="500" t="s">
         <v>1509</v>
       </c>
-      <c r="J29" s="443"/>
-      <c r="K29" s="444"/>
+      <c r="J29" s="477"/>
+      <c r="K29" s="498"/>
       <c r="L29" s="24" t="s">
         <v>2</v>
       </c>
@@ -26560,149 +26621,149 @@
       <c r="O29" s="33"/>
     </row>
     <row r="30" spans="2:19">
-      <c r="B30" s="324" t="s">
+      <c r="B30" s="350" t="s">
         <v>699</v>
       </c>
-      <c r="C30" s="326"/>
-      <c r="D30" s="448" t="s">
+      <c r="C30" s="352"/>
+      <c r="D30" s="479" t="s">
         <v>398</v>
       </c>
-      <c r="E30" s="449"/>
-      <c r="F30" s="454" t="s">
+      <c r="E30" s="480"/>
+      <c r="F30" s="485" t="s">
         <v>399</v>
       </c>
-      <c r="G30" s="455"/>
-      <c r="H30" s="449"/>
-      <c r="I30" s="454" t="s">
+      <c r="G30" s="486"/>
+      <c r="H30" s="480"/>
+      <c r="I30" s="485" t="s">
         <v>400</v>
       </c>
-      <c r="J30" s="455"/>
-      <c r="K30" s="460"/>
+      <c r="J30" s="486"/>
+      <c r="K30" s="491"/>
       <c r="L30" s="5"/>
       <c r="M30" s="33"/>
       <c r="N30" s="33"/>
       <c r="O30" s="33"/>
     </row>
     <row r="31" spans="2:19">
-      <c r="B31" s="306"/>
-      <c r="C31" s="313"/>
-      <c r="D31" s="450"/>
-      <c r="E31" s="451"/>
-      <c r="F31" s="456"/>
-      <c r="G31" s="457"/>
-      <c r="H31" s="451"/>
-      <c r="I31" s="456"/>
-      <c r="J31" s="457"/>
-      <c r="K31" s="461"/>
+      <c r="B31" s="354"/>
+      <c r="C31" s="355"/>
+      <c r="D31" s="481"/>
+      <c r="E31" s="482"/>
+      <c r="F31" s="487"/>
+      <c r="G31" s="488"/>
+      <c r="H31" s="482"/>
+      <c r="I31" s="487"/>
+      <c r="J31" s="488"/>
+      <c r="K31" s="492"/>
       <c r="L31" s="5"/>
       <c r="M31" s="33"/>
       <c r="N31" s="33"/>
       <c r="O31" s="33"/>
     </row>
     <row r="32" spans="2:19">
-      <c r="B32" s="306"/>
-      <c r="C32" s="313"/>
-      <c r="D32" s="450"/>
-      <c r="E32" s="451"/>
-      <c r="F32" s="456"/>
-      <c r="G32" s="457"/>
-      <c r="H32" s="451"/>
-      <c r="I32" s="456"/>
-      <c r="J32" s="457"/>
-      <c r="K32" s="461"/>
+      <c r="B32" s="354"/>
+      <c r="C32" s="355"/>
+      <c r="D32" s="481"/>
+      <c r="E32" s="482"/>
+      <c r="F32" s="487"/>
+      <c r="G32" s="488"/>
+      <c r="H32" s="482"/>
+      <c r="I32" s="487"/>
+      <c r="J32" s="488"/>
+      <c r="K32" s="492"/>
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="306"/>
-      <c r="C33" s="313"/>
-      <c r="D33" s="452"/>
-      <c r="E33" s="453"/>
-      <c r="F33" s="458"/>
-      <c r="G33" s="459"/>
-      <c r="H33" s="453"/>
-      <c r="I33" s="458"/>
-      <c r="J33" s="459"/>
-      <c r="K33" s="462"/>
+      <c r="B33" s="354"/>
+      <c r="C33" s="355"/>
+      <c r="D33" s="483"/>
+      <c r="E33" s="484"/>
+      <c r="F33" s="489"/>
+      <c r="G33" s="490"/>
+      <c r="H33" s="484"/>
+      <c r="I33" s="489"/>
+      <c r="J33" s="490"/>
+      <c r="K33" s="493"/>
     </row>
     <row r="34" spans="2:14">
-      <c r="B34" s="306"/>
-      <c r="C34" s="307"/>
-      <c r="D34" s="433" t="s">
+      <c r="B34" s="354"/>
+      <c r="C34" s="356"/>
+      <c r="D34" s="503" t="s">
         <v>686</v>
       </c>
-      <c r="E34" s="434"/>
-      <c r="F34" s="433" t="s">
+      <c r="E34" s="504"/>
+      <c r="F34" s="503" t="s">
         <v>411</v>
       </c>
-      <c r="G34" s="439"/>
-      <c r="H34" s="434"/>
-      <c r="I34" s="433" t="s">
+      <c r="G34" s="509"/>
+      <c r="H34" s="504"/>
+      <c r="I34" s="503" t="s">
         <v>701</v>
       </c>
-      <c r="J34" s="439"/>
-      <c r="K34" s="434"/>
+      <c r="J34" s="509"/>
+      <c r="K34" s="504"/>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35" s="306"/>
-      <c r="C35" s="307"/>
-      <c r="D35" s="435"/>
-      <c r="E35" s="436"/>
-      <c r="F35" s="435"/>
-      <c r="G35" s="440"/>
-      <c r="H35" s="436"/>
-      <c r="I35" s="435"/>
-      <c r="J35" s="440"/>
-      <c r="K35" s="436"/>
+      <c r="B35" s="354"/>
+      <c r="C35" s="356"/>
+      <c r="D35" s="505"/>
+      <c r="E35" s="506"/>
+      <c r="F35" s="505"/>
+      <c r="G35" s="510"/>
+      <c r="H35" s="506"/>
+      <c r="I35" s="505"/>
+      <c r="J35" s="510"/>
+      <c r="K35" s="506"/>
     </row>
     <row r="36" spans="2:14">
-      <c r="B36" s="306"/>
-      <c r="C36" s="307"/>
-      <c r="D36" s="435"/>
-      <c r="E36" s="436"/>
-      <c r="F36" s="435"/>
-      <c r="G36" s="440"/>
-      <c r="H36" s="436"/>
-      <c r="I36" s="435"/>
-      <c r="J36" s="440"/>
-      <c r="K36" s="436"/>
+      <c r="B36" s="354"/>
+      <c r="C36" s="356"/>
+      <c r="D36" s="505"/>
+      <c r="E36" s="506"/>
+      <c r="F36" s="505"/>
+      <c r="G36" s="510"/>
+      <c r="H36" s="506"/>
+      <c r="I36" s="505"/>
+      <c r="J36" s="510"/>
+      <c r="K36" s="506"/>
     </row>
     <row r="37" spans="2:14">
-      <c r="B37" s="306"/>
-      <c r="C37" s="307"/>
-      <c r="D37" s="435"/>
-      <c r="E37" s="436"/>
-      <c r="F37" s="435"/>
-      <c r="G37" s="440"/>
-      <c r="H37" s="436"/>
-      <c r="I37" s="435"/>
-      <c r="J37" s="440"/>
-      <c r="K37" s="436"/>
+      <c r="B37" s="354"/>
+      <c r="C37" s="356"/>
+      <c r="D37" s="505"/>
+      <c r="E37" s="506"/>
+      <c r="F37" s="505"/>
+      <c r="G37" s="510"/>
+      <c r="H37" s="506"/>
+      <c r="I37" s="505"/>
+      <c r="J37" s="510"/>
+      <c r="K37" s="506"/>
     </row>
     <row r="38" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B38" s="306"/>
-      <c r="C38" s="307"/>
-      <c r="D38" s="437"/>
-      <c r="E38" s="438"/>
-      <c r="F38" s="437"/>
-      <c r="G38" s="441"/>
-      <c r="H38" s="438"/>
-      <c r="I38" s="437"/>
-      <c r="J38" s="441"/>
-      <c r="K38" s="438"/>
+      <c r="B38" s="354"/>
+      <c r="C38" s="356"/>
+      <c r="D38" s="507"/>
+      <c r="E38" s="508"/>
+      <c r="F38" s="507"/>
+      <c r="G38" s="511"/>
+      <c r="H38" s="508"/>
+      <c r="I38" s="507"/>
+      <c r="J38" s="511"/>
+      <c r="K38" s="508"/>
     </row>
     <row r="39" spans="2:14" ht="19.5" thickBot="1">
-      <c r="B39" s="328"/>
-      <c r="C39" s="330"/>
-      <c r="D39" s="415" t="s">
+      <c r="B39" s="357"/>
+      <c r="C39" s="359"/>
+      <c r="D39" s="427" t="s">
         <v>401</v>
       </c>
-      <c r="E39" s="416"/>
-      <c r="F39" s="416"/>
-      <c r="G39" s="416"/>
-      <c r="H39" s="416"/>
-      <c r="I39" s="416"/>
-      <c r="J39" s="416"/>
-      <c r="K39" s="417"/>
+      <c r="E39" s="428"/>
+      <c r="F39" s="428"/>
+      <c r="G39" s="428"/>
+      <c r="H39" s="428"/>
+      <c r="I39" s="428"/>
+      <c r="J39" s="428"/>
+      <c r="K39" s="429"/>
       <c r="L39" s="35" t="s">
         <v>402</v>
       </c>
@@ -26720,35 +26781,36 @@
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B41" s="331" t="s">
+      <c r="B41" s="360" t="s">
         <v>94</v>
       </c>
-      <c r="C41" s="332"/>
-      <c r="D41" s="331" t="s">
+      <c r="C41" s="361"/>
+      <c r="D41" s="360" t="s">
         <v>95</v>
       </c>
-      <c r="E41" s="332"/>
-      <c r="F41" s="331" t="s">
+      <c r="E41" s="361"/>
+      <c r="F41" s="360" t="s">
         <v>96</v>
       </c>
-      <c r="G41" s="333"/>
-      <c r="H41" s="333"/>
-      <c r="I41" s="333"/>
-      <c r="J41" s="333"/>
-      <c r="K41" s="332"/>
+      <c r="G41" s="362"/>
+      <c r="H41" s="362"/>
+      <c r="I41" s="362"/>
+      <c r="J41" s="362"/>
+      <c r="K41" s="361"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="E4:E18"/>
-    <mergeCell ref="M5:N18"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="F5:H18"/>
-    <mergeCell ref="I5:L18"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="B30:C39"/>
+    <mergeCell ref="B25:C29"/>
+    <mergeCell ref="D34:E38"/>
+    <mergeCell ref="F34:H38"/>
+    <mergeCell ref="I34:K38"/>
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="F41:K41"/>
@@ -26765,17 +26827,16 @@
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="I26:K26"/>
     <mergeCell ref="I27:K27"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="B30:C39"/>
-    <mergeCell ref="B25:C29"/>
-    <mergeCell ref="D34:E38"/>
-    <mergeCell ref="F34:H38"/>
-    <mergeCell ref="I34:K38"/>
-    <mergeCell ref="D39:K39"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="F5:H18"/>
+    <mergeCell ref="I5:L18"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="E4:E18"/>
+    <mergeCell ref="M5:N18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="R7" r:id="rId1"/>
@@ -27068,13 +27129,13 @@
       <c r="Q4" s="6"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A5" s="302" t="s">
+      <c r="A5" s="341" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="303"/>
-      <c r="C5" s="303"/>
-      <c r="D5" s="303"/>
-      <c r="E5" s="304"/>
+      <c r="B5" s="342"/>
+      <c r="C5" s="342"/>
+      <c r="D5" s="342"/>
+      <c r="E5" s="343"/>
       <c r="J5" s="4"/>
       <c r="K5" s="1" t="s">
         <v>54</v>
@@ -27637,10 +27698,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:N218"/>
+  <dimension ref="B2:N217"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:I14"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46:G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27652,42 +27713,42 @@
       <c r="C2" s="24" t="s">
         <v>1631</v>
       </c>
-      <c r="D2" s="502">
+      <c r="D2" s="332">
         <v>0.1</v>
       </c>
-      <c r="E2" s="502">
+      <c r="E2" s="332">
         <v>0.2</v>
       </c>
-      <c r="F2" s="502">
+      <c r="F2" s="332">
         <v>0.3</v>
       </c>
-      <c r="G2" s="502">
+      <c r="G2" s="332">
         <v>0.4</v>
       </c>
-      <c r="H2" s="502">
+      <c r="H2" s="332">
         <v>0.5</v>
       </c>
-      <c r="I2" s="502">
+      <c r="I2" s="332">
         <v>0.6</v>
       </c>
-      <c r="J2" s="502">
+      <c r="J2" s="332">
         <v>0.7</v>
       </c>
-      <c r="K2" s="502">
+      <c r="K2" s="332">
         <v>0.8</v>
       </c>
-      <c r="L2" s="502">
+      <c r="L2" s="332">
         <v>0.9</v>
       </c>
-      <c r="M2" s="502">
+      <c r="M2" s="332">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:14">
-      <c r="C3" s="502">
+      <c r="C3" s="332">
         <v>0.1</v>
       </c>
-      <c r="D3" s="489"/>
+      <c r="D3" s="319"/>
       <c r="E3" s="59"/>
       <c r="F3" s="59"/>
       <c r="G3" s="59"/>
@@ -27697,52 +27758,52 @@
       <c r="K3" s="59"/>
       <c r="L3" s="59"/>
       <c r="M3" s="60"/>
-      <c r="N3" s="394" t="s">
+      <c r="N3" s="344" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="15.75" thickBot="1">
-      <c r="C4" s="502">
+      <c r="C4" s="332">
         <v>0.2</v>
       </c>
-      <c r="D4" s="491"/>
-      <c r="E4" s="506"/>
-      <c r="F4" s="506"/>
-      <c r="G4" s="506"/>
-      <c r="H4" s="506"/>
-      <c r="I4" s="506"/>
-      <c r="J4" s="506"/>
-      <c r="K4" s="506"/>
-      <c r="L4" s="506"/>
-      <c r="M4" s="492"/>
-      <c r="N4" s="394"/>
+      <c r="D4" s="321"/>
+      <c r="E4" s="335"/>
+      <c r="F4" s="335"/>
+      <c r="G4" s="335"/>
+      <c r="H4" s="335"/>
+      <c r="I4" s="335"/>
+      <c r="J4" s="335"/>
+      <c r="K4" s="335"/>
+      <c r="L4" s="335"/>
+      <c r="M4" s="322"/>
+      <c r="N4" s="344"/>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="502">
+      <c r="C5" s="332">
         <v>0.3</v>
       </c>
-      <c r="D5" s="507"/>
-      <c r="E5" s="510"/>
-      <c r="F5" s="510"/>
-      <c r="G5" s="510"/>
-      <c r="H5" s="510"/>
-      <c r="I5" s="510"/>
-      <c r="J5" s="510"/>
-      <c r="K5" s="510"/>
-      <c r="L5" s="510"/>
-      <c r="M5" s="511"/>
-      <c r="N5" s="394" t="s">
+      <c r="D5" s="336"/>
+      <c r="E5" s="339"/>
+      <c r="F5" s="339"/>
+      <c r="G5" s="339"/>
+      <c r="H5" s="339"/>
+      <c r="I5" s="339"/>
+      <c r="J5" s="339"/>
+      <c r="K5" s="339"/>
+      <c r="L5" s="339"/>
+      <c r="M5" s="340"/>
+      <c r="N5" s="344" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="6" spans="2:14">
-      <c r="C6" s="502">
+      <c r="C6" s="332">
         <v>0.4</v>
       </c>
-      <c r="D6" s="508"/>
+      <c r="D6" s="337"/>
       <c r="E6" s="44"/>
       <c r="F6" s="44"/>
       <c r="G6" s="44"/>
@@ -27752,13 +27813,13 @@
       <c r="K6" s="44"/>
       <c r="L6" s="44"/>
       <c r="M6" s="54"/>
-      <c r="N6" s="394"/>
+      <c r="N6" s="344"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="C7" s="502">
+      <c r="C7" s="332">
         <v>0.5</v>
       </c>
-      <c r="D7" s="508" t="s">
+      <c r="D7" s="337" t="s">
         <v>454</v>
       </c>
       <c r="E7" s="44"/>
@@ -27772,13 +27833,13 @@
       <c r="K7" s="44"/>
       <c r="L7" s="44"/>
       <c r="M7" s="54"/>
-      <c r="N7" s="394"/>
+      <c r="N7" s="344"/>
     </row>
     <row r="8" spans="2:14">
-      <c r="C8" s="502">
+      <c r="C8" s="332">
         <v>0.6</v>
       </c>
-      <c r="D8" s="508"/>
+      <c r="D8" s="337"/>
       <c r="E8" s="44"/>
       <c r="F8" s="44"/>
       <c r="G8" s="44"/>
@@ -27788,13 +27849,13 @@
       <c r="K8" s="44"/>
       <c r="L8" s="44"/>
       <c r="M8" s="54"/>
-      <c r="N8" s="394"/>
+      <c r="N8" s="344"/>
     </row>
     <row r="9" spans="2:14">
-      <c r="C9" s="502">
+      <c r="C9" s="332">
         <v>0.7</v>
       </c>
-      <c r="D9" s="508"/>
+      <c r="D9" s="337"/>
       <c r="E9" s="44"/>
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
@@ -27804,13 +27865,13 @@
       <c r="K9" s="44"/>
       <c r="L9" s="44"/>
       <c r="M9" s="54"/>
-      <c r="N9" s="394"/>
+      <c r="N9" s="344"/>
     </row>
     <row r="10" spans="2:14">
-      <c r="C10" s="502">
+      <c r="C10" s="332">
         <v>0.8</v>
       </c>
-      <c r="D10" s="508"/>
+      <c r="D10" s="337"/>
       <c r="E10" s="44"/>
       <c r="F10" s="44"/>
       <c r="G10" s="44"/>
@@ -27820,13 +27881,13 @@
       <c r="K10" s="44"/>
       <c r="L10" s="44"/>
       <c r="M10" s="54"/>
-      <c r="N10" s="394"/>
+      <c r="N10" s="344"/>
     </row>
     <row r="11" spans="2:14" ht="15.75" thickBot="1">
-      <c r="C11" s="502">
+      <c r="C11" s="332">
         <v>0.9</v>
       </c>
-      <c r="D11" s="509"/>
+      <c r="D11" s="338"/>
       <c r="E11" s="193"/>
       <c r="F11" s="193"/>
       <c r="G11" s="193"/>
@@ -27836,10 +27897,10 @@
       <c r="K11" s="193"/>
       <c r="L11" s="193"/>
       <c r="M11" s="195"/>
-      <c r="N11" s="394"/>
+      <c r="N11" s="344"/>
     </row>
     <row r="12" spans="2:14" ht="15.75" thickBot="1">
-      <c r="C12" s="502">
+      <c r="C12" s="332">
         <v>1</v>
       </c>
       <c r="D12" s="263"/>
@@ -27852,20 +27913,20 @@
       <c r="K12" s="264"/>
       <c r="L12" s="264"/>
       <c r="M12" s="265"/>
-      <c r="N12" s="505" t="s">
+      <c r="N12" s="334" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="13" spans="2:14">
-      <c r="C13" s="502"/>
-      <c r="N13" s="505"/>
+      <c r="C13" s="332"/>
+      <c r="N13" s="334"/>
     </row>
     <row r="14" spans="2:14">
-      <c r="C14" s="502"/>
-      <c r="N14" s="505"/>
+      <c r="C14" s="332"/>
+      <c r="N14" s="334"/>
     </row>
     <row r="15" spans="2:14">
-      <c r="C15" s="502"/>
+      <c r="C15" s="332"/>
     </row>
     <row r="16" spans="2:14">
       <c r="B16" s="24" t="s">
@@ -27878,7 +27939,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="2:13">
       <c r="B17" s="24" t="s">
         <v>90</v>
       </c>
@@ -27892,7 +27953,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="2:13">
       <c r="B18" s="24" t="s">
         <v>92</v>
       </c>
@@ -27903,7 +27964,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="2:13">
       <c r="H19" s="24" t="s">
         <v>452</v>
       </c>
@@ -27911,86 +27972,341 @@
         <v>1630</v>
       </c>
     </row>
+    <row r="23" spans="2:13">
+      <c r="E23" s="24" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" ht="15.75" thickBot="1">
+      <c r="B25" s="24" t="s">
+        <v>1632</v>
+      </c>
+      <c r="J25" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13">
+      <c r="B26" s="136" t="s">
+        <v>311</v>
+      </c>
+      <c r="C26" s="151"/>
+      <c r="D26" s="151"/>
+      <c r="E26" s="137"/>
+      <c r="J26" s="136"/>
+      <c r="K26" s="151"/>
+      <c r="L26" s="151"/>
+      <c r="M26" s="137"/>
+    </row>
+    <row r="27" spans="2:13" ht="15.75" thickBot="1">
+      <c r="B27" s="123"/>
+      <c r="C27" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="141" t="s">
+        <v>123</v>
+      </c>
+      <c r="E27" s="73"/>
+      <c r="J27" s="123"/>
+      <c r="K27" s="24" t="s">
+        <v>1638</v>
+      </c>
+      <c r="M27" s="73"/>
+    </row>
+    <row r="28" spans="2:13">
+      <c r="B28" s="123"/>
+      <c r="C28" s="24" t="s">
+        <v>854</v>
+      </c>
+      <c r="D28" s="141" t="s">
+        <v>691</v>
+      </c>
+      <c r="E28" s="73"/>
+      <c r="J28" s="123"/>
+      <c r="K28" s="512" t="s">
+        <v>1637</v>
+      </c>
+      <c r="L28" s="137"/>
+      <c r="M28" s="73"/>
+    </row>
+    <row r="29" spans="2:13">
+      <c r="B29" s="123"/>
+      <c r="D29" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E29" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>725</v>
+      </c>
+      <c r="J29" s="123"/>
+      <c r="K29" s="123" t="s">
+        <v>1642</v>
+      </c>
+      <c r="L29" s="73"/>
+      <c r="M29" s="73"/>
+    </row>
+    <row r="30" spans="2:13" ht="15.75" thickBot="1">
+      <c r="B30" s="123"/>
+      <c r="D30" s="158" t="s">
+        <v>1636</v>
+      </c>
+      <c r="E30" s="73"/>
+      <c r="J30" s="123"/>
+      <c r="K30" s="138" t="s">
+        <v>1643</v>
+      </c>
+      <c r="L30" s="272"/>
+      <c r="M30" s="73"/>
+    </row>
+    <row r="31" spans="2:13" ht="15.75" thickBot="1">
+      <c r="B31" s="123"/>
+      <c r="E31" s="73"/>
+      <c r="G31" s="24" t="s">
+        <v>1633</v>
+      </c>
+      <c r="J31" s="123"/>
+      <c r="K31" s="24" t="s">
+        <v>1639</v>
+      </c>
+      <c r="M31" s="73"/>
+    </row>
+    <row r="32" spans="2:13">
+      <c r="B32" s="123"/>
+      <c r="E32" s="73"/>
+      <c r="G32" s="24" t="s">
+        <v>1634</v>
+      </c>
+      <c r="J32" s="123"/>
+      <c r="K32" s="512" t="s">
+        <v>1640</v>
+      </c>
+      <c r="L32" s="137"/>
+      <c r="M32" s="73"/>
+    </row>
+    <row r="33" spans="2:13" ht="15.75" thickBot="1">
+      <c r="B33" s="138"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="272"/>
+      <c r="J33" s="138"/>
+      <c r="K33" s="138"/>
+      <c r="L33" s="272"/>
+      <c r="M33" s="272"/>
+    </row>
+    <row r="36" spans="2:13">
+      <c r="C36" s="24" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13">
+      <c r="F42" s="24" t="s">
+        <v>868</v>
+      </c>
+      <c r="G42" s="24" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13">
+      <c r="E43" s="24" t="s">
+        <v>873</v>
+      </c>
+      <c r="F43" s="141" t="s">
+        <v>871</v>
+      </c>
+      <c r="G43" s="141" t="s">
+        <v>1102</v>
+      </c>
+      <c r="K43" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="L43" s="141"/>
+    </row>
+    <row r="44" spans="2:13">
+      <c r="E44" s="24" t="s">
+        <v>874</v>
+      </c>
+      <c r="F44" s="141" t="s">
+        <v>872</v>
+      </c>
+      <c r="G44" s="141" t="s">
+        <v>1644</v>
+      </c>
+      <c r="K44" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="L44" s="141"/>
+    </row>
+    <row r="45" spans="2:13">
+      <c r="L45" s="141" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13">
+      <c r="E46" s="24" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13">
+      <c r="F47" s="24" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13">
+      <c r="G48" s="24" t="s">
+        <v>1646</v>
+      </c>
+      <c r="K48" s="24" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="49" spans="5:7">
+      <c r="G49" s="24" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="50" spans="5:7">
+      <c r="F50" s="24" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="51" spans="5:7">
+      <c r="F51" s="24" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="52" spans="5:7">
+      <c r="G52" s="24" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="53" spans="5:7">
+      <c r="G53" s="24" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="54" spans="5:7">
+      <c r="F54" s="24" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="55" spans="5:7">
+      <c r="F55" s="24" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="56" spans="5:7">
+      <c r="G56" s="24" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="57" spans="5:7">
+      <c r="G57" s="24" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="58" spans="5:7">
+      <c r="F58" s="24" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="59" spans="5:7">
+      <c r="E59" s="24" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="134" spans="3:3">
+      <c r="C134" s="345"/>
+    </row>
     <row r="135" spans="3:3">
-      <c r="C135" s="470"/>
+      <c r="C135" s="345"/>
     </row>
     <row r="136" spans="3:3">
-      <c r="C136" s="470"/>
+      <c r="C136" s="345"/>
     </row>
     <row r="137" spans="3:3">
-      <c r="C137" s="470"/>
+      <c r="C137" s="345"/>
     </row>
     <row r="138" spans="3:3">
-      <c r="C138" s="470"/>
+      <c r="C138" s="345"/>
     </row>
     <row r="139" spans="3:3">
-      <c r="C139" s="470"/>
+      <c r="C139" s="345"/>
     </row>
     <row r="140" spans="3:3">
-      <c r="C140" s="470"/>
+      <c r="C140" s="345"/>
     </row>
     <row r="141" spans="3:3">
-      <c r="C141" s="470"/>
+      <c r="C141" s="345"/>
     </row>
     <row r="142" spans="3:3">
-      <c r="C142" s="470"/>
-    </row>
-    <row r="143" spans="3:3">
-      <c r="C143" s="470"/>
+      <c r="C142" s="345"/>
+    </row>
+    <row r="147" spans="4:4">
+      <c r="D147" s="346"/>
     </row>
     <row r="148" spans="4:4">
-      <c r="D148" s="503"/>
+      <c r="D148" s="345"/>
     </row>
     <row r="149" spans="4:4">
-      <c r="D149" s="470"/>
+      <c r="D149" s="345"/>
     </row>
     <row r="150" spans="4:4">
-      <c r="D150" s="470"/>
+      <c r="D150" s="345"/>
     </row>
     <row r="151" spans="4:4">
-      <c r="D151" s="470"/>
+      <c r="D151" s="345"/>
     </row>
     <row r="152" spans="4:4">
-      <c r="D152" s="470"/>
+      <c r="D152" s="345"/>
     </row>
     <row r="153" spans="4:4">
-      <c r="D153" s="470"/>
-    </row>
-    <row r="154" spans="4:4">
-      <c r="D154" s="470"/>
+      <c r="D153" s="345"/>
+    </row>
+    <row r="182" spans="14:14">
+      <c r="N182" s="345"/>
     </row>
     <row r="183" spans="14:14">
-      <c r="N183" s="470"/>
+      <c r="N183" s="345"/>
     </row>
     <row r="184" spans="14:14">
-      <c r="N184" s="470"/>
+      <c r="N184" s="345"/>
     </row>
     <row r="185" spans="14:14">
-      <c r="N185" s="470"/>
+      <c r="N185" s="345"/>
     </row>
     <row r="186" spans="14:14">
-      <c r="N186" s="470"/>
+      <c r="N186" s="345"/>
     </row>
     <row r="187" spans="14:14">
-      <c r="N187" s="470"/>
+      <c r="N187" s="345"/>
     </row>
     <row r="188" spans="14:14">
-      <c r="N188" s="470"/>
+      <c r="N188" s="345"/>
     </row>
     <row r="189" spans="14:14">
-      <c r="N189" s="470"/>
+      <c r="N189" s="345"/>
     </row>
     <row r="190" spans="14:14">
-      <c r="N190" s="470"/>
-    </row>
-    <row r="191" spans="14:14">
-      <c r="N191" s="470"/>
+      <c r="N190" s="345"/>
+    </row>
+    <row r="199" spans="3:3">
+      <c r="C199" s="333"/>
     </row>
     <row r="200" spans="3:3">
-      <c r="C200" s="504"/>
-    </row>
-    <row r="201" spans="3:3">
-      <c r="C201" s="285"/>
+      <c r="C200" s="285"/>
+    </row>
+    <row r="211" spans="4:13">
+      <c r="D211" s="285"/>
+      <c r="E211" s="285"/>
+      <c r="F211" s="285"/>
+      <c r="G211" s="285"/>
+      <c r="H211" s="285"/>
+      <c r="I211" s="285"/>
+      <c r="J211" s="285"/>
+      <c r="K211" s="285"/>
+      <c r="L211" s="285"/>
+      <c r="M211" s="285"/>
     </row>
     <row r="212" spans="4:13">
       <c r="D212" s="285"/>
@@ -28064,28 +28380,21 @@
       <c r="L217" s="285"/>
       <c r="M217" s="285"/>
     </row>
-    <row r="218" spans="4:13">
-      <c r="D218" s="285"/>
-      <c r="E218" s="285"/>
-      <c r="F218" s="285"/>
-      <c r="G218" s="285"/>
-      <c r="H218" s="285"/>
-      <c r="I218" s="285"/>
-      <c r="J218" s="285"/>
-      <c r="K218" s="285"/>
-      <c r="L218" s="285"/>
-      <c r="M218" s="285"/>
-    </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="N184:N190"/>
+    <mergeCell ref="D147:D153"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="N5:N11"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="C137:C143"/>
-    <mergeCell ref="N183:N184"/>
-    <mergeCell ref="N185:N191"/>
-    <mergeCell ref="D148:D154"/>
+    <mergeCell ref="C134:C135"/>
+    <mergeCell ref="C136:C142"/>
+    <mergeCell ref="N182:N183"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D30" r:id="rId1"/>
+    <hyperlink ref="K28" r:id="rId2"/>
+    <hyperlink ref="K32" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -28151,14 +28460,14 @@
       <c r="H4" s="4"/>
       <c r="I4" s="1"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="321" t="s">
+      <c r="K4" s="347" t="s">
         <v>78</v>
       </c>
-      <c r="L4" s="322"/>
-      <c r="M4" s="322"/>
-      <c r="N4" s="322"/>
-      <c r="O4" s="322"/>
-      <c r="P4" s="323"/>
+      <c r="L4" s="348"/>
+      <c r="M4" s="348"/>
+      <c r="N4" s="348"/>
+      <c r="O4" s="348"/>
+      <c r="P4" s="349"/>
       <c r="Q4" s="106" t="s">
         <v>169</v>
       </c>
@@ -28290,10 +28599,10 @@
       <c r="L8" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="M8" s="334" t="s">
+      <c r="M8" s="363" t="s">
         <v>110</v>
       </c>
-      <c r="N8" s="335"/>
+      <c r="N8" s="364"/>
       <c r="O8" s="5" t="s">
         <v>18</v>
       </c>
@@ -28327,8 +28636,8 @@
       <c r="L9" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="M9" s="335"/>
-      <c r="N9" s="335"/>
+      <c r="M9" s="364"/>
+      <c r="N9" s="364"/>
       <c r="O9" s="5" t="s">
         <v>87</v>
       </c>
@@ -28368,8 +28677,8 @@
       <c r="L10" s="5" t="s">
         <v>915</v>
       </c>
-      <c r="M10" s="335"/>
-      <c r="N10" s="335"/>
+      <c r="M10" s="364"/>
+      <c r="N10" s="364"/>
       <c r="O10" s="5"/>
       <c r="P10" s="201" t="s">
         <v>271</v>
@@ -28382,13 +28691,13 @@
       <c r="T10" s="33"/>
     </row>
     <row r="11" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A11" s="324" t="s">
+      <c r="A11" s="350" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="325"/>
-      <c r="C11" s="326"/>
-      <c r="D11" s="326"/>
-      <c r="E11" s="327"/>
+      <c r="B11" s="351"/>
+      <c r="C11" s="352"/>
+      <c r="D11" s="352"/>
+      <c r="E11" s="353"/>
       <c r="F11" t="s">
         <v>1181</v>
       </c>
@@ -28397,8 +28706,8 @@
       <c r="J11" s="10"/>
       <c r="K11" s="4"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="335"/>
-      <c r="N11" s="335"/>
+      <c r="M11" s="364"/>
+      <c r="N11" s="364"/>
       <c r="O11" s="5"/>
       <c r="P11" s="201" t="s">
         <v>272</v>
@@ -28408,11 +28717,11 @@
       <c r="T11" s="33"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="306"/>
-      <c r="B12" s="313"/>
-      <c r="C12" s="313"/>
-      <c r="D12" s="313"/>
-      <c r="E12" s="307"/>
+      <c r="A12" s="354"/>
+      <c r="B12" s="355"/>
+      <c r="C12" s="355"/>
+      <c r="D12" s="355"/>
+      <c r="E12" s="356"/>
       <c r="F12" t="s">
         <v>721</v>
       </c>
@@ -28421,8 +28730,8 @@
       <c r="J12" s="2"/>
       <c r="K12" s="4"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="335"/>
-      <c r="N12" s="335"/>
+      <c r="M12" s="364"/>
+      <c r="N12" s="364"/>
       <c r="O12" s="5"/>
       <c r="P12" s="201" t="s">
         <v>1050</v>
@@ -28432,11 +28741,11 @@
       <c r="T12" s="33"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="306"/>
-      <c r="B13" s="313"/>
-      <c r="C13" s="313"/>
-      <c r="D13" s="313"/>
-      <c r="E13" s="307"/>
+      <c r="A13" s="354"/>
+      <c r="B13" s="355"/>
+      <c r="C13" s="355"/>
+      <c r="D13" s="355"/>
+      <c r="E13" s="356"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4" t="s">
         <v>92</v>
@@ -28444,8 +28753,8 @@
       <c r="J13" s="5"/>
       <c r="K13" s="4"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="335"/>
-      <c r="N13" s="335"/>
+      <c r="M13" s="364"/>
+      <c r="N13" s="364"/>
       <c r="O13" s="26"/>
       <c r="P13" s="201"/>
       <c r="S13" t="s">
@@ -28453,11 +28762,11 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A14" s="328"/>
-      <c r="B14" s="329"/>
-      <c r="C14" s="329"/>
-      <c r="D14" s="329"/>
-      <c r="E14" s="330"/>
+      <c r="A14" s="357"/>
+      <c r="B14" s="358"/>
+      <c r="C14" s="358"/>
+      <c r="D14" s="358"/>
+      <c r="E14" s="359"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
@@ -28633,20 +28942,20 @@
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="331" t="s">
+      <c r="I20" s="360" t="s">
         <v>94</v>
       </c>
-      <c r="J20" s="332"/>
-      <c r="K20" s="331" t="s">
+      <c r="J20" s="361"/>
+      <c r="K20" s="360" t="s">
         <v>95</v>
       </c>
-      <c r="L20" s="332"/>
-      <c r="M20" s="331" t="s">
+      <c r="L20" s="361"/>
+      <c r="M20" s="360" t="s">
         <v>1269</v>
       </c>
-      <c r="N20" s="333"/>
-      <c r="O20" s="333"/>
-      <c r="P20" s="332"/>
+      <c r="N20" s="362"/>
+      <c r="O20" s="362"/>
+      <c r="P20" s="361"/>
       <c r="S20" t="s">
         <v>169</v>
       </c>
@@ -29209,13 +29518,13 @@
       <c r="Q84" s="6"/>
     </row>
     <row r="85" spans="1:17">
-      <c r="A85" s="312" t="s">
+      <c r="A85" s="369" t="s">
         <v>1161</v>
       </c>
-      <c r="B85" s="313"/>
-      <c r="C85" s="313"/>
-      <c r="D85" s="313"/>
-      <c r="E85" s="313"/>
+      <c r="B85" s="355"/>
+      <c r="C85" s="355"/>
+      <c r="D85" s="355"/>
+      <c r="E85" s="355"/>
       <c r="F85" s="6" t="s">
         <v>1165</v>
       </c>
@@ -29262,14 +29571,14 @@
       <c r="H87" s="4"/>
       <c r="I87" s="30"/>
       <c r="J87" s="26"/>
-      <c r="K87" s="320" t="s">
+      <c r="K87" s="376" t="s">
         <v>1164</v>
       </c>
-      <c r="L87" s="315"/>
-      <c r="M87" s="320" t="s">
+      <c r="L87" s="371"/>
+      <c r="M87" s="376" t="s">
         <v>1175</v>
       </c>
-      <c r="N87" s="315"/>
+      <c r="N87" s="371"/>
       <c r="O87" s="26"/>
       <c r="P87" s="34"/>
       <c r="Q87" s="6"/>
@@ -29286,10 +29595,10 @@
       <c r="H88" s="4"/>
       <c r="I88" s="30"/>
       <c r="J88" s="26"/>
-      <c r="K88" s="318"/>
-      <c r="L88" s="319"/>
-      <c r="M88" s="316"/>
-      <c r="N88" s="317"/>
+      <c r="K88" s="374"/>
+      <c r="L88" s="375"/>
+      <c r="M88" s="372"/>
+      <c r="N88" s="373"/>
       <c r="O88" s="26"/>
       <c r="P88" s="34"/>
       <c r="Q88" s="6"/>
@@ -29308,12 +29617,12 @@
       </c>
       <c r="I89" s="30"/>
       <c r="J89" s="26"/>
-      <c r="K89" s="314" t="s">
+      <c r="K89" s="370" t="s">
         <v>1156</v>
       </c>
-      <c r="L89" s="315"/>
-      <c r="M89" s="316"/>
-      <c r="N89" s="317"/>
+      <c r="L89" s="371"/>
+      <c r="M89" s="372"/>
+      <c r="N89" s="373"/>
       <c r="O89" s="26"/>
       <c r="P89" s="34"/>
       <c r="Q89" s="6"/>
@@ -29328,10 +29637,10 @@
       <c r="H90" s="4"/>
       <c r="I90" s="30"/>
       <c r="J90" s="26"/>
-      <c r="K90" s="318"/>
-      <c r="L90" s="319"/>
-      <c r="M90" s="316"/>
-      <c r="N90" s="317"/>
+      <c r="K90" s="374"/>
+      <c r="L90" s="375"/>
+      <c r="M90" s="372"/>
+      <c r="N90" s="373"/>
       <c r="O90" s="26"/>
       <c r="P90" s="34"/>
       <c r="Q90" s="6"/>
@@ -29348,12 +29657,12 @@
       <c r="H91" s="4"/>
       <c r="I91" s="30"/>
       <c r="J91" s="26"/>
-      <c r="K91" s="314" t="s">
+      <c r="K91" s="370" t="s">
         <v>1157</v>
       </c>
-      <c r="L91" s="315"/>
-      <c r="M91" s="316"/>
-      <c r="N91" s="317"/>
+      <c r="L91" s="371"/>
+      <c r="M91" s="372"/>
+      <c r="N91" s="373"/>
       <c r="O91" s="26"/>
       <c r="P91" s="34"/>
       <c r="Q91" s="6"/>
@@ -29370,10 +29679,10 @@
       <c r="H92" s="4"/>
       <c r="I92" s="30"/>
       <c r="J92" s="26"/>
-      <c r="K92" s="318"/>
-      <c r="L92" s="319"/>
-      <c r="M92" s="316"/>
-      <c r="N92" s="317"/>
+      <c r="K92" s="374"/>
+      <c r="L92" s="375"/>
+      <c r="M92" s="372"/>
+      <c r="N92" s="373"/>
       <c r="O92" s="26"/>
       <c r="P92" s="34"/>
       <c r="Q92" s="6"/>
@@ -29388,12 +29697,12 @@
       <c r="H93" s="4"/>
       <c r="I93" s="30"/>
       <c r="J93" s="26"/>
-      <c r="K93" s="314" t="s">
+      <c r="K93" s="370" t="s">
         <v>1158</v>
       </c>
-      <c r="L93" s="315"/>
-      <c r="M93" s="316"/>
-      <c r="N93" s="317"/>
+      <c r="L93" s="371"/>
+      <c r="M93" s="372"/>
+      <c r="N93" s="373"/>
       <c r="O93" s="26"/>
       <c r="P93" s="34"/>
       <c r="Q93" s="6"/>
@@ -29405,10 +29714,10 @@
       <c r="H94" s="4"/>
       <c r="I94" s="30"/>
       <c r="J94" s="26"/>
-      <c r="K94" s="316"/>
-      <c r="L94" s="317"/>
-      <c r="M94" s="316"/>
-      <c r="N94" s="317"/>
+      <c r="K94" s="372"/>
+      <c r="L94" s="373"/>
+      <c r="M94" s="372"/>
+      <c r="N94" s="373"/>
       <c r="O94" s="26"/>
       <c r="P94" s="34"/>
       <c r="Q94" s="6"/>
@@ -29422,10 +29731,10 @@
       <c r="H95" s="4"/>
       <c r="I95" s="30"/>
       <c r="J95" s="26"/>
-      <c r="K95" s="318"/>
-      <c r="L95" s="319"/>
-      <c r="M95" s="318"/>
-      <c r="N95" s="319"/>
+      <c r="K95" s="374"/>
+      <c r="L95" s="375"/>
+      <c r="M95" s="374"/>
+      <c r="N95" s="375"/>
       <c r="O95" s="26"/>
       <c r="P95" s="34"/>
       <c r="Q95" s="6"/>
@@ -29442,14 +29751,14 @@
       <c r="H96" s="4"/>
       <c r="I96" s="30"/>
       <c r="J96" s="26"/>
-      <c r="K96" s="311" t="s">
+      <c r="K96" s="368" t="s">
         <v>1159</v>
       </c>
-      <c r="L96" s="311"/>
-      <c r="M96" s="311" t="s">
+      <c r="L96" s="368"/>
+      <c r="M96" s="368" t="s">
         <v>1160</v>
       </c>
-      <c r="N96" s="311"/>
+      <c r="N96" s="368"/>
       <c r="O96" s="26"/>
       <c r="P96" s="34"/>
       <c r="Q96" s="6"/>
@@ -29573,7 +29882,7 @@
       <c r="E115" s="98"/>
       <c r="F115" s="99"/>
       <c r="I115" s="4"/>
-      <c r="J115" s="308" t="s">
+      <c r="J115" s="365" t="s">
         <v>1190</v>
       </c>
       <c r="K115" s="2"/>
@@ -29590,7 +29899,7 @@
       <c r="E116" s="5"/>
       <c r="F116" s="6"/>
       <c r="I116" s="4"/>
-      <c r="J116" s="309"/>
+      <c r="J116" s="366"/>
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
       <c r="M116" s="3"/>
@@ -29605,7 +29914,7 @@
       <c r="E117" s="5"/>
       <c r="F117" s="6"/>
       <c r="I117" s="4"/>
-      <c r="J117" s="309"/>
+      <c r="J117" s="366"/>
       <c r="K117" s="5" t="s">
         <v>24</v>
       </c>
@@ -29622,7 +29931,7 @@
       <c r="E118" s="5"/>
       <c r="F118" s="6"/>
       <c r="I118" s="4"/>
-      <c r="J118" s="309"/>
+      <c r="J118" s="366"/>
       <c r="K118" s="5"/>
       <c r="L118" s="5"/>
       <c r="M118" s="6"/>
@@ -29637,7 +29946,7 @@
       <c r="E119" s="5"/>
       <c r="F119" s="6"/>
       <c r="I119" s="4"/>
-      <c r="J119" s="309"/>
+      <c r="J119" s="366"/>
       <c r="K119" s="5" t="s">
         <v>533</v>
       </c>
@@ -29657,7 +29966,7 @@
         <v>1189</v>
       </c>
       <c r="I120" s="4"/>
-      <c r="J120" s="309"/>
+      <c r="J120" s="366"/>
       <c r="K120" s="10"/>
       <c r="L120" s="10"/>
       <c r="M120" s="9"/>
@@ -29677,7 +29986,7 @@
         <v>167</v>
       </c>
       <c r="I121" s="4"/>
-      <c r="J121" s="309"/>
+      <c r="J121" s="366"/>
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
       <c r="M121" s="3"/>
@@ -29694,7 +30003,7 @@
       <c r="E122" s="5"/>
       <c r="F122" s="6"/>
       <c r="I122" s="4"/>
-      <c r="J122" s="309"/>
+      <c r="J122" s="366"/>
       <c r="K122" s="5"/>
       <c r="L122" s="5" t="s">
         <v>1186</v>
@@ -29713,7 +30022,7 @@
       <c r="E123" s="5"/>
       <c r="F123" s="6"/>
       <c r="I123" s="4"/>
-      <c r="J123" s="309"/>
+      <c r="J123" s="366"/>
       <c r="K123" s="5"/>
       <c r="L123" s="5" t="s">
         <v>1184</v>
@@ -29730,7 +30039,7 @@
       <c r="E124" s="5"/>
       <c r="F124" s="6"/>
       <c r="I124" s="4"/>
-      <c r="J124" s="309"/>
+      <c r="J124" s="366"/>
       <c r="K124" s="5"/>
       <c r="L124" s="5" t="s">
         <v>24</v>
@@ -29747,7 +30056,7 @@
       <c r="E125" s="5"/>
       <c r="F125" s="6"/>
       <c r="I125" s="4"/>
-      <c r="J125" s="309"/>
+      <c r="J125" s="366"/>
       <c r="K125" s="10"/>
       <c r="L125" s="10"/>
       <c r="M125" s="9"/>
@@ -29762,7 +30071,7 @@
       <c r="E126" s="10"/>
       <c r="F126" s="9"/>
       <c r="I126" s="4"/>
-      <c r="J126" s="310"/>
+      <c r="J126" s="367"/>
       <c r="K126" s="10"/>
       <c r="L126" s="10"/>
       <c r="M126" s="10"/>
@@ -29812,12 +30121,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="K4:P4"/>
-    <mergeCell ref="A11:E14"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="M8:N13"/>
     <mergeCell ref="J115:J126"/>
     <mergeCell ref="K96:L96"/>
     <mergeCell ref="M96:N96"/>
@@ -29827,6 +30130,12 @@
     <mergeCell ref="K89:L90"/>
     <mergeCell ref="K87:L88"/>
     <mergeCell ref="M87:N95"/>
+    <mergeCell ref="K4:P4"/>
+    <mergeCell ref="A11:E14"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="M8:N13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="T7" r:id="rId1"/>
@@ -30266,13 +30575,13 @@
         <v>81</v>
       </c>
       <c r="J3" s="137"/>
-      <c r="K3" s="345"/>
-      <c r="L3" s="345"/>
-      <c r="M3" s="345"/>
-      <c r="N3" s="345"/>
-      <c r="O3" s="345"/>
-      <c r="P3" s="345"/>
-      <c r="Q3" s="346"/>
+      <c r="K3" s="386"/>
+      <c r="L3" s="386"/>
+      <c r="M3" s="386"/>
+      <c r="N3" s="386"/>
+      <c r="O3" s="386"/>
+      <c r="P3" s="386"/>
+      <c r="Q3" s="387"/>
       <c r="T3" s="35" t="s">
         <v>79</v>
       </c>
@@ -30540,13 +30849,13 @@
       <c r="U11" s="33"/>
     </row>
     <row r="12" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A12" s="336" t="s">
+      <c r="A12" s="377" t="s">
         <v>456</v>
       </c>
-      <c r="B12" s="337"/>
-      <c r="C12" s="337"/>
-      <c r="D12" s="337"/>
-      <c r="E12" s="338"/>
+      <c r="B12" s="378"/>
+      <c r="C12" s="378"/>
+      <c r="D12" s="378"/>
+      <c r="E12" s="379"/>
       <c r="F12" t="s">
         <v>469</v>
       </c>
@@ -30569,11 +30878,11 @@
       </c>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="339"/>
-      <c r="B13" s="340"/>
-      <c r="C13" s="340"/>
-      <c r="D13" s="340"/>
-      <c r="E13" s="341"/>
+      <c r="A13" s="380"/>
+      <c r="B13" s="381"/>
+      <c r="C13" s="381"/>
+      <c r="D13" s="381"/>
+      <c r="E13" s="382"/>
       <c r="F13" t="s">
         <v>6</v>
       </c>
@@ -30594,11 +30903,11 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A14" s="339"/>
-      <c r="B14" s="340"/>
-      <c r="C14" s="340"/>
-      <c r="D14" s="340"/>
-      <c r="E14" s="341"/>
+      <c r="A14" s="380"/>
+      <c r="B14" s="381"/>
+      <c r="C14" s="381"/>
+      <c r="D14" s="381"/>
+      <c r="E14" s="382"/>
       <c r="F14" t="s">
         <v>466</v>
       </c>
@@ -30621,11 +30930,11 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A15" s="342"/>
-      <c r="B15" s="343"/>
-      <c r="C15" s="343"/>
-      <c r="D15" s="343"/>
-      <c r="E15" s="344"/>
+      <c r="A15" s="383"/>
+      <c r="B15" s="384"/>
+      <c r="C15" s="384"/>
+      <c r="D15" s="384"/>
+      <c r="E15" s="385"/>
       <c r="F15" s="24"/>
       <c r="H15" s="161"/>
       <c r="I15" s="4" t="s">
@@ -30683,17 +30992,17 @@
       <c r="F17" s="157"/>
       <c r="G17" s="118"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="322" t="s">
+      <c r="I17" s="348" t="s">
         <v>925</v>
       </c>
-      <c r="J17" s="322"/>
-      <c r="K17" s="322"/>
-      <c r="L17" s="322"/>
-      <c r="M17" s="322"/>
-      <c r="N17" s="322"/>
-      <c r="O17" s="322"/>
-      <c r="P17" s="322"/>
-      <c r="Q17" s="322"/>
+      <c r="J17" s="348"/>
+      <c r="K17" s="348"/>
+      <c r="L17" s="348"/>
+      <c r="M17" s="348"/>
+      <c r="N17" s="348"/>
+      <c r="O17" s="348"/>
+      <c r="P17" s="348"/>
+      <c r="Q17" s="348"/>
       <c r="S17" t="s">
         <v>230</v>
       </c>
@@ -33806,7 +34115,7 @@
       <c r="L109" s="2"/>
       <c r="M109" s="3"/>
       <c r="N109" s="5"/>
-      <c r="O109" s="347">
+      <c r="O109" s="388">
         <v>123</v>
       </c>
       <c r="P109" s="262" t="s">
@@ -33828,7 +34137,7 @@
       <c r="L110" s="5"/>
       <c r="M110" s="6"/>
       <c r="N110" s="5"/>
-      <c r="O110" s="309"/>
+      <c r="O110" s="366"/>
       <c r="P110" s="262"/>
       <c r="Q110" s="33" t="s">
         <v>236</v>
@@ -33846,7 +34155,7 @@
       <c r="L111" s="5"/>
       <c r="M111" s="6"/>
       <c r="N111" s="5"/>
-      <c r="O111" s="309"/>
+      <c r="O111" s="366"/>
       <c r="P111" s="262"/>
       <c r="Q111" s="33" t="s">
         <v>779</v>
@@ -33864,7 +34173,7 @@
       <c r="L112" s="5"/>
       <c r="M112" s="6"/>
       <c r="N112" s="5"/>
-      <c r="O112" s="309"/>
+      <c r="O112" s="366"/>
       <c r="P112" s="262"/>
       <c r="Q112" s="33"/>
     </row>
@@ -33883,7 +34192,7 @@
       <c r="L113" s="5"/>
       <c r="M113" s="6"/>
       <c r="N113" s="5"/>
-      <c r="O113" s="310"/>
+      <c r="O113" s="367"/>
       <c r="P113" s="262"/>
       <c r="Q113" s="33"/>
     </row>
@@ -33908,7 +34217,7 @@
       <c r="L114" s="5"/>
       <c r="M114" s="6"/>
       <c r="N114" s="5"/>
-      <c r="O114" s="347">
+      <c r="O114" s="388">
         <v>456</v>
       </c>
       <c r="P114" s="262" t="s">
@@ -33930,7 +34239,7 @@
       <c r="L115" s="5"/>
       <c r="M115" s="6"/>
       <c r="N115" s="5"/>
-      <c r="O115" s="309"/>
+      <c r="O115" s="366"/>
       <c r="P115" s="262"/>
       <c r="Q115" s="33" t="s">
         <v>1235</v>
@@ -33951,7 +34260,7 @@
       <c r="L116" s="5"/>
       <c r="M116" s="6"/>
       <c r="N116" s="5"/>
-      <c r="O116" s="309"/>
+      <c r="O116" s="366"/>
       <c r="P116" s="262"/>
       <c r="Q116" s="33"/>
     </row>
@@ -33970,7 +34279,7 @@
       <c r="L117" s="5"/>
       <c r="M117" s="6"/>
       <c r="N117" s="5"/>
-      <c r="O117" s="310"/>
+      <c r="O117" s="367"/>
       <c r="P117" s="262"/>
       <c r="Q117" s="33"/>
     </row>
@@ -33986,7 +34295,7 @@
       <c r="L118" s="5"/>
       <c r="M118" s="6"/>
       <c r="N118" s="5"/>
-      <c r="O118" s="347">
+      <c r="O118" s="388">
         <v>777</v>
       </c>
       <c r="P118" s="262"/>
@@ -34009,7 +34318,7 @@
       <c r="L119" s="5"/>
       <c r="M119" s="6"/>
       <c r="N119" s="5"/>
-      <c r="O119" s="309"/>
+      <c r="O119" s="366"/>
       <c r="P119" s="262"/>
       <c r="Q119" s="33"/>
     </row>
@@ -34028,7 +34337,7 @@
       <c r="L120" s="5"/>
       <c r="M120" s="6"/>
       <c r="N120" s="5"/>
-      <c r="O120" s="309"/>
+      <c r="O120" s="366"/>
       <c r="P120" s="262"/>
       <c r="Q120" s="33"/>
     </row>
@@ -34047,7 +34356,7 @@
       <c r="L121" s="5"/>
       <c r="M121" s="6"/>
       <c r="N121" s="5"/>
-      <c r="O121" s="310"/>
+      <c r="O121" s="367"/>
       <c r="P121" s="262"/>
       <c r="Q121" s="33"/>
     </row>
@@ -34209,10 +34518,10 @@
       <c r="L133" s="2"/>
       <c r="M133" s="3"/>
       <c r="N133" s="5"/>
-      <c r="O133" s="351">
+      <c r="O133" s="392">
         <v>123</v>
       </c>
-      <c r="P133" s="348" t="s">
+      <c r="P133" s="389" t="s">
         <v>557</v>
       </c>
       <c r="Q133" s="281" t="s">
@@ -34231,8 +34540,8 @@
       <c r="L134" s="5"/>
       <c r="M134" s="6"/>
       <c r="N134" s="5"/>
-      <c r="O134" s="352"/>
-      <c r="P134" s="349"/>
+      <c r="O134" s="393"/>
+      <c r="P134" s="390"/>
       <c r="Q134" s="281" t="s">
         <v>236</v>
       </c>
@@ -34249,8 +34558,8 @@
       <c r="L135" s="5"/>
       <c r="M135" s="6"/>
       <c r="N135" s="5"/>
-      <c r="O135" s="352"/>
-      <c r="P135" s="349"/>
+      <c r="O135" s="393"/>
+      <c r="P135" s="390"/>
       <c r="Q135" s="281"/>
     </row>
     <row r="136" spans="1:17" ht="15.75" thickBot="1">
@@ -34269,8 +34578,8 @@
       <c r="L136" s="5"/>
       <c r="M136" s="6"/>
       <c r="N136" s="5"/>
-      <c r="O136" s="352"/>
-      <c r="P136" s="349"/>
+      <c r="O136" s="393"/>
+      <c r="P136" s="390"/>
       <c r="Q136" s="281"/>
     </row>
     <row r="137" spans="1:17" ht="15.75" thickBot="1">
@@ -34292,8 +34601,8 @@
       <c r="L137" s="26"/>
       <c r="M137" s="34"/>
       <c r="N137" s="26"/>
-      <c r="O137" s="353"/>
-      <c r="P137" s="350"/>
+      <c r="O137" s="394"/>
+      <c r="P137" s="391"/>
       <c r="Q137" s="281"/>
     </row>
     <row r="138" spans="1:17">
@@ -34313,7 +34622,7 @@
       <c r="L138" s="5"/>
       <c r="M138" s="6"/>
       <c r="N138" s="5"/>
-      <c r="O138" s="347"/>
+      <c r="O138" s="388"/>
       <c r="P138" s="262"/>
       <c r="Q138" s="33"/>
     </row>
@@ -34329,7 +34638,7 @@
       <c r="L139" s="5"/>
       <c r="M139" s="6"/>
       <c r="N139" s="5"/>
-      <c r="O139" s="309"/>
+      <c r="O139" s="366"/>
       <c r="P139" s="262"/>
       <c r="Q139" s="33"/>
     </row>
@@ -34347,7 +34656,7 @@
       <c r="L140" s="44"/>
       <c r="M140" s="54"/>
       <c r="N140" s="5"/>
-      <c r="O140" s="309"/>
+      <c r="O140" s="366"/>
       <c r="P140" s="262"/>
       <c r="Q140" s="33"/>
     </row>
@@ -34366,7 +34675,7 @@
       <c r="L141" s="5"/>
       <c r="M141" s="6"/>
       <c r="N141" s="5"/>
-      <c r="O141" s="310"/>
+      <c r="O141" s="367"/>
       <c r="P141" s="262"/>
       <c r="Q141" s="33"/>
     </row>
@@ -34384,7 +34693,7 @@
       <c r="L142" s="5"/>
       <c r="M142" s="6"/>
       <c r="N142" s="5"/>
-      <c r="O142" s="347"/>
+      <c r="O142" s="388"/>
       <c r="P142" s="262"/>
       <c r="Q142" s="33"/>
     </row>
@@ -34404,7 +34713,7 @@
       </c>
       <c r="M143" s="280"/>
       <c r="N143" s="162"/>
-      <c r="O143" s="309"/>
+      <c r="O143" s="366"/>
       <c r="P143" s="262"/>
       <c r="Q143" s="33"/>
     </row>
@@ -34420,7 +34729,7 @@
       <c r="L144" s="5"/>
       <c r="M144" s="6"/>
       <c r="N144" s="5"/>
-      <c r="O144" s="309"/>
+      <c r="O144" s="366"/>
       <c r="P144" s="262"/>
       <c r="Q144" s="33"/>
     </row>
@@ -34440,7 +34749,7 @@
       <c r="L145" s="5"/>
       <c r="M145" s="6"/>
       <c r="N145" s="5"/>
-      <c r="O145" s="310"/>
+      <c r="O145" s="367"/>
       <c r="P145" s="262"/>
       <c r="Q145" s="33"/>
     </row>

--- a/jee_latest_st.xlsx
+++ b/jee_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="7590" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="7590" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="network" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3469" uniqueCount="1652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3540" uniqueCount="1664">
   <si>
     <t>java server - tomcat</t>
   </si>
@@ -5487,6 +5487,42 @@
   </si>
   <si>
     <t>&lt;td&gt;&lt;input type="submit" value="login"&gt;&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt; HTML / CSS / IMAGES/ MEDIA/ JAVASCRIPT &lt;&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>DOWNLOAD</t>
+  </si>
+  <si>
+    <t>UPLOAD</t>
+  </si>
+  <si>
+    <t>1) Consume internet - data usage</t>
+  </si>
+  <si>
+    <t>2)  Server will consumer MEMORY</t>
+  </si>
+  <si>
+    <t>3) server has to invest computing resources (CPU usage)</t>
+  </si>
+  <si>
+    <t>$$$</t>
+  </si>
+  <si>
+    <t>VALIDATINO/ VERIFICATION</t>
+  </si>
+  <si>
+    <t>enter userid ? Yes/no</t>
+  </si>
+  <si>
+    <t>enter pwd ? Yes/no</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
   </si>
 </sst>
 </file>
@@ -5690,7 +5726,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5796,6 +5832,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6246,7 +6294,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="513">
+  <cellXfs count="540">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -6740,6 +6788,28 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6749,14 +6819,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6780,9 +6889,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6811,42 +6917,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6953,12 +7023,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6989,6 +7053,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6998,62 +7065,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7106,6 +7122,60 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7133,22 +7203,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7211,49 +7311,50 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -11848,10 +11949,10 @@
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="395" t="s">
+      <c r="L35" s="403" t="s">
         <v>246</v>
       </c>
-      <c r="M35" s="395"/>
+      <c r="M35" s="403"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
@@ -13781,10 +13882,10 @@
       </c>
     </row>
     <row r="155" spans="1:17">
-      <c r="A155" s="396" t="s">
+      <c r="A155" s="404" t="s">
         <v>770</v>
       </c>
-      <c r="B155" s="396"/>
+      <c r="B155" s="404"/>
     </row>
     <row r="156" spans="1:17">
       <c r="A156" s="84" t="s">
@@ -14569,19 +14670,19 @@
       </c>
     </row>
     <row r="29" spans="2:17">
-      <c r="B29" s="397" t="s">
+      <c r="B29" s="405" t="s">
         <v>1107</v>
       </c>
-      <c r="C29" s="397"/>
-      <c r="D29" s="397"/>
-      <c r="E29" s="397"/>
-      <c r="F29" s="397"/>
-      <c r="I29" s="397" t="s">
+      <c r="C29" s="405"/>
+      <c r="D29" s="405"/>
+      <c r="E29" s="405"/>
+      <c r="F29" s="405"/>
+      <c r="I29" s="405" t="s">
         <v>1311</v>
       </c>
-      <c r="J29" s="397"/>
-      <c r="K29" s="397"/>
-      <c r="L29" s="397"/>
+      <c r="J29" s="405"/>
+      <c r="K29" s="405"/>
+      <c r="L29" s="405"/>
     </row>
     <row r="31" spans="2:17">
       <c r="I31" t="s">
@@ -16270,18 +16371,18 @@
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1">
       <c r="D6" s="4"/>
-      <c r="E6" s="405" t="s">
+      <c r="E6" s="413" t="s">
         <v>278</v>
       </c>
-      <c r="F6" s="406"/>
-      <c r="G6" s="407" t="s">
+      <c r="F6" s="414"/>
+      <c r="G6" s="415" t="s">
         <v>78</v>
       </c>
-      <c r="H6" s="407"/>
-      <c r="I6" s="407"/>
-      <c r="J6" s="407"/>
-      <c r="K6" s="407"/>
-      <c r="L6" s="406"/>
+      <c r="H6" s="415"/>
+      <c r="I6" s="415"/>
+      <c r="J6" s="415"/>
+      <c r="K6" s="415"/>
+      <c r="L6" s="414"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="26" t="s">
@@ -16294,7 +16395,7 @@
       <c r="B7" t="s">
         <v>1408</v>
       </c>
-      <c r="D7" s="398">
+      <c r="D7" s="406">
         <v>80</v>
       </c>
       <c r="E7" s="287" t="s">
@@ -16314,7 +16415,7 @@
       <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1">
-      <c r="D8" s="398"/>
+      <c r="D8" s="406"/>
       <c r="E8" s="282" t="s">
         <v>280</v>
       </c>
@@ -16349,7 +16450,7 @@
       <c r="B9" t="s">
         <v>279</v>
       </c>
-      <c r="D9" s="398"/>
+      <c r="D9" s="406"/>
       <c r="E9" s="290"/>
       <c r="F9" s="291"/>
       <c r="G9" s="290"/>
@@ -16376,7 +16477,7 @@
       <c r="A10" t="s">
         <v>1413</v>
       </c>
-      <c r="D10" s="398"/>
+      <c r="D10" s="406"/>
       <c r="E10" s="287"/>
       <c r="F10" s="288"/>
       <c r="G10" s="287"/>
@@ -16400,7 +16501,7 @@
       <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1">
-      <c r="D11" s="398"/>
+      <c r="D11" s="406"/>
       <c r="E11" s="282" t="s">
         <v>284</v>
       </c>
@@ -16429,7 +16530,7 @@
       <c r="B12" s="177" t="s">
         <v>288</v>
       </c>
-      <c r="D12" s="398"/>
+      <c r="D12" s="406"/>
       <c r="E12" s="290"/>
       <c r="F12" s="291"/>
       <c r="G12" s="290"/>
@@ -16450,7 +16551,7 @@
       <c r="B13" t="s">
         <v>1409</v>
       </c>
-      <c r="D13" s="398"/>
+      <c r="D13" s="406"/>
       <c r="E13" s="287"/>
       <c r="F13" s="288"/>
       <c r="G13" s="287"/>
@@ -16469,7 +16570,7 @@
       <c r="B14" t="s">
         <v>1410</v>
       </c>
-      <c r="D14" s="398"/>
+      <c r="D14" s="406"/>
       <c r="E14" s="282" t="s">
         <v>289</v>
       </c>
@@ -16496,7 +16597,7 @@
       <c r="B15" t="s">
         <v>1411</v>
       </c>
-      <c r="D15" s="398"/>
+      <c r="D15" s="406"/>
       <c r="E15" s="290"/>
       <c r="F15" s="291"/>
       <c r="G15" s="290"/>
@@ -16515,7 +16616,7 @@
       <c r="B16" t="s">
         <v>1412</v>
       </c>
-      <c r="D16" s="398"/>
+      <c r="D16" s="406"/>
       <c r="E16" s="287"/>
       <c r="F16" s="288"/>
       <c r="G16" s="292"/>
@@ -16531,7 +16632,7 @@
       <c r="Q16" s="6"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1">
-      <c r="D17" s="398"/>
+      <c r="D17" s="406"/>
       <c r="E17" s="282" t="s">
         <v>293</v>
       </c>
@@ -16555,7 +16656,7 @@
       <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" thickBot="1">
-      <c r="D18" s="398"/>
+      <c r="D18" s="406"/>
       <c r="E18" s="290"/>
       <c r="F18" s="291"/>
       <c r="G18" s="293"/>
@@ -16572,20 +16673,20 @@
     </row>
     <row r="19" spans="1:17" ht="15.75" thickBot="1">
       <c r="D19" s="8"/>
-      <c r="E19" s="408" t="s">
+      <c r="E19" s="416" t="s">
         <v>94</v>
       </c>
-      <c r="F19" s="409"/>
-      <c r="G19" s="408" t="s">
+      <c r="F19" s="417"/>
+      <c r="G19" s="416" t="s">
         <v>95</v>
       </c>
-      <c r="H19" s="409"/>
-      <c r="I19" s="408" t="s">
+      <c r="H19" s="417"/>
+      <c r="I19" s="416" t="s">
         <v>96</v>
       </c>
-      <c r="J19" s="410"/>
-      <c r="K19" s="410"/>
-      <c r="L19" s="409"/>
+      <c r="J19" s="418"/>
+      <c r="K19" s="418"/>
+      <c r="L19" s="417"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
@@ -16650,12 +16751,12 @@
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="402"/>
-      <c r="H24" s="402"/>
-      <c r="I24" s="402"/>
-      <c r="J24" s="402"/>
-      <c r="K24" s="402"/>
-      <c r="L24" s="402"/>
+      <c r="G24" s="410"/>
+      <c r="H24" s="410"/>
+      <c r="I24" s="410"/>
+      <c r="J24" s="410"/>
+      <c r="K24" s="410"/>
+      <c r="L24" s="410"/>
       <c r="O24" s="35" t="s">
         <v>79</v>
       </c>
@@ -17030,11 +17131,11 @@
       <c r="G47" s="190" t="s">
         <v>672</v>
       </c>
-      <c r="H47" s="399" t="s">
+      <c r="H47" s="407" t="s">
         <v>1074</v>
       </c>
-      <c r="I47" s="400"/>
-      <c r="J47" s="401"/>
+      <c r="I47" s="408"/>
+      <c r="J47" s="409"/>
     </row>
     <row r="48" spans="1:17">
       <c r="F48" t="s">
@@ -17657,14 +17758,14 @@
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
       <c r="E97" s="6"/>
-      <c r="F97" s="403" t="s">
+      <c r="F97" s="411" t="s">
         <v>1228</v>
       </c>
-      <c r="G97" s="397"/>
-      <c r="H97" s="397"/>
-      <c r="I97" s="397"/>
-      <c r="J97" s="397"/>
-      <c r="K97" s="404"/>
+      <c r="G97" s="405"/>
+      <c r="H97" s="405"/>
+      <c r="I97" s="405"/>
+      <c r="J97" s="405"/>
+      <c r="K97" s="412"/>
       <c r="L97" s="4" t="s">
         <v>1398</v>
       </c>
@@ -20265,13 +20366,13 @@
       <c r="C20" s="107">
         <v>43908</v>
       </c>
-      <c r="D20" s="411" t="s">
+      <c r="D20" s="419" t="s">
         <v>328</v>
       </c>
-      <c r="E20" s="411"/>
-      <c r="F20" s="411"/>
-      <c r="G20" s="411"/>
-      <c r="H20" s="411"/>
+      <c r="E20" s="419"/>
+      <c r="F20" s="419"/>
+      <c r="G20" s="419"/>
+      <c r="H20" s="419"/>
       <c r="I20" s="33" t="s">
         <v>329</v>
       </c>
@@ -20282,37 +20383,37 @@
       <c r="N20" s="33"/>
     </row>
     <row r="21" spans="3:14">
-      <c r="C21" s="413">
+      <c r="C21" s="430">
         <v>43909</v>
       </c>
-      <c r="D21" s="411"/>
-      <c r="E21" s="411"/>
-      <c r="F21" s="411"/>
-      <c r="G21" s="411"/>
-      <c r="H21" s="411"/>
+      <c r="D21" s="419"/>
+      <c r="E21" s="419"/>
+      <c r="F21" s="419"/>
+      <c r="G21" s="419"/>
+      <c r="H21" s="419"/>
       <c r="I21" s="33" t="s">
         <v>330</v>
       </c>
-      <c r="J21" s="411"/>
-      <c r="K21" s="411"/>
-      <c r="L21" s="411" t="s">
+      <c r="J21" s="419"/>
+      <c r="K21" s="419"/>
+      <c r="L21" s="419" t="s">
         <v>331</v>
       </c>
-      <c r="M21" s="411"/>
-      <c r="N21" s="411"/>
+      <c r="M21" s="419"/>
+      <c r="N21" s="419"/>
     </row>
     <row r="22" spans="3:14">
-      <c r="C22" s="413"/>
-      <c r="D22" s="411"/>
-      <c r="E22" s="411"/>
-      <c r="F22" s="411"/>
-      <c r="G22" s="411"/>
-      <c r="H22" s="411"/>
-      <c r="I22" s="412" t="s">
+      <c r="C22" s="430"/>
+      <c r="D22" s="419"/>
+      <c r="E22" s="419"/>
+      <c r="F22" s="419"/>
+      <c r="G22" s="419"/>
+      <c r="H22" s="419"/>
+      <c r="I22" s="434" t="s">
         <v>332</v>
       </c>
-      <c r="J22" s="411"/>
-      <c r="K22" s="411"/>
+      <c r="J22" s="419"/>
+      <c r="K22" s="419"/>
       <c r="L22" s="108" t="s">
         <v>333</v>
       </c>
@@ -20320,31 +20421,31 @@
       <c r="N22" s="33"/>
     </row>
     <row r="23" spans="3:14">
-      <c r="C23" s="413"/>
-      <c r="D23" s="411"/>
-      <c r="E23" s="411"/>
-      <c r="F23" s="411"/>
-      <c r="G23" s="411"/>
-      <c r="H23" s="411"/>
-      <c r="I23" s="412"/>
-      <c r="J23" s="411"/>
-      <c r="K23" s="411"/>
-      <c r="L23" s="411" t="s">
+      <c r="C23" s="430"/>
+      <c r="D23" s="419"/>
+      <c r="E23" s="419"/>
+      <c r="F23" s="419"/>
+      <c r="G23" s="419"/>
+      <c r="H23" s="419"/>
+      <c r="I23" s="434"/>
+      <c r="J23" s="419"/>
+      <c r="K23" s="419"/>
+      <c r="L23" s="419" t="s">
         <v>334</v>
       </c>
-      <c r="M23" s="411"/>
-      <c r="N23" s="411"/>
+      <c r="M23" s="419"/>
+      <c r="N23" s="419"/>
     </row>
     <row r="24" spans="3:14">
-      <c r="C24" s="413"/>
-      <c r="D24" s="411"/>
-      <c r="E24" s="411"/>
-      <c r="F24" s="411"/>
-      <c r="G24" s="411"/>
-      <c r="H24" s="411"/>
-      <c r="I24" s="412"/>
-      <c r="J24" s="411"/>
-      <c r="K24" s="411"/>
+      <c r="C24" s="430"/>
+      <c r="D24" s="419"/>
+      <c r="E24" s="419"/>
+      <c r="F24" s="419"/>
+      <c r="G24" s="419"/>
+      <c r="H24" s="419"/>
+      <c r="I24" s="434"/>
+      <c r="J24" s="419"/>
+      <c r="K24" s="419"/>
       <c r="L24" s="109" t="s">
         <v>332</v>
       </c>
@@ -20355,13 +20456,13 @@
       <c r="C25" s="107">
         <v>43910</v>
       </c>
-      <c r="D25" s="411" t="s">
+      <c r="D25" s="419" t="s">
         <v>335</v>
       </c>
-      <c r="E25" s="411"/>
-      <c r="F25" s="411"/>
-      <c r="G25" s="411"/>
-      <c r="H25" s="411"/>
+      <c r="E25" s="419"/>
+      <c r="F25" s="419"/>
+      <c r="G25" s="419"/>
+      <c r="H25" s="419"/>
       <c r="I25" s="33" t="s">
         <v>336</v>
       </c>
@@ -20375,16 +20476,16 @@
       <c r="C26" s="107">
         <v>43911</v>
       </c>
-      <c r="D26" s="414"/>
-      <c r="E26" s="415"/>
-      <c r="F26" s="415"/>
-      <c r="G26" s="415"/>
-      <c r="H26" s="416"/>
-      <c r="I26" s="421" t="s">
+      <c r="D26" s="420"/>
+      <c r="E26" s="421"/>
+      <c r="F26" s="421"/>
+      <c r="G26" s="421"/>
+      <c r="H26" s="422"/>
+      <c r="I26" s="427" t="s">
         <v>332</v>
       </c>
-      <c r="J26" s="414"/>
-      <c r="K26" s="416"/>
+      <c r="J26" s="420"/>
+      <c r="K26" s="422"/>
       <c r="L26" s="108" t="s">
         <v>333</v>
       </c>
@@ -20393,30 +20494,30 @@
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="33"/>
-      <c r="D27" s="417"/>
-      <c r="E27" s="402"/>
-      <c r="F27" s="402"/>
-      <c r="G27" s="402"/>
-      <c r="H27" s="418"/>
-      <c r="I27" s="422"/>
-      <c r="J27" s="417"/>
-      <c r="K27" s="418"/>
-      <c r="L27" s="411" t="s">
+      <c r="D27" s="423"/>
+      <c r="E27" s="410"/>
+      <c r="F27" s="410"/>
+      <c r="G27" s="410"/>
+      <c r="H27" s="424"/>
+      <c r="I27" s="428"/>
+      <c r="J27" s="423"/>
+      <c r="K27" s="424"/>
+      <c r="L27" s="419" t="s">
         <v>337</v>
       </c>
-      <c r="M27" s="411"/>
-      <c r="N27" s="411"/>
+      <c r="M27" s="419"/>
+      <c r="N27" s="419"/>
     </row>
     <row r="28" spans="3:14">
       <c r="C28" s="33"/>
-      <c r="D28" s="417"/>
-      <c r="E28" s="402"/>
-      <c r="F28" s="402"/>
-      <c r="G28" s="402"/>
-      <c r="H28" s="418"/>
-      <c r="I28" s="422"/>
-      <c r="J28" s="417"/>
-      <c r="K28" s="418"/>
+      <c r="D28" s="423"/>
+      <c r="E28" s="410"/>
+      <c r="F28" s="410"/>
+      <c r="G28" s="410"/>
+      <c r="H28" s="424"/>
+      <c r="I28" s="428"/>
+      <c r="J28" s="423"/>
+      <c r="K28" s="424"/>
       <c r="L28" s="109" t="s">
         <v>332</v>
       </c>
@@ -20425,14 +20526,14 @@
     </row>
     <row r="29" spans="3:14">
       <c r="C29" s="33"/>
-      <c r="D29" s="419"/>
-      <c r="E29" s="395"/>
-      <c r="F29" s="395"/>
-      <c r="G29" s="395"/>
-      <c r="H29" s="420"/>
-      <c r="I29" s="423"/>
-      <c r="J29" s="419"/>
-      <c r="K29" s="420"/>
+      <c r="D29" s="425"/>
+      <c r="E29" s="403"/>
+      <c r="F29" s="403"/>
+      <c r="G29" s="403"/>
+      <c r="H29" s="426"/>
+      <c r="I29" s="429"/>
+      <c r="J29" s="425"/>
+      <c r="K29" s="426"/>
       <c r="L29" s="110" t="s">
         <v>338</v>
       </c>
@@ -20480,13 +20581,13 @@
       <c r="C33" s="107">
         <v>43908</v>
       </c>
-      <c r="D33" s="411" t="s">
+      <c r="D33" s="419" t="s">
         <v>328</v>
       </c>
-      <c r="E33" s="411"/>
-      <c r="F33" s="411"/>
-      <c r="G33" s="411"/>
-      <c r="H33" s="411"/>
+      <c r="E33" s="419"/>
+      <c r="F33" s="419"/>
+      <c r="G33" s="419"/>
+      <c r="H33" s="419"/>
       <c r="I33" s="33" t="s">
         <v>329</v>
       </c>
@@ -20497,33 +20598,33 @@
       <c r="N33" s="33"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="C34" s="413">
+      <c r="C34" s="430">
         <v>43909</v>
       </c>
-      <c r="D34" s="411"/>
-      <c r="E34" s="411"/>
-      <c r="F34" s="411"/>
-      <c r="G34" s="411"/>
-      <c r="H34" s="411"/>
-      <c r="I34" s="424"/>
-      <c r="J34" s="411"/>
-      <c r="K34" s="411"/>
-      <c r="L34" s="411" t="s">
+      <c r="D34" s="419"/>
+      <c r="E34" s="419"/>
+      <c r="F34" s="419"/>
+      <c r="G34" s="419"/>
+      <c r="H34" s="419"/>
+      <c r="I34" s="431"/>
+      <c r="J34" s="419"/>
+      <c r="K34" s="419"/>
+      <c r="L34" s="419" t="s">
         <v>331</v>
       </c>
-      <c r="M34" s="411"/>
-      <c r="N34" s="411"/>
+      <c r="M34" s="419"/>
+      <c r="N34" s="419"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="C35" s="413"/>
-      <c r="D35" s="411"/>
-      <c r="E35" s="411"/>
-      <c r="F35" s="411"/>
-      <c r="G35" s="411"/>
-      <c r="H35" s="411"/>
-      <c r="I35" s="425"/>
-      <c r="J35" s="411"/>
-      <c r="K35" s="411"/>
+      <c r="C35" s="430"/>
+      <c r="D35" s="419"/>
+      <c r="E35" s="419"/>
+      <c r="F35" s="419"/>
+      <c r="G35" s="419"/>
+      <c r="H35" s="419"/>
+      <c r="I35" s="432"/>
+      <c r="J35" s="419"/>
+      <c r="K35" s="419"/>
       <c r="L35" s="108" t="s">
         <v>333</v>
       </c>
@@ -20531,31 +20632,31 @@
       <c r="N35" s="33"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="C36" s="413"/>
-      <c r="D36" s="411"/>
-      <c r="E36" s="411"/>
-      <c r="F36" s="411"/>
-      <c r="G36" s="411"/>
-      <c r="H36" s="411"/>
-      <c r="I36" s="425"/>
-      <c r="J36" s="411"/>
-      <c r="K36" s="411"/>
-      <c r="L36" s="411" t="s">
+      <c r="C36" s="430"/>
+      <c r="D36" s="419"/>
+      <c r="E36" s="419"/>
+      <c r="F36" s="419"/>
+      <c r="G36" s="419"/>
+      <c r="H36" s="419"/>
+      <c r="I36" s="432"/>
+      <c r="J36" s="419"/>
+      <c r="K36" s="419"/>
+      <c r="L36" s="419" t="s">
         <v>334</v>
       </c>
-      <c r="M36" s="411"/>
-      <c r="N36" s="411"/>
+      <c r="M36" s="419"/>
+      <c r="N36" s="419"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="C37" s="413"/>
-      <c r="D37" s="411"/>
-      <c r="E37" s="411"/>
-      <c r="F37" s="411"/>
-      <c r="G37" s="411"/>
-      <c r="H37" s="411"/>
-      <c r="I37" s="426"/>
-      <c r="J37" s="411"/>
-      <c r="K37" s="411"/>
+      <c r="C37" s="430"/>
+      <c r="D37" s="419"/>
+      <c r="E37" s="419"/>
+      <c r="F37" s="419"/>
+      <c r="G37" s="419"/>
+      <c r="H37" s="419"/>
+      <c r="I37" s="433"/>
+      <c r="J37" s="419"/>
+      <c r="K37" s="419"/>
       <c r="L37" s="109" t="s">
         <v>339</v>
       </c>
@@ -20566,13 +20667,13 @@
       <c r="C38" s="107">
         <v>43910</v>
       </c>
-      <c r="D38" s="411" t="s">
+      <c r="D38" s="419" t="s">
         <v>335</v>
       </c>
-      <c r="E38" s="411"/>
-      <c r="F38" s="411"/>
-      <c r="G38" s="411"/>
-      <c r="H38" s="411"/>
+      <c r="E38" s="419"/>
+      <c r="F38" s="419"/>
+      <c r="G38" s="419"/>
+      <c r="H38" s="419"/>
       <c r="I38" s="33" t="s">
         <v>336</v>
       </c>
@@ -20586,14 +20687,14 @@
       <c r="C39" s="107">
         <v>43911</v>
       </c>
-      <c r="D39" s="414"/>
-      <c r="E39" s="415"/>
-      <c r="F39" s="415"/>
-      <c r="G39" s="415"/>
-      <c r="H39" s="416"/>
-      <c r="I39" s="421"/>
-      <c r="J39" s="414"/>
-      <c r="K39" s="416"/>
+      <c r="D39" s="420"/>
+      <c r="E39" s="421"/>
+      <c r="F39" s="421"/>
+      <c r="G39" s="421"/>
+      <c r="H39" s="422"/>
+      <c r="I39" s="427"/>
+      <c r="J39" s="420"/>
+      <c r="K39" s="422"/>
       <c r="L39" s="108" t="s">
         <v>333</v>
       </c>
@@ -20602,30 +20703,30 @@
     </row>
     <row r="40" spans="1:14">
       <c r="C40" s="33"/>
-      <c r="D40" s="417"/>
-      <c r="E40" s="402"/>
-      <c r="F40" s="402"/>
-      <c r="G40" s="402"/>
-      <c r="H40" s="418"/>
-      <c r="I40" s="422"/>
-      <c r="J40" s="417"/>
-      <c r="K40" s="418"/>
-      <c r="L40" s="411" t="s">
+      <c r="D40" s="423"/>
+      <c r="E40" s="410"/>
+      <c r="F40" s="410"/>
+      <c r="G40" s="410"/>
+      <c r="H40" s="424"/>
+      <c r="I40" s="428"/>
+      <c r="J40" s="423"/>
+      <c r="K40" s="424"/>
+      <c r="L40" s="419" t="s">
         <v>337</v>
       </c>
-      <c r="M40" s="411"/>
-      <c r="N40" s="411"/>
+      <c r="M40" s="419"/>
+      <c r="N40" s="419"/>
     </row>
     <row r="41" spans="1:14">
       <c r="C41" s="33"/>
-      <c r="D41" s="417"/>
-      <c r="E41" s="402"/>
-      <c r="F41" s="402"/>
-      <c r="G41" s="402"/>
-      <c r="H41" s="418"/>
-      <c r="I41" s="423"/>
-      <c r="J41" s="417"/>
-      <c r="K41" s="418"/>
+      <c r="D41" s="423"/>
+      <c r="E41" s="410"/>
+      <c r="F41" s="410"/>
+      <c r="G41" s="410"/>
+      <c r="H41" s="424"/>
+      <c r="I41" s="429"/>
+      <c r="J41" s="423"/>
+      <c r="K41" s="424"/>
       <c r="L41" s="109" t="s">
         <v>339</v>
       </c>
@@ -20634,16 +20735,16 @@
     </row>
     <row r="42" spans="1:14">
       <c r="C42" s="33"/>
-      <c r="D42" s="419"/>
-      <c r="E42" s="395"/>
-      <c r="F42" s="395"/>
-      <c r="G42" s="395"/>
-      <c r="H42" s="420"/>
+      <c r="D42" s="425"/>
+      <c r="E42" s="403"/>
+      <c r="F42" s="403"/>
+      <c r="G42" s="403"/>
+      <c r="H42" s="426"/>
       <c r="I42" s="33" t="s">
         <v>330</v>
       </c>
-      <c r="J42" s="419"/>
-      <c r="K42" s="420"/>
+      <c r="J42" s="425"/>
+      <c r="K42" s="426"/>
       <c r="L42" s="110" t="s">
         <v>338</v>
       </c>
@@ -20955,17 +21056,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H42"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="J39:K42"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:H37"/>
-    <mergeCell ref="I34:I37"/>
-    <mergeCell ref="J34:K37"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="L27:N27"/>
     <mergeCell ref="C21:C24"/>
     <mergeCell ref="D21:H24"/>
     <mergeCell ref="J21:K24"/>
@@ -20973,12 +21069,17 @@
     <mergeCell ref="D26:H29"/>
     <mergeCell ref="I26:I29"/>
     <mergeCell ref="J26:K29"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:H37"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="J34:K37"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H42"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="J39:K42"/>
+    <mergeCell ref="L40:N40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21000,29 +21101,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="21">
-      <c r="B2" s="437" t="s">
+      <c r="B2" s="453" t="s">
         <v>824</v>
       </c>
-      <c r="C2" s="437"/>
-      <c r="D2" s="437"/>
-      <c r="E2" s="437"/>
-      <c r="F2" s="437"/>
-      <c r="G2" s="437"/>
-      <c r="H2" s="437"/>
-      <c r="I2" s="437"/>
-      <c r="J2" s="437"/>
-      <c r="K2" s="437"/>
-      <c r="L2" s="437"/>
-      <c r="M2" s="437"/>
-      <c r="N2" s="437"/>
-      <c r="O2" s="437"/>
-      <c r="P2" s="437"/>
-      <c r="Q2" s="437"/>
-      <c r="R2" s="437"/>
-      <c r="S2" s="437"/>
-      <c r="T2" s="437"/>
-      <c r="U2" s="437"/>
-      <c r="V2" s="437"/>
+      <c r="C2" s="453"/>
+      <c r="D2" s="453"/>
+      <c r="E2" s="453"/>
+      <c r="F2" s="453"/>
+      <c r="G2" s="453"/>
+      <c r="H2" s="453"/>
+      <c r="I2" s="453"/>
+      <c r="J2" s="453"/>
+      <c r="K2" s="453"/>
+      <c r="L2" s="453"/>
+      <c r="M2" s="453"/>
+      <c r="N2" s="453"/>
+      <c r="O2" s="453"/>
+      <c r="P2" s="453"/>
+      <c r="Q2" s="453"/>
+      <c r="R2" s="453"/>
+      <c r="S2" s="453"/>
+      <c r="T2" s="453"/>
+      <c r="U2" s="453"/>
+      <c r="V2" s="453"/>
     </row>
     <row r="3" spans="2:22" ht="15.75" thickBot="1"/>
     <row r="4" spans="2:22">
@@ -21055,22 +21156,22 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="441" t="s">
+      <c r="G5" s="435" t="s">
         <v>360</v>
       </c>
-      <c r="H5" s="441"/>
-      <c r="I5" s="441" t="s">
+      <c r="H5" s="435"/>
+      <c r="I5" s="435" t="s">
         <v>361</v>
       </c>
-      <c r="J5" s="441"/>
-      <c r="K5" s="441"/>
-      <c r="L5" s="441"/>
-      <c r="M5" s="441"/>
-      <c r="N5" s="441"/>
-      <c r="O5" s="441" t="s">
+      <c r="J5" s="435"/>
+      <c r="K5" s="435"/>
+      <c r="L5" s="435"/>
+      <c r="M5" s="435"/>
+      <c r="N5" s="435"/>
+      <c r="O5" s="435" t="s">
         <v>362</v>
       </c>
-      <c r="P5" s="441"/>
+      <c r="P5" s="435"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
@@ -21082,7 +21183,7 @@
       <c r="D6" s="124"/>
       <c r="E6" s="125"/>
       <c r="F6" s="127"/>
-      <c r="G6" s="446" t="s">
+      <c r="G6" s="436" t="s">
         <v>363</v>
       </c>
       <c r="H6" s="102"/>
@@ -21111,26 +21212,26 @@
       </c>
       <c r="E7" s="127"/>
       <c r="F7" s="127"/>
-      <c r="G7" s="366"/>
-      <c r="H7" s="447" t="s">
+      <c r="G7" s="356"/>
+      <c r="H7" s="437" t="s">
         <v>365</v>
       </c>
-      <c r="I7" s="450" t="s">
+      <c r="I7" s="440" t="s">
         <v>366</v>
       </c>
-      <c r="J7" s="451"/>
-      <c r="K7" s="452" t="s">
+      <c r="J7" s="441"/>
+      <c r="K7" s="442" t="s">
         <v>367</v>
       </c>
-      <c r="L7" s="453"/>
-      <c r="M7" s="450" t="s">
+      <c r="L7" s="443"/>
+      <c r="M7" s="440" t="s">
         <v>368</v>
       </c>
-      <c r="N7" s="451"/>
-      <c r="O7" s="457" t="s">
+      <c r="N7" s="441"/>
+      <c r="O7" s="447" t="s">
         <v>369</v>
       </c>
-      <c r="P7" s="458"/>
+      <c r="P7" s="448"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
@@ -21142,16 +21243,16 @@
       <c r="D8" s="128"/>
       <c r="E8" s="129"/>
       <c r="F8" s="127"/>
-      <c r="G8" s="366"/>
-      <c r="H8" s="448"/>
-      <c r="I8" s="354"/>
-      <c r="J8" s="356"/>
-      <c r="K8" s="344"/>
-      <c r="L8" s="454"/>
-      <c r="M8" s="354"/>
-      <c r="N8" s="356"/>
-      <c r="O8" s="459"/>
-      <c r="P8" s="460"/>
+      <c r="G8" s="356"/>
+      <c r="H8" s="438"/>
+      <c r="I8" s="375"/>
+      <c r="J8" s="376"/>
+      <c r="K8" s="354"/>
+      <c r="L8" s="444"/>
+      <c r="M8" s="375"/>
+      <c r="N8" s="376"/>
+      <c r="O8" s="449"/>
+      <c r="P8" s="450"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="33" t="s">
         <v>82</v>
@@ -21169,16 +21270,16 @@
       <c r="D9" s="4"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="366"/>
-      <c r="H9" s="448"/>
-      <c r="I9" s="354"/>
-      <c r="J9" s="356"/>
-      <c r="K9" s="344"/>
-      <c r="L9" s="454"/>
-      <c r="M9" s="354"/>
-      <c r="N9" s="356"/>
-      <c r="O9" s="459"/>
-      <c r="P9" s="460"/>
+      <c r="G9" s="356"/>
+      <c r="H9" s="438"/>
+      <c r="I9" s="375"/>
+      <c r="J9" s="376"/>
+      <c r="K9" s="354"/>
+      <c r="L9" s="444"/>
+      <c r="M9" s="375"/>
+      <c r="N9" s="376"/>
+      <c r="O9" s="449"/>
+      <c r="P9" s="450"/>
       <c r="Q9" s="5" t="s">
         <v>2</v>
       </c>
@@ -21198,16 +21299,16 @@
       <c r="D10" s="1"/>
       <c r="E10" s="3"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="366"/>
-      <c r="H10" s="448"/>
-      <c r="I10" s="354"/>
-      <c r="J10" s="356"/>
-      <c r="K10" s="344"/>
-      <c r="L10" s="454"/>
-      <c r="M10" s="354"/>
-      <c r="N10" s="356"/>
-      <c r="O10" s="459"/>
-      <c r="P10" s="460"/>
+      <c r="G10" s="356"/>
+      <c r="H10" s="438"/>
+      <c r="I10" s="375"/>
+      <c r="J10" s="376"/>
+      <c r="K10" s="354"/>
+      <c r="L10" s="444"/>
+      <c r="M10" s="375"/>
+      <c r="N10" s="376"/>
+      <c r="O10" s="449"/>
+      <c r="P10" s="450"/>
       <c r="Q10" s="5" t="s">
         <v>87</v>
       </c>
@@ -21223,16 +21324,16 @@
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="366"/>
-      <c r="H11" s="448"/>
-      <c r="I11" s="354"/>
-      <c r="J11" s="356"/>
-      <c r="K11" s="344"/>
-      <c r="L11" s="454"/>
-      <c r="M11" s="354"/>
-      <c r="N11" s="356"/>
-      <c r="O11" s="459"/>
-      <c r="P11" s="460"/>
+      <c r="G11" s="356"/>
+      <c r="H11" s="438"/>
+      <c r="I11" s="375"/>
+      <c r="J11" s="376"/>
+      <c r="K11" s="354"/>
+      <c r="L11" s="444"/>
+      <c r="M11" s="375"/>
+      <c r="N11" s="376"/>
+      <c r="O11" s="449"/>
+      <c r="P11" s="450"/>
       <c r="Q11" s="5">
         <v>1000</v>
       </c>
@@ -21250,16 +21351,16 @@
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="366"/>
-      <c r="H12" s="448"/>
-      <c r="I12" s="354"/>
-      <c r="J12" s="356"/>
-      <c r="K12" s="344"/>
-      <c r="L12" s="454"/>
-      <c r="M12" s="354"/>
-      <c r="N12" s="356"/>
-      <c r="O12" s="459"/>
-      <c r="P12" s="460"/>
+      <c r="G12" s="356"/>
+      <c r="H12" s="438"/>
+      <c r="I12" s="375"/>
+      <c r="J12" s="376"/>
+      <c r="K12" s="354"/>
+      <c r="L12" s="444"/>
+      <c r="M12" s="375"/>
+      <c r="N12" s="376"/>
+      <c r="O12" s="449"/>
+      <c r="P12" s="450"/>
       <c r="Q12" s="5" t="s">
         <v>2</v>
       </c>
@@ -21273,16 +21374,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="366"/>
-      <c r="H13" s="448"/>
-      <c r="I13" s="354"/>
-      <c r="J13" s="356"/>
-      <c r="K13" s="344"/>
-      <c r="L13" s="454"/>
-      <c r="M13" s="354"/>
-      <c r="N13" s="356"/>
-      <c r="O13" s="459"/>
-      <c r="P13" s="460"/>
+      <c r="G13" s="356"/>
+      <c r="H13" s="438"/>
+      <c r="I13" s="375"/>
+      <c r="J13" s="376"/>
+      <c r="K13" s="354"/>
+      <c r="L13" s="444"/>
+      <c r="M13" s="375"/>
+      <c r="N13" s="376"/>
+      <c r="O13" s="449"/>
+      <c r="P13" s="450"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="33"/>
       <c r="S13" s="33"/>
@@ -21294,16 +21395,16 @@
       <c r="D14" s="1"/>
       <c r="E14" s="3"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="366"/>
-      <c r="H14" s="448"/>
-      <c r="I14" s="354"/>
-      <c r="J14" s="356"/>
-      <c r="K14" s="344"/>
-      <c r="L14" s="454"/>
-      <c r="M14" s="354"/>
-      <c r="N14" s="356"/>
-      <c r="O14" s="459"/>
-      <c r="P14" s="460"/>
+      <c r="G14" s="356"/>
+      <c r="H14" s="438"/>
+      <c r="I14" s="375"/>
+      <c r="J14" s="376"/>
+      <c r="K14" s="354"/>
+      <c r="L14" s="444"/>
+      <c r="M14" s="375"/>
+      <c r="N14" s="376"/>
+      <c r="O14" s="449"/>
+      <c r="P14" s="450"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="33"/>
       <c r="S14" s="33"/>
@@ -21317,16 +21418,16 @@
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="366"/>
-      <c r="H15" s="448"/>
-      <c r="I15" s="354"/>
-      <c r="J15" s="356"/>
-      <c r="K15" s="344"/>
-      <c r="L15" s="454"/>
-      <c r="M15" s="354"/>
-      <c r="N15" s="356"/>
-      <c r="O15" s="459"/>
-      <c r="P15" s="460"/>
+      <c r="G15" s="356"/>
+      <c r="H15" s="438"/>
+      <c r="I15" s="375"/>
+      <c r="J15" s="376"/>
+      <c r="K15" s="354"/>
+      <c r="L15" s="444"/>
+      <c r="M15" s="375"/>
+      <c r="N15" s="376"/>
+      <c r="O15" s="449"/>
+      <c r="P15" s="450"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
@@ -21338,16 +21439,16 @@
       <c r="D16" s="4"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="366"/>
-      <c r="H16" s="448"/>
-      <c r="I16" s="354"/>
-      <c r="J16" s="356"/>
-      <c r="K16" s="344"/>
-      <c r="L16" s="454"/>
-      <c r="M16" s="354"/>
-      <c r="N16" s="356"/>
-      <c r="O16" s="459"/>
-      <c r="P16" s="460"/>
+      <c r="G16" s="356"/>
+      <c r="H16" s="438"/>
+      <c r="I16" s="375"/>
+      <c r="J16" s="376"/>
+      <c r="K16" s="354"/>
+      <c r="L16" s="444"/>
+      <c r="M16" s="375"/>
+      <c r="N16" s="376"/>
+      <c r="O16" s="449"/>
+      <c r="P16" s="450"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
@@ -21359,16 +21460,16 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="366"/>
-      <c r="H17" s="448"/>
-      <c r="I17" s="354"/>
-      <c r="J17" s="356"/>
-      <c r="K17" s="344"/>
-      <c r="L17" s="454"/>
-      <c r="M17" s="354"/>
-      <c r="N17" s="356"/>
-      <c r="O17" s="459"/>
-      <c r="P17" s="460"/>
+      <c r="G17" s="356"/>
+      <c r="H17" s="438"/>
+      <c r="I17" s="375"/>
+      <c r="J17" s="376"/>
+      <c r="K17" s="354"/>
+      <c r="L17" s="444"/>
+      <c r="M17" s="375"/>
+      <c r="N17" s="376"/>
+      <c r="O17" s="449"/>
+      <c r="P17" s="450"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
@@ -21380,16 +21481,16 @@
       <c r="D18" s="4"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="366"/>
-      <c r="H18" s="448"/>
-      <c r="I18" s="354"/>
-      <c r="J18" s="356"/>
-      <c r="K18" s="344"/>
-      <c r="L18" s="454"/>
-      <c r="M18" s="354"/>
-      <c r="N18" s="356"/>
-      <c r="O18" s="459"/>
-      <c r="P18" s="460"/>
+      <c r="G18" s="356"/>
+      <c r="H18" s="438"/>
+      <c r="I18" s="375"/>
+      <c r="J18" s="376"/>
+      <c r="K18" s="354"/>
+      <c r="L18" s="444"/>
+      <c r="M18" s="375"/>
+      <c r="N18" s="376"/>
+      <c r="O18" s="449"/>
+      <c r="P18" s="450"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
@@ -21403,16 +21504,16 @@
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="366"/>
-      <c r="H19" s="448"/>
-      <c r="I19" s="354"/>
-      <c r="J19" s="356"/>
-      <c r="K19" s="344"/>
-      <c r="L19" s="454"/>
-      <c r="M19" s="354"/>
-      <c r="N19" s="356"/>
-      <c r="O19" s="459"/>
-      <c r="P19" s="460"/>
+      <c r="G19" s="356"/>
+      <c r="H19" s="438"/>
+      <c r="I19" s="375"/>
+      <c r="J19" s="376"/>
+      <c r="K19" s="354"/>
+      <c r="L19" s="444"/>
+      <c r="M19" s="375"/>
+      <c r="N19" s="376"/>
+      <c r="O19" s="449"/>
+      <c r="P19" s="450"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
@@ -21424,16 +21525,16 @@
       <c r="D20" s="8"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="367"/>
-      <c r="H20" s="449"/>
-      <c r="I20" s="357"/>
-      <c r="J20" s="359"/>
-      <c r="K20" s="455"/>
-      <c r="L20" s="456"/>
-      <c r="M20" s="357"/>
-      <c r="N20" s="359"/>
-      <c r="O20" s="461"/>
-      <c r="P20" s="462"/>
+      <c r="G20" s="357"/>
+      <c r="H20" s="439"/>
+      <c r="I20" s="377"/>
+      <c r="J20" s="379"/>
+      <c r="K20" s="445"/>
+      <c r="L20" s="446"/>
+      <c r="M20" s="377"/>
+      <c r="N20" s="379"/>
+      <c r="O20" s="451"/>
+      <c r="P20" s="452"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
@@ -21463,27 +21564,27 @@
     </row>
     <row r="22" spans="2:22" ht="15.75" thickBot="1">
       <c r="C22" s="4"/>
-      <c r="D22" s="360" t="s">
+      <c r="D22" s="380" t="s">
         <v>94</v>
       </c>
-      <c r="E22" s="361"/>
+      <c r="E22" s="381"/>
       <c r="F22" s="220"/>
       <c r="G22" s="101" t="s">
         <v>95</v>
       </c>
-      <c r="H22" s="360" t="s">
+      <c r="H22" s="380" t="s">
         <v>96</v>
       </c>
-      <c r="I22" s="362"/>
-      <c r="J22" s="362"/>
-      <c r="K22" s="362"/>
-      <c r="L22" s="362"/>
-      <c r="M22" s="362"/>
-      <c r="N22" s="361"/>
-      <c r="O22" s="360" t="s">
+      <c r="I22" s="382"/>
+      <c r="J22" s="382"/>
+      <c r="K22" s="382"/>
+      <c r="L22" s="382"/>
+      <c r="M22" s="382"/>
+      <c r="N22" s="381"/>
+      <c r="O22" s="380" t="s">
         <v>370</v>
       </c>
-      <c r="P22" s="361"/>
+      <c r="P22" s="381"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
@@ -21514,59 +21615,59 @@
       <c r="U23" s="9"/>
     </row>
     <row r="25" spans="2:22" ht="21">
-      <c r="B25" s="437" t="s">
+      <c r="B25" s="453" t="s">
         <v>823</v>
       </c>
-      <c r="C25" s="437"/>
-      <c r="D25" s="437"/>
-      <c r="E25" s="437"/>
-      <c r="F25" s="437"/>
-      <c r="G25" s="437"/>
-      <c r="H25" s="437"/>
-      <c r="I25" s="437"/>
-      <c r="J25" s="437"/>
-      <c r="K25" s="437"/>
-      <c r="L25" s="437"/>
-      <c r="M25" s="437"/>
-      <c r="N25" s="437"/>
-      <c r="O25" s="437"/>
-      <c r="P25" s="437"/>
-      <c r="Q25" s="437"/>
-      <c r="R25" s="437"/>
-      <c r="S25" s="437"/>
-      <c r="T25" s="437"/>
-      <c r="U25" s="437"/>
-      <c r="V25" s="437"/>
+      <c r="C25" s="453"/>
+      <c r="D25" s="453"/>
+      <c r="E25" s="453"/>
+      <c r="F25" s="453"/>
+      <c r="G25" s="453"/>
+      <c r="H25" s="453"/>
+      <c r="I25" s="453"/>
+      <c r="J25" s="453"/>
+      <c r="K25" s="453"/>
+      <c r="L25" s="453"/>
+      <c r="M25" s="453"/>
+      <c r="N25" s="453"/>
+      <c r="O25" s="453"/>
+      <c r="P25" s="453"/>
+      <c r="Q25" s="453"/>
+      <c r="R25" s="453"/>
+      <c r="S25" s="453"/>
+      <c r="T25" s="453"/>
+      <c r="U25" s="453"/>
+      <c r="V25" s="453"/>
     </row>
     <row r="26" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C26" s="438" t="s">
+      <c r="C26" s="454" t="s">
         <v>397</v>
       </c>
-      <c r="D26" s="438"/>
-      <c r="E26" s="438"/>
-      <c r="F26" s="438"/>
-      <c r="G26" s="438"/>
-      <c r="H26" s="438"/>
-      <c r="I26" s="438"/>
-      <c r="J26" s="438"/>
-      <c r="K26" s="438"/>
-      <c r="L26" s="438"/>
-      <c r="M26" s="438"/>
+      <c r="D26" s="454"/>
+      <c r="E26" s="454"/>
+      <c r="F26" s="454"/>
+      <c r="G26" s="454"/>
+      <c r="H26" s="454"/>
+      <c r="I26" s="454"/>
+      <c r="J26" s="454"/>
+      <c r="K26" s="454"/>
+      <c r="L26" s="454"/>
+      <c r="M26" s="454"/>
     </row>
     <row r="27" spans="2:22" ht="15.75" thickBot="1">
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="439" t="s">
+      <c r="E27" s="455" t="s">
         <v>78</v>
       </c>
-      <c r="F27" s="342"/>
-      <c r="G27" s="342"/>
-      <c r="H27" s="348"/>
-      <c r="I27" s="348"/>
-      <c r="J27" s="348"/>
-      <c r="K27" s="348"/>
-      <c r="L27" s="348"/>
-      <c r="M27" s="349"/>
+      <c r="F27" s="350"/>
+      <c r="G27" s="350"/>
+      <c r="H27" s="369"/>
+      <c r="I27" s="369"/>
+      <c r="J27" s="369"/>
+      <c r="K27" s="369"/>
+      <c r="L27" s="369"/>
+      <c r="M27" s="370"/>
     </row>
     <row r="28" spans="2:22">
       <c r="C28" s="4" t="s">
@@ -21599,11 +21700,11 @@
       <c r="K29" s="4"/>
       <c r="L29" s="5"/>
       <c r="M29" s="6"/>
-      <c r="O29" s="440" t="s">
+      <c r="O29" s="456" t="s">
         <v>79</v>
       </c>
-      <c r="P29" s="440"/>
-      <c r="Q29" s="440"/>
+      <c r="P29" s="456"/>
+      <c r="Q29" s="456"/>
     </row>
     <row r="30" spans="2:22" ht="15.75" thickBot="1">
       <c r="C30" s="4"/>
@@ -21648,21 +21749,21 @@
         <v>90</v>
       </c>
       <c r="D32" s="6"/>
-      <c r="E32" s="434" t="s">
+      <c r="E32" s="460" t="s">
         <v>827</v>
       </c>
-      <c r="F32" s="435"/>
-      <c r="G32" s="436"/>
-      <c r="H32" s="434" t="s">
+      <c r="F32" s="461"/>
+      <c r="G32" s="462"/>
+      <c r="H32" s="460" t="s">
         <v>828</v>
       </c>
-      <c r="I32" s="435"/>
-      <c r="J32" s="436"/>
-      <c r="K32" s="434" t="s">
+      <c r="I32" s="461"/>
+      <c r="J32" s="462"/>
+      <c r="K32" s="460" t="s">
         <v>829</v>
       </c>
-      <c r="L32" s="435"/>
-      <c r="M32" s="436"/>
+      <c r="L32" s="461"/>
+      <c r="M32" s="462"/>
       <c r="N32" s="5" t="s">
         <v>2</v>
       </c>
@@ -21679,15 +21780,15 @@
     <row r="33" spans="2:22">
       <c r="C33" s="4"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="434"/>
-      <c r="F33" s="435"/>
-      <c r="G33" s="436"/>
-      <c r="H33" s="434"/>
-      <c r="I33" s="435"/>
-      <c r="J33" s="436"/>
-      <c r="K33" s="434"/>
-      <c r="L33" s="435"/>
-      <c r="M33" s="436"/>
+      <c r="E33" s="460"/>
+      <c r="F33" s="461"/>
+      <c r="G33" s="462"/>
+      <c r="H33" s="460"/>
+      <c r="I33" s="461"/>
+      <c r="J33" s="462"/>
+      <c r="K33" s="460"/>
+      <c r="L33" s="461"/>
+      <c r="M33" s="462"/>
       <c r="N33" s="5" t="s">
         <v>87</v>
       </c>
@@ -21704,15 +21805,15 @@
     <row r="34" spans="2:22" ht="15.75" thickBot="1">
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="434"/>
-      <c r="F34" s="435"/>
-      <c r="G34" s="436"/>
-      <c r="H34" s="434"/>
-      <c r="I34" s="435"/>
-      <c r="J34" s="436"/>
-      <c r="K34" s="434"/>
-      <c r="L34" s="435"/>
-      <c r="M34" s="436"/>
+      <c r="E34" s="460"/>
+      <c r="F34" s="461"/>
+      <c r="G34" s="462"/>
+      <c r="H34" s="460"/>
+      <c r="I34" s="461"/>
+      <c r="J34" s="462"/>
+      <c r="K34" s="460"/>
+      <c r="L34" s="461"/>
+      <c r="M34" s="462"/>
       <c r="N34" s="5">
         <v>1000</v>
       </c>
@@ -21723,15 +21824,15 @@
     <row r="35" spans="2:22">
       <c r="C35" s="1"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="434"/>
-      <c r="F35" s="435"/>
-      <c r="G35" s="436"/>
-      <c r="H35" s="434"/>
-      <c r="I35" s="435"/>
-      <c r="J35" s="436"/>
-      <c r="K35" s="434"/>
-      <c r="L35" s="435"/>
-      <c r="M35" s="436"/>
+      <c r="E35" s="460"/>
+      <c r="F35" s="461"/>
+      <c r="G35" s="462"/>
+      <c r="H35" s="460"/>
+      <c r="I35" s="461"/>
+      <c r="J35" s="462"/>
+      <c r="K35" s="460"/>
+      <c r="L35" s="461"/>
+      <c r="M35" s="462"/>
       <c r="N35" s="5" t="s">
         <v>2</v>
       </c>
@@ -21862,15 +21963,15 @@
     <row r="42" spans="2:22" ht="19.5" thickBot="1">
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="427"/>
-      <c r="F42" s="428"/>
-      <c r="G42" s="428"/>
-      <c r="H42" s="428"/>
-      <c r="I42" s="428"/>
-      <c r="J42" s="428"/>
-      <c r="K42" s="428"/>
-      <c r="L42" s="428"/>
-      <c r="M42" s="429"/>
+      <c r="E42" s="464"/>
+      <c r="F42" s="465"/>
+      <c r="G42" s="465"/>
+      <c r="H42" s="465"/>
+      <c r="I42" s="465"/>
+      <c r="J42" s="465"/>
+      <c r="K42" s="465"/>
+      <c r="L42" s="465"/>
+      <c r="M42" s="466"/>
       <c r="N42" s="35" t="s">
         <v>402</v>
       </c>
@@ -21889,23 +21990,23 @@
       <c r="K43" s="5"/>
     </row>
     <row r="44" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C44" s="360" t="s">
+      <c r="C44" s="380" t="s">
         <v>94</v>
       </c>
-      <c r="D44" s="361"/>
-      <c r="E44" s="360" t="s">
+      <c r="D44" s="381"/>
+      <c r="E44" s="380" t="s">
         <v>95</v>
       </c>
-      <c r="F44" s="362"/>
-      <c r="G44" s="361"/>
-      <c r="H44" s="360" t="s">
+      <c r="F44" s="382"/>
+      <c r="G44" s="381"/>
+      <c r="H44" s="380" t="s">
         <v>96</v>
       </c>
-      <c r="I44" s="362"/>
-      <c r="J44" s="362"/>
-      <c r="K44" s="362"/>
-      <c r="L44" s="362"/>
-      <c r="M44" s="361"/>
+      <c r="I44" s="382"/>
+      <c r="J44" s="382"/>
+      <c r="K44" s="382"/>
+      <c r="L44" s="382"/>
+      <c r="M44" s="381"/>
       <c r="Q44" t="s">
         <v>826</v>
       </c>
@@ -21925,61 +22026,61 @@
       </c>
     </row>
     <row r="47" spans="2:22" ht="21">
-      <c r="B47" s="437" t="s">
+      <c r="B47" s="453" t="s">
         <v>825</v>
       </c>
-      <c r="C47" s="437"/>
-      <c r="D47" s="437"/>
-      <c r="E47" s="437"/>
-      <c r="F47" s="437"/>
-      <c r="G47" s="437"/>
-      <c r="H47" s="437"/>
-      <c r="I47" s="437"/>
-      <c r="J47" s="437"/>
-      <c r="K47" s="437"/>
-      <c r="L47" s="437"/>
-      <c r="M47" s="437"/>
-      <c r="N47" s="437"/>
-      <c r="O47" s="437"/>
-      <c r="P47" s="437"/>
-      <c r="Q47" s="437"/>
-      <c r="R47" s="437"/>
-      <c r="S47" s="437"/>
-      <c r="T47" s="437"/>
-      <c r="U47" s="437"/>
-      <c r="V47" s="437"/>
+      <c r="C47" s="453"/>
+      <c r="D47" s="453"/>
+      <c r="E47" s="453"/>
+      <c r="F47" s="453"/>
+      <c r="G47" s="453"/>
+      <c r="H47" s="453"/>
+      <c r="I47" s="453"/>
+      <c r="J47" s="453"/>
+      <c r="K47" s="453"/>
+      <c r="L47" s="453"/>
+      <c r="M47" s="453"/>
+      <c r="N47" s="453"/>
+      <c r="O47" s="453"/>
+      <c r="P47" s="453"/>
+      <c r="Q47" s="453"/>
+      <c r="R47" s="453"/>
+      <c r="S47" s="453"/>
+      <c r="T47" s="453"/>
+      <c r="U47" s="453"/>
+      <c r="V47" s="453"/>
     </row>
     <row r="48" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C48" s="438" t="s">
+      <c r="C48" s="454" t="s">
         <v>397</v>
       </c>
-      <c r="D48" s="438"/>
-      <c r="E48" s="438"/>
-      <c r="F48" s="438"/>
-      <c r="G48" s="438"/>
-      <c r="H48" s="438"/>
-      <c r="I48" s="438"/>
-      <c r="J48" s="438"/>
-      <c r="K48" s="438"/>
-      <c r="L48" s="438"/>
-      <c r="M48" s="438"/>
+      <c r="D48" s="454"/>
+      <c r="E48" s="454"/>
+      <c r="F48" s="454"/>
+      <c r="G48" s="454"/>
+      <c r="H48" s="454"/>
+      <c r="I48" s="454"/>
+      <c r="J48" s="454"/>
+      <c r="K48" s="454"/>
+      <c r="L48" s="454"/>
+      <c r="M48" s="454"/>
       <c r="S48" s="24"/>
       <c r="T48" s="24"/>
     </row>
     <row r="49" spans="1:24" ht="15.75" thickBot="1">
       <c r="C49" s="1"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="439" t="s">
+      <c r="E49" s="455" t="s">
         <v>78</v>
       </c>
-      <c r="F49" s="342"/>
-      <c r="G49" s="342"/>
-      <c r="H49" s="348"/>
-      <c r="I49" s="348"/>
-      <c r="J49" s="348"/>
-      <c r="K49" s="348"/>
-      <c r="L49" s="348"/>
-      <c r="M49" s="349"/>
+      <c r="F49" s="350"/>
+      <c r="G49" s="350"/>
+      <c r="H49" s="369"/>
+      <c r="I49" s="369"/>
+      <c r="J49" s="369"/>
+      <c r="K49" s="369"/>
+      <c r="L49" s="369"/>
+      <c r="M49" s="370"/>
       <c r="S49" s="24"/>
       <c r="T49" s="24"/>
       <c r="U49" s="18"/>
@@ -21999,16 +22100,16 @@
       <c r="G50" s="200" t="s">
         <v>1416</v>
       </c>
-      <c r="H50" s="442" t="s">
+      <c r="H50" s="457" t="s">
         <v>828</v>
       </c>
-      <c r="I50" s="443"/>
-      <c r="J50" s="444"/>
-      <c r="K50" s="442" t="s">
+      <c r="I50" s="458"/>
+      <c r="J50" s="459"/>
+      <c r="K50" s="457" t="s">
         <v>829</v>
       </c>
-      <c r="L50" s="443"/>
-      <c r="M50" s="444"/>
+      <c r="L50" s="458"/>
+      <c r="M50" s="459"/>
       <c r="S50" s="24"/>
       <c r="T50" s="24"/>
       <c r="W50" t="s">
@@ -22022,20 +22123,20 @@
         <v>843</v>
       </c>
       <c r="F51" s="241"/>
-      <c r="G51" s="445" t="s">
+      <c r="G51" s="463" t="s">
         <v>851</v>
       </c>
-      <c r="H51" s="434"/>
-      <c r="I51" s="435"/>
-      <c r="J51" s="436"/>
-      <c r="K51" s="434"/>
-      <c r="L51" s="435"/>
-      <c r="M51" s="436"/>
-      <c r="O51" s="440" t="s">
+      <c r="H51" s="460"/>
+      <c r="I51" s="461"/>
+      <c r="J51" s="462"/>
+      <c r="K51" s="460"/>
+      <c r="L51" s="461"/>
+      <c r="M51" s="462"/>
+      <c r="O51" s="456" t="s">
         <v>79</v>
       </c>
-      <c r="P51" s="440"/>
-      <c r="Q51" s="440"/>
+      <c r="P51" s="456"/>
+      <c r="Q51" s="456"/>
       <c r="S51" s="228"/>
       <c r="T51" s="228"/>
       <c r="W51" s="35" t="s">
@@ -22049,13 +22150,13 @@
         <v>844</v>
       </c>
       <c r="F52" s="242"/>
-      <c r="G52" s="445"/>
-      <c r="H52" s="434"/>
-      <c r="I52" s="435"/>
-      <c r="J52" s="436"/>
-      <c r="K52" s="434"/>
-      <c r="L52" s="435"/>
-      <c r="M52" s="436"/>
+      <c r="G52" s="463"/>
+      <c r="H52" s="460"/>
+      <c r="I52" s="461"/>
+      <c r="J52" s="462"/>
+      <c r="K52" s="460"/>
+      <c r="L52" s="461"/>
+      <c r="M52" s="462"/>
       <c r="S52" s="24"/>
       <c r="T52" s="24"/>
     </row>
@@ -22066,13 +22167,13 @@
         <v>845</v>
       </c>
       <c r="F53" s="243"/>
-      <c r="G53" s="445"/>
-      <c r="H53" s="434"/>
-      <c r="I53" s="435"/>
-      <c r="J53" s="436"/>
-      <c r="K53" s="434"/>
-      <c r="L53" s="435"/>
-      <c r="M53" s="436"/>
+      <c r="G53" s="463"/>
+      <c r="H53" s="460"/>
+      <c r="I53" s="461"/>
+      <c r="J53" s="462"/>
+      <c r="K53" s="460"/>
+      <c r="L53" s="461"/>
+      <c r="M53" s="462"/>
       <c r="N53" s="5"/>
       <c r="O53" s="33" t="s">
         <v>82</v>
@@ -22111,7 +22212,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="229"/>
       <c r="F54" s="244"/>
-      <c r="G54" s="432" t="s">
+      <c r="G54" s="469" t="s">
         <v>855</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -22158,11 +22259,11 @@
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="430" t="s">
+      <c r="E55" s="467" t="s">
         <v>856</v>
       </c>
-      <c r="F55" s="431"/>
-      <c r="G55" s="433"/>
+      <c r="F55" s="468"/>
+      <c r="G55" s="470"/>
       <c r="H55" s="130" t="s">
         <v>847</v>
       </c>
@@ -22206,9 +22307,9 @@
     <row r="56" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="C56" s="8"/>
       <c r="D56" s="9"/>
-      <c r="E56" s="430"/>
-      <c r="F56" s="431"/>
-      <c r="G56" s="433"/>
+      <c r="E56" s="467"/>
+      <c r="F56" s="468"/>
+      <c r="G56" s="470"/>
       <c r="H56" s="130" t="s">
         <v>848</v>
       </c>
@@ -22238,9 +22339,9 @@
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="430"/>
-      <c r="F57" s="431"/>
-      <c r="G57" s="433"/>
+      <c r="E57" s="467"/>
+      <c r="F57" s="468"/>
+      <c r="G57" s="470"/>
       <c r="H57" s="4" t="s">
         <v>860</v>
       </c>
@@ -22270,9 +22371,9 @@
         <v>92</v>
       </c>
       <c r="D58" s="6"/>
-      <c r="E58" s="430"/>
-      <c r="F58" s="431"/>
-      <c r="G58" s="433"/>
+      <c r="E58" s="467"/>
+      <c r="F58" s="468"/>
+      <c r="G58" s="470"/>
       <c r="H58" s="233" t="s">
         <v>846</v>
       </c>
@@ -22297,9 +22398,9 @@
     <row r="59" spans="1:24">
       <c r="C59" s="4"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="430"/>
-      <c r="F59" s="431"/>
-      <c r="G59" s="433"/>
+      <c r="E59" s="467"/>
+      <c r="F59" s="468"/>
+      <c r="G59" s="470"/>
       <c r="H59" s="233" t="s">
         <v>390</v>
       </c>
@@ -22324,9 +22425,9 @@
     <row r="60" spans="1:24" ht="15.75" thickBot="1">
       <c r="C60" s="8"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="430"/>
-      <c r="F60" s="431"/>
-      <c r="G60" s="433"/>
+      <c r="E60" s="467"/>
+      <c r="F60" s="468"/>
+      <c r="G60" s="470"/>
       <c r="H60" s="235"/>
       <c r="I60" s="236" t="s">
         <v>862</v>
@@ -22346,9 +22447,9 @@
     <row r="61" spans="1:24">
       <c r="C61" s="4"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="430"/>
-      <c r="F61" s="431"/>
-      <c r="G61" s="433"/>
+      <c r="E61" s="467"/>
+      <c r="F61" s="468"/>
+      <c r="G61" s="470"/>
       <c r="H61" s="235"/>
       <c r="I61" s="236" t="s">
         <v>863</v>
@@ -22368,7 +22469,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="224"/>
       <c r="F62" s="240"/>
-      <c r="G62" s="433"/>
+      <c r="G62" s="470"/>
       <c r="H62" s="237"/>
       <c r="I62" s="239" t="s">
         <v>864</v>
@@ -22410,17 +22511,17 @@
     <row r="64" spans="1:24" ht="19.5" thickBot="1">
       <c r="C64" s="8"/>
       <c r="D64" s="9"/>
-      <c r="E64" s="427" t="s">
+      <c r="E64" s="464" t="s">
         <v>1417</v>
       </c>
-      <c r="F64" s="428"/>
-      <c r="G64" s="428"/>
-      <c r="H64" s="428"/>
-      <c r="I64" s="428"/>
-      <c r="J64" s="428"/>
-      <c r="K64" s="428"/>
-      <c r="L64" s="428"/>
-      <c r="M64" s="429"/>
+      <c r="F64" s="465"/>
+      <c r="G64" s="465"/>
+      <c r="H64" s="465"/>
+      <c r="I64" s="465"/>
+      <c r="J64" s="465"/>
+      <c r="K64" s="465"/>
+      <c r="L64" s="465"/>
+      <c r="M64" s="466"/>
       <c r="N64" s="35" t="s">
         <v>402</v>
       </c>
@@ -22449,23 +22550,23 @@
       </c>
     </row>
     <row r="66" spans="2:24" ht="15.75" thickBot="1">
-      <c r="C66" s="360" t="s">
+      <c r="C66" s="380" t="s">
         <v>94</v>
       </c>
-      <c r="D66" s="361"/>
-      <c r="E66" s="360" t="s">
+      <c r="D66" s="381"/>
+      <c r="E66" s="380" t="s">
         <v>95</v>
       </c>
-      <c r="F66" s="362"/>
-      <c r="G66" s="361"/>
-      <c r="H66" s="360" t="s">
+      <c r="F66" s="382"/>
+      <c r="G66" s="381"/>
+      <c r="H66" s="380" t="s">
         <v>96</v>
       </c>
-      <c r="I66" s="362"/>
-      <c r="J66" s="362"/>
-      <c r="K66" s="362"/>
-      <c r="L66" s="362"/>
-      <c r="M66" s="361"/>
+      <c r="I66" s="382"/>
+      <c r="J66" s="382"/>
+      <c r="K66" s="382"/>
+      <c r="L66" s="382"/>
+      <c r="M66" s="381"/>
       <c r="Q66" t="s">
         <v>826</v>
       </c>
@@ -22486,23 +22587,23 @@
       </c>
     </row>
     <row r="68" spans="2:24">
-      <c r="C68" s="411" t="s">
+      <c r="C68" s="419" t="s">
         <v>81</v>
       </c>
-      <c r="D68" s="411"/>
-      <c r="E68" s="411" t="s">
+      <c r="D68" s="419"/>
+      <c r="E68" s="419" t="s">
         <v>1076</v>
       </c>
-      <c r="F68" s="411"/>
-      <c r="G68" s="411"/>
-      <c r="H68" s="411" t="s">
+      <c r="F68" s="419"/>
+      <c r="G68" s="419"/>
+      <c r="H68" s="419" t="s">
         <v>1092</v>
       </c>
-      <c r="I68" s="411"/>
-      <c r="J68" s="411"/>
-      <c r="K68" s="411"/>
-      <c r="L68" s="411"/>
-      <c r="M68" s="411"/>
+      <c r="I68" s="419"/>
+      <c r="J68" s="419"/>
+      <c r="K68" s="419"/>
+      <c r="L68" s="419"/>
+      <c r="M68" s="419"/>
       <c r="S68" s="24"/>
       <c r="T68" s="24"/>
       <c r="U68" s="2" t="s">
@@ -23299,6 +23400,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="E64:M64"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:M66"/>
+    <mergeCell ref="E55:F61"/>
+    <mergeCell ref="G54:G62"/>
+    <mergeCell ref="E32:G35"/>
+    <mergeCell ref="H32:J35"/>
+    <mergeCell ref="K32:M35"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="B2:V2"/>
+    <mergeCell ref="B25:V25"/>
+    <mergeCell ref="C26:M26"/>
+    <mergeCell ref="E27:M27"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="K50:M53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="E42:M42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:M44"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="E68:G68"/>
     <mergeCell ref="H68:M68"/>
@@ -23315,30 +23440,6 @@
     <mergeCell ref="E49:M49"/>
     <mergeCell ref="O51:Q51"/>
     <mergeCell ref="H50:J53"/>
-    <mergeCell ref="K50:M53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="E42:M42"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="B2:V2"/>
-    <mergeCell ref="B25:V25"/>
-    <mergeCell ref="C26:M26"/>
-    <mergeCell ref="E27:M27"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="E32:G35"/>
-    <mergeCell ref="H32:J35"/>
-    <mergeCell ref="K32:M35"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="H22:N22"/>
-    <mergeCell ref="E64:M64"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:M66"/>
-    <mergeCell ref="E55:F61"/>
-    <mergeCell ref="G54:G62"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="T9" r:id="rId1"/>
@@ -23372,12 +23473,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13">
-      <c r="B1" s="463" t="s">
+      <c r="B1" s="471" t="s">
         <v>380</v>
       </c>
-      <c r="C1" s="463"/>
-      <c r="D1" s="463"/>
-      <c r="E1" s="463"/>
+      <c r="C1" s="471"/>
+      <c r="D1" s="471"/>
+      <c r="E1" s="471"/>
       <c r="I1" s="299" t="s">
         <v>1448</v>
       </c>
@@ -23506,10 +23607,10 @@
       <c r="L7" s="297"/>
     </row>
     <row r="8" spans="2:13">
-      <c r="B8" s="402"/>
-      <c r="C8" s="402"/>
-      <c r="D8" s="402"/>
-      <c r="E8" s="402"/>
+      <c r="B8" s="410"/>
+      <c r="C8" s="410"/>
+      <c r="D8" s="410"/>
+      <c r="E8" s="410"/>
       <c r="G8" t="s">
         <v>1456</v>
       </c>
@@ -23604,11 +23705,11 @@
     </row>
     <row r="24" spans="2:18" ht="15.75" thickBot="1"/>
     <row r="25" spans="2:18">
-      <c r="B25" s="464" t="s">
+      <c r="B25" s="472" t="s">
         <v>1446</v>
       </c>
-      <c r="C25" s="465"/>
-      <c r="D25" s="465"/>
+      <c r="C25" s="473"/>
+      <c r="D25" s="473"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -24116,32 +24217,32 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:17" ht="15.75" thickBot="1">
-      <c r="C2" s="438" t="s">
+      <c r="C2" s="454" t="s">
         <v>397</v>
       </c>
-      <c r="D2" s="438"/>
-      <c r="E2" s="438"/>
-      <c r="F2" s="438"/>
-      <c r="G2" s="438"/>
-      <c r="H2" s="438"/>
-      <c r="I2" s="438"/>
-      <c r="J2" s="438"/>
-      <c r="K2" s="438"/>
-      <c r="L2" s="438"/>
+      <c r="D2" s="454"/>
+      <c r="E2" s="454"/>
+      <c r="F2" s="454"/>
+      <c r="G2" s="454"/>
+      <c r="H2" s="454"/>
+      <c r="I2" s="454"/>
+      <c r="J2" s="454"/>
+      <c r="K2" s="454"/>
+      <c r="L2" s="454"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1">
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="439" t="s">
+      <c r="E3" s="455" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="342"/>
-      <c r="G3" s="348"/>
-      <c r="H3" s="348"/>
-      <c r="I3" s="348"/>
-      <c r="J3" s="348"/>
-      <c r="K3" s="348"/>
-      <c r="L3" s="349"/>
+      <c r="F3" s="350"/>
+      <c r="G3" s="369"/>
+      <c r="H3" s="369"/>
+      <c r="I3" s="369"/>
+      <c r="J3" s="369"/>
+      <c r="K3" s="369"/>
+      <c r="L3" s="370"/>
     </row>
     <row r="4" spans="1:17">
       <c r="C4" s="4" t="s">
@@ -24172,11 +24273,11 @@
         <v>407</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="N5" s="440" t="s">
+      <c r="N5" s="456" t="s">
         <v>79</v>
       </c>
-      <c r="O5" s="440"/>
-      <c r="P5" s="440"/>
+      <c r="O5" s="456"/>
+      <c r="P5" s="456"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1">
       <c r="A6" t="s">
@@ -24236,20 +24337,20 @@
         <v>90</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="434" t="s">
+      <c r="E8" s="460" t="s">
         <v>398</v>
       </c>
-      <c r="F8" s="436"/>
-      <c r="G8" s="434" t="s">
+      <c r="F8" s="462"/>
+      <c r="G8" s="460" t="s">
         <v>399</v>
       </c>
-      <c r="H8" s="435"/>
-      <c r="I8" s="436"/>
-      <c r="J8" s="434" t="s">
+      <c r="H8" s="461"/>
+      <c r="I8" s="462"/>
+      <c r="J8" s="460" t="s">
         <v>400</v>
       </c>
-      <c r="K8" s="435"/>
-      <c r="L8" s="436"/>
+      <c r="K8" s="461"/>
+      <c r="L8" s="462"/>
       <c r="M8" s="5" t="s">
         <v>2</v>
       </c>
@@ -24272,14 +24373,14 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="434"/>
-      <c r="F9" s="436"/>
-      <c r="G9" s="434"/>
-      <c r="H9" s="435"/>
-      <c r="I9" s="436"/>
-      <c r="J9" s="434"/>
-      <c r="K9" s="435"/>
-      <c r="L9" s="436"/>
+      <c r="E9" s="460"/>
+      <c r="F9" s="462"/>
+      <c r="G9" s="460"/>
+      <c r="H9" s="461"/>
+      <c r="I9" s="462"/>
+      <c r="J9" s="460"/>
+      <c r="K9" s="461"/>
+      <c r="L9" s="462"/>
       <c r="M9" s="5" t="s">
         <v>87</v>
       </c>
@@ -24296,14 +24397,14 @@
     <row r="10" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="434"/>
-      <c r="F10" s="436"/>
-      <c r="G10" s="434"/>
-      <c r="H10" s="435"/>
-      <c r="I10" s="436"/>
-      <c r="J10" s="434"/>
-      <c r="K10" s="435"/>
-      <c r="L10" s="436"/>
+      <c r="E10" s="460"/>
+      <c r="F10" s="462"/>
+      <c r="G10" s="460"/>
+      <c r="H10" s="461"/>
+      <c r="I10" s="462"/>
+      <c r="J10" s="460"/>
+      <c r="K10" s="461"/>
+      <c r="L10" s="462"/>
       <c r="M10" s="5">
         <v>1000</v>
       </c>
@@ -24317,14 +24418,14 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="434"/>
-      <c r="F11" s="436"/>
-      <c r="G11" s="434"/>
-      <c r="H11" s="435"/>
-      <c r="I11" s="436"/>
-      <c r="J11" s="434"/>
-      <c r="K11" s="435"/>
-      <c r="L11" s="436"/>
+      <c r="E11" s="460"/>
+      <c r="F11" s="462"/>
+      <c r="G11" s="460"/>
+      <c r="H11" s="461"/>
+      <c r="I11" s="462"/>
+      <c r="J11" s="460"/>
+      <c r="K11" s="461"/>
+      <c r="L11" s="462"/>
       <c r="M11" s="5" t="s">
         <v>2</v>
       </c>
@@ -24448,16 +24549,16 @@
     <row r="17" spans="2:18" ht="19.5" thickBot="1">
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="427" t="s">
+      <c r="E17" s="464" t="s">
         <v>401</v>
       </c>
-      <c r="F17" s="428"/>
-      <c r="G17" s="428"/>
-      <c r="H17" s="428"/>
-      <c r="I17" s="428"/>
-      <c r="J17" s="428"/>
-      <c r="K17" s="428"/>
-      <c r="L17" s="429"/>
+      <c r="F17" s="465"/>
+      <c r="G17" s="465"/>
+      <c r="H17" s="465"/>
+      <c r="I17" s="465"/>
+      <c r="J17" s="465"/>
+      <c r="K17" s="465"/>
+      <c r="L17" s="466"/>
       <c r="M17" s="35" t="s">
         <v>402</v>
       </c>
@@ -24487,40 +24588,40 @@
       </c>
     </row>
     <row r="19" spans="2:18" ht="15.75" thickBot="1">
-      <c r="C19" s="360" t="s">
+      <c r="C19" s="380" t="s">
         <v>94</v>
       </c>
-      <c r="D19" s="361"/>
-      <c r="E19" s="360" t="s">
+      <c r="D19" s="381"/>
+      <c r="E19" s="380" t="s">
         <v>95</v>
       </c>
-      <c r="F19" s="361"/>
-      <c r="G19" s="360" t="s">
+      <c r="F19" s="381"/>
+      <c r="G19" s="380" t="s">
         <v>96</v>
       </c>
-      <c r="H19" s="362"/>
-      <c r="I19" s="362"/>
-      <c r="J19" s="362"/>
-      <c r="K19" s="362"/>
-      <c r="L19" s="361"/>
+      <c r="H19" s="382"/>
+      <c r="I19" s="382"/>
+      <c r="J19" s="382"/>
+      <c r="K19" s="382"/>
+      <c r="L19" s="381"/>
     </row>
     <row r="20" spans="2:18" ht="15.75" thickBot="1"/>
     <row r="21" spans="2:18" ht="15" customHeight="1">
-      <c r="E21" s="466" t="s">
+      <c r="E21" s="474" t="s">
         <v>1105</v>
       </c>
-      <c r="F21" s="467"/>
+      <c r="F21" s="475"/>
     </row>
     <row r="22" spans="2:18">
-      <c r="E22" s="468"/>
-      <c r="F22" s="469"/>
+      <c r="E22" s="476"/>
+      <c r="F22" s="477"/>
       <c r="J22" t="s">
         <v>1110</v>
       </c>
     </row>
     <row r="23" spans="2:18">
-      <c r="E23" s="468"/>
-      <c r="F23" s="469"/>
+      <c r="E23" s="476"/>
+      <c r="F23" s="477"/>
       <c r="H23" t="s">
         <v>1113</v>
       </c>
@@ -24532,8 +24633,8 @@
       </c>
     </row>
     <row r="24" spans="2:18" ht="15.75" thickBot="1">
-      <c r="E24" s="470"/>
-      <c r="F24" s="471"/>
+      <c r="E24" s="478"/>
+      <c r="F24" s="479"/>
     </row>
     <row r="25" spans="2:18" ht="15.75" thickBot="1"/>
     <row r="26" spans="2:18" ht="15.75" thickBot="1">
@@ -26028,22 +26129,22 @@
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="441" t="s">
+      <c r="E3" s="435" t="s">
         <v>360</v>
       </c>
-      <c r="F3" s="441"/>
-      <c r="G3" s="441" t="s">
+      <c r="F3" s="435"/>
+      <c r="G3" s="435" t="s">
         <v>361</v>
       </c>
-      <c r="H3" s="441"/>
-      <c r="I3" s="441"/>
-      <c r="J3" s="441"/>
-      <c r="K3" s="441"/>
-      <c r="L3" s="441"/>
-      <c r="M3" s="441" t="s">
+      <c r="H3" s="435"/>
+      <c r="I3" s="435"/>
+      <c r="J3" s="435"/>
+      <c r="K3" s="435"/>
+      <c r="L3" s="435"/>
+      <c r="M3" s="435" t="s">
         <v>362</v>
       </c>
-      <c r="N3" s="441"/>
+      <c r="N3" s="435"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
@@ -26054,7 +26155,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="124"/>
       <c r="D4" s="125"/>
-      <c r="E4" s="446" t="s">
+      <c r="E4" s="436" t="s">
         <v>363</v>
       </c>
       <c r="F4" s="120"/>
@@ -26082,22 +26183,22 @@
         <v>81</v>
       </c>
       <c r="D5" s="127"/>
-      <c r="E5" s="366"/>
-      <c r="F5" s="377" t="s">
+      <c r="E5" s="356"/>
+      <c r="F5" s="385" t="s">
         <v>435</v>
       </c>
-      <c r="G5" s="378"/>
-      <c r="H5" s="379"/>
-      <c r="I5" s="472" t="s">
+      <c r="G5" s="386"/>
+      <c r="H5" s="387"/>
+      <c r="I5" s="517" t="s">
         <v>436</v>
       </c>
-      <c r="J5" s="473"/>
-      <c r="K5" s="473"/>
-      <c r="L5" s="453"/>
-      <c r="M5" s="472" t="s">
+      <c r="J5" s="518"/>
+      <c r="K5" s="518"/>
+      <c r="L5" s="443"/>
+      <c r="M5" s="517" t="s">
         <v>437</v>
       </c>
-      <c r="N5" s="453"/>
+      <c r="N5" s="443"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -26108,16 +26209,16 @@
       <c r="B6" s="4"/>
       <c r="C6" s="128"/>
       <c r="D6" s="129"/>
-      <c r="E6" s="366"/>
-      <c r="F6" s="380"/>
-      <c r="G6" s="381"/>
-      <c r="H6" s="382"/>
-      <c r="I6" s="344"/>
-      <c r="J6" s="345"/>
-      <c r="K6" s="345"/>
-      <c r="L6" s="454"/>
-      <c r="M6" s="344"/>
-      <c r="N6" s="454"/>
+      <c r="E6" s="356"/>
+      <c r="F6" s="388"/>
+      <c r="G6" s="389"/>
+      <c r="H6" s="390"/>
+      <c r="I6" s="354"/>
+      <c r="J6" s="352"/>
+      <c r="K6" s="352"/>
+      <c r="L6" s="444"/>
+      <c r="M6" s="354"/>
+      <c r="N6" s="444"/>
       <c r="O6" s="5"/>
       <c r="P6" s="33" t="s">
         <v>82</v>
@@ -26134,16 +26235,16 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="366"/>
-      <c r="F7" s="380"/>
-      <c r="G7" s="381"/>
-      <c r="H7" s="382"/>
-      <c r="I7" s="344"/>
-      <c r="J7" s="345"/>
-      <c r="K7" s="345"/>
-      <c r="L7" s="454"/>
-      <c r="M7" s="344"/>
-      <c r="N7" s="454"/>
+      <c r="E7" s="356"/>
+      <c r="F7" s="388"/>
+      <c r="G7" s="389"/>
+      <c r="H7" s="390"/>
+      <c r="I7" s="354"/>
+      <c r="J7" s="352"/>
+      <c r="K7" s="352"/>
+      <c r="L7" s="444"/>
+      <c r="M7" s="354"/>
+      <c r="N7" s="444"/>
       <c r="O7" s="5" t="s">
         <v>2</v>
       </c>
@@ -26162,16 +26263,16 @@
       <c r="B8" s="4"/>
       <c r="C8" s="1"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="366"/>
-      <c r="F8" s="380"/>
-      <c r="G8" s="381"/>
-      <c r="H8" s="382"/>
-      <c r="I8" s="344"/>
-      <c r="J8" s="345"/>
-      <c r="K8" s="345"/>
-      <c r="L8" s="454"/>
-      <c r="M8" s="344"/>
-      <c r="N8" s="454"/>
+      <c r="E8" s="356"/>
+      <c r="F8" s="388"/>
+      <c r="G8" s="389"/>
+      <c r="H8" s="390"/>
+      <c r="I8" s="354"/>
+      <c r="J8" s="352"/>
+      <c r="K8" s="352"/>
+      <c r="L8" s="444"/>
+      <c r="M8" s="354"/>
+      <c r="N8" s="444"/>
       <c r="O8" s="5" t="s">
         <v>87</v>
       </c>
@@ -26192,16 +26293,16 @@
         <v>90</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="366"/>
-      <c r="F9" s="380"/>
-      <c r="G9" s="381"/>
-      <c r="H9" s="382"/>
-      <c r="I9" s="344"/>
-      <c r="J9" s="345"/>
-      <c r="K9" s="345"/>
-      <c r="L9" s="454"/>
-      <c r="M9" s="344"/>
-      <c r="N9" s="454"/>
+      <c r="E9" s="356"/>
+      <c r="F9" s="388"/>
+      <c r="G9" s="389"/>
+      <c r="H9" s="390"/>
+      <c r="I9" s="354"/>
+      <c r="J9" s="352"/>
+      <c r="K9" s="352"/>
+      <c r="L9" s="444"/>
+      <c r="M9" s="354"/>
+      <c r="N9" s="444"/>
       <c r="O9" s="5">
         <v>1000</v>
       </c>
@@ -26218,16 +26319,16 @@
         <v>379</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="366"/>
-      <c r="F10" s="380"/>
-      <c r="G10" s="381"/>
-      <c r="H10" s="382"/>
-      <c r="I10" s="344"/>
-      <c r="J10" s="345"/>
-      <c r="K10" s="345"/>
-      <c r="L10" s="454"/>
-      <c r="M10" s="344"/>
-      <c r="N10" s="454"/>
+      <c r="E10" s="356"/>
+      <c r="F10" s="388"/>
+      <c r="G10" s="389"/>
+      <c r="H10" s="390"/>
+      <c r="I10" s="354"/>
+      <c r="J10" s="352"/>
+      <c r="K10" s="352"/>
+      <c r="L10" s="444"/>
+      <c r="M10" s="354"/>
+      <c r="N10" s="444"/>
       <c r="O10" s="5" t="s">
         <v>2</v>
       </c>
@@ -26240,16 +26341,16 @@
       <c r="B11" s="4"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="366"/>
-      <c r="F11" s="380"/>
-      <c r="G11" s="381"/>
-      <c r="H11" s="382"/>
-      <c r="I11" s="344"/>
-      <c r="J11" s="345"/>
-      <c r="K11" s="345"/>
-      <c r="L11" s="454"/>
-      <c r="M11" s="344"/>
-      <c r="N11" s="454"/>
+      <c r="E11" s="356"/>
+      <c r="F11" s="388"/>
+      <c r="G11" s="389"/>
+      <c r="H11" s="390"/>
+      <c r="I11" s="354"/>
+      <c r="J11" s="352"/>
+      <c r="K11" s="352"/>
+      <c r="L11" s="444"/>
+      <c r="M11" s="354"/>
+      <c r="N11" s="444"/>
       <c r="O11" s="5"/>
       <c r="P11" s="33"/>
       <c r="Q11" s="33"/>
@@ -26260,16 +26361,16 @@
       <c r="B12" s="4"/>
       <c r="C12" s="1"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="366"/>
-      <c r="F12" s="380"/>
-      <c r="G12" s="381"/>
-      <c r="H12" s="382"/>
-      <c r="I12" s="344"/>
-      <c r="J12" s="345"/>
-      <c r="K12" s="345"/>
-      <c r="L12" s="454"/>
-      <c r="M12" s="344"/>
-      <c r="N12" s="454"/>
+      <c r="E12" s="356"/>
+      <c r="F12" s="388"/>
+      <c r="G12" s="389"/>
+      <c r="H12" s="390"/>
+      <c r="I12" s="354"/>
+      <c r="J12" s="352"/>
+      <c r="K12" s="352"/>
+      <c r="L12" s="444"/>
+      <c r="M12" s="354"/>
+      <c r="N12" s="444"/>
       <c r="O12" s="5"/>
       <c r="P12" s="33"/>
       <c r="Q12" s="33"/>
@@ -26282,16 +26383,16 @@
         <v>92</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="366"/>
-      <c r="F13" s="380"/>
-      <c r="G13" s="381"/>
-      <c r="H13" s="382"/>
-      <c r="I13" s="344"/>
-      <c r="J13" s="345"/>
-      <c r="K13" s="345"/>
-      <c r="L13" s="454"/>
-      <c r="M13" s="344"/>
-      <c r="N13" s="454"/>
+      <c r="E13" s="356"/>
+      <c r="F13" s="388"/>
+      <c r="G13" s="389"/>
+      <c r="H13" s="390"/>
+      <c r="I13" s="354"/>
+      <c r="J13" s="352"/>
+      <c r="K13" s="352"/>
+      <c r="L13" s="444"/>
+      <c r="M13" s="354"/>
+      <c r="N13" s="444"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
@@ -26302,16 +26403,16 @@
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="366"/>
-      <c r="F14" s="380"/>
-      <c r="G14" s="381"/>
-      <c r="H14" s="382"/>
-      <c r="I14" s="344"/>
-      <c r="J14" s="345"/>
-      <c r="K14" s="345"/>
-      <c r="L14" s="454"/>
-      <c r="M14" s="344"/>
-      <c r="N14" s="454"/>
+      <c r="E14" s="356"/>
+      <c r="F14" s="388"/>
+      <c r="G14" s="389"/>
+      <c r="H14" s="390"/>
+      <c r="I14" s="354"/>
+      <c r="J14" s="352"/>
+      <c r="K14" s="352"/>
+      <c r="L14" s="444"/>
+      <c r="M14" s="354"/>
+      <c r="N14" s="444"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
@@ -26322,16 +26423,16 @@
       <c r="B15" s="4"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="366"/>
-      <c r="F15" s="380"/>
-      <c r="G15" s="381"/>
-      <c r="H15" s="382"/>
-      <c r="I15" s="344"/>
-      <c r="J15" s="345"/>
-      <c r="K15" s="345"/>
-      <c r="L15" s="454"/>
-      <c r="M15" s="344"/>
-      <c r="N15" s="454"/>
+      <c r="E15" s="356"/>
+      <c r="F15" s="388"/>
+      <c r="G15" s="389"/>
+      <c r="H15" s="390"/>
+      <c r="I15" s="354"/>
+      <c r="J15" s="352"/>
+      <c r="K15" s="352"/>
+      <c r="L15" s="444"/>
+      <c r="M15" s="354"/>
+      <c r="N15" s="444"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
@@ -26342,16 +26443,16 @@
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="366"/>
-      <c r="F16" s="380"/>
-      <c r="G16" s="381"/>
-      <c r="H16" s="382"/>
-      <c r="I16" s="344"/>
-      <c r="J16" s="345"/>
-      <c r="K16" s="345"/>
-      <c r="L16" s="454"/>
-      <c r="M16" s="344"/>
-      <c r="N16" s="454"/>
+      <c r="E16" s="356"/>
+      <c r="F16" s="388"/>
+      <c r="G16" s="389"/>
+      <c r="H16" s="390"/>
+      <c r="I16" s="354"/>
+      <c r="J16" s="352"/>
+      <c r="K16" s="352"/>
+      <c r="L16" s="444"/>
+      <c r="M16" s="354"/>
+      <c r="N16" s="444"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
@@ -26364,16 +26465,16 @@
         <v>93</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="366"/>
-      <c r="F17" s="380"/>
-      <c r="G17" s="381"/>
-      <c r="H17" s="382"/>
-      <c r="I17" s="344"/>
-      <c r="J17" s="345"/>
-      <c r="K17" s="345"/>
-      <c r="L17" s="454"/>
-      <c r="M17" s="344"/>
-      <c r="N17" s="454"/>
+      <c r="E17" s="356"/>
+      <c r="F17" s="388"/>
+      <c r="G17" s="389"/>
+      <c r="H17" s="390"/>
+      <c r="I17" s="354"/>
+      <c r="J17" s="352"/>
+      <c r="K17" s="352"/>
+      <c r="L17" s="444"/>
+      <c r="M17" s="354"/>
+      <c r="N17" s="444"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
@@ -26384,16 +26485,16 @@
       <c r="B18" s="4"/>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="367"/>
-      <c r="F18" s="383"/>
-      <c r="G18" s="384"/>
-      <c r="H18" s="385"/>
-      <c r="I18" s="455"/>
-      <c r="J18" s="474"/>
-      <c r="K18" s="474"/>
-      <c r="L18" s="456"/>
-      <c r="M18" s="455"/>
-      <c r="N18" s="456"/>
+      <c r="E18" s="357"/>
+      <c r="F18" s="391"/>
+      <c r="G18" s="392"/>
+      <c r="H18" s="393"/>
+      <c r="I18" s="445"/>
+      <c r="J18" s="519"/>
+      <c r="K18" s="519"/>
+      <c r="L18" s="446"/>
+      <c r="M18" s="445"/>
+      <c r="N18" s="446"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
@@ -26422,26 +26523,26 @@
     </row>
     <row r="20" spans="2:19" ht="15.75" thickBot="1">
       <c r="B20" s="4"/>
-      <c r="C20" s="360" t="s">
+      <c r="C20" s="380" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="361"/>
+      <c r="D20" s="381"/>
       <c r="E20" s="119" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="360" t="s">
+      <c r="F20" s="380" t="s">
         <v>96</v>
       </c>
-      <c r="G20" s="362"/>
-      <c r="H20" s="362"/>
-      <c r="I20" s="362"/>
-      <c r="J20" s="362"/>
-      <c r="K20" s="362"/>
-      <c r="L20" s="361"/>
-      <c r="M20" s="360" t="s">
+      <c r="G20" s="382"/>
+      <c r="H20" s="382"/>
+      <c r="I20" s="382"/>
+      <c r="J20" s="382"/>
+      <c r="K20" s="382"/>
+      <c r="L20" s="381"/>
+      <c r="M20" s="380" t="s">
         <v>370</v>
       </c>
-      <c r="N20" s="361"/>
+      <c r="N20" s="381"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
@@ -26469,39 +26570,39 @@
       <c r="S21" s="9"/>
     </row>
     <row r="24" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B24" s="440" t="s">
+      <c r="B24" s="456" t="s">
         <v>397</v>
       </c>
-      <c r="C24" s="440"/>
-      <c r="D24" s="438"/>
-      <c r="E24" s="438"/>
-      <c r="F24" s="438"/>
-      <c r="G24" s="438"/>
-      <c r="H24" s="438"/>
-      <c r="I24" s="438"/>
-      <c r="J24" s="438"/>
-      <c r="K24" s="438"/>
-      <c r="M24" s="501" t="s">
+      <c r="C24" s="456"/>
+      <c r="D24" s="454"/>
+      <c r="E24" s="454"/>
+      <c r="F24" s="454"/>
+      <c r="G24" s="454"/>
+      <c r="H24" s="454"/>
+      <c r="I24" s="454"/>
+      <c r="J24" s="454"/>
+      <c r="K24" s="454"/>
+      <c r="M24" s="480" t="s">
         <v>79</v>
       </c>
-      <c r="N24" s="501"/>
-      <c r="O24" s="501"/>
+      <c r="N24" s="480"/>
+      <c r="O24" s="480"/>
     </row>
     <row r="25" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B25" s="502" t="s">
+      <c r="B25" s="481" t="s">
         <v>700</v>
       </c>
-      <c r="C25" s="416"/>
-      <c r="D25" s="348" t="s">
+      <c r="C25" s="422"/>
+      <c r="D25" s="369" t="s">
         <v>78</v>
       </c>
-      <c r="E25" s="348"/>
-      <c r="F25" s="348"/>
-      <c r="G25" s="348"/>
-      <c r="H25" s="348"/>
-      <c r="I25" s="348"/>
-      <c r="J25" s="348"/>
-      <c r="K25" s="349"/>
+      <c r="E25" s="369"/>
+      <c r="F25" s="369"/>
+      <c r="G25" s="369"/>
+      <c r="H25" s="369"/>
+      <c r="I25" s="369"/>
+      <c r="J25" s="369"/>
+      <c r="K25" s="370"/>
       <c r="M25" s="33" t="s">
         <v>82</v>
       </c>
@@ -26513,22 +26614,22 @@
       </c>
     </row>
     <row r="26" spans="2:19">
-      <c r="B26" s="417"/>
-      <c r="C26" s="418"/>
-      <c r="D26" s="475" t="s">
+      <c r="B26" s="423"/>
+      <c r="C26" s="424"/>
+      <c r="D26" s="494" t="s">
         <v>693</v>
       </c>
-      <c r="E26" s="476"/>
-      <c r="F26" s="494" t="s">
+      <c r="E26" s="495"/>
+      <c r="F26" s="512" t="s">
         <v>693</v>
       </c>
-      <c r="G26" s="495"/>
-      <c r="H26" s="496"/>
-      <c r="I26" s="499" t="s">
+      <c r="G26" s="513"/>
+      <c r="H26" s="514"/>
+      <c r="I26" s="516" t="s">
         <v>1506</v>
       </c>
-      <c r="J26" s="495"/>
-      <c r="K26" s="496"/>
+      <c r="J26" s="513"/>
+      <c r="K26" s="514"/>
       <c r="L26" s="5" t="s">
         <v>2</v>
       </c>
@@ -26543,22 +26644,22 @@
       </c>
     </row>
     <row r="27" spans="2:19">
-      <c r="B27" s="417"/>
-      <c r="C27" s="418"/>
-      <c r="D27" s="477" t="s">
+      <c r="B27" s="423"/>
+      <c r="C27" s="424"/>
+      <c r="D27" s="492" t="s">
         <v>698</v>
       </c>
-      <c r="E27" s="478"/>
-      <c r="F27" s="497" t="s">
+      <c r="E27" s="496"/>
+      <c r="F27" s="515" t="s">
         <v>694</v>
       </c>
-      <c r="G27" s="477"/>
-      <c r="H27" s="498"/>
-      <c r="I27" s="500" t="s">
+      <c r="G27" s="492"/>
+      <c r="H27" s="493"/>
+      <c r="I27" s="491" t="s">
         <v>1507</v>
       </c>
-      <c r="J27" s="477"/>
-      <c r="K27" s="498"/>
+      <c r="J27" s="492"/>
+      <c r="K27" s="493"/>
       <c r="L27" s="5" t="s">
         <v>2</v>
       </c>
@@ -26573,22 +26674,22 @@
       </c>
     </row>
     <row r="28" spans="2:19">
-      <c r="B28" s="417"/>
-      <c r="C28" s="418"/>
-      <c r="D28" s="477" t="s">
+      <c r="B28" s="423"/>
+      <c r="C28" s="424"/>
+      <c r="D28" s="492" t="s">
         <v>695</v>
       </c>
-      <c r="E28" s="478"/>
-      <c r="F28" s="497" t="s">
+      <c r="E28" s="496"/>
+      <c r="F28" s="515" t="s">
         <v>695</v>
       </c>
-      <c r="G28" s="477"/>
-      <c r="H28" s="498"/>
-      <c r="I28" s="500" t="s">
+      <c r="G28" s="492"/>
+      <c r="H28" s="493"/>
+      <c r="I28" s="491" t="s">
         <v>1508</v>
       </c>
-      <c r="J28" s="477"/>
-      <c r="K28" s="498"/>
+      <c r="J28" s="492"/>
+      <c r="K28" s="493"/>
       <c r="L28" s="5" t="s">
         <v>2</v>
       </c>
@@ -26597,22 +26698,22 @@
       <c r="O28" s="33"/>
     </row>
     <row r="29" spans="2:19">
-      <c r="B29" s="419"/>
-      <c r="C29" s="420"/>
-      <c r="D29" s="477" t="s">
+      <c r="B29" s="425"/>
+      <c r="C29" s="426"/>
+      <c r="D29" s="492" t="s">
         <v>696</v>
       </c>
-      <c r="E29" s="478"/>
-      <c r="F29" s="497" t="s">
+      <c r="E29" s="496"/>
+      <c r="F29" s="515" t="s">
         <v>696</v>
       </c>
-      <c r="G29" s="477"/>
-      <c r="H29" s="498"/>
-      <c r="I29" s="500" t="s">
+      <c r="G29" s="492"/>
+      <c r="H29" s="493"/>
+      <c r="I29" s="491" t="s">
         <v>1509</v>
       </c>
-      <c r="J29" s="477"/>
-      <c r="K29" s="498"/>
+      <c r="J29" s="492"/>
+      <c r="K29" s="493"/>
       <c r="L29" s="24" t="s">
         <v>2</v>
       </c>
@@ -26621,149 +26722,149 @@
       <c r="O29" s="33"/>
     </row>
     <row r="30" spans="2:19">
-      <c r="B30" s="350" t="s">
+      <c r="B30" s="371" t="s">
         <v>699</v>
       </c>
-      <c r="C30" s="352"/>
-      <c r="D30" s="479" t="s">
+      <c r="C30" s="373"/>
+      <c r="D30" s="497" t="s">
         <v>398</v>
       </c>
-      <c r="E30" s="480"/>
-      <c r="F30" s="485" t="s">
+      <c r="E30" s="498"/>
+      <c r="F30" s="503" t="s">
         <v>399</v>
       </c>
-      <c r="G30" s="486"/>
-      <c r="H30" s="480"/>
-      <c r="I30" s="485" t="s">
+      <c r="G30" s="504"/>
+      <c r="H30" s="498"/>
+      <c r="I30" s="503" t="s">
         <v>400</v>
       </c>
-      <c r="J30" s="486"/>
-      <c r="K30" s="491"/>
+      <c r="J30" s="504"/>
+      <c r="K30" s="509"/>
       <c r="L30" s="5"/>
       <c r="M30" s="33"/>
       <c r="N30" s="33"/>
       <c r="O30" s="33"/>
     </row>
     <row r="31" spans="2:19">
-      <c r="B31" s="354"/>
-      <c r="C31" s="355"/>
-      <c r="D31" s="481"/>
-      <c r="E31" s="482"/>
-      <c r="F31" s="487"/>
-      <c r="G31" s="488"/>
-      <c r="H31" s="482"/>
-      <c r="I31" s="487"/>
-      <c r="J31" s="488"/>
-      <c r="K31" s="492"/>
+      <c r="B31" s="375"/>
+      <c r="C31" s="360"/>
+      <c r="D31" s="499"/>
+      <c r="E31" s="500"/>
+      <c r="F31" s="505"/>
+      <c r="G31" s="506"/>
+      <c r="H31" s="500"/>
+      <c r="I31" s="505"/>
+      <c r="J31" s="506"/>
+      <c r="K31" s="510"/>
       <c r="L31" s="5"/>
       <c r="M31" s="33"/>
       <c r="N31" s="33"/>
       <c r="O31" s="33"/>
     </row>
     <row r="32" spans="2:19">
-      <c r="B32" s="354"/>
-      <c r="C32" s="355"/>
-      <c r="D32" s="481"/>
-      <c r="E32" s="482"/>
-      <c r="F32" s="487"/>
-      <c r="G32" s="488"/>
-      <c r="H32" s="482"/>
-      <c r="I32" s="487"/>
-      <c r="J32" s="488"/>
-      <c r="K32" s="492"/>
+      <c r="B32" s="375"/>
+      <c r="C32" s="360"/>
+      <c r="D32" s="499"/>
+      <c r="E32" s="500"/>
+      <c r="F32" s="505"/>
+      <c r="G32" s="506"/>
+      <c r="H32" s="500"/>
+      <c r="I32" s="505"/>
+      <c r="J32" s="506"/>
+      <c r="K32" s="510"/>
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="354"/>
-      <c r="C33" s="355"/>
-      <c r="D33" s="483"/>
-      <c r="E33" s="484"/>
-      <c r="F33" s="489"/>
-      <c r="G33" s="490"/>
-      <c r="H33" s="484"/>
-      <c r="I33" s="489"/>
-      <c r="J33" s="490"/>
-      <c r="K33" s="493"/>
+      <c r="B33" s="375"/>
+      <c r="C33" s="360"/>
+      <c r="D33" s="501"/>
+      <c r="E33" s="502"/>
+      <c r="F33" s="507"/>
+      <c r="G33" s="508"/>
+      <c r="H33" s="502"/>
+      <c r="I33" s="507"/>
+      <c r="J33" s="508"/>
+      <c r="K33" s="511"/>
     </row>
     <row r="34" spans="2:14">
-      <c r="B34" s="354"/>
-      <c r="C34" s="356"/>
-      <c r="D34" s="503" t="s">
+      <c r="B34" s="375"/>
+      <c r="C34" s="376"/>
+      <c r="D34" s="482" t="s">
         <v>686</v>
       </c>
-      <c r="E34" s="504"/>
-      <c r="F34" s="503" t="s">
+      <c r="E34" s="483"/>
+      <c r="F34" s="482" t="s">
         <v>411</v>
       </c>
-      <c r="G34" s="509"/>
-      <c r="H34" s="504"/>
-      <c r="I34" s="503" t="s">
+      <c r="G34" s="488"/>
+      <c r="H34" s="483"/>
+      <c r="I34" s="482" t="s">
         <v>701</v>
       </c>
-      <c r="J34" s="509"/>
-      <c r="K34" s="504"/>
+      <c r="J34" s="488"/>
+      <c r="K34" s="483"/>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35" s="354"/>
-      <c r="C35" s="356"/>
-      <c r="D35" s="505"/>
-      <c r="E35" s="506"/>
-      <c r="F35" s="505"/>
-      <c r="G35" s="510"/>
-      <c r="H35" s="506"/>
-      <c r="I35" s="505"/>
-      <c r="J35" s="510"/>
-      <c r="K35" s="506"/>
+      <c r="B35" s="375"/>
+      <c r="C35" s="376"/>
+      <c r="D35" s="484"/>
+      <c r="E35" s="485"/>
+      <c r="F35" s="484"/>
+      <c r="G35" s="489"/>
+      <c r="H35" s="485"/>
+      <c r="I35" s="484"/>
+      <c r="J35" s="489"/>
+      <c r="K35" s="485"/>
     </row>
     <row r="36" spans="2:14">
-      <c r="B36" s="354"/>
-      <c r="C36" s="356"/>
-      <c r="D36" s="505"/>
-      <c r="E36" s="506"/>
-      <c r="F36" s="505"/>
-      <c r="G36" s="510"/>
-      <c r="H36" s="506"/>
-      <c r="I36" s="505"/>
-      <c r="J36" s="510"/>
-      <c r="K36" s="506"/>
+      <c r="B36" s="375"/>
+      <c r="C36" s="376"/>
+      <c r="D36" s="484"/>
+      <c r="E36" s="485"/>
+      <c r="F36" s="484"/>
+      <c r="G36" s="489"/>
+      <c r="H36" s="485"/>
+      <c r="I36" s="484"/>
+      <c r="J36" s="489"/>
+      <c r="K36" s="485"/>
     </row>
     <row r="37" spans="2:14">
-      <c r="B37" s="354"/>
-      <c r="C37" s="356"/>
-      <c r="D37" s="505"/>
-      <c r="E37" s="506"/>
-      <c r="F37" s="505"/>
-      <c r="G37" s="510"/>
-      <c r="H37" s="506"/>
-      <c r="I37" s="505"/>
-      <c r="J37" s="510"/>
-      <c r="K37" s="506"/>
+      <c r="B37" s="375"/>
+      <c r="C37" s="376"/>
+      <c r="D37" s="484"/>
+      <c r="E37" s="485"/>
+      <c r="F37" s="484"/>
+      <c r="G37" s="489"/>
+      <c r="H37" s="485"/>
+      <c r="I37" s="484"/>
+      <c r="J37" s="489"/>
+      <c r="K37" s="485"/>
     </row>
     <row r="38" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B38" s="354"/>
-      <c r="C38" s="356"/>
-      <c r="D38" s="507"/>
-      <c r="E38" s="508"/>
-      <c r="F38" s="507"/>
-      <c r="G38" s="511"/>
-      <c r="H38" s="508"/>
-      <c r="I38" s="507"/>
-      <c r="J38" s="511"/>
-      <c r="K38" s="508"/>
+      <c r="B38" s="375"/>
+      <c r="C38" s="376"/>
+      <c r="D38" s="486"/>
+      <c r="E38" s="487"/>
+      <c r="F38" s="486"/>
+      <c r="G38" s="490"/>
+      <c r="H38" s="487"/>
+      <c r="I38" s="486"/>
+      <c r="J38" s="490"/>
+      <c r="K38" s="487"/>
     </row>
     <row r="39" spans="2:14" ht="19.5" thickBot="1">
-      <c r="B39" s="357"/>
-      <c r="C39" s="359"/>
-      <c r="D39" s="427" t="s">
+      <c r="B39" s="377"/>
+      <c r="C39" s="379"/>
+      <c r="D39" s="464" t="s">
         <v>401</v>
       </c>
-      <c r="E39" s="428"/>
-      <c r="F39" s="428"/>
-      <c r="G39" s="428"/>
-      <c r="H39" s="428"/>
-      <c r="I39" s="428"/>
-      <c r="J39" s="428"/>
-      <c r="K39" s="429"/>
+      <c r="E39" s="465"/>
+      <c r="F39" s="465"/>
+      <c r="G39" s="465"/>
+      <c r="H39" s="465"/>
+      <c r="I39" s="465"/>
+      <c r="J39" s="465"/>
+      <c r="K39" s="466"/>
       <c r="L39" s="35" t="s">
         <v>402</v>
       </c>
@@ -26781,36 +26882,35 @@
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B41" s="360" t="s">
+      <c r="B41" s="380" t="s">
         <v>94</v>
       </c>
-      <c r="C41" s="361"/>
-      <c r="D41" s="360" t="s">
+      <c r="C41" s="381"/>
+      <c r="D41" s="380" t="s">
         <v>95</v>
       </c>
-      <c r="E41" s="361"/>
-      <c r="F41" s="360" t="s">
+      <c r="E41" s="381"/>
+      <c r="F41" s="380" t="s">
         <v>96</v>
       </c>
-      <c r="G41" s="362"/>
-      <c r="H41" s="362"/>
-      <c r="I41" s="362"/>
-      <c r="J41" s="362"/>
-      <c r="K41" s="361"/>
+      <c r="G41" s="382"/>
+      <c r="H41" s="382"/>
+      <c r="I41" s="382"/>
+      <c r="J41" s="382"/>
+      <c r="K41" s="381"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="B30:C39"/>
-    <mergeCell ref="B25:C29"/>
-    <mergeCell ref="D34:E38"/>
-    <mergeCell ref="F34:H38"/>
-    <mergeCell ref="I34:K38"/>
-    <mergeCell ref="D39:K39"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="E4:E18"/>
+    <mergeCell ref="M5:N18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="F5:H18"/>
+    <mergeCell ref="I5:L18"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="F41:K41"/>
@@ -26827,16 +26927,17 @@
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="I26:K26"/>
     <mergeCell ref="I27:K27"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="F5:H18"/>
-    <mergeCell ref="I5:L18"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="E4:E18"/>
-    <mergeCell ref="M5:N18"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="B30:C39"/>
+    <mergeCell ref="B25:C29"/>
+    <mergeCell ref="D34:E38"/>
+    <mergeCell ref="F34:H38"/>
+    <mergeCell ref="I34:K38"/>
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="R7" r:id="rId1"/>
@@ -27129,13 +27230,13 @@
       <c r="Q4" s="6"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A5" s="341" t="s">
+      <c r="A5" s="349" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="342"/>
-      <c r="C5" s="342"/>
-      <c r="D5" s="342"/>
-      <c r="E5" s="343"/>
+      <c r="B5" s="350"/>
+      <c r="C5" s="350"/>
+      <c r="D5" s="350"/>
+      <c r="E5" s="351"/>
       <c r="J5" s="4"/>
       <c r="K5" s="1" t="s">
         <v>54</v>
@@ -27700,7 +27801,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:N217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A41" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E46" sqref="E46:G59"/>
     </sheetView>
   </sheetViews>
@@ -27758,7 +27859,7 @@
       <c r="K3" s="59"/>
       <c r="L3" s="59"/>
       <c r="M3" s="60"/>
-      <c r="N3" s="344" t="s">
+      <c r="N3" s="354" t="s">
         <v>71</v>
       </c>
     </row>
@@ -27776,7 +27877,7 @@
       <c r="K4" s="335"/>
       <c r="L4" s="335"/>
       <c r="M4" s="322"/>
-      <c r="N4" s="344"/>
+      <c r="N4" s="354"/>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="24" t="s">
@@ -27795,7 +27896,7 @@
       <c r="K5" s="339"/>
       <c r="L5" s="339"/>
       <c r="M5" s="340"/>
-      <c r="N5" s="344" t="s">
+      <c r="N5" s="354" t="s">
         <v>72</v>
       </c>
     </row>
@@ -27813,7 +27914,7 @@
       <c r="K6" s="44"/>
       <c r="L6" s="44"/>
       <c r="M6" s="54"/>
-      <c r="N6" s="344"/>
+      <c r="N6" s="354"/>
     </row>
     <row r="7" spans="2:14">
       <c r="C7" s="332">
@@ -27833,7 +27934,7 @@
       <c r="K7" s="44"/>
       <c r="L7" s="44"/>
       <c r="M7" s="54"/>
-      <c r="N7" s="344"/>
+      <c r="N7" s="354"/>
     </row>
     <row r="8" spans="2:14">
       <c r="C8" s="332">
@@ -27849,7 +27950,7 @@
       <c r="K8" s="44"/>
       <c r="L8" s="44"/>
       <c r="M8" s="54"/>
-      <c r="N8" s="344"/>
+      <c r="N8" s="354"/>
     </row>
     <row r="9" spans="2:14">
       <c r="C9" s="332">
@@ -27865,7 +27966,7 @@
       <c r="K9" s="44"/>
       <c r="L9" s="44"/>
       <c r="M9" s="54"/>
-      <c r="N9" s="344"/>
+      <c r="N9" s="354"/>
     </row>
     <row r="10" spans="2:14">
       <c r="C10" s="332">
@@ -27881,7 +27982,7 @@
       <c r="K10" s="44"/>
       <c r="L10" s="44"/>
       <c r="M10" s="54"/>
-      <c r="N10" s="344"/>
+      <c r="N10" s="354"/>
     </row>
     <row r="11" spans="2:14" ht="15.75" thickBot="1">
       <c r="C11" s="332">
@@ -27897,7 +27998,7 @@
       <c r="K11" s="193"/>
       <c r="L11" s="193"/>
       <c r="M11" s="195"/>
-      <c r="N11" s="344"/>
+      <c r="N11" s="354"/>
     </row>
     <row r="12" spans="2:14" ht="15.75" thickBot="1">
       <c r="C12" s="332">
@@ -28022,7 +28123,7 @@
       </c>
       <c r="E28" s="73"/>
       <c r="J28" s="123"/>
-      <c r="K28" s="512" t="s">
+      <c r="K28" s="348" t="s">
         <v>1637</v>
       </c>
       <c r="L28" s="137"/>
@@ -28078,7 +28179,7 @@
         <v>1634</v>
       </c>
       <c r="J32" s="123"/>
-      <c r="K32" s="512" t="s">
+      <c r="K32" s="348" t="s">
         <v>1640</v>
       </c>
       <c r="L32" s="137"/>
@@ -28216,79 +28317,79 @@
       </c>
     </row>
     <row r="134" spans="3:3">
-      <c r="C134" s="345"/>
+      <c r="C134" s="352"/>
     </row>
     <row r="135" spans="3:3">
-      <c r="C135" s="345"/>
+      <c r="C135" s="352"/>
     </row>
     <row r="136" spans="3:3">
-      <c r="C136" s="345"/>
+      <c r="C136" s="352"/>
     </row>
     <row r="137" spans="3:3">
-      <c r="C137" s="345"/>
+      <c r="C137" s="352"/>
     </row>
     <row r="138" spans="3:3">
-      <c r="C138" s="345"/>
+      <c r="C138" s="352"/>
     </row>
     <row r="139" spans="3:3">
-      <c r="C139" s="345"/>
+      <c r="C139" s="352"/>
     </row>
     <row r="140" spans="3:3">
-      <c r="C140" s="345"/>
+      <c r="C140" s="352"/>
     </row>
     <row r="141" spans="3:3">
-      <c r="C141" s="345"/>
+      <c r="C141" s="352"/>
     </row>
     <row r="142" spans="3:3">
-      <c r="C142" s="345"/>
+      <c r="C142" s="352"/>
     </row>
     <row r="147" spans="4:4">
-      <c r="D147" s="346"/>
+      <c r="D147" s="353"/>
     </row>
     <row r="148" spans="4:4">
-      <c r="D148" s="345"/>
+      <c r="D148" s="352"/>
     </row>
     <row r="149" spans="4:4">
-      <c r="D149" s="345"/>
+      <c r="D149" s="352"/>
     </row>
     <row r="150" spans="4:4">
-      <c r="D150" s="345"/>
+      <c r="D150" s="352"/>
     </row>
     <row r="151" spans="4:4">
-      <c r="D151" s="345"/>
+      <c r="D151" s="352"/>
     </row>
     <row r="152" spans="4:4">
-      <c r="D152" s="345"/>
+      <c r="D152" s="352"/>
     </row>
     <row r="153" spans="4:4">
-      <c r="D153" s="345"/>
+      <c r="D153" s="352"/>
     </row>
     <row r="182" spans="14:14">
-      <c r="N182" s="345"/>
+      <c r="N182" s="352"/>
     </row>
     <row r="183" spans="14:14">
-      <c r="N183" s="345"/>
+      <c r="N183" s="352"/>
     </row>
     <row r="184" spans="14:14">
-      <c r="N184" s="345"/>
+      <c r="N184" s="352"/>
     </row>
     <row r="185" spans="14:14">
-      <c r="N185" s="345"/>
+      <c r="N185" s="352"/>
     </row>
     <row r="186" spans="14:14">
-      <c r="N186" s="345"/>
+      <c r="N186" s="352"/>
     </row>
     <row r="187" spans="14:14">
-      <c r="N187" s="345"/>
+      <c r="N187" s="352"/>
     </row>
     <row r="188" spans="14:14">
-      <c r="N188" s="345"/>
+      <c r="N188" s="352"/>
     </row>
     <row r="189" spans="14:14">
-      <c r="N189" s="345"/>
+      <c r="N189" s="352"/>
     </row>
     <row r="190" spans="14:14">
-      <c r="N190" s="345"/>
+      <c r="N190" s="352"/>
     </row>
     <row r="199" spans="3:3">
       <c r="C199" s="333"/>
@@ -28401,10 +28502,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V134"/>
+  <dimension ref="A1:V165"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14:R18"/>
+    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A161" sqref="A161:G165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28460,14 +28561,14 @@
       <c r="H4" s="4"/>
       <c r="I4" s="1"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="347" t="s">
+      <c r="K4" s="368" t="s">
         <v>78</v>
       </c>
-      <c r="L4" s="348"/>
-      <c r="M4" s="348"/>
-      <c r="N4" s="348"/>
-      <c r="O4" s="348"/>
-      <c r="P4" s="349"/>
+      <c r="L4" s="369"/>
+      <c r="M4" s="369"/>
+      <c r="N4" s="369"/>
+      <c r="O4" s="369"/>
+      <c r="P4" s="370"/>
       <c r="Q4" s="106" t="s">
         <v>169</v>
       </c>
@@ -28599,10 +28700,10 @@
       <c r="L8" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="M8" s="363" t="s">
+      <c r="M8" s="383" t="s">
         <v>110</v>
       </c>
-      <c r="N8" s="364"/>
+      <c r="N8" s="384"/>
       <c r="O8" s="5" t="s">
         <v>18</v>
       </c>
@@ -28636,8 +28737,8 @@
       <c r="L9" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="M9" s="364"/>
-      <c r="N9" s="364"/>
+      <c r="M9" s="384"/>
+      <c r="N9" s="384"/>
       <c r="O9" s="5" t="s">
         <v>87</v>
       </c>
@@ -28677,8 +28778,8 @@
       <c r="L10" s="5" t="s">
         <v>915</v>
       </c>
-      <c r="M10" s="364"/>
-      <c r="N10" s="364"/>
+      <c r="M10" s="384"/>
+      <c r="N10" s="384"/>
       <c r="O10" s="5"/>
       <c r="P10" s="201" t="s">
         <v>271</v>
@@ -28691,13 +28792,13 @@
       <c r="T10" s="33"/>
     </row>
     <row r="11" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A11" s="350" t="s">
+      <c r="A11" s="371" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="351"/>
-      <c r="C11" s="352"/>
-      <c r="D11" s="352"/>
-      <c r="E11" s="353"/>
+      <c r="B11" s="372"/>
+      <c r="C11" s="373"/>
+      <c r="D11" s="373"/>
+      <c r="E11" s="374"/>
       <c r="F11" t="s">
         <v>1181</v>
       </c>
@@ -28706,8 +28807,8 @@
       <c r="J11" s="10"/>
       <c r="K11" s="4"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="364"/>
-      <c r="N11" s="364"/>
+      <c r="M11" s="384"/>
+      <c r="N11" s="384"/>
       <c r="O11" s="5"/>
       <c r="P11" s="201" t="s">
         <v>272</v>
@@ -28717,11 +28818,11 @@
       <c r="T11" s="33"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="354"/>
-      <c r="B12" s="355"/>
-      <c r="C12" s="355"/>
-      <c r="D12" s="355"/>
-      <c r="E12" s="356"/>
+      <c r="A12" s="375"/>
+      <c r="B12" s="360"/>
+      <c r="C12" s="360"/>
+      <c r="D12" s="360"/>
+      <c r="E12" s="376"/>
       <c r="F12" t="s">
         <v>721</v>
       </c>
@@ -28730,8 +28831,8 @@
       <c r="J12" s="2"/>
       <c r="K12" s="4"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="364"/>
-      <c r="N12" s="364"/>
+      <c r="M12" s="384"/>
+      <c r="N12" s="384"/>
       <c r="O12" s="5"/>
       <c r="P12" s="201" t="s">
         <v>1050</v>
@@ -28741,11 +28842,11 @@
       <c r="T12" s="33"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="354"/>
-      <c r="B13" s="355"/>
-      <c r="C13" s="355"/>
-      <c r="D13" s="355"/>
-      <c r="E13" s="356"/>
+      <c r="A13" s="375"/>
+      <c r="B13" s="360"/>
+      <c r="C13" s="360"/>
+      <c r="D13" s="360"/>
+      <c r="E13" s="376"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4" t="s">
         <v>92</v>
@@ -28753,8 +28854,8 @@
       <c r="J13" s="5"/>
       <c r="K13" s="4"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="364"/>
-      <c r="N13" s="364"/>
+      <c r="M13" s="384"/>
+      <c r="N13" s="384"/>
       <c r="O13" s="26"/>
       <c r="P13" s="201"/>
       <c r="S13" t="s">
@@ -28762,11 +28863,11 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A14" s="357"/>
-      <c r="B14" s="358"/>
-      <c r="C14" s="358"/>
-      <c r="D14" s="358"/>
-      <c r="E14" s="359"/>
+      <c r="A14" s="377"/>
+      <c r="B14" s="378"/>
+      <c r="C14" s="378"/>
+      <c r="D14" s="378"/>
+      <c r="E14" s="379"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
@@ -28942,20 +29043,20 @@
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="360" t="s">
+      <c r="I20" s="380" t="s">
         <v>94</v>
       </c>
-      <c r="J20" s="361"/>
-      <c r="K20" s="360" t="s">
+      <c r="J20" s="381"/>
+      <c r="K20" s="380" t="s">
         <v>95</v>
       </c>
-      <c r="L20" s="361"/>
-      <c r="M20" s="360" t="s">
+      <c r="L20" s="381"/>
+      <c r="M20" s="380" t="s">
         <v>1269</v>
       </c>
-      <c r="N20" s="362"/>
-      <c r="O20" s="362"/>
-      <c r="P20" s="361"/>
+      <c r="N20" s="382"/>
+      <c r="O20" s="382"/>
+      <c r="P20" s="381"/>
       <c r="S20" t="s">
         <v>169</v>
       </c>
@@ -29518,13 +29619,13 @@
       <c r="Q84" s="6"/>
     </row>
     <row r="85" spans="1:17">
-      <c r="A85" s="369" t="s">
+      <c r="A85" s="359" t="s">
         <v>1161</v>
       </c>
-      <c r="B85" s="355"/>
-      <c r="C85" s="355"/>
-      <c r="D85" s="355"/>
-      <c r="E85" s="355"/>
+      <c r="B85" s="360"/>
+      <c r="C85" s="360"/>
+      <c r="D85" s="360"/>
+      <c r="E85" s="360"/>
       <c r="F85" s="6" t="s">
         <v>1165</v>
       </c>
@@ -29571,14 +29672,14 @@
       <c r="H87" s="4"/>
       <c r="I87" s="30"/>
       <c r="J87" s="26"/>
-      <c r="K87" s="376" t="s">
+      <c r="K87" s="367" t="s">
         <v>1164</v>
       </c>
-      <c r="L87" s="371"/>
-      <c r="M87" s="376" t="s">
+      <c r="L87" s="362"/>
+      <c r="M87" s="367" t="s">
         <v>1175</v>
       </c>
-      <c r="N87" s="371"/>
+      <c r="N87" s="362"/>
       <c r="O87" s="26"/>
       <c r="P87" s="34"/>
       <c r="Q87" s="6"/>
@@ -29595,10 +29696,10 @@
       <c r="H88" s="4"/>
       <c r="I88" s="30"/>
       <c r="J88" s="26"/>
-      <c r="K88" s="374"/>
-      <c r="L88" s="375"/>
-      <c r="M88" s="372"/>
-      <c r="N88" s="373"/>
+      <c r="K88" s="365"/>
+      <c r="L88" s="366"/>
+      <c r="M88" s="363"/>
+      <c r="N88" s="364"/>
       <c r="O88" s="26"/>
       <c r="P88" s="34"/>
       <c r="Q88" s="6"/>
@@ -29617,12 +29718,12 @@
       </c>
       <c r="I89" s="30"/>
       <c r="J89" s="26"/>
-      <c r="K89" s="370" t="s">
+      <c r="K89" s="361" t="s">
         <v>1156</v>
       </c>
-      <c r="L89" s="371"/>
-      <c r="M89" s="372"/>
-      <c r="N89" s="373"/>
+      <c r="L89" s="362"/>
+      <c r="M89" s="363"/>
+      <c r="N89" s="364"/>
       <c r="O89" s="26"/>
       <c r="P89" s="34"/>
       <c r="Q89" s="6"/>
@@ -29637,10 +29738,10 @@
       <c r="H90" s="4"/>
       <c r="I90" s="30"/>
       <c r="J90" s="26"/>
-      <c r="K90" s="374"/>
-      <c r="L90" s="375"/>
-      <c r="M90" s="372"/>
-      <c r="N90" s="373"/>
+      <c r="K90" s="365"/>
+      <c r="L90" s="366"/>
+      <c r="M90" s="363"/>
+      <c r="N90" s="364"/>
       <c r="O90" s="26"/>
       <c r="P90" s="34"/>
       <c r="Q90" s="6"/>
@@ -29657,12 +29758,12 @@
       <c r="H91" s="4"/>
       <c r="I91" s="30"/>
       <c r="J91" s="26"/>
-      <c r="K91" s="370" t="s">
+      <c r="K91" s="361" t="s">
         <v>1157</v>
       </c>
-      <c r="L91" s="371"/>
-      <c r="M91" s="372"/>
-      <c r="N91" s="373"/>
+      <c r="L91" s="362"/>
+      <c r="M91" s="363"/>
+      <c r="N91" s="364"/>
       <c r="O91" s="26"/>
       <c r="P91" s="34"/>
       <c r="Q91" s="6"/>
@@ -29679,10 +29780,10 @@
       <c r="H92" s="4"/>
       <c r="I92" s="30"/>
       <c r="J92" s="26"/>
-      <c r="K92" s="374"/>
-      <c r="L92" s="375"/>
-      <c r="M92" s="372"/>
-      <c r="N92" s="373"/>
+      <c r="K92" s="365"/>
+      <c r="L92" s="366"/>
+      <c r="M92" s="363"/>
+      <c r="N92" s="364"/>
       <c r="O92" s="26"/>
       <c r="P92" s="34"/>
       <c r="Q92" s="6"/>
@@ -29697,12 +29798,12 @@
       <c r="H93" s="4"/>
       <c r="I93" s="30"/>
       <c r="J93" s="26"/>
-      <c r="K93" s="370" t="s">
+      <c r="K93" s="361" t="s">
         <v>1158</v>
       </c>
-      <c r="L93" s="371"/>
-      <c r="M93" s="372"/>
-      <c r="N93" s="373"/>
+      <c r="L93" s="362"/>
+      <c r="M93" s="363"/>
+      <c r="N93" s="364"/>
       <c r="O93" s="26"/>
       <c r="P93" s="34"/>
       <c r="Q93" s="6"/>
@@ -29714,10 +29815,10 @@
       <c r="H94" s="4"/>
       <c r="I94" s="30"/>
       <c r="J94" s="26"/>
-      <c r="K94" s="372"/>
-      <c r="L94" s="373"/>
-      <c r="M94" s="372"/>
-      <c r="N94" s="373"/>
+      <c r="K94" s="363"/>
+      <c r="L94" s="364"/>
+      <c r="M94" s="363"/>
+      <c r="N94" s="364"/>
       <c r="O94" s="26"/>
       <c r="P94" s="34"/>
       <c r="Q94" s="6"/>
@@ -29731,10 +29832,10 @@
       <c r="H95" s="4"/>
       <c r="I95" s="30"/>
       <c r="J95" s="26"/>
-      <c r="K95" s="374"/>
-      <c r="L95" s="375"/>
-      <c r="M95" s="374"/>
-      <c r="N95" s="375"/>
+      <c r="K95" s="365"/>
+      <c r="L95" s="366"/>
+      <c r="M95" s="365"/>
+      <c r="N95" s="366"/>
       <c r="O95" s="26"/>
       <c r="P95" s="34"/>
       <c r="Q95" s="6"/>
@@ -29751,14 +29852,14 @@
       <c r="H96" s="4"/>
       <c r="I96" s="30"/>
       <c r="J96" s="26"/>
-      <c r="K96" s="368" t="s">
+      <c r="K96" s="358" t="s">
         <v>1159</v>
       </c>
-      <c r="L96" s="368"/>
-      <c r="M96" s="368" t="s">
+      <c r="L96" s="358"/>
+      <c r="M96" s="358" t="s">
         <v>1160</v>
       </c>
-      <c r="N96" s="368"/>
+      <c r="N96" s="358"/>
       <c r="O96" s="26"/>
       <c r="P96" s="34"/>
       <c r="Q96" s="6"/>
@@ -29882,7 +29983,7 @@
       <c r="E115" s="98"/>
       <c r="F115" s="99"/>
       <c r="I115" s="4"/>
-      <c r="J115" s="365" t="s">
+      <c r="J115" s="355" t="s">
         <v>1190</v>
       </c>
       <c r="K115" s="2"/>
@@ -29899,7 +30000,7 @@
       <c r="E116" s="5"/>
       <c r="F116" s="6"/>
       <c r="I116" s="4"/>
-      <c r="J116" s="366"/>
+      <c r="J116" s="356"/>
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
       <c r="M116" s="3"/>
@@ -29914,7 +30015,7 @@
       <c r="E117" s="5"/>
       <c r="F117" s="6"/>
       <c r="I117" s="4"/>
-      <c r="J117" s="366"/>
+      <c r="J117" s="356"/>
       <c r="K117" s="5" t="s">
         <v>24</v>
       </c>
@@ -29931,7 +30032,7 @@
       <c r="E118" s="5"/>
       <c r="F118" s="6"/>
       <c r="I118" s="4"/>
-      <c r="J118" s="366"/>
+      <c r="J118" s="356"/>
       <c r="K118" s="5"/>
       <c r="L118" s="5"/>
       <c r="M118" s="6"/>
@@ -29946,7 +30047,7 @@
       <c r="E119" s="5"/>
       <c r="F119" s="6"/>
       <c r="I119" s="4"/>
-      <c r="J119" s="366"/>
+      <c r="J119" s="356"/>
       <c r="K119" s="5" t="s">
         <v>533</v>
       </c>
@@ -29966,7 +30067,7 @@
         <v>1189</v>
       </c>
       <c r="I120" s="4"/>
-      <c r="J120" s="366"/>
+      <c r="J120" s="356"/>
       <c r="K120" s="10"/>
       <c r="L120" s="10"/>
       <c r="M120" s="9"/>
@@ -29986,7 +30087,7 @@
         <v>167</v>
       </c>
       <c r="I121" s="4"/>
-      <c r="J121" s="366"/>
+      <c r="J121" s="356"/>
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
       <c r="M121" s="3"/>
@@ -30003,7 +30104,7 @@
       <c r="E122" s="5"/>
       <c r="F122" s="6"/>
       <c r="I122" s="4"/>
-      <c r="J122" s="366"/>
+      <c r="J122" s="356"/>
       <c r="K122" s="5"/>
       <c r="L122" s="5" t="s">
         <v>1186</v>
@@ -30022,7 +30123,7 @@
       <c r="E123" s="5"/>
       <c r="F123" s="6"/>
       <c r="I123" s="4"/>
-      <c r="J123" s="366"/>
+      <c r="J123" s="356"/>
       <c r="K123" s="5"/>
       <c r="L123" s="5" t="s">
         <v>1184</v>
@@ -30039,7 +30140,7 @@
       <c r="E124" s="5"/>
       <c r="F124" s="6"/>
       <c r="I124" s="4"/>
-      <c r="J124" s="366"/>
+      <c r="J124" s="356"/>
       <c r="K124" s="5"/>
       <c r="L124" s="5" t="s">
         <v>24</v>
@@ -30056,7 +30157,7 @@
       <c r="E125" s="5"/>
       <c r="F125" s="6"/>
       <c r="I125" s="4"/>
-      <c r="J125" s="366"/>
+      <c r="J125" s="356"/>
       <c r="K125" s="10"/>
       <c r="L125" s="10"/>
       <c r="M125" s="9"/>
@@ -30071,7 +30172,7 @@
       <c r="E126" s="10"/>
       <c r="F126" s="9"/>
       <c r="I126" s="4"/>
-      <c r="J126" s="367"/>
+      <c r="J126" s="357"/>
       <c r="K126" s="10"/>
       <c r="L126" s="10"/>
       <c r="M126" s="10"/>
@@ -30099,28 +30200,578 @@
       <c r="N128" s="10"/>
       <c r="O128" s="9"/>
     </row>
-    <row r="130" spans="9:11">
+    <row r="130" spans="1:21">
       <c r="K130" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="132" spans="9:11">
+    <row r="132" spans="1:21">
       <c r="I132" t="s">
         <v>1191</v>
       </c>
     </row>
-    <row r="133" spans="9:11">
+    <row r="133" spans="1:21">
       <c r="I133" t="s">
         <v>1192</v>
       </c>
     </row>
-    <row r="134" spans="9:11">
+    <row r="134" spans="1:21">
       <c r="I134" t="s">
         <v>1193</v>
       </c>
     </row>
+    <row r="141" spans="1:21" ht="15.75" thickBot="1"/>
+    <row r="142" spans="1:21">
+      <c r="B142" t="s">
+        <v>1153</v>
+      </c>
+      <c r="L142" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M142" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="N142" s="2"/>
+      <c r="O142" s="2"/>
+      <c r="P142" s="2"/>
+      <c r="Q142" s="2"/>
+      <c r="R142" s="2"/>
+      <c r="S142" s="2"/>
+      <c r="T142" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="U142" s="18"/>
+    </row>
+    <row r="143" spans="1:21" ht="15.75" thickBot="1">
+      <c r="C143" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="L143" s="4"/>
+      <c r="M143" s="26"/>
+      <c r="N143" s="26"/>
+      <c r="O143" s="26"/>
+      <c r="P143" s="26"/>
+      <c r="Q143" s="26"/>
+      <c r="R143" s="26"/>
+      <c r="S143" s="26"/>
+      <c r="T143" s="26"/>
+      <c r="U143" s="106" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A144" s="1"/>
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="527" t="s">
+        <v>1597</v>
+      </c>
+      <c r="E144" s="2"/>
+      <c r="F144" s="2"/>
+      <c r="G144" s="3" t="s">
+        <v>1652</v>
+      </c>
+      <c r="L144" s="4"/>
+      <c r="M144" s="1"/>
+      <c r="N144" s="3"/>
+      <c r="O144" s="342" t="s">
+        <v>78</v>
+      </c>
+      <c r="P144" s="343"/>
+      <c r="Q144" s="343"/>
+      <c r="R144" s="343"/>
+      <c r="S144" s="343"/>
+      <c r="T144" s="344"/>
+      <c r="U144" s="106" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="145" spans="1:21">
+      <c r="A145" s="528"/>
+      <c r="B145" s="529"/>
+      <c r="C145" s="529"/>
+      <c r="D145" s="44"/>
+      <c r="E145" s="44"/>
+      <c r="F145" s="44"/>
+      <c r="G145" s="54" t="s">
+        <v>1653</v>
+      </c>
+      <c r="L145" s="4"/>
+      <c r="M145" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="N145" s="520"/>
+      <c r="O145" s="1"/>
+      <c r="P145" s="2"/>
+      <c r="Q145" s="2"/>
+      <c r="R145" s="2"/>
+      <c r="S145" s="2"/>
+      <c r="T145" s="3"/>
+      <c r="U145" s="106" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="146" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A146" s="43"/>
+      <c r="B146" s="44"/>
+      <c r="C146" s="44"/>
+      <c r="D146" s="44"/>
+      <c r="E146" s="44"/>
+      <c r="F146" s="44"/>
+      <c r="G146" s="54"/>
+      <c r="L146" s="4"/>
+      <c r="M146" s="521"/>
+      <c r="N146" s="522"/>
+      <c r="O146" s="4"/>
+      <c r="P146" s="5"/>
+      <c r="Q146" s="5" t="s">
+        <v>913</v>
+      </c>
+      <c r="R146" s="5"/>
+      <c r="S146" s="5"/>
+      <c r="T146" s="6"/>
+      <c r="U146" s="106" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="147" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A147" s="530"/>
+      <c r="B147" s="24"/>
+      <c r="C147" s="24"/>
+      <c r="D147" s="158"/>
+      <c r="E147" s="24"/>
+      <c r="F147" s="24"/>
+      <c r="G147" s="6"/>
+      <c r="L147" s="4"/>
+      <c r="M147" s="4"/>
+      <c r="N147" s="5"/>
+      <c r="O147" s="4"/>
+      <c r="P147" s="5"/>
+      <c r="Q147" s="26" t="s">
+        <v>881</v>
+      </c>
+      <c r="R147" s="26"/>
+      <c r="S147" s="5"/>
+      <c r="T147" s="200"/>
+      <c r="U147" s="106" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="148" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="A148" s="531"/>
+      <c r="B148" s="24"/>
+      <c r="C148" s="24"/>
+      <c r="D148" s="158" t="s">
+        <v>82</v>
+      </c>
+      <c r="E148" s="302" t="s">
+        <v>12</v>
+      </c>
+      <c r="F148" s="24"/>
+      <c r="G148" s="6"/>
+      <c r="L148" s="4"/>
+      <c r="M148" s="523"/>
+      <c r="N148" s="524"/>
+      <c r="O148" s="4"/>
+      <c r="P148" s="5"/>
+      <c r="Q148" s="525" t="s">
+        <v>110</v>
+      </c>
+      <c r="R148" s="526"/>
+      <c r="S148" s="5"/>
+      <c r="T148" s="201"/>
+      <c r="U148" s="106" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="149" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A149" s="531"/>
+      <c r="B149" s="24"/>
+      <c r="C149" s="24"/>
+      <c r="D149" s="24" t="s">
+        <v>854</v>
+      </c>
+      <c r="E149" s="302" t="s">
+        <v>627</v>
+      </c>
+      <c r="F149" s="24"/>
+      <c r="G149" s="6" t="s">
+        <v>1655</v>
+      </c>
+      <c r="L149" s="4" t="s">
+        <v>1654</v>
+      </c>
+      <c r="M149" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="N149" s="520"/>
+      <c r="O149" s="4"/>
+      <c r="P149" s="5"/>
+      <c r="Q149" s="526"/>
+      <c r="R149" s="526" t="s">
+        <v>12</v>
+      </c>
+      <c r="S149" s="5"/>
+      <c r="T149" s="201" t="s">
+        <v>12</v>
+      </c>
+      <c r="U149" s="106" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="150" spans="1:21">
+      <c r="A150" s="531"/>
+      <c r="B150" s="24"/>
+      <c r="C150" s="158"/>
+      <c r="D150" s="24"/>
+      <c r="E150" s="538" t="s">
+        <v>175</v>
+      </c>
+      <c r="F150" s="24"/>
+      <c r="G150" s="6" t="s">
+        <v>1663</v>
+      </c>
+      <c r="L150" s="4"/>
+      <c r="M150" s="48"/>
+      <c r="N150" s="520"/>
+      <c r="O150" s="4"/>
+      <c r="P150" s="5"/>
+      <c r="Q150" s="526"/>
+      <c r="R150" s="526"/>
+      <c r="S150" s="5"/>
+      <c r="T150" s="539" t="s">
+        <v>85</v>
+      </c>
+      <c r="U150" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A151" s="532"/>
+      <c r="B151" s="296"/>
+      <c r="C151" s="341"/>
+      <c r="D151" s="341"/>
+      <c r="E151" s="341" t="s">
+        <v>169</v>
+      </c>
+      <c r="F151" s="24"/>
+      <c r="G151" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="L151" s="4"/>
+      <c r="M151" s="521"/>
+      <c r="N151" s="522"/>
+      <c r="O151" s="4"/>
+      <c r="P151" s="5"/>
+      <c r="Q151" s="526"/>
+      <c r="R151" s="526"/>
+      <c r="S151" s="5"/>
+      <c r="T151" s="201"/>
+    </row>
+    <row r="152" spans="1:21">
+      <c r="A152" s="533"/>
+      <c r="B152" s="341"/>
+      <c r="C152" s="341"/>
+      <c r="D152" s="341"/>
+      <c r="E152" s="341" t="s">
+        <v>169</v>
+      </c>
+      <c r="F152" s="24"/>
+      <c r="G152" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="L152" s="4"/>
+      <c r="M152" s="1"/>
+      <c r="N152" s="2"/>
+      <c r="O152" s="4"/>
+      <c r="P152" s="5"/>
+      <c r="Q152" s="526"/>
+      <c r="R152" s="526"/>
+      <c r="S152" s="5"/>
+      <c r="T152" s="201"/>
+    </row>
+    <row r="153" spans="1:21">
+      <c r="A153" s="533"/>
+      <c r="B153" s="341"/>
+      <c r="C153" s="341"/>
+      <c r="D153" s="341"/>
+      <c r="E153" s="341" t="s">
+        <v>169</v>
+      </c>
+      <c r="F153" s="24"/>
+      <c r="G153" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="L153" s="4" t="s">
+        <v>1655</v>
+      </c>
+      <c r="M153" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="N153" s="520"/>
+      <c r="O153" s="4"/>
+      <c r="P153" s="5"/>
+      <c r="Q153" s="526"/>
+      <c r="R153" s="526"/>
+      <c r="S153" s="26"/>
+      <c r="T153" s="201"/>
+    </row>
+    <row r="154" spans="1:21">
+      <c r="A154" s="533"/>
+      <c r="B154" s="341"/>
+      <c r="C154" s="341"/>
+      <c r="D154" s="341"/>
+      <c r="E154" s="341" t="s">
+        <v>169</v>
+      </c>
+      <c r="F154" s="24"/>
+      <c r="G154" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="L154" s="4"/>
+      <c r="M154" s="48"/>
+      <c r="N154" s="520"/>
+      <c r="O154" s="4"/>
+      <c r="P154" s="5"/>
+      <c r="Q154" s="29"/>
+      <c r="R154" s="5"/>
+      <c r="S154" s="5"/>
+      <c r="T154" s="201"/>
+    </row>
+    <row r="155" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A155" s="530"/>
+      <c r="B155" s="24"/>
+      <c r="C155" s="24"/>
+      <c r="D155" s="24"/>
+      <c r="E155" s="341" t="s">
+        <v>169</v>
+      </c>
+      <c r="F155" s="24"/>
+      <c r="G155" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="L155" s="4"/>
+      <c r="M155" s="8"/>
+      <c r="N155" s="10"/>
+      <c r="O155" s="4"/>
+      <c r="P155" s="5"/>
+      <c r="Q155" s="5"/>
+      <c r="R155" s="5"/>
+      <c r="S155" s="5"/>
+      <c r="T155" s="201"/>
+    </row>
+    <row r="156" spans="1:21">
+      <c r="A156" s="531"/>
+      <c r="B156" s="24"/>
+      <c r="C156" s="24"/>
+      <c r="D156" s="24"/>
+      <c r="E156" s="341" t="s">
+        <v>169</v>
+      </c>
+      <c r="F156" s="24"/>
+      <c r="G156" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="L156" s="4"/>
+      <c r="M156" s="4"/>
+      <c r="N156" s="5"/>
+      <c r="O156" s="4"/>
+      <c r="P156" s="5"/>
+      <c r="Q156" s="5"/>
+      <c r="R156" s="5"/>
+      <c r="S156" s="5"/>
+      <c r="T156" s="201"/>
+    </row>
+    <row r="157" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A157" s="530"/>
+      <c r="B157" s="24"/>
+      <c r="C157" s="24"/>
+      <c r="D157" s="24"/>
+      <c r="E157" s="341" t="s">
+        <v>169</v>
+      </c>
+      <c r="F157" s="24"/>
+      <c r="G157" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="L157" s="4"/>
+      <c r="M157" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="N157" s="520"/>
+      <c r="O157" s="4"/>
+      <c r="P157" s="5"/>
+      <c r="Q157" s="5"/>
+      <c r="R157" s="5"/>
+      <c r="S157" s="5"/>
+      <c r="T157" s="202"/>
+    </row>
+    <row r="158" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A158" s="530"/>
+      <c r="B158" s="24"/>
+      <c r="C158" s="24"/>
+      <c r="D158" s="24"/>
+      <c r="E158" s="341" t="s">
+        <v>169</v>
+      </c>
+      <c r="F158" s="24"/>
+      <c r="G158" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="L158" s="4"/>
+      <c r="M158" s="521"/>
+      <c r="N158" s="522"/>
+      <c r="O158" s="8"/>
+      <c r="P158" s="10"/>
+      <c r="Q158" s="62"/>
+      <c r="R158" s="10"/>
+      <c r="S158" s="10"/>
+      <c r="T158" s="9"/>
+    </row>
+    <row r="159" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A159" s="534"/>
+      <c r="B159" s="535"/>
+      <c r="C159" s="535"/>
+      <c r="D159" s="535"/>
+      <c r="E159" s="341" t="s">
+        <v>169</v>
+      </c>
+      <c r="F159" s="535"/>
+      <c r="G159" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="L159" s="4"/>
+      <c r="M159" s="5"/>
+      <c r="N159" s="5"/>
+      <c r="O159" s="5"/>
+      <c r="P159" s="5"/>
+      <c r="Q159" s="24"/>
+      <c r="R159" s="5"/>
+      <c r="S159" s="5"/>
+      <c r="T159" s="5"/>
+    </row>
+    <row r="160" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A160" s="536"/>
+      <c r="B160" s="537"/>
+      <c r="C160" s="537"/>
+      <c r="D160" s="537"/>
+      <c r="E160" s="341" t="s">
+        <v>169</v>
+      </c>
+      <c r="F160" s="537"/>
+      <c r="G160" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="L160" s="4"/>
+      <c r="M160" s="380" t="s">
+        <v>94</v>
+      </c>
+      <c r="N160" s="381"/>
+      <c r="O160" s="345" t="s">
+        <v>95</v>
+      </c>
+      <c r="P160" s="346"/>
+      <c r="Q160" s="345" t="s">
+        <v>1269</v>
+      </c>
+      <c r="R160" s="347"/>
+      <c r="S160" s="347"/>
+      <c r="T160" s="346"/>
+    </row>
+    <row r="161" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A161" s="136" t="s">
+        <v>92</v>
+      </c>
+      <c r="B161" s="151"/>
+      <c r="C161" s="151"/>
+      <c r="D161" s="151"/>
+      <c r="E161" s="341" t="s">
+        <v>169</v>
+      </c>
+      <c r="F161" s="151"/>
+      <c r="G161" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="L161" s="8"/>
+      <c r="M161" s="10"/>
+      <c r="N161" s="10"/>
+      <c r="O161" s="10"/>
+      <c r="P161" s="10"/>
+      <c r="Q161" s="24"/>
+      <c r="R161" s="10"/>
+      <c r="S161" s="10"/>
+      <c r="T161" s="10"/>
+      <c r="U161" s="25"/>
+    </row>
+    <row r="162" spans="1:21">
+      <c r="A162" s="4"/>
+      <c r="B162" s="5"/>
+      <c r="C162" s="5"/>
+      <c r="D162" s="5"/>
+      <c r="E162" s="5" t="s">
+        <v>1661</v>
+      </c>
+      <c r="F162" s="5"/>
+      <c r="G162" s="6"/>
+    </row>
+    <row r="163" spans="1:21">
+      <c r="A163" s="4"/>
+      <c r="B163" s="5" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C163" s="5"/>
+      <c r="D163" s="5"/>
+      <c r="E163" s="5" t="s">
+        <v>1662</v>
+      </c>
+      <c r="F163" s="5"/>
+      <c r="G163" s="6"/>
+      <c r="I163" t="s">
+        <v>1656</v>
+      </c>
+      <c r="N163" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="164" spans="1:21">
+      <c r="A164" s="4"/>
+      <c r="B164" s="5"/>
+      <c r="C164" s="5"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5"/>
+      <c r="F164" s="5"/>
+      <c r="G164" s="6"/>
+      <c r="I164" t="s">
+        <v>1657</v>
+      </c>
+      <c r="N164" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="165" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A165" s="8"/>
+      <c r="B165" s="10"/>
+      <c r="C165" s="10"/>
+      <c r="D165" s="10"/>
+      <c r="E165" s="10"/>
+      <c r="F165" s="10"/>
+      <c r="G165" s="9"/>
+      <c r="I165" t="s">
+        <v>1658</v>
+      </c>
+      <c r="N165" t="s">
+        <v>1659</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
+    <mergeCell ref="M160:N160"/>
+    <mergeCell ref="K4:P4"/>
+    <mergeCell ref="A11:E14"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="M8:N13"/>
     <mergeCell ref="J115:J126"/>
     <mergeCell ref="K96:L96"/>
     <mergeCell ref="M96:N96"/>
@@ -30130,12 +30781,6 @@
     <mergeCell ref="K89:L90"/>
     <mergeCell ref="K87:L88"/>
     <mergeCell ref="M87:N95"/>
-    <mergeCell ref="K4:P4"/>
-    <mergeCell ref="A11:E14"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="M8:N13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="T7" r:id="rId1"/>
@@ -30147,9 +30792,11 @@
     <hyperlink ref="B115" r:id="rId7"/>
     <hyperlink ref="I114" r:id="rId8"/>
     <hyperlink ref="C121" r:id="rId9"/>
+    <hyperlink ref="D144" r:id="rId10"/>
+    <hyperlink ref="T150" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
 
@@ -30575,13 +31222,13 @@
         <v>81</v>
       </c>
       <c r="J3" s="137"/>
-      <c r="K3" s="386"/>
-      <c r="L3" s="386"/>
-      <c r="M3" s="386"/>
-      <c r="N3" s="386"/>
-      <c r="O3" s="386"/>
-      <c r="P3" s="386"/>
-      <c r="Q3" s="387"/>
+      <c r="K3" s="394"/>
+      <c r="L3" s="394"/>
+      <c r="M3" s="394"/>
+      <c r="N3" s="394"/>
+      <c r="O3" s="394"/>
+      <c r="P3" s="394"/>
+      <c r="Q3" s="395"/>
       <c r="T3" s="35" t="s">
         <v>79</v>
       </c>
@@ -30849,13 +31496,13 @@
       <c r="U11" s="33"/>
     </row>
     <row r="12" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A12" s="377" t="s">
+      <c r="A12" s="385" t="s">
         <v>456</v>
       </c>
-      <c r="B12" s="378"/>
-      <c r="C12" s="378"/>
-      <c r="D12" s="378"/>
-      <c r="E12" s="379"/>
+      <c r="B12" s="386"/>
+      <c r="C12" s="386"/>
+      <c r="D12" s="386"/>
+      <c r="E12" s="387"/>
       <c r="F12" t="s">
         <v>469</v>
       </c>
@@ -30878,11 +31525,11 @@
       </c>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="380"/>
-      <c r="B13" s="381"/>
-      <c r="C13" s="381"/>
-      <c r="D13" s="381"/>
-      <c r="E13" s="382"/>
+      <c r="A13" s="388"/>
+      <c r="B13" s="389"/>
+      <c r="C13" s="389"/>
+      <c r="D13" s="389"/>
+      <c r="E13" s="390"/>
       <c r="F13" t="s">
         <v>6</v>
       </c>
@@ -30903,11 +31550,11 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A14" s="380"/>
-      <c r="B14" s="381"/>
-      <c r="C14" s="381"/>
-      <c r="D14" s="381"/>
-      <c r="E14" s="382"/>
+      <c r="A14" s="388"/>
+      <c r="B14" s="389"/>
+      <c r="C14" s="389"/>
+      <c r="D14" s="389"/>
+      <c r="E14" s="390"/>
       <c r="F14" t="s">
         <v>466</v>
       </c>
@@ -30930,11 +31577,11 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A15" s="383"/>
-      <c r="B15" s="384"/>
-      <c r="C15" s="384"/>
-      <c r="D15" s="384"/>
-      <c r="E15" s="385"/>
+      <c r="A15" s="391"/>
+      <c r="B15" s="392"/>
+      <c r="C15" s="392"/>
+      <c r="D15" s="392"/>
+      <c r="E15" s="393"/>
       <c r="F15" s="24"/>
       <c r="H15" s="161"/>
       <c r="I15" s="4" t="s">
@@ -30992,17 +31639,17 @@
       <c r="F17" s="157"/>
       <c r="G17" s="118"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="348" t="s">
+      <c r="I17" s="369" t="s">
         <v>925</v>
       </c>
-      <c r="J17" s="348"/>
-      <c r="K17" s="348"/>
-      <c r="L17" s="348"/>
-      <c r="M17" s="348"/>
-      <c r="N17" s="348"/>
-      <c r="O17" s="348"/>
-      <c r="P17" s="348"/>
-      <c r="Q17" s="348"/>
+      <c r="J17" s="369"/>
+      <c r="K17" s="369"/>
+      <c r="L17" s="369"/>
+      <c r="M17" s="369"/>
+      <c r="N17" s="369"/>
+      <c r="O17" s="369"/>
+      <c r="P17" s="369"/>
+      <c r="Q17" s="369"/>
       <c r="S17" t="s">
         <v>230</v>
       </c>
@@ -34115,7 +34762,7 @@
       <c r="L109" s="2"/>
       <c r="M109" s="3"/>
       <c r="N109" s="5"/>
-      <c r="O109" s="388">
+      <c r="O109" s="396">
         <v>123</v>
       </c>
       <c r="P109" s="262" t="s">
@@ -34137,7 +34784,7 @@
       <c r="L110" s="5"/>
       <c r="M110" s="6"/>
       <c r="N110" s="5"/>
-      <c r="O110" s="366"/>
+      <c r="O110" s="356"/>
       <c r="P110" s="262"/>
       <c r="Q110" s="33" t="s">
         <v>236</v>
@@ -34155,7 +34802,7 @@
       <c r="L111" s="5"/>
       <c r="M111" s="6"/>
       <c r="N111" s="5"/>
-      <c r="O111" s="366"/>
+      <c r="O111" s="356"/>
       <c r="P111" s="262"/>
       <c r="Q111" s="33" t="s">
         <v>779</v>
@@ -34173,7 +34820,7 @@
       <c r="L112" s="5"/>
       <c r="M112" s="6"/>
       <c r="N112" s="5"/>
-      <c r="O112" s="366"/>
+      <c r="O112" s="356"/>
       <c r="P112" s="262"/>
       <c r="Q112" s="33"/>
     </row>
@@ -34192,7 +34839,7 @@
       <c r="L113" s="5"/>
       <c r="M113" s="6"/>
       <c r="N113" s="5"/>
-      <c r="O113" s="367"/>
+      <c r="O113" s="357"/>
       <c r="P113" s="262"/>
       <c r="Q113" s="33"/>
     </row>
@@ -34217,7 +34864,7 @@
       <c r="L114" s="5"/>
       <c r="M114" s="6"/>
       <c r="N114" s="5"/>
-      <c r="O114" s="388">
+      <c r="O114" s="396">
         <v>456</v>
       </c>
       <c r="P114" s="262" t="s">
@@ -34239,7 +34886,7 @@
       <c r="L115" s="5"/>
       <c r="M115" s="6"/>
       <c r="N115" s="5"/>
-      <c r="O115" s="366"/>
+      <c r="O115" s="356"/>
       <c r="P115" s="262"/>
       <c r="Q115" s="33" t="s">
         <v>1235</v>
@@ -34260,7 +34907,7 @@
       <c r="L116" s="5"/>
       <c r="M116" s="6"/>
       <c r="N116" s="5"/>
-      <c r="O116" s="366"/>
+      <c r="O116" s="356"/>
       <c r="P116" s="262"/>
       <c r="Q116" s="33"/>
     </row>
@@ -34279,7 +34926,7 @@
       <c r="L117" s="5"/>
       <c r="M117" s="6"/>
       <c r="N117" s="5"/>
-      <c r="O117" s="367"/>
+      <c r="O117" s="357"/>
       <c r="P117" s="262"/>
       <c r="Q117" s="33"/>
     </row>
@@ -34295,7 +34942,7 @@
       <c r="L118" s="5"/>
       <c r="M118" s="6"/>
       <c r="N118" s="5"/>
-      <c r="O118" s="388">
+      <c r="O118" s="396">
         <v>777</v>
       </c>
       <c r="P118" s="262"/>
@@ -34318,7 +34965,7 @@
       <c r="L119" s="5"/>
       <c r="M119" s="6"/>
       <c r="N119" s="5"/>
-      <c r="O119" s="366"/>
+      <c r="O119" s="356"/>
       <c r="P119" s="262"/>
       <c r="Q119" s="33"/>
     </row>
@@ -34337,7 +34984,7 @@
       <c r="L120" s="5"/>
       <c r="M120" s="6"/>
       <c r="N120" s="5"/>
-      <c r="O120" s="366"/>
+      <c r="O120" s="356"/>
       <c r="P120" s="262"/>
       <c r="Q120" s="33"/>
     </row>
@@ -34356,7 +35003,7 @@
       <c r="L121" s="5"/>
       <c r="M121" s="6"/>
       <c r="N121" s="5"/>
-      <c r="O121" s="367"/>
+      <c r="O121" s="357"/>
       <c r="P121" s="262"/>
       <c r="Q121" s="33"/>
     </row>
@@ -34518,10 +35165,10 @@
       <c r="L133" s="2"/>
       <c r="M133" s="3"/>
       <c r="N133" s="5"/>
-      <c r="O133" s="392">
+      <c r="O133" s="400">
         <v>123</v>
       </c>
-      <c r="P133" s="389" t="s">
+      <c r="P133" s="397" t="s">
         <v>557</v>
       </c>
       <c r="Q133" s="281" t="s">
@@ -34540,8 +35187,8 @@
       <c r="L134" s="5"/>
       <c r="M134" s="6"/>
       <c r="N134" s="5"/>
-      <c r="O134" s="393"/>
-      <c r="P134" s="390"/>
+      <c r="O134" s="401"/>
+      <c r="P134" s="398"/>
       <c r="Q134" s="281" t="s">
         <v>236</v>
       </c>
@@ -34558,8 +35205,8 @@
       <c r="L135" s="5"/>
       <c r="M135" s="6"/>
       <c r="N135" s="5"/>
-      <c r="O135" s="393"/>
-      <c r="P135" s="390"/>
+      <c r="O135" s="401"/>
+      <c r="P135" s="398"/>
       <c r="Q135" s="281"/>
     </row>
     <row r="136" spans="1:17" ht="15.75" thickBot="1">
@@ -34578,8 +35225,8 @@
       <c r="L136" s="5"/>
       <c r="M136" s="6"/>
       <c r="N136" s="5"/>
-      <c r="O136" s="393"/>
-      <c r="P136" s="390"/>
+      <c r="O136" s="401"/>
+      <c r="P136" s="398"/>
       <c r="Q136" s="281"/>
     </row>
     <row r="137" spans="1:17" ht="15.75" thickBot="1">
@@ -34601,8 +35248,8 @@
       <c r="L137" s="26"/>
       <c r="M137" s="34"/>
       <c r="N137" s="26"/>
-      <c r="O137" s="394"/>
-      <c r="P137" s="391"/>
+      <c r="O137" s="402"/>
+      <c r="P137" s="399"/>
       <c r="Q137" s="281"/>
     </row>
     <row r="138" spans="1:17">
@@ -34622,7 +35269,7 @@
       <c r="L138" s="5"/>
       <c r="M138" s="6"/>
       <c r="N138" s="5"/>
-      <c r="O138" s="388"/>
+      <c r="O138" s="396"/>
       <c r="P138" s="262"/>
       <c r="Q138" s="33"/>
     </row>
@@ -34638,7 +35285,7 @@
       <c r="L139" s="5"/>
       <c r="M139" s="6"/>
       <c r="N139" s="5"/>
-      <c r="O139" s="366"/>
+      <c r="O139" s="356"/>
       <c r="P139" s="262"/>
       <c r="Q139" s="33"/>
     </row>
@@ -34656,7 +35303,7 @@
       <c r="L140" s="44"/>
       <c r="M140" s="54"/>
       <c r="N140" s="5"/>
-      <c r="O140" s="366"/>
+      <c r="O140" s="356"/>
       <c r="P140" s="262"/>
       <c r="Q140" s="33"/>
     </row>
@@ -34675,7 +35322,7 @@
       <c r="L141" s="5"/>
       <c r="M141" s="6"/>
       <c r="N141" s="5"/>
-      <c r="O141" s="367"/>
+      <c r="O141" s="357"/>
       <c r="P141" s="262"/>
       <c r="Q141" s="33"/>
     </row>
@@ -34693,7 +35340,7 @@
       <c r="L142" s="5"/>
       <c r="M142" s="6"/>
       <c r="N142" s="5"/>
-      <c r="O142" s="388"/>
+      <c r="O142" s="396"/>
       <c r="P142" s="262"/>
       <c r="Q142" s="33"/>
     </row>
@@ -34713,7 +35360,7 @@
       </c>
       <c r="M143" s="280"/>
       <c r="N143" s="162"/>
-      <c r="O143" s="366"/>
+      <c r="O143" s="356"/>
       <c r="P143" s="262"/>
       <c r="Q143" s="33"/>
     </row>
@@ -34729,7 +35376,7 @@
       <c r="L144" s="5"/>
       <c r="M144" s="6"/>
       <c r="N144" s="5"/>
-      <c r="O144" s="366"/>
+      <c r="O144" s="356"/>
       <c r="P144" s="262"/>
       <c r="Q144" s="33"/>
     </row>
@@ -34749,7 +35396,7 @@
       <c r="L145" s="5"/>
       <c r="M145" s="6"/>
       <c r="N145" s="5"/>
-      <c r="O145" s="367"/>
+      <c r="O145" s="357"/>
       <c r="P145" s="262"/>
       <c r="Q145" s="33"/>
     </row>

--- a/jee_latest_st.xlsx
+++ b/jee_latest_st.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3540" uniqueCount="1664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3544" uniqueCount="1669">
   <si>
     <t>java server - tomcat</t>
   </si>
@@ -5523,6 +5523,21 @@
   </si>
   <si>
     <t>&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>Control from html to Javascript</t>
+  </si>
+  <si>
+    <t>EVENT LISTENERS</t>
+  </si>
+  <si>
+    <t>track all mouse and keyboard activity of customer</t>
+  </si>
+  <si>
+    <t>access data from html into javascript</t>
+  </si>
+  <si>
+    <t>document.getEleemntById("userid")</t>
   </si>
 </sst>
 </file>
@@ -6810,6 +6825,38 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6828,44 +6875,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6891,6 +6905,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6903,12 +6920,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6917,6 +6928,42 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7023,6 +7070,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7053,9 +7106,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7065,11 +7115,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7122,60 +7223,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7203,52 +7250,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7311,50 +7328,48 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -11949,10 +11964,10 @@
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="403" t="s">
+      <c r="L35" s="423" t="s">
         <v>246</v>
       </c>
-      <c r="M35" s="403"/>
+      <c r="M35" s="423"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
@@ -13882,10 +13897,10 @@
       </c>
     </row>
     <row r="155" spans="1:17">
-      <c r="A155" s="404" t="s">
+      <c r="A155" s="424" t="s">
         <v>770</v>
       </c>
-      <c r="B155" s="404"/>
+      <c r="B155" s="424"/>
     </row>
     <row r="156" spans="1:17">
       <c r="A156" s="84" t="s">
@@ -14670,19 +14685,19 @@
       </c>
     </row>
     <row r="29" spans="2:17">
-      <c r="B29" s="405" t="s">
+      <c r="B29" s="425" t="s">
         <v>1107</v>
       </c>
-      <c r="C29" s="405"/>
-      <c r="D29" s="405"/>
-      <c r="E29" s="405"/>
-      <c r="F29" s="405"/>
-      <c r="I29" s="405" t="s">
+      <c r="C29" s="425"/>
+      <c r="D29" s="425"/>
+      <c r="E29" s="425"/>
+      <c r="F29" s="425"/>
+      <c r="I29" s="425" t="s">
         <v>1311</v>
       </c>
-      <c r="J29" s="405"/>
-      <c r="K29" s="405"/>
-      <c r="L29" s="405"/>
+      <c r="J29" s="425"/>
+      <c r="K29" s="425"/>
+      <c r="L29" s="425"/>
     </row>
     <row r="31" spans="2:17">
       <c r="I31" t="s">
@@ -16371,18 +16386,18 @@
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1">
       <c r="D6" s="4"/>
-      <c r="E6" s="413" t="s">
+      <c r="E6" s="433" t="s">
         <v>278</v>
       </c>
-      <c r="F6" s="414"/>
-      <c r="G6" s="415" t="s">
+      <c r="F6" s="434"/>
+      <c r="G6" s="435" t="s">
         <v>78</v>
       </c>
-      <c r="H6" s="415"/>
-      <c r="I6" s="415"/>
-      <c r="J6" s="415"/>
-      <c r="K6" s="415"/>
-      <c r="L6" s="414"/>
+      <c r="H6" s="435"/>
+      <c r="I6" s="435"/>
+      <c r="J6" s="435"/>
+      <c r="K6" s="435"/>
+      <c r="L6" s="434"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="26" t="s">
@@ -16395,7 +16410,7 @@
       <c r="B7" t="s">
         <v>1408</v>
       </c>
-      <c r="D7" s="406">
+      <c r="D7" s="426">
         <v>80</v>
       </c>
       <c r="E7" s="287" t="s">
@@ -16415,7 +16430,7 @@
       <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1">
-      <c r="D8" s="406"/>
+      <c r="D8" s="426"/>
       <c r="E8" s="282" t="s">
         <v>280</v>
       </c>
@@ -16450,7 +16465,7 @@
       <c r="B9" t="s">
         <v>279</v>
       </c>
-      <c r="D9" s="406"/>
+      <c r="D9" s="426"/>
       <c r="E9" s="290"/>
       <c r="F9" s="291"/>
       <c r="G9" s="290"/>
@@ -16477,7 +16492,7 @@
       <c r="A10" t="s">
         <v>1413</v>
       </c>
-      <c r="D10" s="406"/>
+      <c r="D10" s="426"/>
       <c r="E10" s="287"/>
       <c r="F10" s="288"/>
       <c r="G10" s="287"/>
@@ -16501,7 +16516,7 @@
       <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1">
-      <c r="D11" s="406"/>
+      <c r="D11" s="426"/>
       <c r="E11" s="282" t="s">
         <v>284</v>
       </c>
@@ -16530,7 +16545,7 @@
       <c r="B12" s="177" t="s">
         <v>288</v>
       </c>
-      <c r="D12" s="406"/>
+      <c r="D12" s="426"/>
       <c r="E12" s="290"/>
       <c r="F12" s="291"/>
       <c r="G12" s="290"/>
@@ -16551,7 +16566,7 @@
       <c r="B13" t="s">
         <v>1409</v>
       </c>
-      <c r="D13" s="406"/>
+      <c r="D13" s="426"/>
       <c r="E13" s="287"/>
       <c r="F13" s="288"/>
       <c r="G13" s="287"/>
@@ -16570,7 +16585,7 @@
       <c r="B14" t="s">
         <v>1410</v>
       </c>
-      <c r="D14" s="406"/>
+      <c r="D14" s="426"/>
       <c r="E14" s="282" t="s">
         <v>289</v>
       </c>
@@ -16597,7 +16612,7 @@
       <c r="B15" t="s">
         <v>1411</v>
       </c>
-      <c r="D15" s="406"/>
+      <c r="D15" s="426"/>
       <c r="E15" s="290"/>
       <c r="F15" s="291"/>
       <c r="G15" s="290"/>
@@ -16616,7 +16631,7 @@
       <c r="B16" t="s">
         <v>1412</v>
       </c>
-      <c r="D16" s="406"/>
+      <c r="D16" s="426"/>
       <c r="E16" s="287"/>
       <c r="F16" s="288"/>
       <c r="G16" s="292"/>
@@ -16632,7 +16647,7 @@
       <c r="Q16" s="6"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1">
-      <c r="D17" s="406"/>
+      <c r="D17" s="426"/>
       <c r="E17" s="282" t="s">
         <v>293</v>
       </c>
@@ -16656,7 +16671,7 @@
       <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" thickBot="1">
-      <c r="D18" s="406"/>
+      <c r="D18" s="426"/>
       <c r="E18" s="290"/>
       <c r="F18" s="291"/>
       <c r="G18" s="293"/>
@@ -16673,20 +16688,20 @@
     </row>
     <row r="19" spans="1:17" ht="15.75" thickBot="1">
       <c r="D19" s="8"/>
-      <c r="E19" s="416" t="s">
+      <c r="E19" s="436" t="s">
         <v>94</v>
       </c>
-      <c r="F19" s="417"/>
-      <c r="G19" s="416" t="s">
+      <c r="F19" s="437"/>
+      <c r="G19" s="436" t="s">
         <v>95</v>
       </c>
-      <c r="H19" s="417"/>
-      <c r="I19" s="416" t="s">
+      <c r="H19" s="437"/>
+      <c r="I19" s="436" t="s">
         <v>96</v>
       </c>
-      <c r="J19" s="418"/>
-      <c r="K19" s="418"/>
-      <c r="L19" s="417"/>
+      <c r="J19" s="438"/>
+      <c r="K19" s="438"/>
+      <c r="L19" s="437"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
@@ -16751,12 +16766,12 @@
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="410"/>
-      <c r="H24" s="410"/>
-      <c r="I24" s="410"/>
-      <c r="J24" s="410"/>
-      <c r="K24" s="410"/>
-      <c r="L24" s="410"/>
+      <c r="G24" s="430"/>
+      <c r="H24" s="430"/>
+      <c r="I24" s="430"/>
+      <c r="J24" s="430"/>
+      <c r="K24" s="430"/>
+      <c r="L24" s="430"/>
       <c r="O24" s="35" t="s">
         <v>79</v>
       </c>
@@ -17131,11 +17146,11 @@
       <c r="G47" s="190" t="s">
         <v>672</v>
       </c>
-      <c r="H47" s="407" t="s">
+      <c r="H47" s="427" t="s">
         <v>1074</v>
       </c>
-      <c r="I47" s="408"/>
-      <c r="J47" s="409"/>
+      <c r="I47" s="428"/>
+      <c r="J47" s="429"/>
     </row>
     <row r="48" spans="1:17">
       <c r="F48" t="s">
@@ -17758,14 +17773,14 @@
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
       <c r="E97" s="6"/>
-      <c r="F97" s="411" t="s">
+      <c r="F97" s="431" t="s">
         <v>1228</v>
       </c>
-      <c r="G97" s="405"/>
-      <c r="H97" s="405"/>
-      <c r="I97" s="405"/>
-      <c r="J97" s="405"/>
-      <c r="K97" s="412"/>
+      <c r="G97" s="425"/>
+      <c r="H97" s="425"/>
+      <c r="I97" s="425"/>
+      <c r="J97" s="425"/>
+      <c r="K97" s="432"/>
       <c r="L97" s="4" t="s">
         <v>1398</v>
       </c>
@@ -20366,13 +20381,13 @@
       <c r="C20" s="107">
         <v>43908</v>
       </c>
-      <c r="D20" s="419" t="s">
+      <c r="D20" s="439" t="s">
         <v>328</v>
       </c>
-      <c r="E20" s="419"/>
-      <c r="F20" s="419"/>
-      <c r="G20" s="419"/>
-      <c r="H20" s="419"/>
+      <c r="E20" s="439"/>
+      <c r="F20" s="439"/>
+      <c r="G20" s="439"/>
+      <c r="H20" s="439"/>
       <c r="I20" s="33" t="s">
         <v>329</v>
       </c>
@@ -20383,37 +20398,37 @@
       <c r="N20" s="33"/>
     </row>
     <row r="21" spans="3:14">
-      <c r="C21" s="430">
+      <c r="C21" s="441">
         <v>43909</v>
       </c>
-      <c r="D21" s="419"/>
-      <c r="E21" s="419"/>
-      <c r="F21" s="419"/>
-      <c r="G21" s="419"/>
-      <c r="H21" s="419"/>
+      <c r="D21" s="439"/>
+      <c r="E21" s="439"/>
+      <c r="F21" s="439"/>
+      <c r="G21" s="439"/>
+      <c r="H21" s="439"/>
       <c r="I21" s="33" t="s">
         <v>330</v>
       </c>
-      <c r="J21" s="419"/>
-      <c r="K21" s="419"/>
-      <c r="L21" s="419" t="s">
+      <c r="J21" s="439"/>
+      <c r="K21" s="439"/>
+      <c r="L21" s="439" t="s">
         <v>331</v>
       </c>
-      <c r="M21" s="419"/>
-      <c r="N21" s="419"/>
+      <c r="M21" s="439"/>
+      <c r="N21" s="439"/>
     </row>
     <row r="22" spans="3:14">
-      <c r="C22" s="430"/>
-      <c r="D22" s="419"/>
-      <c r="E22" s="419"/>
-      <c r="F22" s="419"/>
-      <c r="G22" s="419"/>
-      <c r="H22" s="419"/>
-      <c r="I22" s="434" t="s">
+      <c r="C22" s="441"/>
+      <c r="D22" s="439"/>
+      <c r="E22" s="439"/>
+      <c r="F22" s="439"/>
+      <c r="G22" s="439"/>
+      <c r="H22" s="439"/>
+      <c r="I22" s="440" t="s">
         <v>332</v>
       </c>
-      <c r="J22" s="419"/>
-      <c r="K22" s="419"/>
+      <c r="J22" s="439"/>
+      <c r="K22" s="439"/>
       <c r="L22" s="108" t="s">
         <v>333</v>
       </c>
@@ -20421,31 +20436,31 @@
       <c r="N22" s="33"/>
     </row>
     <row r="23" spans="3:14">
-      <c r="C23" s="430"/>
-      <c r="D23" s="419"/>
-      <c r="E23" s="419"/>
-      <c r="F23" s="419"/>
-      <c r="G23" s="419"/>
-      <c r="H23" s="419"/>
-      <c r="I23" s="434"/>
-      <c r="J23" s="419"/>
-      <c r="K23" s="419"/>
-      <c r="L23" s="419" t="s">
+      <c r="C23" s="441"/>
+      <c r="D23" s="439"/>
+      <c r="E23" s="439"/>
+      <c r="F23" s="439"/>
+      <c r="G23" s="439"/>
+      <c r="H23" s="439"/>
+      <c r="I23" s="440"/>
+      <c r="J23" s="439"/>
+      <c r="K23" s="439"/>
+      <c r="L23" s="439" t="s">
         <v>334</v>
       </c>
-      <c r="M23" s="419"/>
-      <c r="N23" s="419"/>
+      <c r="M23" s="439"/>
+      <c r="N23" s="439"/>
     </row>
     <row r="24" spans="3:14">
-      <c r="C24" s="430"/>
-      <c r="D24" s="419"/>
-      <c r="E24" s="419"/>
-      <c r="F24" s="419"/>
-      <c r="G24" s="419"/>
-      <c r="H24" s="419"/>
-      <c r="I24" s="434"/>
-      <c r="J24" s="419"/>
-      <c r="K24" s="419"/>
+      <c r="C24" s="441"/>
+      <c r="D24" s="439"/>
+      <c r="E24" s="439"/>
+      <c r="F24" s="439"/>
+      <c r="G24" s="439"/>
+      <c r="H24" s="439"/>
+      <c r="I24" s="440"/>
+      <c r="J24" s="439"/>
+      <c r="K24" s="439"/>
       <c r="L24" s="109" t="s">
         <v>332</v>
       </c>
@@ -20456,13 +20471,13 @@
       <c r="C25" s="107">
         <v>43910</v>
       </c>
-      <c r="D25" s="419" t="s">
+      <c r="D25" s="439" t="s">
         <v>335</v>
       </c>
-      <c r="E25" s="419"/>
-      <c r="F25" s="419"/>
-      <c r="G25" s="419"/>
-      <c r="H25" s="419"/>
+      <c r="E25" s="439"/>
+      <c r="F25" s="439"/>
+      <c r="G25" s="439"/>
+      <c r="H25" s="439"/>
       <c r="I25" s="33" t="s">
         <v>336</v>
       </c>
@@ -20476,16 +20491,16 @@
       <c r="C26" s="107">
         <v>43911</v>
       </c>
-      <c r="D26" s="420"/>
-      <c r="E26" s="421"/>
-      <c r="F26" s="421"/>
-      <c r="G26" s="421"/>
-      <c r="H26" s="422"/>
-      <c r="I26" s="427" t="s">
+      <c r="D26" s="442"/>
+      <c r="E26" s="443"/>
+      <c r="F26" s="443"/>
+      <c r="G26" s="443"/>
+      <c r="H26" s="444"/>
+      <c r="I26" s="449" t="s">
         <v>332</v>
       </c>
-      <c r="J26" s="420"/>
-      <c r="K26" s="422"/>
+      <c r="J26" s="442"/>
+      <c r="K26" s="444"/>
       <c r="L26" s="108" t="s">
         <v>333</v>
       </c>
@@ -20494,30 +20509,30 @@
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="33"/>
-      <c r="D27" s="423"/>
-      <c r="E27" s="410"/>
-      <c r="F27" s="410"/>
-      <c r="G27" s="410"/>
-      <c r="H27" s="424"/>
-      <c r="I27" s="428"/>
-      <c r="J27" s="423"/>
-      <c r="K27" s="424"/>
-      <c r="L27" s="419" t="s">
+      <c r="D27" s="445"/>
+      <c r="E27" s="430"/>
+      <c r="F27" s="430"/>
+      <c r="G27" s="430"/>
+      <c r="H27" s="446"/>
+      <c r="I27" s="450"/>
+      <c r="J27" s="445"/>
+      <c r="K27" s="446"/>
+      <c r="L27" s="439" t="s">
         <v>337</v>
       </c>
-      <c r="M27" s="419"/>
-      <c r="N27" s="419"/>
+      <c r="M27" s="439"/>
+      <c r="N27" s="439"/>
     </row>
     <row r="28" spans="3:14">
       <c r="C28" s="33"/>
-      <c r="D28" s="423"/>
-      <c r="E28" s="410"/>
-      <c r="F28" s="410"/>
-      <c r="G28" s="410"/>
-      <c r="H28" s="424"/>
-      <c r="I28" s="428"/>
-      <c r="J28" s="423"/>
-      <c r="K28" s="424"/>
+      <c r="D28" s="445"/>
+      <c r="E28" s="430"/>
+      <c r="F28" s="430"/>
+      <c r="G28" s="430"/>
+      <c r="H28" s="446"/>
+      <c r="I28" s="450"/>
+      <c r="J28" s="445"/>
+      <c r="K28" s="446"/>
       <c r="L28" s="109" t="s">
         <v>332</v>
       </c>
@@ -20526,14 +20541,14 @@
     </row>
     <row r="29" spans="3:14">
       <c r="C29" s="33"/>
-      <c r="D29" s="425"/>
-      <c r="E29" s="403"/>
-      <c r="F29" s="403"/>
-      <c r="G29" s="403"/>
-      <c r="H29" s="426"/>
-      <c r="I29" s="429"/>
-      <c r="J29" s="425"/>
-      <c r="K29" s="426"/>
+      <c r="D29" s="447"/>
+      <c r="E29" s="423"/>
+      <c r="F29" s="423"/>
+      <c r="G29" s="423"/>
+      <c r="H29" s="448"/>
+      <c r="I29" s="451"/>
+      <c r="J29" s="447"/>
+      <c r="K29" s="448"/>
       <c r="L29" s="110" t="s">
         <v>338</v>
       </c>
@@ -20581,13 +20596,13 @@
       <c r="C33" s="107">
         <v>43908</v>
       </c>
-      <c r="D33" s="419" t="s">
+      <c r="D33" s="439" t="s">
         <v>328</v>
       </c>
-      <c r="E33" s="419"/>
-      <c r="F33" s="419"/>
-      <c r="G33" s="419"/>
-      <c r="H33" s="419"/>
+      <c r="E33" s="439"/>
+      <c r="F33" s="439"/>
+      <c r="G33" s="439"/>
+      <c r="H33" s="439"/>
       <c r="I33" s="33" t="s">
         <v>329</v>
       </c>
@@ -20598,33 +20613,33 @@
       <c r="N33" s="33"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="C34" s="430">
+      <c r="C34" s="441">
         <v>43909</v>
       </c>
-      <c r="D34" s="419"/>
-      <c r="E34" s="419"/>
-      <c r="F34" s="419"/>
-      <c r="G34" s="419"/>
-      <c r="H34" s="419"/>
-      <c r="I34" s="431"/>
-      <c r="J34" s="419"/>
-      <c r="K34" s="419"/>
-      <c r="L34" s="419" t="s">
+      <c r="D34" s="439"/>
+      <c r="E34" s="439"/>
+      <c r="F34" s="439"/>
+      <c r="G34" s="439"/>
+      <c r="H34" s="439"/>
+      <c r="I34" s="452"/>
+      <c r="J34" s="439"/>
+      <c r="K34" s="439"/>
+      <c r="L34" s="439" t="s">
         <v>331</v>
       </c>
-      <c r="M34" s="419"/>
-      <c r="N34" s="419"/>
+      <c r="M34" s="439"/>
+      <c r="N34" s="439"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="C35" s="430"/>
-      <c r="D35" s="419"/>
-      <c r="E35" s="419"/>
-      <c r="F35" s="419"/>
-      <c r="G35" s="419"/>
-      <c r="H35" s="419"/>
-      <c r="I35" s="432"/>
-      <c r="J35" s="419"/>
-      <c r="K35" s="419"/>
+      <c r="C35" s="441"/>
+      <c r="D35" s="439"/>
+      <c r="E35" s="439"/>
+      <c r="F35" s="439"/>
+      <c r="G35" s="439"/>
+      <c r="H35" s="439"/>
+      <c r="I35" s="453"/>
+      <c r="J35" s="439"/>
+      <c r="K35" s="439"/>
       <c r="L35" s="108" t="s">
         <v>333</v>
       </c>
@@ -20632,31 +20647,31 @@
       <c r="N35" s="33"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="C36" s="430"/>
-      <c r="D36" s="419"/>
-      <c r="E36" s="419"/>
-      <c r="F36" s="419"/>
-      <c r="G36" s="419"/>
-      <c r="H36" s="419"/>
-      <c r="I36" s="432"/>
-      <c r="J36" s="419"/>
-      <c r="K36" s="419"/>
-      <c r="L36" s="419" t="s">
+      <c r="C36" s="441"/>
+      <c r="D36" s="439"/>
+      <c r="E36" s="439"/>
+      <c r="F36" s="439"/>
+      <c r="G36" s="439"/>
+      <c r="H36" s="439"/>
+      <c r="I36" s="453"/>
+      <c r="J36" s="439"/>
+      <c r="K36" s="439"/>
+      <c r="L36" s="439" t="s">
         <v>334</v>
       </c>
-      <c r="M36" s="419"/>
-      <c r="N36" s="419"/>
+      <c r="M36" s="439"/>
+      <c r="N36" s="439"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="C37" s="430"/>
-      <c r="D37" s="419"/>
-      <c r="E37" s="419"/>
-      <c r="F37" s="419"/>
-      <c r="G37" s="419"/>
-      <c r="H37" s="419"/>
-      <c r="I37" s="433"/>
-      <c r="J37" s="419"/>
-      <c r="K37" s="419"/>
+      <c r="C37" s="441"/>
+      <c r="D37" s="439"/>
+      <c r="E37" s="439"/>
+      <c r="F37" s="439"/>
+      <c r="G37" s="439"/>
+      <c r="H37" s="439"/>
+      <c r="I37" s="454"/>
+      <c r="J37" s="439"/>
+      <c r="K37" s="439"/>
       <c r="L37" s="109" t="s">
         <v>339</v>
       </c>
@@ -20667,13 +20682,13 @@
       <c r="C38" s="107">
         <v>43910</v>
       </c>
-      <c r="D38" s="419" t="s">
+      <c r="D38" s="439" t="s">
         <v>335</v>
       </c>
-      <c r="E38" s="419"/>
-      <c r="F38" s="419"/>
-      <c r="G38" s="419"/>
-      <c r="H38" s="419"/>
+      <c r="E38" s="439"/>
+      <c r="F38" s="439"/>
+      <c r="G38" s="439"/>
+      <c r="H38" s="439"/>
       <c r="I38" s="33" t="s">
         <v>336</v>
       </c>
@@ -20687,14 +20702,14 @@
       <c r="C39" s="107">
         <v>43911</v>
       </c>
-      <c r="D39" s="420"/>
-      <c r="E39" s="421"/>
-      <c r="F39" s="421"/>
-      <c r="G39" s="421"/>
-      <c r="H39" s="422"/>
-      <c r="I39" s="427"/>
-      <c r="J39" s="420"/>
-      <c r="K39" s="422"/>
+      <c r="D39" s="442"/>
+      <c r="E39" s="443"/>
+      <c r="F39" s="443"/>
+      <c r="G39" s="443"/>
+      <c r="H39" s="444"/>
+      <c r="I39" s="449"/>
+      <c r="J39" s="442"/>
+      <c r="K39" s="444"/>
       <c r="L39" s="108" t="s">
         <v>333</v>
       </c>
@@ -20703,30 +20718,30 @@
     </row>
     <row r="40" spans="1:14">
       <c r="C40" s="33"/>
-      <c r="D40" s="423"/>
-      <c r="E40" s="410"/>
-      <c r="F40" s="410"/>
-      <c r="G40" s="410"/>
-      <c r="H40" s="424"/>
-      <c r="I40" s="428"/>
-      <c r="J40" s="423"/>
-      <c r="K40" s="424"/>
-      <c r="L40" s="419" t="s">
+      <c r="D40" s="445"/>
+      <c r="E40" s="430"/>
+      <c r="F40" s="430"/>
+      <c r="G40" s="430"/>
+      <c r="H40" s="446"/>
+      <c r="I40" s="450"/>
+      <c r="J40" s="445"/>
+      <c r="K40" s="446"/>
+      <c r="L40" s="439" t="s">
         <v>337</v>
       </c>
-      <c r="M40" s="419"/>
-      <c r="N40" s="419"/>
+      <c r="M40" s="439"/>
+      <c r="N40" s="439"/>
     </row>
     <row r="41" spans="1:14">
       <c r="C41" s="33"/>
-      <c r="D41" s="423"/>
-      <c r="E41" s="410"/>
-      <c r="F41" s="410"/>
-      <c r="G41" s="410"/>
-      <c r="H41" s="424"/>
-      <c r="I41" s="429"/>
-      <c r="J41" s="423"/>
-      <c r="K41" s="424"/>
+      <c r="D41" s="445"/>
+      <c r="E41" s="430"/>
+      <c r="F41" s="430"/>
+      <c r="G41" s="430"/>
+      <c r="H41" s="446"/>
+      <c r="I41" s="451"/>
+      <c r="J41" s="445"/>
+      <c r="K41" s="446"/>
       <c r="L41" s="109" t="s">
         <v>339</v>
       </c>
@@ -20735,16 +20750,16 @@
     </row>
     <row r="42" spans="1:14">
       <c r="C42" s="33"/>
-      <c r="D42" s="425"/>
-      <c r="E42" s="403"/>
-      <c r="F42" s="403"/>
-      <c r="G42" s="403"/>
-      <c r="H42" s="426"/>
+      <c r="D42" s="447"/>
+      <c r="E42" s="423"/>
+      <c r="F42" s="423"/>
+      <c r="G42" s="423"/>
+      <c r="H42" s="448"/>
       <c r="I42" s="33" t="s">
         <v>330</v>
       </c>
-      <c r="J42" s="425"/>
-      <c r="K42" s="426"/>
+      <c r="J42" s="447"/>
+      <c r="K42" s="448"/>
       <c r="L42" s="110" t="s">
         <v>338</v>
       </c>
@@ -21056,12 +21071,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H42"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="J39:K42"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:H37"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="J34:K37"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="L36:N36"/>
     <mergeCell ref="C21:C24"/>
     <mergeCell ref="D21:H24"/>
     <mergeCell ref="J21:K24"/>
@@ -21069,17 +21089,12 @@
     <mergeCell ref="D26:H29"/>
     <mergeCell ref="I26:I29"/>
     <mergeCell ref="J26:K29"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:H37"/>
-    <mergeCell ref="I34:I37"/>
-    <mergeCell ref="J34:K37"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H42"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="J39:K42"/>
-    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="L27:N27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21101,29 +21116,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="21">
-      <c r="B2" s="453" t="s">
+      <c r="B2" s="465" t="s">
         <v>824</v>
       </c>
-      <c r="C2" s="453"/>
-      <c r="D2" s="453"/>
-      <c r="E2" s="453"/>
-      <c r="F2" s="453"/>
-      <c r="G2" s="453"/>
-      <c r="H2" s="453"/>
-      <c r="I2" s="453"/>
-      <c r="J2" s="453"/>
-      <c r="K2" s="453"/>
-      <c r="L2" s="453"/>
-      <c r="M2" s="453"/>
-      <c r="N2" s="453"/>
-      <c r="O2" s="453"/>
-      <c r="P2" s="453"/>
-      <c r="Q2" s="453"/>
-      <c r="R2" s="453"/>
-      <c r="S2" s="453"/>
-      <c r="T2" s="453"/>
-      <c r="U2" s="453"/>
-      <c r="V2" s="453"/>
+      <c r="C2" s="465"/>
+      <c r="D2" s="465"/>
+      <c r="E2" s="465"/>
+      <c r="F2" s="465"/>
+      <c r="G2" s="465"/>
+      <c r="H2" s="465"/>
+      <c r="I2" s="465"/>
+      <c r="J2" s="465"/>
+      <c r="K2" s="465"/>
+      <c r="L2" s="465"/>
+      <c r="M2" s="465"/>
+      <c r="N2" s="465"/>
+      <c r="O2" s="465"/>
+      <c r="P2" s="465"/>
+      <c r="Q2" s="465"/>
+      <c r="R2" s="465"/>
+      <c r="S2" s="465"/>
+      <c r="T2" s="465"/>
+      <c r="U2" s="465"/>
+      <c r="V2" s="465"/>
     </row>
     <row r="3" spans="2:22" ht="15.75" thickBot="1"/>
     <row r="4" spans="2:22">
@@ -21156,22 +21171,22 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="435" t="s">
+      <c r="G5" s="469" t="s">
         <v>360</v>
       </c>
-      <c r="H5" s="435"/>
-      <c r="I5" s="435" t="s">
+      <c r="H5" s="469"/>
+      <c r="I5" s="469" t="s">
         <v>361</v>
       </c>
-      <c r="J5" s="435"/>
-      <c r="K5" s="435"/>
-      <c r="L5" s="435"/>
-      <c r="M5" s="435"/>
-      <c r="N5" s="435"/>
-      <c r="O5" s="435" t="s">
+      <c r="J5" s="469"/>
+      <c r="K5" s="469"/>
+      <c r="L5" s="469"/>
+      <c r="M5" s="469"/>
+      <c r="N5" s="469"/>
+      <c r="O5" s="469" t="s">
         <v>362</v>
       </c>
-      <c r="P5" s="435"/>
+      <c r="P5" s="469"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
@@ -21183,7 +21198,7 @@
       <c r="D6" s="124"/>
       <c r="E6" s="125"/>
       <c r="F6" s="127"/>
-      <c r="G6" s="436" t="s">
+      <c r="G6" s="474" t="s">
         <v>363</v>
       </c>
       <c r="H6" s="102"/>
@@ -21212,26 +21227,26 @@
       </c>
       <c r="E7" s="127"/>
       <c r="F7" s="127"/>
-      <c r="G7" s="356"/>
-      <c r="H7" s="437" t="s">
+      <c r="G7" s="394"/>
+      <c r="H7" s="475" t="s">
         <v>365</v>
       </c>
-      <c r="I7" s="440" t="s">
+      <c r="I7" s="478" t="s">
         <v>366</v>
       </c>
-      <c r="J7" s="441"/>
-      <c r="K7" s="442" t="s">
+      <c r="J7" s="479"/>
+      <c r="K7" s="480" t="s">
         <v>367</v>
       </c>
-      <c r="L7" s="443"/>
-      <c r="M7" s="440" t="s">
+      <c r="L7" s="481"/>
+      <c r="M7" s="478" t="s">
         <v>368</v>
       </c>
-      <c r="N7" s="441"/>
-      <c r="O7" s="447" t="s">
+      <c r="N7" s="479"/>
+      <c r="O7" s="485" t="s">
         <v>369</v>
       </c>
-      <c r="P7" s="448"/>
+      <c r="P7" s="486"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
@@ -21243,16 +21258,16 @@
       <c r="D8" s="128"/>
       <c r="E8" s="129"/>
       <c r="F8" s="127"/>
-      <c r="G8" s="356"/>
-      <c r="H8" s="438"/>
-      <c r="I8" s="375"/>
-      <c r="J8" s="376"/>
-      <c r="K8" s="354"/>
-      <c r="L8" s="444"/>
-      <c r="M8" s="375"/>
-      <c r="N8" s="376"/>
-      <c r="O8" s="449"/>
-      <c r="P8" s="450"/>
+      <c r="G8" s="394"/>
+      <c r="H8" s="476"/>
+      <c r="I8" s="384"/>
+      <c r="J8" s="386"/>
+      <c r="K8" s="374"/>
+      <c r="L8" s="482"/>
+      <c r="M8" s="384"/>
+      <c r="N8" s="386"/>
+      <c r="O8" s="487"/>
+      <c r="P8" s="488"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="33" t="s">
         <v>82</v>
@@ -21270,16 +21285,16 @@
       <c r="D9" s="4"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="356"/>
-      <c r="H9" s="438"/>
-      <c r="I9" s="375"/>
-      <c r="J9" s="376"/>
-      <c r="K9" s="354"/>
-      <c r="L9" s="444"/>
-      <c r="M9" s="375"/>
-      <c r="N9" s="376"/>
-      <c r="O9" s="449"/>
-      <c r="P9" s="450"/>
+      <c r="G9" s="394"/>
+      <c r="H9" s="476"/>
+      <c r="I9" s="384"/>
+      <c r="J9" s="386"/>
+      <c r="K9" s="374"/>
+      <c r="L9" s="482"/>
+      <c r="M9" s="384"/>
+      <c r="N9" s="386"/>
+      <c r="O9" s="487"/>
+      <c r="P9" s="488"/>
       <c r="Q9" s="5" t="s">
         <v>2</v>
       </c>
@@ -21299,16 +21314,16 @@
       <c r="D10" s="1"/>
       <c r="E10" s="3"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="356"/>
-      <c r="H10" s="438"/>
-      <c r="I10" s="375"/>
-      <c r="J10" s="376"/>
-      <c r="K10" s="354"/>
-      <c r="L10" s="444"/>
-      <c r="M10" s="375"/>
-      <c r="N10" s="376"/>
-      <c r="O10" s="449"/>
-      <c r="P10" s="450"/>
+      <c r="G10" s="394"/>
+      <c r="H10" s="476"/>
+      <c r="I10" s="384"/>
+      <c r="J10" s="386"/>
+      <c r="K10" s="374"/>
+      <c r="L10" s="482"/>
+      <c r="M10" s="384"/>
+      <c r="N10" s="386"/>
+      <c r="O10" s="487"/>
+      <c r="P10" s="488"/>
       <c r="Q10" s="5" t="s">
         <v>87</v>
       </c>
@@ -21324,16 +21339,16 @@
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="356"/>
-      <c r="H11" s="438"/>
-      <c r="I11" s="375"/>
-      <c r="J11" s="376"/>
-      <c r="K11" s="354"/>
-      <c r="L11" s="444"/>
-      <c r="M11" s="375"/>
-      <c r="N11" s="376"/>
-      <c r="O11" s="449"/>
-      <c r="P11" s="450"/>
+      <c r="G11" s="394"/>
+      <c r="H11" s="476"/>
+      <c r="I11" s="384"/>
+      <c r="J11" s="386"/>
+      <c r="K11" s="374"/>
+      <c r="L11" s="482"/>
+      <c r="M11" s="384"/>
+      <c r="N11" s="386"/>
+      <c r="O11" s="487"/>
+      <c r="P11" s="488"/>
       <c r="Q11" s="5">
         <v>1000</v>
       </c>
@@ -21351,16 +21366,16 @@
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="356"/>
-      <c r="H12" s="438"/>
-      <c r="I12" s="375"/>
-      <c r="J12" s="376"/>
-      <c r="K12" s="354"/>
-      <c r="L12" s="444"/>
-      <c r="M12" s="375"/>
-      <c r="N12" s="376"/>
-      <c r="O12" s="449"/>
-      <c r="P12" s="450"/>
+      <c r="G12" s="394"/>
+      <c r="H12" s="476"/>
+      <c r="I12" s="384"/>
+      <c r="J12" s="386"/>
+      <c r="K12" s="374"/>
+      <c r="L12" s="482"/>
+      <c r="M12" s="384"/>
+      <c r="N12" s="386"/>
+      <c r="O12" s="487"/>
+      <c r="P12" s="488"/>
       <c r="Q12" s="5" t="s">
         <v>2</v>
       </c>
@@ -21374,16 +21389,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="356"/>
-      <c r="H13" s="438"/>
-      <c r="I13" s="375"/>
-      <c r="J13" s="376"/>
-      <c r="K13" s="354"/>
-      <c r="L13" s="444"/>
-      <c r="M13" s="375"/>
-      <c r="N13" s="376"/>
-      <c r="O13" s="449"/>
-      <c r="P13" s="450"/>
+      <c r="G13" s="394"/>
+      <c r="H13" s="476"/>
+      <c r="I13" s="384"/>
+      <c r="J13" s="386"/>
+      <c r="K13" s="374"/>
+      <c r="L13" s="482"/>
+      <c r="M13" s="384"/>
+      <c r="N13" s="386"/>
+      <c r="O13" s="487"/>
+      <c r="P13" s="488"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="33"/>
       <c r="S13" s="33"/>
@@ -21395,16 +21410,16 @@
       <c r="D14" s="1"/>
       <c r="E14" s="3"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="356"/>
-      <c r="H14" s="438"/>
-      <c r="I14" s="375"/>
-      <c r="J14" s="376"/>
-      <c r="K14" s="354"/>
-      <c r="L14" s="444"/>
-      <c r="M14" s="375"/>
-      <c r="N14" s="376"/>
-      <c r="O14" s="449"/>
-      <c r="P14" s="450"/>
+      <c r="G14" s="394"/>
+      <c r="H14" s="476"/>
+      <c r="I14" s="384"/>
+      <c r="J14" s="386"/>
+      <c r="K14" s="374"/>
+      <c r="L14" s="482"/>
+      <c r="M14" s="384"/>
+      <c r="N14" s="386"/>
+      <c r="O14" s="487"/>
+      <c r="P14" s="488"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="33"/>
       <c r="S14" s="33"/>
@@ -21418,16 +21433,16 @@
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="356"/>
-      <c r="H15" s="438"/>
-      <c r="I15" s="375"/>
-      <c r="J15" s="376"/>
-      <c r="K15" s="354"/>
-      <c r="L15" s="444"/>
-      <c r="M15" s="375"/>
-      <c r="N15" s="376"/>
-      <c r="O15" s="449"/>
-      <c r="P15" s="450"/>
+      <c r="G15" s="394"/>
+      <c r="H15" s="476"/>
+      <c r="I15" s="384"/>
+      <c r="J15" s="386"/>
+      <c r="K15" s="374"/>
+      <c r="L15" s="482"/>
+      <c r="M15" s="384"/>
+      <c r="N15" s="386"/>
+      <c r="O15" s="487"/>
+      <c r="P15" s="488"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
@@ -21439,16 +21454,16 @@
       <c r="D16" s="4"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="356"/>
-      <c r="H16" s="438"/>
-      <c r="I16" s="375"/>
-      <c r="J16" s="376"/>
-      <c r="K16" s="354"/>
-      <c r="L16" s="444"/>
-      <c r="M16" s="375"/>
-      <c r="N16" s="376"/>
-      <c r="O16" s="449"/>
-      <c r="P16" s="450"/>
+      <c r="G16" s="394"/>
+      <c r="H16" s="476"/>
+      <c r="I16" s="384"/>
+      <c r="J16" s="386"/>
+      <c r="K16" s="374"/>
+      <c r="L16" s="482"/>
+      <c r="M16" s="384"/>
+      <c r="N16" s="386"/>
+      <c r="O16" s="487"/>
+      <c r="P16" s="488"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
@@ -21460,16 +21475,16 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="356"/>
-      <c r="H17" s="438"/>
-      <c r="I17" s="375"/>
-      <c r="J17" s="376"/>
-      <c r="K17" s="354"/>
-      <c r="L17" s="444"/>
-      <c r="M17" s="375"/>
-      <c r="N17" s="376"/>
-      <c r="O17" s="449"/>
-      <c r="P17" s="450"/>
+      <c r="G17" s="394"/>
+      <c r="H17" s="476"/>
+      <c r="I17" s="384"/>
+      <c r="J17" s="386"/>
+      <c r="K17" s="374"/>
+      <c r="L17" s="482"/>
+      <c r="M17" s="384"/>
+      <c r="N17" s="386"/>
+      <c r="O17" s="487"/>
+      <c r="P17" s="488"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
@@ -21481,16 +21496,16 @@
       <c r="D18" s="4"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="356"/>
-      <c r="H18" s="438"/>
-      <c r="I18" s="375"/>
-      <c r="J18" s="376"/>
-      <c r="K18" s="354"/>
-      <c r="L18" s="444"/>
-      <c r="M18" s="375"/>
-      <c r="N18" s="376"/>
-      <c r="O18" s="449"/>
-      <c r="P18" s="450"/>
+      <c r="G18" s="394"/>
+      <c r="H18" s="476"/>
+      <c r="I18" s="384"/>
+      <c r="J18" s="386"/>
+      <c r="K18" s="374"/>
+      <c r="L18" s="482"/>
+      <c r="M18" s="384"/>
+      <c r="N18" s="386"/>
+      <c r="O18" s="487"/>
+      <c r="P18" s="488"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
@@ -21504,16 +21519,16 @@
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="356"/>
-      <c r="H19" s="438"/>
-      <c r="I19" s="375"/>
-      <c r="J19" s="376"/>
-      <c r="K19" s="354"/>
-      <c r="L19" s="444"/>
-      <c r="M19" s="375"/>
-      <c r="N19" s="376"/>
-      <c r="O19" s="449"/>
-      <c r="P19" s="450"/>
+      <c r="G19" s="394"/>
+      <c r="H19" s="476"/>
+      <c r="I19" s="384"/>
+      <c r="J19" s="386"/>
+      <c r="K19" s="374"/>
+      <c r="L19" s="482"/>
+      <c r="M19" s="384"/>
+      <c r="N19" s="386"/>
+      <c r="O19" s="487"/>
+      <c r="P19" s="488"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
@@ -21525,16 +21540,16 @@
       <c r="D20" s="8"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="357"/>
-      <c r="H20" s="439"/>
-      <c r="I20" s="377"/>
-      <c r="J20" s="379"/>
-      <c r="K20" s="445"/>
-      <c r="L20" s="446"/>
-      <c r="M20" s="377"/>
-      <c r="N20" s="379"/>
-      <c r="O20" s="451"/>
-      <c r="P20" s="452"/>
+      <c r="G20" s="395"/>
+      <c r="H20" s="477"/>
+      <c r="I20" s="387"/>
+      <c r="J20" s="389"/>
+      <c r="K20" s="483"/>
+      <c r="L20" s="484"/>
+      <c r="M20" s="387"/>
+      <c r="N20" s="389"/>
+      <c r="O20" s="489"/>
+      <c r="P20" s="490"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
@@ -21564,27 +21579,27 @@
     </row>
     <row r="22" spans="2:22" ht="15.75" thickBot="1">
       <c r="C22" s="4"/>
-      <c r="D22" s="380" t="s">
+      <c r="D22" s="375" t="s">
         <v>94</v>
       </c>
-      <c r="E22" s="381"/>
+      <c r="E22" s="376"/>
       <c r="F22" s="220"/>
       <c r="G22" s="101" t="s">
         <v>95</v>
       </c>
-      <c r="H22" s="380" t="s">
+      <c r="H22" s="375" t="s">
         <v>96</v>
       </c>
-      <c r="I22" s="382"/>
-      <c r="J22" s="382"/>
-      <c r="K22" s="382"/>
-      <c r="L22" s="382"/>
-      <c r="M22" s="382"/>
-      <c r="N22" s="381"/>
-      <c r="O22" s="380" t="s">
+      <c r="I22" s="390"/>
+      <c r="J22" s="390"/>
+      <c r="K22" s="390"/>
+      <c r="L22" s="390"/>
+      <c r="M22" s="390"/>
+      <c r="N22" s="376"/>
+      <c r="O22" s="375" t="s">
         <v>370</v>
       </c>
-      <c r="P22" s="381"/>
+      <c r="P22" s="376"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
@@ -21615,59 +21630,59 @@
       <c r="U23" s="9"/>
     </row>
     <row r="25" spans="2:22" ht="21">
-      <c r="B25" s="453" t="s">
+      <c r="B25" s="465" t="s">
         <v>823</v>
       </c>
-      <c r="C25" s="453"/>
-      <c r="D25" s="453"/>
-      <c r="E25" s="453"/>
-      <c r="F25" s="453"/>
-      <c r="G25" s="453"/>
-      <c r="H25" s="453"/>
-      <c r="I25" s="453"/>
-      <c r="J25" s="453"/>
-      <c r="K25" s="453"/>
-      <c r="L25" s="453"/>
-      <c r="M25" s="453"/>
-      <c r="N25" s="453"/>
-      <c r="O25" s="453"/>
-      <c r="P25" s="453"/>
-      <c r="Q25" s="453"/>
-      <c r="R25" s="453"/>
-      <c r="S25" s="453"/>
-      <c r="T25" s="453"/>
-      <c r="U25" s="453"/>
-      <c r="V25" s="453"/>
+      <c r="C25" s="465"/>
+      <c r="D25" s="465"/>
+      <c r="E25" s="465"/>
+      <c r="F25" s="465"/>
+      <c r="G25" s="465"/>
+      <c r="H25" s="465"/>
+      <c r="I25" s="465"/>
+      <c r="J25" s="465"/>
+      <c r="K25" s="465"/>
+      <c r="L25" s="465"/>
+      <c r="M25" s="465"/>
+      <c r="N25" s="465"/>
+      <c r="O25" s="465"/>
+      <c r="P25" s="465"/>
+      <c r="Q25" s="465"/>
+      <c r="R25" s="465"/>
+      <c r="S25" s="465"/>
+      <c r="T25" s="465"/>
+      <c r="U25" s="465"/>
+      <c r="V25" s="465"/>
     </row>
     <row r="26" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C26" s="454" t="s">
+      <c r="C26" s="466" t="s">
         <v>397</v>
       </c>
-      <c r="D26" s="454"/>
-      <c r="E26" s="454"/>
-      <c r="F26" s="454"/>
-      <c r="G26" s="454"/>
-      <c r="H26" s="454"/>
-      <c r="I26" s="454"/>
-      <c r="J26" s="454"/>
-      <c r="K26" s="454"/>
-      <c r="L26" s="454"/>
-      <c r="M26" s="454"/>
+      <c r="D26" s="466"/>
+      <c r="E26" s="466"/>
+      <c r="F26" s="466"/>
+      <c r="G26" s="466"/>
+      <c r="H26" s="466"/>
+      <c r="I26" s="466"/>
+      <c r="J26" s="466"/>
+      <c r="K26" s="466"/>
+      <c r="L26" s="466"/>
+      <c r="M26" s="466"/>
     </row>
     <row r="27" spans="2:22" ht="15.75" thickBot="1">
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="455" t="s">
+      <c r="E27" s="467" t="s">
         <v>78</v>
       </c>
-      <c r="F27" s="350"/>
-      <c r="G27" s="350"/>
-      <c r="H27" s="369"/>
-      <c r="I27" s="369"/>
-      <c r="J27" s="369"/>
-      <c r="K27" s="369"/>
-      <c r="L27" s="369"/>
-      <c r="M27" s="370"/>
+      <c r="F27" s="370"/>
+      <c r="G27" s="370"/>
+      <c r="H27" s="378"/>
+      <c r="I27" s="378"/>
+      <c r="J27" s="378"/>
+      <c r="K27" s="378"/>
+      <c r="L27" s="378"/>
+      <c r="M27" s="379"/>
     </row>
     <row r="28" spans="2:22">
       <c r="C28" s="4" t="s">
@@ -21700,11 +21715,11 @@
       <c r="K29" s="4"/>
       <c r="L29" s="5"/>
       <c r="M29" s="6"/>
-      <c r="O29" s="456" t="s">
+      <c r="O29" s="468" t="s">
         <v>79</v>
       </c>
-      <c r="P29" s="456"/>
-      <c r="Q29" s="456"/>
+      <c r="P29" s="468"/>
+      <c r="Q29" s="468"/>
     </row>
     <row r="30" spans="2:22" ht="15.75" thickBot="1">
       <c r="C30" s="4"/>
@@ -21749,21 +21764,21 @@
         <v>90</v>
       </c>
       <c r="D32" s="6"/>
-      <c r="E32" s="460" t="s">
+      <c r="E32" s="462" t="s">
         <v>827</v>
       </c>
-      <c r="F32" s="461"/>
-      <c r="G32" s="462"/>
-      <c r="H32" s="460" t="s">
+      <c r="F32" s="463"/>
+      <c r="G32" s="464"/>
+      <c r="H32" s="462" t="s">
         <v>828</v>
       </c>
-      <c r="I32" s="461"/>
-      <c r="J32" s="462"/>
-      <c r="K32" s="460" t="s">
+      <c r="I32" s="463"/>
+      <c r="J32" s="464"/>
+      <c r="K32" s="462" t="s">
         <v>829</v>
       </c>
-      <c r="L32" s="461"/>
-      <c r="M32" s="462"/>
+      <c r="L32" s="463"/>
+      <c r="M32" s="464"/>
       <c r="N32" s="5" t="s">
         <v>2</v>
       </c>
@@ -21780,15 +21795,15 @@
     <row r="33" spans="2:22">
       <c r="C33" s="4"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="460"/>
-      <c r="F33" s="461"/>
-      <c r="G33" s="462"/>
-      <c r="H33" s="460"/>
-      <c r="I33" s="461"/>
-      <c r="J33" s="462"/>
-      <c r="K33" s="460"/>
-      <c r="L33" s="461"/>
-      <c r="M33" s="462"/>
+      <c r="E33" s="462"/>
+      <c r="F33" s="463"/>
+      <c r="G33" s="464"/>
+      <c r="H33" s="462"/>
+      <c r="I33" s="463"/>
+      <c r="J33" s="464"/>
+      <c r="K33" s="462"/>
+      <c r="L33" s="463"/>
+      <c r="M33" s="464"/>
       <c r="N33" s="5" t="s">
         <v>87</v>
       </c>
@@ -21805,15 +21820,15 @@
     <row r="34" spans="2:22" ht="15.75" thickBot="1">
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="460"/>
-      <c r="F34" s="461"/>
-      <c r="G34" s="462"/>
-      <c r="H34" s="460"/>
-      <c r="I34" s="461"/>
-      <c r="J34" s="462"/>
-      <c r="K34" s="460"/>
-      <c r="L34" s="461"/>
-      <c r="M34" s="462"/>
+      <c r="E34" s="462"/>
+      <c r="F34" s="463"/>
+      <c r="G34" s="464"/>
+      <c r="H34" s="462"/>
+      <c r="I34" s="463"/>
+      <c r="J34" s="464"/>
+      <c r="K34" s="462"/>
+      <c r="L34" s="463"/>
+      <c r="M34" s="464"/>
       <c r="N34" s="5">
         <v>1000</v>
       </c>
@@ -21824,15 +21839,15 @@
     <row r="35" spans="2:22">
       <c r="C35" s="1"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="460"/>
-      <c r="F35" s="461"/>
-      <c r="G35" s="462"/>
-      <c r="H35" s="460"/>
-      <c r="I35" s="461"/>
-      <c r="J35" s="462"/>
-      <c r="K35" s="460"/>
-      <c r="L35" s="461"/>
-      <c r="M35" s="462"/>
+      <c r="E35" s="462"/>
+      <c r="F35" s="463"/>
+      <c r="G35" s="464"/>
+      <c r="H35" s="462"/>
+      <c r="I35" s="463"/>
+      <c r="J35" s="464"/>
+      <c r="K35" s="462"/>
+      <c r="L35" s="463"/>
+      <c r="M35" s="464"/>
       <c r="N35" s="5" t="s">
         <v>2</v>
       </c>
@@ -21963,15 +21978,15 @@
     <row r="42" spans="2:22" ht="19.5" thickBot="1">
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="464"/>
-      <c r="F42" s="465"/>
-      <c r="G42" s="465"/>
-      <c r="H42" s="465"/>
-      <c r="I42" s="465"/>
-      <c r="J42" s="465"/>
-      <c r="K42" s="465"/>
-      <c r="L42" s="465"/>
-      <c r="M42" s="466"/>
+      <c r="E42" s="455"/>
+      <c r="F42" s="456"/>
+      <c r="G42" s="456"/>
+      <c r="H42" s="456"/>
+      <c r="I42" s="456"/>
+      <c r="J42" s="456"/>
+      <c r="K42" s="456"/>
+      <c r="L42" s="456"/>
+      <c r="M42" s="457"/>
       <c r="N42" s="35" t="s">
         <v>402</v>
       </c>
@@ -21990,23 +22005,23 @@
       <c r="K43" s="5"/>
     </row>
     <row r="44" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C44" s="380" t="s">
+      <c r="C44" s="375" t="s">
         <v>94</v>
       </c>
-      <c r="D44" s="381"/>
-      <c r="E44" s="380" t="s">
+      <c r="D44" s="376"/>
+      <c r="E44" s="375" t="s">
         <v>95</v>
       </c>
-      <c r="F44" s="382"/>
-      <c r="G44" s="381"/>
-      <c r="H44" s="380" t="s">
+      <c r="F44" s="390"/>
+      <c r="G44" s="376"/>
+      <c r="H44" s="375" t="s">
         <v>96</v>
       </c>
-      <c r="I44" s="382"/>
-      <c r="J44" s="382"/>
-      <c r="K44" s="382"/>
-      <c r="L44" s="382"/>
-      <c r="M44" s="381"/>
+      <c r="I44" s="390"/>
+      <c r="J44" s="390"/>
+      <c r="K44" s="390"/>
+      <c r="L44" s="390"/>
+      <c r="M44" s="376"/>
       <c r="Q44" t="s">
         <v>826</v>
       </c>
@@ -22026,61 +22041,61 @@
       </c>
     </row>
     <row r="47" spans="2:22" ht="21">
-      <c r="B47" s="453" t="s">
+      <c r="B47" s="465" t="s">
         <v>825</v>
       </c>
-      <c r="C47" s="453"/>
-      <c r="D47" s="453"/>
-      <c r="E47" s="453"/>
-      <c r="F47" s="453"/>
-      <c r="G47" s="453"/>
-      <c r="H47" s="453"/>
-      <c r="I47" s="453"/>
-      <c r="J47" s="453"/>
-      <c r="K47" s="453"/>
-      <c r="L47" s="453"/>
-      <c r="M47" s="453"/>
-      <c r="N47" s="453"/>
-      <c r="O47" s="453"/>
-      <c r="P47" s="453"/>
-      <c r="Q47" s="453"/>
-      <c r="R47" s="453"/>
-      <c r="S47" s="453"/>
-      <c r="T47" s="453"/>
-      <c r="U47" s="453"/>
-      <c r="V47" s="453"/>
+      <c r="C47" s="465"/>
+      <c r="D47" s="465"/>
+      <c r="E47" s="465"/>
+      <c r="F47" s="465"/>
+      <c r="G47" s="465"/>
+      <c r="H47" s="465"/>
+      <c r="I47" s="465"/>
+      <c r="J47" s="465"/>
+      <c r="K47" s="465"/>
+      <c r="L47" s="465"/>
+      <c r="M47" s="465"/>
+      <c r="N47" s="465"/>
+      <c r="O47" s="465"/>
+      <c r="P47" s="465"/>
+      <c r="Q47" s="465"/>
+      <c r="R47" s="465"/>
+      <c r="S47" s="465"/>
+      <c r="T47" s="465"/>
+      <c r="U47" s="465"/>
+      <c r="V47" s="465"/>
     </row>
     <row r="48" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C48" s="454" t="s">
+      <c r="C48" s="466" t="s">
         <v>397</v>
       </c>
-      <c r="D48" s="454"/>
-      <c r="E48" s="454"/>
-      <c r="F48" s="454"/>
-      <c r="G48" s="454"/>
-      <c r="H48" s="454"/>
-      <c r="I48" s="454"/>
-      <c r="J48" s="454"/>
-      <c r="K48" s="454"/>
-      <c r="L48" s="454"/>
-      <c r="M48" s="454"/>
+      <c r="D48" s="466"/>
+      <c r="E48" s="466"/>
+      <c r="F48" s="466"/>
+      <c r="G48" s="466"/>
+      <c r="H48" s="466"/>
+      <c r="I48" s="466"/>
+      <c r="J48" s="466"/>
+      <c r="K48" s="466"/>
+      <c r="L48" s="466"/>
+      <c r="M48" s="466"/>
       <c r="S48" s="24"/>
       <c r="T48" s="24"/>
     </row>
     <row r="49" spans="1:24" ht="15.75" thickBot="1">
       <c r="C49" s="1"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="455" t="s">
+      <c r="E49" s="467" t="s">
         <v>78</v>
       </c>
-      <c r="F49" s="350"/>
-      <c r="G49" s="350"/>
-      <c r="H49" s="369"/>
-      <c r="I49" s="369"/>
-      <c r="J49" s="369"/>
-      <c r="K49" s="369"/>
-      <c r="L49" s="369"/>
-      <c r="M49" s="370"/>
+      <c r="F49" s="370"/>
+      <c r="G49" s="370"/>
+      <c r="H49" s="378"/>
+      <c r="I49" s="378"/>
+      <c r="J49" s="378"/>
+      <c r="K49" s="378"/>
+      <c r="L49" s="378"/>
+      <c r="M49" s="379"/>
       <c r="S49" s="24"/>
       <c r="T49" s="24"/>
       <c r="U49" s="18"/>
@@ -22100,16 +22115,16 @@
       <c r="G50" s="200" t="s">
         <v>1416</v>
       </c>
-      <c r="H50" s="457" t="s">
+      <c r="H50" s="470" t="s">
         <v>828</v>
       </c>
-      <c r="I50" s="458"/>
-      <c r="J50" s="459"/>
-      <c r="K50" s="457" t="s">
+      <c r="I50" s="471"/>
+      <c r="J50" s="472"/>
+      <c r="K50" s="470" t="s">
         <v>829</v>
       </c>
-      <c r="L50" s="458"/>
-      <c r="M50" s="459"/>
+      <c r="L50" s="471"/>
+      <c r="M50" s="472"/>
       <c r="S50" s="24"/>
       <c r="T50" s="24"/>
       <c r="W50" t="s">
@@ -22123,20 +22138,20 @@
         <v>843</v>
       </c>
       <c r="F51" s="241"/>
-      <c r="G51" s="463" t="s">
+      <c r="G51" s="473" t="s">
         <v>851</v>
       </c>
-      <c r="H51" s="460"/>
-      <c r="I51" s="461"/>
-      <c r="J51" s="462"/>
-      <c r="K51" s="460"/>
-      <c r="L51" s="461"/>
-      <c r="M51" s="462"/>
-      <c r="O51" s="456" t="s">
+      <c r="H51" s="462"/>
+      <c r="I51" s="463"/>
+      <c r="J51" s="464"/>
+      <c r="K51" s="462"/>
+      <c r="L51" s="463"/>
+      <c r="M51" s="464"/>
+      <c r="O51" s="468" t="s">
         <v>79</v>
       </c>
-      <c r="P51" s="456"/>
-      <c r="Q51" s="456"/>
+      <c r="P51" s="468"/>
+      <c r="Q51" s="468"/>
       <c r="S51" s="228"/>
       <c r="T51" s="228"/>
       <c r="W51" s="35" t="s">
@@ -22150,13 +22165,13 @@
         <v>844</v>
       </c>
       <c r="F52" s="242"/>
-      <c r="G52" s="463"/>
-      <c r="H52" s="460"/>
-      <c r="I52" s="461"/>
-      <c r="J52" s="462"/>
-      <c r="K52" s="460"/>
-      <c r="L52" s="461"/>
-      <c r="M52" s="462"/>
+      <c r="G52" s="473"/>
+      <c r="H52" s="462"/>
+      <c r="I52" s="463"/>
+      <c r="J52" s="464"/>
+      <c r="K52" s="462"/>
+      <c r="L52" s="463"/>
+      <c r="M52" s="464"/>
       <c r="S52" s="24"/>
       <c r="T52" s="24"/>
     </row>
@@ -22167,13 +22182,13 @@
         <v>845</v>
       </c>
       <c r="F53" s="243"/>
-      <c r="G53" s="463"/>
-      <c r="H53" s="460"/>
-      <c r="I53" s="461"/>
-      <c r="J53" s="462"/>
-      <c r="K53" s="460"/>
-      <c r="L53" s="461"/>
-      <c r="M53" s="462"/>
+      <c r="G53" s="473"/>
+      <c r="H53" s="462"/>
+      <c r="I53" s="463"/>
+      <c r="J53" s="464"/>
+      <c r="K53" s="462"/>
+      <c r="L53" s="463"/>
+      <c r="M53" s="464"/>
       <c r="N53" s="5"/>
       <c r="O53" s="33" t="s">
         <v>82</v>
@@ -22212,7 +22227,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="229"/>
       <c r="F54" s="244"/>
-      <c r="G54" s="469" t="s">
+      <c r="G54" s="460" t="s">
         <v>855</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -22259,11 +22274,11 @@
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="467" t="s">
+      <c r="E55" s="458" t="s">
         <v>856</v>
       </c>
-      <c r="F55" s="468"/>
-      <c r="G55" s="470"/>
+      <c r="F55" s="459"/>
+      <c r="G55" s="461"/>
       <c r="H55" s="130" t="s">
         <v>847</v>
       </c>
@@ -22307,9 +22322,9 @@
     <row r="56" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="C56" s="8"/>
       <c r="D56" s="9"/>
-      <c r="E56" s="467"/>
-      <c r="F56" s="468"/>
-      <c r="G56" s="470"/>
+      <c r="E56" s="458"/>
+      <c r="F56" s="459"/>
+      <c r="G56" s="461"/>
       <c r="H56" s="130" t="s">
         <v>848</v>
       </c>
@@ -22339,9 +22354,9 @@
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="467"/>
-      <c r="F57" s="468"/>
-      <c r="G57" s="470"/>
+      <c r="E57" s="458"/>
+      <c r="F57" s="459"/>
+      <c r="G57" s="461"/>
       <c r="H57" s="4" t="s">
         <v>860</v>
       </c>
@@ -22371,9 +22386,9 @@
         <v>92</v>
       </c>
       <c r="D58" s="6"/>
-      <c r="E58" s="467"/>
-      <c r="F58" s="468"/>
-      <c r="G58" s="470"/>
+      <c r="E58" s="458"/>
+      <c r="F58" s="459"/>
+      <c r="G58" s="461"/>
       <c r="H58" s="233" t="s">
         <v>846</v>
       </c>
@@ -22398,9 +22413,9 @@
     <row r="59" spans="1:24">
       <c r="C59" s="4"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="467"/>
-      <c r="F59" s="468"/>
-      <c r="G59" s="470"/>
+      <c r="E59" s="458"/>
+      <c r="F59" s="459"/>
+      <c r="G59" s="461"/>
       <c r="H59" s="233" t="s">
         <v>390</v>
       </c>
@@ -22425,9 +22440,9 @@
     <row r="60" spans="1:24" ht="15.75" thickBot="1">
       <c r="C60" s="8"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="467"/>
-      <c r="F60" s="468"/>
-      <c r="G60" s="470"/>
+      <c r="E60" s="458"/>
+      <c r="F60" s="459"/>
+      <c r="G60" s="461"/>
       <c r="H60" s="235"/>
       <c r="I60" s="236" t="s">
         <v>862</v>
@@ -22447,9 +22462,9 @@
     <row r="61" spans="1:24">
       <c r="C61" s="4"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="467"/>
-      <c r="F61" s="468"/>
-      <c r="G61" s="470"/>
+      <c r="E61" s="458"/>
+      <c r="F61" s="459"/>
+      <c r="G61" s="461"/>
       <c r="H61" s="235"/>
       <c r="I61" s="236" t="s">
         <v>863</v>
@@ -22469,7 +22484,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="224"/>
       <c r="F62" s="240"/>
-      <c r="G62" s="470"/>
+      <c r="G62" s="461"/>
       <c r="H62" s="237"/>
       <c r="I62" s="239" t="s">
         <v>864</v>
@@ -22511,17 +22526,17 @@
     <row r="64" spans="1:24" ht="19.5" thickBot="1">
       <c r="C64" s="8"/>
       <c r="D64" s="9"/>
-      <c r="E64" s="464" t="s">
+      <c r="E64" s="455" t="s">
         <v>1417</v>
       </c>
-      <c r="F64" s="465"/>
-      <c r="G64" s="465"/>
-      <c r="H64" s="465"/>
-      <c r="I64" s="465"/>
-      <c r="J64" s="465"/>
-      <c r="K64" s="465"/>
-      <c r="L64" s="465"/>
-      <c r="M64" s="466"/>
+      <c r="F64" s="456"/>
+      <c r="G64" s="456"/>
+      <c r="H64" s="456"/>
+      <c r="I64" s="456"/>
+      <c r="J64" s="456"/>
+      <c r="K64" s="456"/>
+      <c r="L64" s="456"/>
+      <c r="M64" s="457"/>
       <c r="N64" s="35" t="s">
         <v>402</v>
       </c>
@@ -22550,23 +22565,23 @@
       </c>
     </row>
     <row r="66" spans="2:24" ht="15.75" thickBot="1">
-      <c r="C66" s="380" t="s">
+      <c r="C66" s="375" t="s">
         <v>94</v>
       </c>
-      <c r="D66" s="381"/>
-      <c r="E66" s="380" t="s">
+      <c r="D66" s="376"/>
+      <c r="E66" s="375" t="s">
         <v>95</v>
       </c>
-      <c r="F66" s="382"/>
-      <c r="G66" s="381"/>
-      <c r="H66" s="380" t="s">
+      <c r="F66" s="390"/>
+      <c r="G66" s="376"/>
+      <c r="H66" s="375" t="s">
         <v>96</v>
       </c>
-      <c r="I66" s="382"/>
-      <c r="J66" s="382"/>
-      <c r="K66" s="382"/>
-      <c r="L66" s="382"/>
-      <c r="M66" s="381"/>
+      <c r="I66" s="390"/>
+      <c r="J66" s="390"/>
+      <c r="K66" s="390"/>
+      <c r="L66" s="390"/>
+      <c r="M66" s="376"/>
       <c r="Q66" t="s">
         <v>826</v>
       </c>
@@ -22587,23 +22602,23 @@
       </c>
     </row>
     <row r="68" spans="2:24">
-      <c r="C68" s="419" t="s">
+      <c r="C68" s="439" t="s">
         <v>81</v>
       </c>
-      <c r="D68" s="419"/>
-      <c r="E68" s="419" t="s">
+      <c r="D68" s="439"/>
+      <c r="E68" s="439" t="s">
         <v>1076</v>
       </c>
-      <c r="F68" s="419"/>
-      <c r="G68" s="419"/>
-      <c r="H68" s="419" t="s">
+      <c r="F68" s="439"/>
+      <c r="G68" s="439"/>
+      <c r="H68" s="439" t="s">
         <v>1092</v>
       </c>
-      <c r="I68" s="419"/>
-      <c r="J68" s="419"/>
-      <c r="K68" s="419"/>
-      <c r="L68" s="419"/>
-      <c r="M68" s="419"/>
+      <c r="I68" s="439"/>
+      <c r="J68" s="439"/>
+      <c r="K68" s="439"/>
+      <c r="L68" s="439"/>
+      <c r="M68" s="439"/>
       <c r="S68" s="24"/>
       <c r="T68" s="24"/>
       <c r="U68" s="2" t="s">
@@ -23400,30 +23415,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E64:M64"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:M66"/>
-    <mergeCell ref="E55:F61"/>
-    <mergeCell ref="G54:G62"/>
-    <mergeCell ref="E32:G35"/>
-    <mergeCell ref="H32:J35"/>
-    <mergeCell ref="K32:M35"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="H22:N22"/>
-    <mergeCell ref="B2:V2"/>
-    <mergeCell ref="B25:V25"/>
-    <mergeCell ref="C26:M26"/>
-    <mergeCell ref="E27:M27"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="K50:M53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="E42:M42"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:M44"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="E68:G68"/>
     <mergeCell ref="H68:M68"/>
@@ -23440,6 +23431,30 @@
     <mergeCell ref="E49:M49"/>
     <mergeCell ref="O51:Q51"/>
     <mergeCell ref="H50:J53"/>
+    <mergeCell ref="K50:M53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="E42:M42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:M44"/>
+    <mergeCell ref="B2:V2"/>
+    <mergeCell ref="B25:V25"/>
+    <mergeCell ref="C26:M26"/>
+    <mergeCell ref="E27:M27"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="E32:G35"/>
+    <mergeCell ref="H32:J35"/>
+    <mergeCell ref="K32:M35"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="E64:M64"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:M66"/>
+    <mergeCell ref="E55:F61"/>
+    <mergeCell ref="G54:G62"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="T9" r:id="rId1"/>
@@ -23473,12 +23488,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13">
-      <c r="B1" s="471" t="s">
+      <c r="B1" s="491" t="s">
         <v>380</v>
       </c>
-      <c r="C1" s="471"/>
-      <c r="D1" s="471"/>
-      <c r="E1" s="471"/>
+      <c r="C1" s="491"/>
+      <c r="D1" s="491"/>
+      <c r="E1" s="491"/>
       <c r="I1" s="299" t="s">
         <v>1448</v>
       </c>
@@ -23607,10 +23622,10 @@
       <c r="L7" s="297"/>
     </row>
     <row r="8" spans="2:13">
-      <c r="B8" s="410"/>
-      <c r="C8" s="410"/>
-      <c r="D8" s="410"/>
-      <c r="E8" s="410"/>
+      <c r="B8" s="430"/>
+      <c r="C8" s="430"/>
+      <c r="D8" s="430"/>
+      <c r="E8" s="430"/>
       <c r="G8" t="s">
         <v>1456</v>
       </c>
@@ -23705,11 +23720,11 @@
     </row>
     <row r="24" spans="2:18" ht="15.75" thickBot="1"/>
     <row r="25" spans="2:18">
-      <c r="B25" s="472" t="s">
+      <c r="B25" s="492" t="s">
         <v>1446</v>
       </c>
-      <c r="C25" s="473"/>
-      <c r="D25" s="473"/>
+      <c r="C25" s="493"/>
+      <c r="D25" s="493"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -24217,32 +24232,32 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:17" ht="15.75" thickBot="1">
-      <c r="C2" s="454" t="s">
+      <c r="C2" s="466" t="s">
         <v>397</v>
       </c>
-      <c r="D2" s="454"/>
-      <c r="E2" s="454"/>
-      <c r="F2" s="454"/>
-      <c r="G2" s="454"/>
-      <c r="H2" s="454"/>
-      <c r="I2" s="454"/>
-      <c r="J2" s="454"/>
-      <c r="K2" s="454"/>
-      <c r="L2" s="454"/>
+      <c r="D2" s="466"/>
+      <c r="E2" s="466"/>
+      <c r="F2" s="466"/>
+      <c r="G2" s="466"/>
+      <c r="H2" s="466"/>
+      <c r="I2" s="466"/>
+      <c r="J2" s="466"/>
+      <c r="K2" s="466"/>
+      <c r="L2" s="466"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1">
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="455" t="s">
+      <c r="E3" s="467" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="350"/>
-      <c r="G3" s="369"/>
-      <c r="H3" s="369"/>
-      <c r="I3" s="369"/>
-      <c r="J3" s="369"/>
-      <c r="K3" s="369"/>
-      <c r="L3" s="370"/>
+      <c r="F3" s="370"/>
+      <c r="G3" s="378"/>
+      <c r="H3" s="378"/>
+      <c r="I3" s="378"/>
+      <c r="J3" s="378"/>
+      <c r="K3" s="378"/>
+      <c r="L3" s="379"/>
     </row>
     <row r="4" spans="1:17">
       <c r="C4" s="4" t="s">
@@ -24273,11 +24288,11 @@
         <v>407</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="N5" s="456" t="s">
+      <c r="N5" s="468" t="s">
         <v>79</v>
       </c>
-      <c r="O5" s="456"/>
-      <c r="P5" s="456"/>
+      <c r="O5" s="468"/>
+      <c r="P5" s="468"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1">
       <c r="A6" t="s">
@@ -24337,20 +24352,20 @@
         <v>90</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="460" t="s">
+      <c r="E8" s="462" t="s">
         <v>398</v>
       </c>
-      <c r="F8" s="462"/>
-      <c r="G8" s="460" t="s">
+      <c r="F8" s="464"/>
+      <c r="G8" s="462" t="s">
         <v>399</v>
       </c>
-      <c r="H8" s="461"/>
-      <c r="I8" s="462"/>
-      <c r="J8" s="460" t="s">
+      <c r="H8" s="463"/>
+      <c r="I8" s="464"/>
+      <c r="J8" s="462" t="s">
         <v>400</v>
       </c>
-      <c r="K8" s="461"/>
-      <c r="L8" s="462"/>
+      <c r="K8" s="463"/>
+      <c r="L8" s="464"/>
       <c r="M8" s="5" t="s">
         <v>2</v>
       </c>
@@ -24373,14 +24388,14 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="460"/>
-      <c r="F9" s="462"/>
-      <c r="G9" s="460"/>
-      <c r="H9" s="461"/>
-      <c r="I9" s="462"/>
-      <c r="J9" s="460"/>
-      <c r="K9" s="461"/>
-      <c r="L9" s="462"/>
+      <c r="E9" s="462"/>
+      <c r="F9" s="464"/>
+      <c r="G9" s="462"/>
+      <c r="H9" s="463"/>
+      <c r="I9" s="464"/>
+      <c r="J9" s="462"/>
+      <c r="K9" s="463"/>
+      <c r="L9" s="464"/>
       <c r="M9" s="5" t="s">
         <v>87</v>
       </c>
@@ -24397,14 +24412,14 @@
     <row r="10" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="460"/>
-      <c r="F10" s="462"/>
-      <c r="G10" s="460"/>
-      <c r="H10" s="461"/>
-      <c r="I10" s="462"/>
-      <c r="J10" s="460"/>
-      <c r="K10" s="461"/>
-      <c r="L10" s="462"/>
+      <c r="E10" s="462"/>
+      <c r="F10" s="464"/>
+      <c r="G10" s="462"/>
+      <c r="H10" s="463"/>
+      <c r="I10" s="464"/>
+      <c r="J10" s="462"/>
+      <c r="K10" s="463"/>
+      <c r="L10" s="464"/>
       <c r="M10" s="5">
         <v>1000</v>
       </c>
@@ -24418,14 +24433,14 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="460"/>
-      <c r="F11" s="462"/>
-      <c r="G11" s="460"/>
-      <c r="H11" s="461"/>
-      <c r="I11" s="462"/>
-      <c r="J11" s="460"/>
-      <c r="K11" s="461"/>
-      <c r="L11" s="462"/>
+      <c r="E11" s="462"/>
+      <c r="F11" s="464"/>
+      <c r="G11" s="462"/>
+      <c r="H11" s="463"/>
+      <c r="I11" s="464"/>
+      <c r="J11" s="462"/>
+      <c r="K11" s="463"/>
+      <c r="L11" s="464"/>
       <c r="M11" s="5" t="s">
         <v>2</v>
       </c>
@@ -24549,16 +24564,16 @@
     <row r="17" spans="2:18" ht="19.5" thickBot="1">
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="464" t="s">
+      <c r="E17" s="455" t="s">
         <v>401</v>
       </c>
-      <c r="F17" s="465"/>
-      <c r="G17" s="465"/>
-      <c r="H17" s="465"/>
-      <c r="I17" s="465"/>
-      <c r="J17" s="465"/>
-      <c r="K17" s="465"/>
-      <c r="L17" s="466"/>
+      <c r="F17" s="456"/>
+      <c r="G17" s="456"/>
+      <c r="H17" s="456"/>
+      <c r="I17" s="456"/>
+      <c r="J17" s="456"/>
+      <c r="K17" s="456"/>
+      <c r="L17" s="457"/>
       <c r="M17" s="35" t="s">
         <v>402</v>
       </c>
@@ -24588,40 +24603,40 @@
       </c>
     </row>
     <row r="19" spans="2:18" ht="15.75" thickBot="1">
-      <c r="C19" s="380" t="s">
+      <c r="C19" s="375" t="s">
         <v>94</v>
       </c>
-      <c r="D19" s="381"/>
-      <c r="E19" s="380" t="s">
+      <c r="D19" s="376"/>
+      <c r="E19" s="375" t="s">
         <v>95</v>
       </c>
-      <c r="F19" s="381"/>
-      <c r="G19" s="380" t="s">
+      <c r="F19" s="376"/>
+      <c r="G19" s="375" t="s">
         <v>96</v>
       </c>
-      <c r="H19" s="382"/>
-      <c r="I19" s="382"/>
-      <c r="J19" s="382"/>
-      <c r="K19" s="382"/>
-      <c r="L19" s="381"/>
+      <c r="H19" s="390"/>
+      <c r="I19" s="390"/>
+      <c r="J19" s="390"/>
+      <c r="K19" s="390"/>
+      <c r="L19" s="376"/>
     </row>
     <row r="20" spans="2:18" ht="15.75" thickBot="1"/>
     <row r="21" spans="2:18" ht="15" customHeight="1">
-      <c r="E21" s="474" t="s">
+      <c r="E21" s="494" t="s">
         <v>1105</v>
       </c>
-      <c r="F21" s="475"/>
+      <c r="F21" s="495"/>
     </row>
     <row r="22" spans="2:18">
-      <c r="E22" s="476"/>
-      <c r="F22" s="477"/>
+      <c r="E22" s="496"/>
+      <c r="F22" s="497"/>
       <c r="J22" t="s">
         <v>1110</v>
       </c>
     </row>
     <row r="23" spans="2:18">
-      <c r="E23" s="476"/>
-      <c r="F23" s="477"/>
+      <c r="E23" s="496"/>
+      <c r="F23" s="497"/>
       <c r="H23" t="s">
         <v>1113</v>
       </c>
@@ -24633,8 +24648,8 @@
       </c>
     </row>
     <row r="24" spans="2:18" ht="15.75" thickBot="1">
-      <c r="E24" s="478"/>
-      <c r="F24" s="479"/>
+      <c r="E24" s="498"/>
+      <c r="F24" s="499"/>
     </row>
     <row r="25" spans="2:18" ht="15.75" thickBot="1"/>
     <row r="26" spans="2:18" ht="15.75" thickBot="1">
@@ -26129,22 +26144,22 @@
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="435" t="s">
+      <c r="E3" s="469" t="s">
         <v>360</v>
       </c>
-      <c r="F3" s="435"/>
-      <c r="G3" s="435" t="s">
+      <c r="F3" s="469"/>
+      <c r="G3" s="469" t="s">
         <v>361</v>
       </c>
-      <c r="H3" s="435"/>
-      <c r="I3" s="435"/>
-      <c r="J3" s="435"/>
-      <c r="K3" s="435"/>
-      <c r="L3" s="435"/>
-      <c r="M3" s="435" t="s">
+      <c r="H3" s="469"/>
+      <c r="I3" s="469"/>
+      <c r="J3" s="469"/>
+      <c r="K3" s="469"/>
+      <c r="L3" s="469"/>
+      <c r="M3" s="469" t="s">
         <v>362</v>
       </c>
-      <c r="N3" s="435"/>
+      <c r="N3" s="469"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
@@ -26155,7 +26170,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="124"/>
       <c r="D4" s="125"/>
-      <c r="E4" s="436" t="s">
+      <c r="E4" s="474" t="s">
         <v>363</v>
       </c>
       <c r="F4" s="120"/>
@@ -26183,22 +26198,22 @@
         <v>81</v>
       </c>
       <c r="D5" s="127"/>
-      <c r="E5" s="356"/>
-      <c r="F5" s="385" t="s">
+      <c r="E5" s="394"/>
+      <c r="F5" s="405" t="s">
         <v>435</v>
       </c>
-      <c r="G5" s="386"/>
-      <c r="H5" s="387"/>
-      <c r="I5" s="517" t="s">
+      <c r="G5" s="406"/>
+      <c r="H5" s="407"/>
+      <c r="I5" s="500" t="s">
         <v>436</v>
       </c>
-      <c r="J5" s="518"/>
-      <c r="K5" s="518"/>
-      <c r="L5" s="443"/>
-      <c r="M5" s="517" t="s">
+      <c r="J5" s="501"/>
+      <c r="K5" s="501"/>
+      <c r="L5" s="481"/>
+      <c r="M5" s="500" t="s">
         <v>437</v>
       </c>
-      <c r="N5" s="443"/>
+      <c r="N5" s="481"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -26209,16 +26224,16 @@
       <c r="B6" s="4"/>
       <c r="C6" s="128"/>
       <c r="D6" s="129"/>
-      <c r="E6" s="356"/>
-      <c r="F6" s="388"/>
-      <c r="G6" s="389"/>
-      <c r="H6" s="390"/>
-      <c r="I6" s="354"/>
-      <c r="J6" s="352"/>
-      <c r="K6" s="352"/>
-      <c r="L6" s="444"/>
-      <c r="M6" s="354"/>
-      <c r="N6" s="444"/>
+      <c r="E6" s="394"/>
+      <c r="F6" s="408"/>
+      <c r="G6" s="409"/>
+      <c r="H6" s="410"/>
+      <c r="I6" s="374"/>
+      <c r="J6" s="372"/>
+      <c r="K6" s="372"/>
+      <c r="L6" s="482"/>
+      <c r="M6" s="374"/>
+      <c r="N6" s="482"/>
       <c r="O6" s="5"/>
       <c r="P6" s="33" t="s">
         <v>82</v>
@@ -26235,16 +26250,16 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="356"/>
-      <c r="F7" s="388"/>
-      <c r="G7" s="389"/>
-      <c r="H7" s="390"/>
-      <c r="I7" s="354"/>
-      <c r="J7" s="352"/>
-      <c r="K7" s="352"/>
-      <c r="L7" s="444"/>
-      <c r="M7" s="354"/>
-      <c r="N7" s="444"/>
+      <c r="E7" s="394"/>
+      <c r="F7" s="408"/>
+      <c r="G7" s="409"/>
+      <c r="H7" s="410"/>
+      <c r="I7" s="374"/>
+      <c r="J7" s="372"/>
+      <c r="K7" s="372"/>
+      <c r="L7" s="482"/>
+      <c r="M7" s="374"/>
+      <c r="N7" s="482"/>
       <c r="O7" s="5" t="s">
         <v>2</v>
       </c>
@@ -26263,16 +26278,16 @@
       <c r="B8" s="4"/>
       <c r="C8" s="1"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="356"/>
-      <c r="F8" s="388"/>
-      <c r="G8" s="389"/>
-      <c r="H8" s="390"/>
-      <c r="I8" s="354"/>
-      <c r="J8" s="352"/>
-      <c r="K8" s="352"/>
-      <c r="L8" s="444"/>
-      <c r="M8" s="354"/>
-      <c r="N8" s="444"/>
+      <c r="E8" s="394"/>
+      <c r="F8" s="408"/>
+      <c r="G8" s="409"/>
+      <c r="H8" s="410"/>
+      <c r="I8" s="374"/>
+      <c r="J8" s="372"/>
+      <c r="K8" s="372"/>
+      <c r="L8" s="482"/>
+      <c r="M8" s="374"/>
+      <c r="N8" s="482"/>
       <c r="O8" s="5" t="s">
         <v>87</v>
       </c>
@@ -26293,16 +26308,16 @@
         <v>90</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="356"/>
-      <c r="F9" s="388"/>
-      <c r="G9" s="389"/>
-      <c r="H9" s="390"/>
-      <c r="I9" s="354"/>
-      <c r="J9" s="352"/>
-      <c r="K9" s="352"/>
-      <c r="L9" s="444"/>
-      <c r="M9" s="354"/>
-      <c r="N9" s="444"/>
+      <c r="E9" s="394"/>
+      <c r="F9" s="408"/>
+      <c r="G9" s="409"/>
+      <c r="H9" s="410"/>
+      <c r="I9" s="374"/>
+      <c r="J9" s="372"/>
+      <c r="K9" s="372"/>
+      <c r="L9" s="482"/>
+      <c r="M9" s="374"/>
+      <c r="N9" s="482"/>
       <c r="O9" s="5">
         <v>1000</v>
       </c>
@@ -26319,16 +26334,16 @@
         <v>379</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="356"/>
-      <c r="F10" s="388"/>
-      <c r="G10" s="389"/>
-      <c r="H10" s="390"/>
-      <c r="I10" s="354"/>
-      <c r="J10" s="352"/>
-      <c r="K10" s="352"/>
-      <c r="L10" s="444"/>
-      <c r="M10" s="354"/>
-      <c r="N10" s="444"/>
+      <c r="E10" s="394"/>
+      <c r="F10" s="408"/>
+      <c r="G10" s="409"/>
+      <c r="H10" s="410"/>
+      <c r="I10" s="374"/>
+      <c r="J10" s="372"/>
+      <c r="K10" s="372"/>
+      <c r="L10" s="482"/>
+      <c r="M10" s="374"/>
+      <c r="N10" s="482"/>
       <c r="O10" s="5" t="s">
         <v>2</v>
       </c>
@@ -26341,16 +26356,16 @@
       <c r="B11" s="4"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="356"/>
-      <c r="F11" s="388"/>
-      <c r="G11" s="389"/>
-      <c r="H11" s="390"/>
-      <c r="I11" s="354"/>
-      <c r="J11" s="352"/>
-      <c r="K11" s="352"/>
-      <c r="L11" s="444"/>
-      <c r="M11" s="354"/>
-      <c r="N11" s="444"/>
+      <c r="E11" s="394"/>
+      <c r="F11" s="408"/>
+      <c r="G11" s="409"/>
+      <c r="H11" s="410"/>
+      <c r="I11" s="374"/>
+      <c r="J11" s="372"/>
+      <c r="K11" s="372"/>
+      <c r="L11" s="482"/>
+      <c r="M11" s="374"/>
+      <c r="N11" s="482"/>
       <c r="O11" s="5"/>
       <c r="P11" s="33"/>
       <c r="Q11" s="33"/>
@@ -26361,16 +26376,16 @@
       <c r="B12" s="4"/>
       <c r="C12" s="1"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="356"/>
-      <c r="F12" s="388"/>
-      <c r="G12" s="389"/>
-      <c r="H12" s="390"/>
-      <c r="I12" s="354"/>
-      <c r="J12" s="352"/>
-      <c r="K12" s="352"/>
-      <c r="L12" s="444"/>
-      <c r="M12" s="354"/>
-      <c r="N12" s="444"/>
+      <c r="E12" s="394"/>
+      <c r="F12" s="408"/>
+      <c r="G12" s="409"/>
+      <c r="H12" s="410"/>
+      <c r="I12" s="374"/>
+      <c r="J12" s="372"/>
+      <c r="K12" s="372"/>
+      <c r="L12" s="482"/>
+      <c r="M12" s="374"/>
+      <c r="N12" s="482"/>
       <c r="O12" s="5"/>
       <c r="P12" s="33"/>
       <c r="Q12" s="33"/>
@@ -26383,16 +26398,16 @@
         <v>92</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="356"/>
-      <c r="F13" s="388"/>
-      <c r="G13" s="389"/>
-      <c r="H13" s="390"/>
-      <c r="I13" s="354"/>
-      <c r="J13" s="352"/>
-      <c r="K13" s="352"/>
-      <c r="L13" s="444"/>
-      <c r="M13" s="354"/>
-      <c r="N13" s="444"/>
+      <c r="E13" s="394"/>
+      <c r="F13" s="408"/>
+      <c r="G13" s="409"/>
+      <c r="H13" s="410"/>
+      <c r="I13" s="374"/>
+      <c r="J13" s="372"/>
+      <c r="K13" s="372"/>
+      <c r="L13" s="482"/>
+      <c r="M13" s="374"/>
+      <c r="N13" s="482"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
@@ -26403,16 +26418,16 @@
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="356"/>
-      <c r="F14" s="388"/>
-      <c r="G14" s="389"/>
-      <c r="H14" s="390"/>
-      <c r="I14" s="354"/>
-      <c r="J14" s="352"/>
-      <c r="K14" s="352"/>
-      <c r="L14" s="444"/>
-      <c r="M14" s="354"/>
-      <c r="N14" s="444"/>
+      <c r="E14" s="394"/>
+      <c r="F14" s="408"/>
+      <c r="G14" s="409"/>
+      <c r="H14" s="410"/>
+      <c r="I14" s="374"/>
+      <c r="J14" s="372"/>
+      <c r="K14" s="372"/>
+      <c r="L14" s="482"/>
+      <c r="M14" s="374"/>
+      <c r="N14" s="482"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
@@ -26423,16 +26438,16 @@
       <c r="B15" s="4"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="356"/>
-      <c r="F15" s="388"/>
-      <c r="G15" s="389"/>
-      <c r="H15" s="390"/>
-      <c r="I15" s="354"/>
-      <c r="J15" s="352"/>
-      <c r="K15" s="352"/>
-      <c r="L15" s="444"/>
-      <c r="M15" s="354"/>
-      <c r="N15" s="444"/>
+      <c r="E15" s="394"/>
+      <c r="F15" s="408"/>
+      <c r="G15" s="409"/>
+      <c r="H15" s="410"/>
+      <c r="I15" s="374"/>
+      <c r="J15" s="372"/>
+      <c r="K15" s="372"/>
+      <c r="L15" s="482"/>
+      <c r="M15" s="374"/>
+      <c r="N15" s="482"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
@@ -26443,16 +26458,16 @@
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="356"/>
-      <c r="F16" s="388"/>
-      <c r="G16" s="389"/>
-      <c r="H16" s="390"/>
-      <c r="I16" s="354"/>
-      <c r="J16" s="352"/>
-      <c r="K16" s="352"/>
-      <c r="L16" s="444"/>
-      <c r="M16" s="354"/>
-      <c r="N16" s="444"/>
+      <c r="E16" s="394"/>
+      <c r="F16" s="408"/>
+      <c r="G16" s="409"/>
+      <c r="H16" s="410"/>
+      <c r="I16" s="374"/>
+      <c r="J16" s="372"/>
+      <c r="K16" s="372"/>
+      <c r="L16" s="482"/>
+      <c r="M16" s="374"/>
+      <c r="N16" s="482"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
@@ -26465,16 +26480,16 @@
         <v>93</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="356"/>
-      <c r="F17" s="388"/>
-      <c r="G17" s="389"/>
-      <c r="H17" s="390"/>
-      <c r="I17" s="354"/>
-      <c r="J17" s="352"/>
-      <c r="K17" s="352"/>
-      <c r="L17" s="444"/>
-      <c r="M17" s="354"/>
-      <c r="N17" s="444"/>
+      <c r="E17" s="394"/>
+      <c r="F17" s="408"/>
+      <c r="G17" s="409"/>
+      <c r="H17" s="410"/>
+      <c r="I17" s="374"/>
+      <c r="J17" s="372"/>
+      <c r="K17" s="372"/>
+      <c r="L17" s="482"/>
+      <c r="M17" s="374"/>
+      <c r="N17" s="482"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
@@ -26485,16 +26500,16 @@
       <c r="B18" s="4"/>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="357"/>
-      <c r="F18" s="391"/>
-      <c r="G18" s="392"/>
-      <c r="H18" s="393"/>
-      <c r="I18" s="445"/>
-      <c r="J18" s="519"/>
-      <c r="K18" s="519"/>
-      <c r="L18" s="446"/>
-      <c r="M18" s="445"/>
-      <c r="N18" s="446"/>
+      <c r="E18" s="395"/>
+      <c r="F18" s="411"/>
+      <c r="G18" s="412"/>
+      <c r="H18" s="413"/>
+      <c r="I18" s="483"/>
+      <c r="J18" s="502"/>
+      <c r="K18" s="502"/>
+      <c r="L18" s="484"/>
+      <c r="M18" s="483"/>
+      <c r="N18" s="484"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
@@ -26523,26 +26538,26 @@
     </row>
     <row r="20" spans="2:19" ht="15.75" thickBot="1">
       <c r="B20" s="4"/>
-      <c r="C20" s="380" t="s">
+      <c r="C20" s="375" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="381"/>
+      <c r="D20" s="376"/>
       <c r="E20" s="119" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="380" t="s">
+      <c r="F20" s="375" t="s">
         <v>96</v>
       </c>
-      <c r="G20" s="382"/>
-      <c r="H20" s="382"/>
-      <c r="I20" s="382"/>
-      <c r="J20" s="382"/>
-      <c r="K20" s="382"/>
-      <c r="L20" s="381"/>
-      <c r="M20" s="380" t="s">
+      <c r="G20" s="390"/>
+      <c r="H20" s="390"/>
+      <c r="I20" s="390"/>
+      <c r="J20" s="390"/>
+      <c r="K20" s="390"/>
+      <c r="L20" s="376"/>
+      <c r="M20" s="375" t="s">
         <v>370</v>
       </c>
-      <c r="N20" s="381"/>
+      <c r="N20" s="376"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
@@ -26570,39 +26585,39 @@
       <c r="S21" s="9"/>
     </row>
     <row r="24" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B24" s="456" t="s">
+      <c r="B24" s="468" t="s">
         <v>397</v>
       </c>
-      <c r="C24" s="456"/>
-      <c r="D24" s="454"/>
-      <c r="E24" s="454"/>
-      <c r="F24" s="454"/>
-      <c r="G24" s="454"/>
-      <c r="H24" s="454"/>
-      <c r="I24" s="454"/>
-      <c r="J24" s="454"/>
-      <c r="K24" s="454"/>
-      <c r="M24" s="480" t="s">
+      <c r="C24" s="468"/>
+      <c r="D24" s="466"/>
+      <c r="E24" s="466"/>
+      <c r="F24" s="466"/>
+      <c r="G24" s="466"/>
+      <c r="H24" s="466"/>
+      <c r="I24" s="466"/>
+      <c r="J24" s="466"/>
+      <c r="K24" s="466"/>
+      <c r="M24" s="529" t="s">
         <v>79</v>
       </c>
-      <c r="N24" s="480"/>
-      <c r="O24" s="480"/>
+      <c r="N24" s="529"/>
+      <c r="O24" s="529"/>
     </row>
     <row r="25" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B25" s="481" t="s">
+      <c r="B25" s="530" t="s">
         <v>700</v>
       </c>
-      <c r="C25" s="422"/>
-      <c r="D25" s="369" t="s">
+      <c r="C25" s="444"/>
+      <c r="D25" s="378" t="s">
         <v>78</v>
       </c>
-      <c r="E25" s="369"/>
-      <c r="F25" s="369"/>
-      <c r="G25" s="369"/>
-      <c r="H25" s="369"/>
-      <c r="I25" s="369"/>
-      <c r="J25" s="369"/>
-      <c r="K25" s="370"/>
+      <c r="E25" s="378"/>
+      <c r="F25" s="378"/>
+      <c r="G25" s="378"/>
+      <c r="H25" s="378"/>
+      <c r="I25" s="378"/>
+      <c r="J25" s="378"/>
+      <c r="K25" s="379"/>
       <c r="M25" s="33" t="s">
         <v>82</v>
       </c>
@@ -26614,22 +26629,22 @@
       </c>
     </row>
     <row r="26" spans="2:19">
-      <c r="B26" s="423"/>
-      <c r="C26" s="424"/>
-      <c r="D26" s="494" t="s">
+      <c r="B26" s="445"/>
+      <c r="C26" s="446"/>
+      <c r="D26" s="503" t="s">
         <v>693</v>
       </c>
-      <c r="E26" s="495"/>
-      <c r="F26" s="512" t="s">
+      <c r="E26" s="504"/>
+      <c r="F26" s="522" t="s">
         <v>693</v>
       </c>
-      <c r="G26" s="513"/>
-      <c r="H26" s="514"/>
-      <c r="I26" s="516" t="s">
+      <c r="G26" s="523"/>
+      <c r="H26" s="524"/>
+      <c r="I26" s="527" t="s">
         <v>1506</v>
       </c>
-      <c r="J26" s="513"/>
-      <c r="K26" s="514"/>
+      <c r="J26" s="523"/>
+      <c r="K26" s="524"/>
       <c r="L26" s="5" t="s">
         <v>2</v>
       </c>
@@ -26644,22 +26659,22 @@
       </c>
     </row>
     <row r="27" spans="2:19">
-      <c r="B27" s="423"/>
-      <c r="C27" s="424"/>
-      <c r="D27" s="492" t="s">
+      <c r="B27" s="445"/>
+      <c r="C27" s="446"/>
+      <c r="D27" s="505" t="s">
         <v>698</v>
       </c>
-      <c r="E27" s="496"/>
-      <c r="F27" s="515" t="s">
+      <c r="E27" s="506"/>
+      <c r="F27" s="525" t="s">
         <v>694</v>
       </c>
-      <c r="G27" s="492"/>
-      <c r="H27" s="493"/>
-      <c r="I27" s="491" t="s">
+      <c r="G27" s="505"/>
+      <c r="H27" s="526"/>
+      <c r="I27" s="528" t="s">
         <v>1507</v>
       </c>
-      <c r="J27" s="492"/>
-      <c r="K27" s="493"/>
+      <c r="J27" s="505"/>
+      <c r="K27" s="526"/>
       <c r="L27" s="5" t="s">
         <v>2</v>
       </c>
@@ -26674,22 +26689,22 @@
       </c>
     </row>
     <row r="28" spans="2:19">
-      <c r="B28" s="423"/>
-      <c r="C28" s="424"/>
-      <c r="D28" s="492" t="s">
+      <c r="B28" s="445"/>
+      <c r="C28" s="446"/>
+      <c r="D28" s="505" t="s">
         <v>695</v>
       </c>
-      <c r="E28" s="496"/>
-      <c r="F28" s="515" t="s">
+      <c r="E28" s="506"/>
+      <c r="F28" s="525" t="s">
         <v>695</v>
       </c>
-      <c r="G28" s="492"/>
-      <c r="H28" s="493"/>
-      <c r="I28" s="491" t="s">
+      <c r="G28" s="505"/>
+      <c r="H28" s="526"/>
+      <c r="I28" s="528" t="s">
         <v>1508</v>
       </c>
-      <c r="J28" s="492"/>
-      <c r="K28" s="493"/>
+      <c r="J28" s="505"/>
+      <c r="K28" s="526"/>
       <c r="L28" s="5" t="s">
         <v>2</v>
       </c>
@@ -26698,22 +26713,22 @@
       <c r="O28" s="33"/>
     </row>
     <row r="29" spans="2:19">
-      <c r="B29" s="425"/>
-      <c r="C29" s="426"/>
-      <c r="D29" s="492" t="s">
+      <c r="B29" s="447"/>
+      <c r="C29" s="448"/>
+      <c r="D29" s="505" t="s">
         <v>696</v>
       </c>
-      <c r="E29" s="496"/>
-      <c r="F29" s="515" t="s">
+      <c r="E29" s="506"/>
+      <c r="F29" s="525" t="s">
         <v>696</v>
       </c>
-      <c r="G29" s="492"/>
-      <c r="H29" s="493"/>
-      <c r="I29" s="491" t="s">
+      <c r="G29" s="505"/>
+      <c r="H29" s="526"/>
+      <c r="I29" s="528" t="s">
         <v>1509</v>
       </c>
-      <c r="J29" s="492"/>
-      <c r="K29" s="493"/>
+      <c r="J29" s="505"/>
+      <c r="K29" s="526"/>
       <c r="L29" s="24" t="s">
         <v>2</v>
       </c>
@@ -26722,149 +26737,149 @@
       <c r="O29" s="33"/>
     </row>
     <row r="30" spans="2:19">
-      <c r="B30" s="371" t="s">
+      <c r="B30" s="380" t="s">
         <v>699</v>
       </c>
-      <c r="C30" s="373"/>
-      <c r="D30" s="497" t="s">
+      <c r="C30" s="382"/>
+      <c r="D30" s="507" t="s">
         <v>398</v>
       </c>
-      <c r="E30" s="498"/>
-      <c r="F30" s="503" t="s">
+      <c r="E30" s="508"/>
+      <c r="F30" s="513" t="s">
         <v>399</v>
       </c>
-      <c r="G30" s="504"/>
-      <c r="H30" s="498"/>
-      <c r="I30" s="503" t="s">
+      <c r="G30" s="514"/>
+      <c r="H30" s="508"/>
+      <c r="I30" s="513" t="s">
         <v>400</v>
       </c>
-      <c r="J30" s="504"/>
-      <c r="K30" s="509"/>
+      <c r="J30" s="514"/>
+      <c r="K30" s="519"/>
       <c r="L30" s="5"/>
       <c r="M30" s="33"/>
       <c r="N30" s="33"/>
       <c r="O30" s="33"/>
     </row>
     <row r="31" spans="2:19">
-      <c r="B31" s="375"/>
-      <c r="C31" s="360"/>
-      <c r="D31" s="499"/>
-      <c r="E31" s="500"/>
-      <c r="F31" s="505"/>
-      <c r="G31" s="506"/>
-      <c r="H31" s="500"/>
-      <c r="I31" s="505"/>
-      <c r="J31" s="506"/>
-      <c r="K31" s="510"/>
+      <c r="B31" s="384"/>
+      <c r="C31" s="385"/>
+      <c r="D31" s="509"/>
+      <c r="E31" s="510"/>
+      <c r="F31" s="515"/>
+      <c r="G31" s="516"/>
+      <c r="H31" s="510"/>
+      <c r="I31" s="515"/>
+      <c r="J31" s="516"/>
+      <c r="K31" s="520"/>
       <c r="L31" s="5"/>
       <c r="M31" s="33"/>
       <c r="N31" s="33"/>
       <c r="O31" s="33"/>
     </row>
     <row r="32" spans="2:19">
-      <c r="B32" s="375"/>
-      <c r="C32" s="360"/>
-      <c r="D32" s="499"/>
-      <c r="E32" s="500"/>
-      <c r="F32" s="505"/>
-      <c r="G32" s="506"/>
-      <c r="H32" s="500"/>
-      <c r="I32" s="505"/>
-      <c r="J32" s="506"/>
-      <c r="K32" s="510"/>
+      <c r="B32" s="384"/>
+      <c r="C32" s="385"/>
+      <c r="D32" s="509"/>
+      <c r="E32" s="510"/>
+      <c r="F32" s="515"/>
+      <c r="G32" s="516"/>
+      <c r="H32" s="510"/>
+      <c r="I32" s="515"/>
+      <c r="J32" s="516"/>
+      <c r="K32" s="520"/>
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="375"/>
-      <c r="C33" s="360"/>
-      <c r="D33" s="501"/>
-      <c r="E33" s="502"/>
-      <c r="F33" s="507"/>
-      <c r="G33" s="508"/>
-      <c r="H33" s="502"/>
-      <c r="I33" s="507"/>
-      <c r="J33" s="508"/>
-      <c r="K33" s="511"/>
+      <c r="B33" s="384"/>
+      <c r="C33" s="385"/>
+      <c r="D33" s="511"/>
+      <c r="E33" s="512"/>
+      <c r="F33" s="517"/>
+      <c r="G33" s="518"/>
+      <c r="H33" s="512"/>
+      <c r="I33" s="517"/>
+      <c r="J33" s="518"/>
+      <c r="K33" s="521"/>
     </row>
     <row r="34" spans="2:14">
-      <c r="B34" s="375"/>
-      <c r="C34" s="376"/>
-      <c r="D34" s="482" t="s">
+      <c r="B34" s="384"/>
+      <c r="C34" s="386"/>
+      <c r="D34" s="531" t="s">
         <v>686</v>
       </c>
-      <c r="E34" s="483"/>
-      <c r="F34" s="482" t="s">
+      <c r="E34" s="532"/>
+      <c r="F34" s="531" t="s">
         <v>411</v>
       </c>
-      <c r="G34" s="488"/>
-      <c r="H34" s="483"/>
-      <c r="I34" s="482" t="s">
+      <c r="G34" s="537"/>
+      <c r="H34" s="532"/>
+      <c r="I34" s="531" t="s">
         <v>701</v>
       </c>
-      <c r="J34" s="488"/>
-      <c r="K34" s="483"/>
+      <c r="J34" s="537"/>
+      <c r="K34" s="532"/>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35" s="375"/>
-      <c r="C35" s="376"/>
-      <c r="D35" s="484"/>
-      <c r="E35" s="485"/>
-      <c r="F35" s="484"/>
-      <c r="G35" s="489"/>
-      <c r="H35" s="485"/>
-      <c r="I35" s="484"/>
-      <c r="J35" s="489"/>
-      <c r="K35" s="485"/>
+      <c r="B35" s="384"/>
+      <c r="C35" s="386"/>
+      <c r="D35" s="533"/>
+      <c r="E35" s="534"/>
+      <c r="F35" s="533"/>
+      <c r="G35" s="538"/>
+      <c r="H35" s="534"/>
+      <c r="I35" s="533"/>
+      <c r="J35" s="538"/>
+      <c r="K35" s="534"/>
     </row>
     <row r="36" spans="2:14">
-      <c r="B36" s="375"/>
-      <c r="C36" s="376"/>
-      <c r="D36" s="484"/>
-      <c r="E36" s="485"/>
-      <c r="F36" s="484"/>
-      <c r="G36" s="489"/>
-      <c r="H36" s="485"/>
-      <c r="I36" s="484"/>
-      <c r="J36" s="489"/>
-      <c r="K36" s="485"/>
+      <c r="B36" s="384"/>
+      <c r="C36" s="386"/>
+      <c r="D36" s="533"/>
+      <c r="E36" s="534"/>
+      <c r="F36" s="533"/>
+      <c r="G36" s="538"/>
+      <c r="H36" s="534"/>
+      <c r="I36" s="533"/>
+      <c r="J36" s="538"/>
+      <c r="K36" s="534"/>
     </row>
     <row r="37" spans="2:14">
-      <c r="B37" s="375"/>
-      <c r="C37" s="376"/>
-      <c r="D37" s="484"/>
-      <c r="E37" s="485"/>
-      <c r="F37" s="484"/>
-      <c r="G37" s="489"/>
-      <c r="H37" s="485"/>
-      <c r="I37" s="484"/>
-      <c r="J37" s="489"/>
-      <c r="K37" s="485"/>
+      <c r="B37" s="384"/>
+      <c r="C37" s="386"/>
+      <c r="D37" s="533"/>
+      <c r="E37" s="534"/>
+      <c r="F37" s="533"/>
+      <c r="G37" s="538"/>
+      <c r="H37" s="534"/>
+      <c r="I37" s="533"/>
+      <c r="J37" s="538"/>
+      <c r="K37" s="534"/>
     </row>
     <row r="38" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B38" s="375"/>
-      <c r="C38" s="376"/>
-      <c r="D38" s="486"/>
-      <c r="E38" s="487"/>
-      <c r="F38" s="486"/>
-      <c r="G38" s="490"/>
-      <c r="H38" s="487"/>
-      <c r="I38" s="486"/>
-      <c r="J38" s="490"/>
-      <c r="K38" s="487"/>
+      <c r="B38" s="384"/>
+      <c r="C38" s="386"/>
+      <c r="D38" s="535"/>
+      <c r="E38" s="536"/>
+      <c r="F38" s="535"/>
+      <c r="G38" s="539"/>
+      <c r="H38" s="536"/>
+      <c r="I38" s="535"/>
+      <c r="J38" s="539"/>
+      <c r="K38" s="536"/>
     </row>
     <row r="39" spans="2:14" ht="19.5" thickBot="1">
-      <c r="B39" s="377"/>
-      <c r="C39" s="379"/>
-      <c r="D39" s="464" t="s">
+      <c r="B39" s="387"/>
+      <c r="C39" s="389"/>
+      <c r="D39" s="455" t="s">
         <v>401</v>
       </c>
-      <c r="E39" s="465"/>
-      <c r="F39" s="465"/>
-      <c r="G39" s="465"/>
-      <c r="H39" s="465"/>
-      <c r="I39" s="465"/>
-      <c r="J39" s="465"/>
-      <c r="K39" s="466"/>
+      <c r="E39" s="456"/>
+      <c r="F39" s="456"/>
+      <c r="G39" s="456"/>
+      <c r="H39" s="456"/>
+      <c r="I39" s="456"/>
+      <c r="J39" s="456"/>
+      <c r="K39" s="457"/>
       <c r="L39" s="35" t="s">
         <v>402</v>
       </c>
@@ -26882,35 +26897,36 @@
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B41" s="380" t="s">
+      <c r="B41" s="375" t="s">
         <v>94</v>
       </c>
-      <c r="C41" s="381"/>
-      <c r="D41" s="380" t="s">
+      <c r="C41" s="376"/>
+      <c r="D41" s="375" t="s">
         <v>95</v>
       </c>
-      <c r="E41" s="381"/>
-      <c r="F41" s="380" t="s">
+      <c r="E41" s="376"/>
+      <c r="F41" s="375" t="s">
         <v>96</v>
       </c>
-      <c r="G41" s="382"/>
-      <c r="H41" s="382"/>
-      <c r="I41" s="382"/>
-      <c r="J41" s="382"/>
-      <c r="K41" s="381"/>
+      <c r="G41" s="390"/>
+      <c r="H41" s="390"/>
+      <c r="I41" s="390"/>
+      <c r="J41" s="390"/>
+      <c r="K41" s="376"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="E4:E18"/>
-    <mergeCell ref="M5:N18"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="F5:H18"/>
-    <mergeCell ref="I5:L18"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="B30:C39"/>
+    <mergeCell ref="B25:C29"/>
+    <mergeCell ref="D34:E38"/>
+    <mergeCell ref="F34:H38"/>
+    <mergeCell ref="I34:K38"/>
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="F41:K41"/>
@@ -26927,17 +26943,16 @@
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="I26:K26"/>
     <mergeCell ref="I27:K27"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="B30:C39"/>
-    <mergeCell ref="B25:C29"/>
-    <mergeCell ref="D34:E38"/>
-    <mergeCell ref="F34:H38"/>
-    <mergeCell ref="I34:K38"/>
-    <mergeCell ref="D39:K39"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="F5:H18"/>
+    <mergeCell ref="I5:L18"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="E4:E18"/>
+    <mergeCell ref="M5:N18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="R7" r:id="rId1"/>
@@ -27230,13 +27245,13 @@
       <c r="Q4" s="6"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A5" s="349" t="s">
+      <c r="A5" s="369" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="350"/>
-      <c r="C5" s="350"/>
-      <c r="D5" s="350"/>
-      <c r="E5" s="351"/>
+      <c r="B5" s="370"/>
+      <c r="C5" s="370"/>
+      <c r="D5" s="370"/>
+      <c r="E5" s="371"/>
       <c r="J5" s="4"/>
       <c r="K5" s="1" t="s">
         <v>54</v>
@@ -27859,7 +27874,7 @@
       <c r="K3" s="59"/>
       <c r="L3" s="59"/>
       <c r="M3" s="60"/>
-      <c r="N3" s="354" t="s">
+      <c r="N3" s="374" t="s">
         <v>71</v>
       </c>
     </row>
@@ -27877,7 +27892,7 @@
       <c r="K4" s="335"/>
       <c r="L4" s="335"/>
       <c r="M4" s="322"/>
-      <c r="N4" s="354"/>
+      <c r="N4" s="374"/>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="24" t="s">
@@ -27896,7 +27911,7 @@
       <c r="K5" s="339"/>
       <c r="L5" s="339"/>
       <c r="M5" s="340"/>
-      <c r="N5" s="354" t="s">
+      <c r="N5" s="374" t="s">
         <v>72</v>
       </c>
     </row>
@@ -27914,7 +27929,7 @@
       <c r="K6" s="44"/>
       <c r="L6" s="44"/>
       <c r="M6" s="54"/>
-      <c r="N6" s="354"/>
+      <c r="N6" s="374"/>
     </row>
     <row r="7" spans="2:14">
       <c r="C7" s="332">
@@ -27934,7 +27949,7 @@
       <c r="K7" s="44"/>
       <c r="L7" s="44"/>
       <c r="M7" s="54"/>
-      <c r="N7" s="354"/>
+      <c r="N7" s="374"/>
     </row>
     <row r="8" spans="2:14">
       <c r="C8" s="332">
@@ -27950,7 +27965,7 @@
       <c r="K8" s="44"/>
       <c r="L8" s="44"/>
       <c r="M8" s="54"/>
-      <c r="N8" s="354"/>
+      <c r="N8" s="374"/>
     </row>
     <row r="9" spans="2:14">
       <c r="C9" s="332">
@@ -27966,7 +27981,7 @@
       <c r="K9" s="44"/>
       <c r="L9" s="44"/>
       <c r="M9" s="54"/>
-      <c r="N9" s="354"/>
+      <c r="N9" s="374"/>
     </row>
     <row r="10" spans="2:14">
       <c r="C10" s="332">
@@ -27982,7 +27997,7 @@
       <c r="K10" s="44"/>
       <c r="L10" s="44"/>
       <c r="M10" s="54"/>
-      <c r="N10" s="354"/>
+      <c r="N10" s="374"/>
     </row>
     <row r="11" spans="2:14" ht="15.75" thickBot="1">
       <c r="C11" s="332">
@@ -27998,7 +28013,7 @@
       <c r="K11" s="193"/>
       <c r="L11" s="193"/>
       <c r="M11" s="195"/>
-      <c r="N11" s="354"/>
+      <c r="N11" s="374"/>
     </row>
     <row r="12" spans="2:14" ht="15.75" thickBot="1">
       <c r="C12" s="332">
@@ -28317,79 +28332,79 @@
       </c>
     </row>
     <row r="134" spans="3:3">
-      <c r="C134" s="352"/>
+      <c r="C134" s="372"/>
     </row>
     <row r="135" spans="3:3">
-      <c r="C135" s="352"/>
+      <c r="C135" s="372"/>
     </row>
     <row r="136" spans="3:3">
-      <c r="C136" s="352"/>
+      <c r="C136" s="372"/>
     </row>
     <row r="137" spans="3:3">
-      <c r="C137" s="352"/>
+      <c r="C137" s="372"/>
     </row>
     <row r="138" spans="3:3">
-      <c r="C138" s="352"/>
+      <c r="C138" s="372"/>
     </row>
     <row r="139" spans="3:3">
-      <c r="C139" s="352"/>
+      <c r="C139" s="372"/>
     </row>
     <row r="140" spans="3:3">
-      <c r="C140" s="352"/>
+      <c r="C140" s="372"/>
     </row>
     <row r="141" spans="3:3">
-      <c r="C141" s="352"/>
+      <c r="C141" s="372"/>
     </row>
     <row r="142" spans="3:3">
-      <c r="C142" s="352"/>
+      <c r="C142" s="372"/>
     </row>
     <row r="147" spans="4:4">
-      <c r="D147" s="353"/>
+      <c r="D147" s="373"/>
     </row>
     <row r="148" spans="4:4">
-      <c r="D148" s="352"/>
+      <c r="D148" s="372"/>
     </row>
     <row r="149" spans="4:4">
-      <c r="D149" s="352"/>
+      <c r="D149" s="372"/>
     </row>
     <row r="150" spans="4:4">
-      <c r="D150" s="352"/>
+      <c r="D150" s="372"/>
     </row>
     <row r="151" spans="4:4">
-      <c r="D151" s="352"/>
+      <c r="D151" s="372"/>
     </row>
     <row r="152" spans="4:4">
-      <c r="D152" s="352"/>
+      <c r="D152" s="372"/>
     </row>
     <row r="153" spans="4:4">
-      <c r="D153" s="352"/>
+      <c r="D153" s="372"/>
     </row>
     <row r="182" spans="14:14">
-      <c r="N182" s="352"/>
+      <c r="N182" s="372"/>
     </row>
     <row r="183" spans="14:14">
-      <c r="N183" s="352"/>
+      <c r="N183" s="372"/>
     </row>
     <row r="184" spans="14:14">
-      <c r="N184" s="352"/>
+      <c r="N184" s="372"/>
     </row>
     <row r="185" spans="14:14">
-      <c r="N185" s="352"/>
+      <c r="N185" s="372"/>
     </row>
     <row r="186" spans="14:14">
-      <c r="N186" s="352"/>
+      <c r="N186" s="372"/>
     </row>
     <row r="187" spans="14:14">
-      <c r="N187" s="352"/>
+      <c r="N187" s="372"/>
     </row>
     <row r="188" spans="14:14">
-      <c r="N188" s="352"/>
+      <c r="N188" s="372"/>
     </row>
     <row r="189" spans="14:14">
-      <c r="N189" s="352"/>
+      <c r="N189" s="372"/>
     </row>
     <row r="190" spans="14:14">
-      <c r="N190" s="352"/>
+      <c r="N190" s="372"/>
     </row>
     <row r="199" spans="3:3">
       <c r="C199" s="333"/>
@@ -28502,10 +28517,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V165"/>
+  <dimension ref="A1:V168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A161" sqref="A161:G165"/>
+    <sheetView tabSelected="1" topLeftCell="B140" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G150" sqref="G150:P150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28561,14 +28576,14 @@
       <c r="H4" s="4"/>
       <c r="I4" s="1"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="368" t="s">
+      <c r="K4" s="377" t="s">
         <v>78</v>
       </c>
-      <c r="L4" s="369"/>
-      <c r="M4" s="369"/>
-      <c r="N4" s="369"/>
-      <c r="O4" s="369"/>
-      <c r="P4" s="370"/>
+      <c r="L4" s="378"/>
+      <c r="M4" s="378"/>
+      <c r="N4" s="378"/>
+      <c r="O4" s="378"/>
+      <c r="P4" s="379"/>
       <c r="Q4" s="106" t="s">
         <v>169</v>
       </c>
@@ -28700,10 +28715,10 @@
       <c r="L8" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="M8" s="383" t="s">
+      <c r="M8" s="391" t="s">
         <v>110</v>
       </c>
-      <c r="N8" s="384"/>
+      <c r="N8" s="392"/>
       <c r="O8" s="5" t="s">
         <v>18</v>
       </c>
@@ -28737,8 +28752,8 @@
       <c r="L9" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="M9" s="384"/>
-      <c r="N9" s="384"/>
+      <c r="M9" s="392"/>
+      <c r="N9" s="392"/>
       <c r="O9" s="5" t="s">
         <v>87</v>
       </c>
@@ -28778,8 +28793,8 @@
       <c r="L10" s="5" t="s">
         <v>915</v>
       </c>
-      <c r="M10" s="384"/>
-      <c r="N10" s="384"/>
+      <c r="M10" s="392"/>
+      <c r="N10" s="392"/>
       <c r="O10" s="5"/>
       <c r="P10" s="201" t="s">
         <v>271</v>
@@ -28792,13 +28807,13 @@
       <c r="T10" s="33"/>
     </row>
     <row r="11" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A11" s="371" t="s">
+      <c r="A11" s="380" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="372"/>
-      <c r="C11" s="373"/>
-      <c r="D11" s="373"/>
-      <c r="E11" s="374"/>
+      <c r="B11" s="381"/>
+      <c r="C11" s="382"/>
+      <c r="D11" s="382"/>
+      <c r="E11" s="383"/>
       <c r="F11" t="s">
         <v>1181</v>
       </c>
@@ -28807,8 +28822,8 @@
       <c r="J11" s="10"/>
       <c r="K11" s="4"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="384"/>
-      <c r="N11" s="384"/>
+      <c r="M11" s="392"/>
+      <c r="N11" s="392"/>
       <c r="O11" s="5"/>
       <c r="P11" s="201" t="s">
         <v>272</v>
@@ -28818,11 +28833,11 @@
       <c r="T11" s="33"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="375"/>
-      <c r="B12" s="360"/>
-      <c r="C12" s="360"/>
-      <c r="D12" s="360"/>
-      <c r="E12" s="376"/>
+      <c r="A12" s="384"/>
+      <c r="B12" s="385"/>
+      <c r="C12" s="385"/>
+      <c r="D12" s="385"/>
+      <c r="E12" s="386"/>
       <c r="F12" t="s">
         <v>721</v>
       </c>
@@ -28831,8 +28846,8 @@
       <c r="J12" s="2"/>
       <c r="K12" s="4"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="384"/>
-      <c r="N12" s="384"/>
+      <c r="M12" s="392"/>
+      <c r="N12" s="392"/>
       <c r="O12" s="5"/>
       <c r="P12" s="201" t="s">
         <v>1050</v>
@@ -28842,11 +28857,11 @@
       <c r="T12" s="33"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="375"/>
-      <c r="B13" s="360"/>
-      <c r="C13" s="360"/>
-      <c r="D13" s="360"/>
-      <c r="E13" s="376"/>
+      <c r="A13" s="384"/>
+      <c r="B13" s="385"/>
+      <c r="C13" s="385"/>
+      <c r="D13" s="385"/>
+      <c r="E13" s="386"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4" t="s">
         <v>92</v>
@@ -28854,8 +28869,8 @@
       <c r="J13" s="5"/>
       <c r="K13" s="4"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="384"/>
-      <c r="N13" s="384"/>
+      <c r="M13" s="392"/>
+      <c r="N13" s="392"/>
       <c r="O13" s="26"/>
       <c r="P13" s="201"/>
       <c r="S13" t="s">
@@ -28863,11 +28878,11 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A14" s="377"/>
-      <c r="B14" s="378"/>
-      <c r="C14" s="378"/>
-      <c r="D14" s="378"/>
-      <c r="E14" s="379"/>
+      <c r="A14" s="387"/>
+      <c r="B14" s="388"/>
+      <c r="C14" s="388"/>
+      <c r="D14" s="388"/>
+      <c r="E14" s="389"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
@@ -29043,20 +29058,20 @@
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="380" t="s">
+      <c r="I20" s="375" t="s">
         <v>94</v>
       </c>
-      <c r="J20" s="381"/>
-      <c r="K20" s="380" t="s">
+      <c r="J20" s="376"/>
+      <c r="K20" s="375" t="s">
         <v>95</v>
       </c>
-      <c r="L20" s="381"/>
-      <c r="M20" s="380" t="s">
+      <c r="L20" s="376"/>
+      <c r="M20" s="375" t="s">
         <v>1269</v>
       </c>
-      <c r="N20" s="382"/>
-      <c r="O20" s="382"/>
-      <c r="P20" s="381"/>
+      <c r="N20" s="390"/>
+      <c r="O20" s="390"/>
+      <c r="P20" s="376"/>
       <c r="S20" t="s">
         <v>169</v>
       </c>
@@ -29619,13 +29634,13 @@
       <c r="Q84" s="6"/>
     </row>
     <row r="85" spans="1:17">
-      <c r="A85" s="359" t="s">
+      <c r="A85" s="397" t="s">
         <v>1161</v>
       </c>
-      <c r="B85" s="360"/>
-      <c r="C85" s="360"/>
-      <c r="D85" s="360"/>
-      <c r="E85" s="360"/>
+      <c r="B85" s="385"/>
+      <c r="C85" s="385"/>
+      <c r="D85" s="385"/>
+      <c r="E85" s="385"/>
       <c r="F85" s="6" t="s">
         <v>1165</v>
       </c>
@@ -29672,14 +29687,14 @@
       <c r="H87" s="4"/>
       <c r="I87" s="30"/>
       <c r="J87" s="26"/>
-      <c r="K87" s="367" t="s">
+      <c r="K87" s="404" t="s">
         <v>1164</v>
       </c>
-      <c r="L87" s="362"/>
-      <c r="M87" s="367" t="s">
+      <c r="L87" s="399"/>
+      <c r="M87" s="404" t="s">
         <v>1175</v>
       </c>
-      <c r="N87" s="362"/>
+      <c r="N87" s="399"/>
       <c r="O87" s="26"/>
       <c r="P87" s="34"/>
       <c r="Q87" s="6"/>
@@ -29696,10 +29711,10 @@
       <c r="H88" s="4"/>
       <c r="I88" s="30"/>
       <c r="J88" s="26"/>
-      <c r="K88" s="365"/>
-      <c r="L88" s="366"/>
-      <c r="M88" s="363"/>
-      <c r="N88" s="364"/>
+      <c r="K88" s="402"/>
+      <c r="L88" s="403"/>
+      <c r="M88" s="400"/>
+      <c r="N88" s="401"/>
       <c r="O88" s="26"/>
       <c r="P88" s="34"/>
       <c r="Q88" s="6"/>
@@ -29718,12 +29733,12 @@
       </c>
       <c r="I89" s="30"/>
       <c r="J89" s="26"/>
-      <c r="K89" s="361" t="s">
+      <c r="K89" s="398" t="s">
         <v>1156</v>
       </c>
-      <c r="L89" s="362"/>
-      <c r="M89" s="363"/>
-      <c r="N89" s="364"/>
+      <c r="L89" s="399"/>
+      <c r="M89" s="400"/>
+      <c r="N89" s="401"/>
       <c r="O89" s="26"/>
       <c r="P89" s="34"/>
       <c r="Q89" s="6"/>
@@ -29738,10 +29753,10 @@
       <c r="H90" s="4"/>
       <c r="I90" s="30"/>
       <c r="J90" s="26"/>
-      <c r="K90" s="365"/>
-      <c r="L90" s="366"/>
-      <c r="M90" s="363"/>
-      <c r="N90" s="364"/>
+      <c r="K90" s="402"/>
+      <c r="L90" s="403"/>
+      <c r="M90" s="400"/>
+      <c r="N90" s="401"/>
       <c r="O90" s="26"/>
       <c r="P90" s="34"/>
       <c r="Q90" s="6"/>
@@ -29758,12 +29773,12 @@
       <c r="H91" s="4"/>
       <c r="I91" s="30"/>
       <c r="J91" s="26"/>
-      <c r="K91" s="361" t="s">
+      <c r="K91" s="398" t="s">
         <v>1157</v>
       </c>
-      <c r="L91" s="362"/>
-      <c r="M91" s="363"/>
-      <c r="N91" s="364"/>
+      <c r="L91" s="399"/>
+      <c r="M91" s="400"/>
+      <c r="N91" s="401"/>
       <c r="O91" s="26"/>
       <c r="P91" s="34"/>
       <c r="Q91" s="6"/>
@@ -29780,10 +29795,10 @@
       <c r="H92" s="4"/>
       <c r="I92" s="30"/>
       <c r="J92" s="26"/>
-      <c r="K92" s="365"/>
-      <c r="L92" s="366"/>
-      <c r="M92" s="363"/>
-      <c r="N92" s="364"/>
+      <c r="K92" s="402"/>
+      <c r="L92" s="403"/>
+      <c r="M92" s="400"/>
+      <c r="N92" s="401"/>
       <c r="O92" s="26"/>
       <c r="P92" s="34"/>
       <c r="Q92" s="6"/>
@@ -29798,12 +29813,12 @@
       <c r="H93" s="4"/>
       <c r="I93" s="30"/>
       <c r="J93" s="26"/>
-      <c r="K93" s="361" t="s">
+      <c r="K93" s="398" t="s">
         <v>1158</v>
       </c>
-      <c r="L93" s="362"/>
-      <c r="M93" s="363"/>
-      <c r="N93" s="364"/>
+      <c r="L93" s="399"/>
+      <c r="M93" s="400"/>
+      <c r="N93" s="401"/>
       <c r="O93" s="26"/>
       <c r="P93" s="34"/>
       <c r="Q93" s="6"/>
@@ -29815,10 +29830,10 @@
       <c r="H94" s="4"/>
       <c r="I94" s="30"/>
       <c r="J94" s="26"/>
-      <c r="K94" s="363"/>
-      <c r="L94" s="364"/>
-      <c r="M94" s="363"/>
-      <c r="N94" s="364"/>
+      <c r="K94" s="400"/>
+      <c r="L94" s="401"/>
+      <c r="M94" s="400"/>
+      <c r="N94" s="401"/>
       <c r="O94" s="26"/>
       <c r="P94" s="34"/>
       <c r="Q94" s="6"/>
@@ -29832,10 +29847,10 @@
       <c r="H95" s="4"/>
       <c r="I95" s="30"/>
       <c r="J95" s="26"/>
-      <c r="K95" s="365"/>
-      <c r="L95" s="366"/>
-      <c r="M95" s="365"/>
-      <c r="N95" s="366"/>
+      <c r="K95" s="402"/>
+      <c r="L95" s="403"/>
+      <c r="M95" s="402"/>
+      <c r="N95" s="403"/>
       <c r="O95" s="26"/>
       <c r="P95" s="34"/>
       <c r="Q95" s="6"/>
@@ -29852,14 +29867,14 @@
       <c r="H96" s="4"/>
       <c r="I96" s="30"/>
       <c r="J96" s="26"/>
-      <c r="K96" s="358" t="s">
+      <c r="K96" s="396" t="s">
         <v>1159</v>
       </c>
-      <c r="L96" s="358"/>
-      <c r="M96" s="358" t="s">
+      <c r="L96" s="396"/>
+      <c r="M96" s="396" t="s">
         <v>1160</v>
       </c>
-      <c r="N96" s="358"/>
+      <c r="N96" s="396"/>
       <c r="O96" s="26"/>
       <c r="P96" s="34"/>
       <c r="Q96" s="6"/>
@@ -29983,7 +29998,7 @@
       <c r="E115" s="98"/>
       <c r="F115" s="99"/>
       <c r="I115" s="4"/>
-      <c r="J115" s="355" t="s">
+      <c r="J115" s="393" t="s">
         <v>1190</v>
       </c>
       <c r="K115" s="2"/>
@@ -30000,7 +30015,7 @@
       <c r="E116" s="5"/>
       <c r="F116" s="6"/>
       <c r="I116" s="4"/>
-      <c r="J116" s="356"/>
+      <c r="J116" s="394"/>
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
       <c r="M116" s="3"/>
@@ -30015,7 +30030,7 @@
       <c r="E117" s="5"/>
       <c r="F117" s="6"/>
       <c r="I117" s="4"/>
-      <c r="J117" s="356"/>
+      <c r="J117" s="394"/>
       <c r="K117" s="5" t="s">
         <v>24</v>
       </c>
@@ -30032,7 +30047,7 @@
       <c r="E118" s="5"/>
       <c r="F118" s="6"/>
       <c r="I118" s="4"/>
-      <c r="J118" s="356"/>
+      <c r="J118" s="394"/>
       <c r="K118" s="5"/>
       <c r="L118" s="5"/>
       <c r="M118" s="6"/>
@@ -30047,7 +30062,7 @@
       <c r="E119" s="5"/>
       <c r="F119" s="6"/>
       <c r="I119" s="4"/>
-      <c r="J119" s="356"/>
+      <c r="J119" s="394"/>
       <c r="K119" s="5" t="s">
         <v>533</v>
       </c>
@@ -30067,7 +30082,7 @@
         <v>1189</v>
       </c>
       <c r="I120" s="4"/>
-      <c r="J120" s="356"/>
+      <c r="J120" s="394"/>
       <c r="K120" s="10"/>
       <c r="L120" s="10"/>
       <c r="M120" s="9"/>
@@ -30087,7 +30102,7 @@
         <v>167</v>
       </c>
       <c r="I121" s="4"/>
-      <c r="J121" s="356"/>
+      <c r="J121" s="394"/>
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
       <c r="M121" s="3"/>
@@ -30104,7 +30119,7 @@
       <c r="E122" s="5"/>
       <c r="F122" s="6"/>
       <c r="I122" s="4"/>
-      <c r="J122" s="356"/>
+      <c r="J122" s="394"/>
       <c r="K122" s="5"/>
       <c r="L122" s="5" t="s">
         <v>1186</v>
@@ -30123,7 +30138,7 @@
       <c r="E123" s="5"/>
       <c r="F123" s="6"/>
       <c r="I123" s="4"/>
-      <c r="J123" s="356"/>
+      <c r="J123" s="394"/>
       <c r="K123" s="5"/>
       <c r="L123" s="5" t="s">
         <v>1184</v>
@@ -30140,7 +30155,7 @@
       <c r="E124" s="5"/>
       <c r="F124" s="6"/>
       <c r="I124" s="4"/>
-      <c r="J124" s="356"/>
+      <c r="J124" s="394"/>
       <c r="K124" s="5"/>
       <c r="L124" s="5" t="s">
         <v>24</v>
@@ -30157,7 +30172,7 @@
       <c r="E125" s="5"/>
       <c r="F125" s="6"/>
       <c r="I125" s="4"/>
-      <c r="J125" s="356"/>
+      <c r="J125" s="394"/>
       <c r="K125" s="10"/>
       <c r="L125" s="10"/>
       <c r="M125" s="9"/>
@@ -30172,7 +30187,7 @@
       <c r="E126" s="10"/>
       <c r="F126" s="9"/>
       <c r="I126" s="4"/>
-      <c r="J126" s="357"/>
+      <c r="J126" s="395"/>
       <c r="K126" s="10"/>
       <c r="L126" s="10"/>
       <c r="M126" s="10"/>
@@ -30263,7 +30278,7 @@
       <c r="A144" s="1"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
-      <c r="D144" s="527" t="s">
+      <c r="D144" s="356" t="s">
         <v>1597</v>
       </c>
       <c r="E144" s="2"/>
@@ -30287,9 +30302,9 @@
       </c>
     </row>
     <row r="145" spans="1:21">
-      <c r="A145" s="528"/>
-      <c r="B145" s="529"/>
-      <c r="C145" s="529"/>
+      <c r="A145" s="357"/>
+      <c r="B145" s="358"/>
+      <c r="C145" s="358"/>
       <c r="D145" s="44"/>
       <c r="E145" s="44"/>
       <c r="F145" s="44"/>
@@ -30300,7 +30315,7 @@
       <c r="M145" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="N145" s="520"/>
+      <c r="N145" s="349"/>
       <c r="O145" s="1"/>
       <c r="P145" s="2"/>
       <c r="Q145" s="2"/>
@@ -30320,8 +30335,8 @@
       <c r="F146" s="44"/>
       <c r="G146" s="54"/>
       <c r="L146" s="4"/>
-      <c r="M146" s="521"/>
-      <c r="N146" s="522"/>
+      <c r="M146" s="350"/>
+      <c r="N146" s="351"/>
       <c r="O146" s="4"/>
       <c r="P146" s="5"/>
       <c r="Q146" s="5" t="s">
@@ -30335,7 +30350,7 @@
       </c>
     </row>
     <row r="147" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A147" s="530"/>
+      <c r="A147" s="359"/>
       <c r="B147" s="24"/>
       <c r="C147" s="24"/>
       <c r="D147" s="158"/>
@@ -30358,7 +30373,7 @@
       </c>
     </row>
     <row r="148" spans="1:21" ht="15" customHeight="1" thickBot="1">
-      <c r="A148" s="531"/>
+      <c r="A148" s="360"/>
       <c r="B148" s="24"/>
       <c r="C148" s="24"/>
       <c r="D148" s="158" t="s">
@@ -30370,14 +30385,14 @@
       <c r="F148" s="24"/>
       <c r="G148" s="6"/>
       <c r="L148" s="4"/>
-      <c r="M148" s="523"/>
-      <c r="N148" s="524"/>
+      <c r="M148" s="352"/>
+      <c r="N148" s="353"/>
       <c r="O148" s="4"/>
       <c r="P148" s="5"/>
-      <c r="Q148" s="525" t="s">
+      <c r="Q148" s="354" t="s">
         <v>110</v>
       </c>
-      <c r="R148" s="526"/>
+      <c r="R148" s="355"/>
       <c r="S148" s="5"/>
       <c r="T148" s="201"/>
       <c r="U148" s="106" t="s">
@@ -30385,15 +30400,13 @@
       </c>
     </row>
     <row r="149" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A149" s="531"/>
+      <c r="A149" s="360"/>
       <c r="B149" s="24"/>
       <c r="C149" s="24"/>
       <c r="D149" s="24" t="s">
         <v>854</v>
       </c>
-      <c r="E149" s="302" t="s">
-        <v>627</v>
-      </c>
+      <c r="E149" s="302"/>
       <c r="F149" s="24"/>
       <c r="G149" s="6" t="s">
         <v>1655</v>
@@ -30404,11 +30417,11 @@
       <c r="M149" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="N149" s="520"/>
+      <c r="N149" s="349"/>
       <c r="O149" s="4"/>
       <c r="P149" s="5"/>
-      <c r="Q149" s="526"/>
-      <c r="R149" s="526" t="s">
+      <c r="Q149" s="355"/>
+      <c r="R149" s="355" t="s">
         <v>12</v>
       </c>
       <c r="S149" s="5"/>
@@ -30420,11 +30433,11 @@
       </c>
     </row>
     <row r="150" spans="1:21">
-      <c r="A150" s="531"/>
+      <c r="A150" s="360"/>
       <c r="B150" s="24"/>
       <c r="C150" s="158"/>
       <c r="D150" s="24"/>
-      <c r="E150" s="538" t="s">
+      <c r="E150" s="367" t="s">
         <v>175</v>
       </c>
       <c r="F150" s="24"/>
@@ -30433,13 +30446,13 @@
       </c>
       <c r="L150" s="4"/>
       <c r="M150" s="48"/>
-      <c r="N150" s="520"/>
+      <c r="N150" s="349"/>
       <c r="O150" s="4"/>
       <c r="P150" s="5"/>
-      <c r="Q150" s="526"/>
-      <c r="R150" s="526"/>
+      <c r="Q150" s="355"/>
+      <c r="R150" s="355"/>
       <c r="S150" s="5"/>
-      <c r="T150" s="539" t="s">
+      <c r="T150" s="368" t="s">
         <v>85</v>
       </c>
       <c r="U150" t="s">
@@ -30447,7 +30460,7 @@
       </c>
     </row>
     <row r="151" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A151" s="532"/>
+      <c r="A151" s="361"/>
       <c r="B151" s="296"/>
       <c r="C151" s="341"/>
       <c r="D151" s="341"/>
@@ -30459,17 +30472,17 @@
         <v>169</v>
       </c>
       <c r="L151" s="4"/>
-      <c r="M151" s="521"/>
-      <c r="N151" s="522"/>
+      <c r="M151" s="350"/>
+      <c r="N151" s="351"/>
       <c r="O151" s="4"/>
       <c r="P151" s="5"/>
-      <c r="Q151" s="526"/>
-      <c r="R151" s="526"/>
+      <c r="Q151" s="355"/>
+      <c r="R151" s="355"/>
       <c r="S151" s="5"/>
       <c r="T151" s="201"/>
     </row>
     <row r="152" spans="1:21">
-      <c r="A152" s="533"/>
+      <c r="A152" s="362"/>
       <c r="B152" s="341"/>
       <c r="C152" s="341"/>
       <c r="D152" s="341"/>
@@ -30485,13 +30498,13 @@
       <c r="N152" s="2"/>
       <c r="O152" s="4"/>
       <c r="P152" s="5"/>
-      <c r="Q152" s="526"/>
-      <c r="R152" s="526"/>
+      <c r="Q152" s="355"/>
+      <c r="R152" s="355"/>
       <c r="S152" s="5"/>
       <c r="T152" s="201"/>
     </row>
     <row r="153" spans="1:21">
-      <c r="A153" s="533"/>
+      <c r="A153" s="362"/>
       <c r="B153" s="341"/>
       <c r="C153" s="341"/>
       <c r="D153" s="341"/>
@@ -30508,16 +30521,16 @@
       <c r="M153" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="N153" s="520"/>
+      <c r="N153" s="349"/>
       <c r="O153" s="4"/>
       <c r="P153" s="5"/>
-      <c r="Q153" s="526"/>
-      <c r="R153" s="526"/>
+      <c r="Q153" s="355"/>
+      <c r="R153" s="355"/>
       <c r="S153" s="26"/>
       <c r="T153" s="201"/>
     </row>
     <row r="154" spans="1:21">
-      <c r="A154" s="533"/>
+      <c r="A154" s="362"/>
       <c r="B154" s="341"/>
       <c r="C154" s="341"/>
       <c r="D154" s="341"/>
@@ -30530,7 +30543,7 @@
       </c>
       <c r="L154" s="4"/>
       <c r="M154" s="48"/>
-      <c r="N154" s="520"/>
+      <c r="N154" s="349"/>
       <c r="O154" s="4"/>
       <c r="P154" s="5"/>
       <c r="Q154" s="29"/>
@@ -30539,7 +30552,7 @@
       <c r="T154" s="201"/>
     </row>
     <row r="155" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A155" s="530"/>
+      <c r="A155" s="359"/>
       <c r="B155" s="24"/>
       <c r="C155" s="24"/>
       <c r="D155" s="24"/>
@@ -30561,7 +30574,7 @@
       <c r="T155" s="201"/>
     </row>
     <row r="156" spans="1:21">
-      <c r="A156" s="531"/>
+      <c r="A156" s="360"/>
       <c r="B156" s="24"/>
       <c r="C156" s="24"/>
       <c r="D156" s="24"/>
@@ -30583,7 +30596,7 @@
       <c r="T156" s="201"/>
     </row>
     <row r="157" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A157" s="530"/>
+      <c r="A157" s="359"/>
       <c r="B157" s="24"/>
       <c r="C157" s="24"/>
       <c r="D157" s="24"/>
@@ -30598,7 +30611,7 @@
       <c r="M157" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="N157" s="520"/>
+      <c r="N157" s="349"/>
       <c r="O157" s="4"/>
       <c r="P157" s="5"/>
       <c r="Q157" s="5"/>
@@ -30607,7 +30620,7 @@
       <c r="T157" s="202"/>
     </row>
     <row r="158" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A158" s="530"/>
+      <c r="A158" s="359"/>
       <c r="B158" s="24"/>
       <c r="C158" s="24"/>
       <c r="D158" s="24"/>
@@ -30619,8 +30632,8 @@
         <v>169</v>
       </c>
       <c r="L158" s="4"/>
-      <c r="M158" s="521"/>
-      <c r="N158" s="522"/>
+      <c r="M158" s="350"/>
+      <c r="N158" s="351"/>
       <c r="O158" s="8"/>
       <c r="P158" s="10"/>
       <c r="Q158" s="62"/>
@@ -30629,14 +30642,14 @@
       <c r="T158" s="9"/>
     </row>
     <row r="159" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A159" s="534"/>
-      <c r="B159" s="535"/>
-      <c r="C159" s="535"/>
-      <c r="D159" s="535"/>
+      <c r="A159" s="363"/>
+      <c r="B159" s="364"/>
+      <c r="C159" s="364"/>
+      <c r="D159" s="364"/>
       <c r="E159" s="341" t="s">
         <v>169</v>
       </c>
-      <c r="F159" s="535"/>
+      <c r="F159" s="364"/>
       <c r="G159" s="6" t="s">
         <v>169</v>
       </c>
@@ -30651,22 +30664,22 @@
       <c r="T159" s="5"/>
     </row>
     <row r="160" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A160" s="536"/>
-      <c r="B160" s="537"/>
-      <c r="C160" s="537"/>
-      <c r="D160" s="537"/>
+      <c r="A160" s="365"/>
+      <c r="B160" s="366"/>
+      <c r="C160" s="366"/>
+      <c r="D160" s="366"/>
       <c r="E160" s="341" t="s">
         <v>169</v>
       </c>
-      <c r="F160" s="537"/>
+      <c r="F160" s="366"/>
       <c r="G160" s="6" t="s">
         <v>169</v>
       </c>
       <c r="L160" s="4"/>
-      <c r="M160" s="380" t="s">
+      <c r="M160" s="375" t="s">
         <v>94</v>
       </c>
-      <c r="N160" s="381"/>
+      <c r="N160" s="376"/>
       <c r="O160" s="345" t="s">
         <v>95</v>
       </c>
@@ -30761,6 +30774,25 @@
       </c>
       <c r="N165" t="s">
         <v>1659</v>
+      </c>
+    </row>
+    <row r="167" spans="1:21">
+      <c r="B167" t="s">
+        <v>1664</v>
+      </c>
+      <c r="F167" t="s">
+        <v>1665</v>
+      </c>
+      <c r="H167" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="168" spans="1:21">
+      <c r="B168" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F168" t="s">
+        <v>1668</v>
       </c>
     </row>
   </sheetData>
@@ -31222,13 +31254,13 @@
         <v>81</v>
       </c>
       <c r="J3" s="137"/>
-      <c r="K3" s="394"/>
-      <c r="L3" s="394"/>
-      <c r="M3" s="394"/>
-      <c r="N3" s="394"/>
-      <c r="O3" s="394"/>
-      <c r="P3" s="394"/>
-      <c r="Q3" s="395"/>
+      <c r="K3" s="414"/>
+      <c r="L3" s="414"/>
+      <c r="M3" s="414"/>
+      <c r="N3" s="414"/>
+      <c r="O3" s="414"/>
+      <c r="P3" s="414"/>
+      <c r="Q3" s="415"/>
       <c r="T3" s="35" t="s">
         <v>79</v>
       </c>
@@ -31496,13 +31528,13 @@
       <c r="U11" s="33"/>
     </row>
     <row r="12" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A12" s="385" t="s">
+      <c r="A12" s="405" t="s">
         <v>456</v>
       </c>
-      <c r="B12" s="386"/>
-      <c r="C12" s="386"/>
-      <c r="D12" s="386"/>
-      <c r="E12" s="387"/>
+      <c r="B12" s="406"/>
+      <c r="C12" s="406"/>
+      <c r="D12" s="406"/>
+      <c r="E12" s="407"/>
       <c r="F12" t="s">
         <v>469</v>
       </c>
@@ -31525,11 +31557,11 @@
       </c>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="388"/>
-      <c r="B13" s="389"/>
-      <c r="C13" s="389"/>
-      <c r="D13" s="389"/>
-      <c r="E13" s="390"/>
+      <c r="A13" s="408"/>
+      <c r="B13" s="409"/>
+      <c r="C13" s="409"/>
+      <c r="D13" s="409"/>
+      <c r="E13" s="410"/>
       <c r="F13" t="s">
         <v>6</v>
       </c>
@@ -31550,11 +31582,11 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A14" s="388"/>
-      <c r="B14" s="389"/>
-      <c r="C14" s="389"/>
-      <c r="D14" s="389"/>
-      <c r="E14" s="390"/>
+      <c r="A14" s="408"/>
+      <c r="B14" s="409"/>
+      <c r="C14" s="409"/>
+      <c r="D14" s="409"/>
+      <c r="E14" s="410"/>
       <c r="F14" t="s">
         <v>466</v>
       </c>
@@ -31577,11 +31609,11 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A15" s="391"/>
-      <c r="B15" s="392"/>
-      <c r="C15" s="392"/>
-      <c r="D15" s="392"/>
-      <c r="E15" s="393"/>
+      <c r="A15" s="411"/>
+      <c r="B15" s="412"/>
+      <c r="C15" s="412"/>
+      <c r="D15" s="412"/>
+      <c r="E15" s="413"/>
       <c r="F15" s="24"/>
       <c r="H15" s="161"/>
       <c r="I15" s="4" t="s">
@@ -31639,17 +31671,17 @@
       <c r="F17" s="157"/>
       <c r="G17" s="118"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="369" t="s">
+      <c r="I17" s="378" t="s">
         <v>925</v>
       </c>
-      <c r="J17" s="369"/>
-      <c r="K17" s="369"/>
-      <c r="L17" s="369"/>
-      <c r="M17" s="369"/>
-      <c r="N17" s="369"/>
-      <c r="O17" s="369"/>
-      <c r="P17" s="369"/>
-      <c r="Q17" s="369"/>
+      <c r="J17" s="378"/>
+      <c r="K17" s="378"/>
+      <c r="L17" s="378"/>
+      <c r="M17" s="378"/>
+      <c r="N17" s="378"/>
+      <c r="O17" s="378"/>
+      <c r="P17" s="378"/>
+      <c r="Q17" s="378"/>
       <c r="S17" t="s">
         <v>230</v>
       </c>
@@ -34762,7 +34794,7 @@
       <c r="L109" s="2"/>
       <c r="M109" s="3"/>
       <c r="N109" s="5"/>
-      <c r="O109" s="396">
+      <c r="O109" s="416">
         <v>123</v>
       </c>
       <c r="P109" s="262" t="s">
@@ -34784,7 +34816,7 @@
       <c r="L110" s="5"/>
       <c r="M110" s="6"/>
       <c r="N110" s="5"/>
-      <c r="O110" s="356"/>
+      <c r="O110" s="394"/>
       <c r="P110" s="262"/>
       <c r="Q110" s="33" t="s">
         <v>236</v>
@@ -34802,7 +34834,7 @@
       <c r="L111" s="5"/>
       <c r="M111" s="6"/>
       <c r="N111" s="5"/>
-      <c r="O111" s="356"/>
+      <c r="O111" s="394"/>
       <c r="P111" s="262"/>
       <c r="Q111" s="33" t="s">
         <v>779</v>
@@ -34820,7 +34852,7 @@
       <c r="L112" s="5"/>
       <c r="M112" s="6"/>
       <c r="N112" s="5"/>
-      <c r="O112" s="356"/>
+      <c r="O112" s="394"/>
       <c r="P112" s="262"/>
       <c r="Q112" s="33"/>
     </row>
@@ -34839,7 +34871,7 @@
       <c r="L113" s="5"/>
       <c r="M113" s="6"/>
       <c r="N113" s="5"/>
-      <c r="O113" s="357"/>
+      <c r="O113" s="395"/>
       <c r="P113" s="262"/>
       <c r="Q113" s="33"/>
     </row>
@@ -34864,7 +34896,7 @@
       <c r="L114" s="5"/>
       <c r="M114" s="6"/>
       <c r="N114" s="5"/>
-      <c r="O114" s="396">
+      <c r="O114" s="416">
         <v>456</v>
       </c>
       <c r="P114" s="262" t="s">
@@ -34886,7 +34918,7 @@
       <c r="L115" s="5"/>
       <c r="M115" s="6"/>
       <c r="N115" s="5"/>
-      <c r="O115" s="356"/>
+      <c r="O115" s="394"/>
       <c r="P115" s="262"/>
       <c r="Q115" s="33" t="s">
         <v>1235</v>
@@ -34907,7 +34939,7 @@
       <c r="L116" s="5"/>
       <c r="M116" s="6"/>
       <c r="N116" s="5"/>
-      <c r="O116" s="356"/>
+      <c r="O116" s="394"/>
       <c r="P116" s="262"/>
       <c r="Q116" s="33"/>
     </row>
@@ -34926,7 +34958,7 @@
       <c r="L117" s="5"/>
       <c r="M117" s="6"/>
       <c r="N117" s="5"/>
-      <c r="O117" s="357"/>
+      <c r="O117" s="395"/>
       <c r="P117" s="262"/>
       <c r="Q117" s="33"/>
     </row>
@@ -34942,7 +34974,7 @@
       <c r="L118" s="5"/>
       <c r="M118" s="6"/>
       <c r="N118" s="5"/>
-      <c r="O118" s="396">
+      <c r="O118" s="416">
         <v>777</v>
       </c>
       <c r="P118" s="262"/>
@@ -34965,7 +34997,7 @@
       <c r="L119" s="5"/>
       <c r="M119" s="6"/>
       <c r="N119" s="5"/>
-      <c r="O119" s="356"/>
+      <c r="O119" s="394"/>
       <c r="P119" s="262"/>
       <c r="Q119" s="33"/>
     </row>
@@ -34984,7 +35016,7 @@
       <c r="L120" s="5"/>
       <c r="M120" s="6"/>
       <c r="N120" s="5"/>
-      <c r="O120" s="356"/>
+      <c r="O120" s="394"/>
       <c r="P120" s="262"/>
       <c r="Q120" s="33"/>
     </row>
@@ -35003,7 +35035,7 @@
       <c r="L121" s="5"/>
       <c r="M121" s="6"/>
       <c r="N121" s="5"/>
-      <c r="O121" s="357"/>
+      <c r="O121" s="395"/>
       <c r="P121" s="262"/>
       <c r="Q121" s="33"/>
     </row>
@@ -35165,10 +35197,10 @@
       <c r="L133" s="2"/>
       <c r="M133" s="3"/>
       <c r="N133" s="5"/>
-      <c r="O133" s="400">
+      <c r="O133" s="420">
         <v>123</v>
       </c>
-      <c r="P133" s="397" t="s">
+      <c r="P133" s="417" t="s">
         <v>557</v>
       </c>
       <c r="Q133" s="281" t="s">
@@ -35187,8 +35219,8 @@
       <c r="L134" s="5"/>
       <c r="M134" s="6"/>
       <c r="N134" s="5"/>
-      <c r="O134" s="401"/>
-      <c r="P134" s="398"/>
+      <c r="O134" s="421"/>
+      <c r="P134" s="418"/>
       <c r="Q134" s="281" t="s">
         <v>236</v>
       </c>
@@ -35205,8 +35237,8 @@
       <c r="L135" s="5"/>
       <c r="M135" s="6"/>
       <c r="N135" s="5"/>
-      <c r="O135" s="401"/>
-      <c r="P135" s="398"/>
+      <c r="O135" s="421"/>
+      <c r="P135" s="418"/>
       <c r="Q135" s="281"/>
     </row>
     <row r="136" spans="1:17" ht="15.75" thickBot="1">
@@ -35225,8 +35257,8 @@
       <c r="L136" s="5"/>
       <c r="M136" s="6"/>
       <c r="N136" s="5"/>
-      <c r="O136" s="401"/>
-      <c r="P136" s="398"/>
+      <c r="O136" s="421"/>
+      <c r="P136" s="418"/>
       <c r="Q136" s="281"/>
     </row>
     <row r="137" spans="1:17" ht="15.75" thickBot="1">
@@ -35248,8 +35280,8 @@
       <c r="L137" s="26"/>
       <c r="M137" s="34"/>
       <c r="N137" s="26"/>
-      <c r="O137" s="402"/>
-      <c r="P137" s="399"/>
+      <c r="O137" s="422"/>
+      <c r="P137" s="419"/>
       <c r="Q137" s="281"/>
     </row>
     <row r="138" spans="1:17">
@@ -35269,7 +35301,7 @@
       <c r="L138" s="5"/>
       <c r="M138" s="6"/>
       <c r="N138" s="5"/>
-      <c r="O138" s="396"/>
+      <c r="O138" s="416"/>
       <c r="P138" s="262"/>
       <c r="Q138" s="33"/>
     </row>
@@ -35285,7 +35317,7 @@
       <c r="L139" s="5"/>
       <c r="M139" s="6"/>
       <c r="N139" s="5"/>
-      <c r="O139" s="356"/>
+      <c r="O139" s="394"/>
       <c r="P139" s="262"/>
       <c r="Q139" s="33"/>
     </row>
@@ -35303,7 +35335,7 @@
       <c r="L140" s="44"/>
       <c r="M140" s="54"/>
       <c r="N140" s="5"/>
-      <c r="O140" s="356"/>
+      <c r="O140" s="394"/>
       <c r="P140" s="262"/>
       <c r="Q140" s="33"/>
     </row>
@@ -35322,7 +35354,7 @@
       <c r="L141" s="5"/>
       <c r="M141" s="6"/>
       <c r="N141" s="5"/>
-      <c r="O141" s="357"/>
+      <c r="O141" s="395"/>
       <c r="P141" s="262"/>
       <c r="Q141" s="33"/>
     </row>
@@ -35340,7 +35372,7 @@
       <c r="L142" s="5"/>
       <c r="M142" s="6"/>
       <c r="N142" s="5"/>
-      <c r="O142" s="396"/>
+      <c r="O142" s="416"/>
       <c r="P142" s="262"/>
       <c r="Q142" s="33"/>
     </row>
@@ -35360,7 +35392,7 @@
       </c>
       <c r="M143" s="280"/>
       <c r="N143" s="162"/>
-      <c r="O143" s="356"/>
+      <c r="O143" s="394"/>
       <c r="P143" s="262"/>
       <c r="Q143" s="33"/>
     </row>
@@ -35376,7 +35408,7 @@
       <c r="L144" s="5"/>
       <c r="M144" s="6"/>
       <c r="N144" s="5"/>
-      <c r="O144" s="356"/>
+      <c r="O144" s="394"/>
       <c r="P144" s="262"/>
       <c r="Q144" s="33"/>
     </row>
@@ -35396,7 +35428,7 @@
       <c r="L145" s="5"/>
       <c r="M145" s="6"/>
       <c r="N145" s="5"/>
-      <c r="O145" s="357"/>
+      <c r="O145" s="395"/>
       <c r="P145" s="262"/>
       <c r="Q145" s="33"/>
     </row>

--- a/jee_latest_st.xlsx
+++ b/jee_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="7590" firstSheet="8" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="7590" firstSheet="10" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="network" sheetId="1" r:id="rId1"/>
@@ -22,19 +22,20 @@
     <sheet name="db-normalization" sheetId="11" r:id="rId13"/>
     <sheet name="db" sheetId="12" r:id="rId14"/>
     <sheet name="webservice" sheetId="13" r:id="rId15"/>
-    <sheet name="git" sheetId="15" r:id="rId16"/>
-    <sheet name="framework" sheetId="16" r:id="rId17"/>
-    <sheet name="spring-data" sheetId="17" r:id="rId18"/>
-    <sheet name="spring" sheetId="18" r:id="rId19"/>
-    <sheet name="spring beans scope" sheetId="19" r:id="rId20"/>
-    <sheet name="junit" sheetId="20" r:id="rId21"/>
+    <sheet name="strut-tags" sheetId="24" r:id="rId16"/>
+    <sheet name="git" sheetId="15" r:id="rId17"/>
+    <sheet name="framework" sheetId="16" r:id="rId18"/>
+    <sheet name="spring-data" sheetId="17" r:id="rId19"/>
+    <sheet name="spring" sheetId="18" r:id="rId20"/>
+    <sheet name="spring beans scope" sheetId="19" r:id="rId21"/>
+    <sheet name="junit" sheetId="20" r:id="rId22"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4205" uniqueCount="1897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4341" uniqueCount="1969">
   <si>
     <t>java server - tomcat</t>
   </si>
@@ -6637,12 +6638,340 @@
   <si>
     <t>data transfer from webpage into java program</t>
   </si>
+  <si>
+    <t>&lt;s:append var=“appendIterator"&gt;</t>
+  </si>
+  <si>
+    <t>myList1and myList2 is an arraylist in action java program
+Append will join both list into 1
+s:iterator will read all value with new iterator and print on webpage</t>
+  </si>
+  <si>
+    <t>myList1</t>
+  </si>
+  <si>
+    <t>myList2</t>
+  </si>
+  <si>
+    <t>appendIterator</t>
+  </si>
+  <si>
+    <t>MergeIterator</t>
+  </si>
+  <si>
+    <t>     &lt;s:param value="%{myList1}" /&gt;       &lt;s:param value="%{myList2}" /&gt;</t>
+  </si>
+  <si>
+    <t>onion</t>
+  </si>
+  <si>
+    <t>&lt;/s:append&gt;</t>
+  </si>
+  <si>
+    <t>tomato</t>
+  </si>
+  <si>
+    <t>&lt;s:iterator value="%{#appendIterator}"&gt;       &lt;s:property /&gt;    &lt;/s:iterator&gt;</t>
+  </si>
+  <si>
+    <t>potato</t>
+  </si>
+  <si>
+    <t>will create list that can be read through iteration. And iterator will print a b c d e in new line on webpage</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>&lt;s:generator val="%{'a,b,c,d,e'}"&gt;</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t> &lt;s:iterator&gt;      &lt;s:property /&gt;&lt;br/&gt;    &lt;/s:iterator&gt;</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;/s:generator&gt; </t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>personsList</t>
+  </si>
+  <si>
+    <t>print on webpage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s:bean name="com.mywebsite.NameComparator" var=“nameComparator" /&gt;  </t>
+  </si>
+  <si>
+    <t>personsList is list which has person object with firstname in it. Comparator will be sort all first name and display</t>
+  </si>
+  <si>
+    <t>firstName=john lastName=doe</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;s:sort comparator="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>nameComparator" source="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>personsList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>firstName=jane lastName=doe</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   &lt;s:iterator&gt; &lt;s:property value="firstName" /&gt;&lt;/s:iterator&gt;  &lt;/s:sort&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>firstName=mike lastName=doe</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;s:subset </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>source</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">="namesList" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>start</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">="1" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">="3"&gt; </t>
+    </r>
+  </si>
+  <si>
+    <t>namesList is an arraylist of name in action java program. You can read item using iterator from index 1 to3 counts and print on webpage</t>
+  </si>
+  <si>
+    <t>namesList</t>
+  </si>
+  <si>
+    <t>&lt;s:iterator&gt; &lt;li&gt;&lt;s:property /&gt;&lt;/li&gt; &lt;/s:iterator&gt; &lt;/s:subset&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s:bean name="com.Person" var="personBean"&gt; </t>
+  </si>
+  <si>
+    <t>public class Person</t>
+  </si>
+  <si>
+    <t>Person personBean=new Person();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s:param name="nickName" value=“jee"&gt;&lt;/s:param&gt; </t>
+  </si>
+  <si>
+    <t>personBean.nickName="jee";</t>
+  </si>
+  <si>
+    <t>&lt;s:param name=“lastName" &gt;java&lt;/s:param&gt;</t>
+  </si>
+  <si>
+    <t>String nickName;</t>
+  </si>
+  <si>
+    <t>personBean.lastName="java";</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;/s:bean&gt;</t>
+  </si>
+  <si>
+    <t>String lastName;</t>
+  </si>
+  <si>
+    <t>SOURCE</t>
+  </si>
+  <si>
+    <t>DESTINATION</t>
+  </si>
+  <si>
+    <t>LoginAction.java</t>
+  </si>
+  <si>
+    <t>loginAction</t>
+  </si>
+  <si>
+    <t>============================================&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Welcome </t>
+  </si>
+  <si>
+    <t>String fName</t>
+  </si>
+  <si>
+    <t>====================================================&gt;</t>
+  </si>
+  <si>
+    <t>&lt;s:property value = "fName" /&gt;</t>
+  </si>
+  <si>
+    <t>String lName</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;s:property value = "lName" /&gt; </t>
+  </si>
+  <si>
+    <t>ArrayList myList1</t>
+  </si>
+  <si>
+    <t>strut tag library</t>
+  </si>
+  <si>
+    <t>public String auth()</t>
+  </si>
+  <si>
+    <t>{ if(userid==john &amp; pwd=john1!)</t>
+  </si>
+  <si>
+    <t>fName=johnathan</t>
+  </si>
+  <si>
+    <t>lName=doe</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>return good &gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>java program object</t>
+  </si>
+  <si>
+    <t>Request scope</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>session scope</t>
+  </si>
+  <si>
+    <t>HTML TO JAVA</t>
+  </si>
+  <si>
+    <t>Java to html</t>
+  </si>
+  <si>
+    <t>Welcom</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="26">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6837,6 +7166,25 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="20">
@@ -7401,7 +7749,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="575">
+  <cellXfs count="582">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -8009,6 +8357,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="21" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8189,6 +8545,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -8219,26 +8593,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8270,9 +8632,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8282,11 +8641,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8339,63 +8752,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8423,52 +8779,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8531,20 +8857,57 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="21" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -12367,7 +12730,7 @@
       <c r="L109" s="2"/>
       <c r="M109" s="3"/>
       <c r="N109" s="5"/>
-      <c r="O109" s="439">
+      <c r="O109" s="443">
         <v>123</v>
       </c>
       <c r="P109" s="249" t="s">
@@ -12389,7 +12752,7 @@
       <c r="L110" s="5"/>
       <c r="M110" s="6"/>
       <c r="N110" s="5"/>
-      <c r="O110" s="417"/>
+      <c r="O110" s="421"/>
       <c r="P110" s="249"/>
       <c r="Q110" s="33" t="s">
         <v>208</v>
@@ -12407,7 +12770,7 @@
       <c r="L111" s="5"/>
       <c r="M111" s="6"/>
       <c r="N111" s="5"/>
-      <c r="O111" s="417"/>
+      <c r="O111" s="421"/>
       <c r="P111" s="249"/>
       <c r="Q111" s="33" t="s">
         <v>717</v>
@@ -12425,7 +12788,7 @@
       <c r="L112" s="5"/>
       <c r="M112" s="6"/>
       <c r="N112" s="5"/>
-      <c r="O112" s="417"/>
+      <c r="O112" s="421"/>
       <c r="P112" s="249"/>
       <c r="Q112" s="33"/>
     </row>
@@ -12444,7 +12807,7 @@
       <c r="L113" s="5"/>
       <c r="M113" s="6"/>
       <c r="N113" s="5"/>
-      <c r="O113" s="418"/>
+      <c r="O113" s="422"/>
       <c r="P113" s="249"/>
       <c r="Q113" s="33"/>
     </row>
@@ -12469,7 +12832,7 @@
       <c r="L114" s="5"/>
       <c r="M114" s="6"/>
       <c r="N114" s="5"/>
-      <c r="O114" s="439">
+      <c r="O114" s="443">
         <v>456</v>
       </c>
       <c r="P114" s="249" t="s">
@@ -12491,7 +12854,7 @@
       <c r="L115" s="5"/>
       <c r="M115" s="6"/>
       <c r="N115" s="5"/>
-      <c r="O115" s="417"/>
+      <c r="O115" s="421"/>
       <c r="P115" s="249"/>
       <c r="Q115" s="33" t="s">
         <v>1136</v>
@@ -12512,7 +12875,7 @@
       <c r="L116" s="5"/>
       <c r="M116" s="6"/>
       <c r="N116" s="5"/>
-      <c r="O116" s="417"/>
+      <c r="O116" s="421"/>
       <c r="P116" s="249"/>
       <c r="Q116" s="33"/>
     </row>
@@ -12531,7 +12894,7 @@
       <c r="L117" s="5"/>
       <c r="M117" s="6"/>
       <c r="N117" s="5"/>
-      <c r="O117" s="418"/>
+      <c r="O117" s="422"/>
       <c r="P117" s="249"/>
       <c r="Q117" s="33"/>
     </row>
@@ -12547,7 +12910,7 @@
       <c r="L118" s="5"/>
       <c r="M118" s="6"/>
       <c r="N118" s="5"/>
-      <c r="O118" s="439">
+      <c r="O118" s="443">
         <v>777</v>
       </c>
       <c r="P118" s="249"/>
@@ -12570,7 +12933,7 @@
       <c r="L119" s="5"/>
       <c r="M119" s="6"/>
       <c r="N119" s="5"/>
-      <c r="O119" s="417"/>
+      <c r="O119" s="421"/>
       <c r="P119" s="249"/>
       <c r="Q119" s="33"/>
     </row>
@@ -12589,7 +12952,7 @@
       <c r="L120" s="5"/>
       <c r="M120" s="6"/>
       <c r="N120" s="5"/>
-      <c r="O120" s="417"/>
+      <c r="O120" s="421"/>
       <c r="P120" s="249"/>
       <c r="Q120" s="33"/>
     </row>
@@ -12608,7 +12971,7 @@
       <c r="L121" s="5"/>
       <c r="M121" s="6"/>
       <c r="N121" s="5"/>
-      <c r="O121" s="418"/>
+      <c r="O121" s="422"/>
       <c r="P121" s="249"/>
       <c r="Q121" s="33"/>
     </row>
@@ -12770,10 +13133,10 @@
       <c r="L133" s="2"/>
       <c r="M133" s="3"/>
       <c r="N133" s="5"/>
-      <c r="O133" s="443">
+      <c r="O133" s="447">
         <v>123</v>
       </c>
-      <c r="P133" s="440" t="s">
+      <c r="P133" s="444" t="s">
         <v>523</v>
       </c>
       <c r="Q133" s="268" t="s">
@@ -12792,8 +13155,8 @@
       <c r="L134" s="5"/>
       <c r="M134" s="6"/>
       <c r="N134" s="5"/>
-      <c r="O134" s="444"/>
-      <c r="P134" s="441"/>
+      <c r="O134" s="448"/>
+      <c r="P134" s="445"/>
       <c r="Q134" s="268" t="s">
         <v>208</v>
       </c>
@@ -12810,8 +13173,8 @@
       <c r="L135" s="5"/>
       <c r="M135" s="6"/>
       <c r="N135" s="5"/>
-      <c r="O135" s="444"/>
-      <c r="P135" s="441"/>
+      <c r="O135" s="448"/>
+      <c r="P135" s="445"/>
       <c r="Q135" s="268"/>
     </row>
     <row r="136" spans="1:17" ht="15.75" thickBot="1">
@@ -12830,8 +13193,8 @@
       <c r="L136" s="5"/>
       <c r="M136" s="6"/>
       <c r="N136" s="5"/>
-      <c r="O136" s="444"/>
-      <c r="P136" s="441"/>
+      <c r="O136" s="448"/>
+      <c r="P136" s="445"/>
       <c r="Q136" s="268"/>
     </row>
     <row r="137" spans="1:17" ht="15.75" thickBot="1">
@@ -12853,8 +13216,8 @@
       <c r="L137" s="26"/>
       <c r="M137" s="34"/>
       <c r="N137" s="26"/>
-      <c r="O137" s="445"/>
-      <c r="P137" s="442"/>
+      <c r="O137" s="449"/>
+      <c r="P137" s="446"/>
       <c r="Q137" s="268"/>
     </row>
     <row r="138" spans="1:17">
@@ -12874,7 +13237,7 @@
       <c r="L138" s="5"/>
       <c r="M138" s="6"/>
       <c r="N138" s="5"/>
-      <c r="O138" s="439"/>
+      <c r="O138" s="443"/>
       <c r="P138" s="249"/>
       <c r="Q138" s="33"/>
     </row>
@@ -12890,7 +13253,7 @@
       <c r="L139" s="5"/>
       <c r="M139" s="6"/>
       <c r="N139" s="5"/>
-      <c r="O139" s="417"/>
+      <c r="O139" s="421"/>
       <c r="P139" s="249"/>
       <c r="Q139" s="33"/>
     </row>
@@ -12908,7 +13271,7 @@
       <c r="L140" s="38"/>
       <c r="M140" s="45"/>
       <c r="N140" s="5"/>
-      <c r="O140" s="417"/>
+      <c r="O140" s="421"/>
       <c r="P140" s="249"/>
       <c r="Q140" s="33"/>
     </row>
@@ -12927,7 +13290,7 @@
       <c r="L141" s="5"/>
       <c r="M141" s="6"/>
       <c r="N141" s="5"/>
-      <c r="O141" s="418"/>
+      <c r="O141" s="422"/>
       <c r="P141" s="249"/>
       <c r="Q141" s="33"/>
     </row>
@@ -12945,7 +13308,7 @@
       <c r="L142" s="5"/>
       <c r="M142" s="6"/>
       <c r="N142" s="5"/>
-      <c r="O142" s="439"/>
+      <c r="O142" s="443"/>
       <c r="P142" s="249"/>
       <c r="Q142" s="33"/>
     </row>
@@ -12965,7 +13328,7 @@
       </c>
       <c r="M143" s="267"/>
       <c r="N143" s="151"/>
-      <c r="O143" s="417"/>
+      <c r="O143" s="421"/>
       <c r="P143" s="249"/>
       <c r="Q143" s="33"/>
     </row>
@@ -12981,7 +13344,7 @@
       <c r="L144" s="5"/>
       <c r="M144" s="6"/>
       <c r="N144" s="5"/>
-      <c r="O144" s="417"/>
+      <c r="O144" s="421"/>
       <c r="P144" s="249"/>
       <c r="Q144" s="33"/>
     </row>
@@ -13001,7 +13364,7 @@
       <c r="L145" s="5"/>
       <c r="M145" s="6"/>
       <c r="N145" s="5"/>
-      <c r="O145" s="418"/>
+      <c r="O145" s="422"/>
       <c r="P145" s="249"/>
       <c r="Q145" s="33"/>
     </row>
@@ -15385,8 +15748,8 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="449"/>
-      <c r="B2" s="409"/>
+      <c r="A2" s="453"/>
+      <c r="B2" s="413"/>
       <c r="C2" s="27" t="s">
         <v>1460</v>
       </c>
@@ -15404,8 +15767,8 @@
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A3" s="449"/>
-      <c r="B3" s="409"/>
+      <c r="A3" s="453"/>
+      <c r="B3" s="413"/>
       <c r="C3" s="4" t="s">
         <v>175</v>
       </c>
@@ -15429,8 +15792,8 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A4" s="450"/>
-      <c r="B4" s="451"/>
+      <c r="A4" s="454"/>
+      <c r="B4" s="455"/>
       <c r="C4" s="7" t="s">
         <v>1723</v>
       </c>
@@ -15471,8 +15834,8 @@
       <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="449"/>
-      <c r="B7" s="409"/>
+      <c r="A7" s="453"/>
+      <c r="B7" s="413"/>
       <c r="C7" s="27" t="s">
         <v>1460</v>
       </c>
@@ -15488,8 +15851,8 @@
       <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A8" s="449"/>
-      <c r="B8" s="409"/>
+      <c r="A8" s="453"/>
+      <c r="B8" s="413"/>
       <c r="C8" s="4" t="s">
         <v>175</v>
       </c>
@@ -15509,8 +15872,8 @@
       <c r="N8" s="9"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A9" s="450"/>
-      <c r="B9" s="451"/>
+      <c r="A9" s="454"/>
+      <c r="B9" s="455"/>
       <c r="C9" s="7" t="s">
         <v>1726</v>
       </c>
@@ -15840,8 +16203,8 @@
       </c>
     </row>
     <row r="35" spans="1:26">
-      <c r="A35" s="449"/>
-      <c r="B35" s="409"/>
+      <c r="A35" s="453"/>
+      <c r="B35" s="413"/>
       <c r="C35" s="27" t="s">
         <v>1460</v>
       </c>
@@ -15862,8 +16225,8 @@
       </c>
     </row>
     <row r="36" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A36" s="449"/>
-      <c r="B36" s="409"/>
+      <c r="A36" s="453"/>
+      <c r="B36" s="413"/>
       <c r="C36" s="4"/>
       <c r="D36" s="5" t="s">
         <v>208</v>
@@ -15890,8 +16253,8 @@
       </c>
     </row>
     <row r="37" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A37" s="450"/>
-      <c r="B37" s="451"/>
+      <c r="A37" s="454"/>
+      <c r="B37" s="455"/>
       <c r="C37" s="7" t="s">
         <v>1735</v>
       </c>
@@ -15935,8 +16298,8 @@
       <c r="N39" s="6"/>
     </row>
     <row r="40" spans="1:26">
-      <c r="A40" s="449"/>
-      <c r="B40" s="409"/>
+      <c r="A40" s="453"/>
+      <c r="B40" s="413"/>
       <c r="C40" s="27" t="s">
         <v>1460</v>
       </c>
@@ -15952,8 +16315,8 @@
       <c r="N40" s="6"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A41" s="449"/>
-      <c r="B41" s="409"/>
+      <c r="A41" s="453"/>
+      <c r="B41" s="413"/>
       <c r="C41" s="4"/>
       <c r="D41" s="5" t="s">
         <v>175</v>
@@ -15971,8 +16334,8 @@
       <c r="N41" s="9"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A42" s="450"/>
-      <c r="B42" s="451"/>
+      <c r="A42" s="454"/>
+      <c r="B42" s="455"/>
       <c r="C42" s="7" t="s">
         <v>1736</v>
       </c>
@@ -17359,7 +17722,7 @@
       <c r="E114" s="24" t="s">
         <v>1725</v>
       </c>
-      <c r="I114" s="446" t="s">
+      <c r="I114" s="450" t="s">
         <v>1771</v>
       </c>
       <c r="J114" s="377" t="s">
@@ -17380,7 +17743,7 @@
       <c r="B115" s="7"/>
       <c r="C115" s="88"/>
       <c r="D115" s="89"/>
-      <c r="I115" s="447"/>
+      <c r="I115" s="451"/>
       <c r="J115" s="5"/>
       <c r="K115" s="33"/>
       <c r="L115" s="33"/>
@@ -17394,7 +17757,7 @@
       <c r="E116" t="s">
         <v>148</v>
       </c>
-      <c r="I116" s="448"/>
+      <c r="I116" s="452"/>
       <c r="J116" s="5"/>
       <c r="K116" s="5"/>
       <c r="L116" s="5"/>
@@ -17436,7 +17799,7 @@
       <c r="N119" s="6"/>
     </row>
     <row r="120" spans="2:14">
-      <c r="I120" s="446" t="s">
+      <c r="I120" s="450" t="s">
         <v>1772</v>
       </c>
       <c r="J120" s="5"/>
@@ -17446,7 +17809,7 @@
       <c r="N120" s="6"/>
     </row>
     <row r="121" spans="2:14">
-      <c r="I121" s="447"/>
+      <c r="I121" s="451"/>
       <c r="J121" s="5"/>
       <c r="K121" s="5"/>
       <c r="L121" s="5"/>
@@ -17454,7 +17817,7 @@
       <c r="N121" s="6"/>
     </row>
     <row r="122" spans="2:14" ht="15.75" thickBot="1">
-      <c r="I122" s="448"/>
+      <c r="I122" s="452"/>
       <c r="J122" s="5"/>
       <c r="K122" s="5"/>
       <c r="L122" s="5"/>
@@ -18519,10 +18882,10 @@
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="452" t="s">
+      <c r="L35" s="456" t="s">
         <v>218</v>
       </c>
-      <c r="M35" s="452"/>
+      <c r="M35" s="456"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
@@ -20452,10 +20815,10 @@
       </c>
     </row>
     <row r="155" spans="1:17">
-      <c r="A155" s="453" t="s">
+      <c r="A155" s="457" t="s">
         <v>708</v>
       </c>
-      <c r="B155" s="453"/>
+      <c r="B155" s="457"/>
     </row>
     <row r="156" spans="1:17">
       <c r="A156" s="74" t="s">
@@ -21253,18 +21616,18 @@
       </c>
     </row>
     <row r="29" spans="2:16">
-      <c r="B29" s="454" t="s">
+      <c r="B29" s="458" t="s">
         <v>1008</v>
       </c>
-      <c r="C29" s="454"/>
-      <c r="D29" s="454"/>
-      <c r="E29" s="454"/>
-      <c r="F29" s="454"/>
-      <c r="I29" s="454" t="s">
+      <c r="C29" s="458"/>
+      <c r="D29" s="458"/>
+      <c r="E29" s="458"/>
+      <c r="F29" s="458"/>
+      <c r="I29" s="458" t="s">
         <v>1203</v>
       </c>
-      <c r="J29" s="454"/>
-      <c r="K29" s="454"/>
+      <c r="J29" s="458"/>
+      <c r="K29" s="458"/>
     </row>
     <row r="31" spans="2:16">
       <c r="B31" t="s">
@@ -22941,18 +23304,18 @@
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1">
       <c r="D6" s="4"/>
-      <c r="E6" s="465" t="s">
+      <c r="E6" s="459" t="s">
         <v>250</v>
       </c>
-      <c r="F6" s="466"/>
-      <c r="G6" s="467" t="s">
+      <c r="F6" s="460"/>
+      <c r="G6" s="461" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="467"/>
-      <c r="I6" s="467"/>
-      <c r="J6" s="467"/>
-      <c r="K6" s="467"/>
-      <c r="L6" s="466"/>
+      <c r="H6" s="461"/>
+      <c r="I6" s="461"/>
+      <c r="J6" s="461"/>
+      <c r="K6" s="461"/>
+      <c r="L6" s="460"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="26" t="s">
@@ -22965,7 +23328,7 @@
       <c r="B7" t="s">
         <v>1272</v>
       </c>
-      <c r="D7" s="461">
+      <c r="D7" s="471">
         <v>80</v>
       </c>
       <c r="E7" s="125"/>
@@ -22983,7 +23346,7 @@
       <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1">
-      <c r="D8" s="461"/>
+      <c r="D8" s="471"/>
       <c r="E8" s="112" t="s">
         <v>252</v>
       </c>
@@ -23016,7 +23379,7 @@
       <c r="B9" t="s">
         <v>251</v>
       </c>
-      <c r="D9" s="461"/>
+      <c r="D9" s="471"/>
       <c r="E9" s="127"/>
       <c r="F9" s="259"/>
       <c r="G9" s="127"/>
@@ -23043,7 +23406,7 @@
       <c r="A10" t="s">
         <v>1277</v>
       </c>
-      <c r="D10" s="461"/>
+      <c r="D10" s="471"/>
       <c r="E10" s="125"/>
       <c r="F10" s="126"/>
       <c r="G10" s="125"/>
@@ -23070,7 +23433,7 @@
       <c r="B11" t="s">
         <v>1802</v>
       </c>
-      <c r="D11" s="461"/>
+      <c r="D11" s="471"/>
       <c r="E11" s="112" t="s">
         <v>256</v>
       </c>
@@ -23099,7 +23462,7 @@
       <c r="B12" s="165" t="s">
         <v>260</v>
       </c>
-      <c r="D12" s="461"/>
+      <c r="D12" s="471"/>
       <c r="E12" s="127"/>
       <c r="F12" s="259"/>
       <c r="G12" s="127"/>
@@ -23120,7 +23483,7 @@
       <c r="B13" t="s">
         <v>1273</v>
       </c>
-      <c r="D13" s="461"/>
+      <c r="D13" s="471"/>
       <c r="E13" s="125"/>
       <c r="F13" s="126"/>
       <c r="G13" s="125"/>
@@ -23139,7 +23502,7 @@
       <c r="B14" t="s">
         <v>1274</v>
       </c>
-      <c r="D14" s="461"/>
+      <c r="D14" s="471"/>
       <c r="E14" s="112" t="s">
         <v>261</v>
       </c>
@@ -23166,7 +23529,7 @@
       <c r="B15" t="s">
         <v>1275</v>
       </c>
-      <c r="D15" s="461"/>
+      <c r="D15" s="471"/>
       <c r="E15" s="127"/>
       <c r="F15" s="259"/>
       <c r="G15" s="127"/>
@@ -23185,7 +23548,7 @@
       <c r="B16" t="s">
         <v>1276</v>
       </c>
-      <c r="D16" s="461"/>
+      <c r="D16" s="471"/>
       <c r="E16" s="125"/>
       <c r="F16" s="126"/>
       <c r="G16" s="24"/>
@@ -23203,7 +23566,7 @@
       <c r="Q16" s="6"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1">
-      <c r="D17" s="461"/>
+      <c r="D17" s="471"/>
       <c r="E17" s="112" t="s">
         <v>265</v>
       </c>
@@ -23232,7 +23595,7 @@
       <c r="A18" t="s">
         <v>1800</v>
       </c>
-      <c r="D18" s="461"/>
+      <c r="D18" s="471"/>
       <c r="E18" s="127"/>
       <c r="F18" s="259"/>
       <c r="G18" s="53"/>
@@ -23252,20 +23615,20 @@
         <v>1801</v>
       </c>
       <c r="D19" s="8"/>
-      <c r="E19" s="468" t="s">
+      <c r="E19" s="462" t="s">
         <v>79</v>
       </c>
-      <c r="F19" s="469"/>
-      <c r="G19" s="468" t="s">
+      <c r="F19" s="463"/>
+      <c r="G19" s="462" t="s">
         <v>80</v>
       </c>
-      <c r="H19" s="469"/>
-      <c r="I19" s="468" t="s">
+      <c r="H19" s="463"/>
+      <c r="I19" s="462" t="s">
         <v>81</v>
       </c>
-      <c r="J19" s="470"/>
-      <c r="K19" s="470"/>
-      <c r="L19" s="469"/>
+      <c r="J19" s="464"/>
+      <c r="K19" s="464"/>
+      <c r="L19" s="463"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
@@ -23330,12 +23693,12 @@
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="462"/>
-      <c r="H24" s="462"/>
-      <c r="I24" s="462"/>
-      <c r="J24" s="462"/>
-      <c r="K24" s="462"/>
-      <c r="L24" s="462"/>
+      <c r="G24" s="472"/>
+      <c r="H24" s="472"/>
+      <c r="I24" s="472"/>
+      <c r="J24" s="472"/>
+      <c r="K24" s="472"/>
+      <c r="L24" s="472"/>
       <c r="O24" s="35" t="s">
         <v>64</v>
       </c>
@@ -23654,10 +24017,10 @@
       <c r="D44" s="6" t="s">
         <v>1615</v>
       </c>
-      <c r="E44" s="407" t="s">
+      <c r="E44" s="411" t="s">
         <v>1782</v>
       </c>
-      <c r="F44" s="409"/>
+      <c r="F44" s="413"/>
       <c r="G44" s="4"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
@@ -23673,8 +24036,8 @@
       <c r="D45" s="6" t="s">
         <v>920</v>
       </c>
-      <c r="E45" s="407"/>
-      <c r="F45" s="409"/>
+      <c r="E45" s="411"/>
+      <c r="F45" s="413"/>
       <c r="G45" s="4"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
@@ -24322,14 +24685,14 @@
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
       <c r="E97" s="6"/>
-      <c r="F97" s="463" t="s">
+      <c r="F97" s="473" t="s">
         <v>1129</v>
       </c>
-      <c r="G97" s="454"/>
-      <c r="H97" s="454"/>
-      <c r="I97" s="454"/>
-      <c r="J97" s="454"/>
-      <c r="K97" s="464"/>
+      <c r="G97" s="458"/>
+      <c r="H97" s="458"/>
+      <c r="I97" s="458"/>
+      <c r="J97" s="458"/>
+      <c r="K97" s="474"/>
       <c r="L97" s="4" t="s">
         <v>1262</v>
       </c>
@@ -26338,13 +26701,13 @@
       <c r="Q214" s="24"/>
     </row>
     <row r="215" spans="2:17">
-      <c r="B215" s="455" t="s">
+      <c r="B215" s="465" t="s">
         <v>1877</v>
       </c>
-      <c r="C215" s="458"/>
-      <c r="D215" s="458"/>
-      <c r="E215" s="458"/>
-      <c r="F215" s="459"/>
+      <c r="C215" s="468"/>
+      <c r="D215" s="468"/>
+      <c r="E215" s="468"/>
+      <c r="F215" s="469"/>
       <c r="G215" s="214"/>
       <c r="H215" s="214"/>
       <c r="I215" s="214"/>
@@ -26362,40 +26725,40 @@
       <c r="Q215" s="24"/>
     </row>
     <row r="216" spans="2:17">
-      <c r="B216" s="460"/>
-      <c r="C216" s="458"/>
-      <c r="D216" s="458"/>
-      <c r="E216" s="458"/>
-      <c r="F216" s="459"/>
+      <c r="B216" s="470"/>
+      <c r="C216" s="468"/>
+      <c r="D216" s="468"/>
+      <c r="E216" s="468"/>
+      <c r="F216" s="469"/>
       <c r="G216" s="24"/>
       <c r="H216" s="24"/>
       <c r="I216" s="24"/>
       <c r="J216" s="24"/>
-      <c r="K216" s="455" t="s">
+      <c r="K216" s="465" t="s">
         <v>1863</v>
       </c>
-      <c r="L216" s="456"/>
-      <c r="M216" s="456"/>
-      <c r="N216" s="456"/>
-      <c r="O216" s="457"/>
+      <c r="L216" s="466"/>
+      <c r="M216" s="466"/>
+      <c r="N216" s="466"/>
+      <c r="O216" s="467"/>
       <c r="P216" s="24"/>
       <c r="Q216" s="24"/>
     </row>
     <row r="217" spans="2:17">
-      <c r="B217" s="460"/>
-      <c r="C217" s="458"/>
-      <c r="D217" s="458"/>
-      <c r="E217" s="458"/>
-      <c r="F217" s="459"/>
+      <c r="B217" s="470"/>
+      <c r="C217" s="468"/>
+      <c r="D217" s="468"/>
+      <c r="E217" s="468"/>
+      <c r="F217" s="469"/>
       <c r="G217" s="24"/>
       <c r="H217" s="24"/>
       <c r="I217" s="24"/>
       <c r="J217" s="24"/>
-      <c r="K217" s="455"/>
-      <c r="L217" s="456"/>
-      <c r="M217" s="456"/>
-      <c r="N217" s="456"/>
-      <c r="O217" s="457"/>
+      <c r="K217" s="465"/>
+      <c r="L217" s="466"/>
+      <c r="M217" s="466"/>
+      <c r="N217" s="466"/>
+      <c r="O217" s="467"/>
       <c r="P217" s="24"/>
       <c r="Q217" s="24"/>
     </row>
@@ -27134,17 +27497,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:L19"/>
     <mergeCell ref="K216:O217"/>
     <mergeCell ref="B215:F217"/>
     <mergeCell ref="D7:D18"/>
     <mergeCell ref="G24:L24"/>
     <mergeCell ref="F97:K97"/>
     <mergeCell ref="E44:F45"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:L19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="P9" r:id="rId1"/>
@@ -27164,6 +27527,1225 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S81"/>
+  <sheetViews>
+    <sheetView topLeftCell="F33" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q39" sqref="Q39:R44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:19" ht="15" customHeight="1">
+      <c r="A1" s="577" t="s">
+        <v>1897</v>
+      </c>
+      <c r="H1" s="578" t="s">
+        <v>1898</v>
+      </c>
+      <c r="I1" s="578"/>
+      <c r="J1" s="578"/>
+      <c r="K1" s="578"/>
+      <c r="M1" s="12" t="s">
+        <v>1899</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>1900</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>1901</v>
+      </c>
+      <c r="S1" s="35" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="577" t="s">
+        <v>1903</v>
+      </c>
+      <c r="H2" s="578"/>
+      <c r="I2" s="578"/>
+      <c r="J2" s="578"/>
+      <c r="K2" s="578"/>
+      <c r="M2" s="33" t="s">
+        <v>807</v>
+      </c>
+      <c r="O2" s="33" t="s">
+        <v>1904</v>
+      </c>
+      <c r="Q2" s="33" t="s">
+        <v>807</v>
+      </c>
+      <c r="S2" s="33" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="577" t="s">
+        <v>1905</v>
+      </c>
+      <c r="H3" s="578"/>
+      <c r="I3" s="578"/>
+      <c r="J3" s="578"/>
+      <c r="K3" s="578"/>
+      <c r="M3" s="33" t="s">
+        <v>808</v>
+      </c>
+      <c r="O3" s="33" t="s">
+        <v>1906</v>
+      </c>
+      <c r="Q3" s="33" t="s">
+        <v>808</v>
+      </c>
+      <c r="S3" s="33" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="577" t="s">
+        <v>1907</v>
+      </c>
+      <c r="H4" s="578"/>
+      <c r="I4" s="578"/>
+      <c r="J4" s="578"/>
+      <c r="K4" s="578"/>
+      <c r="M4" s="33" t="s">
+        <v>1004</v>
+      </c>
+      <c r="O4" s="33" t="s">
+        <v>1908</v>
+      </c>
+      <c r="Q4" s="33" t="s">
+        <v>1004</v>
+      </c>
+      <c r="S4" s="33" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="H5" s="578"/>
+      <c r="I5" s="578"/>
+      <c r="J5" s="578"/>
+      <c r="K5" s="578"/>
+      <c r="Q5" s="33" t="s">
+        <v>1904</v>
+      </c>
+      <c r="S5" s="33" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="H6" s="578"/>
+      <c r="I6" s="578"/>
+      <c r="J6" s="578"/>
+      <c r="K6" s="578"/>
+      <c r="Q6" s="33" t="s">
+        <v>1906</v>
+      </c>
+      <c r="S6" s="33" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="Q7" s="33" t="s">
+        <v>1908</v>
+      </c>
+      <c r="S7" s="33" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="H9" s="579" t="s">
+        <v>1909</v>
+      </c>
+      <c r="I9" s="579"/>
+      <c r="J9" s="579"/>
+      <c r="K9" s="579"/>
+      <c r="M9" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="580" t="s">
+        <v>1911</v>
+      </c>
+      <c r="H10" s="579"/>
+      <c r="I10" s="579"/>
+      <c r="J10" s="579"/>
+      <c r="K10" s="579"/>
+      <c r="M10" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="580" t="s">
+        <v>1913</v>
+      </c>
+      <c r="H11" s="579"/>
+      <c r="I11" s="579"/>
+      <c r="J11" s="579"/>
+      <c r="K11" s="579"/>
+      <c r="M11" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="580" t="s">
+        <v>1915</v>
+      </c>
+      <c r="H12" s="579"/>
+      <c r="I12" s="579"/>
+      <c r="J12" s="579"/>
+      <c r="K12" s="579"/>
+      <c r="M12" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="M13" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="M15" s="35" t="s">
+        <v>1918</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="16" t="s">
+        <v>1920</v>
+      </c>
+      <c r="I16" s="578" t="s">
+        <v>1921</v>
+      </c>
+      <c r="J16" s="578"/>
+      <c r="K16" s="578"/>
+      <c r="M16" t="s">
+        <v>1922</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="577" t="s">
+        <v>1923</v>
+      </c>
+      <c r="I17" s="578"/>
+      <c r="J17" s="578"/>
+      <c r="K17" s="578"/>
+      <c r="M17" t="s">
+        <v>1924</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="577" t="s">
+        <v>1925</v>
+      </c>
+      <c r="I18" s="578"/>
+      <c r="J18" s="578"/>
+      <c r="K18" s="578"/>
+      <c r="M18" t="s">
+        <v>1926</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="I19" s="578"/>
+      <c r="J19" s="578"/>
+      <c r="K19" s="578"/>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="577" t="s">
+        <v>1927</v>
+      </c>
+      <c r="I22" s="578" t="s">
+        <v>1928</v>
+      </c>
+      <c r="J22" s="578"/>
+      <c r="K22" s="578"/>
+      <c r="N22" s="35" t="s">
+        <v>1929</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="577" t="s">
+        <v>1930</v>
+      </c>
+      <c r="I23" s="578"/>
+      <c r="J23" s="578"/>
+      <c r="K23" s="578"/>
+      <c r="M23" s="395">
+        <v>0</v>
+      </c>
+      <c r="N23" s="396" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="I24" s="578"/>
+      <c r="J24" s="578"/>
+      <c r="K24" s="578"/>
+      <c r="M24" s="395">
+        <v>1</v>
+      </c>
+      <c r="N24" s="396" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="I25" s="578"/>
+      <c r="J25" s="578"/>
+      <c r="K25" s="578"/>
+      <c r="M25" s="395">
+        <v>2</v>
+      </c>
+      <c r="N25" s="396" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="I26" s="578"/>
+      <c r="J26" s="578"/>
+      <c r="K26" s="578"/>
+      <c r="M26" s="395">
+        <v>3</v>
+      </c>
+      <c r="N26" s="396" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="M27" s="395">
+        <v>4</v>
+      </c>
+      <c r="N27" s="396" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="580" t="s">
+        <v>1931</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1932</v>
+      </c>
+      <c r="M29" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="B30" t="s">
+        <v>1934</v>
+      </c>
+      <c r="I30" t="s">
+        <v>360</v>
+      </c>
+      <c r="M30" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="580"/>
+      <c r="B31" s="580" t="s">
+        <v>1936</v>
+      </c>
+      <c r="J31" t="s">
+        <v>1937</v>
+      </c>
+      <c r="M31" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" t="s">
+        <v>1939</v>
+      </c>
+      <c r="J32" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
+      <c r="A34" s="35" t="s">
+        <v>1941</v>
+      </c>
+      <c r="F34" t="s">
+        <v>80</v>
+      </c>
+      <c r="I34" t="s">
+        <v>121</v>
+      </c>
+      <c r="P34" s="35" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="15.75" thickBot="1"/>
+    <row r="36" spans="1:19">
+      <c r="A36" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="3"/>
+      <c r="F36" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="G36" s="3"/>
+      <c r="I36" s="1" t="s">
+        <v>1943</v>
+      </c>
+      <c r="J36" s="2"/>
+      <c r="K36" s="3"/>
+      <c r="M36" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="N36" s="3"/>
+      <c r="P36" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="3"/>
+    </row>
+    <row r="37" spans="1:19">
+      <c r="A37" s="4"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="6"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="6"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="6"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="6"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="6"/>
+    </row>
+    <row r="38" spans="1:19">
+      <c r="A38" s="4"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="6"/>
+      <c r="F38" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>1944</v>
+      </c>
+      <c r="I38" s="4"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="6"/>
+      <c r="M38" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>1944</v>
+      </c>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="6"/>
+    </row>
+    <row r="39" spans="1:19">
+      <c r="A39" s="4"/>
+      <c r="B39" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="581" t="s">
+        <v>1945</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="6"/>
+      <c r="I39" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="J39" s="5"/>
+      <c r="K39" s="6"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="6"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="5" t="s">
+        <v>1946</v>
+      </c>
+      <c r="R39" s="5"/>
+      <c r="S39" s="6"/>
+    </row>
+    <row r="40" spans="1:19">
+      <c r="A40" s="4"/>
+      <c r="B40" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" s="581" t="s">
+        <v>1945</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="6"/>
+      <c r="I40" s="4" t="s">
+        <v>998</v>
+      </c>
+      <c r="J40" s="5"/>
+      <c r="K40" s="6"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="6"/>
+      <c r="P40" s="4"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="6"/>
+    </row>
+    <row r="41" spans="1:19">
+      <c r="A41" s="4"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="6"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="6"/>
+      <c r="I41" s="4" t="s">
+        <v>1947</v>
+      </c>
+      <c r="J41" s="5"/>
+      <c r="K41" s="581" t="s">
+        <v>1948</v>
+      </c>
+      <c r="M41" s="4"/>
+      <c r="N41" s="6"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="5" t="s">
+        <v>1949</v>
+      </c>
+      <c r="R41" s="5"/>
+      <c r="S41" s="6"/>
+    </row>
+    <row r="42" spans="1:19">
+      <c r="A42" s="4"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F42" s="4"/>
+      <c r="G42" s="6"/>
+      <c r="I42" s="4" t="s">
+        <v>1950</v>
+      </c>
+      <c r="J42" s="5"/>
+      <c r="K42" s="581" t="s">
+        <v>1948</v>
+      </c>
+      <c r="M42" s="4"/>
+      <c r="N42" s="6"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="5" t="s">
+        <v>1951</v>
+      </c>
+      <c r="R42" s="5"/>
+      <c r="S42" s="6"/>
+    </row>
+    <row r="43" spans="1:19">
+      <c r="A43" s="4"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="6"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="6"/>
+      <c r="I43" s="4" t="s">
+        <v>1952</v>
+      </c>
+      <c r="J43" s="5"/>
+      <c r="K43" s="6"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="6"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="6"/>
+    </row>
+    <row r="44" spans="1:19">
+      <c r="A44" s="4"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="6"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="6"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="6"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="6"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="24" t="s">
+        <v>1953</v>
+      </c>
+      <c r="R44" s="5"/>
+      <c r="S44" s="6"/>
+    </row>
+    <row r="45" spans="1:19">
+      <c r="A45" s="4"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="6"/>
+      <c r="I45" s="4" t="s">
+        <v>1954</v>
+      </c>
+      <c r="J45" s="5"/>
+      <c r="K45" s="6"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="6"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="6"/>
+    </row>
+    <row r="46" spans="1:19">
+      <c r="A46" s="4"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="6"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="6"/>
+      <c r="I46" s="4" t="s">
+        <v>1955</v>
+      </c>
+      <c r="J46" s="5"/>
+      <c r="K46" s="6"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="6"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="24" t="s">
+        <v>1968</v>
+      </c>
+      <c r="R46" s="5"/>
+      <c r="S46" s="6"/>
+    </row>
+    <row r="47" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A47" s="8"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="9"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="9"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="5" t="s">
+        <v>1956</v>
+      </c>
+      <c r="K47" s="6"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="6"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="6"/>
+    </row>
+    <row r="48" spans="1:19">
+      <c r="I48" s="4"/>
+      <c r="J48" s="5" t="s">
+        <v>1957</v>
+      </c>
+      <c r="K48" s="6"/>
+      <c r="M48" s="4" t="s">
+        <v>1958</v>
+      </c>
+      <c r="N48" s="6"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="R48" s="5"/>
+      <c r="S48" s="6"/>
+    </row>
+    <row r="49" spans="1:19">
+      <c r="I49" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>1959</v>
+      </c>
+      <c r="K49" s="6"/>
+      <c r="M49" s="4" t="s">
+        <v>1960</v>
+      </c>
+      <c r="N49" s="6" t="s">
+        <v>1159</v>
+      </c>
+      <c r="O49" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="R49" s="5"/>
+      <c r="S49" s="6"/>
+    </row>
+    <row r="50" spans="1:19" ht="15.75" thickBot="1">
+      <c r="D50" t="s">
+        <v>1966</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="J50" s="10"/>
+      <c r="K50" s="9"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="9"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="10"/>
+      <c r="S50" s="9"/>
+    </row>
+    <row r="52" spans="1:19">
+      <c r="K52" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" ht="15.75" thickBot="1"/>
+    <row r="54" spans="1:19">
+      <c r="A54" s="1"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="3"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="3"/>
+    </row>
+    <row r="55" spans="1:19">
+      <c r="A55" s="4"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5" t="s">
+        <v>903</v>
+      </c>
+      <c r="D55" s="5"/>
+      <c r="E55" s="6"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="5"/>
+      <c r="R55" s="6"/>
+    </row>
+    <row r="56" spans="1:19">
+      <c r="A56" s="4"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="6"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="6"/>
+    </row>
+    <row r="57" spans="1:19">
+      <c r="A57" s="4"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="6"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="6"/>
+    </row>
+    <row r="58" spans="1:19">
+      <c r="A58" s="4"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="6"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="5"/>
+      <c r="Q58" s="5"/>
+      <c r="R58" s="6"/>
+    </row>
+    <row r="59" spans="1:19">
+      <c r="A59" s="4"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>1961</v>
+      </c>
+      <c r="E59" s="6"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5" t="s">
+        <v>1962</v>
+      </c>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5" t="s">
+        <v>1963</v>
+      </c>
+      <c r="N59" s="5"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="5"/>
+      <c r="Q59" s="5"/>
+      <c r="R59" s="6"/>
+    </row>
+    <row r="60" spans="1:19">
+      <c r="A60" s="4"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5" t="s">
+        <v>1964</v>
+      </c>
+      <c r="E60" s="6"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5"/>
+      <c r="O60" s="5"/>
+      <c r="P60" s="5"/>
+      <c r="Q60" s="5"/>
+      <c r="R60" s="6"/>
+    </row>
+    <row r="61" spans="1:19">
+      <c r="A61" s="4"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="6"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
+      <c r="N61" s="5"/>
+      <c r="O61" s="5"/>
+      <c r="P61" s="5"/>
+      <c r="Q61" s="5"/>
+      <c r="R61" s="6"/>
+    </row>
+    <row r="62" spans="1:19">
+      <c r="A62" s="4"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="6"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5"/>
+      <c r="O62" s="5"/>
+      <c r="P62" s="5"/>
+      <c r="Q62" s="5"/>
+      <c r="R62" s="6"/>
+    </row>
+    <row r="63" spans="1:19">
+      <c r="A63" s="4"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="6"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="5"/>
+      <c r="O63" s="5"/>
+      <c r="P63" s="5"/>
+      <c r="Q63" s="5"/>
+      <c r="R63" s="6"/>
+    </row>
+    <row r="64" spans="1:19">
+      <c r="A64" s="4"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="6"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="5"/>
+      <c r="O64" s="5"/>
+      <c r="P64" s="5"/>
+      <c r="Q64" s="5"/>
+      <c r="R64" s="6"/>
+    </row>
+    <row r="65" spans="1:18">
+      <c r="A65" s="4"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="6"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="5"/>
+      <c r="O65" s="5"/>
+      <c r="P65" s="5"/>
+      <c r="Q65" s="5"/>
+      <c r="R65" s="6"/>
+    </row>
+    <row r="66" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A66" s="8"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="9"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="10"/>
+      <c r="M66" s="10"/>
+      <c r="N66" s="10"/>
+      <c r="O66" s="10"/>
+      <c r="P66" s="10"/>
+      <c r="Q66" s="10"/>
+      <c r="R66" s="9"/>
+    </row>
+    <row r="68" spans="1:18" ht="15.75" thickBot="1"/>
+    <row r="69" spans="1:18">
+      <c r="A69" s="1"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="3"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="3"/>
+    </row>
+    <row r="70" spans="1:18">
+      <c r="A70" s="4"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5" t="s">
+        <v>903</v>
+      </c>
+      <c r="D70" s="5"/>
+      <c r="E70" s="6"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="5"/>
+      <c r="N70" s="5"/>
+      <c r="O70" s="5"/>
+      <c r="P70" s="5"/>
+      <c r="Q70" s="5"/>
+      <c r="R70" s="6"/>
+    </row>
+    <row r="71" spans="1:18">
+      <c r="A71" s="4"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="6"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="5"/>
+      <c r="Q71" s="5"/>
+      <c r="R71" s="6"/>
+    </row>
+    <row r="72" spans="1:18">
+      <c r="A72" s="4"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="6"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="5"/>
+      <c r="N72" s="5"/>
+      <c r="O72" s="5"/>
+      <c r="P72" s="5"/>
+      <c r="Q72" s="5"/>
+      <c r="R72" s="6"/>
+    </row>
+    <row r="73" spans="1:18">
+      <c r="A73" s="4"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="6"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
+      <c r="M73" s="5"/>
+      <c r="N73" s="5"/>
+      <c r="O73" s="5"/>
+      <c r="P73" s="5"/>
+      <c r="Q73" s="5"/>
+      <c r="R73" s="6"/>
+    </row>
+    <row r="74" spans="1:18">
+      <c r="A74" s="4"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>1961</v>
+      </c>
+      <c r="E74" s="6"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5" t="s">
+        <v>1962</v>
+      </c>
+      <c r="L74" s="5"/>
+      <c r="M74" s="5" t="s">
+        <v>1965</v>
+      </c>
+      <c r="N74" s="5"/>
+      <c r="O74" s="5"/>
+      <c r="P74" s="5"/>
+      <c r="Q74" s="5"/>
+      <c r="R74" s="6"/>
+    </row>
+    <row r="75" spans="1:18">
+      <c r="A75" s="4"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5" t="s">
+        <v>1964</v>
+      </c>
+      <c r="E75" s="6"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="5"/>
+      <c r="N75" s="5"/>
+      <c r="O75" s="5"/>
+      <c r="P75" s="5"/>
+      <c r="Q75" s="5"/>
+      <c r="R75" s="6"/>
+    </row>
+    <row r="76" spans="1:18">
+      <c r="A76" s="4"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="6"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
+      <c r="L76" s="5"/>
+      <c r="M76" s="5"/>
+      <c r="N76" s="5"/>
+      <c r="O76" s="5"/>
+      <c r="P76" s="5"/>
+      <c r="Q76" s="5"/>
+      <c r="R76" s="6"/>
+    </row>
+    <row r="77" spans="1:18">
+      <c r="A77" s="4"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5" t="s">
+        <v>1961</v>
+      </c>
+      <c r="E77" s="6"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
+      <c r="L77" s="5"/>
+      <c r="M77" s="5"/>
+      <c r="N77" s="5"/>
+      <c r="O77" s="5"/>
+      <c r="P77" s="5"/>
+      <c r="Q77" s="5"/>
+      <c r="R77" s="6"/>
+    </row>
+    <row r="78" spans="1:18">
+      <c r="A78" s="4"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5" t="s">
+        <v>1964</v>
+      </c>
+      <c r="E78" s="6"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
+      <c r="L78" s="5"/>
+      <c r="M78" s="5"/>
+      <c r="N78" s="5"/>
+      <c r="O78" s="5"/>
+      <c r="P78" s="5"/>
+      <c r="Q78" s="5"/>
+      <c r="R78" s="6"/>
+    </row>
+    <row r="79" spans="1:18">
+      <c r="A79" s="4"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="6"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="5"/>
+      <c r="L79" s="5"/>
+      <c r="M79" s="5"/>
+      <c r="N79" s="5"/>
+      <c r="O79" s="5"/>
+      <c r="P79" s="5"/>
+      <c r="Q79" s="5"/>
+      <c r="R79" s="6"/>
+    </row>
+    <row r="80" spans="1:18">
+      <c r="A80" s="4"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5" t="s">
+        <v>1961</v>
+      </c>
+      <c r="E80" s="6"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
+      <c r="L80" s="5"/>
+      <c r="M80" s="5"/>
+      <c r="N80" s="5"/>
+      <c r="O80" s="5"/>
+      <c r="P80" s="5"/>
+      <c r="Q80" s="5"/>
+      <c r="R80" s="6"/>
+    </row>
+    <row r="81" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A81" s="8"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="5" t="s">
+        <v>1964</v>
+      </c>
+      <c r="E81" s="9"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="10"/>
+      <c r="L81" s="10"/>
+      <c r="M81" s="10"/>
+      <c r="N81" s="10"/>
+      <c r="O81" s="10"/>
+      <c r="P81" s="10"/>
+      <c r="Q81" s="10"/>
+      <c r="R81" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="H1:K6"/>
+    <mergeCell ref="H9:K12"/>
+    <mergeCell ref="I16:K19"/>
+    <mergeCell ref="I22:K26"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A16" r:id="rId1" display="http://www.mkyong.com/struts2/struts-2-sort-tag-example/"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -27387,13 +28969,13 @@
       <c r="C20" s="96">
         <v>43908</v>
       </c>
-      <c r="D20" s="471" t="s">
+      <c r="D20" s="475" t="s">
         <v>298</v>
       </c>
-      <c r="E20" s="471"/>
-      <c r="F20" s="471"/>
-      <c r="G20" s="471"/>
-      <c r="H20" s="471"/>
+      <c r="E20" s="475"/>
+      <c r="F20" s="475"/>
+      <c r="G20" s="475"/>
+      <c r="H20" s="475"/>
       <c r="I20" s="33" t="s">
         <v>299</v>
       </c>
@@ -27404,37 +28986,37 @@
       <c r="N20" s="33"/>
     </row>
     <row r="21" spans="3:14">
-      <c r="C21" s="482">
+      <c r="C21" s="477">
         <v>43909</v>
       </c>
-      <c r="D21" s="471"/>
-      <c r="E21" s="471"/>
-      <c r="F21" s="471"/>
-      <c r="G21" s="471"/>
-      <c r="H21" s="471"/>
+      <c r="D21" s="475"/>
+      <c r="E21" s="475"/>
+      <c r="F21" s="475"/>
+      <c r="G21" s="475"/>
+      <c r="H21" s="475"/>
       <c r="I21" s="33" t="s">
         <v>300</v>
       </c>
-      <c r="J21" s="471"/>
-      <c r="K21" s="471"/>
-      <c r="L21" s="471" t="s">
+      <c r="J21" s="475"/>
+      <c r="K21" s="475"/>
+      <c r="L21" s="475" t="s">
         <v>301</v>
       </c>
-      <c r="M21" s="471"/>
-      <c r="N21" s="471"/>
+      <c r="M21" s="475"/>
+      <c r="N21" s="475"/>
     </row>
     <row r="22" spans="3:14">
-      <c r="C22" s="482"/>
-      <c r="D22" s="471"/>
-      <c r="E22" s="471"/>
-      <c r="F22" s="471"/>
-      <c r="G22" s="471"/>
-      <c r="H22" s="471"/>
-      <c r="I22" s="486" t="s">
+      <c r="C22" s="477"/>
+      <c r="D22" s="475"/>
+      <c r="E22" s="475"/>
+      <c r="F22" s="475"/>
+      <c r="G22" s="475"/>
+      <c r="H22" s="475"/>
+      <c r="I22" s="476" t="s">
         <v>302</v>
       </c>
-      <c r="J22" s="471"/>
-      <c r="K22" s="471"/>
+      <c r="J22" s="475"/>
+      <c r="K22" s="475"/>
       <c r="L22" s="97" t="s">
         <v>303</v>
       </c>
@@ -27442,31 +29024,31 @@
       <c r="N22" s="33"/>
     </row>
     <row r="23" spans="3:14">
-      <c r="C23" s="482"/>
-      <c r="D23" s="471"/>
-      <c r="E23" s="471"/>
-      <c r="F23" s="471"/>
-      <c r="G23" s="471"/>
-      <c r="H23" s="471"/>
-      <c r="I23" s="486"/>
-      <c r="J23" s="471"/>
-      <c r="K23" s="471"/>
-      <c r="L23" s="471" t="s">
+      <c r="C23" s="477"/>
+      <c r="D23" s="475"/>
+      <c r="E23" s="475"/>
+      <c r="F23" s="475"/>
+      <c r="G23" s="475"/>
+      <c r="H23" s="475"/>
+      <c r="I23" s="476"/>
+      <c r="J23" s="475"/>
+      <c r="K23" s="475"/>
+      <c r="L23" s="475" t="s">
         <v>304</v>
       </c>
-      <c r="M23" s="471"/>
-      <c r="N23" s="471"/>
+      <c r="M23" s="475"/>
+      <c r="N23" s="475"/>
     </row>
     <row r="24" spans="3:14">
-      <c r="C24" s="482"/>
-      <c r="D24" s="471"/>
-      <c r="E24" s="471"/>
-      <c r="F24" s="471"/>
-      <c r="G24" s="471"/>
-      <c r="H24" s="471"/>
-      <c r="I24" s="486"/>
-      <c r="J24" s="471"/>
-      <c r="K24" s="471"/>
+      <c r="C24" s="477"/>
+      <c r="D24" s="475"/>
+      <c r="E24" s="475"/>
+      <c r="F24" s="475"/>
+      <c r="G24" s="475"/>
+      <c r="H24" s="475"/>
+      <c r="I24" s="476"/>
+      <c r="J24" s="475"/>
+      <c r="K24" s="475"/>
       <c r="L24" s="98" t="s">
         <v>302</v>
       </c>
@@ -27477,13 +29059,13 @@
       <c r="C25" s="96">
         <v>43910</v>
       </c>
-      <c r="D25" s="471" t="s">
+      <c r="D25" s="475" t="s">
         <v>305</v>
       </c>
-      <c r="E25" s="471"/>
-      <c r="F25" s="471"/>
-      <c r="G25" s="471"/>
-      <c r="H25" s="471"/>
+      <c r="E25" s="475"/>
+      <c r="F25" s="475"/>
+      <c r="G25" s="475"/>
+      <c r="H25" s="475"/>
       <c r="I25" s="33" t="s">
         <v>306</v>
       </c>
@@ -27497,16 +29079,16 @@
       <c r="C26" s="96">
         <v>43911</v>
       </c>
-      <c r="D26" s="472"/>
-      <c r="E26" s="473"/>
-      <c r="F26" s="473"/>
-      <c r="G26" s="473"/>
-      <c r="H26" s="474"/>
-      <c r="I26" s="479" t="s">
+      <c r="D26" s="478"/>
+      <c r="E26" s="479"/>
+      <c r="F26" s="479"/>
+      <c r="G26" s="479"/>
+      <c r="H26" s="480"/>
+      <c r="I26" s="485" t="s">
         <v>302</v>
       </c>
-      <c r="J26" s="472"/>
-      <c r="K26" s="474"/>
+      <c r="J26" s="478"/>
+      <c r="K26" s="480"/>
       <c r="L26" s="97" t="s">
         <v>303</v>
       </c>
@@ -27515,30 +29097,30 @@
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="33"/>
-      <c r="D27" s="475"/>
-      <c r="E27" s="462"/>
-      <c r="F27" s="462"/>
-      <c r="G27" s="462"/>
-      <c r="H27" s="476"/>
-      <c r="I27" s="480"/>
-      <c r="J27" s="475"/>
-      <c r="K27" s="476"/>
-      <c r="L27" s="471" t="s">
+      <c r="D27" s="481"/>
+      <c r="E27" s="472"/>
+      <c r="F27" s="472"/>
+      <c r="G27" s="472"/>
+      <c r="H27" s="482"/>
+      <c r="I27" s="486"/>
+      <c r="J27" s="481"/>
+      <c r="K27" s="482"/>
+      <c r="L27" s="475" t="s">
         <v>307</v>
       </c>
-      <c r="M27" s="471"/>
-      <c r="N27" s="471"/>
+      <c r="M27" s="475"/>
+      <c r="N27" s="475"/>
     </row>
     <row r="28" spans="3:14">
       <c r="C28" s="33"/>
-      <c r="D28" s="475"/>
-      <c r="E28" s="462"/>
-      <c r="F28" s="462"/>
-      <c r="G28" s="462"/>
-      <c r="H28" s="476"/>
-      <c r="I28" s="480"/>
-      <c r="J28" s="475"/>
-      <c r="K28" s="476"/>
+      <c r="D28" s="481"/>
+      <c r="E28" s="472"/>
+      <c r="F28" s="472"/>
+      <c r="G28" s="472"/>
+      <c r="H28" s="482"/>
+      <c r="I28" s="486"/>
+      <c r="J28" s="481"/>
+      <c r="K28" s="482"/>
       <c r="L28" s="98" t="s">
         <v>302</v>
       </c>
@@ -27547,14 +29129,14 @@
     </row>
     <row r="29" spans="3:14">
       <c r="C29" s="33"/>
-      <c r="D29" s="477"/>
-      <c r="E29" s="452"/>
-      <c r="F29" s="452"/>
-      <c r="G29" s="452"/>
-      <c r="H29" s="478"/>
-      <c r="I29" s="481"/>
-      <c r="J29" s="477"/>
-      <c r="K29" s="478"/>
+      <c r="D29" s="483"/>
+      <c r="E29" s="456"/>
+      <c r="F29" s="456"/>
+      <c r="G29" s="456"/>
+      <c r="H29" s="484"/>
+      <c r="I29" s="487"/>
+      <c r="J29" s="483"/>
+      <c r="K29" s="484"/>
       <c r="L29" s="99" t="s">
         <v>308</v>
       </c>
@@ -27602,13 +29184,13 @@
       <c r="C33" s="96">
         <v>43908</v>
       </c>
-      <c r="D33" s="471" t="s">
+      <c r="D33" s="475" t="s">
         <v>298</v>
       </c>
-      <c r="E33" s="471"/>
-      <c r="F33" s="471"/>
-      <c r="G33" s="471"/>
-      <c r="H33" s="471"/>
+      <c r="E33" s="475"/>
+      <c r="F33" s="475"/>
+      <c r="G33" s="475"/>
+      <c r="H33" s="475"/>
       <c r="I33" s="33" t="s">
         <v>299</v>
       </c>
@@ -27619,33 +29201,33 @@
       <c r="N33" s="33"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="C34" s="482">
+      <c r="C34" s="477">
         <v>43909</v>
       </c>
-      <c r="D34" s="471"/>
-      <c r="E34" s="471"/>
-      <c r="F34" s="471"/>
-      <c r="G34" s="471"/>
-      <c r="H34" s="471"/>
-      <c r="I34" s="483"/>
-      <c r="J34" s="471"/>
-      <c r="K34" s="471"/>
-      <c r="L34" s="471" t="s">
+      <c r="D34" s="475"/>
+      <c r="E34" s="475"/>
+      <c r="F34" s="475"/>
+      <c r="G34" s="475"/>
+      <c r="H34" s="475"/>
+      <c r="I34" s="488"/>
+      <c r="J34" s="475"/>
+      <c r="K34" s="475"/>
+      <c r="L34" s="475" t="s">
         <v>301</v>
       </c>
-      <c r="M34" s="471"/>
-      <c r="N34" s="471"/>
+      <c r="M34" s="475"/>
+      <c r="N34" s="475"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="C35" s="482"/>
-      <c r="D35" s="471"/>
-      <c r="E35" s="471"/>
-      <c r="F35" s="471"/>
-      <c r="G35" s="471"/>
-      <c r="H35" s="471"/>
-      <c r="I35" s="484"/>
-      <c r="J35" s="471"/>
-      <c r="K35" s="471"/>
+      <c r="C35" s="477"/>
+      <c r="D35" s="475"/>
+      <c r="E35" s="475"/>
+      <c r="F35" s="475"/>
+      <c r="G35" s="475"/>
+      <c r="H35" s="475"/>
+      <c r="I35" s="489"/>
+      <c r="J35" s="475"/>
+      <c r="K35" s="475"/>
       <c r="L35" s="97" t="s">
         <v>303</v>
       </c>
@@ -27653,31 +29235,31 @@
       <c r="N35" s="33"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="C36" s="482"/>
-      <c r="D36" s="471"/>
-      <c r="E36" s="471"/>
-      <c r="F36" s="471"/>
-      <c r="G36" s="471"/>
-      <c r="H36" s="471"/>
-      <c r="I36" s="484"/>
-      <c r="J36" s="471"/>
-      <c r="K36" s="471"/>
-      <c r="L36" s="471" t="s">
+      <c r="C36" s="477"/>
+      <c r="D36" s="475"/>
+      <c r="E36" s="475"/>
+      <c r="F36" s="475"/>
+      <c r="G36" s="475"/>
+      <c r="H36" s="475"/>
+      <c r="I36" s="489"/>
+      <c r="J36" s="475"/>
+      <c r="K36" s="475"/>
+      <c r="L36" s="475" t="s">
         <v>304</v>
       </c>
-      <c r="M36" s="471"/>
-      <c r="N36" s="471"/>
+      <c r="M36" s="475"/>
+      <c r="N36" s="475"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="C37" s="482"/>
-      <c r="D37" s="471"/>
-      <c r="E37" s="471"/>
-      <c r="F37" s="471"/>
-      <c r="G37" s="471"/>
-      <c r="H37" s="471"/>
-      <c r="I37" s="485"/>
-      <c r="J37" s="471"/>
-      <c r="K37" s="471"/>
+      <c r="C37" s="477"/>
+      <c r="D37" s="475"/>
+      <c r="E37" s="475"/>
+      <c r="F37" s="475"/>
+      <c r="G37" s="475"/>
+      <c r="H37" s="475"/>
+      <c r="I37" s="490"/>
+      <c r="J37" s="475"/>
+      <c r="K37" s="475"/>
       <c r="L37" s="98" t="s">
         <v>309</v>
       </c>
@@ -27688,13 +29270,13 @@
       <c r="C38" s="96">
         <v>43910</v>
       </c>
-      <c r="D38" s="471" t="s">
+      <c r="D38" s="475" t="s">
         <v>305</v>
       </c>
-      <c r="E38" s="471"/>
-      <c r="F38" s="471"/>
-      <c r="G38" s="471"/>
-      <c r="H38" s="471"/>
+      <c r="E38" s="475"/>
+      <c r="F38" s="475"/>
+      <c r="G38" s="475"/>
+      <c r="H38" s="475"/>
       <c r="I38" s="33" t="s">
         <v>306</v>
       </c>
@@ -27708,14 +29290,14 @@
       <c r="C39" s="96">
         <v>43911</v>
       </c>
-      <c r="D39" s="472"/>
-      <c r="E39" s="473"/>
-      <c r="F39" s="473"/>
-      <c r="G39" s="473"/>
-      <c r="H39" s="474"/>
-      <c r="I39" s="479"/>
-      <c r="J39" s="472"/>
-      <c r="K39" s="474"/>
+      <c r="D39" s="478"/>
+      <c r="E39" s="479"/>
+      <c r="F39" s="479"/>
+      <c r="G39" s="479"/>
+      <c r="H39" s="480"/>
+      <c r="I39" s="485"/>
+      <c r="J39" s="478"/>
+      <c r="K39" s="480"/>
       <c r="L39" s="97" t="s">
         <v>303</v>
       </c>
@@ -27724,30 +29306,30 @@
     </row>
     <row r="40" spans="1:14">
       <c r="C40" s="33"/>
-      <c r="D40" s="475"/>
-      <c r="E40" s="462"/>
-      <c r="F40" s="462"/>
-      <c r="G40" s="462"/>
-      <c r="H40" s="476"/>
-      <c r="I40" s="480"/>
-      <c r="J40" s="475"/>
-      <c r="K40" s="476"/>
-      <c r="L40" s="471" t="s">
+      <c r="D40" s="481"/>
+      <c r="E40" s="472"/>
+      <c r="F40" s="472"/>
+      <c r="G40" s="472"/>
+      <c r="H40" s="482"/>
+      <c r="I40" s="486"/>
+      <c r="J40" s="481"/>
+      <c r="K40" s="482"/>
+      <c r="L40" s="475" t="s">
         <v>307</v>
       </c>
-      <c r="M40" s="471"/>
-      <c r="N40" s="471"/>
+      <c r="M40" s="475"/>
+      <c r="N40" s="475"/>
     </row>
     <row r="41" spans="1:14">
       <c r="C41" s="33"/>
-      <c r="D41" s="475"/>
-      <c r="E41" s="462"/>
-      <c r="F41" s="462"/>
-      <c r="G41" s="462"/>
-      <c r="H41" s="476"/>
-      <c r="I41" s="481"/>
-      <c r="J41" s="475"/>
-      <c r="K41" s="476"/>
+      <c r="D41" s="481"/>
+      <c r="E41" s="472"/>
+      <c r="F41" s="472"/>
+      <c r="G41" s="472"/>
+      <c r="H41" s="482"/>
+      <c r="I41" s="487"/>
+      <c r="J41" s="481"/>
+      <c r="K41" s="482"/>
       <c r="L41" s="98" t="s">
         <v>309</v>
       </c>
@@ -27756,16 +29338,16 @@
     </row>
     <row r="42" spans="1:14">
       <c r="C42" s="33"/>
-      <c r="D42" s="477"/>
-      <c r="E42" s="452"/>
-      <c r="F42" s="452"/>
-      <c r="G42" s="452"/>
-      <c r="H42" s="478"/>
+      <c r="D42" s="483"/>
+      <c r="E42" s="456"/>
+      <c r="F42" s="456"/>
+      <c r="G42" s="456"/>
+      <c r="H42" s="484"/>
       <c r="I42" s="33" t="s">
         <v>300</v>
       </c>
-      <c r="J42" s="477"/>
-      <c r="K42" s="478"/>
+      <c r="J42" s="483"/>
+      <c r="K42" s="484"/>
       <c r="L42" s="99" t="s">
         <v>308</v>
       </c>
@@ -28077,12 +29659,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H42"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="J39:K42"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:H37"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="J34:K37"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="L36:N36"/>
     <mergeCell ref="C21:C24"/>
     <mergeCell ref="D21:H24"/>
     <mergeCell ref="J21:K24"/>
@@ -28090,28 +29677,23 @@
     <mergeCell ref="D26:H29"/>
     <mergeCell ref="I26:I29"/>
     <mergeCell ref="J26:K29"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:H37"/>
-    <mergeCell ref="I34:I37"/>
-    <mergeCell ref="J34:K37"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H42"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="J39:K42"/>
-    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="L27:N27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:X155"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+      <selection activeCell="C28" sqref="C28:M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28122,29 +29704,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="21">
-      <c r="B2" s="505" t="s">
+      <c r="B2" s="501" t="s">
         <v>760</v>
       </c>
-      <c r="C2" s="505"/>
-      <c r="D2" s="505"/>
-      <c r="E2" s="505"/>
-      <c r="F2" s="505"/>
-      <c r="G2" s="505"/>
-      <c r="H2" s="505"/>
-      <c r="I2" s="505"/>
-      <c r="J2" s="505"/>
-      <c r="K2" s="505"/>
-      <c r="L2" s="505"/>
-      <c r="M2" s="505"/>
-      <c r="N2" s="505"/>
-      <c r="O2" s="505"/>
-      <c r="P2" s="505"/>
-      <c r="Q2" s="505"/>
-      <c r="R2" s="505"/>
-      <c r="S2" s="505"/>
-      <c r="T2" s="505"/>
-      <c r="U2" s="505"/>
-      <c r="V2" s="505"/>
+      <c r="C2" s="501"/>
+      <c r="D2" s="501"/>
+      <c r="E2" s="501"/>
+      <c r="F2" s="501"/>
+      <c r="G2" s="501"/>
+      <c r="H2" s="501"/>
+      <c r="I2" s="501"/>
+      <c r="J2" s="501"/>
+      <c r="K2" s="501"/>
+      <c r="L2" s="501"/>
+      <c r="M2" s="501"/>
+      <c r="N2" s="501"/>
+      <c r="O2" s="501"/>
+      <c r="P2" s="501"/>
+      <c r="Q2" s="501"/>
+      <c r="R2" s="501"/>
+      <c r="S2" s="501"/>
+      <c r="T2" s="501"/>
+      <c r="U2" s="501"/>
+      <c r="V2" s="501"/>
     </row>
     <row r="3" spans="2:22" ht="15.75" thickBot="1"/>
     <row r="4" spans="2:22">
@@ -28177,22 +29759,22 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="487" t="s">
+      <c r="G5" s="506" t="s">
         <v>330</v>
       </c>
-      <c r="H5" s="487"/>
-      <c r="I5" s="487" t="s">
+      <c r="H5" s="506"/>
+      <c r="I5" s="506" t="s">
         <v>331</v>
       </c>
-      <c r="J5" s="487"/>
-      <c r="K5" s="487"/>
-      <c r="L5" s="487"/>
-      <c r="M5" s="487"/>
-      <c r="N5" s="487"/>
-      <c r="O5" s="487" t="s">
+      <c r="J5" s="506"/>
+      <c r="K5" s="506"/>
+      <c r="L5" s="506"/>
+      <c r="M5" s="506"/>
+      <c r="N5" s="506"/>
+      <c r="O5" s="506" t="s">
         <v>332</v>
       </c>
-      <c r="P5" s="487"/>
+      <c r="P5" s="506"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
@@ -28204,7 +29786,7 @@
       <c r="D6" s="113"/>
       <c r="E6" s="114"/>
       <c r="F6" s="116"/>
-      <c r="G6" s="488" t="s">
+      <c r="G6" s="511" t="s">
         <v>333</v>
       </c>
       <c r="H6" s="92"/>
@@ -28233,26 +29815,26 @@
       </c>
       <c r="E7" s="116"/>
       <c r="F7" s="116"/>
-      <c r="G7" s="417"/>
-      <c r="H7" s="489" t="s">
+      <c r="G7" s="421"/>
+      <c r="H7" s="512" t="s">
         <v>335</v>
       </c>
-      <c r="I7" s="492" t="s">
+      <c r="I7" s="515" t="s">
         <v>336</v>
       </c>
-      <c r="J7" s="493"/>
-      <c r="K7" s="494" t="s">
+      <c r="J7" s="516"/>
+      <c r="K7" s="517" t="s">
         <v>337</v>
       </c>
-      <c r="L7" s="495"/>
-      <c r="M7" s="492" t="s">
+      <c r="L7" s="518"/>
+      <c r="M7" s="515" t="s">
         <v>338</v>
       </c>
-      <c r="N7" s="493"/>
-      <c r="O7" s="499" t="s">
+      <c r="N7" s="516"/>
+      <c r="O7" s="522" t="s">
         <v>339</v>
       </c>
-      <c r="P7" s="500"/>
+      <c r="P7" s="523"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
@@ -28264,16 +29846,16 @@
       <c r="D8" s="117"/>
       <c r="E8" s="118"/>
       <c r="F8" s="116"/>
-      <c r="G8" s="417"/>
-      <c r="H8" s="490"/>
-      <c r="I8" s="407"/>
-      <c r="J8" s="409"/>
-      <c r="K8" s="397"/>
-      <c r="L8" s="496"/>
-      <c r="M8" s="407"/>
-      <c r="N8" s="409"/>
-      <c r="O8" s="501"/>
-      <c r="P8" s="502"/>
+      <c r="G8" s="421"/>
+      <c r="H8" s="513"/>
+      <c r="I8" s="411"/>
+      <c r="J8" s="413"/>
+      <c r="K8" s="401"/>
+      <c r="L8" s="519"/>
+      <c r="M8" s="411"/>
+      <c r="N8" s="413"/>
+      <c r="O8" s="524"/>
+      <c r="P8" s="525"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="33" t="s">
         <v>67</v>
@@ -28291,16 +29873,16 @@
       <c r="D9" s="4"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="417"/>
-      <c r="H9" s="490"/>
-      <c r="I9" s="407"/>
-      <c r="J9" s="409"/>
-      <c r="K9" s="397"/>
-      <c r="L9" s="496"/>
-      <c r="M9" s="407"/>
-      <c r="N9" s="409"/>
-      <c r="O9" s="501"/>
-      <c r="P9" s="502"/>
+      <c r="G9" s="421"/>
+      <c r="H9" s="513"/>
+      <c r="I9" s="411"/>
+      <c r="J9" s="413"/>
+      <c r="K9" s="401"/>
+      <c r="L9" s="519"/>
+      <c r="M9" s="411"/>
+      <c r="N9" s="413"/>
+      <c r="O9" s="524"/>
+      <c r="P9" s="525"/>
       <c r="Q9" s="5" t="s">
         <v>2</v>
       </c>
@@ -28320,16 +29902,16 @@
       <c r="D10" s="1"/>
       <c r="E10" s="3"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="417"/>
-      <c r="H10" s="490"/>
-      <c r="I10" s="407"/>
-      <c r="J10" s="409"/>
-      <c r="K10" s="397"/>
-      <c r="L10" s="496"/>
-      <c r="M10" s="407"/>
-      <c r="N10" s="409"/>
-      <c r="O10" s="501"/>
-      <c r="P10" s="502"/>
+      <c r="G10" s="421"/>
+      <c r="H10" s="513"/>
+      <c r="I10" s="411"/>
+      <c r="J10" s="413"/>
+      <c r="K10" s="401"/>
+      <c r="L10" s="519"/>
+      <c r="M10" s="411"/>
+      <c r="N10" s="413"/>
+      <c r="O10" s="524"/>
+      <c r="P10" s="525"/>
       <c r="Q10" s="5" t="s">
         <v>72</v>
       </c>
@@ -28345,16 +29927,16 @@
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="417"/>
-      <c r="H11" s="490"/>
-      <c r="I11" s="407"/>
-      <c r="J11" s="409"/>
-      <c r="K11" s="397"/>
-      <c r="L11" s="496"/>
-      <c r="M11" s="407"/>
-      <c r="N11" s="409"/>
-      <c r="O11" s="501"/>
-      <c r="P11" s="502"/>
+      <c r="G11" s="421"/>
+      <c r="H11" s="513"/>
+      <c r="I11" s="411"/>
+      <c r="J11" s="413"/>
+      <c r="K11" s="401"/>
+      <c r="L11" s="519"/>
+      <c r="M11" s="411"/>
+      <c r="N11" s="413"/>
+      <c r="O11" s="524"/>
+      <c r="P11" s="525"/>
       <c r="Q11" s="5">
         <v>1000</v>
       </c>
@@ -28372,16 +29954,16 @@
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="417"/>
-      <c r="H12" s="490"/>
-      <c r="I12" s="407"/>
-      <c r="J12" s="409"/>
-      <c r="K12" s="397"/>
-      <c r="L12" s="496"/>
-      <c r="M12" s="407"/>
-      <c r="N12" s="409"/>
-      <c r="O12" s="501"/>
-      <c r="P12" s="502"/>
+      <c r="G12" s="421"/>
+      <c r="H12" s="513"/>
+      <c r="I12" s="411"/>
+      <c r="J12" s="413"/>
+      <c r="K12" s="401"/>
+      <c r="L12" s="519"/>
+      <c r="M12" s="411"/>
+      <c r="N12" s="413"/>
+      <c r="O12" s="524"/>
+      <c r="P12" s="525"/>
       <c r="Q12" s="5" t="s">
         <v>2</v>
       </c>
@@ -28395,16 +29977,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="417"/>
-      <c r="H13" s="490"/>
-      <c r="I13" s="407"/>
-      <c r="J13" s="409"/>
-      <c r="K13" s="397"/>
-      <c r="L13" s="496"/>
-      <c r="M13" s="407"/>
-      <c r="N13" s="409"/>
-      <c r="O13" s="501"/>
-      <c r="P13" s="502"/>
+      <c r="G13" s="421"/>
+      <c r="H13" s="513"/>
+      <c r="I13" s="411"/>
+      <c r="J13" s="413"/>
+      <c r="K13" s="401"/>
+      <c r="L13" s="519"/>
+      <c r="M13" s="411"/>
+      <c r="N13" s="413"/>
+      <c r="O13" s="524"/>
+      <c r="P13" s="525"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="33"/>
       <c r="S13" s="33"/>
@@ -28416,16 +29998,16 @@
       <c r="D14" s="1"/>
       <c r="E14" s="3"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="417"/>
-      <c r="H14" s="490"/>
-      <c r="I14" s="407"/>
-      <c r="J14" s="409"/>
-      <c r="K14" s="397"/>
-      <c r="L14" s="496"/>
-      <c r="M14" s="407"/>
-      <c r="N14" s="409"/>
-      <c r="O14" s="501"/>
-      <c r="P14" s="502"/>
+      <c r="G14" s="421"/>
+      <c r="H14" s="513"/>
+      <c r="I14" s="411"/>
+      <c r="J14" s="413"/>
+      <c r="K14" s="401"/>
+      <c r="L14" s="519"/>
+      <c r="M14" s="411"/>
+      <c r="N14" s="413"/>
+      <c r="O14" s="524"/>
+      <c r="P14" s="525"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="33"/>
       <c r="S14" s="33"/>
@@ -28439,16 +30021,16 @@
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="417"/>
-      <c r="H15" s="490"/>
-      <c r="I15" s="407"/>
-      <c r="J15" s="409"/>
-      <c r="K15" s="397"/>
-      <c r="L15" s="496"/>
-      <c r="M15" s="407"/>
-      <c r="N15" s="409"/>
-      <c r="O15" s="501"/>
-      <c r="P15" s="502"/>
+      <c r="G15" s="421"/>
+      <c r="H15" s="513"/>
+      <c r="I15" s="411"/>
+      <c r="J15" s="413"/>
+      <c r="K15" s="401"/>
+      <c r="L15" s="519"/>
+      <c r="M15" s="411"/>
+      <c r="N15" s="413"/>
+      <c r="O15" s="524"/>
+      <c r="P15" s="525"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
@@ -28460,16 +30042,16 @@
       <c r="D16" s="4"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="417"/>
-      <c r="H16" s="490"/>
-      <c r="I16" s="407"/>
-      <c r="J16" s="409"/>
-      <c r="K16" s="397"/>
-      <c r="L16" s="496"/>
-      <c r="M16" s="407"/>
-      <c r="N16" s="409"/>
-      <c r="O16" s="501"/>
-      <c r="P16" s="502"/>
+      <c r="G16" s="421"/>
+      <c r="H16" s="513"/>
+      <c r="I16" s="411"/>
+      <c r="J16" s="413"/>
+      <c r="K16" s="401"/>
+      <c r="L16" s="519"/>
+      <c r="M16" s="411"/>
+      <c r="N16" s="413"/>
+      <c r="O16" s="524"/>
+      <c r="P16" s="525"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
@@ -28481,16 +30063,16 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="417"/>
-      <c r="H17" s="490"/>
-      <c r="I17" s="407"/>
-      <c r="J17" s="409"/>
-      <c r="K17" s="397"/>
-      <c r="L17" s="496"/>
-      <c r="M17" s="407"/>
-      <c r="N17" s="409"/>
-      <c r="O17" s="501"/>
-      <c r="P17" s="502"/>
+      <c r="G17" s="421"/>
+      <c r="H17" s="513"/>
+      <c r="I17" s="411"/>
+      <c r="J17" s="413"/>
+      <c r="K17" s="401"/>
+      <c r="L17" s="519"/>
+      <c r="M17" s="411"/>
+      <c r="N17" s="413"/>
+      <c r="O17" s="524"/>
+      <c r="P17" s="525"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
@@ -28502,16 +30084,16 @@
       <c r="D18" s="4"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="417"/>
-      <c r="H18" s="490"/>
-      <c r="I18" s="407"/>
-      <c r="J18" s="409"/>
-      <c r="K18" s="397"/>
-      <c r="L18" s="496"/>
-      <c r="M18" s="407"/>
-      <c r="N18" s="409"/>
-      <c r="O18" s="501"/>
-      <c r="P18" s="502"/>
+      <c r="G18" s="421"/>
+      <c r="H18" s="513"/>
+      <c r="I18" s="411"/>
+      <c r="J18" s="413"/>
+      <c r="K18" s="401"/>
+      <c r="L18" s="519"/>
+      <c r="M18" s="411"/>
+      <c r="N18" s="413"/>
+      <c r="O18" s="524"/>
+      <c r="P18" s="525"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
@@ -28525,16 +30107,16 @@
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="417"/>
-      <c r="H19" s="490"/>
-      <c r="I19" s="407"/>
-      <c r="J19" s="409"/>
-      <c r="K19" s="397"/>
-      <c r="L19" s="496"/>
-      <c r="M19" s="407"/>
-      <c r="N19" s="409"/>
-      <c r="O19" s="501"/>
-      <c r="P19" s="502"/>
+      <c r="G19" s="421"/>
+      <c r="H19" s="513"/>
+      <c r="I19" s="411"/>
+      <c r="J19" s="413"/>
+      <c r="K19" s="401"/>
+      <c r="L19" s="519"/>
+      <c r="M19" s="411"/>
+      <c r="N19" s="413"/>
+      <c r="O19" s="524"/>
+      <c r="P19" s="525"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
@@ -28546,16 +30128,16 @@
       <c r="D20" s="8"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="418"/>
-      <c r="H20" s="491"/>
-      <c r="I20" s="410"/>
-      <c r="J20" s="412"/>
-      <c r="K20" s="497"/>
-      <c r="L20" s="498"/>
-      <c r="M20" s="410"/>
-      <c r="N20" s="412"/>
-      <c r="O20" s="503"/>
-      <c r="P20" s="504"/>
+      <c r="G20" s="422"/>
+      <c r="H20" s="514"/>
+      <c r="I20" s="414"/>
+      <c r="J20" s="416"/>
+      <c r="K20" s="520"/>
+      <c r="L20" s="521"/>
+      <c r="M20" s="414"/>
+      <c r="N20" s="416"/>
+      <c r="O20" s="526"/>
+      <c r="P20" s="527"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
@@ -28585,27 +30167,27 @@
     </row>
     <row r="22" spans="1:22" ht="15.75" thickBot="1">
       <c r="C22" s="4"/>
-      <c r="D22" s="398" t="s">
+      <c r="D22" s="402" t="s">
         <v>79</v>
       </c>
-      <c r="E22" s="399"/>
+      <c r="E22" s="403"/>
       <c r="F22" s="207"/>
       <c r="G22" s="91" t="s">
         <v>80</v>
       </c>
-      <c r="H22" s="398" t="s">
+      <c r="H22" s="402" t="s">
         <v>81</v>
       </c>
-      <c r="I22" s="413"/>
-      <c r="J22" s="413"/>
-      <c r="K22" s="413"/>
-      <c r="L22" s="413"/>
-      <c r="M22" s="413"/>
-      <c r="N22" s="399"/>
-      <c r="O22" s="398" t="s">
+      <c r="I22" s="417"/>
+      <c r="J22" s="417"/>
+      <c r="K22" s="417"/>
+      <c r="L22" s="417"/>
+      <c r="M22" s="417"/>
+      <c r="N22" s="403"/>
+      <c r="O22" s="402" t="s">
         <v>340</v>
       </c>
-      <c r="P22" s="399"/>
+      <c r="P22" s="403"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
@@ -28636,59 +30218,59 @@
       <c r="U23" s="9"/>
     </row>
     <row r="25" spans="1:22" ht="21">
-      <c r="B25" s="505" t="s">
+      <c r="B25" s="501" t="s">
         <v>759</v>
       </c>
-      <c r="C25" s="505"/>
-      <c r="D25" s="505"/>
-      <c r="E25" s="505"/>
-      <c r="F25" s="505"/>
-      <c r="G25" s="505"/>
-      <c r="H25" s="505"/>
-      <c r="I25" s="505"/>
-      <c r="J25" s="505"/>
-      <c r="K25" s="505"/>
-      <c r="L25" s="505"/>
-      <c r="M25" s="505"/>
-      <c r="N25" s="505"/>
-      <c r="O25" s="505"/>
-      <c r="P25" s="505"/>
-      <c r="Q25" s="505"/>
-      <c r="R25" s="505"/>
-      <c r="S25" s="505"/>
-      <c r="T25" s="505"/>
-      <c r="U25" s="505"/>
-      <c r="V25" s="505"/>
+      <c r="C25" s="501"/>
+      <c r="D25" s="501"/>
+      <c r="E25" s="501"/>
+      <c r="F25" s="501"/>
+      <c r="G25" s="501"/>
+      <c r="H25" s="501"/>
+      <c r="I25" s="501"/>
+      <c r="J25" s="501"/>
+      <c r="K25" s="501"/>
+      <c r="L25" s="501"/>
+      <c r="M25" s="501"/>
+      <c r="N25" s="501"/>
+      <c r="O25" s="501"/>
+      <c r="P25" s="501"/>
+      <c r="Q25" s="501"/>
+      <c r="R25" s="501"/>
+      <c r="S25" s="501"/>
+      <c r="T25" s="501"/>
+      <c r="U25" s="501"/>
+      <c r="V25" s="501"/>
     </row>
     <row r="26" spans="1:22" ht="15.75" thickBot="1">
-      <c r="C26" s="506" t="s">
+      <c r="C26" s="502" t="s">
         <v>367</v>
       </c>
-      <c r="D26" s="506"/>
-      <c r="E26" s="506"/>
-      <c r="F26" s="506"/>
-      <c r="G26" s="506"/>
-      <c r="H26" s="506"/>
-      <c r="I26" s="506"/>
-      <c r="J26" s="506"/>
-      <c r="K26" s="506"/>
-      <c r="L26" s="506"/>
-      <c r="M26" s="506"/>
+      <c r="D26" s="502"/>
+      <c r="E26" s="502"/>
+      <c r="F26" s="502"/>
+      <c r="G26" s="502"/>
+      <c r="H26" s="502"/>
+      <c r="I26" s="502"/>
+      <c r="J26" s="502"/>
+      <c r="K26" s="502"/>
+      <c r="L26" s="502"/>
+      <c r="M26" s="502"/>
     </row>
     <row r="27" spans="1:22" ht="15.75" thickBot="1">
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="507" t="s">
+      <c r="E27" s="503" t="s">
         <v>63</v>
       </c>
-      <c r="F27" s="508"/>
-      <c r="G27" s="508"/>
-      <c r="H27" s="401"/>
-      <c r="I27" s="401"/>
-      <c r="J27" s="401"/>
-      <c r="K27" s="401"/>
-      <c r="L27" s="401"/>
-      <c r="M27" s="402"/>
+      <c r="F27" s="504"/>
+      <c r="G27" s="504"/>
+      <c r="H27" s="405"/>
+      <c r="I27" s="405"/>
+      <c r="J27" s="405"/>
+      <c r="K27" s="405"/>
+      <c r="L27" s="405"/>
+      <c r="M27" s="406"/>
     </row>
     <row r="28" spans="1:22">
       <c r="C28" s="4" t="s">
@@ -28725,11 +30307,11 @@
         <v>1005</v>
       </c>
       <c r="M29" s="6"/>
-      <c r="O29" s="509" t="s">
+      <c r="O29" s="505" t="s">
         <v>64</v>
       </c>
-      <c r="P29" s="509"/>
-      <c r="Q29" s="509"/>
+      <c r="P29" s="505"/>
+      <c r="Q29" s="505"/>
     </row>
     <row r="30" spans="1:22" ht="15.75" thickBot="1">
       <c r="C30" s="4"/>
@@ -28783,21 +30365,21 @@
         <v>75</v>
       </c>
       <c r="D32" s="6"/>
-      <c r="E32" s="513" t="s">
+      <c r="E32" s="498" t="s">
         <v>763</v>
       </c>
-      <c r="F32" s="514"/>
-      <c r="G32" s="515"/>
-      <c r="H32" s="513" t="s">
+      <c r="F32" s="499"/>
+      <c r="G32" s="500"/>
+      <c r="H32" s="498" t="s">
         <v>764</v>
       </c>
-      <c r="I32" s="514"/>
-      <c r="J32" s="515"/>
-      <c r="K32" s="513" t="s">
+      <c r="I32" s="499"/>
+      <c r="J32" s="500"/>
+      <c r="K32" s="498" t="s">
         <v>765</v>
       </c>
-      <c r="L32" s="514"/>
-      <c r="M32" s="515"/>
+      <c r="L32" s="499"/>
+      <c r="M32" s="500"/>
       <c r="N32" s="5" t="s">
         <v>2</v>
       </c>
@@ -28817,15 +30399,15 @@
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="513"/>
-      <c r="F33" s="514"/>
-      <c r="G33" s="515"/>
-      <c r="H33" s="513"/>
-      <c r="I33" s="514"/>
-      <c r="J33" s="515"/>
-      <c r="K33" s="513"/>
-      <c r="L33" s="514"/>
-      <c r="M33" s="515"/>
+      <c r="E33" s="498"/>
+      <c r="F33" s="499"/>
+      <c r="G33" s="500"/>
+      <c r="H33" s="498"/>
+      <c r="I33" s="499"/>
+      <c r="J33" s="500"/>
+      <c r="K33" s="498"/>
+      <c r="L33" s="499"/>
+      <c r="M33" s="500"/>
       <c r="N33" s="5" t="s">
         <v>72</v>
       </c>
@@ -28848,15 +30430,15 @@
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="513"/>
-      <c r="F34" s="514"/>
-      <c r="G34" s="515"/>
-      <c r="H34" s="513"/>
-      <c r="I34" s="514"/>
-      <c r="J34" s="515"/>
-      <c r="K34" s="513"/>
-      <c r="L34" s="514"/>
-      <c r="M34" s="515"/>
+      <c r="E34" s="498"/>
+      <c r="F34" s="499"/>
+      <c r="G34" s="500"/>
+      <c r="H34" s="498"/>
+      <c r="I34" s="499"/>
+      <c r="J34" s="500"/>
+      <c r="K34" s="498"/>
+      <c r="L34" s="499"/>
+      <c r="M34" s="500"/>
       <c r="N34" s="5">
         <v>1000</v>
       </c>
@@ -28867,15 +30449,15 @@
     <row r="35" spans="1:22">
       <c r="C35" s="1"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="513"/>
-      <c r="F35" s="514"/>
-      <c r="G35" s="515"/>
-      <c r="H35" s="513"/>
-      <c r="I35" s="514"/>
-      <c r="J35" s="515"/>
-      <c r="K35" s="513"/>
-      <c r="L35" s="514"/>
-      <c r="M35" s="515"/>
+      <c r="E35" s="498"/>
+      <c r="F35" s="499"/>
+      <c r="G35" s="500"/>
+      <c r="H35" s="498"/>
+      <c r="I35" s="499"/>
+      <c r="J35" s="500"/>
+      <c r="K35" s="498"/>
+      <c r="L35" s="499"/>
+      <c r="M35" s="500"/>
       <c r="N35" s="5" t="s">
         <v>2</v>
       </c>
@@ -29006,15 +30588,15 @@
     <row r="42" spans="1:22" ht="19.5" thickBot="1">
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="517"/>
-      <c r="F42" s="518"/>
-      <c r="G42" s="518"/>
-      <c r="H42" s="518"/>
-      <c r="I42" s="518"/>
-      <c r="J42" s="518"/>
-      <c r="K42" s="518"/>
-      <c r="L42" s="518"/>
-      <c r="M42" s="519"/>
+      <c r="E42" s="491"/>
+      <c r="F42" s="492"/>
+      <c r="G42" s="492"/>
+      <c r="H42" s="492"/>
+      <c r="I42" s="492"/>
+      <c r="J42" s="492"/>
+      <c r="K42" s="492"/>
+      <c r="L42" s="492"/>
+      <c r="M42" s="493"/>
       <c r="N42" s="35" t="s">
         <v>372</v>
       </c>
@@ -29033,23 +30615,23 @@
       <c r="K43" s="5"/>
     </row>
     <row r="44" spans="1:22" ht="15.75" thickBot="1">
-      <c r="C44" s="398" t="s">
+      <c r="C44" s="402" t="s">
         <v>79</v>
       </c>
-      <c r="D44" s="399"/>
-      <c r="E44" s="398" t="s">
+      <c r="D44" s="403"/>
+      <c r="E44" s="402" t="s">
         <v>80</v>
       </c>
-      <c r="F44" s="413"/>
-      <c r="G44" s="399"/>
-      <c r="H44" s="398" t="s">
+      <c r="F44" s="417"/>
+      <c r="G44" s="403"/>
+      <c r="H44" s="402" t="s">
         <v>81</v>
       </c>
-      <c r="I44" s="413"/>
-      <c r="J44" s="413"/>
-      <c r="K44" s="413"/>
-      <c r="L44" s="413"/>
-      <c r="M44" s="399"/>
+      <c r="I44" s="417"/>
+      <c r="J44" s="417"/>
+      <c r="K44" s="417"/>
+      <c r="L44" s="417"/>
+      <c r="M44" s="403"/>
       <c r="Q44" t="s">
         <v>762</v>
       </c>
@@ -29069,61 +30651,61 @@
       </c>
     </row>
     <row r="47" spans="1:22" ht="21">
-      <c r="B47" s="505" t="s">
+      <c r="B47" s="501" t="s">
         <v>761</v>
       </c>
-      <c r="C47" s="505"/>
-      <c r="D47" s="505"/>
-      <c r="E47" s="505"/>
-      <c r="F47" s="505"/>
-      <c r="G47" s="505"/>
-      <c r="H47" s="505"/>
-      <c r="I47" s="505"/>
-      <c r="J47" s="505"/>
-      <c r="K47" s="505"/>
-      <c r="L47" s="505"/>
-      <c r="M47" s="505"/>
-      <c r="N47" s="505"/>
-      <c r="O47" s="505"/>
-      <c r="P47" s="505"/>
-      <c r="Q47" s="505"/>
-      <c r="R47" s="505"/>
-      <c r="S47" s="505"/>
-      <c r="T47" s="505"/>
-      <c r="U47" s="505"/>
-      <c r="V47" s="505"/>
+      <c r="C47" s="501"/>
+      <c r="D47" s="501"/>
+      <c r="E47" s="501"/>
+      <c r="F47" s="501"/>
+      <c r="G47" s="501"/>
+      <c r="H47" s="501"/>
+      <c r="I47" s="501"/>
+      <c r="J47" s="501"/>
+      <c r="K47" s="501"/>
+      <c r="L47" s="501"/>
+      <c r="M47" s="501"/>
+      <c r="N47" s="501"/>
+      <c r="O47" s="501"/>
+      <c r="P47" s="501"/>
+      <c r="Q47" s="501"/>
+      <c r="R47" s="501"/>
+      <c r="S47" s="501"/>
+      <c r="T47" s="501"/>
+      <c r="U47" s="501"/>
+      <c r="V47" s="501"/>
     </row>
     <row r="48" spans="1:22" ht="15.75" thickBot="1">
-      <c r="C48" s="506" t="s">
+      <c r="C48" s="502" t="s">
         <v>367</v>
       </c>
-      <c r="D48" s="506"/>
-      <c r="E48" s="506"/>
-      <c r="F48" s="506"/>
-      <c r="G48" s="506"/>
-      <c r="H48" s="506"/>
-      <c r="I48" s="506"/>
-      <c r="J48" s="506"/>
-      <c r="K48" s="506"/>
-      <c r="L48" s="506"/>
-      <c r="M48" s="506"/>
+      <c r="D48" s="502"/>
+      <c r="E48" s="502"/>
+      <c r="F48" s="502"/>
+      <c r="G48" s="502"/>
+      <c r="H48" s="502"/>
+      <c r="I48" s="502"/>
+      <c r="J48" s="502"/>
+      <c r="K48" s="502"/>
+      <c r="L48" s="502"/>
+      <c r="M48" s="502"/>
       <c r="S48" s="24"/>
       <c r="T48" s="24"/>
     </row>
     <row r="49" spans="1:24" ht="15.75" thickBot="1">
       <c r="C49" s="1"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="507" t="s">
+      <c r="E49" s="503" t="s">
         <v>63</v>
       </c>
-      <c r="F49" s="508"/>
-      <c r="G49" s="508"/>
-      <c r="H49" s="401"/>
-      <c r="I49" s="401"/>
-      <c r="J49" s="401"/>
-      <c r="K49" s="401"/>
-      <c r="L49" s="401"/>
-      <c r="M49" s="402"/>
+      <c r="F49" s="504"/>
+      <c r="G49" s="504"/>
+      <c r="H49" s="405"/>
+      <c r="I49" s="405"/>
+      <c r="J49" s="405"/>
+      <c r="K49" s="405"/>
+      <c r="L49" s="405"/>
+      <c r="M49" s="406"/>
       <c r="S49" s="24"/>
       <c r="T49" s="24"/>
       <c r="U49" s="18"/>
@@ -29143,16 +30725,16 @@
       <c r="G50" s="187" t="s">
         <v>1279</v>
       </c>
-      <c r="H50" s="510" t="s">
+      <c r="H50" s="507" t="s">
         <v>764</v>
       </c>
-      <c r="I50" s="511"/>
-      <c r="J50" s="512"/>
-      <c r="K50" s="510" t="s">
+      <c r="I50" s="508"/>
+      <c r="J50" s="509"/>
+      <c r="K50" s="507" t="s">
         <v>765</v>
       </c>
-      <c r="L50" s="511"/>
-      <c r="M50" s="512"/>
+      <c r="L50" s="508"/>
+      <c r="M50" s="509"/>
       <c r="S50" s="24"/>
       <c r="T50" s="24"/>
       <c r="W50" t="s">
@@ -29166,20 +30748,20 @@
         <v>779</v>
       </c>
       <c r="F51" s="228"/>
-      <c r="G51" s="516" t="s">
+      <c r="G51" s="510" t="s">
         <v>787</v>
       </c>
-      <c r="H51" s="513"/>
-      <c r="I51" s="514"/>
-      <c r="J51" s="515"/>
-      <c r="K51" s="513"/>
-      <c r="L51" s="514"/>
-      <c r="M51" s="515"/>
-      <c r="O51" s="509" t="s">
+      <c r="H51" s="498"/>
+      <c r="I51" s="499"/>
+      <c r="J51" s="500"/>
+      <c r="K51" s="498"/>
+      <c r="L51" s="499"/>
+      <c r="M51" s="500"/>
+      <c r="O51" s="505" t="s">
         <v>64</v>
       </c>
-      <c r="P51" s="509"/>
-      <c r="Q51" s="509"/>
+      <c r="P51" s="505"/>
+      <c r="Q51" s="505"/>
       <c r="S51" s="215"/>
       <c r="T51" s="215"/>
       <c r="W51" s="35" t="s">
@@ -29193,13 +30775,13 @@
         <v>780</v>
       </c>
       <c r="F52" s="229"/>
-      <c r="G52" s="516"/>
-      <c r="H52" s="513"/>
-      <c r="I52" s="514"/>
-      <c r="J52" s="515"/>
-      <c r="K52" s="513"/>
-      <c r="L52" s="514"/>
-      <c r="M52" s="515"/>
+      <c r="G52" s="510"/>
+      <c r="H52" s="498"/>
+      <c r="I52" s="499"/>
+      <c r="J52" s="500"/>
+      <c r="K52" s="498"/>
+      <c r="L52" s="499"/>
+      <c r="M52" s="500"/>
       <c r="S52" s="24"/>
       <c r="T52" s="24"/>
     </row>
@@ -29210,13 +30792,13 @@
         <v>781</v>
       </c>
       <c r="F53" s="230"/>
-      <c r="G53" s="516"/>
-      <c r="H53" s="513"/>
-      <c r="I53" s="514"/>
-      <c r="J53" s="515"/>
-      <c r="K53" s="513"/>
-      <c r="L53" s="514"/>
-      <c r="M53" s="515"/>
+      <c r="G53" s="510"/>
+      <c r="H53" s="498"/>
+      <c r="I53" s="499"/>
+      <c r="J53" s="500"/>
+      <c r="K53" s="498"/>
+      <c r="L53" s="499"/>
+      <c r="M53" s="500"/>
       <c r="N53" s="5"/>
       <c r="O53" s="33" t="s">
         <v>67</v>
@@ -29255,7 +30837,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="216"/>
       <c r="F54" s="231"/>
-      <c r="G54" s="522" t="s">
+      <c r="G54" s="496" t="s">
         <v>791</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -29302,11 +30884,11 @@
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="520" t="s">
+      <c r="E55" s="494" t="s">
         <v>792</v>
       </c>
-      <c r="F55" s="521"/>
-      <c r="G55" s="523"/>
+      <c r="F55" s="495"/>
+      <c r="G55" s="497"/>
       <c r="H55" s="119" t="s">
         <v>783</v>
       </c>
@@ -29350,9 +30932,9 @@
     <row r="56" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="C56" s="8"/>
       <c r="D56" s="9"/>
-      <c r="E56" s="520"/>
-      <c r="F56" s="521"/>
-      <c r="G56" s="523"/>
+      <c r="E56" s="494"/>
+      <c r="F56" s="495"/>
+      <c r="G56" s="497"/>
       <c r="H56" s="119" t="s">
         <v>784</v>
       </c>
@@ -29382,9 +30964,9 @@
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="520"/>
-      <c r="F57" s="521"/>
-      <c r="G57" s="523"/>
+      <c r="E57" s="494"/>
+      <c r="F57" s="495"/>
+      <c r="G57" s="497"/>
       <c r="H57" s="4" t="s">
         <v>796</v>
       </c>
@@ -29414,9 +30996,9 @@
         <v>77</v>
       </c>
       <c r="D58" s="6"/>
-      <c r="E58" s="520"/>
-      <c r="F58" s="521"/>
-      <c r="G58" s="523"/>
+      <c r="E58" s="494"/>
+      <c r="F58" s="495"/>
+      <c r="G58" s="497"/>
       <c r="H58" s="220" t="s">
         <v>782</v>
       </c>
@@ -29441,9 +31023,9 @@
     <row r="59" spans="1:24">
       <c r="C59" s="4"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="520"/>
-      <c r="F59" s="521"/>
-      <c r="G59" s="523"/>
+      <c r="E59" s="494"/>
+      <c r="F59" s="495"/>
+      <c r="G59" s="497"/>
       <c r="H59" s="220" t="s">
         <v>360</v>
       </c>
@@ -29468,9 +31050,9 @@
     <row r="60" spans="1:24" ht="15.75" thickBot="1">
       <c r="C60" s="8"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="520"/>
-      <c r="F60" s="521"/>
-      <c r="G60" s="523"/>
+      <c r="E60" s="494"/>
+      <c r="F60" s="495"/>
+      <c r="G60" s="497"/>
       <c r="H60" s="222"/>
       <c r="I60" s="223" t="s">
         <v>798</v>
@@ -29490,9 +31072,9 @@
     <row r="61" spans="1:24">
       <c r="C61" s="4"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="520"/>
-      <c r="F61" s="521"/>
-      <c r="G61" s="523"/>
+      <c r="E61" s="494"/>
+      <c r="F61" s="495"/>
+      <c r="G61" s="497"/>
       <c r="H61" s="222"/>
       <c r="I61" s="223" t="s">
         <v>799</v>
@@ -29512,7 +31094,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="211"/>
       <c r="F62" s="227"/>
-      <c r="G62" s="523"/>
+      <c r="G62" s="497"/>
       <c r="H62" s="224"/>
       <c r="I62" s="226" t="s">
         <v>800</v>
@@ -29554,17 +31136,17 @@
     <row r="64" spans="1:24" ht="19.5" thickBot="1">
       <c r="C64" s="8"/>
       <c r="D64" s="9"/>
-      <c r="E64" s="517" t="s">
+      <c r="E64" s="491" t="s">
         <v>1280</v>
       </c>
-      <c r="F64" s="518"/>
-      <c r="G64" s="518"/>
-      <c r="H64" s="518"/>
-      <c r="I64" s="518"/>
-      <c r="J64" s="518"/>
-      <c r="K64" s="518"/>
-      <c r="L64" s="518"/>
-      <c r="M64" s="519"/>
+      <c r="F64" s="492"/>
+      <c r="G64" s="492"/>
+      <c r="H64" s="492"/>
+      <c r="I64" s="492"/>
+      <c r="J64" s="492"/>
+      <c r="K64" s="492"/>
+      <c r="L64" s="492"/>
+      <c r="M64" s="493"/>
       <c r="N64" s="35" t="s">
         <v>372</v>
       </c>
@@ -29593,23 +31175,23 @@
       </c>
     </row>
     <row r="66" spans="2:24" ht="15.75" thickBot="1">
-      <c r="C66" s="398" t="s">
+      <c r="C66" s="402" t="s">
         <v>79</v>
       </c>
-      <c r="D66" s="399"/>
-      <c r="E66" s="398" t="s">
+      <c r="D66" s="403"/>
+      <c r="E66" s="402" t="s">
         <v>80</v>
       </c>
-      <c r="F66" s="413"/>
-      <c r="G66" s="399"/>
-      <c r="H66" s="398" t="s">
+      <c r="F66" s="417"/>
+      <c r="G66" s="403"/>
+      <c r="H66" s="402" t="s">
         <v>81</v>
       </c>
-      <c r="I66" s="413"/>
-      <c r="J66" s="413"/>
-      <c r="K66" s="413"/>
-      <c r="L66" s="413"/>
-      <c r="M66" s="399"/>
+      <c r="I66" s="417"/>
+      <c r="J66" s="417"/>
+      <c r="K66" s="417"/>
+      <c r="L66" s="417"/>
+      <c r="M66" s="403"/>
       <c r="Q66" t="s">
         <v>762</v>
       </c>
@@ -29630,23 +31212,23 @@
       </c>
     </row>
     <row r="68" spans="2:24">
-      <c r="C68" s="471" t="s">
+      <c r="C68" s="475" t="s">
         <v>66</v>
       </c>
-      <c r="D68" s="471"/>
-      <c r="E68" s="471" t="s">
+      <c r="D68" s="475"/>
+      <c r="E68" s="475" t="s">
         <v>978</v>
       </c>
-      <c r="F68" s="471"/>
-      <c r="G68" s="471"/>
-      <c r="H68" s="471" t="s">
+      <c r="F68" s="475"/>
+      <c r="G68" s="475"/>
+      <c r="H68" s="475" t="s">
         <v>994</v>
       </c>
-      <c r="I68" s="471"/>
-      <c r="J68" s="471"/>
-      <c r="K68" s="471"/>
-      <c r="L68" s="471"/>
-      <c r="M68" s="471"/>
+      <c r="I68" s="475"/>
+      <c r="J68" s="475"/>
+      <c r="K68" s="475"/>
+      <c r="L68" s="475"/>
+      <c r="M68" s="475"/>
       <c r="S68" s="24"/>
       <c r="T68" s="24"/>
       <c r="U68" s="2" t="s">
@@ -30476,7 +32058,7 @@
       <c r="M136" s="6"/>
     </row>
     <row r="137" spans="1:13" ht="15.75" thickBot="1">
-      <c r="F137" s="574">
+      <c r="F137" s="398">
         <v>0.17476851851851852</v>
       </c>
       <c r="G137" s="5"/>
@@ -30494,7 +32076,7 @@
       <c r="B138" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="E138" s="573"/>
+      <c r="E138" s="397"/>
       <c r="F138" s="30"/>
       <c r="G138" s="5"/>
       <c r="H138" s="8"/>
@@ -30662,30 +32244,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E64:M64"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:M66"/>
-    <mergeCell ref="E55:F61"/>
-    <mergeCell ref="G54:G62"/>
-    <mergeCell ref="E32:G35"/>
-    <mergeCell ref="H32:J35"/>
-    <mergeCell ref="K32:M35"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="H22:N22"/>
-    <mergeCell ref="B2:V2"/>
-    <mergeCell ref="B25:V25"/>
-    <mergeCell ref="C26:M26"/>
-    <mergeCell ref="E27:M27"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="K50:M53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="E42:M42"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:M44"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="E68:G68"/>
     <mergeCell ref="H68:M68"/>
@@ -30702,6 +32260,30 @@
     <mergeCell ref="E49:M49"/>
     <mergeCell ref="O51:Q51"/>
     <mergeCell ref="H50:J53"/>
+    <mergeCell ref="K50:M53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="E42:M42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:M44"/>
+    <mergeCell ref="B2:V2"/>
+    <mergeCell ref="B25:V25"/>
+    <mergeCell ref="C26:M26"/>
+    <mergeCell ref="E27:M27"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="E32:G35"/>
+    <mergeCell ref="H32:J35"/>
+    <mergeCell ref="K32:M35"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="E64:M64"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:M66"/>
+    <mergeCell ref="E55:F61"/>
+    <mergeCell ref="G54:G62"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="T9" r:id="rId1"/>
@@ -30721,7 +32303,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:R59"/>
   <sheetViews>
@@ -30735,12 +32317,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13">
-      <c r="B1" s="524" t="s">
+      <c r="B1" s="528" t="s">
         <v>350</v>
       </c>
-      <c r="C1" s="524"/>
-      <c r="D1" s="524"/>
-      <c r="E1" s="524"/>
+      <c r="C1" s="528"/>
+      <c r="D1" s="528"/>
+      <c r="E1" s="528"/>
       <c r="I1" s="276" t="s">
         <v>1311</v>
       </c>
@@ -30869,10 +32451,10 @@
       <c r="L7" s="274"/>
     </row>
     <row r="8" spans="2:13">
-      <c r="B8" s="462"/>
-      <c r="C8" s="462"/>
-      <c r="D8" s="462"/>
-      <c r="E8" s="462"/>
+      <c r="B8" s="472"/>
+      <c r="C8" s="472"/>
+      <c r="D8" s="472"/>
+      <c r="E8" s="472"/>
       <c r="G8" t="s">
         <v>1319</v>
       </c>
@@ -30967,11 +32549,11 @@
     </row>
     <row r="24" spans="2:18" ht="15.75" thickBot="1"/>
     <row r="25" spans="2:18">
-      <c r="B25" s="525" t="s">
+      <c r="B25" s="529" t="s">
         <v>1309</v>
       </c>
-      <c r="C25" s="526"/>
-      <c r="D25" s="526"/>
+      <c r="C25" s="530"/>
+      <c r="D25" s="530"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -31468,7 +33050,276 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:Q20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4:M9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:17" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:17" ht="15.75" thickBot="1">
+      <c r="B2" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3" spans="2:17">
+      <c r="I3" s="4"/>
+      <c r="J3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="6"/>
+    </row>
+    <row r="4" spans="2:17" ht="15.75" thickBot="1">
+      <c r="B4" s="33"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>3306</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="3"/>
+    </row>
+    <row r="6" spans="2:17" ht="15.75" thickBot="1">
+      <c r="I6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="6"/>
+    </row>
+    <row r="7" spans="2:17" ht="15.75" thickBot="1">
+      <c r="B7" s="33"/>
+      <c r="I7" s="7">
+        <v>80</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="6"/>
+    </row>
+    <row r="8" spans="2:17">
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="6"/>
+    </row>
+    <row r="9" spans="2:17">
+      <c r="I9" s="4"/>
+      <c r="J9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="6"/>
+    </row>
+    <row r="10" spans="2:17" ht="15.75" thickBot="1">
+      <c r="B10" s="33"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="9"/>
+    </row>
+    <row r="11" spans="2:17">
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="6"/>
+    </row>
+    <row r="12" spans="2:17" ht="15.75" thickBot="1">
+      <c r="I12" s="4"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="6"/>
+    </row>
+    <row r="13" spans="2:17">
+      <c r="B13" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="6">
+        <v>25678</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" ht="15.75" thickBot="1">
+      <c r="I14" s="4"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5">
+        <v>65635</v>
+      </c>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="6"/>
+    </row>
+    <row r="15" spans="2:17" ht="15.75" thickBot="1">
+      <c r="B15" s="33"/>
+      <c r="I15" s="11">
+        <v>22</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="6"/>
+    </row>
+    <row r="16" spans="2:17" ht="15.75" thickBot="1">
+      <c r="I16" s="8"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="31">
+        <v>44234</v>
+      </c>
+      <c r="Q16" s="9"/>
+    </row>
+    <row r="17" spans="5:11">
+      <c r="E17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="5:11">
+      <c r="E18" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18">
+        <v>80</v>
+      </c>
+      <c r="J18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="5:11">
+      <c r="I19">
+        <v>22</v>
+      </c>
+      <c r="J19" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="5:11">
+      <c r="I20">
+        <v>3306</v>
+      </c>
+      <c r="J20" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:R81"/>
   <sheetViews>
@@ -31479,32 +33330,32 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:17" ht="15.75" thickBot="1">
-      <c r="C2" s="506" t="s">
+      <c r="C2" s="502" t="s">
         <v>367</v>
       </c>
-      <c r="D2" s="506"/>
-      <c r="E2" s="506"/>
-      <c r="F2" s="506"/>
-      <c r="G2" s="506"/>
-      <c r="H2" s="506"/>
-      <c r="I2" s="506"/>
-      <c r="J2" s="506"/>
-      <c r="K2" s="506"/>
-      <c r="L2" s="506"/>
+      <c r="D2" s="502"/>
+      <c r="E2" s="502"/>
+      <c r="F2" s="502"/>
+      <c r="G2" s="502"/>
+      <c r="H2" s="502"/>
+      <c r="I2" s="502"/>
+      <c r="J2" s="502"/>
+      <c r="K2" s="502"/>
+      <c r="L2" s="502"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1">
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="507" t="s">
+      <c r="E3" s="503" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="508"/>
-      <c r="G3" s="401"/>
-      <c r="H3" s="401"/>
-      <c r="I3" s="401"/>
-      <c r="J3" s="401"/>
-      <c r="K3" s="401"/>
-      <c r="L3" s="402"/>
+      <c r="F3" s="504"/>
+      <c r="G3" s="405"/>
+      <c r="H3" s="405"/>
+      <c r="I3" s="405"/>
+      <c r="J3" s="405"/>
+      <c r="K3" s="405"/>
+      <c r="L3" s="406"/>
     </row>
     <row r="4" spans="1:17">
       <c r="C4" s="4" t="s">
@@ -31535,11 +33386,11 @@
         <v>377</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="N5" s="509" t="s">
+      <c r="N5" s="505" t="s">
         <v>64</v>
       </c>
-      <c r="O5" s="509"/>
-      <c r="P5" s="509"/>
+      <c r="O5" s="505"/>
+      <c r="P5" s="505"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1">
       <c r="A6" t="s">
@@ -31599,20 +33450,20 @@
         <v>75</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="513" t="s">
+      <c r="E8" s="498" t="s">
         <v>368</v>
       </c>
-      <c r="F8" s="515"/>
-      <c r="G8" s="513" t="s">
+      <c r="F8" s="500"/>
+      <c r="G8" s="498" t="s">
         <v>369</v>
       </c>
-      <c r="H8" s="514"/>
-      <c r="I8" s="515"/>
-      <c r="J8" s="513" t="s">
+      <c r="H8" s="499"/>
+      <c r="I8" s="500"/>
+      <c r="J8" s="498" t="s">
         <v>370</v>
       </c>
-      <c r="K8" s="514"/>
-      <c r="L8" s="515"/>
+      <c r="K8" s="499"/>
+      <c r="L8" s="500"/>
       <c r="M8" s="5" t="s">
         <v>2</v>
       </c>
@@ -31635,14 +33486,14 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="513"/>
-      <c r="F9" s="515"/>
-      <c r="G9" s="513"/>
-      <c r="H9" s="514"/>
-      <c r="I9" s="515"/>
-      <c r="J9" s="513"/>
-      <c r="K9" s="514"/>
-      <c r="L9" s="515"/>
+      <c r="E9" s="498"/>
+      <c r="F9" s="500"/>
+      <c r="G9" s="498"/>
+      <c r="H9" s="499"/>
+      <c r="I9" s="500"/>
+      <c r="J9" s="498"/>
+      <c r="K9" s="499"/>
+      <c r="L9" s="500"/>
       <c r="M9" s="5" t="s">
         <v>72</v>
       </c>
@@ -31659,14 +33510,14 @@
     <row r="10" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="513"/>
-      <c r="F10" s="515"/>
-      <c r="G10" s="513"/>
-      <c r="H10" s="514"/>
-      <c r="I10" s="515"/>
-      <c r="J10" s="513"/>
-      <c r="K10" s="514"/>
-      <c r="L10" s="515"/>
+      <c r="E10" s="498"/>
+      <c r="F10" s="500"/>
+      <c r="G10" s="498"/>
+      <c r="H10" s="499"/>
+      <c r="I10" s="500"/>
+      <c r="J10" s="498"/>
+      <c r="K10" s="499"/>
+      <c r="L10" s="500"/>
       <c r="M10" s="5">
         <v>1000</v>
       </c>
@@ -31680,14 +33531,14 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="513"/>
-      <c r="F11" s="515"/>
-      <c r="G11" s="513"/>
-      <c r="H11" s="514"/>
-      <c r="I11" s="515"/>
-      <c r="J11" s="513"/>
-      <c r="K11" s="514"/>
-      <c r="L11" s="515"/>
+      <c r="E11" s="498"/>
+      <c r="F11" s="500"/>
+      <c r="G11" s="498"/>
+      <c r="H11" s="499"/>
+      <c r="I11" s="500"/>
+      <c r="J11" s="498"/>
+      <c r="K11" s="499"/>
+      <c r="L11" s="500"/>
       <c r="M11" s="5" t="s">
         <v>2</v>
       </c>
@@ -31811,16 +33662,16 @@
     <row r="17" spans="2:18" ht="19.5" thickBot="1">
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="517" t="s">
+      <c r="E17" s="491" t="s">
         <v>371</v>
       </c>
-      <c r="F17" s="518"/>
-      <c r="G17" s="518"/>
-      <c r="H17" s="518"/>
-      <c r="I17" s="518"/>
-      <c r="J17" s="518"/>
-      <c r="K17" s="518"/>
-      <c r="L17" s="519"/>
+      <c r="F17" s="492"/>
+      <c r="G17" s="492"/>
+      <c r="H17" s="492"/>
+      <c r="I17" s="492"/>
+      <c r="J17" s="492"/>
+      <c r="K17" s="492"/>
+      <c r="L17" s="493"/>
       <c r="M17" s="35" t="s">
         <v>372</v>
       </c>
@@ -31850,40 +33701,40 @@
       </c>
     </row>
     <row r="19" spans="2:18" ht="15.75" thickBot="1">
-      <c r="C19" s="398" t="s">
+      <c r="C19" s="402" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="399"/>
-      <c r="E19" s="398" t="s">
+      <c r="D19" s="403"/>
+      <c r="E19" s="402" t="s">
         <v>80</v>
       </c>
-      <c r="F19" s="399"/>
-      <c r="G19" s="398" t="s">
+      <c r="F19" s="403"/>
+      <c r="G19" s="402" t="s">
         <v>81</v>
       </c>
-      <c r="H19" s="413"/>
-      <c r="I19" s="413"/>
-      <c r="J19" s="413"/>
-      <c r="K19" s="413"/>
-      <c r="L19" s="399"/>
+      <c r="H19" s="417"/>
+      <c r="I19" s="417"/>
+      <c r="J19" s="417"/>
+      <c r="K19" s="417"/>
+      <c r="L19" s="403"/>
     </row>
     <row r="20" spans="2:18" ht="15.75" thickBot="1"/>
     <row r="21" spans="2:18" ht="15" customHeight="1">
-      <c r="E21" s="527" t="s">
+      <c r="E21" s="531" t="s">
         <v>1007</v>
       </c>
-      <c r="F21" s="528"/>
+      <c r="F21" s="532"/>
     </row>
     <row r="22" spans="2:18">
-      <c r="E22" s="529"/>
-      <c r="F22" s="530"/>
+      <c r="E22" s="533"/>
+      <c r="F22" s="534"/>
       <c r="J22" t="s">
         <v>1011</v>
       </c>
     </row>
     <row r="23" spans="2:18">
-      <c r="E23" s="529"/>
-      <c r="F23" s="530"/>
+      <c r="E23" s="533"/>
+      <c r="F23" s="534"/>
       <c r="H23" t="s">
         <v>1014</v>
       </c>
@@ -31895,8 +33746,8 @@
       </c>
     </row>
     <row r="24" spans="2:18" ht="15.75" thickBot="1">
-      <c r="E24" s="531"/>
-      <c r="F24" s="532"/>
+      <c r="E24" s="535"/>
+      <c r="F24" s="536"/>
     </row>
     <row r="25" spans="2:18" ht="15.75" thickBot="1"/>
     <row r="26" spans="2:18" ht="15.75" thickBot="1">
@@ -32693,276 +34544,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:Q20"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:M9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:17" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:17" ht="15.75" thickBot="1">
-      <c r="B2" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="3"/>
-    </row>
-    <row r="3" spans="2:17">
-      <c r="I3" s="4"/>
-      <c r="J3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="6"/>
-    </row>
-    <row r="4" spans="2:17" ht="15.75" thickBot="1">
-      <c r="B4" s="33"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="6">
-        <v>3306</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17">
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="3"/>
-    </row>
-    <row r="6" spans="2:17" ht="15.75" thickBot="1">
-      <c r="I6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="6"/>
-    </row>
-    <row r="7" spans="2:17" ht="15.75" thickBot="1">
-      <c r="B7" s="33"/>
-      <c r="I7" s="7">
-        <v>80</v>
-      </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="6"/>
-    </row>
-    <row r="8" spans="2:17">
-      <c r="H8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="6"/>
-    </row>
-    <row r="9" spans="2:17">
-      <c r="I9" s="4"/>
-      <c r="J9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="6"/>
-    </row>
-    <row r="10" spans="2:17" ht="15.75" thickBot="1">
-      <c r="B10" s="33"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="9"/>
-    </row>
-    <row r="11" spans="2:17">
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="6"/>
-    </row>
-    <row r="12" spans="2:17" ht="15.75" thickBot="1">
-      <c r="I12" s="4"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="6"/>
-    </row>
-    <row r="13" spans="2:17">
-      <c r="B13" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="6">
-        <v>25678</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" ht="15.75" thickBot="1">
-      <c r="I14" s="4"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5">
-        <v>65635</v>
-      </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="6"/>
-    </row>
-    <row r="15" spans="2:17" ht="15.75" thickBot="1">
-      <c r="B15" s="33"/>
-      <c r="I15" s="11">
-        <v>22</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="6"/>
-    </row>
-    <row r="16" spans="2:17" ht="15.75" thickBot="1">
-      <c r="I16" s="8"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="31">
-        <v>44234</v>
-      </c>
-      <c r="Q16" s="9"/>
-    </row>
-    <row r="17" spans="5:11">
-      <c r="E17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="5:11">
-      <c r="E18" t="s">
-        <v>45</v>
-      </c>
-      <c r="I18">
-        <v>80</v>
-      </c>
-      <c r="J18" t="s">
-        <v>4</v>
-      </c>
-      <c r="K18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="5:11">
-      <c r="I19">
-        <v>22</v>
-      </c>
-      <c r="J19" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="5:11">
-      <c r="I20">
-        <v>3306</v>
-      </c>
-      <c r="J20" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q23"/>
   <sheetViews>
@@ -33348,7 +34930,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:S41"/>
   <sheetViews>
@@ -33391,22 +34973,22 @@
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="487" t="s">
+      <c r="E3" s="506" t="s">
         <v>330</v>
       </c>
-      <c r="F3" s="487"/>
-      <c r="G3" s="487" t="s">
+      <c r="F3" s="506"/>
+      <c r="G3" s="506" t="s">
         <v>331</v>
       </c>
-      <c r="H3" s="487"/>
-      <c r="I3" s="487"/>
-      <c r="J3" s="487"/>
-      <c r="K3" s="487"/>
-      <c r="L3" s="487"/>
-      <c r="M3" s="487" t="s">
+      <c r="H3" s="506"/>
+      <c r="I3" s="506"/>
+      <c r="J3" s="506"/>
+      <c r="K3" s="506"/>
+      <c r="L3" s="506"/>
+      <c r="M3" s="506" t="s">
         <v>332</v>
       </c>
-      <c r="N3" s="487"/>
+      <c r="N3" s="506"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
@@ -33417,7 +34999,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="113"/>
       <c r="D4" s="114"/>
-      <c r="E4" s="488" t="s">
+      <c r="E4" s="511" t="s">
         <v>333</v>
       </c>
       <c r="F4" s="109"/>
@@ -33445,22 +35027,22 @@
         <v>66</v>
       </c>
       <c r="D5" s="116"/>
-      <c r="E5" s="417"/>
-      <c r="F5" s="428" t="s">
+      <c r="E5" s="421"/>
+      <c r="F5" s="432" t="s">
         <v>405</v>
       </c>
-      <c r="G5" s="429"/>
-      <c r="H5" s="430"/>
-      <c r="I5" s="570" t="s">
+      <c r="G5" s="433"/>
+      <c r="H5" s="434"/>
+      <c r="I5" s="537" t="s">
         <v>406</v>
       </c>
-      <c r="J5" s="571"/>
-      <c r="K5" s="571"/>
-      <c r="L5" s="495"/>
-      <c r="M5" s="570" t="s">
+      <c r="J5" s="538"/>
+      <c r="K5" s="538"/>
+      <c r="L5" s="518"/>
+      <c r="M5" s="537" t="s">
         <v>407</v>
       </c>
-      <c r="N5" s="495"/>
+      <c r="N5" s="518"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -33471,16 +35053,16 @@
       <c r="B6" s="4"/>
       <c r="C6" s="117"/>
       <c r="D6" s="118"/>
-      <c r="E6" s="417"/>
-      <c r="F6" s="431"/>
-      <c r="G6" s="432"/>
-      <c r="H6" s="433"/>
-      <c r="I6" s="397"/>
-      <c r="J6" s="395"/>
-      <c r="K6" s="395"/>
-      <c r="L6" s="496"/>
-      <c r="M6" s="397"/>
-      <c r="N6" s="496"/>
+      <c r="E6" s="421"/>
+      <c r="F6" s="435"/>
+      <c r="G6" s="436"/>
+      <c r="H6" s="437"/>
+      <c r="I6" s="401"/>
+      <c r="J6" s="399"/>
+      <c r="K6" s="399"/>
+      <c r="L6" s="519"/>
+      <c r="M6" s="401"/>
+      <c r="N6" s="519"/>
       <c r="O6" s="5"/>
       <c r="P6" s="33" t="s">
         <v>67</v>
@@ -33497,16 +35079,16 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="417"/>
-      <c r="F7" s="431"/>
-      <c r="G7" s="432"/>
-      <c r="H7" s="433"/>
-      <c r="I7" s="397"/>
-      <c r="J7" s="395"/>
-      <c r="K7" s="395"/>
-      <c r="L7" s="496"/>
-      <c r="M7" s="397"/>
-      <c r="N7" s="496"/>
+      <c r="E7" s="421"/>
+      <c r="F7" s="435"/>
+      <c r="G7" s="436"/>
+      <c r="H7" s="437"/>
+      <c r="I7" s="401"/>
+      <c r="J7" s="399"/>
+      <c r="K7" s="399"/>
+      <c r="L7" s="519"/>
+      <c r="M7" s="401"/>
+      <c r="N7" s="519"/>
       <c r="O7" s="5" t="s">
         <v>2</v>
       </c>
@@ -33525,16 +35107,16 @@
       <c r="B8" s="4"/>
       <c r="C8" s="1"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="417"/>
-      <c r="F8" s="431"/>
-      <c r="G8" s="432"/>
-      <c r="H8" s="433"/>
-      <c r="I8" s="397"/>
-      <c r="J8" s="395"/>
-      <c r="K8" s="395"/>
-      <c r="L8" s="496"/>
-      <c r="M8" s="397"/>
-      <c r="N8" s="496"/>
+      <c r="E8" s="421"/>
+      <c r="F8" s="435"/>
+      <c r="G8" s="436"/>
+      <c r="H8" s="437"/>
+      <c r="I8" s="401"/>
+      <c r="J8" s="399"/>
+      <c r="K8" s="399"/>
+      <c r="L8" s="519"/>
+      <c r="M8" s="401"/>
+      <c r="N8" s="519"/>
       <c r="O8" s="5" t="s">
         <v>72</v>
       </c>
@@ -33555,16 +35137,16 @@
         <v>75</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="417"/>
-      <c r="F9" s="431"/>
-      <c r="G9" s="432"/>
-      <c r="H9" s="433"/>
-      <c r="I9" s="397"/>
-      <c r="J9" s="395"/>
-      <c r="K9" s="395"/>
-      <c r="L9" s="496"/>
-      <c r="M9" s="397"/>
-      <c r="N9" s="496"/>
+      <c r="E9" s="421"/>
+      <c r="F9" s="435"/>
+      <c r="G9" s="436"/>
+      <c r="H9" s="437"/>
+      <c r="I9" s="401"/>
+      <c r="J9" s="399"/>
+      <c r="K9" s="399"/>
+      <c r="L9" s="519"/>
+      <c r="M9" s="401"/>
+      <c r="N9" s="519"/>
       <c r="O9" s="5">
         <v>1000</v>
       </c>
@@ -33581,16 +35163,16 @@
         <v>349</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="417"/>
-      <c r="F10" s="431"/>
-      <c r="G10" s="432"/>
-      <c r="H10" s="433"/>
-      <c r="I10" s="397"/>
-      <c r="J10" s="395"/>
-      <c r="K10" s="395"/>
-      <c r="L10" s="496"/>
-      <c r="M10" s="397"/>
-      <c r="N10" s="496"/>
+      <c r="E10" s="421"/>
+      <c r="F10" s="435"/>
+      <c r="G10" s="436"/>
+      <c r="H10" s="437"/>
+      <c r="I10" s="401"/>
+      <c r="J10" s="399"/>
+      <c r="K10" s="399"/>
+      <c r="L10" s="519"/>
+      <c r="M10" s="401"/>
+      <c r="N10" s="519"/>
       <c r="O10" s="5" t="s">
         <v>2</v>
       </c>
@@ -33603,16 +35185,16 @@
       <c r="B11" s="4"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="417"/>
-      <c r="F11" s="431"/>
-      <c r="G11" s="432"/>
-      <c r="H11" s="433"/>
-      <c r="I11" s="397"/>
-      <c r="J11" s="395"/>
-      <c r="K11" s="395"/>
-      <c r="L11" s="496"/>
-      <c r="M11" s="397"/>
-      <c r="N11" s="496"/>
+      <c r="E11" s="421"/>
+      <c r="F11" s="435"/>
+      <c r="G11" s="436"/>
+      <c r="H11" s="437"/>
+      <c r="I11" s="401"/>
+      <c r="J11" s="399"/>
+      <c r="K11" s="399"/>
+      <c r="L11" s="519"/>
+      <c r="M11" s="401"/>
+      <c r="N11" s="519"/>
       <c r="O11" s="5"/>
       <c r="P11" s="33"/>
       <c r="Q11" s="33"/>
@@ -33623,16 +35205,16 @@
       <c r="B12" s="4"/>
       <c r="C12" s="1"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="417"/>
-      <c r="F12" s="431"/>
-      <c r="G12" s="432"/>
-      <c r="H12" s="433"/>
-      <c r="I12" s="397"/>
-      <c r="J12" s="395"/>
-      <c r="K12" s="395"/>
-      <c r="L12" s="496"/>
-      <c r="M12" s="397"/>
-      <c r="N12" s="496"/>
+      <c r="E12" s="421"/>
+      <c r="F12" s="435"/>
+      <c r="G12" s="436"/>
+      <c r="H12" s="437"/>
+      <c r="I12" s="401"/>
+      <c r="J12" s="399"/>
+      <c r="K12" s="399"/>
+      <c r="L12" s="519"/>
+      <c r="M12" s="401"/>
+      <c r="N12" s="519"/>
       <c r="O12" s="5"/>
       <c r="P12" s="33"/>
       <c r="Q12" s="33"/>
@@ -33645,16 +35227,16 @@
         <v>77</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="417"/>
-      <c r="F13" s="431"/>
-      <c r="G13" s="432"/>
-      <c r="H13" s="433"/>
-      <c r="I13" s="397"/>
-      <c r="J13" s="395"/>
-      <c r="K13" s="395"/>
-      <c r="L13" s="496"/>
-      <c r="M13" s="397"/>
-      <c r="N13" s="496"/>
+      <c r="E13" s="421"/>
+      <c r="F13" s="435"/>
+      <c r="G13" s="436"/>
+      <c r="H13" s="437"/>
+      <c r="I13" s="401"/>
+      <c r="J13" s="399"/>
+      <c r="K13" s="399"/>
+      <c r="L13" s="519"/>
+      <c r="M13" s="401"/>
+      <c r="N13" s="519"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
@@ -33665,16 +35247,16 @@
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="417"/>
-      <c r="F14" s="431"/>
-      <c r="G14" s="432"/>
-      <c r="H14" s="433"/>
-      <c r="I14" s="397"/>
-      <c r="J14" s="395"/>
-      <c r="K14" s="395"/>
-      <c r="L14" s="496"/>
-      <c r="M14" s="397"/>
-      <c r="N14" s="496"/>
+      <c r="E14" s="421"/>
+      <c r="F14" s="435"/>
+      <c r="G14" s="436"/>
+      <c r="H14" s="437"/>
+      <c r="I14" s="401"/>
+      <c r="J14" s="399"/>
+      <c r="K14" s="399"/>
+      <c r="L14" s="519"/>
+      <c r="M14" s="401"/>
+      <c r="N14" s="519"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
@@ -33685,16 +35267,16 @@
       <c r="B15" s="4"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="417"/>
-      <c r="F15" s="431"/>
-      <c r="G15" s="432"/>
-      <c r="H15" s="433"/>
-      <c r="I15" s="397"/>
-      <c r="J15" s="395"/>
-      <c r="K15" s="395"/>
-      <c r="L15" s="496"/>
-      <c r="M15" s="397"/>
-      <c r="N15" s="496"/>
+      <c r="E15" s="421"/>
+      <c r="F15" s="435"/>
+      <c r="G15" s="436"/>
+      <c r="H15" s="437"/>
+      <c r="I15" s="401"/>
+      <c r="J15" s="399"/>
+      <c r="K15" s="399"/>
+      <c r="L15" s="519"/>
+      <c r="M15" s="401"/>
+      <c r="N15" s="519"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
@@ -33705,16 +35287,16 @@
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="417"/>
-      <c r="F16" s="431"/>
-      <c r="G16" s="432"/>
-      <c r="H16" s="433"/>
-      <c r="I16" s="397"/>
-      <c r="J16" s="395"/>
-      <c r="K16" s="395"/>
-      <c r="L16" s="496"/>
-      <c r="M16" s="397"/>
-      <c r="N16" s="496"/>
+      <c r="E16" s="421"/>
+      <c r="F16" s="435"/>
+      <c r="G16" s="436"/>
+      <c r="H16" s="437"/>
+      <c r="I16" s="401"/>
+      <c r="J16" s="399"/>
+      <c r="K16" s="399"/>
+      <c r="L16" s="519"/>
+      <c r="M16" s="401"/>
+      <c r="N16" s="519"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
@@ -33727,16 +35309,16 @@
         <v>78</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="417"/>
-      <c r="F17" s="431"/>
-      <c r="G17" s="432"/>
-      <c r="H17" s="433"/>
-      <c r="I17" s="397"/>
-      <c r="J17" s="395"/>
-      <c r="K17" s="395"/>
-      <c r="L17" s="496"/>
-      <c r="M17" s="397"/>
-      <c r="N17" s="496"/>
+      <c r="E17" s="421"/>
+      <c r="F17" s="435"/>
+      <c r="G17" s="436"/>
+      <c r="H17" s="437"/>
+      <c r="I17" s="401"/>
+      <c r="J17" s="399"/>
+      <c r="K17" s="399"/>
+      <c r="L17" s="519"/>
+      <c r="M17" s="401"/>
+      <c r="N17" s="519"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
@@ -33747,16 +35329,16 @@
       <c r="B18" s="4"/>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="418"/>
-      <c r="F18" s="434"/>
-      <c r="G18" s="435"/>
-      <c r="H18" s="436"/>
-      <c r="I18" s="497"/>
-      <c r="J18" s="572"/>
-      <c r="K18" s="572"/>
-      <c r="L18" s="498"/>
-      <c r="M18" s="497"/>
-      <c r="N18" s="498"/>
+      <c r="E18" s="422"/>
+      <c r="F18" s="438"/>
+      <c r="G18" s="439"/>
+      <c r="H18" s="440"/>
+      <c r="I18" s="520"/>
+      <c r="J18" s="539"/>
+      <c r="K18" s="539"/>
+      <c r="L18" s="521"/>
+      <c r="M18" s="520"/>
+      <c r="N18" s="521"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
@@ -33785,26 +35367,26 @@
     </row>
     <row r="20" spans="2:19" ht="15.75" thickBot="1">
       <c r="B20" s="4"/>
-      <c r="C20" s="398" t="s">
+      <c r="C20" s="402" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="399"/>
+      <c r="D20" s="403"/>
       <c r="E20" s="108" t="s">
         <v>80</v>
       </c>
-      <c r="F20" s="398" t="s">
+      <c r="F20" s="402" t="s">
         <v>81</v>
       </c>
-      <c r="G20" s="413"/>
-      <c r="H20" s="413"/>
-      <c r="I20" s="413"/>
-      <c r="J20" s="413"/>
-      <c r="K20" s="413"/>
-      <c r="L20" s="399"/>
-      <c r="M20" s="398" t="s">
+      <c r="G20" s="417"/>
+      <c r="H20" s="417"/>
+      <c r="I20" s="417"/>
+      <c r="J20" s="417"/>
+      <c r="K20" s="417"/>
+      <c r="L20" s="403"/>
+      <c r="M20" s="402" t="s">
         <v>340</v>
       </c>
-      <c r="N20" s="399"/>
+      <c r="N20" s="403"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
@@ -33832,39 +35414,39 @@
       <c r="S21" s="9"/>
     </row>
     <row r="24" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B24" s="509" t="s">
+      <c r="B24" s="505" t="s">
         <v>367</v>
       </c>
-      <c r="C24" s="509"/>
-      <c r="D24" s="506"/>
-      <c r="E24" s="506"/>
-      <c r="F24" s="506"/>
-      <c r="G24" s="506"/>
-      <c r="H24" s="506"/>
-      <c r="I24" s="506"/>
-      <c r="J24" s="506"/>
-      <c r="K24" s="506"/>
-      <c r="M24" s="533" t="s">
+      <c r="C24" s="505"/>
+      <c r="D24" s="502"/>
+      <c r="E24" s="502"/>
+      <c r="F24" s="502"/>
+      <c r="G24" s="502"/>
+      <c r="H24" s="502"/>
+      <c r="I24" s="502"/>
+      <c r="J24" s="502"/>
+      <c r="K24" s="502"/>
+      <c r="M24" s="566" t="s">
         <v>64</v>
       </c>
-      <c r="N24" s="533"/>
-      <c r="O24" s="533"/>
+      <c r="N24" s="566"/>
+      <c r="O24" s="566"/>
     </row>
     <row r="25" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B25" s="534" t="s">
+      <c r="B25" s="567" t="s">
         <v>639</v>
       </c>
-      <c r="C25" s="474"/>
-      <c r="D25" s="401" t="s">
+      <c r="C25" s="480"/>
+      <c r="D25" s="405" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="401"/>
-      <c r="F25" s="401"/>
-      <c r="G25" s="401"/>
-      <c r="H25" s="401"/>
-      <c r="I25" s="401"/>
-      <c r="J25" s="401"/>
-      <c r="K25" s="402"/>
+      <c r="E25" s="405"/>
+      <c r="F25" s="405"/>
+      <c r="G25" s="405"/>
+      <c r="H25" s="405"/>
+      <c r="I25" s="405"/>
+      <c r="J25" s="405"/>
+      <c r="K25" s="406"/>
       <c r="M25" s="33" t="s">
         <v>67</v>
       </c>
@@ -33876,22 +35458,22 @@
       </c>
     </row>
     <row r="26" spans="2:19">
-      <c r="B26" s="475"/>
-      <c r="C26" s="476"/>
-      <c r="D26" s="547" t="s">
+      <c r="B26" s="481"/>
+      <c r="C26" s="482"/>
+      <c r="D26" s="540" t="s">
         <v>632</v>
       </c>
-      <c r="E26" s="548"/>
-      <c r="F26" s="565" t="s">
+      <c r="E26" s="541"/>
+      <c r="F26" s="559" t="s">
         <v>632</v>
       </c>
-      <c r="G26" s="566"/>
-      <c r="H26" s="567"/>
-      <c r="I26" s="569" t="s">
+      <c r="G26" s="560"/>
+      <c r="H26" s="561"/>
+      <c r="I26" s="564" t="s">
         <v>1369</v>
       </c>
-      <c r="J26" s="566"/>
-      <c r="K26" s="567"/>
+      <c r="J26" s="560"/>
+      <c r="K26" s="561"/>
       <c r="L26" s="5" t="s">
         <v>2</v>
       </c>
@@ -33906,22 +35488,22 @@
       </c>
     </row>
     <row r="27" spans="2:19">
-      <c r="B27" s="475"/>
-      <c r="C27" s="476"/>
-      <c r="D27" s="545" t="s">
+      <c r="B27" s="481"/>
+      <c r="C27" s="482"/>
+      <c r="D27" s="542" t="s">
         <v>637</v>
       </c>
-      <c r="E27" s="549"/>
-      <c r="F27" s="568" t="s">
+      <c r="E27" s="543"/>
+      <c r="F27" s="562" t="s">
         <v>633</v>
       </c>
-      <c r="G27" s="545"/>
-      <c r="H27" s="546"/>
-      <c r="I27" s="544" t="s">
+      <c r="G27" s="542"/>
+      <c r="H27" s="563"/>
+      <c r="I27" s="565" t="s">
         <v>1370</v>
       </c>
-      <c r="J27" s="545"/>
-      <c r="K27" s="546"/>
+      <c r="J27" s="542"/>
+      <c r="K27" s="563"/>
       <c r="L27" s="5" t="s">
         <v>2</v>
       </c>
@@ -33936,22 +35518,22 @@
       </c>
     </row>
     <row r="28" spans="2:19">
-      <c r="B28" s="475"/>
-      <c r="C28" s="476"/>
-      <c r="D28" s="545" t="s">
+      <c r="B28" s="481"/>
+      <c r="C28" s="482"/>
+      <c r="D28" s="542" t="s">
         <v>634</v>
       </c>
-      <c r="E28" s="549"/>
-      <c r="F28" s="568" t="s">
+      <c r="E28" s="543"/>
+      <c r="F28" s="562" t="s">
         <v>634</v>
       </c>
-      <c r="G28" s="545"/>
-      <c r="H28" s="546"/>
-      <c r="I28" s="544" t="s">
+      <c r="G28" s="542"/>
+      <c r="H28" s="563"/>
+      <c r="I28" s="565" t="s">
         <v>1371</v>
       </c>
-      <c r="J28" s="545"/>
-      <c r="K28" s="546"/>
+      <c r="J28" s="542"/>
+      <c r="K28" s="563"/>
       <c r="L28" s="5" t="s">
         <v>2</v>
       </c>
@@ -33960,22 +35542,22 @@
       <c r="O28" s="33"/>
     </row>
     <row r="29" spans="2:19">
-      <c r="B29" s="477"/>
-      <c r="C29" s="478"/>
-      <c r="D29" s="545" t="s">
+      <c r="B29" s="483"/>
+      <c r="C29" s="484"/>
+      <c r="D29" s="542" t="s">
         <v>635</v>
       </c>
-      <c r="E29" s="549"/>
-      <c r="F29" s="568" t="s">
+      <c r="E29" s="543"/>
+      <c r="F29" s="562" t="s">
         <v>635</v>
       </c>
-      <c r="G29" s="545"/>
-      <c r="H29" s="546"/>
-      <c r="I29" s="544" t="s">
+      <c r="G29" s="542"/>
+      <c r="H29" s="563"/>
+      <c r="I29" s="565" t="s">
         <v>1372</v>
       </c>
-      <c r="J29" s="545"/>
-      <c r="K29" s="546"/>
+      <c r="J29" s="542"/>
+      <c r="K29" s="563"/>
       <c r="L29" s="24" t="s">
         <v>2</v>
       </c>
@@ -33984,149 +35566,149 @@
       <c r="O29" s="33"/>
     </row>
     <row r="30" spans="2:19">
-      <c r="B30" s="403" t="s">
+      <c r="B30" s="407" t="s">
         <v>638</v>
       </c>
-      <c r="C30" s="405"/>
-      <c r="D30" s="550" t="s">
+      <c r="C30" s="409"/>
+      <c r="D30" s="544" t="s">
         <v>368</v>
       </c>
-      <c r="E30" s="551"/>
-      <c r="F30" s="556" t="s">
+      <c r="E30" s="545"/>
+      <c r="F30" s="550" t="s">
         <v>369</v>
       </c>
-      <c r="G30" s="557"/>
-      <c r="H30" s="551"/>
-      <c r="I30" s="556" t="s">
+      <c r="G30" s="551"/>
+      <c r="H30" s="545"/>
+      <c r="I30" s="550" t="s">
         <v>370</v>
       </c>
-      <c r="J30" s="557"/>
-      <c r="K30" s="562"/>
+      <c r="J30" s="551"/>
+      <c r="K30" s="556"/>
       <c r="L30" s="5"/>
       <c r="M30" s="33"/>
       <c r="N30" s="33"/>
       <c r="O30" s="33"/>
     </row>
     <row r="31" spans="2:19">
-      <c r="B31" s="407"/>
-      <c r="C31" s="408"/>
-      <c r="D31" s="552"/>
-      <c r="E31" s="553"/>
-      <c r="F31" s="558"/>
-      <c r="G31" s="559"/>
-      <c r="H31" s="553"/>
-      <c r="I31" s="558"/>
-      <c r="J31" s="559"/>
-      <c r="K31" s="563"/>
+      <c r="B31" s="411"/>
+      <c r="C31" s="412"/>
+      <c r="D31" s="546"/>
+      <c r="E31" s="547"/>
+      <c r="F31" s="552"/>
+      <c r="G31" s="553"/>
+      <c r="H31" s="547"/>
+      <c r="I31" s="552"/>
+      <c r="J31" s="553"/>
+      <c r="K31" s="557"/>
       <c r="L31" s="5"/>
       <c r="M31" s="33"/>
       <c r="N31" s="33"/>
       <c r="O31" s="33"/>
     </row>
     <row r="32" spans="2:19">
-      <c r="B32" s="407"/>
-      <c r="C32" s="408"/>
-      <c r="D32" s="552"/>
-      <c r="E32" s="553"/>
-      <c r="F32" s="558"/>
-      <c r="G32" s="559"/>
-      <c r="H32" s="553"/>
-      <c r="I32" s="558"/>
-      <c r="J32" s="559"/>
-      <c r="K32" s="563"/>
+      <c r="B32" s="411"/>
+      <c r="C32" s="412"/>
+      <c r="D32" s="546"/>
+      <c r="E32" s="547"/>
+      <c r="F32" s="552"/>
+      <c r="G32" s="553"/>
+      <c r="H32" s="547"/>
+      <c r="I32" s="552"/>
+      <c r="J32" s="553"/>
+      <c r="K32" s="557"/>
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="407"/>
-      <c r="C33" s="408"/>
-      <c r="D33" s="554"/>
-      <c r="E33" s="555"/>
-      <c r="F33" s="560"/>
-      <c r="G33" s="561"/>
-      <c r="H33" s="555"/>
-      <c r="I33" s="560"/>
-      <c r="J33" s="561"/>
-      <c r="K33" s="564"/>
+      <c r="B33" s="411"/>
+      <c r="C33" s="412"/>
+      <c r="D33" s="548"/>
+      <c r="E33" s="549"/>
+      <c r="F33" s="554"/>
+      <c r="G33" s="555"/>
+      <c r="H33" s="549"/>
+      <c r="I33" s="554"/>
+      <c r="J33" s="555"/>
+      <c r="K33" s="558"/>
     </row>
     <row r="34" spans="2:14">
-      <c r="B34" s="407"/>
-      <c r="C34" s="409"/>
-      <c r="D34" s="535" t="s">
+      <c r="B34" s="411"/>
+      <c r="C34" s="413"/>
+      <c r="D34" s="568" t="s">
         <v>625</v>
       </c>
-      <c r="E34" s="536"/>
-      <c r="F34" s="535" t="s">
+      <c r="E34" s="569"/>
+      <c r="F34" s="568" t="s">
         <v>381</v>
       </c>
-      <c r="G34" s="541"/>
-      <c r="H34" s="536"/>
-      <c r="I34" s="535" t="s">
+      <c r="G34" s="574"/>
+      <c r="H34" s="569"/>
+      <c r="I34" s="568" t="s">
         <v>640</v>
       </c>
-      <c r="J34" s="541"/>
-      <c r="K34" s="536"/>
+      <c r="J34" s="574"/>
+      <c r="K34" s="569"/>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35" s="407"/>
-      <c r="C35" s="409"/>
-      <c r="D35" s="537"/>
-      <c r="E35" s="538"/>
-      <c r="F35" s="537"/>
-      <c r="G35" s="542"/>
-      <c r="H35" s="538"/>
-      <c r="I35" s="537"/>
-      <c r="J35" s="542"/>
-      <c r="K35" s="538"/>
+      <c r="B35" s="411"/>
+      <c r="C35" s="413"/>
+      <c r="D35" s="570"/>
+      <c r="E35" s="571"/>
+      <c r="F35" s="570"/>
+      <c r="G35" s="575"/>
+      <c r="H35" s="571"/>
+      <c r="I35" s="570"/>
+      <c r="J35" s="575"/>
+      <c r="K35" s="571"/>
     </row>
     <row r="36" spans="2:14">
-      <c r="B36" s="407"/>
-      <c r="C36" s="409"/>
-      <c r="D36" s="537"/>
-      <c r="E36" s="538"/>
-      <c r="F36" s="537"/>
-      <c r="G36" s="542"/>
-      <c r="H36" s="538"/>
-      <c r="I36" s="537"/>
-      <c r="J36" s="542"/>
-      <c r="K36" s="538"/>
+      <c r="B36" s="411"/>
+      <c r="C36" s="413"/>
+      <c r="D36" s="570"/>
+      <c r="E36" s="571"/>
+      <c r="F36" s="570"/>
+      <c r="G36" s="575"/>
+      <c r="H36" s="571"/>
+      <c r="I36" s="570"/>
+      <c r="J36" s="575"/>
+      <c r="K36" s="571"/>
     </row>
     <row r="37" spans="2:14">
-      <c r="B37" s="407"/>
-      <c r="C37" s="409"/>
-      <c r="D37" s="537"/>
-      <c r="E37" s="538"/>
-      <c r="F37" s="537"/>
-      <c r="G37" s="542"/>
-      <c r="H37" s="538"/>
-      <c r="I37" s="537"/>
-      <c r="J37" s="542"/>
-      <c r="K37" s="538"/>
+      <c r="B37" s="411"/>
+      <c r="C37" s="413"/>
+      <c r="D37" s="570"/>
+      <c r="E37" s="571"/>
+      <c r="F37" s="570"/>
+      <c r="G37" s="575"/>
+      <c r="H37" s="571"/>
+      <c r="I37" s="570"/>
+      <c r="J37" s="575"/>
+      <c r="K37" s="571"/>
     </row>
     <row r="38" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B38" s="407"/>
-      <c r="C38" s="409"/>
-      <c r="D38" s="539"/>
-      <c r="E38" s="540"/>
-      <c r="F38" s="539"/>
-      <c r="G38" s="543"/>
-      <c r="H38" s="540"/>
-      <c r="I38" s="539"/>
-      <c r="J38" s="543"/>
-      <c r="K38" s="540"/>
+      <c r="B38" s="411"/>
+      <c r="C38" s="413"/>
+      <c r="D38" s="572"/>
+      <c r="E38" s="573"/>
+      <c r="F38" s="572"/>
+      <c r="G38" s="576"/>
+      <c r="H38" s="573"/>
+      <c r="I38" s="572"/>
+      <c r="J38" s="576"/>
+      <c r="K38" s="573"/>
     </row>
     <row r="39" spans="2:14" ht="19.5" thickBot="1">
-      <c r="B39" s="410"/>
-      <c r="C39" s="412"/>
-      <c r="D39" s="517" t="s">
+      <c r="B39" s="414"/>
+      <c r="C39" s="416"/>
+      <c r="D39" s="491" t="s">
         <v>371</v>
       </c>
-      <c r="E39" s="518"/>
-      <c r="F39" s="518"/>
-      <c r="G39" s="518"/>
-      <c r="H39" s="518"/>
-      <c r="I39" s="518"/>
-      <c r="J39" s="518"/>
-      <c r="K39" s="519"/>
+      <c r="E39" s="492"/>
+      <c r="F39" s="492"/>
+      <c r="G39" s="492"/>
+      <c r="H39" s="492"/>
+      <c r="I39" s="492"/>
+      <c r="J39" s="492"/>
+      <c r="K39" s="493"/>
       <c r="L39" s="35" t="s">
         <v>372</v>
       </c>
@@ -34144,35 +35726,36 @@
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B41" s="398" t="s">
+      <c r="B41" s="402" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="399"/>
-      <c r="D41" s="398" t="s">
+      <c r="C41" s="403"/>
+      <c r="D41" s="402" t="s">
         <v>80</v>
       </c>
-      <c r="E41" s="399"/>
-      <c r="F41" s="398" t="s">
+      <c r="E41" s="403"/>
+      <c r="F41" s="402" t="s">
         <v>81</v>
       </c>
-      <c r="G41" s="413"/>
-      <c r="H41" s="413"/>
-      <c r="I41" s="413"/>
-      <c r="J41" s="413"/>
-      <c r="K41" s="399"/>
+      <c r="G41" s="417"/>
+      <c r="H41" s="417"/>
+      <c r="I41" s="417"/>
+      <c r="J41" s="417"/>
+      <c r="K41" s="403"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="E4:E18"/>
-    <mergeCell ref="M5:N18"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="F5:H18"/>
-    <mergeCell ref="I5:L18"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="B30:C39"/>
+    <mergeCell ref="B25:C29"/>
+    <mergeCell ref="D34:E38"/>
+    <mergeCell ref="F34:H38"/>
+    <mergeCell ref="I34:K38"/>
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="F41:K41"/>
@@ -34189,17 +35772,16 @@
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="I26:K26"/>
     <mergeCell ref="I27:K27"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="B30:C39"/>
-    <mergeCell ref="B25:C29"/>
-    <mergeCell ref="D34:E38"/>
-    <mergeCell ref="F34:H38"/>
-    <mergeCell ref="I34:K38"/>
-    <mergeCell ref="D39:K39"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="F5:H18"/>
+    <mergeCell ref="I5:L18"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="E4:E18"/>
+    <mergeCell ref="M5:N18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="R7" r:id="rId1"/>
@@ -34505,7 +36087,7 @@
       <c r="K3" s="50"/>
       <c r="L3" s="50"/>
       <c r="M3" s="51"/>
-      <c r="N3" s="397" t="s">
+      <c r="N3" s="401" t="s">
         <v>57</v>
       </c>
     </row>
@@ -34523,7 +36105,7 @@
       <c r="K4" s="312"/>
       <c r="L4" s="312"/>
       <c r="M4" s="299"/>
-      <c r="N4" s="397"/>
+      <c r="N4" s="401"/>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="24" t="s">
@@ -34542,7 +36124,7 @@
       <c r="K5" s="316"/>
       <c r="L5" s="316"/>
       <c r="M5" s="317"/>
-      <c r="N5" s="397" t="s">
+      <c r="N5" s="401" t="s">
         <v>58</v>
       </c>
     </row>
@@ -34560,7 +36142,7 @@
       <c r="K6" s="38"/>
       <c r="L6" s="38"/>
       <c r="M6" s="45"/>
-      <c r="N6" s="397"/>
+      <c r="N6" s="401"/>
     </row>
     <row r="7" spans="2:14">
       <c r="C7" s="309">
@@ -34580,7 +36162,7 @@
       <c r="K7" s="38"/>
       <c r="L7" s="38"/>
       <c r="M7" s="45"/>
-      <c r="N7" s="397"/>
+      <c r="N7" s="401"/>
     </row>
     <row r="8" spans="2:14">
       <c r="C8" s="309">
@@ -34596,7 +36178,7 @@
       <c r="K8" s="38"/>
       <c r="L8" s="38"/>
       <c r="M8" s="45"/>
-      <c r="N8" s="397"/>
+      <c r="N8" s="401"/>
     </row>
     <row r="9" spans="2:14">
       <c r="C9" s="309">
@@ -34612,7 +36194,7 @@
       <c r="K9" s="38"/>
       <c r="L9" s="38"/>
       <c r="M9" s="45"/>
-      <c r="N9" s="397"/>
+      <c r="N9" s="401"/>
     </row>
     <row r="10" spans="2:14">
       <c r="C10" s="309">
@@ -34628,7 +36210,7 @@
       <c r="K10" s="38"/>
       <c r="L10" s="38"/>
       <c r="M10" s="45"/>
-      <c r="N10" s="397"/>
+      <c r="N10" s="401"/>
     </row>
     <row r="11" spans="2:14" ht="15.75" thickBot="1">
       <c r="C11" s="309">
@@ -34644,7 +36226,7 @@
       <c r="K11" s="180"/>
       <c r="L11" s="180"/>
       <c r="M11" s="182"/>
-      <c r="N11" s="397"/>
+      <c r="N11" s="401"/>
     </row>
     <row r="12" spans="2:14" ht="15.75" thickBot="1">
       <c r="C12" s="309">
@@ -34963,79 +36545,79 @@
       </c>
     </row>
     <row r="134" spans="3:3">
-      <c r="C134" s="395"/>
+      <c r="C134" s="399"/>
     </row>
     <row r="135" spans="3:3">
-      <c r="C135" s="395"/>
+      <c r="C135" s="399"/>
     </row>
     <row r="136" spans="3:3">
-      <c r="C136" s="395"/>
+      <c r="C136" s="399"/>
     </row>
     <row r="137" spans="3:3">
-      <c r="C137" s="395"/>
+      <c r="C137" s="399"/>
     </row>
     <row r="138" spans="3:3">
-      <c r="C138" s="395"/>
+      <c r="C138" s="399"/>
     </row>
     <row r="139" spans="3:3">
-      <c r="C139" s="395"/>
+      <c r="C139" s="399"/>
     </row>
     <row r="140" spans="3:3">
-      <c r="C140" s="395"/>
+      <c r="C140" s="399"/>
     </row>
     <row r="141" spans="3:3">
-      <c r="C141" s="395"/>
+      <c r="C141" s="399"/>
     </row>
     <row r="142" spans="3:3">
-      <c r="C142" s="395"/>
+      <c r="C142" s="399"/>
     </row>
     <row r="147" spans="4:4">
-      <c r="D147" s="396"/>
+      <c r="D147" s="400"/>
     </row>
     <row r="148" spans="4:4">
-      <c r="D148" s="395"/>
+      <c r="D148" s="399"/>
     </row>
     <row r="149" spans="4:4">
-      <c r="D149" s="395"/>
+      <c r="D149" s="399"/>
     </row>
     <row r="150" spans="4:4">
-      <c r="D150" s="395"/>
+      <c r="D150" s="399"/>
     </row>
     <row r="151" spans="4:4">
-      <c r="D151" s="395"/>
+      <c r="D151" s="399"/>
     </row>
     <row r="152" spans="4:4">
-      <c r="D152" s="395"/>
+      <c r="D152" s="399"/>
     </row>
     <row r="153" spans="4:4">
-      <c r="D153" s="395"/>
+      <c r="D153" s="399"/>
     </row>
     <row r="182" spans="14:14">
-      <c r="N182" s="395"/>
+      <c r="N182" s="399"/>
     </row>
     <row r="183" spans="14:14">
-      <c r="N183" s="395"/>
+      <c r="N183" s="399"/>
     </row>
     <row r="184" spans="14:14">
-      <c r="N184" s="395"/>
+      <c r="N184" s="399"/>
     </row>
     <row r="185" spans="14:14">
-      <c r="N185" s="395"/>
+      <c r="N185" s="399"/>
     </row>
     <row r="186" spans="14:14">
-      <c r="N186" s="395"/>
+      <c r="N186" s="399"/>
     </row>
     <row r="187" spans="14:14">
-      <c r="N187" s="395"/>
+      <c r="N187" s="399"/>
     </row>
     <row r="188" spans="14:14">
-      <c r="N188" s="395"/>
+      <c r="N188" s="399"/>
     </row>
     <row r="189" spans="14:14">
-      <c r="N189" s="395"/>
+      <c r="N189" s="399"/>
     </row>
     <row r="190" spans="14:14">
-      <c r="N190" s="395"/>
+      <c r="N190" s="399"/>
     </row>
     <row r="199" spans="3:3">
       <c r="C199" s="310"/>
@@ -35208,14 +36790,14 @@
       <c r="H4" s="4"/>
       <c r="I4" s="1"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="400" t="s">
+      <c r="K4" s="404" t="s">
         <v>63</v>
       </c>
-      <c r="L4" s="401"/>
-      <c r="M4" s="401"/>
-      <c r="N4" s="401"/>
-      <c r="O4" s="401"/>
-      <c r="P4" s="402"/>
+      <c r="L4" s="405"/>
+      <c r="M4" s="405"/>
+      <c r="N4" s="405"/>
+      <c r="O4" s="405"/>
+      <c r="P4" s="406"/>
       <c r="Q4" s="95" t="s">
         <v>153</v>
       </c>
@@ -35347,10 +36929,10 @@
       <c r="L8" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="M8" s="414" t="s">
+      <c r="M8" s="418" t="s">
         <v>95</v>
       </c>
-      <c r="N8" s="415"/>
+      <c r="N8" s="419"/>
       <c r="O8" s="5" t="s">
         <v>18</v>
       </c>
@@ -35384,8 +36966,8 @@
       <c r="L9" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="M9" s="415"/>
-      <c r="N9" s="415"/>
+      <c r="M9" s="419"/>
+      <c r="N9" s="419"/>
       <c r="O9" s="5" t="s">
         <v>72</v>
       </c>
@@ -35425,8 +37007,8 @@
       <c r="L10" s="5" t="s">
         <v>836</v>
       </c>
-      <c r="M10" s="415"/>
-      <c r="N10" s="415"/>
+      <c r="M10" s="419"/>
+      <c r="N10" s="419"/>
       <c r="O10" s="5"/>
       <c r="P10" s="188" t="s">
         <v>243</v>
@@ -35439,13 +37021,13 @@
       <c r="T10" s="33"/>
     </row>
     <row r="11" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A11" s="403" t="s">
+      <c r="A11" s="407" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="404"/>
-      <c r="C11" s="405"/>
-      <c r="D11" s="405"/>
-      <c r="E11" s="406"/>
+      <c r="B11" s="408"/>
+      <c r="C11" s="409"/>
+      <c r="D11" s="409"/>
+      <c r="E11" s="410"/>
       <c r="F11" t="s">
         <v>1082</v>
       </c>
@@ -35454,8 +37036,8 @@
       <c r="J11" s="10"/>
       <c r="K11" s="4"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="415"/>
-      <c r="N11" s="415"/>
+      <c r="M11" s="419"/>
+      <c r="N11" s="419"/>
       <c r="O11" s="5"/>
       <c r="P11" s="188" t="s">
         <v>244</v>
@@ -35465,11 +37047,11 @@
       <c r="T11" s="33"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="407"/>
-      <c r="B12" s="408"/>
-      <c r="C12" s="408"/>
-      <c r="D12" s="408"/>
-      <c r="E12" s="409"/>
+      <c r="A12" s="411"/>
+      <c r="B12" s="412"/>
+      <c r="C12" s="412"/>
+      <c r="D12" s="412"/>
+      <c r="E12" s="413"/>
       <c r="F12" t="s">
         <v>660</v>
       </c>
@@ -35478,8 +37060,8 @@
       <c r="J12" s="2"/>
       <c r="K12" s="4"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="415"/>
-      <c r="N12" s="415"/>
+      <c r="M12" s="419"/>
+      <c r="N12" s="419"/>
       <c r="O12" s="5"/>
       <c r="P12" s="188" t="s">
         <v>971</v>
@@ -35489,11 +37071,11 @@
       <c r="T12" s="33"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="407"/>
-      <c r="B13" s="408"/>
-      <c r="C13" s="408"/>
-      <c r="D13" s="408"/>
-      <c r="E13" s="409"/>
+      <c r="A13" s="411"/>
+      <c r="B13" s="412"/>
+      <c r="C13" s="412"/>
+      <c r="D13" s="412"/>
+      <c r="E13" s="413"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4" t="s">
         <v>77</v>
@@ -35501,8 +37083,8 @@
       <c r="J13" s="5"/>
       <c r="K13" s="4"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="415"/>
-      <c r="N13" s="415"/>
+      <c r="M13" s="419"/>
+      <c r="N13" s="419"/>
       <c r="O13" s="26"/>
       <c r="P13" s="188"/>
       <c r="S13" t="s">
@@ -35510,11 +37092,11 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A14" s="410"/>
-      <c r="B14" s="411"/>
-      <c r="C14" s="411"/>
-      <c r="D14" s="411"/>
-      <c r="E14" s="412"/>
+      <c r="A14" s="414"/>
+      <c r="B14" s="415"/>
+      <c r="C14" s="415"/>
+      <c r="D14" s="415"/>
+      <c r="E14" s="416"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
@@ -35690,20 +37272,20 @@
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="398" t="s">
+      <c r="I20" s="402" t="s">
         <v>79</v>
       </c>
-      <c r="J20" s="399"/>
-      <c r="K20" s="398" t="s">
+      <c r="J20" s="403"/>
+      <c r="K20" s="402" t="s">
         <v>80</v>
       </c>
-      <c r="L20" s="399"/>
-      <c r="M20" s="398" t="s">
+      <c r="L20" s="403"/>
+      <c r="M20" s="402" t="s">
         <v>1170</v>
       </c>
-      <c r="N20" s="413"/>
-      <c r="O20" s="413"/>
-      <c r="P20" s="399"/>
+      <c r="N20" s="417"/>
+      <c r="O20" s="417"/>
+      <c r="P20" s="403"/>
       <c r="S20" t="s">
         <v>153</v>
       </c>
@@ -36266,13 +37848,13 @@
       <c r="Q84" s="6"/>
     </row>
     <row r="85" spans="1:17">
-      <c r="A85" s="420" t="s">
+      <c r="A85" s="424" t="s">
         <v>1062</v>
       </c>
-      <c r="B85" s="408"/>
-      <c r="C85" s="408"/>
-      <c r="D85" s="408"/>
-      <c r="E85" s="408"/>
+      <c r="B85" s="412"/>
+      <c r="C85" s="412"/>
+      <c r="D85" s="412"/>
+      <c r="E85" s="412"/>
       <c r="F85" s="6" t="s">
         <v>1066</v>
       </c>
@@ -36319,14 +37901,14 @@
       <c r="H87" s="4"/>
       <c r="I87" s="30"/>
       <c r="J87" s="26"/>
-      <c r="K87" s="427" t="s">
+      <c r="K87" s="431" t="s">
         <v>1065</v>
       </c>
-      <c r="L87" s="422"/>
-      <c r="M87" s="427" t="s">
+      <c r="L87" s="426"/>
+      <c r="M87" s="431" t="s">
         <v>1076</v>
       </c>
-      <c r="N87" s="422"/>
+      <c r="N87" s="426"/>
       <c r="O87" s="26"/>
       <c r="P87" s="34"/>
       <c r="Q87" s="6"/>
@@ -36343,10 +37925,10 @@
       <c r="H88" s="4"/>
       <c r="I88" s="30"/>
       <c r="J88" s="26"/>
-      <c r="K88" s="425"/>
-      <c r="L88" s="426"/>
-      <c r="M88" s="423"/>
-      <c r="N88" s="424"/>
+      <c r="K88" s="429"/>
+      <c r="L88" s="430"/>
+      <c r="M88" s="427"/>
+      <c r="N88" s="428"/>
       <c r="O88" s="26"/>
       <c r="P88" s="34"/>
       <c r="Q88" s="6"/>
@@ -36365,12 +37947,12 @@
       </c>
       <c r="I89" s="30"/>
       <c r="J89" s="26"/>
-      <c r="K89" s="421" t="s">
+      <c r="K89" s="425" t="s">
         <v>1057</v>
       </c>
-      <c r="L89" s="422"/>
-      <c r="M89" s="423"/>
-      <c r="N89" s="424"/>
+      <c r="L89" s="426"/>
+      <c r="M89" s="427"/>
+      <c r="N89" s="428"/>
       <c r="O89" s="26"/>
       <c r="P89" s="34"/>
       <c r="Q89" s="6"/>
@@ -36385,10 +37967,10 @@
       <c r="H90" s="4"/>
       <c r="I90" s="30"/>
       <c r="J90" s="26"/>
-      <c r="K90" s="425"/>
-      <c r="L90" s="426"/>
-      <c r="M90" s="423"/>
-      <c r="N90" s="424"/>
+      <c r="K90" s="429"/>
+      <c r="L90" s="430"/>
+      <c r="M90" s="427"/>
+      <c r="N90" s="428"/>
       <c r="O90" s="26"/>
       <c r="P90" s="34"/>
       <c r="Q90" s="6"/>
@@ -36405,12 +37987,12 @@
       <c r="H91" s="4"/>
       <c r="I91" s="30"/>
       <c r="J91" s="26"/>
-      <c r="K91" s="421" t="s">
+      <c r="K91" s="425" t="s">
         <v>1058</v>
       </c>
-      <c r="L91" s="422"/>
-      <c r="M91" s="423"/>
-      <c r="N91" s="424"/>
+      <c r="L91" s="426"/>
+      <c r="M91" s="427"/>
+      <c r="N91" s="428"/>
       <c r="O91" s="26"/>
       <c r="P91" s="34"/>
       <c r="Q91" s="6"/>
@@ -36427,10 +38009,10 @@
       <c r="H92" s="4"/>
       <c r="I92" s="30"/>
       <c r="J92" s="26"/>
-      <c r="K92" s="425"/>
-      <c r="L92" s="426"/>
-      <c r="M92" s="423"/>
-      <c r="N92" s="424"/>
+      <c r="K92" s="429"/>
+      <c r="L92" s="430"/>
+      <c r="M92" s="427"/>
+      <c r="N92" s="428"/>
       <c r="O92" s="26"/>
       <c r="P92" s="34"/>
       <c r="Q92" s="6"/>
@@ -36445,12 +38027,12 @@
       <c r="H93" s="4"/>
       <c r="I93" s="30"/>
       <c r="J93" s="26"/>
-      <c r="K93" s="421" t="s">
+      <c r="K93" s="425" t="s">
         <v>1059</v>
       </c>
-      <c r="L93" s="422"/>
-      <c r="M93" s="423"/>
-      <c r="N93" s="424"/>
+      <c r="L93" s="426"/>
+      <c r="M93" s="427"/>
+      <c r="N93" s="428"/>
       <c r="O93" s="26"/>
       <c r="P93" s="34"/>
       <c r="Q93" s="6"/>
@@ -36462,10 +38044,10 @@
       <c r="H94" s="4"/>
       <c r="I94" s="30"/>
       <c r="J94" s="26"/>
-      <c r="K94" s="423"/>
-      <c r="L94" s="424"/>
-      <c r="M94" s="423"/>
-      <c r="N94" s="424"/>
+      <c r="K94" s="427"/>
+      <c r="L94" s="428"/>
+      <c r="M94" s="427"/>
+      <c r="N94" s="428"/>
       <c r="O94" s="26"/>
       <c r="P94" s="34"/>
       <c r="Q94" s="6"/>
@@ -36479,10 +38061,10 @@
       <c r="H95" s="4"/>
       <c r="I95" s="30"/>
       <c r="J95" s="26"/>
-      <c r="K95" s="425"/>
-      <c r="L95" s="426"/>
-      <c r="M95" s="425"/>
-      <c r="N95" s="426"/>
+      <c r="K95" s="429"/>
+      <c r="L95" s="430"/>
+      <c r="M95" s="429"/>
+      <c r="N95" s="430"/>
       <c r="O95" s="26"/>
       <c r="P95" s="34"/>
       <c r="Q95" s="6"/>
@@ -36499,14 +38081,14 @@
       <c r="H96" s="4"/>
       <c r="I96" s="30"/>
       <c r="J96" s="26"/>
-      <c r="K96" s="419" t="s">
+      <c r="K96" s="423" t="s">
         <v>1060</v>
       </c>
-      <c r="L96" s="419"/>
-      <c r="M96" s="419" t="s">
+      <c r="L96" s="423"/>
+      <c r="M96" s="423" t="s">
         <v>1061</v>
       </c>
-      <c r="N96" s="419"/>
+      <c r="N96" s="423"/>
       <c r="O96" s="26"/>
       <c r="P96" s="34"/>
       <c r="Q96" s="6"/>
@@ -36630,7 +38212,7 @@
       <c r="E115" s="88"/>
       <c r="F115" s="89"/>
       <c r="I115" s="4"/>
-      <c r="J115" s="416" t="s">
+      <c r="J115" s="420" t="s">
         <v>1091</v>
       </c>
       <c r="K115" s="2"/>
@@ -36647,7 +38229,7 @@
       <c r="E116" s="5"/>
       <c r="F116" s="6"/>
       <c r="I116" s="4"/>
-      <c r="J116" s="417"/>
+      <c r="J116" s="421"/>
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
       <c r="M116" s="3"/>
@@ -36662,7 +38244,7 @@
       <c r="E117" s="5"/>
       <c r="F117" s="6"/>
       <c r="I117" s="4"/>
-      <c r="J117" s="417"/>
+      <c r="J117" s="421"/>
       <c r="K117" s="5" t="s">
         <v>24</v>
       </c>
@@ -36679,7 +38261,7 @@
       <c r="E118" s="5"/>
       <c r="F118" s="6"/>
       <c r="I118" s="4"/>
-      <c r="J118" s="417"/>
+      <c r="J118" s="421"/>
       <c r="K118" s="5"/>
       <c r="L118" s="5"/>
       <c r="M118" s="6"/>
@@ -36694,7 +38276,7 @@
       <c r="E119" s="5"/>
       <c r="F119" s="6"/>
       <c r="I119" s="4"/>
-      <c r="J119" s="417"/>
+      <c r="J119" s="421"/>
       <c r="K119" s="5" t="s">
         <v>502</v>
       </c>
@@ -36714,7 +38296,7 @@
         <v>1090</v>
       </c>
       <c r="I120" s="4"/>
-      <c r="J120" s="417"/>
+      <c r="J120" s="421"/>
       <c r="K120" s="10"/>
       <c r="L120" s="10"/>
       <c r="M120" s="9"/>
@@ -36734,7 +38316,7 @@
         <v>151</v>
       </c>
       <c r="I121" s="4"/>
-      <c r="J121" s="417"/>
+      <c r="J121" s="421"/>
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
       <c r="M121" s="3"/>
@@ -36751,7 +38333,7 @@
       <c r="E122" s="5"/>
       <c r="F122" s="6"/>
       <c r="I122" s="4"/>
-      <c r="J122" s="417"/>
+      <c r="J122" s="421"/>
       <c r="K122" s="5"/>
       <c r="L122" s="5" t="s">
         <v>1087</v>
@@ -36770,7 +38352,7 @@
       <c r="E123" s="5"/>
       <c r="F123" s="6"/>
       <c r="I123" s="4"/>
-      <c r="J123" s="417"/>
+      <c r="J123" s="421"/>
       <c r="K123" s="5"/>
       <c r="L123" s="5" t="s">
         <v>1085</v>
@@ -36787,7 +38369,7 @@
       <c r="E124" s="5"/>
       <c r="F124" s="6"/>
       <c r="I124" s="4"/>
-      <c r="J124" s="417"/>
+      <c r="J124" s="421"/>
       <c r="K124" s="5"/>
       <c r="L124" s="5" t="s">
         <v>24</v>
@@ -36804,7 +38386,7 @@
       <c r="E125" s="5"/>
       <c r="F125" s="6"/>
       <c r="I125" s="4"/>
-      <c r="J125" s="417"/>
+      <c r="J125" s="421"/>
       <c r="K125" s="10"/>
       <c r="L125" s="10"/>
       <c r="M125" s="9"/>
@@ -36819,7 +38401,7 @@
       <c r="E126" s="10"/>
       <c r="F126" s="9"/>
       <c r="I126" s="4"/>
-      <c r="J126" s="418"/>
+      <c r="J126" s="422"/>
       <c r="K126" s="10"/>
       <c r="L126" s="10"/>
       <c r="M126" s="10"/>
@@ -37345,10 +38927,10 @@
         <v>153</v>
       </c>
       <c r="L160" s="4"/>
-      <c r="M160" s="398" t="s">
+      <c r="M160" s="402" t="s">
         <v>79</v>
       </c>
-      <c r="N160" s="399"/>
+      <c r="N160" s="403"/>
       <c r="O160" s="322" t="s">
         <v>80</v>
       </c>
@@ -41477,13 +43059,13 @@
         <v>66</v>
       </c>
       <c r="J3" s="126"/>
-      <c r="K3" s="437"/>
-      <c r="L3" s="437"/>
-      <c r="M3" s="437"/>
-      <c r="N3" s="437"/>
-      <c r="O3" s="437"/>
-      <c r="P3" s="437"/>
-      <c r="Q3" s="438"/>
+      <c r="K3" s="441"/>
+      <c r="L3" s="441"/>
+      <c r="M3" s="441"/>
+      <c r="N3" s="441"/>
+      <c r="O3" s="441"/>
+      <c r="P3" s="441"/>
+      <c r="Q3" s="442"/>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
       <c r="T3" s="26" t="s">
@@ -41794,13 +43376,13 @@
       </c>
     </row>
     <row r="12" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A12" s="428" t="s">
+      <c r="A12" s="432" t="s">
         <v>425</v>
       </c>
-      <c r="B12" s="429"/>
-      <c r="C12" s="429"/>
-      <c r="D12" s="429"/>
-      <c r="E12" s="430"/>
+      <c r="B12" s="433"/>
+      <c r="C12" s="433"/>
+      <c r="D12" s="433"/>
+      <c r="E12" s="434"/>
       <c r="F12" t="s">
         <v>438</v>
       </c>
@@ -41827,11 +43409,11 @@
       <c r="V12" s="6"/>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13" s="431"/>
-      <c r="B13" s="432"/>
-      <c r="C13" s="432"/>
-      <c r="D13" s="432"/>
-      <c r="E13" s="433"/>
+      <c r="A13" s="435"/>
+      <c r="B13" s="436"/>
+      <c r="C13" s="436"/>
+      <c r="D13" s="436"/>
+      <c r="E13" s="437"/>
       <c r="F13" t="s">
         <v>6</v>
       </c>
@@ -41858,11 +43440,11 @@
       <c r="V13" s="6"/>
     </row>
     <row r="14" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A14" s="431"/>
-      <c r="B14" s="432"/>
-      <c r="C14" s="432"/>
-      <c r="D14" s="432"/>
-      <c r="E14" s="433"/>
+      <c r="A14" s="435"/>
+      <c r="B14" s="436"/>
+      <c r="C14" s="436"/>
+      <c r="D14" s="436"/>
+      <c r="E14" s="437"/>
       <c r="F14" t="s">
         <v>435</v>
       </c>
@@ -41891,11 +43473,11 @@
       <c r="V14" s="6"/>
     </row>
     <row r="15" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A15" s="434"/>
-      <c r="B15" s="435"/>
-      <c r="C15" s="435"/>
-      <c r="D15" s="435"/>
-      <c r="E15" s="436"/>
+      <c r="A15" s="438"/>
+      <c r="B15" s="439"/>
+      <c r="C15" s="439"/>
+      <c r="D15" s="439"/>
+      <c r="E15" s="440"/>
       <c r="F15" s="24"/>
       <c r="H15" s="150"/>
       <c r="I15" s="4" t="s">
@@ -41965,17 +43547,17 @@
       <c r="F17" s="146"/>
       <c r="G17" s="107"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="401" t="s">
+      <c r="I17" s="405" t="s">
         <v>846</v>
       </c>
-      <c r="J17" s="401"/>
-      <c r="K17" s="401"/>
-      <c r="L17" s="401"/>
-      <c r="M17" s="401"/>
-      <c r="N17" s="401"/>
-      <c r="O17" s="401"/>
-      <c r="P17" s="401"/>
-      <c r="Q17" s="401"/>
+      <c r="J17" s="405"/>
+      <c r="K17" s="405"/>
+      <c r="L17" s="405"/>
+      <c r="M17" s="405"/>
+      <c r="N17" s="405"/>
+      <c r="O17" s="405"/>
+      <c r="P17" s="405"/>
+      <c r="Q17" s="405"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5" t="s">
         <v>202</v>

--- a/jee_latest_st.xlsx
+++ b/jee_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="7590" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="7590" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="network" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4630" uniqueCount="2122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4683" uniqueCount="2128">
   <si>
     <t>java server - tomcat</t>
   </si>
@@ -7426,6 +7426,24 @@
   </si>
   <si>
     <t>MainContent</t>
+  </si>
+  <si>
+    <t>Layout</t>
+  </si>
+  <si>
+    <t>Columns</t>
+  </si>
+  <si>
+    <t>rows</t>
+  </si>
+  <si>
+    <t>&lt;input type="text"  name="userid" id="userid"   /&gt;</t>
+  </si>
+  <si>
+    <t>&lt;input type="password"  name="pass" id="pass"  /&gt;</t>
+  </si>
+  <si>
+    <t>&lt;input type="submit" value="login" /&gt;</t>
   </si>
 </sst>
 </file>
@@ -8829,6 +8847,32 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8843,6 +8887,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9024,24 +9071,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -9072,6 +9101,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -9080,12 +9127,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -9117,6 +9158,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9126,65 +9170,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -9237,6 +9224,63 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9282,22 +9326,52 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9360,74 +9434,18 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -9764,7 +9782,7 @@
       <c r="M2" s="24" t="s">
         <v>1394</v>
       </c>
-      <c r="U2" s="384" t="s">
+      <c r="U2" s="410" t="s">
         <v>1937</v>
       </c>
       <c r="V2" s="24" t="s">
@@ -9787,7 +9805,7 @@
       <c r="R3" s="24" t="s">
         <v>1938</v>
       </c>
-      <c r="U3" s="385"/>
+      <c r="U3" s="411"/>
       <c r="V3" s="24" t="s">
         <v>147</v>
       </c>
@@ -9815,7 +9833,7 @@
       <c r="S4" s="24" t="s">
         <v>1941</v>
       </c>
-      <c r="U4" s="385"/>
+      <c r="U4" s="411"/>
       <c r="V4" s="24" t="s">
         <v>1933</v>
       </c>
@@ -10939,10 +10957,10 @@
       <c r="C68" s="126">
         <v>1</v>
       </c>
-      <c r="D68" s="386" t="s">
+      <c r="D68" s="412" t="s">
         <v>2017</v>
       </c>
-      <c r="E68" s="386" t="s">
+      <c r="E68" s="412" t="s">
         <v>27</v>
       </c>
       <c r="F68" s="126"/>
@@ -10964,8 +10982,8 @@
       <c r="C69" s="279">
         <v>2</v>
       </c>
-      <c r="D69" s="386"/>
-      <c r="E69" s="386"/>
+      <c r="D69" s="412"/>
+      <c r="E69" s="412"/>
       <c r="F69" s="279">
         <v>21211</v>
       </c>
@@ -10985,10 +11003,10 @@
         <v>1973</v>
       </c>
       <c r="C70" s="126"/>
-      <c r="D70" s="386" t="s">
+      <c r="D70" s="412" t="s">
         <v>1964</v>
       </c>
-      <c r="E70" s="386" t="s">
+      <c r="E70" s="412" t="s">
         <v>31</v>
       </c>
       <c r="F70" s="126"/>
@@ -11018,8 +11036,8 @@
         <v>1973</v>
       </c>
       <c r="C71" s="126"/>
-      <c r="D71" s="386"/>
-      <c r="E71" s="386"/>
+      <c r="D71" s="412"/>
+      <c r="E71" s="412"/>
       <c r="F71" s="126"/>
       <c r="G71" s="250" t="s">
         <v>1977</v>
@@ -11391,7 +11409,7 @@
       <c r="F107" s="24" t="s">
         <v>2003</v>
       </c>
-      <c r="I107" s="382">
+      <c r="I107" s="408">
         <v>22</v>
       </c>
       <c r="J107" s="24" t="s">
@@ -11406,7 +11424,7 @@
       <c r="F108" s="24" t="s">
         <v>2004</v>
       </c>
-      <c r="I108" s="383"/>
+      <c r="I108" s="409"/>
       <c r="P108" s="126"/>
     </row>
     <row r="109" spans="3:16">
@@ -12316,13 +12334,13 @@
         <v>60</v>
       </c>
       <c r="J3" s="120"/>
-      <c r="K3" s="429"/>
-      <c r="L3" s="429"/>
-      <c r="M3" s="429"/>
-      <c r="N3" s="429"/>
-      <c r="O3" s="429"/>
-      <c r="P3" s="429"/>
-      <c r="Q3" s="430"/>
+      <c r="K3" s="456"/>
+      <c r="L3" s="456"/>
+      <c r="M3" s="456"/>
+      <c r="N3" s="456"/>
+      <c r="O3" s="456"/>
+      <c r="P3" s="456"/>
+      <c r="Q3" s="457"/>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
       <c r="T3" s="26" t="s">
@@ -12633,13 +12651,13 @@
       </c>
     </row>
     <row r="12" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A12" s="420" t="s">
+      <c r="A12" s="447" t="s">
         <v>416</v>
       </c>
-      <c r="B12" s="421"/>
-      <c r="C12" s="421"/>
-      <c r="D12" s="421"/>
-      <c r="E12" s="422"/>
+      <c r="B12" s="448"/>
+      <c r="C12" s="448"/>
+      <c r="D12" s="448"/>
+      <c r="E12" s="449"/>
       <c r="F12" t="s">
         <v>429</v>
       </c>
@@ -12666,11 +12684,11 @@
       <c r="V12" s="6"/>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13" s="423"/>
-      <c r="B13" s="424"/>
-      <c r="C13" s="424"/>
-      <c r="D13" s="424"/>
-      <c r="E13" s="425"/>
+      <c r="A13" s="450"/>
+      <c r="B13" s="451"/>
+      <c r="C13" s="451"/>
+      <c r="D13" s="451"/>
+      <c r="E13" s="452"/>
       <c r="F13" t="s">
         <v>6</v>
       </c>
@@ -12697,11 +12715,11 @@
       <c r="V13" s="6"/>
     </row>
     <row r="14" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A14" s="423"/>
-      <c r="B14" s="424"/>
-      <c r="C14" s="424"/>
-      <c r="D14" s="424"/>
-      <c r="E14" s="425"/>
+      <c r="A14" s="450"/>
+      <c r="B14" s="451"/>
+      <c r="C14" s="451"/>
+      <c r="D14" s="451"/>
+      <c r="E14" s="452"/>
       <c r="F14" t="s">
         <v>426</v>
       </c>
@@ -12730,11 +12748,11 @@
       <c r="V14" s="6"/>
     </row>
     <row r="15" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A15" s="426"/>
-      <c r="B15" s="427"/>
-      <c r="C15" s="427"/>
-      <c r="D15" s="427"/>
-      <c r="E15" s="428"/>
+      <c r="A15" s="453"/>
+      <c r="B15" s="454"/>
+      <c r="C15" s="454"/>
+      <c r="D15" s="454"/>
+      <c r="E15" s="455"/>
       <c r="F15" s="24"/>
       <c r="H15" s="141"/>
       <c r="I15" s="4" t="s">
@@ -12804,17 +12822,17 @@
       <c r="F17" s="137"/>
       <c r="G17" s="101"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="393" t="s">
+      <c r="I17" s="420" t="s">
         <v>836</v>
       </c>
-      <c r="J17" s="393"/>
-      <c r="K17" s="393"/>
-      <c r="L17" s="393"/>
-      <c r="M17" s="393"/>
-      <c r="N17" s="393"/>
-      <c r="O17" s="393"/>
-      <c r="P17" s="393"/>
-      <c r="Q17" s="393"/>
+      <c r="J17" s="420"/>
+      <c r="K17" s="420"/>
+      <c r="L17" s="420"/>
+      <c r="M17" s="420"/>
+      <c r="N17" s="420"/>
+      <c r="O17" s="420"/>
+      <c r="P17" s="420"/>
+      <c r="Q17" s="420"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5" t="s">
         <v>196</v>
@@ -16241,7 +16259,7 @@
       <c r="L109" s="2"/>
       <c r="M109" s="3"/>
       <c r="N109" s="5"/>
-      <c r="O109" s="431">
+      <c r="O109" s="458">
         <v>123</v>
       </c>
       <c r="P109" s="239" t="s">
@@ -16263,7 +16281,7 @@
       <c r="L110" s="5"/>
       <c r="M110" s="6"/>
       <c r="N110" s="5"/>
-      <c r="O110" s="409"/>
+      <c r="O110" s="436"/>
       <c r="P110" s="239"/>
       <c r="Q110" s="33" t="s">
         <v>202</v>
@@ -16281,7 +16299,7 @@
       <c r="L111" s="5"/>
       <c r="M111" s="6"/>
       <c r="N111" s="5"/>
-      <c r="O111" s="409"/>
+      <c r="O111" s="436"/>
       <c r="P111" s="239"/>
       <c r="Q111" s="33" t="s">
         <v>707</v>
@@ -16299,7 +16317,7 @@
       <c r="L112" s="5"/>
       <c r="M112" s="6"/>
       <c r="N112" s="5"/>
-      <c r="O112" s="409"/>
+      <c r="O112" s="436"/>
       <c r="P112" s="239"/>
       <c r="Q112" s="33"/>
     </row>
@@ -16318,7 +16336,7 @@
       <c r="L113" s="5"/>
       <c r="M113" s="6"/>
       <c r="N113" s="5"/>
-      <c r="O113" s="410"/>
+      <c r="O113" s="437"/>
       <c r="P113" s="239"/>
       <c r="Q113" s="33"/>
     </row>
@@ -16343,7 +16361,7 @@
       <c r="L114" s="5"/>
       <c r="M114" s="6"/>
       <c r="N114" s="5"/>
-      <c r="O114" s="431">
+      <c r="O114" s="458">
         <v>456</v>
       </c>
       <c r="P114" s="239" t="s">
@@ -16365,7 +16383,7 @@
       <c r="L115" s="5"/>
       <c r="M115" s="6"/>
       <c r="N115" s="5"/>
-      <c r="O115" s="409"/>
+      <c r="O115" s="436"/>
       <c r="P115" s="239"/>
       <c r="Q115" s="33" t="s">
         <v>1125</v>
@@ -16386,7 +16404,7 @@
       <c r="L116" s="5"/>
       <c r="M116" s="6"/>
       <c r="N116" s="5"/>
-      <c r="O116" s="409"/>
+      <c r="O116" s="436"/>
       <c r="P116" s="239"/>
       <c r="Q116" s="33"/>
     </row>
@@ -16405,7 +16423,7 @@
       <c r="L117" s="5"/>
       <c r="M117" s="6"/>
       <c r="N117" s="5"/>
-      <c r="O117" s="410"/>
+      <c r="O117" s="437"/>
       <c r="P117" s="239"/>
       <c r="Q117" s="33"/>
     </row>
@@ -16421,7 +16439,7 @@
       <c r="L118" s="5"/>
       <c r="M118" s="6"/>
       <c r="N118" s="5"/>
-      <c r="O118" s="431">
+      <c r="O118" s="458">
         <v>777</v>
       </c>
       <c r="P118" s="239"/>
@@ -16444,7 +16462,7 @@
       <c r="L119" s="5"/>
       <c r="M119" s="6"/>
       <c r="N119" s="5"/>
-      <c r="O119" s="409"/>
+      <c r="O119" s="436"/>
       <c r="P119" s="239"/>
       <c r="Q119" s="33"/>
     </row>
@@ -16463,7 +16481,7 @@
       <c r="L120" s="5"/>
       <c r="M120" s="6"/>
       <c r="N120" s="5"/>
-      <c r="O120" s="409"/>
+      <c r="O120" s="436"/>
       <c r="P120" s="239"/>
       <c r="Q120" s="33"/>
     </row>
@@ -16482,7 +16500,7 @@
       <c r="L121" s="5"/>
       <c r="M121" s="6"/>
       <c r="N121" s="5"/>
-      <c r="O121" s="410"/>
+      <c r="O121" s="437"/>
       <c r="P121" s="239"/>
       <c r="Q121" s="33"/>
     </row>
@@ -16644,10 +16662,10 @@
       <c r="L133" s="2"/>
       <c r="M133" s="3"/>
       <c r="N133" s="5"/>
-      <c r="O133" s="435">
+      <c r="O133" s="462">
         <v>123</v>
       </c>
-      <c r="P133" s="432" t="s">
+      <c r="P133" s="459" t="s">
         <v>514</v>
       </c>
       <c r="Q133" s="255" t="s">
@@ -16666,8 +16684,8 @@
       <c r="L134" s="5"/>
       <c r="M134" s="6"/>
       <c r="N134" s="5"/>
-      <c r="O134" s="436"/>
-      <c r="P134" s="433"/>
+      <c r="O134" s="463"/>
+      <c r="P134" s="460"/>
       <c r="Q134" s="255" t="s">
         <v>202</v>
       </c>
@@ -16684,8 +16702,8 @@
       <c r="L135" s="5"/>
       <c r="M135" s="6"/>
       <c r="N135" s="5"/>
-      <c r="O135" s="436"/>
-      <c r="P135" s="433"/>
+      <c r="O135" s="463"/>
+      <c r="P135" s="460"/>
       <c r="Q135" s="255"/>
     </row>
     <row r="136" spans="1:17" ht="15.75" thickBot="1">
@@ -16704,8 +16722,8 @@
       <c r="L136" s="5"/>
       <c r="M136" s="6"/>
       <c r="N136" s="5"/>
-      <c r="O136" s="436"/>
-      <c r="P136" s="433"/>
+      <c r="O136" s="463"/>
+      <c r="P136" s="460"/>
       <c r="Q136" s="255"/>
     </row>
     <row r="137" spans="1:17" ht="15.75" thickBot="1">
@@ -16727,8 +16745,8 @@
       <c r="L137" s="26"/>
       <c r="M137" s="34"/>
       <c r="N137" s="26"/>
-      <c r="O137" s="437"/>
-      <c r="P137" s="434"/>
+      <c r="O137" s="464"/>
+      <c r="P137" s="461"/>
       <c r="Q137" s="255"/>
     </row>
     <row r="138" spans="1:17">
@@ -16748,7 +16766,7 @@
       <c r="L138" s="5"/>
       <c r="M138" s="6"/>
       <c r="N138" s="5"/>
-      <c r="O138" s="431"/>
+      <c r="O138" s="458"/>
       <c r="P138" s="239"/>
       <c r="Q138" s="33"/>
     </row>
@@ -16764,7 +16782,7 @@
       <c r="L139" s="5"/>
       <c r="M139" s="6"/>
       <c r="N139" s="5"/>
-      <c r="O139" s="409"/>
+      <c r="O139" s="436"/>
       <c r="P139" s="239"/>
       <c r="Q139" s="33"/>
     </row>
@@ -16782,7 +16800,7 @@
       <c r="L140" s="38"/>
       <c r="M140" s="44"/>
       <c r="N140" s="5"/>
-      <c r="O140" s="409"/>
+      <c r="O140" s="436"/>
       <c r="P140" s="239"/>
       <c r="Q140" s="33"/>
     </row>
@@ -16801,7 +16819,7 @@
       <c r="L141" s="5"/>
       <c r="M141" s="6"/>
       <c r="N141" s="5"/>
-      <c r="O141" s="410"/>
+      <c r="O141" s="437"/>
       <c r="P141" s="239"/>
       <c r="Q141" s="33"/>
     </row>
@@ -16819,7 +16837,7 @@
       <c r="L142" s="5"/>
       <c r="M142" s="6"/>
       <c r="N142" s="5"/>
-      <c r="O142" s="431"/>
+      <c r="O142" s="458"/>
       <c r="P142" s="239"/>
       <c r="Q142" s="33"/>
     </row>
@@ -16839,7 +16857,7 @@
       </c>
       <c r="M143" s="254"/>
       <c r="N143" s="142"/>
-      <c r="O143" s="409"/>
+      <c r="O143" s="436"/>
       <c r="P143" s="239"/>
       <c r="Q143" s="33"/>
     </row>
@@ -16855,7 +16873,7 @@
       <c r="L144" s="5"/>
       <c r="M144" s="6"/>
       <c r="N144" s="5"/>
-      <c r="O144" s="409"/>
+      <c r="O144" s="436"/>
       <c r="P144" s="239"/>
       <c r="Q144" s="33"/>
     </row>
@@ -16875,7 +16893,7 @@
       <c r="L145" s="5"/>
       <c r="M145" s="6"/>
       <c r="N145" s="5"/>
-      <c r="O145" s="410"/>
+      <c r="O145" s="437"/>
       <c r="P145" s="239"/>
       <c r="Q145" s="33"/>
     </row>
@@ -19259,8 +19277,8 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="441"/>
-      <c r="B2" s="401"/>
+      <c r="A2" s="468"/>
+      <c r="B2" s="428"/>
       <c r="C2" s="27" t="s">
         <v>1406</v>
       </c>
@@ -19278,8 +19296,8 @@
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A3" s="441"/>
-      <c r="B3" s="401"/>
+      <c r="A3" s="468"/>
+      <c r="B3" s="428"/>
       <c r="C3" s="4" t="s">
         <v>169</v>
       </c>
@@ -19303,8 +19321,8 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A4" s="442"/>
-      <c r="B4" s="443"/>
+      <c r="A4" s="469"/>
+      <c r="B4" s="470"/>
       <c r="C4" s="7" t="s">
         <v>1615</v>
       </c>
@@ -19345,8 +19363,8 @@
       <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="441"/>
-      <c r="B7" s="401"/>
+      <c r="A7" s="468"/>
+      <c r="B7" s="428"/>
       <c r="C7" s="27" t="s">
         <v>1406</v>
       </c>
@@ -19362,8 +19380,8 @@
       <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A8" s="441"/>
-      <c r="B8" s="401"/>
+      <c r="A8" s="468"/>
+      <c r="B8" s="428"/>
       <c r="C8" s="4" t="s">
         <v>169</v>
       </c>
@@ -19383,8 +19401,8 @@
       <c r="N8" s="9"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A9" s="442"/>
-      <c r="B9" s="443"/>
+      <c r="A9" s="469"/>
+      <c r="B9" s="470"/>
       <c r="C9" s="7" t="s">
         <v>1618</v>
       </c>
@@ -19714,8 +19732,8 @@
       </c>
     </row>
     <row r="35" spans="1:26">
-      <c r="A35" s="441"/>
-      <c r="B35" s="401"/>
+      <c r="A35" s="468"/>
+      <c r="B35" s="428"/>
       <c r="C35" s="27" t="s">
         <v>1406</v>
       </c>
@@ -19736,8 +19754,8 @@
       </c>
     </row>
     <row r="36" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A36" s="441"/>
-      <c r="B36" s="401"/>
+      <c r="A36" s="468"/>
+      <c r="B36" s="428"/>
       <c r="C36" s="4"/>
       <c r="D36" s="5" t="s">
         <v>202</v>
@@ -19764,8 +19782,8 @@
       </c>
     </row>
     <row r="37" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A37" s="442"/>
-      <c r="B37" s="443"/>
+      <c r="A37" s="469"/>
+      <c r="B37" s="470"/>
       <c r="C37" s="7" t="s">
         <v>1627</v>
       </c>
@@ -19809,8 +19827,8 @@
       <c r="N39" s="6"/>
     </row>
     <row r="40" spans="1:26">
-      <c r="A40" s="441"/>
-      <c r="B40" s="401"/>
+      <c r="A40" s="468"/>
+      <c r="B40" s="428"/>
       <c r="C40" s="27" t="s">
         <v>1406</v>
       </c>
@@ -19826,8 +19844,8 @@
       <c r="N40" s="6"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A41" s="441"/>
-      <c r="B41" s="401"/>
+      <c r="A41" s="468"/>
+      <c r="B41" s="428"/>
       <c r="C41" s="4"/>
       <c r="D41" s="5" t="s">
         <v>169</v>
@@ -19845,8 +19863,8 @@
       <c r="N41" s="9"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A42" s="442"/>
-      <c r="B42" s="443"/>
+      <c r="A42" s="469"/>
+      <c r="B42" s="470"/>
       <c r="C42" s="7" t="s">
         <v>1628</v>
       </c>
@@ -21233,7 +21251,7 @@
       <c r="E114" s="24" t="s">
         <v>1617</v>
       </c>
-      <c r="I114" s="438" t="s">
+      <c r="I114" s="465" t="s">
         <v>1663</v>
       </c>
       <c r="J114" s="342" t="s">
@@ -21254,7 +21272,7 @@
       <c r="B115" s="7"/>
       <c r="C115" s="82"/>
       <c r="D115" s="83"/>
-      <c r="I115" s="439"/>
+      <c r="I115" s="466"/>
       <c r="J115" s="5"/>
       <c r="K115" s="33"/>
       <c r="L115" s="33"/>
@@ -21268,7 +21286,7 @@
       <c r="E116" t="s">
         <v>142</v>
       </c>
-      <c r="I116" s="440"/>
+      <c r="I116" s="467"/>
       <c r="J116" s="5"/>
       <c r="K116" s="5"/>
       <c r="L116" s="5"/>
@@ -21310,7 +21328,7 @@
       <c r="N119" s="6"/>
     </row>
     <row r="120" spans="2:14">
-      <c r="I120" s="438" t="s">
+      <c r="I120" s="465" t="s">
         <v>1664</v>
       </c>
       <c r="J120" s="5"/>
@@ -21320,7 +21338,7 @@
       <c r="N120" s="6"/>
     </row>
     <row r="121" spans="2:14">
-      <c r="I121" s="439"/>
+      <c r="I121" s="466"/>
       <c r="J121" s="5"/>
       <c r="K121" s="5"/>
       <c r="L121" s="5"/>
@@ -21328,7 +21346,7 @@
       <c r="N121" s="6"/>
     </row>
     <row r="122" spans="2:14" ht="15.75" thickBot="1">
-      <c r="I122" s="440"/>
+      <c r="I122" s="467"/>
       <c r="J122" s="5"/>
       <c r="K122" s="5"/>
       <c r="L122" s="5"/>
@@ -22393,10 +22411,10 @@
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="444" t="s">
+      <c r="L35" s="471" t="s">
         <v>212</v>
       </c>
-      <c r="M35" s="444"/>
+      <c r="M35" s="471"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
@@ -24326,10 +24344,10 @@
       </c>
     </row>
     <row r="155" spans="1:17">
-      <c r="A155" s="445" t="s">
+      <c r="A155" s="472" t="s">
         <v>698</v>
       </c>
-      <c r="B155" s="445"/>
+      <c r="B155" s="472"/>
     </row>
     <row r="156" spans="1:17">
       <c r="A156" s="68" t="s">
@@ -25127,18 +25145,18 @@
       </c>
     </row>
     <row r="29" spans="2:16">
-      <c r="B29" s="446" t="s">
+      <c r="B29" s="473" t="s">
         <v>998</v>
       </c>
-      <c r="C29" s="446"/>
-      <c r="D29" s="446"/>
-      <c r="E29" s="446"/>
-      <c r="F29" s="446"/>
-      <c r="I29" s="446" t="s">
+      <c r="C29" s="473"/>
+      <c r="D29" s="473"/>
+      <c r="E29" s="473"/>
+      <c r="F29" s="473"/>
+      <c r="I29" s="473" t="s">
         <v>1192</v>
       </c>
-      <c r="J29" s="446"/>
-      <c r="K29" s="446"/>
+      <c r="J29" s="473"/>
+      <c r="K29" s="473"/>
     </row>
     <row r="31" spans="2:16">
       <c r="B31" t="s">
@@ -26815,18 +26833,18 @@
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1">
       <c r="D6" s="4"/>
-      <c r="E6" s="447" t="s">
+      <c r="E6" s="484" t="s">
         <v>244</v>
       </c>
-      <c r="F6" s="448"/>
-      <c r="G6" s="449" t="s">
+      <c r="F6" s="485"/>
+      <c r="G6" s="486" t="s">
         <v>57</v>
       </c>
-      <c r="H6" s="449"/>
-      <c r="I6" s="449"/>
-      <c r="J6" s="449"/>
-      <c r="K6" s="449"/>
-      <c r="L6" s="448"/>
+      <c r="H6" s="486"/>
+      <c r="I6" s="486"/>
+      <c r="J6" s="486"/>
+      <c r="K6" s="486"/>
+      <c r="L6" s="485"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="26" t="s">
@@ -26839,7 +26857,7 @@
       <c r="B7" t="s">
         <v>1261</v>
       </c>
-      <c r="D7" s="459">
+      <c r="D7" s="480">
         <v>80</v>
       </c>
       <c r="E7" s="119"/>
@@ -26857,7 +26875,7 @@
       <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1">
-      <c r="D8" s="459"/>
+      <c r="D8" s="480"/>
       <c r="E8" s="106" t="s">
         <v>246</v>
       </c>
@@ -26890,7 +26908,7 @@
       <c r="B9" t="s">
         <v>245</v>
       </c>
-      <c r="D9" s="459"/>
+      <c r="D9" s="480"/>
       <c r="E9" s="121"/>
       <c r="F9" s="246"/>
       <c r="G9" s="121"/>
@@ -26917,7 +26935,7 @@
       <c r="A10" t="s">
         <v>1266</v>
       </c>
-      <c r="D10" s="459"/>
+      <c r="D10" s="480"/>
       <c r="E10" s="119"/>
       <c r="F10" s="120"/>
       <c r="G10" s="119"/>
@@ -26944,7 +26962,7 @@
       <c r="B11" t="s">
         <v>1694</v>
       </c>
-      <c r="D11" s="459"/>
+      <c r="D11" s="480"/>
       <c r="E11" s="106" t="s">
         <v>250</v>
       </c>
@@ -26973,7 +26991,7 @@
       <c r="B12" s="156" t="s">
         <v>254</v>
       </c>
-      <c r="D12" s="459"/>
+      <c r="D12" s="480"/>
       <c r="E12" s="121"/>
       <c r="F12" s="246"/>
       <c r="G12" s="121"/>
@@ -26994,7 +27012,7 @@
       <c r="B13" t="s">
         <v>1262</v>
       </c>
-      <c r="D13" s="459"/>
+      <c r="D13" s="480"/>
       <c r="E13" s="119"/>
       <c r="F13" s="120"/>
       <c r="G13" s="119"/>
@@ -27013,7 +27031,7 @@
       <c r="B14" t="s">
         <v>1263</v>
       </c>
-      <c r="D14" s="459"/>
+      <c r="D14" s="480"/>
       <c r="E14" s="106" t="s">
         <v>255</v>
       </c>
@@ -27040,7 +27058,7 @@
       <c r="B15" t="s">
         <v>1264</v>
       </c>
-      <c r="D15" s="459"/>
+      <c r="D15" s="480"/>
       <c r="E15" s="121"/>
       <c r="F15" s="246"/>
       <c r="G15" s="121"/>
@@ -27059,7 +27077,7 @@
       <c r="B16" t="s">
         <v>1265</v>
       </c>
-      <c r="D16" s="459"/>
+      <c r="D16" s="480"/>
       <c r="E16" s="119"/>
       <c r="F16" s="120"/>
       <c r="G16" s="24"/>
@@ -27077,7 +27095,7 @@
       <c r="Q16" s="6"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1">
-      <c r="D17" s="459"/>
+      <c r="D17" s="480"/>
       <c r="E17" s="106" t="s">
         <v>259</v>
       </c>
@@ -27106,7 +27124,7 @@
       <c r="A18" t="s">
         <v>1692</v>
       </c>
-      <c r="D18" s="459"/>
+      <c r="D18" s="480"/>
       <c r="E18" s="121"/>
       <c r="F18" s="246"/>
       <c r="G18" s="47"/>
@@ -27126,20 +27144,20 @@
         <v>1693</v>
       </c>
       <c r="D19" s="8"/>
-      <c r="E19" s="450" t="s">
+      <c r="E19" s="487" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="451"/>
-      <c r="G19" s="450" t="s">
+      <c r="F19" s="488"/>
+      <c r="G19" s="487" t="s">
         <v>74</v>
       </c>
-      <c r="H19" s="451"/>
-      <c r="I19" s="450" t="s">
+      <c r="H19" s="488"/>
+      <c r="I19" s="487" t="s">
         <v>75</v>
       </c>
-      <c r="J19" s="452"/>
-      <c r="K19" s="452"/>
-      <c r="L19" s="451"/>
+      <c r="J19" s="489"/>
+      <c r="K19" s="489"/>
+      <c r="L19" s="488"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
@@ -27204,12 +27222,12 @@
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="460"/>
-      <c r="H24" s="460"/>
-      <c r="I24" s="460"/>
-      <c r="J24" s="460"/>
-      <c r="K24" s="460"/>
-      <c r="L24" s="460"/>
+      <c r="G24" s="481"/>
+      <c r="H24" s="481"/>
+      <c r="I24" s="481"/>
+      <c r="J24" s="481"/>
+      <c r="K24" s="481"/>
+      <c r="L24" s="481"/>
       <c r="O24" s="35" t="s">
         <v>58</v>
       </c>
@@ -27528,10 +27546,10 @@
       <c r="D44" s="6" t="s">
         <v>1507</v>
       </c>
-      <c r="E44" s="399" t="s">
+      <c r="E44" s="426" t="s">
         <v>1674</v>
       </c>
-      <c r="F44" s="401"/>
+      <c r="F44" s="428"/>
       <c r="G44" s="4"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
@@ -27547,8 +27565,8 @@
       <c r="D45" s="6" t="s">
         <v>910</v>
       </c>
-      <c r="E45" s="399"/>
-      <c r="F45" s="401"/>
+      <c r="E45" s="426"/>
+      <c r="F45" s="428"/>
       <c r="G45" s="4"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
@@ -28196,14 +28214,14 @@
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
       <c r="E97" s="6"/>
-      <c r="F97" s="461" t="s">
+      <c r="F97" s="482" t="s">
         <v>1118</v>
       </c>
-      <c r="G97" s="446"/>
-      <c r="H97" s="446"/>
-      <c r="I97" s="446"/>
-      <c r="J97" s="446"/>
-      <c r="K97" s="462"/>
+      <c r="G97" s="473"/>
+      <c r="H97" s="473"/>
+      <c r="I97" s="473"/>
+      <c r="J97" s="473"/>
+      <c r="K97" s="483"/>
       <c r="L97" s="4" t="s">
         <v>1251</v>
       </c>
@@ -30212,13 +30230,13 @@
       <c r="Q214" s="24"/>
     </row>
     <row r="215" spans="2:17">
-      <c r="B215" s="453" t="s">
+      <c r="B215" s="474" t="s">
         <v>1769</v>
       </c>
-      <c r="C215" s="456"/>
-      <c r="D215" s="456"/>
-      <c r="E215" s="456"/>
-      <c r="F215" s="457"/>
+      <c r="C215" s="477"/>
+      <c r="D215" s="477"/>
+      <c r="E215" s="477"/>
+      <c r="F215" s="478"/>
       <c r="G215" s="204"/>
       <c r="H215" s="204"/>
       <c r="I215" s="204"/>
@@ -30236,40 +30254,40 @@
       <c r="Q215" s="24"/>
     </row>
     <row r="216" spans="2:17">
-      <c r="B216" s="458"/>
-      <c r="C216" s="456"/>
-      <c r="D216" s="456"/>
-      <c r="E216" s="456"/>
-      <c r="F216" s="457"/>
+      <c r="B216" s="479"/>
+      <c r="C216" s="477"/>
+      <c r="D216" s="477"/>
+      <c r="E216" s="477"/>
+      <c r="F216" s="478"/>
       <c r="G216" s="24"/>
       <c r="H216" s="24"/>
       <c r="I216" s="24"/>
       <c r="J216" s="24"/>
-      <c r="K216" s="453" t="s">
+      <c r="K216" s="474" t="s">
         <v>1755</v>
       </c>
-      <c r="L216" s="454"/>
-      <c r="M216" s="454"/>
-      <c r="N216" s="454"/>
-      <c r="O216" s="455"/>
+      <c r="L216" s="475"/>
+      <c r="M216" s="475"/>
+      <c r="N216" s="475"/>
+      <c r="O216" s="476"/>
       <c r="P216" s="24"/>
       <c r="Q216" s="24"/>
     </row>
     <row r="217" spans="2:17">
-      <c r="B217" s="458"/>
-      <c r="C217" s="456"/>
-      <c r="D217" s="456"/>
-      <c r="E217" s="456"/>
-      <c r="F217" s="457"/>
+      <c r="B217" s="479"/>
+      <c r="C217" s="477"/>
+      <c r="D217" s="477"/>
+      <c r="E217" s="477"/>
+      <c r="F217" s="478"/>
       <c r="G217" s="24"/>
       <c r="H217" s="24"/>
       <c r="I217" s="24"/>
       <c r="J217" s="24"/>
-      <c r="K217" s="453"/>
-      <c r="L217" s="454"/>
-      <c r="M217" s="454"/>
-      <c r="N217" s="454"/>
-      <c r="O217" s="455"/>
+      <c r="K217" s="474"/>
+      <c r="L217" s="475"/>
+      <c r="M217" s="475"/>
+      <c r="N217" s="475"/>
+      <c r="O217" s="476"/>
       <c r="P217" s="24"/>
       <c r="Q217" s="24"/>
     </row>
@@ -31008,17 +31026,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:L19"/>
     <mergeCell ref="K216:O217"/>
     <mergeCell ref="B215:F217"/>
     <mergeCell ref="D7:D18"/>
     <mergeCell ref="G24:L24"/>
     <mergeCell ref="F97:K97"/>
     <mergeCell ref="E44:F45"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:L19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="P9" r:id="rId1"/>
@@ -31050,12 +31068,12 @@
       <c r="A1" s="364" t="s">
         <v>1789</v>
       </c>
-      <c r="H1" s="463" t="s">
+      <c r="H1" s="490" t="s">
         <v>1790</v>
       </c>
-      <c r="I1" s="463"/>
-      <c r="J1" s="463"/>
-      <c r="K1" s="463"/>
+      <c r="I1" s="490"/>
+      <c r="J1" s="490"/>
+      <c r="K1" s="490"/>
       <c r="M1" s="12" t="s">
         <v>1791</v>
       </c>
@@ -31073,10 +31091,10 @@
       <c r="A2" s="364" t="s">
         <v>1795</v>
       </c>
-      <c r="H2" s="463"/>
-      <c r="I2" s="463"/>
-      <c r="J2" s="463"/>
-      <c r="K2" s="463"/>
+      <c r="H2" s="490"/>
+      <c r="I2" s="490"/>
+      <c r="J2" s="490"/>
+      <c r="K2" s="490"/>
       <c r="M2" s="33" t="s">
         <v>797</v>
       </c>
@@ -31094,10 +31112,10 @@
       <c r="A3" s="364" t="s">
         <v>1797</v>
       </c>
-      <c r="H3" s="463"/>
-      <c r="I3" s="463"/>
-      <c r="J3" s="463"/>
-      <c r="K3" s="463"/>
+      <c r="H3" s="490"/>
+      <c r="I3" s="490"/>
+      <c r="J3" s="490"/>
+      <c r="K3" s="490"/>
       <c r="M3" s="33" t="s">
         <v>798</v>
       </c>
@@ -31115,10 +31133,10 @@
       <c r="A4" s="364" t="s">
         <v>1799</v>
       </c>
-      <c r="H4" s="463"/>
-      <c r="I4" s="463"/>
-      <c r="J4" s="463"/>
-      <c r="K4" s="463"/>
+      <c r="H4" s="490"/>
+      <c r="I4" s="490"/>
+      <c r="J4" s="490"/>
+      <c r="K4" s="490"/>
       <c r="M4" s="33" t="s">
         <v>994</v>
       </c>
@@ -31133,10 +31151,10 @@
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="H5" s="463"/>
-      <c r="I5" s="463"/>
-      <c r="J5" s="463"/>
-      <c r="K5" s="463"/>
+      <c r="H5" s="490"/>
+      <c r="I5" s="490"/>
+      <c r="J5" s="490"/>
+      <c r="K5" s="490"/>
       <c r="Q5" s="33" t="s">
         <v>1796</v>
       </c>
@@ -31145,10 +31163,10 @@
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="H6" s="463"/>
-      <c r="I6" s="463"/>
-      <c r="J6" s="463"/>
-      <c r="K6" s="463"/>
+      <c r="H6" s="490"/>
+      <c r="I6" s="490"/>
+      <c r="J6" s="490"/>
+      <c r="K6" s="490"/>
       <c r="Q6" s="33" t="s">
         <v>1798</v>
       </c>
@@ -31165,12 +31183,12 @@
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="H9" s="464" t="s">
+      <c r="H9" s="491" t="s">
         <v>1801</v>
       </c>
-      <c r="I9" s="464"/>
-      <c r="J9" s="464"/>
-      <c r="K9" s="464"/>
+      <c r="I9" s="491"/>
+      <c r="J9" s="491"/>
+      <c r="K9" s="491"/>
       <c r="M9" t="s">
         <v>1802</v>
       </c>
@@ -31179,10 +31197,10 @@
       <c r="A10" s="365" t="s">
         <v>1803</v>
       </c>
-      <c r="H10" s="464"/>
-      <c r="I10" s="464"/>
-      <c r="J10" s="464"/>
-      <c r="K10" s="464"/>
+      <c r="H10" s="491"/>
+      <c r="I10" s="491"/>
+      <c r="J10" s="491"/>
+      <c r="K10" s="491"/>
       <c r="M10" t="s">
         <v>1804</v>
       </c>
@@ -31191,10 +31209,10 @@
       <c r="A11" s="365" t="s">
         <v>1805</v>
       </c>
-      <c r="H11" s="464"/>
-      <c r="I11" s="464"/>
-      <c r="J11" s="464"/>
-      <c r="K11" s="464"/>
+      <c r="H11" s="491"/>
+      <c r="I11" s="491"/>
+      <c r="J11" s="491"/>
+      <c r="K11" s="491"/>
       <c r="M11" t="s">
         <v>1806</v>
       </c>
@@ -31203,10 +31221,10 @@
       <c r="A12" s="365" t="s">
         <v>1807</v>
       </c>
-      <c r="H12" s="464"/>
-      <c r="I12" s="464"/>
-      <c r="J12" s="464"/>
-      <c r="K12" s="464"/>
+      <c r="H12" s="491"/>
+      <c r="I12" s="491"/>
+      <c r="J12" s="491"/>
+      <c r="K12" s="491"/>
       <c r="M12" t="s">
         <v>1808</v>
       </c>
@@ -31228,11 +31246,11 @@
       <c r="A16" s="16" t="s">
         <v>1812</v>
       </c>
-      <c r="I16" s="463" t="s">
+      <c r="I16" s="490" t="s">
         <v>1813</v>
       </c>
-      <c r="J16" s="463"/>
-      <c r="K16" s="463"/>
+      <c r="J16" s="490"/>
+      <c r="K16" s="490"/>
       <c r="M16" t="s">
         <v>1814</v>
       </c>
@@ -31244,9 +31262,9 @@
       <c r="A17" s="364" t="s">
         <v>1815</v>
       </c>
-      <c r="I17" s="463"/>
-      <c r="J17" s="463"/>
-      <c r="K17" s="463"/>
+      <c r="I17" s="490"/>
+      <c r="J17" s="490"/>
+      <c r="K17" s="490"/>
       <c r="M17" t="s">
         <v>1816</v>
       </c>
@@ -31258,9 +31276,9 @@
       <c r="A18" s="364" t="s">
         <v>1817</v>
       </c>
-      <c r="I18" s="463"/>
-      <c r="J18" s="463"/>
-      <c r="K18" s="463"/>
+      <c r="I18" s="490"/>
+      <c r="J18" s="490"/>
+      <c r="K18" s="490"/>
       <c r="M18" t="s">
         <v>1818</v>
       </c>
@@ -31269,19 +31287,19 @@
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="I19" s="463"/>
-      <c r="J19" s="463"/>
-      <c r="K19" s="463"/>
+      <c r="I19" s="490"/>
+      <c r="J19" s="490"/>
+      <c r="K19" s="490"/>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="364" t="s">
         <v>1819</v>
       </c>
-      <c r="I22" s="463" t="s">
+      <c r="I22" s="490" t="s">
         <v>1820</v>
       </c>
-      <c r="J22" s="463"/>
-      <c r="K22" s="463"/>
+      <c r="J22" s="490"/>
+      <c r="K22" s="490"/>
       <c r="N22" s="35" t="s">
         <v>1821</v>
       </c>
@@ -31293,9 +31311,9 @@
       <c r="A23" s="364" t="s">
         <v>1822</v>
       </c>
-      <c r="I23" s="463"/>
-      <c r="J23" s="463"/>
-      <c r="K23" s="463"/>
+      <c r="I23" s="490"/>
+      <c r="J23" s="490"/>
+      <c r="K23" s="490"/>
       <c r="M23" s="360">
         <v>0</v>
       </c>
@@ -31307,9 +31325,9 @@
       </c>
     </row>
     <row r="24" spans="1:17">
-      <c r="I24" s="463"/>
-      <c r="J24" s="463"/>
-      <c r="K24" s="463"/>
+      <c r="I24" s="490"/>
+      <c r="J24" s="490"/>
+      <c r="K24" s="490"/>
       <c r="M24" s="360">
         <v>1</v>
       </c>
@@ -31321,9 +31339,9 @@
       </c>
     </row>
     <row r="25" spans="1:17">
-      <c r="I25" s="463"/>
-      <c r="J25" s="463"/>
-      <c r="K25" s="463"/>
+      <c r="I25" s="490"/>
+      <c r="J25" s="490"/>
+      <c r="K25" s="490"/>
       <c r="M25" s="360">
         <v>2</v>
       </c>
@@ -31335,9 +31353,9 @@
       </c>
     </row>
     <row r="26" spans="1:17">
-      <c r="I26" s="463"/>
-      <c r="J26" s="463"/>
-      <c r="K26" s="463"/>
+      <c r="I26" s="490"/>
+      <c r="J26" s="490"/>
+      <c r="K26" s="490"/>
       <c r="M26" s="360">
         <v>3</v>
       </c>
@@ -32480,13 +32498,13 @@
       <c r="C20" s="90">
         <v>43908</v>
       </c>
-      <c r="D20" s="465" t="s">
+      <c r="D20" s="492" t="s">
         <v>292</v>
       </c>
-      <c r="E20" s="465"/>
-      <c r="F20" s="465"/>
-      <c r="G20" s="465"/>
-      <c r="H20" s="465"/>
+      <c r="E20" s="492"/>
+      <c r="F20" s="492"/>
+      <c r="G20" s="492"/>
+      <c r="H20" s="492"/>
       <c r="I20" s="33" t="s">
         <v>293</v>
       </c>
@@ -32497,37 +32515,37 @@
       <c r="N20" s="33"/>
     </row>
     <row r="21" spans="3:14">
-      <c r="C21" s="467">
+      <c r="C21" s="503">
         <v>43909</v>
       </c>
-      <c r="D21" s="465"/>
-      <c r="E21" s="465"/>
-      <c r="F21" s="465"/>
-      <c r="G21" s="465"/>
-      <c r="H21" s="465"/>
+      <c r="D21" s="492"/>
+      <c r="E21" s="492"/>
+      <c r="F21" s="492"/>
+      <c r="G21" s="492"/>
+      <c r="H21" s="492"/>
       <c r="I21" s="33" t="s">
         <v>294</v>
       </c>
-      <c r="J21" s="465"/>
-      <c r="K21" s="465"/>
-      <c r="L21" s="465" t="s">
+      <c r="J21" s="492"/>
+      <c r="K21" s="492"/>
+      <c r="L21" s="492" t="s">
         <v>295</v>
       </c>
-      <c r="M21" s="465"/>
-      <c r="N21" s="465"/>
+      <c r="M21" s="492"/>
+      <c r="N21" s="492"/>
     </row>
     <row r="22" spans="3:14">
-      <c r="C22" s="467"/>
-      <c r="D22" s="465"/>
-      <c r="E22" s="465"/>
-      <c r="F22" s="465"/>
-      <c r="G22" s="465"/>
-      <c r="H22" s="465"/>
-      <c r="I22" s="466" t="s">
+      <c r="C22" s="503"/>
+      <c r="D22" s="492"/>
+      <c r="E22" s="492"/>
+      <c r="F22" s="492"/>
+      <c r="G22" s="492"/>
+      <c r="H22" s="492"/>
+      <c r="I22" s="413" t="s">
         <v>296</v>
       </c>
-      <c r="J22" s="465"/>
-      <c r="K22" s="465"/>
+      <c r="J22" s="492"/>
+      <c r="K22" s="492"/>
       <c r="L22" s="91" t="s">
         <v>297</v>
       </c>
@@ -32535,31 +32553,31 @@
       <c r="N22" s="33"/>
     </row>
     <row r="23" spans="3:14">
-      <c r="C23" s="467"/>
-      <c r="D23" s="465"/>
-      <c r="E23" s="465"/>
-      <c r="F23" s="465"/>
-      <c r="G23" s="465"/>
-      <c r="H23" s="465"/>
-      <c r="I23" s="466"/>
-      <c r="J23" s="465"/>
-      <c r="K23" s="465"/>
-      <c r="L23" s="465" t="s">
+      <c r="C23" s="503"/>
+      <c r="D23" s="492"/>
+      <c r="E23" s="492"/>
+      <c r="F23" s="492"/>
+      <c r="G23" s="492"/>
+      <c r="H23" s="492"/>
+      <c r="I23" s="413"/>
+      <c r="J23" s="492"/>
+      <c r="K23" s="492"/>
+      <c r="L23" s="492" t="s">
         <v>298</v>
       </c>
-      <c r="M23" s="465"/>
-      <c r="N23" s="465"/>
+      <c r="M23" s="492"/>
+      <c r="N23" s="492"/>
     </row>
     <row r="24" spans="3:14">
-      <c r="C24" s="467"/>
-      <c r="D24" s="465"/>
-      <c r="E24" s="465"/>
-      <c r="F24" s="465"/>
-      <c r="G24" s="465"/>
-      <c r="H24" s="465"/>
-      <c r="I24" s="466"/>
-      <c r="J24" s="465"/>
-      <c r="K24" s="465"/>
+      <c r="C24" s="503"/>
+      <c r="D24" s="492"/>
+      <c r="E24" s="492"/>
+      <c r="F24" s="492"/>
+      <c r="G24" s="492"/>
+      <c r="H24" s="492"/>
+      <c r="I24" s="413"/>
+      <c r="J24" s="492"/>
+      <c r="K24" s="492"/>
       <c r="L24" s="92" t="s">
         <v>296</v>
       </c>
@@ -32570,13 +32588,13 @@
       <c r="C25" s="90">
         <v>43910</v>
       </c>
-      <c r="D25" s="465" t="s">
+      <c r="D25" s="492" t="s">
         <v>299</v>
       </c>
-      <c r="E25" s="465"/>
-      <c r="F25" s="465"/>
-      <c r="G25" s="465"/>
-      <c r="H25" s="465"/>
+      <c r="E25" s="492"/>
+      <c r="F25" s="492"/>
+      <c r="G25" s="492"/>
+      <c r="H25" s="492"/>
       <c r="I25" s="33" t="s">
         <v>300</v>
       </c>
@@ -32590,16 +32608,16 @@
       <c r="C26" s="90">
         <v>43911</v>
       </c>
-      <c r="D26" s="468"/>
-      <c r="E26" s="469"/>
-      <c r="F26" s="469"/>
-      <c r="G26" s="469"/>
-      <c r="H26" s="470"/>
-      <c r="I26" s="475" t="s">
+      <c r="D26" s="493"/>
+      <c r="E26" s="494"/>
+      <c r="F26" s="494"/>
+      <c r="G26" s="494"/>
+      <c r="H26" s="495"/>
+      <c r="I26" s="500" t="s">
         <v>296</v>
       </c>
-      <c r="J26" s="468"/>
-      <c r="K26" s="470"/>
+      <c r="J26" s="493"/>
+      <c r="K26" s="495"/>
       <c r="L26" s="91" t="s">
         <v>297</v>
       </c>
@@ -32608,30 +32626,30 @@
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="33"/>
-      <c r="D27" s="471"/>
-      <c r="E27" s="460"/>
-      <c r="F27" s="460"/>
-      <c r="G27" s="460"/>
-      <c r="H27" s="472"/>
-      <c r="I27" s="476"/>
-      <c r="J27" s="471"/>
-      <c r="K27" s="472"/>
-      <c r="L27" s="465" t="s">
+      <c r="D27" s="496"/>
+      <c r="E27" s="481"/>
+      <c r="F27" s="481"/>
+      <c r="G27" s="481"/>
+      <c r="H27" s="497"/>
+      <c r="I27" s="501"/>
+      <c r="J27" s="496"/>
+      <c r="K27" s="497"/>
+      <c r="L27" s="492" t="s">
         <v>301</v>
       </c>
-      <c r="M27" s="465"/>
-      <c r="N27" s="465"/>
+      <c r="M27" s="492"/>
+      <c r="N27" s="492"/>
     </row>
     <row r="28" spans="3:14">
       <c r="C28" s="33"/>
-      <c r="D28" s="471"/>
-      <c r="E28" s="460"/>
-      <c r="F28" s="460"/>
-      <c r="G28" s="460"/>
-      <c r="H28" s="472"/>
-      <c r="I28" s="476"/>
-      <c r="J28" s="471"/>
-      <c r="K28" s="472"/>
+      <c r="D28" s="496"/>
+      <c r="E28" s="481"/>
+      <c r="F28" s="481"/>
+      <c r="G28" s="481"/>
+      <c r="H28" s="497"/>
+      <c r="I28" s="501"/>
+      <c r="J28" s="496"/>
+      <c r="K28" s="497"/>
       <c r="L28" s="92" t="s">
         <v>296</v>
       </c>
@@ -32640,14 +32658,14 @@
     </row>
     <row r="29" spans="3:14">
       <c r="C29" s="33"/>
-      <c r="D29" s="473"/>
-      <c r="E29" s="444"/>
-      <c r="F29" s="444"/>
-      <c r="G29" s="444"/>
-      <c r="H29" s="474"/>
-      <c r="I29" s="477"/>
-      <c r="J29" s="473"/>
-      <c r="K29" s="474"/>
+      <c r="D29" s="498"/>
+      <c r="E29" s="471"/>
+      <c r="F29" s="471"/>
+      <c r="G29" s="471"/>
+      <c r="H29" s="499"/>
+      <c r="I29" s="502"/>
+      <c r="J29" s="498"/>
+      <c r="K29" s="499"/>
       <c r="L29" s="93" t="s">
         <v>302</v>
       </c>
@@ -32695,13 +32713,13 @@
       <c r="C33" s="90">
         <v>43908</v>
       </c>
-      <c r="D33" s="465" t="s">
+      <c r="D33" s="492" t="s">
         <v>292</v>
       </c>
-      <c r="E33" s="465"/>
-      <c r="F33" s="465"/>
-      <c r="G33" s="465"/>
-      <c r="H33" s="465"/>
+      <c r="E33" s="492"/>
+      <c r="F33" s="492"/>
+      <c r="G33" s="492"/>
+      <c r="H33" s="492"/>
       <c r="I33" s="33" t="s">
         <v>293</v>
       </c>
@@ -32712,33 +32730,33 @@
       <c r="N33" s="33"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="C34" s="467">
+      <c r="C34" s="503">
         <v>43909</v>
       </c>
-      <c r="D34" s="465"/>
-      <c r="E34" s="465"/>
-      <c r="F34" s="465"/>
-      <c r="G34" s="465"/>
-      <c r="H34" s="465"/>
-      <c r="I34" s="478"/>
-      <c r="J34" s="465"/>
-      <c r="K34" s="465"/>
-      <c r="L34" s="465" t="s">
+      <c r="D34" s="492"/>
+      <c r="E34" s="492"/>
+      <c r="F34" s="492"/>
+      <c r="G34" s="492"/>
+      <c r="H34" s="492"/>
+      <c r="I34" s="504"/>
+      <c r="J34" s="492"/>
+      <c r="K34" s="492"/>
+      <c r="L34" s="492" t="s">
         <v>295</v>
       </c>
-      <c r="M34" s="465"/>
-      <c r="N34" s="465"/>
+      <c r="M34" s="492"/>
+      <c r="N34" s="492"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="C35" s="467"/>
-      <c r="D35" s="465"/>
-      <c r="E35" s="465"/>
-      <c r="F35" s="465"/>
-      <c r="G35" s="465"/>
-      <c r="H35" s="465"/>
-      <c r="I35" s="479"/>
-      <c r="J35" s="465"/>
-      <c r="K35" s="465"/>
+      <c r="C35" s="503"/>
+      <c r="D35" s="492"/>
+      <c r="E35" s="492"/>
+      <c r="F35" s="492"/>
+      <c r="G35" s="492"/>
+      <c r="H35" s="492"/>
+      <c r="I35" s="505"/>
+      <c r="J35" s="492"/>
+      <c r="K35" s="492"/>
       <c r="L35" s="91" t="s">
         <v>297</v>
       </c>
@@ -32746,31 +32764,31 @@
       <c r="N35" s="33"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="C36" s="467"/>
-      <c r="D36" s="465"/>
-      <c r="E36" s="465"/>
-      <c r="F36" s="465"/>
-      <c r="G36" s="465"/>
-      <c r="H36" s="465"/>
-      <c r="I36" s="479"/>
-      <c r="J36" s="465"/>
-      <c r="K36" s="465"/>
-      <c r="L36" s="465" t="s">
+      <c r="C36" s="503"/>
+      <c r="D36" s="492"/>
+      <c r="E36" s="492"/>
+      <c r="F36" s="492"/>
+      <c r="G36" s="492"/>
+      <c r="H36" s="492"/>
+      <c r="I36" s="505"/>
+      <c r="J36" s="492"/>
+      <c r="K36" s="492"/>
+      <c r="L36" s="492" t="s">
         <v>298</v>
       </c>
-      <c r="M36" s="465"/>
-      <c r="N36" s="465"/>
+      <c r="M36" s="492"/>
+      <c r="N36" s="492"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="C37" s="467"/>
-      <c r="D37" s="465"/>
-      <c r="E37" s="465"/>
-      <c r="F37" s="465"/>
-      <c r="G37" s="465"/>
-      <c r="H37" s="465"/>
-      <c r="I37" s="480"/>
-      <c r="J37" s="465"/>
-      <c r="K37" s="465"/>
+      <c r="C37" s="503"/>
+      <c r="D37" s="492"/>
+      <c r="E37" s="492"/>
+      <c r="F37" s="492"/>
+      <c r="G37" s="492"/>
+      <c r="H37" s="492"/>
+      <c r="I37" s="506"/>
+      <c r="J37" s="492"/>
+      <c r="K37" s="492"/>
       <c r="L37" s="92" t="s">
         <v>303</v>
       </c>
@@ -32781,13 +32799,13 @@
       <c r="C38" s="90">
         <v>43910</v>
       </c>
-      <c r="D38" s="465" t="s">
+      <c r="D38" s="492" t="s">
         <v>299</v>
       </c>
-      <c r="E38" s="465"/>
-      <c r="F38" s="465"/>
-      <c r="G38" s="465"/>
-      <c r="H38" s="465"/>
+      <c r="E38" s="492"/>
+      <c r="F38" s="492"/>
+      <c r="G38" s="492"/>
+      <c r="H38" s="492"/>
       <c r="I38" s="33" t="s">
         <v>300</v>
       </c>
@@ -32801,14 +32819,14 @@
       <c r="C39" s="90">
         <v>43911</v>
       </c>
-      <c r="D39" s="468"/>
-      <c r="E39" s="469"/>
-      <c r="F39" s="469"/>
-      <c r="G39" s="469"/>
-      <c r="H39" s="470"/>
-      <c r="I39" s="475"/>
-      <c r="J39" s="468"/>
-      <c r="K39" s="470"/>
+      <c r="D39" s="493"/>
+      <c r="E39" s="494"/>
+      <c r="F39" s="494"/>
+      <c r="G39" s="494"/>
+      <c r="H39" s="495"/>
+      <c r="I39" s="500"/>
+      <c r="J39" s="493"/>
+      <c r="K39" s="495"/>
       <c r="L39" s="91" t="s">
         <v>297</v>
       </c>
@@ -32817,30 +32835,30 @@
     </row>
     <row r="40" spans="1:14">
       <c r="C40" s="33"/>
-      <c r="D40" s="471"/>
-      <c r="E40" s="460"/>
-      <c r="F40" s="460"/>
-      <c r="G40" s="460"/>
-      <c r="H40" s="472"/>
-      <c r="I40" s="476"/>
-      <c r="J40" s="471"/>
-      <c r="K40" s="472"/>
-      <c r="L40" s="465" t="s">
+      <c r="D40" s="496"/>
+      <c r="E40" s="481"/>
+      <c r="F40" s="481"/>
+      <c r="G40" s="481"/>
+      <c r="H40" s="497"/>
+      <c r="I40" s="501"/>
+      <c r="J40" s="496"/>
+      <c r="K40" s="497"/>
+      <c r="L40" s="492" t="s">
         <v>301</v>
       </c>
-      <c r="M40" s="465"/>
-      <c r="N40" s="465"/>
+      <c r="M40" s="492"/>
+      <c r="N40" s="492"/>
     </row>
     <row r="41" spans="1:14">
       <c r="C41" s="33"/>
-      <c r="D41" s="471"/>
-      <c r="E41" s="460"/>
-      <c r="F41" s="460"/>
-      <c r="G41" s="460"/>
-      <c r="H41" s="472"/>
-      <c r="I41" s="477"/>
-      <c r="J41" s="471"/>
-      <c r="K41" s="472"/>
+      <c r="D41" s="496"/>
+      <c r="E41" s="481"/>
+      <c r="F41" s="481"/>
+      <c r="G41" s="481"/>
+      <c r="H41" s="497"/>
+      <c r="I41" s="502"/>
+      <c r="J41" s="496"/>
+      <c r="K41" s="497"/>
       <c r="L41" s="92" t="s">
         <v>303</v>
       </c>
@@ -32849,16 +32867,16 @@
     </row>
     <row r="42" spans="1:14">
       <c r="C42" s="33"/>
-      <c r="D42" s="473"/>
-      <c r="E42" s="444"/>
-      <c r="F42" s="444"/>
-      <c r="G42" s="444"/>
-      <c r="H42" s="474"/>
+      <c r="D42" s="498"/>
+      <c r="E42" s="471"/>
+      <c r="F42" s="471"/>
+      <c r="G42" s="471"/>
+      <c r="H42" s="499"/>
       <c r="I42" s="33" t="s">
         <v>294</v>
       </c>
-      <c r="J42" s="473"/>
-      <c r="K42" s="474"/>
+      <c r="J42" s="498"/>
+      <c r="K42" s="499"/>
       <c r="L42" s="93" t="s">
         <v>302</v>
       </c>
@@ -33170,17 +33188,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H42"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="J39:K42"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:H37"/>
-    <mergeCell ref="I34:I37"/>
-    <mergeCell ref="J34:K37"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="L27:N27"/>
     <mergeCell ref="C21:C24"/>
     <mergeCell ref="D21:H24"/>
     <mergeCell ref="J21:K24"/>
@@ -33188,12 +33201,17 @@
     <mergeCell ref="D26:H29"/>
     <mergeCell ref="I26:I29"/>
     <mergeCell ref="J26:K29"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:H37"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="J34:K37"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H42"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="J39:K42"/>
+    <mergeCell ref="L40:N40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -33215,29 +33233,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="21">
-      <c r="B2" s="491" t="s">
+      <c r="B2" s="525" t="s">
         <v>750</v>
       </c>
-      <c r="C2" s="491"/>
-      <c r="D2" s="491"/>
-      <c r="E2" s="491"/>
-      <c r="F2" s="491"/>
-      <c r="G2" s="491"/>
-      <c r="H2" s="491"/>
-      <c r="I2" s="491"/>
-      <c r="J2" s="491"/>
-      <c r="K2" s="491"/>
-      <c r="L2" s="491"/>
-      <c r="M2" s="491"/>
-      <c r="N2" s="491"/>
-      <c r="O2" s="491"/>
-      <c r="P2" s="491"/>
-      <c r="Q2" s="491"/>
-      <c r="R2" s="491"/>
-      <c r="S2" s="491"/>
-      <c r="T2" s="491"/>
-      <c r="U2" s="491"/>
-      <c r="V2" s="491"/>
+      <c r="C2" s="525"/>
+      <c r="D2" s="525"/>
+      <c r="E2" s="525"/>
+      <c r="F2" s="525"/>
+      <c r="G2" s="525"/>
+      <c r="H2" s="525"/>
+      <c r="I2" s="525"/>
+      <c r="J2" s="525"/>
+      <c r="K2" s="525"/>
+      <c r="L2" s="525"/>
+      <c r="M2" s="525"/>
+      <c r="N2" s="525"/>
+      <c r="O2" s="525"/>
+      <c r="P2" s="525"/>
+      <c r="Q2" s="525"/>
+      <c r="R2" s="525"/>
+      <c r="S2" s="525"/>
+      <c r="T2" s="525"/>
+      <c r="U2" s="525"/>
+      <c r="V2" s="525"/>
     </row>
     <row r="3" spans="2:22" ht="15.75" thickBot="1"/>
     <row r="4" spans="2:22">
@@ -33270,22 +33288,22 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="496" t="s">
+      <c r="G5" s="507" t="s">
         <v>324</v>
       </c>
-      <c r="H5" s="496"/>
-      <c r="I5" s="496" t="s">
+      <c r="H5" s="507"/>
+      <c r="I5" s="507" t="s">
         <v>325</v>
       </c>
-      <c r="J5" s="496"/>
-      <c r="K5" s="496"/>
-      <c r="L5" s="496"/>
-      <c r="M5" s="496"/>
-      <c r="N5" s="496"/>
-      <c r="O5" s="496" t="s">
+      <c r="J5" s="507"/>
+      <c r="K5" s="507"/>
+      <c r="L5" s="507"/>
+      <c r="M5" s="507"/>
+      <c r="N5" s="507"/>
+      <c r="O5" s="507" t="s">
         <v>326</v>
       </c>
-      <c r="P5" s="496"/>
+      <c r="P5" s="507"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
@@ -33297,7 +33315,7 @@
       <c r="D6" s="107"/>
       <c r="E6" s="108"/>
       <c r="F6" s="110"/>
-      <c r="G6" s="501" t="s">
+      <c r="G6" s="508" t="s">
         <v>327</v>
       </c>
       <c r="H6" s="86"/>
@@ -33326,26 +33344,26 @@
       </c>
       <c r="E7" s="110"/>
       <c r="F7" s="110"/>
-      <c r="G7" s="409"/>
-      <c r="H7" s="502" t="s">
+      <c r="G7" s="436"/>
+      <c r="H7" s="509" t="s">
         <v>329</v>
       </c>
-      <c r="I7" s="505" t="s">
+      <c r="I7" s="512" t="s">
         <v>330</v>
       </c>
-      <c r="J7" s="506"/>
-      <c r="K7" s="507" t="s">
+      <c r="J7" s="513"/>
+      <c r="K7" s="514" t="s">
         <v>331</v>
       </c>
-      <c r="L7" s="508"/>
-      <c r="M7" s="505" t="s">
+      <c r="L7" s="515"/>
+      <c r="M7" s="512" t="s">
         <v>332</v>
       </c>
-      <c r="N7" s="506"/>
-      <c r="O7" s="512" t="s">
+      <c r="N7" s="513"/>
+      <c r="O7" s="519" t="s">
         <v>333</v>
       </c>
-      <c r="P7" s="513"/>
+      <c r="P7" s="520"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
@@ -33357,16 +33375,16 @@
       <c r="D8" s="111"/>
       <c r="E8" s="112"/>
       <c r="F8" s="110"/>
-      <c r="G8" s="409"/>
-      <c r="H8" s="503"/>
-      <c r="I8" s="399"/>
-      <c r="J8" s="401"/>
-      <c r="K8" s="389"/>
-      <c r="L8" s="509"/>
-      <c r="M8" s="399"/>
-      <c r="N8" s="401"/>
-      <c r="O8" s="514"/>
-      <c r="P8" s="515"/>
+      <c r="G8" s="436"/>
+      <c r="H8" s="510"/>
+      <c r="I8" s="426"/>
+      <c r="J8" s="428"/>
+      <c r="K8" s="416"/>
+      <c r="L8" s="516"/>
+      <c r="M8" s="426"/>
+      <c r="N8" s="428"/>
+      <c r="O8" s="521"/>
+      <c r="P8" s="522"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="33" t="s">
         <v>61</v>
@@ -33384,16 +33402,16 @@
       <c r="D9" s="4"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="409"/>
-      <c r="H9" s="503"/>
-      <c r="I9" s="399"/>
-      <c r="J9" s="401"/>
-      <c r="K9" s="389"/>
-      <c r="L9" s="509"/>
-      <c r="M9" s="399"/>
-      <c r="N9" s="401"/>
-      <c r="O9" s="514"/>
-      <c r="P9" s="515"/>
+      <c r="G9" s="436"/>
+      <c r="H9" s="510"/>
+      <c r="I9" s="426"/>
+      <c r="J9" s="428"/>
+      <c r="K9" s="416"/>
+      <c r="L9" s="516"/>
+      <c r="M9" s="426"/>
+      <c r="N9" s="428"/>
+      <c r="O9" s="521"/>
+      <c r="P9" s="522"/>
       <c r="Q9" s="5" t="s">
         <v>2</v>
       </c>
@@ -33413,16 +33431,16 @@
       <c r="D10" s="1"/>
       <c r="E10" s="3"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="409"/>
-      <c r="H10" s="503"/>
-      <c r="I10" s="399"/>
-      <c r="J10" s="401"/>
-      <c r="K10" s="389"/>
-      <c r="L10" s="509"/>
-      <c r="M10" s="399"/>
-      <c r="N10" s="401"/>
-      <c r="O10" s="514"/>
-      <c r="P10" s="515"/>
+      <c r="G10" s="436"/>
+      <c r="H10" s="510"/>
+      <c r="I10" s="426"/>
+      <c r="J10" s="428"/>
+      <c r="K10" s="416"/>
+      <c r="L10" s="516"/>
+      <c r="M10" s="426"/>
+      <c r="N10" s="428"/>
+      <c r="O10" s="521"/>
+      <c r="P10" s="522"/>
       <c r="Q10" s="5" t="s">
         <v>66</v>
       </c>
@@ -33438,16 +33456,16 @@
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="409"/>
-      <c r="H11" s="503"/>
-      <c r="I11" s="399"/>
-      <c r="J11" s="401"/>
-      <c r="K11" s="389"/>
-      <c r="L11" s="509"/>
-      <c r="M11" s="399"/>
-      <c r="N11" s="401"/>
-      <c r="O11" s="514"/>
-      <c r="P11" s="515"/>
+      <c r="G11" s="436"/>
+      <c r="H11" s="510"/>
+      <c r="I11" s="426"/>
+      <c r="J11" s="428"/>
+      <c r="K11" s="416"/>
+      <c r="L11" s="516"/>
+      <c r="M11" s="426"/>
+      <c r="N11" s="428"/>
+      <c r="O11" s="521"/>
+      <c r="P11" s="522"/>
       <c r="Q11" s="5">
         <v>1000</v>
       </c>
@@ -33465,16 +33483,16 @@
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="409"/>
-      <c r="H12" s="503"/>
-      <c r="I12" s="399"/>
-      <c r="J12" s="401"/>
-      <c r="K12" s="389"/>
-      <c r="L12" s="509"/>
-      <c r="M12" s="399"/>
-      <c r="N12" s="401"/>
-      <c r="O12" s="514"/>
-      <c r="P12" s="515"/>
+      <c r="G12" s="436"/>
+      <c r="H12" s="510"/>
+      <c r="I12" s="426"/>
+      <c r="J12" s="428"/>
+      <c r="K12" s="416"/>
+      <c r="L12" s="516"/>
+      <c r="M12" s="426"/>
+      <c r="N12" s="428"/>
+      <c r="O12" s="521"/>
+      <c r="P12" s="522"/>
       <c r="Q12" s="5" t="s">
         <v>2</v>
       </c>
@@ -33488,16 +33506,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="409"/>
-      <c r="H13" s="503"/>
-      <c r="I13" s="399"/>
-      <c r="J13" s="401"/>
-      <c r="K13" s="389"/>
-      <c r="L13" s="509"/>
-      <c r="M13" s="399"/>
-      <c r="N13" s="401"/>
-      <c r="O13" s="514"/>
-      <c r="P13" s="515"/>
+      <c r="G13" s="436"/>
+      <c r="H13" s="510"/>
+      <c r="I13" s="426"/>
+      <c r="J13" s="428"/>
+      <c r="K13" s="416"/>
+      <c r="L13" s="516"/>
+      <c r="M13" s="426"/>
+      <c r="N13" s="428"/>
+      <c r="O13" s="521"/>
+      <c r="P13" s="522"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="33"/>
       <c r="S13" s="33"/>
@@ -33509,16 +33527,16 @@
       <c r="D14" s="1"/>
       <c r="E14" s="3"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="409"/>
-      <c r="H14" s="503"/>
-      <c r="I14" s="399"/>
-      <c r="J14" s="401"/>
-      <c r="K14" s="389"/>
-      <c r="L14" s="509"/>
-      <c r="M14" s="399"/>
-      <c r="N14" s="401"/>
-      <c r="O14" s="514"/>
-      <c r="P14" s="515"/>
+      <c r="G14" s="436"/>
+      <c r="H14" s="510"/>
+      <c r="I14" s="426"/>
+      <c r="J14" s="428"/>
+      <c r="K14" s="416"/>
+      <c r="L14" s="516"/>
+      <c r="M14" s="426"/>
+      <c r="N14" s="428"/>
+      <c r="O14" s="521"/>
+      <c r="P14" s="522"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="33"/>
       <c r="S14" s="33"/>
@@ -33532,16 +33550,16 @@
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="409"/>
-      <c r="H15" s="503"/>
-      <c r="I15" s="399"/>
-      <c r="J15" s="401"/>
-      <c r="K15" s="389"/>
-      <c r="L15" s="509"/>
-      <c r="M15" s="399"/>
-      <c r="N15" s="401"/>
-      <c r="O15" s="514"/>
-      <c r="P15" s="515"/>
+      <c r="G15" s="436"/>
+      <c r="H15" s="510"/>
+      <c r="I15" s="426"/>
+      <c r="J15" s="428"/>
+      <c r="K15" s="416"/>
+      <c r="L15" s="516"/>
+      <c r="M15" s="426"/>
+      <c r="N15" s="428"/>
+      <c r="O15" s="521"/>
+      <c r="P15" s="522"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
@@ -33553,16 +33571,16 @@
       <c r="D16" s="4"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="409"/>
-      <c r="H16" s="503"/>
-      <c r="I16" s="399"/>
-      <c r="J16" s="401"/>
-      <c r="K16" s="389"/>
-      <c r="L16" s="509"/>
-      <c r="M16" s="399"/>
-      <c r="N16" s="401"/>
-      <c r="O16" s="514"/>
-      <c r="P16" s="515"/>
+      <c r="G16" s="436"/>
+      <c r="H16" s="510"/>
+      <c r="I16" s="426"/>
+      <c r="J16" s="428"/>
+      <c r="K16" s="416"/>
+      <c r="L16" s="516"/>
+      <c r="M16" s="426"/>
+      <c r="N16" s="428"/>
+      <c r="O16" s="521"/>
+      <c r="P16" s="522"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
@@ -33574,16 +33592,16 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="409"/>
-      <c r="H17" s="503"/>
-      <c r="I17" s="399"/>
-      <c r="J17" s="401"/>
-      <c r="K17" s="389"/>
-      <c r="L17" s="509"/>
-      <c r="M17" s="399"/>
-      <c r="N17" s="401"/>
-      <c r="O17" s="514"/>
-      <c r="P17" s="515"/>
+      <c r="G17" s="436"/>
+      <c r="H17" s="510"/>
+      <c r="I17" s="426"/>
+      <c r="J17" s="428"/>
+      <c r="K17" s="416"/>
+      <c r="L17" s="516"/>
+      <c r="M17" s="426"/>
+      <c r="N17" s="428"/>
+      <c r="O17" s="521"/>
+      <c r="P17" s="522"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
@@ -33595,16 +33613,16 @@
       <c r="D18" s="4"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="409"/>
-      <c r="H18" s="503"/>
-      <c r="I18" s="399"/>
-      <c r="J18" s="401"/>
-      <c r="K18" s="389"/>
-      <c r="L18" s="509"/>
-      <c r="M18" s="399"/>
-      <c r="N18" s="401"/>
-      <c r="O18" s="514"/>
-      <c r="P18" s="515"/>
+      <c r="G18" s="436"/>
+      <c r="H18" s="510"/>
+      <c r="I18" s="426"/>
+      <c r="J18" s="428"/>
+      <c r="K18" s="416"/>
+      <c r="L18" s="516"/>
+      <c r="M18" s="426"/>
+      <c r="N18" s="428"/>
+      <c r="O18" s="521"/>
+      <c r="P18" s="522"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
@@ -33618,16 +33636,16 @@
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="409"/>
-      <c r="H19" s="503"/>
-      <c r="I19" s="399"/>
-      <c r="J19" s="401"/>
-      <c r="K19" s="389"/>
-      <c r="L19" s="509"/>
-      <c r="M19" s="399"/>
-      <c r="N19" s="401"/>
-      <c r="O19" s="514"/>
-      <c r="P19" s="515"/>
+      <c r="G19" s="436"/>
+      <c r="H19" s="510"/>
+      <c r="I19" s="426"/>
+      <c r="J19" s="428"/>
+      <c r="K19" s="416"/>
+      <c r="L19" s="516"/>
+      <c r="M19" s="426"/>
+      <c r="N19" s="428"/>
+      <c r="O19" s="521"/>
+      <c r="P19" s="522"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
@@ -33639,16 +33657,16 @@
       <c r="D20" s="8"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="410"/>
-      <c r="H20" s="504"/>
-      <c r="I20" s="402"/>
-      <c r="J20" s="404"/>
-      <c r="K20" s="510"/>
-      <c r="L20" s="511"/>
-      <c r="M20" s="402"/>
-      <c r="N20" s="404"/>
-      <c r="O20" s="516"/>
-      <c r="P20" s="517"/>
+      <c r="G20" s="437"/>
+      <c r="H20" s="511"/>
+      <c r="I20" s="429"/>
+      <c r="J20" s="431"/>
+      <c r="K20" s="517"/>
+      <c r="L20" s="518"/>
+      <c r="M20" s="429"/>
+      <c r="N20" s="431"/>
+      <c r="O20" s="523"/>
+      <c r="P20" s="524"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
@@ -33678,27 +33696,27 @@
     </row>
     <row r="22" spans="1:22" ht="15.75" thickBot="1">
       <c r="C22" s="4"/>
-      <c r="D22" s="390" t="s">
+      <c r="D22" s="417" t="s">
         <v>73</v>
       </c>
-      <c r="E22" s="391"/>
+      <c r="E22" s="418"/>
       <c r="F22" s="197"/>
       <c r="G22" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="H22" s="390" t="s">
+      <c r="H22" s="417" t="s">
         <v>75</v>
       </c>
-      <c r="I22" s="405"/>
-      <c r="J22" s="405"/>
-      <c r="K22" s="405"/>
-      <c r="L22" s="405"/>
-      <c r="M22" s="405"/>
-      <c r="N22" s="391"/>
-      <c r="O22" s="390" t="s">
+      <c r="I22" s="432"/>
+      <c r="J22" s="432"/>
+      <c r="K22" s="432"/>
+      <c r="L22" s="432"/>
+      <c r="M22" s="432"/>
+      <c r="N22" s="418"/>
+      <c r="O22" s="417" t="s">
         <v>334</v>
       </c>
-      <c r="P22" s="391"/>
+      <c r="P22" s="418"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
@@ -33729,59 +33747,59 @@
       <c r="U23" s="9"/>
     </row>
     <row r="25" spans="1:22" ht="21">
-      <c r="B25" s="491" t="s">
+      <c r="B25" s="525" t="s">
         <v>749</v>
       </c>
-      <c r="C25" s="491"/>
-      <c r="D25" s="491"/>
-      <c r="E25" s="491"/>
-      <c r="F25" s="491"/>
-      <c r="G25" s="491"/>
-      <c r="H25" s="491"/>
-      <c r="I25" s="491"/>
-      <c r="J25" s="491"/>
-      <c r="K25" s="491"/>
-      <c r="L25" s="491"/>
-      <c r="M25" s="491"/>
-      <c r="N25" s="491"/>
-      <c r="O25" s="491"/>
-      <c r="P25" s="491"/>
-      <c r="Q25" s="491"/>
-      <c r="R25" s="491"/>
-      <c r="S25" s="491"/>
-      <c r="T25" s="491"/>
-      <c r="U25" s="491"/>
-      <c r="V25" s="491"/>
+      <c r="C25" s="525"/>
+      <c r="D25" s="525"/>
+      <c r="E25" s="525"/>
+      <c r="F25" s="525"/>
+      <c r="G25" s="525"/>
+      <c r="H25" s="525"/>
+      <c r="I25" s="525"/>
+      <c r="J25" s="525"/>
+      <c r="K25" s="525"/>
+      <c r="L25" s="525"/>
+      <c r="M25" s="525"/>
+      <c r="N25" s="525"/>
+      <c r="O25" s="525"/>
+      <c r="P25" s="525"/>
+      <c r="Q25" s="525"/>
+      <c r="R25" s="525"/>
+      <c r="S25" s="525"/>
+      <c r="T25" s="525"/>
+      <c r="U25" s="525"/>
+      <c r="V25" s="525"/>
     </row>
     <row r="26" spans="1:22" ht="15.75" thickBot="1">
-      <c r="C26" s="492" t="s">
+      <c r="C26" s="526" t="s">
         <v>360</v>
       </c>
-      <c r="D26" s="492"/>
-      <c r="E26" s="492"/>
-      <c r="F26" s="492"/>
-      <c r="G26" s="492"/>
-      <c r="H26" s="492"/>
-      <c r="I26" s="492"/>
-      <c r="J26" s="492"/>
-      <c r="K26" s="492"/>
-      <c r="L26" s="492"/>
-      <c r="M26" s="492"/>
+      <c r="D26" s="526"/>
+      <c r="E26" s="526"/>
+      <c r="F26" s="526"/>
+      <c r="G26" s="526"/>
+      <c r="H26" s="526"/>
+      <c r="I26" s="526"/>
+      <c r="J26" s="526"/>
+      <c r="K26" s="526"/>
+      <c r="L26" s="526"/>
+      <c r="M26" s="526"/>
     </row>
     <row r="27" spans="1:22" ht="15.75" thickBot="1">
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="493" t="s">
+      <c r="E27" s="527" t="s">
         <v>57</v>
       </c>
-      <c r="F27" s="494"/>
-      <c r="G27" s="494"/>
-      <c r="H27" s="393"/>
-      <c r="I27" s="393"/>
-      <c r="J27" s="393"/>
-      <c r="K27" s="393"/>
-      <c r="L27" s="393"/>
-      <c r="M27" s="394"/>
+      <c r="F27" s="528"/>
+      <c r="G27" s="528"/>
+      <c r="H27" s="420"/>
+      <c r="I27" s="420"/>
+      <c r="J27" s="420"/>
+      <c r="K27" s="420"/>
+      <c r="L27" s="420"/>
+      <c r="M27" s="421"/>
     </row>
     <row r="28" spans="1:22">
       <c r="C28" s="4" t="s">
@@ -33818,11 +33836,11 @@
         <v>995</v>
       </c>
       <c r="M29" s="6"/>
-      <c r="O29" s="495" t="s">
+      <c r="O29" s="529" t="s">
         <v>58</v>
       </c>
-      <c r="P29" s="495"/>
-      <c r="Q29" s="495"/>
+      <c r="P29" s="529"/>
+      <c r="Q29" s="529"/>
     </row>
     <row r="30" spans="1:22" ht="15.75" thickBot="1">
       <c r="C30" s="4"/>
@@ -33876,21 +33894,21 @@
         <v>69</v>
       </c>
       <c r="D32" s="6"/>
-      <c r="E32" s="488" t="s">
+      <c r="E32" s="533" t="s">
         <v>753</v>
       </c>
-      <c r="F32" s="489"/>
-      <c r="G32" s="490"/>
-      <c r="H32" s="488" t="s">
+      <c r="F32" s="534"/>
+      <c r="G32" s="535"/>
+      <c r="H32" s="533" t="s">
         <v>754</v>
       </c>
-      <c r="I32" s="489"/>
-      <c r="J32" s="490"/>
-      <c r="K32" s="488" t="s">
+      <c r="I32" s="534"/>
+      <c r="J32" s="535"/>
+      <c r="K32" s="533" t="s">
         <v>755</v>
       </c>
-      <c r="L32" s="489"/>
-      <c r="M32" s="490"/>
+      <c r="L32" s="534"/>
+      <c r="M32" s="535"/>
       <c r="N32" s="5" t="s">
         <v>2</v>
       </c>
@@ -33910,15 +33928,15 @@
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="488"/>
-      <c r="F33" s="489"/>
-      <c r="G33" s="490"/>
-      <c r="H33" s="488"/>
-      <c r="I33" s="489"/>
-      <c r="J33" s="490"/>
-      <c r="K33" s="488"/>
-      <c r="L33" s="489"/>
-      <c r="M33" s="490"/>
+      <c r="E33" s="533"/>
+      <c r="F33" s="534"/>
+      <c r="G33" s="535"/>
+      <c r="H33" s="533"/>
+      <c r="I33" s="534"/>
+      <c r="J33" s="535"/>
+      <c r="K33" s="533"/>
+      <c r="L33" s="534"/>
+      <c r="M33" s="535"/>
       <c r="N33" s="5" t="s">
         <v>66</v>
       </c>
@@ -33941,15 +33959,15 @@
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="488"/>
-      <c r="F34" s="489"/>
-      <c r="G34" s="490"/>
-      <c r="H34" s="488"/>
-      <c r="I34" s="489"/>
-      <c r="J34" s="490"/>
-      <c r="K34" s="488"/>
-      <c r="L34" s="489"/>
-      <c r="M34" s="490"/>
+      <c r="E34" s="533"/>
+      <c r="F34" s="534"/>
+      <c r="G34" s="535"/>
+      <c r="H34" s="533"/>
+      <c r="I34" s="534"/>
+      <c r="J34" s="535"/>
+      <c r="K34" s="533"/>
+      <c r="L34" s="534"/>
+      <c r="M34" s="535"/>
       <c r="N34" s="5">
         <v>1000</v>
       </c>
@@ -33960,15 +33978,15 @@
     <row r="35" spans="1:22">
       <c r="C35" s="1"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="488"/>
-      <c r="F35" s="489"/>
-      <c r="G35" s="490"/>
-      <c r="H35" s="488"/>
-      <c r="I35" s="489"/>
-      <c r="J35" s="490"/>
-      <c r="K35" s="488"/>
-      <c r="L35" s="489"/>
-      <c r="M35" s="490"/>
+      <c r="E35" s="533"/>
+      <c r="F35" s="534"/>
+      <c r="G35" s="535"/>
+      <c r="H35" s="533"/>
+      <c r="I35" s="534"/>
+      <c r="J35" s="535"/>
+      <c r="K35" s="533"/>
+      <c r="L35" s="534"/>
+      <c r="M35" s="535"/>
       <c r="N35" s="5" t="s">
         <v>2</v>
       </c>
@@ -34099,15 +34117,15 @@
     <row r="42" spans="1:22" ht="19.5" thickBot="1">
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="481"/>
-      <c r="F42" s="482"/>
-      <c r="G42" s="482"/>
-      <c r="H42" s="482"/>
-      <c r="I42" s="482"/>
-      <c r="J42" s="482"/>
-      <c r="K42" s="482"/>
-      <c r="L42" s="482"/>
-      <c r="M42" s="483"/>
+      <c r="E42" s="537"/>
+      <c r="F42" s="538"/>
+      <c r="G42" s="538"/>
+      <c r="H42" s="538"/>
+      <c r="I42" s="538"/>
+      <c r="J42" s="538"/>
+      <c r="K42" s="538"/>
+      <c r="L42" s="538"/>
+      <c r="M42" s="539"/>
       <c r="N42" s="35" t="s">
         <v>365</v>
       </c>
@@ -34126,23 +34144,23 @@
       <c r="K43" s="5"/>
     </row>
     <row r="44" spans="1:22" ht="15.75" thickBot="1">
-      <c r="C44" s="390" t="s">
+      <c r="C44" s="417" t="s">
         <v>73</v>
       </c>
-      <c r="D44" s="391"/>
-      <c r="E44" s="390" t="s">
+      <c r="D44" s="418"/>
+      <c r="E44" s="417" t="s">
         <v>74</v>
       </c>
-      <c r="F44" s="405"/>
-      <c r="G44" s="391"/>
-      <c r="H44" s="390" t="s">
+      <c r="F44" s="432"/>
+      <c r="G44" s="418"/>
+      <c r="H44" s="417" t="s">
         <v>75</v>
       </c>
-      <c r="I44" s="405"/>
-      <c r="J44" s="405"/>
-      <c r="K44" s="405"/>
-      <c r="L44" s="405"/>
-      <c r="M44" s="391"/>
+      <c r="I44" s="432"/>
+      <c r="J44" s="432"/>
+      <c r="K44" s="432"/>
+      <c r="L44" s="432"/>
+      <c r="M44" s="418"/>
       <c r="Q44" t="s">
         <v>752</v>
       </c>
@@ -34162,61 +34180,61 @@
       </c>
     </row>
     <row r="47" spans="1:22" ht="21">
-      <c r="B47" s="491" t="s">
+      <c r="B47" s="525" t="s">
         <v>751</v>
       </c>
-      <c r="C47" s="491"/>
-      <c r="D47" s="491"/>
-      <c r="E47" s="491"/>
-      <c r="F47" s="491"/>
-      <c r="G47" s="491"/>
-      <c r="H47" s="491"/>
-      <c r="I47" s="491"/>
-      <c r="J47" s="491"/>
-      <c r="K47" s="491"/>
-      <c r="L47" s="491"/>
-      <c r="M47" s="491"/>
-      <c r="N47" s="491"/>
-      <c r="O47" s="491"/>
-      <c r="P47" s="491"/>
-      <c r="Q47" s="491"/>
-      <c r="R47" s="491"/>
-      <c r="S47" s="491"/>
-      <c r="T47" s="491"/>
-      <c r="U47" s="491"/>
-      <c r="V47" s="491"/>
+      <c r="C47" s="525"/>
+      <c r="D47" s="525"/>
+      <c r="E47" s="525"/>
+      <c r="F47" s="525"/>
+      <c r="G47" s="525"/>
+      <c r="H47" s="525"/>
+      <c r="I47" s="525"/>
+      <c r="J47" s="525"/>
+      <c r="K47" s="525"/>
+      <c r="L47" s="525"/>
+      <c r="M47" s="525"/>
+      <c r="N47" s="525"/>
+      <c r="O47" s="525"/>
+      <c r="P47" s="525"/>
+      <c r="Q47" s="525"/>
+      <c r="R47" s="525"/>
+      <c r="S47" s="525"/>
+      <c r="T47" s="525"/>
+      <c r="U47" s="525"/>
+      <c r="V47" s="525"/>
     </row>
     <row r="48" spans="1:22" ht="15.75" thickBot="1">
-      <c r="C48" s="492" t="s">
+      <c r="C48" s="526" t="s">
         <v>360</v>
       </c>
-      <c r="D48" s="492"/>
-      <c r="E48" s="492"/>
-      <c r="F48" s="492"/>
-      <c r="G48" s="492"/>
-      <c r="H48" s="492"/>
-      <c r="I48" s="492"/>
-      <c r="J48" s="492"/>
-      <c r="K48" s="492"/>
-      <c r="L48" s="492"/>
-      <c r="M48" s="492"/>
+      <c r="D48" s="526"/>
+      <c r="E48" s="526"/>
+      <c r="F48" s="526"/>
+      <c r="G48" s="526"/>
+      <c r="H48" s="526"/>
+      <c r="I48" s="526"/>
+      <c r="J48" s="526"/>
+      <c r="K48" s="526"/>
+      <c r="L48" s="526"/>
+      <c r="M48" s="526"/>
       <c r="S48" s="24"/>
       <c r="T48" s="24"/>
     </row>
     <row r="49" spans="1:24" ht="15.75" thickBot="1">
       <c r="C49" s="1"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="493" t="s">
+      <c r="E49" s="527" t="s">
         <v>57</v>
       </c>
-      <c r="F49" s="494"/>
-      <c r="G49" s="494"/>
-      <c r="H49" s="393"/>
-      <c r="I49" s="393"/>
-      <c r="J49" s="393"/>
-      <c r="K49" s="393"/>
-      <c r="L49" s="393"/>
-      <c r="M49" s="394"/>
+      <c r="F49" s="528"/>
+      <c r="G49" s="528"/>
+      <c r="H49" s="420"/>
+      <c r="I49" s="420"/>
+      <c r="J49" s="420"/>
+      <c r="K49" s="420"/>
+      <c r="L49" s="420"/>
+      <c r="M49" s="421"/>
       <c r="S49" s="24"/>
       <c r="T49" s="24"/>
       <c r="U49" s="18"/>
@@ -34236,16 +34254,16 @@
       <c r="G50" s="177" t="s">
         <v>1268</v>
       </c>
-      <c r="H50" s="497" t="s">
+      <c r="H50" s="530" t="s">
         <v>754</v>
       </c>
-      <c r="I50" s="498"/>
-      <c r="J50" s="499"/>
-      <c r="K50" s="497" t="s">
+      <c r="I50" s="531"/>
+      <c r="J50" s="532"/>
+      <c r="K50" s="530" t="s">
         <v>755</v>
       </c>
-      <c r="L50" s="498"/>
-      <c r="M50" s="499"/>
+      <c r="L50" s="531"/>
+      <c r="M50" s="532"/>
       <c r="S50" s="24"/>
       <c r="T50" s="24"/>
       <c r="W50" t="s">
@@ -34259,20 +34277,20 @@
         <v>769</v>
       </c>
       <c r="F51" s="218"/>
-      <c r="G51" s="500" t="s">
+      <c r="G51" s="536" t="s">
         <v>777</v>
       </c>
-      <c r="H51" s="488"/>
-      <c r="I51" s="489"/>
-      <c r="J51" s="490"/>
-      <c r="K51" s="488"/>
-      <c r="L51" s="489"/>
-      <c r="M51" s="490"/>
-      <c r="O51" s="495" t="s">
+      <c r="H51" s="533"/>
+      <c r="I51" s="534"/>
+      <c r="J51" s="535"/>
+      <c r="K51" s="533"/>
+      <c r="L51" s="534"/>
+      <c r="M51" s="535"/>
+      <c r="O51" s="529" t="s">
         <v>58</v>
       </c>
-      <c r="P51" s="495"/>
-      <c r="Q51" s="495"/>
+      <c r="P51" s="529"/>
+      <c r="Q51" s="529"/>
       <c r="S51" s="205"/>
       <c r="T51" s="205"/>
       <c r="W51" s="35" t="s">
@@ -34286,13 +34304,13 @@
         <v>770</v>
       </c>
       <c r="F52" s="219"/>
-      <c r="G52" s="500"/>
-      <c r="H52" s="488"/>
-      <c r="I52" s="489"/>
-      <c r="J52" s="490"/>
-      <c r="K52" s="488"/>
-      <c r="L52" s="489"/>
-      <c r="M52" s="490"/>
+      <c r="G52" s="536"/>
+      <c r="H52" s="533"/>
+      <c r="I52" s="534"/>
+      <c r="J52" s="535"/>
+      <c r="K52" s="533"/>
+      <c r="L52" s="534"/>
+      <c r="M52" s="535"/>
       <c r="S52" s="24"/>
       <c r="T52" s="24"/>
     </row>
@@ -34303,13 +34321,13 @@
         <v>771</v>
       </c>
       <c r="F53" s="220"/>
-      <c r="G53" s="500"/>
-      <c r="H53" s="488"/>
-      <c r="I53" s="489"/>
-      <c r="J53" s="490"/>
-      <c r="K53" s="488"/>
-      <c r="L53" s="489"/>
-      <c r="M53" s="490"/>
+      <c r="G53" s="536"/>
+      <c r="H53" s="533"/>
+      <c r="I53" s="534"/>
+      <c r="J53" s="535"/>
+      <c r="K53" s="533"/>
+      <c r="L53" s="534"/>
+      <c r="M53" s="535"/>
       <c r="N53" s="5"/>
       <c r="O53" s="33" t="s">
         <v>61</v>
@@ -34348,7 +34366,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="206"/>
       <c r="F54" s="221"/>
-      <c r="G54" s="486" t="s">
+      <c r="G54" s="542" t="s">
         <v>781</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -34395,11 +34413,11 @@
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="484" t="s">
+      <c r="E55" s="540" t="s">
         <v>782</v>
       </c>
-      <c r="F55" s="485"/>
-      <c r="G55" s="487"/>
+      <c r="F55" s="541"/>
+      <c r="G55" s="543"/>
       <c r="H55" s="113" t="s">
         <v>773</v>
       </c>
@@ -34443,9 +34461,9 @@
     <row r="56" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="C56" s="8"/>
       <c r="D56" s="9"/>
-      <c r="E56" s="484"/>
-      <c r="F56" s="485"/>
-      <c r="G56" s="487"/>
+      <c r="E56" s="540"/>
+      <c r="F56" s="541"/>
+      <c r="G56" s="543"/>
       <c r="H56" s="113" t="s">
         <v>774</v>
       </c>
@@ -34475,9 +34493,9 @@
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="484"/>
-      <c r="F57" s="485"/>
-      <c r="G57" s="487"/>
+      <c r="E57" s="540"/>
+      <c r="F57" s="541"/>
+      <c r="G57" s="543"/>
       <c r="H57" s="4" t="s">
         <v>786</v>
       </c>
@@ -34507,9 +34525,9 @@
         <v>71</v>
       </c>
       <c r="D58" s="6"/>
-      <c r="E58" s="484"/>
-      <c r="F58" s="485"/>
-      <c r="G58" s="487"/>
+      <c r="E58" s="540"/>
+      <c r="F58" s="541"/>
+      <c r="G58" s="543"/>
       <c r="H58" s="210" t="s">
         <v>772</v>
       </c>
@@ -34534,9 +34552,9 @@
     <row r="59" spans="1:24">
       <c r="C59" s="4"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="484"/>
-      <c r="F59" s="485"/>
-      <c r="G59" s="487"/>
+      <c r="E59" s="540"/>
+      <c r="F59" s="541"/>
+      <c r="G59" s="543"/>
       <c r="H59" s="210" t="s">
         <v>354</v>
       </c>
@@ -34561,9 +34579,9 @@
     <row r="60" spans="1:24" ht="15.75" thickBot="1">
       <c r="C60" s="8"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="484"/>
-      <c r="F60" s="485"/>
-      <c r="G60" s="487"/>
+      <c r="E60" s="540"/>
+      <c r="F60" s="541"/>
+      <c r="G60" s="543"/>
       <c r="H60" s="212"/>
       <c r="I60" s="213" t="s">
         <v>788</v>
@@ -34583,9 +34601,9 @@
     <row r="61" spans="1:24">
       <c r="C61" s="4"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="484"/>
-      <c r="F61" s="485"/>
-      <c r="G61" s="487"/>
+      <c r="E61" s="540"/>
+      <c r="F61" s="541"/>
+      <c r="G61" s="543"/>
       <c r="H61" s="212"/>
       <c r="I61" s="213" t="s">
         <v>789</v>
@@ -34605,7 +34623,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="201"/>
       <c r="F62" s="217"/>
-      <c r="G62" s="487"/>
+      <c r="G62" s="543"/>
       <c r="H62" s="214"/>
       <c r="I62" s="216" t="s">
         <v>790</v>
@@ -34647,17 +34665,17 @@
     <row r="64" spans="1:24" ht="19.5" thickBot="1">
       <c r="C64" s="8"/>
       <c r="D64" s="9"/>
-      <c r="E64" s="481" t="s">
+      <c r="E64" s="537" t="s">
         <v>1269</v>
       </c>
-      <c r="F64" s="482"/>
-      <c r="G64" s="482"/>
-      <c r="H64" s="482"/>
-      <c r="I64" s="482"/>
-      <c r="J64" s="482"/>
-      <c r="K64" s="482"/>
-      <c r="L64" s="482"/>
-      <c r="M64" s="483"/>
+      <c r="F64" s="538"/>
+      <c r="G64" s="538"/>
+      <c r="H64" s="538"/>
+      <c r="I64" s="538"/>
+      <c r="J64" s="538"/>
+      <c r="K64" s="538"/>
+      <c r="L64" s="538"/>
+      <c r="M64" s="539"/>
       <c r="N64" s="35" t="s">
         <v>365</v>
       </c>
@@ -34686,23 +34704,23 @@
       </c>
     </row>
     <row r="66" spans="2:24" ht="15.75" thickBot="1">
-      <c r="C66" s="390" t="s">
+      <c r="C66" s="417" t="s">
         <v>73</v>
       </c>
-      <c r="D66" s="391"/>
-      <c r="E66" s="390" t="s">
+      <c r="D66" s="418"/>
+      <c r="E66" s="417" t="s">
         <v>74</v>
       </c>
-      <c r="F66" s="405"/>
-      <c r="G66" s="391"/>
-      <c r="H66" s="390" t="s">
+      <c r="F66" s="432"/>
+      <c r="G66" s="418"/>
+      <c r="H66" s="417" t="s">
         <v>75</v>
       </c>
-      <c r="I66" s="405"/>
-      <c r="J66" s="405"/>
-      <c r="K66" s="405"/>
-      <c r="L66" s="405"/>
-      <c r="M66" s="391"/>
+      <c r="I66" s="432"/>
+      <c r="J66" s="432"/>
+      <c r="K66" s="432"/>
+      <c r="L66" s="432"/>
+      <c r="M66" s="418"/>
       <c r="Q66" t="s">
         <v>752</v>
       </c>
@@ -34723,23 +34741,23 @@
       </c>
     </row>
     <row r="68" spans="2:24">
-      <c r="C68" s="465" t="s">
+      <c r="C68" s="492" t="s">
         <v>60</v>
       </c>
-      <c r="D68" s="465"/>
-      <c r="E68" s="465" t="s">
+      <c r="D68" s="492"/>
+      <c r="E68" s="492" t="s">
         <v>968</v>
       </c>
-      <c r="F68" s="465"/>
-      <c r="G68" s="465"/>
-      <c r="H68" s="465" t="s">
+      <c r="F68" s="492"/>
+      <c r="G68" s="492"/>
+      <c r="H68" s="492" t="s">
         <v>984</v>
       </c>
-      <c r="I68" s="465"/>
-      <c r="J68" s="465"/>
-      <c r="K68" s="465"/>
-      <c r="L68" s="465"/>
-      <c r="M68" s="465"/>
+      <c r="I68" s="492"/>
+      <c r="J68" s="492"/>
+      <c r="K68" s="492"/>
+      <c r="L68" s="492"/>
+      <c r="M68" s="492"/>
       <c r="S68" s="24"/>
       <c r="T68" s="24"/>
       <c r="U68" s="2" t="s">
@@ -35755,6 +35773,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="E64:M64"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:M66"/>
+    <mergeCell ref="E55:F61"/>
+    <mergeCell ref="G54:G62"/>
+    <mergeCell ref="E32:G35"/>
+    <mergeCell ref="H32:J35"/>
+    <mergeCell ref="K32:M35"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="B2:V2"/>
+    <mergeCell ref="B25:V25"/>
+    <mergeCell ref="C26:M26"/>
+    <mergeCell ref="E27:M27"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="K50:M53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="E42:M42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:M44"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="E68:G68"/>
     <mergeCell ref="H68:M68"/>
@@ -35771,30 +35813,6 @@
     <mergeCell ref="E49:M49"/>
     <mergeCell ref="O51:Q51"/>
     <mergeCell ref="H50:J53"/>
-    <mergeCell ref="K50:M53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="E42:M42"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="B2:V2"/>
-    <mergeCell ref="B25:V25"/>
-    <mergeCell ref="C26:M26"/>
-    <mergeCell ref="E27:M27"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="E32:G35"/>
-    <mergeCell ref="H32:J35"/>
-    <mergeCell ref="K32:M35"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="H22:N22"/>
-    <mergeCell ref="E64:M64"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:M66"/>
-    <mergeCell ref="E55:F61"/>
-    <mergeCell ref="G54:G62"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="T9" r:id="rId1"/>
@@ -36097,12 +36115,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="B1" s="518" t="s">
+      <c r="B1" s="544" t="s">
         <v>344</v>
       </c>
-      <c r="C1" s="518"/>
-      <c r="D1" s="518"/>
-      <c r="E1" s="518"/>
+      <c r="C1" s="544"/>
+      <c r="D1" s="544"/>
+      <c r="E1" s="544"/>
       <c r="I1" s="263" t="s">
         <v>1300</v>
       </c>
@@ -36253,10 +36271,10 @@
       <c r="L7" s="261"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="B8" s="460"/>
-      <c r="C8" s="460"/>
-      <c r="D8" s="460"/>
-      <c r="E8" s="460"/>
+      <c r="B8" s="481"/>
+      <c r="C8" s="481"/>
+      <c r="D8" s="481"/>
+      <c r="E8" s="481"/>
       <c r="G8" t="s">
         <v>1308</v>
       </c>
@@ -36432,11 +36450,11 @@
       </c>
     </row>
     <row r="25" spans="1:18">
-      <c r="B25" s="519" t="s">
+      <c r="B25" s="545" t="s">
         <v>1298</v>
       </c>
-      <c r="C25" s="520"/>
-      <c r="D25" s="520"/>
+      <c r="C25" s="546"/>
+      <c r="D25" s="546"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -36915,36 +36933,36 @@
       </c>
     </row>
     <row r="63" spans="2:17">
-      <c r="C63" s="465" t="s">
+      <c r="C63" s="492" t="s">
         <v>1904</v>
       </c>
-      <c r="D63" s="465"/>
-      <c r="E63" s="465"/>
-      <c r="F63" s="465"/>
-      <c r="G63" s="465"/>
-      <c r="H63" s="465"/>
-      <c r="I63" s="465"/>
+      <c r="D63" s="492"/>
+      <c r="E63" s="492"/>
+      <c r="F63" s="492"/>
+      <c r="G63" s="492"/>
+      <c r="H63" s="492"/>
+      <c r="I63" s="492"/>
       <c r="K63" t="s">
         <v>1911</v>
       </c>
     </row>
     <row r="64" spans="2:17">
-      <c r="C64" s="465"/>
-      <c r="D64" s="465"/>
-      <c r="E64" s="465"/>
-      <c r="F64" s="465"/>
-      <c r="G64" s="465"/>
-      <c r="H64" s="465"/>
-      <c r="I64" s="465"/>
+      <c r="C64" s="492"/>
+      <c r="D64" s="492"/>
+      <c r="E64" s="492"/>
+      <c r="F64" s="492"/>
+      <c r="G64" s="492"/>
+      <c r="H64" s="492"/>
+      <c r="I64" s="492"/>
     </row>
     <row r="65" spans="1:12">
-      <c r="C65" s="465"/>
-      <c r="D65" s="465"/>
-      <c r="E65" s="465"/>
-      <c r="F65" s="465"/>
-      <c r="G65" s="465"/>
-      <c r="H65" s="465"/>
-      <c r="I65" s="465"/>
+      <c r="C65" s="492"/>
+      <c r="D65" s="492"/>
+      <c r="E65" s="492"/>
+      <c r="F65" s="492"/>
+      <c r="G65" s="492"/>
+      <c r="H65" s="492"/>
+      <c r="I65" s="492"/>
       <c r="J65" t="s">
         <v>1909</v>
       </c>
@@ -36958,24 +36976,24 @@
       </c>
     </row>
     <row r="67" spans="1:12">
-      <c r="C67" s="465" t="s">
+      <c r="C67" s="492" t="s">
         <v>1290</v>
       </c>
-      <c r="D67" s="465"/>
-      <c r="E67" s="465"/>
-      <c r="F67" s="465"/>
-      <c r="G67" s="465"/>
-      <c r="H67" s="465"/>
-      <c r="I67" s="465"/>
+      <c r="D67" s="492"/>
+      <c r="E67" s="492"/>
+      <c r="F67" s="492"/>
+      <c r="G67" s="492"/>
+      <c r="H67" s="492"/>
+      <c r="I67" s="492"/>
     </row>
     <row r="68" spans="1:12">
-      <c r="C68" s="465"/>
-      <c r="D68" s="465"/>
-      <c r="E68" s="465"/>
-      <c r="F68" s="465"/>
-      <c r="G68" s="465"/>
-      <c r="H68" s="465"/>
-      <c r="I68" s="465"/>
+      <c r="C68" s="492"/>
+      <c r="D68" s="492"/>
+      <c r="E68" s="492"/>
+      <c r="F68" s="492"/>
+      <c r="G68" s="492"/>
+      <c r="H68" s="492"/>
+      <c r="I68" s="492"/>
       <c r="J68" t="s">
         <v>1908</v>
       </c>
@@ -36992,24 +37010,24 @@
       </c>
     </row>
     <row r="70" spans="1:12">
-      <c r="C70" s="465" t="s">
+      <c r="C70" s="492" t="s">
         <v>279</v>
       </c>
-      <c r="D70" s="465"/>
-      <c r="E70" s="465"/>
-      <c r="F70" s="465"/>
-      <c r="G70" s="465"/>
-      <c r="H70" s="465"/>
-      <c r="I70" s="465"/>
+      <c r="D70" s="492"/>
+      <c r="E70" s="492"/>
+      <c r="F70" s="492"/>
+      <c r="G70" s="492"/>
+      <c r="H70" s="492"/>
+      <c r="I70" s="492"/>
     </row>
     <row r="71" spans="1:12">
-      <c r="C71" s="465"/>
-      <c r="D71" s="465"/>
-      <c r="E71" s="465"/>
-      <c r="F71" s="465"/>
-      <c r="G71" s="465"/>
-      <c r="H71" s="465"/>
-      <c r="I71" s="465"/>
+      <c r="C71" s="492"/>
+      <c r="D71" s="492"/>
+      <c r="E71" s="492"/>
+      <c r="F71" s="492"/>
+      <c r="G71" s="492"/>
+      <c r="H71" s="492"/>
+      <c r="I71" s="492"/>
       <c r="J71" t="s">
         <v>1905</v>
       </c>
@@ -37083,18 +37101,18 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:18" ht="15.75" thickBot="1">
-      <c r="C2" s="492" t="s">
+      <c r="C2" s="526" t="s">
         <v>360</v>
       </c>
-      <c r="D2" s="492"/>
-      <c r="E2" s="492"/>
-      <c r="F2" s="492"/>
-      <c r="G2" s="492"/>
-      <c r="H2" s="492"/>
-      <c r="I2" s="492"/>
-      <c r="J2" s="492"/>
-      <c r="K2" s="492"/>
-      <c r="L2" s="492"/>
+      <c r="D2" s="526"/>
+      <c r="E2" s="526"/>
+      <c r="F2" s="526"/>
+      <c r="G2" s="526"/>
+      <c r="H2" s="526"/>
+      <c r="I2" s="526"/>
+      <c r="J2" s="526"/>
+      <c r="K2" s="526"/>
+      <c r="L2" s="526"/>
       <c r="N2" t="s">
         <v>1918</v>
       </c>
@@ -37102,16 +37120,16 @@
     <row r="3" spans="1:18" ht="15.75" thickBot="1">
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="493" t="s">
+      <c r="E3" s="527" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="494"/>
-      <c r="G3" s="393"/>
-      <c r="H3" s="393"/>
-      <c r="I3" s="393"/>
-      <c r="J3" s="393"/>
-      <c r="K3" s="393"/>
-      <c r="L3" s="394"/>
+      <c r="F3" s="528"/>
+      <c r="G3" s="420"/>
+      <c r="H3" s="420"/>
+      <c r="I3" s="420"/>
+      <c r="J3" s="420"/>
+      <c r="K3" s="420"/>
+      <c r="L3" s="421"/>
       <c r="P3" t="s">
         <v>1919</v>
       </c>
@@ -37151,11 +37169,11 @@
         <v>370</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="N5" s="495" t="s">
+      <c r="N5" s="529" t="s">
         <v>58</v>
       </c>
-      <c r="O5" s="495"/>
-      <c r="P5" s="495"/>
+      <c r="O5" s="529"/>
+      <c r="P5" s="529"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1">
       <c r="A6" t="s">
@@ -37212,20 +37230,20 @@
         <v>69</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="488" t="s">
+      <c r="E8" s="533" t="s">
         <v>361</v>
       </c>
-      <c r="F8" s="490"/>
-      <c r="G8" s="488" t="s">
+      <c r="F8" s="535"/>
+      <c r="G8" s="533" t="s">
         <v>362</v>
       </c>
-      <c r="H8" s="489"/>
-      <c r="I8" s="490"/>
-      <c r="J8" s="488" t="s">
+      <c r="H8" s="534"/>
+      <c r="I8" s="535"/>
+      <c r="J8" s="533" t="s">
         <v>363</v>
       </c>
-      <c r="K8" s="489"/>
-      <c r="L8" s="490"/>
+      <c r="K8" s="534"/>
+      <c r="L8" s="535"/>
       <c r="M8" s="5" t="s">
         <v>2</v>
       </c>
@@ -37245,14 +37263,14 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="488"/>
-      <c r="F9" s="490"/>
-      <c r="G9" s="488"/>
-      <c r="H9" s="489"/>
-      <c r="I9" s="490"/>
-      <c r="J9" s="488"/>
-      <c r="K9" s="489"/>
-      <c r="L9" s="490"/>
+      <c r="E9" s="533"/>
+      <c r="F9" s="535"/>
+      <c r="G9" s="533"/>
+      <c r="H9" s="534"/>
+      <c r="I9" s="535"/>
+      <c r="J9" s="533"/>
+      <c r="K9" s="534"/>
+      <c r="L9" s="535"/>
       <c r="M9" s="5" t="s">
         <v>66</v>
       </c>
@@ -37269,14 +37287,14 @@
     <row r="10" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="488"/>
-      <c r="F10" s="490"/>
-      <c r="G10" s="488"/>
-      <c r="H10" s="489"/>
-      <c r="I10" s="490"/>
-      <c r="J10" s="488"/>
-      <c r="K10" s="489"/>
-      <c r="L10" s="490"/>
+      <c r="E10" s="533"/>
+      <c r="F10" s="535"/>
+      <c r="G10" s="533"/>
+      <c r="H10" s="534"/>
+      <c r="I10" s="535"/>
+      <c r="J10" s="533"/>
+      <c r="K10" s="534"/>
+      <c r="L10" s="535"/>
       <c r="M10" s="5">
         <v>1000</v>
       </c>
@@ -37290,14 +37308,14 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="488"/>
-      <c r="F11" s="490"/>
-      <c r="G11" s="488"/>
-      <c r="H11" s="489"/>
-      <c r="I11" s="490"/>
-      <c r="J11" s="488"/>
-      <c r="K11" s="489"/>
-      <c r="L11" s="490"/>
+      <c r="E11" s="533"/>
+      <c r="F11" s="535"/>
+      <c r="G11" s="533"/>
+      <c r="H11" s="534"/>
+      <c r="I11" s="535"/>
+      <c r="J11" s="533"/>
+      <c r="K11" s="534"/>
+      <c r="L11" s="535"/>
       <c r="M11" s="5" t="s">
         <v>2</v>
       </c>
@@ -37427,16 +37445,16 @@
     <row r="17" spans="1:18" ht="18.75">
       <c r="C17" s="4"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="529" t="s">
+      <c r="E17" s="555" t="s">
         <v>364</v>
       </c>
-      <c r="F17" s="530"/>
-      <c r="G17" s="530"/>
-      <c r="H17" s="530"/>
-      <c r="I17" s="530"/>
-      <c r="J17" s="530"/>
-      <c r="K17" s="530"/>
-      <c r="L17" s="531"/>
+      <c r="F17" s="556"/>
+      <c r="G17" s="556"/>
+      <c r="H17" s="556"/>
+      <c r="I17" s="556"/>
+      <c r="J17" s="556"/>
+      <c r="K17" s="556"/>
+      <c r="L17" s="557"/>
       <c r="M17" s="35" t="s">
         <v>365</v>
       </c>
@@ -37453,22 +37471,22 @@
       <c r="A18" t="s">
         <v>1862</v>
       </c>
-      <c r="C18" s="532" t="s">
+      <c r="C18" s="558" t="s">
         <v>1861</v>
       </c>
-      <c r="D18" s="532"/>
-      <c r="E18" s="532" t="s">
+      <c r="D18" s="558"/>
+      <c r="E18" s="558" t="s">
         <v>1864</v>
       </c>
-      <c r="F18" s="532"/>
-      <c r="G18" s="532"/>
-      <c r="H18" s="532"/>
-      <c r="I18" s="532"/>
-      <c r="J18" s="532" t="s">
+      <c r="F18" s="558"/>
+      <c r="G18" s="558"/>
+      <c r="H18" s="558"/>
+      <c r="I18" s="558"/>
+      <c r="J18" s="558" t="s">
         <v>1865</v>
       </c>
-      <c r="K18" s="532"/>
-      <c r="L18" s="532"/>
+      <c r="K18" s="558"/>
+      <c r="L18" s="558"/>
       <c r="P18" t="s">
         <v>1219</v>
       </c>
@@ -37480,40 +37498,40 @@
       <c r="A19" t="s">
         <v>1863</v>
       </c>
-      <c r="C19" s="527" t="s">
+      <c r="C19" s="553" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="528"/>
-      <c r="E19" s="527" t="s">
+      <c r="D19" s="554"/>
+      <c r="E19" s="553" t="s">
         <v>74</v>
       </c>
-      <c r="F19" s="528"/>
-      <c r="G19" s="527" t="s">
+      <c r="F19" s="554"/>
+      <c r="G19" s="553" t="s">
         <v>75</v>
       </c>
-      <c r="H19" s="492"/>
-      <c r="I19" s="492"/>
-      <c r="J19" s="492"/>
-      <c r="K19" s="492"/>
-      <c r="L19" s="528"/>
+      <c r="H19" s="526"/>
+      <c r="I19" s="526"/>
+      <c r="J19" s="526"/>
+      <c r="K19" s="526"/>
+      <c r="L19" s="554"/>
     </row>
     <row r="20" spans="1:18" ht="15.75" thickBot="1"/>
     <row r="21" spans="1:18" ht="15" customHeight="1">
-      <c r="E21" s="521" t="s">
+      <c r="E21" s="547" t="s">
         <v>997</v>
       </c>
-      <c r="F21" s="522"/>
+      <c r="F21" s="548"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="E22" s="523"/>
-      <c r="F22" s="524"/>
+      <c r="E22" s="549"/>
+      <c r="F22" s="550"/>
       <c r="J22" t="s">
         <v>1001</v>
       </c>
     </row>
     <row r="23" spans="1:18">
-      <c r="E23" s="523"/>
-      <c r="F23" s="524"/>
+      <c r="E23" s="549"/>
+      <c r="F23" s="550"/>
       <c r="H23" t="s">
         <v>1004</v>
       </c>
@@ -37525,8 +37543,8 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="15.75" thickBot="1">
-      <c r="E24" s="525"/>
-      <c r="F24" s="526"/>
+      <c r="E24" s="551"/>
+      <c r="F24" s="552"/>
     </row>
     <row r="25" spans="1:18" ht="15.75" thickBot="1"/>
     <row r="26" spans="1:18" ht="15.75" thickBot="1">
@@ -38892,22 +38910,22 @@
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="496" t="s">
+      <c r="E3" s="507" t="s">
         <v>324</v>
       </c>
-      <c r="F3" s="496"/>
-      <c r="G3" s="496" t="s">
+      <c r="F3" s="507"/>
+      <c r="G3" s="507" t="s">
         <v>325</v>
       </c>
-      <c r="H3" s="496"/>
-      <c r="I3" s="496"/>
-      <c r="J3" s="496"/>
-      <c r="K3" s="496"/>
-      <c r="L3" s="496"/>
-      <c r="M3" s="496" t="s">
+      <c r="H3" s="507"/>
+      <c r="I3" s="507"/>
+      <c r="J3" s="507"/>
+      <c r="K3" s="507"/>
+      <c r="L3" s="507"/>
+      <c r="M3" s="507" t="s">
         <v>326</v>
       </c>
-      <c r="N3" s="496"/>
+      <c r="N3" s="507"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
@@ -38918,7 +38936,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="107"/>
       <c r="D4" s="108"/>
-      <c r="E4" s="501" t="s">
+      <c r="E4" s="508" t="s">
         <v>327</v>
       </c>
       <c r="F4" s="103"/>
@@ -38946,22 +38964,22 @@
         <v>60</v>
       </c>
       <c r="D5" s="110"/>
-      <c r="E5" s="409"/>
-      <c r="F5" s="420" t="s">
+      <c r="E5" s="436"/>
+      <c r="F5" s="447" t="s">
         <v>398</v>
       </c>
-      <c r="G5" s="421"/>
-      <c r="H5" s="422"/>
-      <c r="I5" s="533" t="s">
+      <c r="G5" s="448"/>
+      <c r="H5" s="449"/>
+      <c r="I5" s="596" t="s">
         <v>399</v>
       </c>
-      <c r="J5" s="534"/>
-      <c r="K5" s="534"/>
-      <c r="L5" s="508"/>
-      <c r="M5" s="533" t="s">
+      <c r="J5" s="597"/>
+      <c r="K5" s="597"/>
+      <c r="L5" s="515"/>
+      <c r="M5" s="596" t="s">
         <v>400</v>
       </c>
-      <c r="N5" s="508"/>
+      <c r="N5" s="515"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -38972,16 +38990,16 @@
       <c r="B6" s="4"/>
       <c r="C6" s="111"/>
       <c r="D6" s="112"/>
-      <c r="E6" s="409"/>
-      <c r="F6" s="423"/>
-      <c r="G6" s="424"/>
-      <c r="H6" s="425"/>
-      <c r="I6" s="389"/>
-      <c r="J6" s="387"/>
-      <c r="K6" s="387"/>
-      <c r="L6" s="509"/>
-      <c r="M6" s="389"/>
-      <c r="N6" s="509"/>
+      <c r="E6" s="436"/>
+      <c r="F6" s="450"/>
+      <c r="G6" s="451"/>
+      <c r="H6" s="452"/>
+      <c r="I6" s="416"/>
+      <c r="J6" s="414"/>
+      <c r="K6" s="414"/>
+      <c r="L6" s="516"/>
+      <c r="M6" s="416"/>
+      <c r="N6" s="516"/>
       <c r="O6" s="5"/>
       <c r="P6" s="33" t="s">
         <v>61</v>
@@ -38998,16 +39016,16 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="409"/>
-      <c r="F7" s="423"/>
-      <c r="G7" s="424"/>
-      <c r="H7" s="425"/>
-      <c r="I7" s="389"/>
-      <c r="J7" s="387"/>
-      <c r="K7" s="387"/>
-      <c r="L7" s="509"/>
-      <c r="M7" s="389"/>
-      <c r="N7" s="509"/>
+      <c r="E7" s="436"/>
+      <c r="F7" s="450"/>
+      <c r="G7" s="451"/>
+      <c r="H7" s="452"/>
+      <c r="I7" s="416"/>
+      <c r="J7" s="414"/>
+      <c r="K7" s="414"/>
+      <c r="L7" s="516"/>
+      <c r="M7" s="416"/>
+      <c r="N7" s="516"/>
       <c r="O7" s="5" t="s">
         <v>2</v>
       </c>
@@ -39026,16 +39044,16 @@
       <c r="B8" s="4"/>
       <c r="C8" s="1"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="409"/>
-      <c r="F8" s="423"/>
-      <c r="G8" s="424"/>
-      <c r="H8" s="425"/>
-      <c r="I8" s="389"/>
-      <c r="J8" s="387"/>
-      <c r="K8" s="387"/>
-      <c r="L8" s="509"/>
-      <c r="M8" s="389"/>
-      <c r="N8" s="509"/>
+      <c r="E8" s="436"/>
+      <c r="F8" s="450"/>
+      <c r="G8" s="451"/>
+      <c r="H8" s="452"/>
+      <c r="I8" s="416"/>
+      <c r="J8" s="414"/>
+      <c r="K8" s="414"/>
+      <c r="L8" s="516"/>
+      <c r="M8" s="416"/>
+      <c r="N8" s="516"/>
       <c r="O8" s="5" t="s">
         <v>66</v>
       </c>
@@ -39056,16 +39074,16 @@
         <v>69</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="409"/>
-      <c r="F9" s="423"/>
-      <c r="G9" s="424"/>
-      <c r="H9" s="425"/>
-      <c r="I9" s="389"/>
-      <c r="J9" s="387"/>
-      <c r="K9" s="387"/>
-      <c r="L9" s="509"/>
-      <c r="M9" s="389"/>
-      <c r="N9" s="509"/>
+      <c r="E9" s="436"/>
+      <c r="F9" s="450"/>
+      <c r="G9" s="451"/>
+      <c r="H9" s="452"/>
+      <c r="I9" s="416"/>
+      <c r="J9" s="414"/>
+      <c r="K9" s="414"/>
+      <c r="L9" s="516"/>
+      <c r="M9" s="416"/>
+      <c r="N9" s="516"/>
       <c r="O9" s="5">
         <v>1000</v>
       </c>
@@ -39082,16 +39100,16 @@
         <v>343</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="409"/>
-      <c r="F10" s="423"/>
-      <c r="G10" s="424"/>
-      <c r="H10" s="425"/>
-      <c r="I10" s="389"/>
-      <c r="J10" s="387"/>
-      <c r="K10" s="387"/>
-      <c r="L10" s="509"/>
-      <c r="M10" s="389"/>
-      <c r="N10" s="509"/>
+      <c r="E10" s="436"/>
+      <c r="F10" s="450"/>
+      <c r="G10" s="451"/>
+      <c r="H10" s="452"/>
+      <c r="I10" s="416"/>
+      <c r="J10" s="414"/>
+      <c r="K10" s="414"/>
+      <c r="L10" s="516"/>
+      <c r="M10" s="416"/>
+      <c r="N10" s="516"/>
       <c r="O10" s="5" t="s">
         <v>2</v>
       </c>
@@ -39104,16 +39122,16 @@
       <c r="B11" s="4"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="409"/>
-      <c r="F11" s="423"/>
-      <c r="G11" s="424"/>
-      <c r="H11" s="425"/>
-      <c r="I11" s="389"/>
-      <c r="J11" s="387"/>
-      <c r="K11" s="387"/>
-      <c r="L11" s="509"/>
-      <c r="M11" s="389"/>
-      <c r="N11" s="509"/>
+      <c r="E11" s="436"/>
+      <c r="F11" s="450"/>
+      <c r="G11" s="451"/>
+      <c r="H11" s="452"/>
+      <c r="I11" s="416"/>
+      <c r="J11" s="414"/>
+      <c r="K11" s="414"/>
+      <c r="L11" s="516"/>
+      <c r="M11" s="416"/>
+      <c r="N11" s="516"/>
       <c r="O11" s="5"/>
       <c r="P11" s="33"/>
       <c r="Q11" s="33"/>
@@ -39124,16 +39142,16 @@
       <c r="B12" s="4"/>
       <c r="C12" s="1"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="409"/>
-      <c r="F12" s="423"/>
-      <c r="G12" s="424"/>
-      <c r="H12" s="425"/>
-      <c r="I12" s="389"/>
-      <c r="J12" s="387"/>
-      <c r="K12" s="387"/>
-      <c r="L12" s="509"/>
-      <c r="M12" s="389"/>
-      <c r="N12" s="509"/>
+      <c r="E12" s="436"/>
+      <c r="F12" s="450"/>
+      <c r="G12" s="451"/>
+      <c r="H12" s="452"/>
+      <c r="I12" s="416"/>
+      <c r="J12" s="414"/>
+      <c r="K12" s="414"/>
+      <c r="L12" s="516"/>
+      <c r="M12" s="416"/>
+      <c r="N12" s="516"/>
       <c r="O12" s="5"/>
       <c r="P12" s="33"/>
       <c r="Q12" s="33"/>
@@ -39146,16 +39164,16 @@
         <v>71</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="409"/>
-      <c r="F13" s="423"/>
-      <c r="G13" s="424"/>
-      <c r="H13" s="425"/>
-      <c r="I13" s="389"/>
-      <c r="J13" s="387"/>
-      <c r="K13" s="387"/>
-      <c r="L13" s="509"/>
-      <c r="M13" s="389"/>
-      <c r="N13" s="509"/>
+      <c r="E13" s="436"/>
+      <c r="F13" s="450"/>
+      <c r="G13" s="451"/>
+      <c r="H13" s="452"/>
+      <c r="I13" s="416"/>
+      <c r="J13" s="414"/>
+      <c r="K13" s="414"/>
+      <c r="L13" s="516"/>
+      <c r="M13" s="416"/>
+      <c r="N13" s="516"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
@@ -39166,16 +39184,16 @@
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="409"/>
-      <c r="F14" s="423"/>
-      <c r="G14" s="424"/>
-      <c r="H14" s="425"/>
-      <c r="I14" s="389"/>
-      <c r="J14" s="387"/>
-      <c r="K14" s="387"/>
-      <c r="L14" s="509"/>
-      <c r="M14" s="389"/>
-      <c r="N14" s="509"/>
+      <c r="E14" s="436"/>
+      <c r="F14" s="450"/>
+      <c r="G14" s="451"/>
+      <c r="H14" s="452"/>
+      <c r="I14" s="416"/>
+      <c r="J14" s="414"/>
+      <c r="K14" s="414"/>
+      <c r="L14" s="516"/>
+      <c r="M14" s="416"/>
+      <c r="N14" s="516"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
@@ -39186,16 +39204,16 @@
       <c r="B15" s="4"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="409"/>
-      <c r="F15" s="423"/>
-      <c r="G15" s="424"/>
-      <c r="H15" s="425"/>
-      <c r="I15" s="389"/>
-      <c r="J15" s="387"/>
-      <c r="K15" s="387"/>
-      <c r="L15" s="509"/>
-      <c r="M15" s="389"/>
-      <c r="N15" s="509"/>
+      <c r="E15" s="436"/>
+      <c r="F15" s="450"/>
+      <c r="G15" s="451"/>
+      <c r="H15" s="452"/>
+      <c r="I15" s="416"/>
+      <c r="J15" s="414"/>
+      <c r="K15" s="414"/>
+      <c r="L15" s="516"/>
+      <c r="M15" s="416"/>
+      <c r="N15" s="516"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
@@ -39206,16 +39224,16 @@
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="409"/>
-      <c r="F16" s="423"/>
-      <c r="G16" s="424"/>
-      <c r="H16" s="425"/>
-      <c r="I16" s="389"/>
-      <c r="J16" s="387"/>
-      <c r="K16" s="387"/>
-      <c r="L16" s="509"/>
-      <c r="M16" s="389"/>
-      <c r="N16" s="509"/>
+      <c r="E16" s="436"/>
+      <c r="F16" s="450"/>
+      <c r="G16" s="451"/>
+      <c r="H16" s="452"/>
+      <c r="I16" s="416"/>
+      <c r="J16" s="414"/>
+      <c r="K16" s="414"/>
+      <c r="L16" s="516"/>
+      <c r="M16" s="416"/>
+      <c r="N16" s="516"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
@@ -39228,16 +39246,16 @@
         <v>72</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="409"/>
-      <c r="F17" s="423"/>
-      <c r="G17" s="424"/>
-      <c r="H17" s="425"/>
-      <c r="I17" s="389"/>
-      <c r="J17" s="387"/>
-      <c r="K17" s="387"/>
-      <c r="L17" s="509"/>
-      <c r="M17" s="389"/>
-      <c r="N17" s="509"/>
+      <c r="E17" s="436"/>
+      <c r="F17" s="450"/>
+      <c r="G17" s="451"/>
+      <c r="H17" s="452"/>
+      <c r="I17" s="416"/>
+      <c r="J17" s="414"/>
+      <c r="K17" s="414"/>
+      <c r="L17" s="516"/>
+      <c r="M17" s="416"/>
+      <c r="N17" s="516"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
@@ -39248,16 +39266,16 @@
       <c r="B18" s="4"/>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="410"/>
-      <c r="F18" s="426"/>
-      <c r="G18" s="427"/>
-      <c r="H18" s="428"/>
-      <c r="I18" s="510"/>
-      <c r="J18" s="535"/>
-      <c r="K18" s="535"/>
-      <c r="L18" s="511"/>
-      <c r="M18" s="510"/>
-      <c r="N18" s="511"/>
+      <c r="E18" s="437"/>
+      <c r="F18" s="453"/>
+      <c r="G18" s="454"/>
+      <c r="H18" s="455"/>
+      <c r="I18" s="517"/>
+      <c r="J18" s="598"/>
+      <c r="K18" s="598"/>
+      <c r="L18" s="518"/>
+      <c r="M18" s="517"/>
+      <c r="N18" s="518"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
@@ -39286,26 +39304,26 @@
     </row>
     <row r="20" spans="2:19" ht="15.75" thickBot="1">
       <c r="B20" s="4"/>
-      <c r="C20" s="390" t="s">
+      <c r="C20" s="417" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="391"/>
+      <c r="D20" s="418"/>
       <c r="E20" s="102" t="s">
         <v>74</v>
       </c>
-      <c r="F20" s="390" t="s">
+      <c r="F20" s="417" t="s">
         <v>75</v>
       </c>
-      <c r="G20" s="405"/>
-      <c r="H20" s="405"/>
-      <c r="I20" s="405"/>
-      <c r="J20" s="405"/>
-      <c r="K20" s="405"/>
-      <c r="L20" s="391"/>
-      <c r="M20" s="390" t="s">
+      <c r="G20" s="432"/>
+      <c r="H20" s="432"/>
+      <c r="I20" s="432"/>
+      <c r="J20" s="432"/>
+      <c r="K20" s="432"/>
+      <c r="L20" s="418"/>
+      <c r="M20" s="417" t="s">
         <v>334</v>
       </c>
-      <c r="N20" s="391"/>
+      <c r="N20" s="418"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
@@ -39333,39 +39351,39 @@
       <c r="S21" s="9"/>
     </row>
     <row r="24" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B24" s="495" t="s">
+      <c r="B24" s="529" t="s">
         <v>360</v>
       </c>
-      <c r="C24" s="495"/>
-      <c r="D24" s="492"/>
-      <c r="E24" s="492"/>
-      <c r="F24" s="492"/>
-      <c r="G24" s="492"/>
-      <c r="H24" s="492"/>
-      <c r="I24" s="492"/>
-      <c r="J24" s="492"/>
-      <c r="K24" s="492"/>
-      <c r="M24" s="562" t="s">
+      <c r="C24" s="529"/>
+      <c r="D24" s="526"/>
+      <c r="E24" s="526"/>
+      <c r="F24" s="526"/>
+      <c r="G24" s="526"/>
+      <c r="H24" s="526"/>
+      <c r="I24" s="526"/>
+      <c r="J24" s="526"/>
+      <c r="K24" s="526"/>
+      <c r="M24" s="559" t="s">
         <v>58</v>
       </c>
-      <c r="N24" s="562"/>
-      <c r="O24" s="562"/>
+      <c r="N24" s="559"/>
+      <c r="O24" s="559"/>
     </row>
     <row r="25" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B25" s="563" t="s">
+      <c r="B25" s="560" t="s">
         <v>630</v>
       </c>
-      <c r="C25" s="470"/>
-      <c r="D25" s="393" t="s">
+      <c r="C25" s="495"/>
+      <c r="D25" s="420" t="s">
         <v>57</v>
       </c>
-      <c r="E25" s="393"/>
-      <c r="F25" s="393"/>
-      <c r="G25" s="393"/>
-      <c r="H25" s="393"/>
-      <c r="I25" s="393"/>
-      <c r="J25" s="393"/>
-      <c r="K25" s="394"/>
+      <c r="E25" s="420"/>
+      <c r="F25" s="420"/>
+      <c r="G25" s="420"/>
+      <c r="H25" s="420"/>
+      <c r="I25" s="420"/>
+      <c r="J25" s="420"/>
+      <c r="K25" s="421"/>
       <c r="M25" s="33" t="s">
         <v>61</v>
       </c>
@@ -39377,22 +39395,22 @@
       </c>
     </row>
     <row r="26" spans="2:19">
-      <c r="B26" s="471"/>
-      <c r="C26" s="472"/>
-      <c r="D26" s="536" t="s">
+      <c r="B26" s="496"/>
+      <c r="C26" s="497"/>
+      <c r="D26" s="573" t="s">
         <v>623</v>
       </c>
-      <c r="E26" s="537"/>
-      <c r="F26" s="555" t="s">
+      <c r="E26" s="574"/>
+      <c r="F26" s="591" t="s">
         <v>623</v>
       </c>
-      <c r="G26" s="556"/>
-      <c r="H26" s="557"/>
-      <c r="I26" s="560" t="s">
+      <c r="G26" s="592"/>
+      <c r="H26" s="593"/>
+      <c r="I26" s="595" t="s">
         <v>1354</v>
       </c>
-      <c r="J26" s="556"/>
-      <c r="K26" s="557"/>
+      <c r="J26" s="592"/>
+      <c r="K26" s="593"/>
       <c r="L26" s="5" t="s">
         <v>2</v>
       </c>
@@ -39407,22 +39425,22 @@
       </c>
     </row>
     <row r="27" spans="2:19">
-      <c r="B27" s="471"/>
-      <c r="C27" s="472"/>
-      <c r="D27" s="538" t="s">
+      <c r="B27" s="496"/>
+      <c r="C27" s="497"/>
+      <c r="D27" s="571" t="s">
         <v>628</v>
       </c>
-      <c r="E27" s="539"/>
-      <c r="F27" s="558" t="s">
+      <c r="E27" s="575"/>
+      <c r="F27" s="594" t="s">
         <v>624</v>
       </c>
-      <c r="G27" s="538"/>
-      <c r="H27" s="559"/>
-      <c r="I27" s="561" t="s">
+      <c r="G27" s="571"/>
+      <c r="H27" s="572"/>
+      <c r="I27" s="570" t="s">
         <v>1355</v>
       </c>
-      <c r="J27" s="538"/>
-      <c r="K27" s="559"/>
+      <c r="J27" s="571"/>
+      <c r="K27" s="572"/>
       <c r="L27" s="5" t="s">
         <v>2</v>
       </c>
@@ -39437,22 +39455,22 @@
       </c>
     </row>
     <row r="28" spans="2:19">
-      <c r="B28" s="471"/>
-      <c r="C28" s="472"/>
-      <c r="D28" s="538" t="s">
+      <c r="B28" s="496"/>
+      <c r="C28" s="497"/>
+      <c r="D28" s="571" t="s">
         <v>625</v>
       </c>
-      <c r="E28" s="539"/>
-      <c r="F28" s="558" t="s">
+      <c r="E28" s="575"/>
+      <c r="F28" s="594" t="s">
         <v>625</v>
       </c>
-      <c r="G28" s="538"/>
-      <c r="H28" s="559"/>
-      <c r="I28" s="561" t="s">
+      <c r="G28" s="571"/>
+      <c r="H28" s="572"/>
+      <c r="I28" s="570" t="s">
         <v>1356</v>
       </c>
-      <c r="J28" s="538"/>
-      <c r="K28" s="559"/>
+      <c r="J28" s="571"/>
+      <c r="K28" s="572"/>
       <c r="L28" s="5" t="s">
         <v>2</v>
       </c>
@@ -39461,22 +39479,22 @@
       <c r="O28" s="33"/>
     </row>
     <row r="29" spans="2:19">
-      <c r="B29" s="473"/>
-      <c r="C29" s="474"/>
-      <c r="D29" s="538" t="s">
+      <c r="B29" s="498"/>
+      <c r="C29" s="499"/>
+      <c r="D29" s="571" t="s">
         <v>626</v>
       </c>
-      <c r="E29" s="539"/>
-      <c r="F29" s="558" t="s">
+      <c r="E29" s="575"/>
+      <c r="F29" s="594" t="s">
         <v>626</v>
       </c>
-      <c r="G29" s="538"/>
-      <c r="H29" s="559"/>
-      <c r="I29" s="561" t="s">
+      <c r="G29" s="571"/>
+      <c r="H29" s="572"/>
+      <c r="I29" s="570" t="s">
         <v>1357</v>
       </c>
-      <c r="J29" s="538"/>
-      <c r="K29" s="559"/>
+      <c r="J29" s="571"/>
+      <c r="K29" s="572"/>
       <c r="L29" s="24" t="s">
         <v>2</v>
       </c>
@@ -39485,149 +39503,149 @@
       <c r="O29" s="33"/>
     </row>
     <row r="30" spans="2:19">
-      <c r="B30" s="395" t="s">
+      <c r="B30" s="422" t="s">
         <v>629</v>
       </c>
-      <c r="C30" s="397"/>
-      <c r="D30" s="540" t="s">
+      <c r="C30" s="424"/>
+      <c r="D30" s="576" t="s">
         <v>361</v>
       </c>
-      <c r="E30" s="541"/>
-      <c r="F30" s="546" t="s">
+      <c r="E30" s="577"/>
+      <c r="F30" s="582" t="s">
         <v>362</v>
       </c>
-      <c r="G30" s="547"/>
-      <c r="H30" s="541"/>
-      <c r="I30" s="546" t="s">
+      <c r="G30" s="583"/>
+      <c r="H30" s="577"/>
+      <c r="I30" s="582" t="s">
         <v>363</v>
       </c>
-      <c r="J30" s="547"/>
-      <c r="K30" s="552"/>
+      <c r="J30" s="583"/>
+      <c r="K30" s="588"/>
       <c r="L30" s="5"/>
       <c r="M30" s="33"/>
       <c r="N30" s="33"/>
       <c r="O30" s="33"/>
     </row>
     <row r="31" spans="2:19">
-      <c r="B31" s="399"/>
-      <c r="C31" s="400"/>
-      <c r="D31" s="542"/>
-      <c r="E31" s="543"/>
-      <c r="F31" s="548"/>
-      <c r="G31" s="549"/>
-      <c r="H31" s="543"/>
-      <c r="I31" s="548"/>
-      <c r="J31" s="549"/>
-      <c r="K31" s="553"/>
+      <c r="B31" s="426"/>
+      <c r="C31" s="427"/>
+      <c r="D31" s="578"/>
+      <c r="E31" s="579"/>
+      <c r="F31" s="584"/>
+      <c r="G31" s="585"/>
+      <c r="H31" s="579"/>
+      <c r="I31" s="584"/>
+      <c r="J31" s="585"/>
+      <c r="K31" s="589"/>
       <c r="L31" s="5"/>
       <c r="M31" s="33"/>
       <c r="N31" s="33"/>
       <c r="O31" s="33"/>
     </row>
     <row r="32" spans="2:19">
-      <c r="B32" s="399"/>
-      <c r="C32" s="400"/>
-      <c r="D32" s="542"/>
-      <c r="E32" s="543"/>
-      <c r="F32" s="548"/>
-      <c r="G32" s="549"/>
-      <c r="H32" s="543"/>
-      <c r="I32" s="548"/>
-      <c r="J32" s="549"/>
-      <c r="K32" s="553"/>
+      <c r="B32" s="426"/>
+      <c r="C32" s="427"/>
+      <c r="D32" s="578"/>
+      <c r="E32" s="579"/>
+      <c r="F32" s="584"/>
+      <c r="G32" s="585"/>
+      <c r="H32" s="579"/>
+      <c r="I32" s="584"/>
+      <c r="J32" s="585"/>
+      <c r="K32" s="589"/>
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="399"/>
-      <c r="C33" s="400"/>
-      <c r="D33" s="544"/>
-      <c r="E33" s="545"/>
-      <c r="F33" s="550"/>
-      <c r="G33" s="551"/>
-      <c r="H33" s="545"/>
-      <c r="I33" s="550"/>
-      <c r="J33" s="551"/>
-      <c r="K33" s="554"/>
+      <c r="B33" s="426"/>
+      <c r="C33" s="427"/>
+      <c r="D33" s="580"/>
+      <c r="E33" s="581"/>
+      <c r="F33" s="586"/>
+      <c r="G33" s="587"/>
+      <c r="H33" s="581"/>
+      <c r="I33" s="586"/>
+      <c r="J33" s="587"/>
+      <c r="K33" s="590"/>
     </row>
     <row r="34" spans="2:14">
-      <c r="B34" s="399"/>
-      <c r="C34" s="401"/>
-      <c r="D34" s="564" t="s">
+      <c r="B34" s="426"/>
+      <c r="C34" s="428"/>
+      <c r="D34" s="561" t="s">
         <v>616</v>
       </c>
-      <c r="E34" s="565"/>
-      <c r="F34" s="564" t="s">
+      <c r="E34" s="562"/>
+      <c r="F34" s="561" t="s">
         <v>374</v>
       </c>
-      <c r="G34" s="570"/>
-      <c r="H34" s="565"/>
-      <c r="I34" s="564" t="s">
+      <c r="G34" s="567"/>
+      <c r="H34" s="562"/>
+      <c r="I34" s="561" t="s">
         <v>631</v>
       </c>
-      <c r="J34" s="570"/>
-      <c r="K34" s="565"/>
+      <c r="J34" s="567"/>
+      <c r="K34" s="562"/>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35" s="399"/>
-      <c r="C35" s="401"/>
-      <c r="D35" s="566"/>
-      <c r="E35" s="567"/>
-      <c r="F35" s="566"/>
-      <c r="G35" s="571"/>
-      <c r="H35" s="567"/>
-      <c r="I35" s="566"/>
-      <c r="J35" s="571"/>
-      <c r="K35" s="567"/>
+      <c r="B35" s="426"/>
+      <c r="C35" s="428"/>
+      <c r="D35" s="563"/>
+      <c r="E35" s="564"/>
+      <c r="F35" s="563"/>
+      <c r="G35" s="568"/>
+      <c r="H35" s="564"/>
+      <c r="I35" s="563"/>
+      <c r="J35" s="568"/>
+      <c r="K35" s="564"/>
     </row>
     <row r="36" spans="2:14">
-      <c r="B36" s="399"/>
-      <c r="C36" s="401"/>
-      <c r="D36" s="566"/>
-      <c r="E36" s="567"/>
-      <c r="F36" s="566"/>
-      <c r="G36" s="571"/>
-      <c r="H36" s="567"/>
-      <c r="I36" s="566"/>
-      <c r="J36" s="571"/>
-      <c r="K36" s="567"/>
+      <c r="B36" s="426"/>
+      <c r="C36" s="428"/>
+      <c r="D36" s="563"/>
+      <c r="E36" s="564"/>
+      <c r="F36" s="563"/>
+      <c r="G36" s="568"/>
+      <c r="H36" s="564"/>
+      <c r="I36" s="563"/>
+      <c r="J36" s="568"/>
+      <c r="K36" s="564"/>
     </row>
     <row r="37" spans="2:14">
-      <c r="B37" s="399"/>
-      <c r="C37" s="401"/>
-      <c r="D37" s="566"/>
-      <c r="E37" s="567"/>
-      <c r="F37" s="566"/>
-      <c r="G37" s="571"/>
-      <c r="H37" s="567"/>
-      <c r="I37" s="566"/>
-      <c r="J37" s="571"/>
-      <c r="K37" s="567"/>
+      <c r="B37" s="426"/>
+      <c r="C37" s="428"/>
+      <c r="D37" s="563"/>
+      <c r="E37" s="564"/>
+      <c r="F37" s="563"/>
+      <c r="G37" s="568"/>
+      <c r="H37" s="564"/>
+      <c r="I37" s="563"/>
+      <c r="J37" s="568"/>
+      <c r="K37" s="564"/>
     </row>
     <row r="38" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B38" s="399"/>
-      <c r="C38" s="401"/>
-      <c r="D38" s="568"/>
-      <c r="E38" s="569"/>
-      <c r="F38" s="568"/>
-      <c r="G38" s="572"/>
-      <c r="H38" s="569"/>
-      <c r="I38" s="568"/>
-      <c r="J38" s="572"/>
-      <c r="K38" s="569"/>
+      <c r="B38" s="426"/>
+      <c r="C38" s="428"/>
+      <c r="D38" s="565"/>
+      <c r="E38" s="566"/>
+      <c r="F38" s="565"/>
+      <c r="G38" s="569"/>
+      <c r="H38" s="566"/>
+      <c r="I38" s="565"/>
+      <c r="J38" s="569"/>
+      <c r="K38" s="566"/>
     </row>
     <row r="39" spans="2:14" ht="19.5" thickBot="1">
-      <c r="B39" s="402"/>
-      <c r="C39" s="404"/>
-      <c r="D39" s="481" t="s">
+      <c r="B39" s="429"/>
+      <c r="C39" s="431"/>
+      <c r="D39" s="537" t="s">
         <v>364</v>
       </c>
-      <c r="E39" s="482"/>
-      <c r="F39" s="482"/>
-      <c r="G39" s="482"/>
-      <c r="H39" s="482"/>
-      <c r="I39" s="482"/>
-      <c r="J39" s="482"/>
-      <c r="K39" s="483"/>
+      <c r="E39" s="538"/>
+      <c r="F39" s="538"/>
+      <c r="G39" s="538"/>
+      <c r="H39" s="538"/>
+      <c r="I39" s="538"/>
+      <c r="J39" s="538"/>
+      <c r="K39" s="539"/>
       <c r="L39" s="35" t="s">
         <v>365</v>
       </c>
@@ -39645,36 +39663,35 @@
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B41" s="390" t="s">
+      <c r="B41" s="417" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="391"/>
-      <c r="D41" s="390" t="s">
+      <c r="C41" s="418"/>
+      <c r="D41" s="417" t="s">
         <v>74</v>
       </c>
-      <c r="E41" s="391"/>
-      <c r="F41" s="390" t="s">
+      <c r="E41" s="418"/>
+      <c r="F41" s="417" t="s">
         <v>75</v>
       </c>
-      <c r="G41" s="405"/>
-      <c r="H41" s="405"/>
-      <c r="I41" s="405"/>
-      <c r="J41" s="405"/>
-      <c r="K41" s="391"/>
+      <c r="G41" s="432"/>
+      <c r="H41" s="432"/>
+      <c r="I41" s="432"/>
+      <c r="J41" s="432"/>
+      <c r="K41" s="418"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="B30:C39"/>
-    <mergeCell ref="B25:C29"/>
-    <mergeCell ref="D34:E38"/>
-    <mergeCell ref="F34:H38"/>
-    <mergeCell ref="I34:K38"/>
-    <mergeCell ref="D39:K39"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="E4:E18"/>
+    <mergeCell ref="M5:N18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="F5:H18"/>
+    <mergeCell ref="I5:L18"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="F41:K41"/>
@@ -39691,16 +39708,17 @@
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="I26:K26"/>
     <mergeCell ref="I27:K27"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="F5:H18"/>
-    <mergeCell ref="I5:L18"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="E4:E18"/>
-    <mergeCell ref="M5:N18"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="B30:C39"/>
+    <mergeCell ref="B25:C29"/>
+    <mergeCell ref="D34:E38"/>
+    <mergeCell ref="F34:H38"/>
+    <mergeCell ref="I34:K38"/>
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="R7" r:id="rId1"/>
@@ -39946,10 +39964,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N70"/>
+  <dimension ref="A1:O104"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H62" sqref="H62:H67"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K91" sqref="K91:O104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -40447,7 +40465,7 @@
       </c>
     </row>
     <row r="50" spans="1:14">
-      <c r="D50" s="466" t="s">
+      <c r="D50" s="413" t="s">
         <v>69</v>
       </c>
       <c r="E50" s="33" t="s">
@@ -40455,7 +40473,7 @@
       </c>
     </row>
     <row r="51" spans="1:14">
-      <c r="D51" s="466"/>
+      <c r="D51" s="413"/>
       <c r="E51" s="33" t="s">
         <v>2108</v>
       </c>
@@ -40464,7 +40482,7 @@
       </c>
     </row>
     <row r="52" spans="1:14">
-      <c r="D52" s="466"/>
+      <c r="D52" s="413"/>
       <c r="E52" s="33" t="s">
         <v>2109</v>
       </c>
@@ -40744,6 +40762,216 @@
       <c r="M70" s="10"/>
       <c r="N70" s="9"/>
     </row>
+    <row r="86" spans="5:15">
+      <c r="F86" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="87" spans="5:15">
+      <c r="E87" t="s">
+        <v>2124</v>
+      </c>
+      <c r="F87" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G87" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="L87" t="s">
+        <v>61</v>
+      </c>
+      <c r="M87" s="33"/>
+    </row>
+    <row r="88" spans="5:15">
+      <c r="F88" s="279" t="s">
+        <v>15</v>
+      </c>
+      <c r="G88" s="279" t="s">
+        <v>32</v>
+      </c>
+      <c r="L88" t="s">
+        <v>62</v>
+      </c>
+      <c r="M88" s="33"/>
+    </row>
+    <row r="89" spans="5:15">
+      <c r="M89" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="91" spans="5:15">
+      <c r="E91" t="s">
+        <v>635</v>
+      </c>
+      <c r="K91" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="92" spans="5:15">
+      <c r="F92" s="35" t="s">
+        <v>636</v>
+      </c>
+      <c r="G92" s="35"/>
+      <c r="H92" s="35"/>
+      <c r="I92" s="35"/>
+      <c r="L92" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="93" spans="5:15">
+      <c r="F93" s="35"/>
+      <c r="G93" s="35" t="s">
+        <v>637</v>
+      </c>
+      <c r="H93" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="I93" s="35" t="s">
+        <v>639</v>
+      </c>
+      <c r="M93" t="s">
+        <v>637</v>
+      </c>
+      <c r="N93" t="s">
+        <v>61</v>
+      </c>
+      <c r="O93" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="94" spans="5:15">
+      <c r="F94" s="35"/>
+      <c r="G94" s="35" t="s">
+        <v>637</v>
+      </c>
+      <c r="H94" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="I94" s="35" t="s">
+        <v>639</v>
+      </c>
+      <c r="M94" t="s">
+        <v>637</v>
+      </c>
+      <c r="N94" t="s">
+        <v>2125</v>
+      </c>
+      <c r="O94" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="95" spans="5:15">
+      <c r="F95" s="35" t="s">
+        <v>638</v>
+      </c>
+      <c r="G95" s="35"/>
+      <c r="H95" s="35"/>
+      <c r="I95" s="35"/>
+      <c r="L95" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="96" spans="5:15">
+      <c r="F96" s="315" t="s">
+        <v>636</v>
+      </c>
+      <c r="G96" s="315"/>
+      <c r="H96" s="315"/>
+      <c r="I96" s="315"/>
+      <c r="L96" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="97" spans="5:15">
+      <c r="F97" s="315"/>
+      <c r="G97" s="315" t="s">
+        <v>637</v>
+      </c>
+      <c r="H97" s="315" t="s">
+        <v>15</v>
+      </c>
+      <c r="I97" s="315" t="s">
+        <v>639</v>
+      </c>
+      <c r="M97" t="s">
+        <v>637</v>
+      </c>
+      <c r="N97" t="s">
+        <v>62</v>
+      </c>
+      <c r="O97" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="98" spans="5:15">
+      <c r="F98" s="315"/>
+      <c r="G98" s="315" t="s">
+        <v>637</v>
+      </c>
+      <c r="H98" s="315" t="s">
+        <v>32</v>
+      </c>
+      <c r="I98" s="315" t="s">
+        <v>639</v>
+      </c>
+      <c r="M98" t="s">
+        <v>637</v>
+      </c>
+      <c r="N98" t="s">
+        <v>2126</v>
+      </c>
+      <c r="O98" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="99" spans="5:15">
+      <c r="F99" s="315" t="s">
+        <v>638</v>
+      </c>
+      <c r="G99" s="315"/>
+      <c r="H99" s="315"/>
+      <c r="I99" s="315"/>
+      <c r="L99" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="100" spans="5:15">
+      <c r="E100" t="s">
+        <v>796</v>
+      </c>
+      <c r="L100" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="101" spans="5:15">
+      <c r="M101" t="s">
+        <v>637</v>
+      </c>
+      <c r="O101" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="102" spans="5:15">
+      <c r="M102" t="s">
+        <v>637</v>
+      </c>
+      <c r="N102" t="s">
+        <v>2127</v>
+      </c>
+      <c r="O102" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="103" spans="5:15">
+      <c r="L103" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="104" spans="5:15">
+      <c r="K104" t="s">
+        <v>796</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D50:D52"/>
@@ -40757,10 +40985,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:N217"/>
+  <dimension ref="B2:O217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:G22"/>
+    <sheetView topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15:M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -40804,17 +41032,17 @@
       <c r="C3" s="280">
         <v>0.1</v>
       </c>
-      <c r="D3" s="582"/>
-      <c r="E3" s="583"/>
-      <c r="F3" s="583"/>
-      <c r="G3" s="583"/>
-      <c r="H3" s="583"/>
-      <c r="I3" s="583"/>
-      <c r="J3" s="583"/>
-      <c r="K3" s="583"/>
-      <c r="L3" s="583"/>
-      <c r="M3" s="584"/>
-      <c r="N3" s="389" t="s">
+      <c r="D3" s="391"/>
+      <c r="E3" s="392"/>
+      <c r="F3" s="392"/>
+      <c r="G3" s="392"/>
+      <c r="H3" s="392"/>
+      <c r="I3" s="392"/>
+      <c r="J3" s="392"/>
+      <c r="K3" s="392"/>
+      <c r="L3" s="392"/>
+      <c r="M3" s="393"/>
+      <c r="N3" s="416" t="s">
         <v>2118</v>
       </c>
     </row>
@@ -40822,33 +41050,33 @@
       <c r="C4" s="280">
         <v>0.2</v>
       </c>
-      <c r="D4" s="596"/>
-      <c r="E4" s="597"/>
-      <c r="F4" s="597"/>
-      <c r="G4" s="597"/>
-      <c r="H4" s="597"/>
-      <c r="I4" s="597"/>
-      <c r="J4" s="597"/>
-      <c r="K4" s="597"/>
-      <c r="L4" s="597"/>
-      <c r="M4" s="598"/>
-      <c r="N4" s="389"/>
+      <c r="D4" s="405"/>
+      <c r="E4" s="406"/>
+      <c r="F4" s="406"/>
+      <c r="G4" s="406"/>
+      <c r="H4" s="406"/>
+      <c r="I4" s="406"/>
+      <c r="J4" s="406"/>
+      <c r="K4" s="406"/>
+      <c r="L4" s="406"/>
+      <c r="M4" s="407"/>
+      <c r="N4" s="416"/>
     </row>
     <row r="5" spans="3:14">
       <c r="C5" s="280">
         <v>0.3</v>
       </c>
-      <c r="D5" s="573"/>
-      <c r="E5" s="574"/>
-      <c r="F5" s="574"/>
-      <c r="G5" s="574"/>
-      <c r="H5" s="574"/>
-      <c r="I5" s="574"/>
-      <c r="J5" s="574"/>
-      <c r="K5" s="574"/>
-      <c r="L5" s="574"/>
-      <c r="M5" s="575"/>
-      <c r="N5" s="387" t="s">
+      <c r="D5" s="382"/>
+      <c r="E5" s="383"/>
+      <c r="F5" s="383"/>
+      <c r="G5" s="383"/>
+      <c r="H5" s="383"/>
+      <c r="I5" s="383"/>
+      <c r="J5" s="383"/>
+      <c r="K5" s="383"/>
+      <c r="L5" s="383"/>
+      <c r="M5" s="384"/>
+      <c r="N5" s="414" t="s">
         <v>810</v>
       </c>
     </row>
@@ -40856,112 +41084,112 @@
       <c r="C6" s="280">
         <v>0.4</v>
       </c>
-      <c r="D6" s="576"/>
-      <c r="E6" s="577"/>
-      <c r="F6" s="577"/>
-      <c r="G6" s="577"/>
-      <c r="H6" s="577"/>
-      <c r="I6" s="577"/>
-      <c r="J6" s="577"/>
-      <c r="K6" s="577"/>
-      <c r="L6" s="577"/>
-      <c r="M6" s="578"/>
-      <c r="N6" s="387"/>
+      <c r="D6" s="385"/>
+      <c r="E6" s="386"/>
+      <c r="F6" s="386"/>
+      <c r="G6" s="386"/>
+      <c r="H6" s="386"/>
+      <c r="I6" s="386"/>
+      <c r="J6" s="386"/>
+      <c r="K6" s="386"/>
+      <c r="L6" s="386"/>
+      <c r="M6" s="387"/>
+      <c r="N6" s="414"/>
     </row>
     <row r="7" spans="3:14">
       <c r="C7" s="280">
         <v>0.5</v>
       </c>
-      <c r="D7" s="576"/>
-      <c r="E7" s="577"/>
-      <c r="F7" s="577"/>
-      <c r="G7" s="577"/>
-      <c r="H7" s="577"/>
-      <c r="I7" s="577"/>
-      <c r="J7" s="577"/>
-      <c r="K7" s="577"/>
-      <c r="L7" s="577"/>
-      <c r="M7" s="578"/>
-      <c r="N7" s="387"/>
+      <c r="D7" s="385"/>
+      <c r="E7" s="386"/>
+      <c r="F7" s="386"/>
+      <c r="G7" s="386"/>
+      <c r="H7" s="386"/>
+      <c r="I7" s="386"/>
+      <c r="J7" s="386"/>
+      <c r="K7" s="386"/>
+      <c r="L7" s="386"/>
+      <c r="M7" s="387"/>
+      <c r="N7" s="414"/>
     </row>
     <row r="8" spans="3:14">
       <c r="C8" s="280">
         <v>0.6</v>
       </c>
-      <c r="D8" s="576"/>
-      <c r="E8" s="577"/>
-      <c r="F8" s="577"/>
-      <c r="G8" s="577"/>
-      <c r="H8" s="577"/>
-      <c r="I8" s="577"/>
-      <c r="J8" s="577"/>
-      <c r="K8" s="577"/>
-      <c r="L8" s="577"/>
-      <c r="M8" s="578"/>
-      <c r="N8" s="387"/>
+      <c r="D8" s="385"/>
+      <c r="E8" s="386"/>
+      <c r="F8" s="386"/>
+      <c r="G8" s="386"/>
+      <c r="H8" s="386"/>
+      <c r="I8" s="386"/>
+      <c r="J8" s="386"/>
+      <c r="K8" s="386"/>
+      <c r="L8" s="386"/>
+      <c r="M8" s="387"/>
+      <c r="N8" s="414"/>
     </row>
     <row r="9" spans="3:14">
       <c r="C9" s="280">
         <v>0.7</v>
       </c>
-      <c r="D9" s="576"/>
-      <c r="E9" s="577"/>
-      <c r="F9" s="577"/>
-      <c r="G9" s="577"/>
-      <c r="H9" s="577"/>
-      <c r="I9" s="577"/>
-      <c r="J9" s="577"/>
-      <c r="K9" s="577"/>
-      <c r="L9" s="577"/>
-      <c r="M9" s="578"/>
-      <c r="N9" s="387"/>
+      <c r="D9" s="385"/>
+      <c r="E9" s="386"/>
+      <c r="F9" s="386"/>
+      <c r="G9" s="386"/>
+      <c r="H9" s="386"/>
+      <c r="I9" s="386"/>
+      <c r="J9" s="386"/>
+      <c r="K9" s="386"/>
+      <c r="L9" s="386"/>
+      <c r="M9" s="387"/>
+      <c r="N9" s="414"/>
     </row>
     <row r="10" spans="3:14">
       <c r="C10" s="280">
         <v>0.8</v>
       </c>
-      <c r="D10" s="576"/>
-      <c r="E10" s="577"/>
-      <c r="F10" s="577"/>
-      <c r="G10" s="577"/>
-      <c r="H10" s="577"/>
-      <c r="I10" s="577"/>
-      <c r="J10" s="577"/>
-      <c r="K10" s="577"/>
-      <c r="L10" s="577"/>
-      <c r="M10" s="578"/>
-      <c r="N10" s="387"/>
+      <c r="D10" s="385"/>
+      <c r="E10" s="386"/>
+      <c r="F10" s="386"/>
+      <c r="G10" s="386"/>
+      <c r="H10" s="386"/>
+      <c r="I10" s="386"/>
+      <c r="J10" s="386"/>
+      <c r="K10" s="386"/>
+      <c r="L10" s="386"/>
+      <c r="M10" s="387"/>
+      <c r="N10" s="414"/>
     </row>
     <row r="11" spans="3:14" ht="15.75" thickBot="1">
       <c r="C11" s="280">
         <v>0.9</v>
       </c>
-      <c r="D11" s="579"/>
-      <c r="E11" s="580"/>
-      <c r="F11" s="580"/>
-      <c r="G11" s="580"/>
-      <c r="H11" s="580"/>
-      <c r="I11" s="580"/>
-      <c r="J11" s="580"/>
-      <c r="K11" s="580"/>
-      <c r="L11" s="580"/>
-      <c r="M11" s="581"/>
-      <c r="N11" s="387"/>
+      <c r="D11" s="388"/>
+      <c r="E11" s="389"/>
+      <c r="F11" s="389"/>
+      <c r="G11" s="389"/>
+      <c r="H11" s="389"/>
+      <c r="I11" s="389"/>
+      <c r="J11" s="389"/>
+      <c r="K11" s="389"/>
+      <c r="L11" s="389"/>
+      <c r="M11" s="390"/>
+      <c r="N11" s="414"/>
     </row>
     <row r="12" spans="3:14" ht="15.75" thickBot="1">
       <c r="C12" s="280">
         <v>1</v>
       </c>
-      <c r="D12" s="588"/>
-      <c r="E12" s="589"/>
-      <c r="F12" s="589"/>
-      <c r="G12" s="589"/>
-      <c r="H12" s="589"/>
-      <c r="I12" s="589"/>
-      <c r="J12" s="589"/>
-      <c r="K12" s="589"/>
-      <c r="L12" s="589"/>
-      <c r="M12" s="590"/>
+      <c r="D12" s="397"/>
+      <c r="E12" s="398"/>
+      <c r="F12" s="398"/>
+      <c r="G12" s="398"/>
+      <c r="H12" s="398"/>
+      <c r="I12" s="398"/>
+      <c r="J12" s="398"/>
+      <c r="K12" s="398"/>
+      <c r="L12" s="398"/>
+      <c r="M12" s="399"/>
       <c r="N12" s="282" t="s">
         <v>2119</v>
       </c>
@@ -41006,17 +41234,17 @@
       <c r="C15" s="280">
         <v>0.1</v>
       </c>
-      <c r="D15" s="582"/>
-      <c r="E15" s="583"/>
-      <c r="F15" s="583"/>
-      <c r="G15" s="583"/>
-      <c r="H15" s="583"/>
-      <c r="I15" s="583"/>
-      <c r="J15" s="583"/>
-      <c r="K15" s="583"/>
-      <c r="L15" s="583"/>
-      <c r="M15" s="584"/>
-      <c r="N15" s="389" t="s">
+      <c r="D15" s="391"/>
+      <c r="E15" s="392"/>
+      <c r="F15" s="392"/>
+      <c r="G15" s="392"/>
+      <c r="H15" s="392"/>
+      <c r="I15" s="392"/>
+      <c r="J15" s="392"/>
+      <c r="K15" s="392"/>
+      <c r="L15" s="392"/>
+      <c r="M15" s="393"/>
+      <c r="N15" s="416" t="s">
         <v>2118</v>
       </c>
     </row>
@@ -41024,156 +41252,159 @@
       <c r="C16" s="280">
         <v>0.2</v>
       </c>
-      <c r="D16" s="585"/>
-      <c r="E16" s="586"/>
-      <c r="F16" s="586"/>
-      <c r="G16" s="586"/>
-      <c r="H16" s="586"/>
-      <c r="I16" s="586"/>
-      <c r="J16" s="586"/>
-      <c r="K16" s="586"/>
-      <c r="L16" s="586"/>
-      <c r="M16" s="587"/>
-      <c r="N16" s="389"/>
-    </row>
-    <row r="17" spans="2:14">
+      <c r="D16" s="394"/>
+      <c r="E16" s="395"/>
+      <c r="F16" s="395"/>
+      <c r="G16" s="395"/>
+      <c r="H16" s="395"/>
+      <c r="I16" s="395"/>
+      <c r="J16" s="395"/>
+      <c r="K16" s="395"/>
+      <c r="L16" s="395"/>
+      <c r="M16" s="396"/>
+      <c r="N16" s="416"/>
+    </row>
+    <row r="17" spans="2:15">
       <c r="C17" s="280">
         <v>0.3</v>
       </c>
-      <c r="D17" s="591"/>
-      <c r="E17" s="594"/>
-      <c r="F17" s="594"/>
-      <c r="G17" s="594"/>
-      <c r="H17" s="594"/>
-      <c r="I17" s="594"/>
-      <c r="J17" s="594"/>
-      <c r="K17" s="594"/>
-      <c r="L17" s="594"/>
-      <c r="M17" s="595"/>
-      <c r="N17" s="389" t="s">
+      <c r="D17" s="400"/>
+      <c r="E17" s="403"/>
+      <c r="F17" s="403"/>
+      <c r="G17" s="403"/>
+      <c r="H17" s="403"/>
+      <c r="I17" s="403"/>
+      <c r="J17" s="403"/>
+      <c r="K17" s="403"/>
+      <c r="L17" s="403"/>
+      <c r="M17" s="404"/>
+      <c r="N17" s="416" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="18" spans="2:14">
+    <row r="18" spans="2:15">
       <c r="C18" s="280">
         <v>0.4</v>
       </c>
-      <c r="D18" s="592"/>
-      <c r="E18" s="594"/>
-      <c r="F18" s="594"/>
-      <c r="G18" s="594"/>
-      <c r="H18" s="594"/>
-      <c r="I18" s="594"/>
-      <c r="J18" s="594"/>
-      <c r="K18" s="594"/>
-      <c r="L18" s="594"/>
-      <c r="M18" s="595"/>
-      <c r="N18" s="389"/>
-    </row>
-    <row r="19" spans="2:14">
+      <c r="D18" s="401"/>
+      <c r="E18" s="403"/>
+      <c r="F18" s="403"/>
+      <c r="G18" s="403"/>
+      <c r="H18" s="403"/>
+      <c r="I18" s="403"/>
+      <c r="J18" s="403"/>
+      <c r="K18" s="403"/>
+      <c r="L18" s="403"/>
+      <c r="M18" s="404"/>
+      <c r="N18" s="416"/>
+    </row>
+    <row r="19" spans="2:15">
       <c r="C19" s="280">
         <v>0.5</v>
       </c>
-      <c r="D19" s="592"/>
-      <c r="E19" s="594"/>
-      <c r="F19" s="594"/>
-      <c r="G19" s="594"/>
-      <c r="H19" s="594"/>
-      <c r="I19" s="594"/>
-      <c r="J19" s="594"/>
-      <c r="K19" s="594"/>
-      <c r="L19" s="594"/>
-      <c r="M19" s="595"/>
-      <c r="N19" s="389"/>
-    </row>
-    <row r="20" spans="2:14">
+      <c r="D19" s="401"/>
+      <c r="E19" s="403"/>
+      <c r="F19" s="403"/>
+      <c r="G19" s="403"/>
+      <c r="H19" s="403"/>
+      <c r="I19" s="403"/>
+      <c r="J19" s="403"/>
+      <c r="K19" s="403"/>
+      <c r="L19" s="403"/>
+      <c r="M19" s="404"/>
+      <c r="N19" s="416"/>
+      <c r="O19" s="24" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15">
       <c r="C20" s="280">
         <v>0.6</v>
       </c>
-      <c r="D20" s="592" t="s">
+      <c r="D20" s="401" t="s">
         <v>2120</v>
       </c>
-      <c r="E20" s="594"/>
-      <c r="F20" s="594"/>
-      <c r="G20" s="594"/>
-      <c r="H20" s="594" t="s">
+      <c r="E20" s="403"/>
+      <c r="F20" s="403"/>
+      <c r="G20" s="403"/>
+      <c r="H20" s="403" t="s">
         <v>2121</v>
       </c>
-      <c r="I20" s="594"/>
-      <c r="J20" s="594"/>
-      <c r="K20" s="594"/>
-      <c r="L20" s="594"/>
-      <c r="M20" s="595"/>
-      <c r="N20" s="389"/>
-    </row>
-    <row r="21" spans="2:14">
+      <c r="I20" s="403"/>
+      <c r="J20" s="403"/>
+      <c r="K20" s="403"/>
+      <c r="L20" s="403"/>
+      <c r="M20" s="404"/>
+      <c r="N20" s="416"/>
+    </row>
+    <row r="21" spans="2:15">
       <c r="C21" s="280">
         <v>0.7</v>
       </c>
-      <c r="D21" s="592"/>
-      <c r="E21" s="594"/>
-      <c r="F21" s="594"/>
-      <c r="G21" s="594"/>
-      <c r="H21" s="594"/>
-      <c r="I21" s="594"/>
-      <c r="J21" s="594"/>
-      <c r="K21" s="594"/>
-      <c r="L21" s="594"/>
-      <c r="M21" s="595"/>
-      <c r="N21" s="389"/>
-    </row>
-    <row r="22" spans="2:14">
+      <c r="D21" s="401"/>
+      <c r="E21" s="403"/>
+      <c r="F21" s="403"/>
+      <c r="G21" s="403"/>
+      <c r="H21" s="403"/>
+      <c r="I21" s="403"/>
+      <c r="J21" s="403"/>
+      <c r="K21" s="403"/>
+      <c r="L21" s="403"/>
+      <c r="M21" s="404"/>
+      <c r="N21" s="416"/>
+    </row>
+    <row r="22" spans="2:15">
       <c r="C22" s="280">
         <v>0.8</v>
       </c>
-      <c r="D22" s="592"/>
-      <c r="E22" s="594"/>
-      <c r="F22" s="594"/>
-      <c r="G22" s="594"/>
-      <c r="H22" s="594"/>
-      <c r="I22" s="594"/>
-      <c r="J22" s="594"/>
-      <c r="K22" s="594"/>
-      <c r="L22" s="594"/>
-      <c r="M22" s="595"/>
-      <c r="N22" s="389"/>
-    </row>
-    <row r="23" spans="2:14" ht="15.75" thickBot="1">
+      <c r="D22" s="401"/>
+      <c r="E22" s="403"/>
+      <c r="F22" s="403"/>
+      <c r="G22" s="403"/>
+      <c r="H22" s="403"/>
+      <c r="I22" s="403"/>
+      <c r="J22" s="403"/>
+      <c r="K22" s="403"/>
+      <c r="L22" s="403"/>
+      <c r="M22" s="404"/>
+      <c r="N22" s="416"/>
+    </row>
+    <row r="23" spans="2:15" ht="15.75" thickBot="1">
       <c r="C23" s="280">
         <v>0.9</v>
       </c>
-      <c r="D23" s="593"/>
-      <c r="E23" s="594"/>
-      <c r="F23" s="594"/>
-      <c r="G23" s="594"/>
-      <c r="H23" s="594"/>
-      <c r="I23" s="594"/>
-      <c r="J23" s="594"/>
-      <c r="K23" s="594"/>
-      <c r="L23" s="594"/>
-      <c r="M23" s="595"/>
-      <c r="N23" s="389"/>
-    </row>
-    <row r="24" spans="2:14" ht="15.75" thickBot="1">
+      <c r="D23" s="402"/>
+      <c r="E23" s="403"/>
+      <c r="F23" s="403"/>
+      <c r="G23" s="403"/>
+      <c r="H23" s="403"/>
+      <c r="I23" s="403"/>
+      <c r="J23" s="403"/>
+      <c r="K23" s="403"/>
+      <c r="L23" s="403"/>
+      <c r="M23" s="404"/>
+      <c r="N23" s="416"/>
+    </row>
+    <row r="24" spans="2:15" ht="15.75" thickBot="1">
       <c r="C24" s="280">
         <v>1</v>
       </c>
-      <c r="D24" s="588"/>
-      <c r="E24" s="589"/>
-      <c r="F24" s="589"/>
-      <c r="G24" s="589"/>
-      <c r="H24" s="589"/>
-      <c r="I24" s="589"/>
-      <c r="J24" s="589"/>
-      <c r="K24" s="589"/>
-      <c r="L24" s="589"/>
-      <c r="M24" s="590"/>
+      <c r="D24" s="397"/>
+      <c r="E24" s="398"/>
+      <c r="F24" s="398"/>
+      <c r="G24" s="398"/>
+      <c r="H24" s="398"/>
+      <c r="I24" s="398"/>
+      <c r="J24" s="398"/>
+      <c r="K24" s="398"/>
+      <c r="L24" s="398"/>
+      <c r="M24" s="399"/>
       <c r="N24" s="282" t="s">
         <v>2119</v>
       </c>
     </row>
-    <row r="25" spans="2:14" ht="15.75" thickBot="1"/>
-    <row r="26" spans="2:14">
+    <row r="25" spans="2:15" ht="15.75" thickBot="1"/>
+    <row r="26" spans="2:15">
       <c r="B26" s="119"/>
       <c r="C26" s="131"/>
       <c r="D26" s="131"/>
@@ -41183,14 +41414,14 @@
       <c r="L26" s="131"/>
       <c r="M26" s="120"/>
     </row>
-    <row r="27" spans="2:14" ht="15.75" thickBot="1">
+    <row r="27" spans="2:15" ht="15.75" thickBot="1">
       <c r="B27" s="106"/>
       <c r="D27" s="124"/>
       <c r="E27" s="58"/>
       <c r="J27" s="106"/>
       <c r="M27" s="58"/>
     </row>
-    <row r="28" spans="2:14">
+    <row r="28" spans="2:15">
       <c r="B28" s="106"/>
       <c r="D28" s="124"/>
       <c r="E28" s="58"/>
@@ -41199,7 +41430,7 @@
       <c r="L28" s="120"/>
       <c r="M28" s="58"/>
     </row>
-    <row r="29" spans="2:14">
+    <row r="29" spans="2:15">
       <c r="B29" s="106"/>
       <c r="D29" s="12"/>
       <c r="E29" s="58"/>
@@ -41208,7 +41439,7 @@
       <c r="L29" s="58"/>
       <c r="M29" s="58"/>
     </row>
-    <row r="30" spans="2:14" ht="15.75" thickBot="1">
+    <row r="30" spans="2:15" ht="15.75" thickBot="1">
       <c r="B30" s="106"/>
       <c r="D30" s="138"/>
       <c r="E30" s="58"/>
@@ -41217,13 +41448,13 @@
       <c r="L30" s="246"/>
       <c r="M30" s="58"/>
     </row>
-    <row r="31" spans="2:14" ht="15.75" thickBot="1">
+    <row r="31" spans="2:15" ht="15.75" thickBot="1">
       <c r="B31" s="106"/>
       <c r="E31" s="58"/>
       <c r="J31" s="106"/>
       <c r="M31" s="58"/>
     </row>
-    <row r="32" spans="2:14">
+    <row r="32" spans="2:15">
       <c r="B32" s="106"/>
       <c r="E32" s="58"/>
       <c r="J32" s="106"/>
@@ -41255,79 +41486,79 @@
       <c r="L45" s="124"/>
     </row>
     <row r="134" spans="3:3">
-      <c r="C134" s="387"/>
+      <c r="C134" s="414"/>
     </row>
     <row r="135" spans="3:3">
-      <c r="C135" s="387"/>
+      <c r="C135" s="414"/>
     </row>
     <row r="136" spans="3:3">
-      <c r="C136" s="387"/>
+      <c r="C136" s="414"/>
     </row>
     <row r="137" spans="3:3">
-      <c r="C137" s="387"/>
+      <c r="C137" s="414"/>
     </row>
     <row r="138" spans="3:3">
-      <c r="C138" s="387"/>
+      <c r="C138" s="414"/>
     </row>
     <row r="139" spans="3:3">
-      <c r="C139" s="387"/>
+      <c r="C139" s="414"/>
     </row>
     <row r="140" spans="3:3">
-      <c r="C140" s="387"/>
+      <c r="C140" s="414"/>
     </row>
     <row r="141" spans="3:3">
-      <c r="C141" s="387"/>
+      <c r="C141" s="414"/>
     </row>
     <row r="142" spans="3:3">
-      <c r="C142" s="387"/>
+      <c r="C142" s="414"/>
     </row>
     <row r="147" spans="4:4">
-      <c r="D147" s="388"/>
+      <c r="D147" s="415"/>
     </row>
     <row r="148" spans="4:4">
-      <c r="D148" s="387"/>
+      <c r="D148" s="414"/>
     </row>
     <row r="149" spans="4:4">
-      <c r="D149" s="387"/>
+      <c r="D149" s="414"/>
     </row>
     <row r="150" spans="4:4">
-      <c r="D150" s="387"/>
+      <c r="D150" s="414"/>
     </row>
     <row r="151" spans="4:4">
-      <c r="D151" s="387"/>
+      <c r="D151" s="414"/>
     </row>
     <row r="152" spans="4:4">
-      <c r="D152" s="387"/>
+      <c r="D152" s="414"/>
     </row>
     <row r="153" spans="4:4">
-      <c r="D153" s="387"/>
+      <c r="D153" s="414"/>
     </row>
     <row r="182" spans="14:14">
-      <c r="N182" s="387"/>
+      <c r="N182" s="414"/>
     </row>
     <row r="183" spans="14:14">
-      <c r="N183" s="387"/>
+      <c r="N183" s="414"/>
     </row>
     <row r="184" spans="14:14">
-      <c r="N184" s="387"/>
+      <c r="N184" s="414"/>
     </row>
     <row r="185" spans="14:14">
-      <c r="N185" s="387"/>
+      <c r="N185" s="414"/>
     </row>
     <row r="186" spans="14:14">
-      <c r="N186" s="387"/>
+      <c r="N186" s="414"/>
     </row>
     <row r="187" spans="14:14">
-      <c r="N187" s="387"/>
+      <c r="N187" s="414"/>
     </row>
     <row r="188" spans="14:14">
-      <c r="N188" s="387"/>
+      <c r="N188" s="414"/>
     </row>
     <row r="189" spans="14:14">
-      <c r="N189" s="387"/>
+      <c r="N189" s="414"/>
     </row>
     <row r="190" spans="14:14">
-      <c r="N190" s="387"/>
+      <c r="N190" s="414"/>
     </row>
     <row r="199" spans="3:3">
       <c r="C199" s="281"/>
@@ -41497,14 +41728,14 @@
       <c r="H4" s="4"/>
       <c r="I4" s="1"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="392" t="s">
+      <c r="K4" s="419" t="s">
         <v>57</v>
       </c>
-      <c r="L4" s="393"/>
-      <c r="M4" s="393"/>
-      <c r="N4" s="393"/>
-      <c r="O4" s="393"/>
-      <c r="P4" s="394"/>
+      <c r="L4" s="420"/>
+      <c r="M4" s="420"/>
+      <c r="N4" s="420"/>
+      <c r="O4" s="420"/>
+      <c r="P4" s="421"/>
       <c r="Q4" s="89" t="s">
         <v>147</v>
       </c>
@@ -41636,10 +41867,10 @@
       <c r="L8" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="M8" s="406" t="s">
+      <c r="M8" s="433" t="s">
         <v>89</v>
       </c>
-      <c r="N8" s="407"/>
+      <c r="N8" s="434"/>
       <c r="O8" s="5" t="s">
         <v>17</v>
       </c>
@@ -41673,8 +41904,8 @@
       <c r="L9" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="M9" s="407"/>
-      <c r="N9" s="407"/>
+      <c r="M9" s="434"/>
+      <c r="N9" s="434"/>
       <c r="O9" s="5" t="s">
         <v>66</v>
       </c>
@@ -41714,8 +41945,8 @@
       <c r="L10" s="5" t="s">
         <v>826</v>
       </c>
-      <c r="M10" s="407"/>
-      <c r="N10" s="407"/>
+      <c r="M10" s="434"/>
+      <c r="N10" s="434"/>
       <c r="O10" s="5"/>
       <c r="P10" s="178" t="s">
         <v>237</v>
@@ -41728,13 +41959,13 @@
       <c r="T10" s="33"/>
     </row>
     <row r="11" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A11" s="395" t="s">
+      <c r="A11" s="422" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="396"/>
-      <c r="C11" s="397"/>
-      <c r="D11" s="397"/>
-      <c r="E11" s="398"/>
+      <c r="B11" s="423"/>
+      <c r="C11" s="424"/>
+      <c r="D11" s="424"/>
+      <c r="E11" s="425"/>
       <c r="F11" t="s">
         <v>1071</v>
       </c>
@@ -41743,8 +41974,8 @@
       <c r="J11" s="10"/>
       <c r="K11" s="4"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="407"/>
-      <c r="N11" s="407"/>
+      <c r="M11" s="434"/>
+      <c r="N11" s="434"/>
       <c r="O11" s="5"/>
       <c r="P11" s="178" t="s">
         <v>238</v>
@@ -41754,11 +41985,11 @@
       <c r="T11" s="33"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="399"/>
-      <c r="B12" s="400"/>
-      <c r="C12" s="400"/>
-      <c r="D12" s="400"/>
-      <c r="E12" s="401"/>
+      <c r="A12" s="426"/>
+      <c r="B12" s="427"/>
+      <c r="C12" s="427"/>
+      <c r="D12" s="427"/>
+      <c r="E12" s="428"/>
       <c r="F12" t="s">
         <v>650</v>
       </c>
@@ -41767,8 +41998,8 @@
       <c r="J12" s="2"/>
       <c r="K12" s="4"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="407"/>
-      <c r="N12" s="407"/>
+      <c r="M12" s="434"/>
+      <c r="N12" s="434"/>
       <c r="O12" s="5"/>
       <c r="P12" s="178" t="s">
         <v>961</v>
@@ -41778,11 +42009,11 @@
       <c r="T12" s="33"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="399"/>
-      <c r="B13" s="400"/>
-      <c r="C13" s="400"/>
-      <c r="D13" s="400"/>
-      <c r="E13" s="401"/>
+      <c r="A13" s="426"/>
+      <c r="B13" s="427"/>
+      <c r="C13" s="427"/>
+      <c r="D13" s="427"/>
+      <c r="E13" s="428"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4" t="s">
         <v>71</v>
@@ -41790,8 +42021,8 @@
       <c r="J13" s="5"/>
       <c r="K13" s="4"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="407"/>
-      <c r="N13" s="407"/>
+      <c r="M13" s="434"/>
+      <c r="N13" s="434"/>
       <c r="O13" s="26"/>
       <c r="P13" s="178"/>
       <c r="S13" t="s">
@@ -41799,11 +42030,11 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A14" s="402"/>
-      <c r="B14" s="403"/>
-      <c r="C14" s="403"/>
-      <c r="D14" s="403"/>
-      <c r="E14" s="404"/>
+      <c r="A14" s="429"/>
+      <c r="B14" s="430"/>
+      <c r="C14" s="430"/>
+      <c r="D14" s="430"/>
+      <c r="E14" s="431"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
@@ -41979,20 +42210,20 @@
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="390" t="s">
+      <c r="I20" s="417" t="s">
         <v>73</v>
       </c>
-      <c r="J20" s="391"/>
-      <c r="K20" s="390" t="s">
+      <c r="J20" s="418"/>
+      <c r="K20" s="417" t="s">
         <v>74</v>
       </c>
-      <c r="L20" s="391"/>
-      <c r="M20" s="390" t="s">
+      <c r="L20" s="418"/>
+      <c r="M20" s="417" t="s">
         <v>1159</v>
       </c>
-      <c r="N20" s="405"/>
-      <c r="O20" s="405"/>
-      <c r="P20" s="391"/>
+      <c r="N20" s="432"/>
+      <c r="O20" s="432"/>
+      <c r="P20" s="418"/>
       <c r="S20" t="s">
         <v>147</v>
       </c>
@@ -42555,13 +42786,13 @@
       <c r="Q84" s="6"/>
     </row>
     <row r="85" spans="1:17">
-      <c r="A85" s="412" t="s">
+      <c r="A85" s="439" t="s">
         <v>1051</v>
       </c>
-      <c r="B85" s="400"/>
-      <c r="C85" s="400"/>
-      <c r="D85" s="400"/>
-      <c r="E85" s="400"/>
+      <c r="B85" s="427"/>
+      <c r="C85" s="427"/>
+      <c r="D85" s="427"/>
+      <c r="E85" s="427"/>
       <c r="F85" s="6" t="s">
         <v>1055</v>
       </c>
@@ -42608,14 +42839,14 @@
       <c r="H87" s="4"/>
       <c r="I87" s="30"/>
       <c r="J87" s="26"/>
-      <c r="K87" s="419" t="s">
+      <c r="K87" s="446" t="s">
         <v>1054</v>
       </c>
-      <c r="L87" s="414"/>
-      <c r="M87" s="419" t="s">
+      <c r="L87" s="441"/>
+      <c r="M87" s="446" t="s">
         <v>1065</v>
       </c>
-      <c r="N87" s="414"/>
+      <c r="N87" s="441"/>
       <c r="O87" s="26"/>
       <c r="P87" s="34"/>
       <c r="Q87" s="6"/>
@@ -42632,10 +42863,10 @@
       <c r="H88" s="4"/>
       <c r="I88" s="30"/>
       <c r="J88" s="26"/>
-      <c r="K88" s="417"/>
-      <c r="L88" s="418"/>
-      <c r="M88" s="415"/>
-      <c r="N88" s="416"/>
+      <c r="K88" s="444"/>
+      <c r="L88" s="445"/>
+      <c r="M88" s="442"/>
+      <c r="N88" s="443"/>
       <c r="O88" s="26"/>
       <c r="P88" s="34"/>
       <c r="Q88" s="6"/>
@@ -42654,12 +42885,12 @@
       </c>
       <c r="I89" s="30"/>
       <c r="J89" s="26"/>
-      <c r="K89" s="413" t="s">
+      <c r="K89" s="440" t="s">
         <v>1046</v>
       </c>
-      <c r="L89" s="414"/>
-      <c r="M89" s="415"/>
-      <c r="N89" s="416"/>
+      <c r="L89" s="441"/>
+      <c r="M89" s="442"/>
+      <c r="N89" s="443"/>
       <c r="O89" s="26"/>
       <c r="P89" s="34"/>
       <c r="Q89" s="6"/>
@@ -42674,10 +42905,10 @@
       <c r="H90" s="4"/>
       <c r="I90" s="30"/>
       <c r="J90" s="26"/>
-      <c r="K90" s="417"/>
-      <c r="L90" s="418"/>
-      <c r="M90" s="415"/>
-      <c r="N90" s="416"/>
+      <c r="K90" s="444"/>
+      <c r="L90" s="445"/>
+      <c r="M90" s="442"/>
+      <c r="N90" s="443"/>
       <c r="O90" s="26"/>
       <c r="P90" s="34"/>
       <c r="Q90" s="6"/>
@@ -42694,12 +42925,12 @@
       <c r="H91" s="4"/>
       <c r="I91" s="30"/>
       <c r="J91" s="26"/>
-      <c r="K91" s="413" t="s">
+      <c r="K91" s="440" t="s">
         <v>1047</v>
       </c>
-      <c r="L91" s="414"/>
-      <c r="M91" s="415"/>
-      <c r="N91" s="416"/>
+      <c r="L91" s="441"/>
+      <c r="M91" s="442"/>
+      <c r="N91" s="443"/>
       <c r="O91" s="26"/>
       <c r="P91" s="34"/>
       <c r="Q91" s="6"/>
@@ -42716,10 +42947,10 @@
       <c r="H92" s="4"/>
       <c r="I92" s="30"/>
       <c r="J92" s="26"/>
-      <c r="K92" s="417"/>
-      <c r="L92" s="418"/>
-      <c r="M92" s="415"/>
-      <c r="N92" s="416"/>
+      <c r="K92" s="444"/>
+      <c r="L92" s="445"/>
+      <c r="M92" s="442"/>
+      <c r="N92" s="443"/>
       <c r="O92" s="26"/>
       <c r="P92" s="34"/>
       <c r="Q92" s="6"/>
@@ -42734,12 +42965,12 @@
       <c r="H93" s="4"/>
       <c r="I93" s="30"/>
       <c r="J93" s="26"/>
-      <c r="K93" s="413" t="s">
+      <c r="K93" s="440" t="s">
         <v>1048</v>
       </c>
-      <c r="L93" s="414"/>
-      <c r="M93" s="415"/>
-      <c r="N93" s="416"/>
+      <c r="L93" s="441"/>
+      <c r="M93" s="442"/>
+      <c r="N93" s="443"/>
       <c r="O93" s="26"/>
       <c r="P93" s="34"/>
       <c r="Q93" s="6"/>
@@ -42751,10 +42982,10 @@
       <c r="H94" s="4"/>
       <c r="I94" s="30"/>
       <c r="J94" s="26"/>
-      <c r="K94" s="415"/>
-      <c r="L94" s="416"/>
-      <c r="M94" s="415"/>
-      <c r="N94" s="416"/>
+      <c r="K94" s="442"/>
+      <c r="L94" s="443"/>
+      <c r="M94" s="442"/>
+      <c r="N94" s="443"/>
       <c r="O94" s="26"/>
       <c r="P94" s="34"/>
       <c r="Q94" s="6"/>
@@ -42768,10 +42999,10 @@
       <c r="H95" s="4"/>
       <c r="I95" s="30"/>
       <c r="J95" s="26"/>
-      <c r="K95" s="417"/>
-      <c r="L95" s="418"/>
-      <c r="M95" s="417"/>
-      <c r="N95" s="418"/>
+      <c r="K95" s="444"/>
+      <c r="L95" s="445"/>
+      <c r="M95" s="444"/>
+      <c r="N95" s="445"/>
       <c r="O95" s="26"/>
       <c r="P95" s="34"/>
       <c r="Q95" s="6"/>
@@ -42788,14 +43019,14 @@
       <c r="H96" s="4"/>
       <c r="I96" s="30"/>
       <c r="J96" s="26"/>
-      <c r="K96" s="411" t="s">
+      <c r="K96" s="438" t="s">
         <v>1049</v>
       </c>
-      <c r="L96" s="411"/>
-      <c r="M96" s="411" t="s">
+      <c r="L96" s="438"/>
+      <c r="M96" s="438" t="s">
         <v>1050</v>
       </c>
-      <c r="N96" s="411"/>
+      <c r="N96" s="438"/>
       <c r="O96" s="26"/>
       <c r="P96" s="34"/>
       <c r="Q96" s="6"/>
@@ -42919,7 +43150,7 @@
       <c r="E115" s="82"/>
       <c r="F115" s="83"/>
       <c r="I115" s="4"/>
-      <c r="J115" s="408" t="s">
+      <c r="J115" s="435" t="s">
         <v>1080</v>
       </c>
       <c r="K115" s="2"/>
@@ -42936,7 +43167,7 @@
       <c r="E116" s="5"/>
       <c r="F116" s="6"/>
       <c r="I116" s="4"/>
-      <c r="J116" s="409"/>
+      <c r="J116" s="436"/>
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
       <c r="M116" s="3"/>
@@ -42951,7 +43182,7 @@
       <c r="E117" s="5"/>
       <c r="F117" s="6"/>
       <c r="I117" s="4"/>
-      <c r="J117" s="409"/>
+      <c r="J117" s="436"/>
       <c r="K117" s="5" t="s">
         <v>23</v>
       </c>
@@ -42968,7 +43199,7 @@
       <c r="E118" s="5"/>
       <c r="F118" s="6"/>
       <c r="I118" s="4"/>
-      <c r="J118" s="409"/>
+      <c r="J118" s="436"/>
       <c r="K118" s="5"/>
       <c r="L118" s="5"/>
       <c r="M118" s="6"/>
@@ -42983,7 +43214,7 @@
       <c r="E119" s="5"/>
       <c r="F119" s="6"/>
       <c r="I119" s="4"/>
-      <c r="J119" s="409"/>
+      <c r="J119" s="436"/>
       <c r="K119" s="5" t="s">
         <v>493</v>
       </c>
@@ -43003,7 +43234,7 @@
         <v>1079</v>
       </c>
       <c r="I120" s="4"/>
-      <c r="J120" s="409"/>
+      <c r="J120" s="436"/>
       <c r="K120" s="10"/>
       <c r="L120" s="10"/>
       <c r="M120" s="9"/>
@@ -43023,7 +43254,7 @@
         <v>145</v>
       </c>
       <c r="I121" s="4"/>
-      <c r="J121" s="409"/>
+      <c r="J121" s="436"/>
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
       <c r="M121" s="3"/>
@@ -43040,7 +43271,7 @@
       <c r="E122" s="5"/>
       <c r="F122" s="6"/>
       <c r="I122" s="4"/>
-      <c r="J122" s="409"/>
+      <c r="J122" s="436"/>
       <c r="K122" s="5"/>
       <c r="L122" s="5" t="s">
         <v>1076</v>
@@ -43059,7 +43290,7 @@
       <c r="E123" s="5"/>
       <c r="F123" s="6"/>
       <c r="I123" s="4"/>
-      <c r="J123" s="409"/>
+      <c r="J123" s="436"/>
       <c r="K123" s="5"/>
       <c r="L123" s="5" t="s">
         <v>1074</v>
@@ -43076,7 +43307,7 @@
       <c r="E124" s="5"/>
       <c r="F124" s="6"/>
       <c r="I124" s="4"/>
-      <c r="J124" s="409"/>
+      <c r="J124" s="436"/>
       <c r="K124" s="5"/>
       <c r="L124" s="5" t="s">
         <v>23</v>
@@ -43093,7 +43324,7 @@
       <c r="E125" s="5"/>
       <c r="F125" s="6"/>
       <c r="I125" s="4"/>
-      <c r="J125" s="409"/>
+      <c r="J125" s="436"/>
       <c r="K125" s="10"/>
       <c r="L125" s="10"/>
       <c r="M125" s="9"/>
@@ -43108,7 +43339,7 @@
       <c r="E126" s="10"/>
       <c r="F126" s="9"/>
       <c r="I126" s="4"/>
-      <c r="J126" s="410"/>
+      <c r="J126" s="437"/>
       <c r="K126" s="10"/>
       <c r="L126" s="10"/>
       <c r="M126" s="10"/>
@@ -43634,10 +43865,10 @@
         <v>147</v>
       </c>
       <c r="L160" s="4"/>
-      <c r="M160" s="390" t="s">
+      <c r="M160" s="417" t="s">
         <v>73</v>
       </c>
-      <c r="N160" s="391"/>
+      <c r="N160" s="418"/>
       <c r="O160" s="287" t="s">
         <v>74</v>
       </c>

--- a/jee_latest_st.xlsx
+++ b/jee_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="7590" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="7590" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="network" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4754" uniqueCount="2185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4822" uniqueCount="2227">
   <si>
     <t>java server - tomcat</t>
   </si>
@@ -7616,6 +7616,132 @@
   </si>
   <si>
     <t>password=john123</t>
+  </si>
+  <si>
+    <t>Computers department</t>
+  </si>
+  <si>
+    <t>medical department</t>
+  </si>
+  <si>
+    <t>electronic department</t>
+  </si>
+  <si>
+    <t>University</t>
+  </si>
+  <si>
+    <t>redirect</t>
+  </si>
+  <si>
+    <t>Nasa Application form</t>
+  </si>
+  <si>
+    <t>Bank website</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;&gt;&gt;&gt; http login … john/john1! &gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;&lt;&lt;&lt;&lt; http welcome. Successful login &lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt; http check bank balance &gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt; http 100 $ &lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt; http transfer 50$ to friend &gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt; http successful transfer &lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>statless protocol</t>
+  </si>
+  <si>
+    <t>FORGOTTEN</t>
+  </si>
+  <si>
+    <t>cannot remember the state of conversation</t>
+  </si>
+  <si>
+    <t>www.java.com</t>
+  </si>
+  <si>
+    <t>product.png</t>
+  </si>
+  <si>
+    <t>ad.mp4</t>
+  </si>
+  <si>
+    <t>public class test{</t>
+  </si>
+  <si>
+    <t>@WebServlet("authentication")</t>
+  </si>
+  <si>
+    <t>Home - customer</t>
+  </si>
+  <si>
+    <t>http://www.java.com/welcome.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>http://www.java.com/ad.mp4</t>
+  </si>
+  <si>
+    <t>http://www.java.com/authentication</t>
+  </si>
+  <si>
+    <t>http alias name for java program</t>
+  </si>
+  <si>
+    <t>123.111.222.111</t>
+  </si>
+  <si>
+    <t>www amazon.com</t>
+  </si>
+  <si>
+    <t>movie</t>
+  </si>
+  <si>
+    <t>elecronitc</t>
+  </si>
+  <si>
+    <t>tshirt</t>
+  </si>
+  <si>
+    <t>caching</t>
+  </si>
+  <si>
+    <t>memory</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;&gt;&gt;&gt; Request &gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;  Response &lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>Http transaaction</t>
+  </si>
+  <si>
+    <t>transfer</t>
+  </si>
+  <si>
+    <t>john/john1!</t>
+  </si>
+  <si>
+    <t>Server program</t>
+  </si>
+  <si>
+    <t>Request : data transferred FROM customer TO website</t>
   </si>
 </sst>
 </file>
@@ -8412,7 +8538,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="599">
+  <cellXfs count="601">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -9243,6 +9369,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -9273,24 +9417,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -9299,6 +9425,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -9330,9 +9459,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9342,8 +9468,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -9396,63 +9579,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9498,52 +9624,22 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9606,18 +9702,50 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -12422,27 +12550,34 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q201"/>
+  <dimension ref="A1:Q307"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="I194" sqref="I194"/>
+    <sheetView tabSelected="1" topLeftCell="A150" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I155" sqref="F155:I155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="600" t="s">
         <v>1540</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="F1" s="600"/>
+      <c r="G1" s="600"/>
+      <c r="H1" s="600"/>
+      <c r="I1" s="600" t="s">
         <v>1541</v>
       </c>
+      <c r="J1" s="600"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="E2" t="s">
+      <c r="E2" s="229" t="s">
         <v>808</v>
       </c>
-      <c r="I2" t="s">
+      <c r="F2" s="229"/>
+      <c r="G2" s="229"/>
+      <c r="H2" s="229"/>
+      <c r="I2" s="229" t="s">
         <v>809</v>
       </c>
       <c r="N2" t="s">
@@ -12450,30 +12585,28 @@
       </c>
     </row>
     <row r="3" spans="1:15">
+      <c r="B3" t="s">
+        <v>811</v>
+      </c>
+      <c r="E3" t="s">
+        <v>747</v>
+      </c>
+      <c r="I3" t="s">
+        <v>748</v>
+      </c>
       <c r="N3" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
-      <c r="B4" t="s">
-        <v>813</v>
-      </c>
-      <c r="E4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I4" t="s">
-        <v>810</v>
-      </c>
-    </row>
     <row r="5" spans="1:15">
       <c r="B5" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="E5" t="s">
-        <v>747</v>
+        <v>95</v>
       </c>
       <c r="I5" t="s">
-        <v>748</v>
+        <v>810</v>
       </c>
       <c r="N5" t="s">
         <v>1556</v>
@@ -13751,6 +13884,91 @@
       <c r="K150" s="10"/>
       <c r="L150" s="9"/>
     </row>
+    <row r="152" spans="3:13" ht="15.75" thickBot="1"/>
+    <row r="153" spans="3:13">
+      <c r="C153" s="1" t="s">
+        <v>2219</v>
+      </c>
+      <c r="D153" s="2"/>
+      <c r="E153" s="3"/>
+      <c r="F153" t="s">
+        <v>2222</v>
+      </c>
+      <c r="J153" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="K153" s="2"/>
+      <c r="L153" s="3"/>
+    </row>
+    <row r="154" spans="3:13">
+      <c r="C154" s="4" t="s">
+        <v>2224</v>
+      </c>
+      <c r="D154" s="5"/>
+      <c r="E154" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F154" t="s">
+        <v>2220</v>
+      </c>
+      <c r="J154" s="4"/>
+      <c r="K154" s="5" t="s">
+        <v>2225</v>
+      </c>
+      <c r="L154" s="6"/>
+    </row>
+    <row r="155" spans="3:13">
+      <c r="C155" s="4"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="6" t="s">
+        <v>874</v>
+      </c>
+      <c r="F155" t="s">
+        <v>2221</v>
+      </c>
+      <c r="J155" s="4"/>
+      <c r="K155" s="5"/>
+      <c r="L155" s="6"/>
+    </row>
+    <row r="156" spans="3:13">
+      <c r="C156" s="4"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="6"/>
+      <c r="J156" s="4"/>
+      <c r="K156" s="5"/>
+      <c r="L156" s="6"/>
+    </row>
+    <row r="157" spans="3:13">
+      <c r="C157" s="4"/>
+      <c r="D157" s="5"/>
+      <c r="E157" s="6" t="s">
+        <v>2223</v>
+      </c>
+      <c r="F157" t="s">
+        <v>2220</v>
+      </c>
+      <c r="J157" s="4"/>
+      <c r="K157" s="5"/>
+      <c r="L157" s="6"/>
+    </row>
+    <row r="158" spans="3:13" ht="15.75" thickBot="1">
+      <c r="C158" s="8"/>
+      <c r="D158" s="10"/>
+      <c r="E158" s="9" t="s">
+        <v>981</v>
+      </c>
+      <c r="F158" t="s">
+        <v>2221</v>
+      </c>
+      <c r="J158" s="8"/>
+      <c r="K158" s="10"/>
+      <c r="L158" s="9"/>
+    </row>
+    <row r="160" spans="3:13">
+      <c r="E160" t="s">
+        <v>2226</v>
+      </c>
+    </row>
     <row r="183" spans="2:15" ht="15.75" thickBot="1">
       <c r="K183" t="s">
         <v>1602</v>
@@ -13922,7 +14140,604 @@
       <c r="N201" s="10"/>
       <c r="O201" s="9"/>
     </row>
+    <row r="244" spans="2:16" ht="15.75" thickBot="1"/>
+    <row r="245" spans="2:16" ht="15.75" thickBot="1">
+      <c r="K245" s="1" t="s">
+        <v>2188</v>
+      </c>
+      <c r="L245" s="2"/>
+      <c r="M245" s="2"/>
+      <c r="N245" s="2"/>
+      <c r="O245" s="2"/>
+      <c r="P245" s="3"/>
+    </row>
+    <row r="246" spans="2:16">
+      <c r="K246" s="4"/>
+      <c r="L246" s="1" t="s">
+        <v>2185</v>
+      </c>
+      <c r="M246" s="2"/>
+      <c r="N246" s="3"/>
+      <c r="O246" s="5"/>
+      <c r="P246" s="6"/>
+    </row>
+    <row r="247" spans="2:16" ht="15.75" thickBot="1">
+      <c r="K247" s="4"/>
+      <c r="L247" s="4"/>
+      <c r="M247" s="5"/>
+      <c r="N247" s="6"/>
+      <c r="O247" s="26"/>
+      <c r="P247" s="34"/>
+    </row>
+    <row r="248" spans="2:16" ht="15.75" thickBot="1">
+      <c r="B248" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C248" s="2"/>
+      <c r="D248" s="3"/>
+      <c r="K248" s="4"/>
+      <c r="L248" s="8"/>
+      <c r="M248" s="10"/>
+      <c r="N248" s="9"/>
+      <c r="O248" s="5"/>
+      <c r="P248" s="34"/>
+    </row>
+    <row r="249" spans="2:16" ht="15.75" thickBot="1">
+      <c r="B249" s="4"/>
+      <c r="C249" s="5"/>
+      <c r="D249" s="6"/>
+      <c r="K249" s="4"/>
+      <c r="L249" s="5"/>
+      <c r="M249" s="5"/>
+      <c r="N249" s="5"/>
+      <c r="O249" s="5"/>
+      <c r="P249" s="34"/>
+    </row>
+    <row r="250" spans="2:16">
+      <c r="B250" s="4"/>
+      <c r="C250" s="5"/>
+      <c r="D250" s="6"/>
+      <c r="E250" t="s">
+        <v>2190</v>
+      </c>
+      <c r="K250" s="4"/>
+      <c r="L250" s="1" t="s">
+        <v>2186</v>
+      </c>
+      <c r="M250" s="2"/>
+      <c r="N250" s="3"/>
+      <c r="O250" s="5"/>
+      <c r="P250" s="34"/>
+    </row>
+    <row r="251" spans="2:16">
+      <c r="B251" s="4"/>
+      <c r="C251" s="5"/>
+      <c r="D251" s="6"/>
+      <c r="F251" s="35"/>
+      <c r="K251" s="4"/>
+      <c r="L251" s="4"/>
+      <c r="M251" s="5"/>
+      <c r="N251" s="6"/>
+      <c r="O251" s="5"/>
+      <c r="P251" s="34"/>
+    </row>
+    <row r="252" spans="2:16">
+      <c r="B252" s="4"/>
+      <c r="C252" s="5"/>
+      <c r="D252" s="6"/>
+      <c r="F252" s="35"/>
+      <c r="K252" s="4"/>
+      <c r="L252" s="4"/>
+      <c r="M252" s="5"/>
+      <c r="N252" s="6"/>
+      <c r="O252" s="5"/>
+      <c r="P252" s="34" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="253" spans="2:16" ht="15.75" thickBot="1">
+      <c r="B253" s="8"/>
+      <c r="C253" s="10"/>
+      <c r="D253" s="9"/>
+      <c r="F253" s="35"/>
+      <c r="K253" s="4"/>
+      <c r="L253" s="8"/>
+      <c r="M253" s="10"/>
+      <c r="N253" s="9"/>
+      <c r="O253" s="5"/>
+      <c r="P253" s="34"/>
+    </row>
+    <row r="254" spans="2:16" ht="15.75" thickBot="1">
+      <c r="F254" s="35"/>
+      <c r="K254" s="4"/>
+      <c r="L254" s="5"/>
+      <c r="M254" s="5"/>
+      <c r="N254" s="5"/>
+      <c r="O254" s="5"/>
+      <c r="P254" s="34"/>
+    </row>
+    <row r="255" spans="2:16">
+      <c r="F255" s="35"/>
+      <c r="K255" s="4"/>
+      <c r="L255" s="1" t="s">
+        <v>2187</v>
+      </c>
+      <c r="M255" s="2"/>
+      <c r="N255" s="3"/>
+      <c r="O255" s="5"/>
+      <c r="P255" s="34"/>
+    </row>
+    <row r="256" spans="2:16">
+      <c r="F256" s="35"/>
+      <c r="G256" s="35"/>
+      <c r="H256" s="35"/>
+      <c r="I256" s="35"/>
+      <c r="J256" s="35"/>
+      <c r="K256" s="30"/>
+      <c r="L256" s="4"/>
+      <c r="M256" s="5"/>
+      <c r="N256" s="6"/>
+      <c r="O256" s="5"/>
+      <c r="P256" s="34"/>
+    </row>
+    <row r="257" spans="2:16">
+      <c r="K257" s="4"/>
+      <c r="L257" s="4"/>
+      <c r="M257" s="5"/>
+      <c r="N257" s="6"/>
+      <c r="O257" s="26"/>
+      <c r="P257" s="34"/>
+    </row>
+    <row r="258" spans="2:16" ht="15.75" thickBot="1">
+      <c r="K258" s="4"/>
+      <c r="L258" s="8"/>
+      <c r="M258" s="10"/>
+      <c r="N258" s="9"/>
+      <c r="O258" s="5"/>
+      <c r="P258" s="6"/>
+    </row>
+    <row r="259" spans="2:16">
+      <c r="K259" s="4"/>
+      <c r="L259" s="5"/>
+      <c r="M259" s="5"/>
+      <c r="N259" s="5"/>
+      <c r="O259" s="5"/>
+      <c r="P259" s="6"/>
+    </row>
+    <row r="260" spans="2:16">
+      <c r="K260" s="4"/>
+      <c r="L260" s="5"/>
+      <c r="M260" s="5"/>
+      <c r="N260" s="5"/>
+      <c r="O260" s="5"/>
+      <c r="P260" s="6"/>
+    </row>
+    <row r="261" spans="2:16">
+      <c r="K261" s="4"/>
+      <c r="L261" s="5"/>
+      <c r="M261" s="5"/>
+      <c r="N261" s="5"/>
+      <c r="O261" s="5"/>
+      <c r="P261" s="6"/>
+    </row>
+    <row r="262" spans="2:16">
+      <c r="K262" s="4"/>
+      <c r="L262" s="5"/>
+      <c r="M262" s="5"/>
+      <c r="N262" s="5"/>
+      <c r="O262" s="5"/>
+      <c r="P262" s="6"/>
+    </row>
+    <row r="263" spans="2:16" ht="15.75" thickBot="1">
+      <c r="K263" s="8"/>
+      <c r="L263" s="10"/>
+      <c r="M263" s="10"/>
+      <c r="N263" s="10"/>
+      <c r="O263" s="10"/>
+      <c r="P263" s="9"/>
+    </row>
+    <row r="264" spans="2:16">
+      <c r="F264" t="s">
+        <v>2198</v>
+      </c>
+      <c r="H264" t="s">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="265" spans="2:16" ht="15.75" thickBot="1">
+      <c r="F265" t="s">
+        <v>1679</v>
+      </c>
+      <c r="K265" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="266" spans="2:16">
+      <c r="B266" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C266" s="2"/>
+      <c r="D266" s="2"/>
+      <c r="E266" s="3"/>
+      <c r="K266" s="1"/>
+      <c r="L266" s="2"/>
+      <c r="M266" s="2"/>
+      <c r="N266" s="2"/>
+      <c r="O266" s="2"/>
+      <c r="P266" s="3"/>
+    </row>
+    <row r="267" spans="2:16" ht="15.75" thickBot="1">
+      <c r="B267" s="36" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C267" s="5"/>
+      <c r="D267" s="5"/>
+      <c r="E267" s="6"/>
+      <c r="K267" s="4"/>
+      <c r="L267" s="5"/>
+      <c r="M267" s="5"/>
+      <c r="N267" s="5"/>
+      <c r="O267" s="5"/>
+      <c r="P267" s="6"/>
+    </row>
+    <row r="268" spans="2:16">
+      <c r="B268" s="4"/>
+      <c r="C268" s="5"/>
+      <c r="D268" s="5"/>
+      <c r="E268" s="6"/>
+      <c r="F268" t="s">
+        <v>2192</v>
+      </c>
+      <c r="K268" s="4"/>
+      <c r="L268" s="465" t="s">
+        <v>2199</v>
+      </c>
+      <c r="M268" s="5"/>
+      <c r="N268" s="5"/>
+      <c r="O268" s="5"/>
+      <c r="P268" s="6"/>
+    </row>
+    <row r="269" spans="2:16" ht="15.75" thickBot="1">
+      <c r="B269" s="4"/>
+      <c r="C269" s="5"/>
+      <c r="D269" s="5"/>
+      <c r="E269" s="6"/>
+      <c r="F269" t="s">
+        <v>2193</v>
+      </c>
+      <c r="K269" s="4"/>
+      <c r="L269" s="467"/>
+      <c r="M269" s="5"/>
+      <c r="N269" s="5"/>
+      <c r="O269" s="5"/>
+      <c r="P269" s="6"/>
+    </row>
+    <row r="270" spans="2:16">
+      <c r="B270" s="4"/>
+      <c r="C270" s="5"/>
+      <c r="D270" s="5"/>
+      <c r="E270" s="6"/>
+      <c r="K270" s="4"/>
+      <c r="L270" s="5"/>
+      <c r="M270" s="5"/>
+      <c r="N270" s="5"/>
+      <c r="O270" s="5"/>
+      <c r="P270" s="6"/>
+    </row>
+    <row r="271" spans="2:16">
+      <c r="B271" s="4"/>
+      <c r="C271" s="5"/>
+      <c r="D271" s="5"/>
+      <c r="E271" s="6"/>
+      <c r="K271" s="4"/>
+      <c r="L271" s="5"/>
+      <c r="M271" s="5"/>
+      <c r="N271" s="5"/>
+      <c r="O271" s="5"/>
+      <c r="P271" s="6"/>
+    </row>
+    <row r="272" spans="2:16">
+      <c r="B272" s="4"/>
+      <c r="C272" s="5"/>
+      <c r="D272" s="5"/>
+      <c r="E272" s="6"/>
+      <c r="F272" s="153" t="s">
+        <v>2194</v>
+      </c>
+      <c r="G272" s="153"/>
+      <c r="H272" s="153"/>
+      <c r="I272" s="153"/>
+      <c r="J272" s="153"/>
+      <c r="K272" s="4"/>
+      <c r="L272" s="5"/>
+      <c r="M272" s="5"/>
+      <c r="N272" s="5"/>
+      <c r="O272" s="5"/>
+      <c r="P272" s="6"/>
+    </row>
+    <row r="273" spans="2:16">
+      <c r="B273" s="4"/>
+      <c r="C273" s="5"/>
+      <c r="D273" s="5"/>
+      <c r="E273" s="6"/>
+      <c r="F273" s="153" t="s">
+        <v>2195</v>
+      </c>
+      <c r="G273" s="153"/>
+      <c r="H273" s="153"/>
+      <c r="I273" s="153"/>
+      <c r="J273" s="153"/>
+      <c r="K273" s="4"/>
+      <c r="L273" s="5"/>
+      <c r="M273" s="5"/>
+      <c r="N273" s="5"/>
+      <c r="O273" s="5"/>
+      <c r="P273" s="6"/>
+    </row>
+    <row r="274" spans="2:16">
+      <c r="B274" s="4"/>
+      <c r="C274" s="5"/>
+      <c r="D274" s="5"/>
+      <c r="E274" s="6"/>
+      <c r="F274" s="153"/>
+      <c r="G274" s="153"/>
+      <c r="H274" s="153"/>
+      <c r="I274" s="153"/>
+      <c r="J274" s="153"/>
+      <c r="K274" s="4"/>
+      <c r="L274" s="5"/>
+      <c r="M274" s="5"/>
+      <c r="N274" s="5"/>
+      <c r="O274" s="5"/>
+      <c r="P274" s="6"/>
+    </row>
+    <row r="275" spans="2:16">
+      <c r="B275" s="4"/>
+      <c r="C275" s="5"/>
+      <c r="D275" s="5"/>
+      <c r="E275" s="6"/>
+      <c r="F275" s="153"/>
+      <c r="G275" s="153"/>
+      <c r="H275" s="153"/>
+      <c r="I275" s="153"/>
+      <c r="J275" s="153"/>
+      <c r="K275" s="4"/>
+      <c r="L275" s="5"/>
+      <c r="M275" s="5"/>
+      <c r="N275" s="5"/>
+      <c r="O275" s="5"/>
+      <c r="P275" s="6"/>
+    </row>
+    <row r="276" spans="2:16">
+      <c r="B276" s="4"/>
+      <c r="C276" s="5"/>
+      <c r="D276" s="5"/>
+      <c r="E276" s="6"/>
+      <c r="F276" s="153" t="s">
+        <v>2196</v>
+      </c>
+      <c r="G276" s="153"/>
+      <c r="H276" s="153"/>
+      <c r="I276" s="153"/>
+      <c r="J276" s="153"/>
+      <c r="K276" s="4"/>
+      <c r="L276" s="5"/>
+      <c r="M276" s="5"/>
+      <c r="N276" s="5"/>
+      <c r="O276" s="5"/>
+      <c r="P276" s="6"/>
+    </row>
+    <row r="277" spans="2:16">
+      <c r="B277" s="4"/>
+      <c r="C277" s="5"/>
+      <c r="D277" s="5"/>
+      <c r="E277" s="6"/>
+      <c r="F277" s="153" t="s">
+        <v>2197</v>
+      </c>
+      <c r="G277" s="153"/>
+      <c r="H277" s="153"/>
+      <c r="I277" s="153"/>
+      <c r="J277" s="153"/>
+      <c r="K277" s="4"/>
+      <c r="L277" s="5"/>
+      <c r="M277" s="5"/>
+      <c r="N277" s="5"/>
+      <c r="O277" s="5"/>
+      <c r="P277" s="6"/>
+    </row>
+    <row r="278" spans="2:16">
+      <c r="B278" s="4"/>
+      <c r="C278" s="5"/>
+      <c r="D278" s="5"/>
+      <c r="E278" s="6"/>
+      <c r="K278" s="4"/>
+      <c r="L278" s="5"/>
+      <c r="M278" s="5"/>
+      <c r="N278" s="5"/>
+      <c r="O278" s="5"/>
+      <c r="P278" s="6"/>
+    </row>
+    <row r="279" spans="2:16">
+      <c r="B279" s="4"/>
+      <c r="C279" s="5"/>
+      <c r="D279" s="5"/>
+      <c r="E279" s="6"/>
+      <c r="K279" s="4"/>
+      <c r="L279" s="5"/>
+      <c r="M279" s="5"/>
+      <c r="N279" s="5"/>
+      <c r="O279" s="5"/>
+      <c r="P279" s="6"/>
+    </row>
+    <row r="280" spans="2:16" ht="15.75" thickBot="1">
+      <c r="B280" s="8"/>
+      <c r="C280" s="10"/>
+      <c r="D280" s="10"/>
+      <c r="E280" s="9"/>
+      <c r="K280" s="8"/>
+      <c r="L280" s="10"/>
+      <c r="M280" s="10"/>
+      <c r="N280" s="10"/>
+      <c r="O280" s="10"/>
+      <c r="P280" s="9"/>
+    </row>
+    <row r="288" spans="2:16" ht="15.75" thickBot="1"/>
+    <row r="289" spans="1:6" ht="15.75" thickBot="1">
+      <c r="C289" s="1"/>
+      <c r="D289" s="2"/>
+      <c r="E289" s="2"/>
+      <c r="F289" s="3"/>
+    </row>
+    <row r="290" spans="1:6">
+      <c r="C290" s="1" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D290" s="3"/>
+      <c r="E290" s="1" t="s">
+        <v>1637</v>
+      </c>
+      <c r="F290" s="3"/>
+    </row>
+    <row r="291" spans="1:6">
+      <c r="C291" s="4"/>
+      <c r="D291" s="6"/>
+      <c r="E291" s="4"/>
+      <c r="F291" s="6"/>
+    </row>
+    <row r="292" spans="1:6">
+      <c r="C292" s="4"/>
+      <c r="D292" s="6"/>
+      <c r="E292" s="4"/>
+      <c r="F292" s="6"/>
+    </row>
+    <row r="293" spans="1:6">
+      <c r="C293" s="4"/>
+      <c r="D293" s="6"/>
+      <c r="E293" s="4"/>
+      <c r="F293" s="6"/>
+    </row>
+    <row r="294" spans="1:6">
+      <c r="C294" s="4"/>
+      <c r="D294" s="6"/>
+      <c r="E294" s="4"/>
+      <c r="F294" s="6"/>
+    </row>
+    <row r="295" spans="1:6" ht="15.75" thickBot="1">
+      <c r="C295" s="8"/>
+      <c r="D295" s="9"/>
+      <c r="E295" s="8"/>
+      <c r="F295" s="9"/>
+    </row>
+    <row r="296" spans="1:6">
+      <c r="A296" t="s">
+        <v>821</v>
+      </c>
+      <c r="C296" s="4"/>
+      <c r="D296" s="5"/>
+      <c r="E296" s="5"/>
+      <c r="F296" s="6"/>
+    </row>
+    <row r="297" spans="1:6">
+      <c r="A297" t="s">
+        <v>2217</v>
+      </c>
+      <c r="C297" s="4" t="s">
+        <v>2214</v>
+      </c>
+      <c r="D297" s="5" t="s">
+        <v>2215</v>
+      </c>
+      <c r="E297" s="5"/>
+      <c r="F297" s="6"/>
+    </row>
+    <row r="298" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A298" t="s">
+        <v>2218</v>
+      </c>
+      <c r="C298" s="8" t="s">
+        <v>2216</v>
+      </c>
+      <c r="D298" s="25" t="s">
+        <v>1923</v>
+      </c>
+      <c r="E298" s="10"/>
+      <c r="F298" s="9"/>
+    </row>
+    <row r="299" spans="1:6">
+      <c r="C299" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D299" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
+      <c r="C300" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D300" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" ht="15.75" thickBot="1">
+      <c r="C301" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D301" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6">
+      <c r="C302" s="1" t="s">
+        <v>2213</v>
+      </c>
+      <c r="D302" s="2"/>
+      <c r="E302" s="2"/>
+      <c r="F302" s="3"/>
+    </row>
+    <row r="303" spans="1:6">
+      <c r="C303" s="189" t="s">
+        <v>2214</v>
+      </c>
+      <c r="D303" s="143" t="s">
+        <v>2215</v>
+      </c>
+      <c r="E303" s="5"/>
+      <c r="F303" s="6"/>
+    </row>
+    <row r="304" spans="1:6">
+      <c r="C304" s="189" t="s">
+        <v>2216</v>
+      </c>
+      <c r="D304" s="143"/>
+      <c r="E304" s="5"/>
+      <c r="F304" s="6"/>
+    </row>
+    <row r="305" spans="3:6">
+      <c r="C305" s="189" t="s">
+        <v>1923</v>
+      </c>
+      <c r="D305" s="143"/>
+      <c r="E305" s="5"/>
+      <c r="F305" s="6"/>
+    </row>
+    <row r="306" spans="3:6">
+      <c r="C306" s="4"/>
+      <c r="D306" s="5"/>
+      <c r="E306" s="5"/>
+      <c r="F306" s="6"/>
+    </row>
+    <row r="307" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C307" s="8"/>
+      <c r="D307" s="10"/>
+      <c r="E307" s="10"/>
+      <c r="F307" s="9"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L268:L269"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="N55" r:id="rId1" display="account@"/>
     <hyperlink ref="N50" r:id="rId2"/>
@@ -13932,9 +14747,10 @@
     <hyperlink ref="N95" r:id="rId6"/>
     <hyperlink ref="N121" r:id="rId7" display="account@"/>
     <hyperlink ref="N116" r:id="rId8"/>
+    <hyperlink ref="B267" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId9"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -13942,8 +14758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X293"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:Q16"/>
+    <sheetView topLeftCell="B49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M75" sqref="M75:N83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15224,6 +16040,167 @@
       <c r="C70" s="10"/>
       <c r="D70" s="9"/>
     </row>
+    <row r="72" spans="2:16" ht="15.75" thickBot="1">
+      <c r="I72" t="s">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16">
+      <c r="I73" s="27" t="s">
+        <v>2201</v>
+      </c>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" ht="15.75" thickBot="1">
+      <c r="I74" s="4"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="5"/>
+      <c r="M74" s="5" t="s">
+        <v>2211</v>
+      </c>
+      <c r="N74" s="5"/>
+      <c r="O74" s="6"/>
+    </row>
+    <row r="75" spans="2:16">
+      <c r="C75" s="1" t="s">
+        <v>2206</v>
+      </c>
+      <c r="D75" s="3"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="177" t="s">
+        <v>23</v>
+      </c>
+      <c r="L75" s="5"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="3"/>
+      <c r="O75" s="6"/>
+    </row>
+    <row r="76" spans="2:16">
+      <c r="C76" s="4"/>
+      <c r="D76" s="6"/>
+      <c r="E76" t="s">
+        <v>2208</v>
+      </c>
+      <c r="I76" s="4"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="178"/>
+      <c r="L76" s="5"/>
+      <c r="M76" s="599" t="s">
+        <v>2205</v>
+      </c>
+      <c r="N76" s="6"/>
+      <c r="O76" s="6"/>
+    </row>
+    <row r="77" spans="2:16" ht="15.75" thickBot="1">
+      <c r="C77" s="36" t="s">
+        <v>2207</v>
+      </c>
+      <c r="D77" s="6"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="179"/>
+      <c r="L77" s="5"/>
+      <c r="M77" s="4" t="s">
+        <v>2204</v>
+      </c>
+      <c r="N77" s="6"/>
+      <c r="O77" s="6"/>
+    </row>
+    <row r="78" spans="2:16" ht="15.75" thickBot="1">
+      <c r="C78" s="36" t="s">
+        <v>2209</v>
+      </c>
+      <c r="D78" s="6"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
+      <c r="L78" s="5"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="6"/>
+      <c r="O78" s="6"/>
+    </row>
+    <row r="79" spans="2:16">
+      <c r="C79" s="36" t="s">
+        <v>2210</v>
+      </c>
+      <c r="D79" s="6"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="177" t="s">
+        <v>2202</v>
+      </c>
+      <c r="L79" s="5"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="6"/>
+      <c r="O79" s="6"/>
+    </row>
+    <row r="80" spans="2:16" ht="15.75" thickBot="1">
+      <c r="C80" s="8"/>
+      <c r="D80" s="9"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="179"/>
+      <c r="L80" s="5"/>
+      <c r="M80" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="N80" s="6"/>
+      <c r="O80" s="6"/>
+    </row>
+    <row r="81" spans="9:15" ht="15.75" thickBot="1">
+      <c r="I81" s="4"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
+      <c r="L81" s="5"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="6"/>
+      <c r="O81" s="6"/>
+    </row>
+    <row r="82" spans="9:15">
+      <c r="I82" s="4"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="177" t="s">
+        <v>2203</v>
+      </c>
+      <c r="L82" s="5"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="6"/>
+      <c r="O82" s="6"/>
+    </row>
+    <row r="83" spans="9:15" ht="15.75" thickBot="1">
+      <c r="I83" s="4"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="179"/>
+      <c r="L83" s="5"/>
+      <c r="M83" s="8"/>
+      <c r="N83" s="9"/>
+      <c r="O83" s="6"/>
+    </row>
+    <row r="84" spans="9:15">
+      <c r="I84" s="4"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="5"/>
+      <c r="L84" s="5"/>
+      <c r="M84" s="5"/>
+      <c r="N84" s="5"/>
+      <c r="O84" s="6"/>
+    </row>
+    <row r="85" spans="9:15" ht="15.75" thickBot="1">
+      <c r="I85" s="8"/>
+      <c r="J85" s="10"/>
+      <c r="K85" s="10"/>
+      <c r="L85" s="10"/>
+      <c r="M85" s="10"/>
+      <c r="N85" s="10"/>
+      <c r="O85" s="9"/>
+    </row>
     <row r="102" spans="1:19" ht="15.75" thickBot="1">
       <c r="A102" s="16" t="s">
         <v>454</v>
@@ -16615,9 +17592,13 @@
     <hyperlink ref="K200" r:id="rId15"/>
     <hyperlink ref="A207" r:id="rId16"/>
     <hyperlink ref="H209" r:id="rId17"/>
+    <hyperlink ref="I73" r:id="rId18"/>
+    <hyperlink ref="C77" r:id="rId19"/>
+    <hyperlink ref="C78" r:id="rId20"/>
+    <hyperlink ref="C79" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId18"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
 
@@ -28523,18 +29504,18 @@
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1">
       <c r="D6" s="4"/>
-      <c r="E6" s="484" t="s">
+      <c r="E6" s="474" t="s">
         <v>244</v>
       </c>
-      <c r="F6" s="485"/>
-      <c r="G6" s="486" t="s">
+      <c r="F6" s="475"/>
+      <c r="G6" s="476" t="s">
         <v>57</v>
       </c>
-      <c r="H6" s="486"/>
-      <c r="I6" s="486"/>
-      <c r="J6" s="486"/>
-      <c r="K6" s="486"/>
-      <c r="L6" s="485"/>
+      <c r="H6" s="476"/>
+      <c r="I6" s="476"/>
+      <c r="J6" s="476"/>
+      <c r="K6" s="476"/>
+      <c r="L6" s="475"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="26" t="s">
@@ -28547,7 +29528,7 @@
       <c r="B7" t="s">
         <v>1260</v>
       </c>
-      <c r="D7" s="480">
+      <c r="D7" s="486">
         <v>80</v>
       </c>
       <c r="E7" s="119"/>
@@ -28565,7 +29546,7 @@
       <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1">
-      <c r="D8" s="480"/>
+      <c r="D8" s="486"/>
       <c r="E8" s="106" t="s">
         <v>246</v>
       </c>
@@ -28598,7 +29579,7 @@
       <c r="B9" t="s">
         <v>245</v>
       </c>
-      <c r="D9" s="480"/>
+      <c r="D9" s="486"/>
       <c r="E9" s="121"/>
       <c r="F9" s="246"/>
       <c r="G9" s="121"/>
@@ -28625,7 +29606,7 @@
       <c r="A10" t="s">
         <v>1265</v>
       </c>
-      <c r="D10" s="480"/>
+      <c r="D10" s="486"/>
       <c r="E10" s="119"/>
       <c r="F10" s="120"/>
       <c r="G10" s="119"/>
@@ -28652,7 +29633,7 @@
       <c r="B11" t="s">
         <v>1693</v>
       </c>
-      <c r="D11" s="480"/>
+      <c r="D11" s="486"/>
       <c r="E11" s="106" t="s">
         <v>250</v>
       </c>
@@ -28681,7 +29662,7 @@
       <c r="B12" s="156" t="s">
         <v>254</v>
       </c>
-      <c r="D12" s="480"/>
+      <c r="D12" s="486"/>
       <c r="E12" s="121"/>
       <c r="F12" s="246"/>
       <c r="G12" s="121"/>
@@ -28702,7 +29683,7 @@
       <c r="B13" t="s">
         <v>1261</v>
       </c>
-      <c r="D13" s="480"/>
+      <c r="D13" s="486"/>
       <c r="E13" s="119"/>
       <c r="F13" s="120"/>
       <c r="G13" s="119"/>
@@ -28721,7 +29702,7 @@
       <c r="B14" t="s">
         <v>1262</v>
       </c>
-      <c r="D14" s="480"/>
+      <c r="D14" s="486"/>
       <c r="E14" s="106" t="s">
         <v>255</v>
       </c>
@@ -28748,7 +29729,7 @@
       <c r="B15" t="s">
         <v>1263</v>
       </c>
-      <c r="D15" s="480"/>
+      <c r="D15" s="486"/>
       <c r="E15" s="121"/>
       <c r="F15" s="246"/>
       <c r="G15" s="121"/>
@@ -28767,7 +29748,7 @@
       <c r="B16" t="s">
         <v>1264</v>
       </c>
-      <c r="D16" s="480"/>
+      <c r="D16" s="486"/>
       <c r="E16" s="119"/>
       <c r="F16" s="120"/>
       <c r="G16" s="24"/>
@@ -28785,7 +29766,7 @@
       <c r="Q16" s="6"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1">
-      <c r="D17" s="480"/>
+      <c r="D17" s="486"/>
       <c r="E17" s="106" t="s">
         <v>259</v>
       </c>
@@ -28814,7 +29795,7 @@
       <c r="A18" t="s">
         <v>1691</v>
       </c>
-      <c r="D18" s="480"/>
+      <c r="D18" s="486"/>
       <c r="E18" s="121"/>
       <c r="F18" s="246"/>
       <c r="G18" s="47"/>
@@ -28834,20 +29815,20 @@
         <v>1692</v>
       </c>
       <c r="D19" s="8"/>
-      <c r="E19" s="487" t="s">
+      <c r="E19" s="477" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="488"/>
-      <c r="G19" s="487" t="s">
+      <c r="F19" s="478"/>
+      <c r="G19" s="477" t="s">
         <v>74</v>
       </c>
-      <c r="H19" s="488"/>
-      <c r="I19" s="487" t="s">
+      <c r="H19" s="478"/>
+      <c r="I19" s="477" t="s">
         <v>75</v>
       </c>
-      <c r="J19" s="489"/>
-      <c r="K19" s="489"/>
-      <c r="L19" s="488"/>
+      <c r="J19" s="479"/>
+      <c r="K19" s="479"/>
+      <c r="L19" s="478"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
@@ -28912,12 +29893,12 @@
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="481"/>
-      <c r="H24" s="481"/>
-      <c r="I24" s="481"/>
-      <c r="J24" s="481"/>
-      <c r="K24" s="481"/>
-      <c r="L24" s="481"/>
+      <c r="G24" s="487"/>
+      <c r="H24" s="487"/>
+      <c r="I24" s="487"/>
+      <c r="J24" s="487"/>
+      <c r="K24" s="487"/>
+      <c r="L24" s="487"/>
       <c r="O24" s="35" t="s">
         <v>58</v>
       </c>
@@ -29904,14 +30885,14 @@
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
       <c r="E97" s="6"/>
-      <c r="F97" s="482" t="s">
+      <c r="F97" s="488" t="s">
         <v>1118</v>
       </c>
       <c r="G97" s="473"/>
       <c r="H97" s="473"/>
       <c r="I97" s="473"/>
       <c r="J97" s="473"/>
-      <c r="K97" s="483"/>
+      <c r="K97" s="489"/>
       <c r="L97" s="4" t="s">
         <v>1250</v>
       </c>
@@ -31920,13 +32901,13 @@
       <c r="Q214" s="24"/>
     </row>
     <row r="215" spans="2:17">
-      <c r="B215" s="474" t="s">
+      <c r="B215" s="480" t="s">
         <v>1768</v>
       </c>
-      <c r="C215" s="477"/>
-      <c r="D215" s="477"/>
-      <c r="E215" s="477"/>
-      <c r="F215" s="478"/>
+      <c r="C215" s="483"/>
+      <c r="D215" s="483"/>
+      <c r="E215" s="483"/>
+      <c r="F215" s="484"/>
       <c r="G215" s="204"/>
       <c r="H215" s="204"/>
       <c r="I215" s="204"/>
@@ -31944,40 +32925,40 @@
       <c r="Q215" s="24"/>
     </row>
     <row r="216" spans="2:17">
-      <c r="B216" s="479"/>
-      <c r="C216" s="477"/>
-      <c r="D216" s="477"/>
-      <c r="E216" s="477"/>
-      <c r="F216" s="478"/>
+      <c r="B216" s="485"/>
+      <c r="C216" s="483"/>
+      <c r="D216" s="483"/>
+      <c r="E216" s="483"/>
+      <c r="F216" s="484"/>
       <c r="G216" s="24"/>
       <c r="H216" s="24"/>
       <c r="I216" s="24"/>
       <c r="J216" s="24"/>
-      <c r="K216" s="474" t="s">
+      <c r="K216" s="480" t="s">
         <v>1754</v>
       </c>
-      <c r="L216" s="475"/>
-      <c r="M216" s="475"/>
-      <c r="N216" s="475"/>
-      <c r="O216" s="476"/>
+      <c r="L216" s="481"/>
+      <c r="M216" s="481"/>
+      <c r="N216" s="481"/>
+      <c r="O216" s="482"/>
       <c r="P216" s="24"/>
       <c r="Q216" s="24"/>
     </row>
     <row r="217" spans="2:17">
-      <c r="B217" s="479"/>
-      <c r="C217" s="477"/>
-      <c r="D217" s="477"/>
-      <c r="E217" s="477"/>
-      <c r="F217" s="478"/>
+      <c r="B217" s="485"/>
+      <c r="C217" s="483"/>
+      <c r="D217" s="483"/>
+      <c r="E217" s="483"/>
+      <c r="F217" s="484"/>
       <c r="G217" s="24"/>
       <c r="H217" s="24"/>
       <c r="I217" s="24"/>
       <c r="J217" s="24"/>
-      <c r="K217" s="474"/>
-      <c r="L217" s="475"/>
-      <c r="M217" s="475"/>
-      <c r="N217" s="475"/>
-      <c r="O217" s="476"/>
+      <c r="K217" s="480"/>
+      <c r="L217" s="481"/>
+      <c r="M217" s="481"/>
+      <c r="N217" s="481"/>
+      <c r="O217" s="482"/>
       <c r="P217" s="24"/>
       <c r="Q217" s="24"/>
     </row>
@@ -32716,17 +33697,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:L19"/>
     <mergeCell ref="K216:O217"/>
     <mergeCell ref="B215:F217"/>
     <mergeCell ref="D7:D18"/>
     <mergeCell ref="G24:L24"/>
     <mergeCell ref="F97:K97"/>
     <mergeCell ref="E44:F45"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:L19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="P9" r:id="rId1"/>
@@ -34205,7 +35186,7 @@
       <c r="N20" s="33"/>
     </row>
     <row r="21" spans="3:14">
-      <c r="C21" s="503">
+      <c r="C21" s="493">
         <v>43909</v>
       </c>
       <c r="D21" s="492"/>
@@ -34225,7 +35206,7 @@
       <c r="N21" s="492"/>
     </row>
     <row r="22" spans="3:14">
-      <c r="C22" s="503"/>
+      <c r="C22" s="493"/>
       <c r="D22" s="492"/>
       <c r="E22" s="492"/>
       <c r="F22" s="492"/>
@@ -34243,7 +35224,7 @@
       <c r="N22" s="33"/>
     </row>
     <row r="23" spans="3:14">
-      <c r="C23" s="503"/>
+      <c r="C23" s="493"/>
       <c r="D23" s="492"/>
       <c r="E23" s="492"/>
       <c r="F23" s="492"/>
@@ -34259,7 +35240,7 @@
       <c r="N23" s="492"/>
     </row>
     <row r="24" spans="3:14">
-      <c r="C24" s="503"/>
+      <c r="C24" s="493"/>
       <c r="D24" s="492"/>
       <c r="E24" s="492"/>
       <c r="F24" s="492"/>
@@ -34298,16 +35279,16 @@
       <c r="C26" s="90">
         <v>43911</v>
       </c>
-      <c r="D26" s="493"/>
-      <c r="E26" s="494"/>
-      <c r="F26" s="494"/>
-      <c r="G26" s="494"/>
-      <c r="H26" s="495"/>
-      <c r="I26" s="500" t="s">
+      <c r="D26" s="494"/>
+      <c r="E26" s="495"/>
+      <c r="F26" s="495"/>
+      <c r="G26" s="495"/>
+      <c r="H26" s="496"/>
+      <c r="I26" s="501" t="s">
         <v>296</v>
       </c>
-      <c r="J26" s="493"/>
-      <c r="K26" s="495"/>
+      <c r="J26" s="494"/>
+      <c r="K26" s="496"/>
       <c r="L26" s="91" t="s">
         <v>297</v>
       </c>
@@ -34316,14 +35297,14 @@
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="33"/>
-      <c r="D27" s="496"/>
-      <c r="E27" s="481"/>
-      <c r="F27" s="481"/>
-      <c r="G27" s="481"/>
-      <c r="H27" s="497"/>
-      <c r="I27" s="501"/>
-      <c r="J27" s="496"/>
-      <c r="K27" s="497"/>
+      <c r="D27" s="497"/>
+      <c r="E27" s="487"/>
+      <c r="F27" s="487"/>
+      <c r="G27" s="487"/>
+      <c r="H27" s="498"/>
+      <c r="I27" s="502"/>
+      <c r="J27" s="497"/>
+      <c r="K27" s="498"/>
       <c r="L27" s="492" t="s">
         <v>301</v>
       </c>
@@ -34332,14 +35313,14 @@
     </row>
     <row r="28" spans="3:14">
       <c r="C28" s="33"/>
-      <c r="D28" s="496"/>
-      <c r="E28" s="481"/>
-      <c r="F28" s="481"/>
-      <c r="G28" s="481"/>
-      <c r="H28" s="497"/>
-      <c r="I28" s="501"/>
-      <c r="J28" s="496"/>
-      <c r="K28" s="497"/>
+      <c r="D28" s="497"/>
+      <c r="E28" s="487"/>
+      <c r="F28" s="487"/>
+      <c r="G28" s="487"/>
+      <c r="H28" s="498"/>
+      <c r="I28" s="502"/>
+      <c r="J28" s="497"/>
+      <c r="K28" s="498"/>
       <c r="L28" s="92" t="s">
         <v>296</v>
       </c>
@@ -34348,14 +35329,14 @@
     </row>
     <row r="29" spans="3:14">
       <c r="C29" s="33"/>
-      <c r="D29" s="498"/>
+      <c r="D29" s="499"/>
       <c r="E29" s="471"/>
       <c r="F29" s="471"/>
       <c r="G29" s="471"/>
-      <c r="H29" s="499"/>
-      <c r="I29" s="502"/>
-      <c r="J29" s="498"/>
-      <c r="K29" s="499"/>
+      <c r="H29" s="500"/>
+      <c r="I29" s="503"/>
+      <c r="J29" s="499"/>
+      <c r="K29" s="500"/>
       <c r="L29" s="93" t="s">
         <v>302</v>
       </c>
@@ -34420,7 +35401,7 @@
       <c r="N33" s="33"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="C34" s="503">
+      <c r="C34" s="493">
         <v>43909</v>
       </c>
       <c r="D34" s="492"/>
@@ -34438,7 +35419,7 @@
       <c r="N34" s="492"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="C35" s="503"/>
+      <c r="C35" s="493"/>
       <c r="D35" s="492"/>
       <c r="E35" s="492"/>
       <c r="F35" s="492"/>
@@ -34454,7 +35435,7 @@
       <c r="N35" s="33"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="C36" s="503"/>
+      <c r="C36" s="493"/>
       <c r="D36" s="492"/>
       <c r="E36" s="492"/>
       <c r="F36" s="492"/>
@@ -34470,7 +35451,7 @@
       <c r="N36" s="492"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="C37" s="503"/>
+      <c r="C37" s="493"/>
       <c r="D37" s="492"/>
       <c r="E37" s="492"/>
       <c r="F37" s="492"/>
@@ -34509,14 +35490,14 @@
       <c r="C39" s="90">
         <v>43911</v>
       </c>
-      <c r="D39" s="493"/>
-      <c r="E39" s="494"/>
-      <c r="F39" s="494"/>
-      <c r="G39" s="494"/>
-      <c r="H39" s="495"/>
-      <c r="I39" s="500"/>
-      <c r="J39" s="493"/>
-      <c r="K39" s="495"/>
+      <c r="D39" s="494"/>
+      <c r="E39" s="495"/>
+      <c r="F39" s="495"/>
+      <c r="G39" s="495"/>
+      <c r="H39" s="496"/>
+      <c r="I39" s="501"/>
+      <c r="J39" s="494"/>
+      <c r="K39" s="496"/>
       <c r="L39" s="91" t="s">
         <v>297</v>
       </c>
@@ -34525,14 +35506,14 @@
     </row>
     <row r="40" spans="1:14">
       <c r="C40" s="33"/>
-      <c r="D40" s="496"/>
-      <c r="E40" s="481"/>
-      <c r="F40" s="481"/>
-      <c r="G40" s="481"/>
-      <c r="H40" s="497"/>
-      <c r="I40" s="501"/>
-      <c r="J40" s="496"/>
-      <c r="K40" s="497"/>
+      <c r="D40" s="497"/>
+      <c r="E40" s="487"/>
+      <c r="F40" s="487"/>
+      <c r="G40" s="487"/>
+      <c r="H40" s="498"/>
+      <c r="I40" s="502"/>
+      <c r="J40" s="497"/>
+      <c r="K40" s="498"/>
       <c r="L40" s="492" t="s">
         <v>301</v>
       </c>
@@ -34541,14 +35522,14 @@
     </row>
     <row r="41" spans="1:14">
       <c r="C41" s="33"/>
-      <c r="D41" s="496"/>
-      <c r="E41" s="481"/>
-      <c r="F41" s="481"/>
-      <c r="G41" s="481"/>
-      <c r="H41" s="497"/>
-      <c r="I41" s="502"/>
-      <c r="J41" s="496"/>
-      <c r="K41" s="497"/>
+      <c r="D41" s="497"/>
+      <c r="E41" s="487"/>
+      <c r="F41" s="487"/>
+      <c r="G41" s="487"/>
+      <c r="H41" s="498"/>
+      <c r="I41" s="503"/>
+      <c r="J41" s="497"/>
+      <c r="K41" s="498"/>
       <c r="L41" s="92" t="s">
         <v>303</v>
       </c>
@@ -34557,16 +35538,16 @@
     </row>
     <row r="42" spans="1:14">
       <c r="C42" s="33"/>
-      <c r="D42" s="498"/>
+      <c r="D42" s="499"/>
       <c r="E42" s="471"/>
       <c r="F42" s="471"/>
       <c r="G42" s="471"/>
-      <c r="H42" s="499"/>
+      <c r="H42" s="500"/>
       <c r="I42" s="33" t="s">
         <v>294</v>
       </c>
-      <c r="J42" s="498"/>
-      <c r="K42" s="499"/>
+      <c r="J42" s="499"/>
+      <c r="K42" s="500"/>
       <c r="L42" s="93" t="s">
         <v>302</v>
       </c>
@@ -34878,12 +35859,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H42"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="J39:K42"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:H37"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="J34:K37"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="L36:N36"/>
     <mergeCell ref="C21:C24"/>
     <mergeCell ref="D21:H24"/>
     <mergeCell ref="J21:K24"/>
@@ -34891,17 +35877,12 @@
     <mergeCell ref="D26:H29"/>
     <mergeCell ref="I26:I29"/>
     <mergeCell ref="J26:K29"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:H37"/>
-    <mergeCell ref="I34:I37"/>
-    <mergeCell ref="J34:K37"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H42"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="J39:K42"/>
-    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="L27:N27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -35192,29 +36173,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="21">
-      <c r="B2" s="525" t="s">
+      <c r="B2" s="517" t="s">
         <v>750</v>
       </c>
-      <c r="C2" s="525"/>
-      <c r="D2" s="525"/>
-      <c r="E2" s="525"/>
-      <c r="F2" s="525"/>
-      <c r="G2" s="525"/>
-      <c r="H2" s="525"/>
-      <c r="I2" s="525"/>
-      <c r="J2" s="525"/>
-      <c r="K2" s="525"/>
-      <c r="L2" s="525"/>
-      <c r="M2" s="525"/>
-      <c r="N2" s="525"/>
-      <c r="O2" s="525"/>
-      <c r="P2" s="525"/>
-      <c r="Q2" s="525"/>
-      <c r="R2" s="525"/>
-      <c r="S2" s="525"/>
-      <c r="T2" s="525"/>
-      <c r="U2" s="525"/>
-      <c r="V2" s="525"/>
+      <c r="C2" s="517"/>
+      <c r="D2" s="517"/>
+      <c r="E2" s="517"/>
+      <c r="F2" s="517"/>
+      <c r="G2" s="517"/>
+      <c r="H2" s="517"/>
+      <c r="I2" s="517"/>
+      <c r="J2" s="517"/>
+      <c r="K2" s="517"/>
+      <c r="L2" s="517"/>
+      <c r="M2" s="517"/>
+      <c r="N2" s="517"/>
+      <c r="O2" s="517"/>
+      <c r="P2" s="517"/>
+      <c r="Q2" s="517"/>
+      <c r="R2" s="517"/>
+      <c r="S2" s="517"/>
+      <c r="T2" s="517"/>
+      <c r="U2" s="517"/>
+      <c r="V2" s="517"/>
     </row>
     <row r="3" spans="2:22" ht="15.75" thickBot="1"/>
     <row r="4" spans="2:22">
@@ -35247,22 +36228,22 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="507" t="s">
+      <c r="G5" s="522" t="s">
         <v>324</v>
       </c>
-      <c r="H5" s="507"/>
-      <c r="I5" s="507" t="s">
+      <c r="H5" s="522"/>
+      <c r="I5" s="522" t="s">
         <v>325</v>
       </c>
-      <c r="J5" s="507"/>
-      <c r="K5" s="507"/>
-      <c r="L5" s="507"/>
-      <c r="M5" s="507"/>
-      <c r="N5" s="507"/>
-      <c r="O5" s="507" t="s">
+      <c r="J5" s="522"/>
+      <c r="K5" s="522"/>
+      <c r="L5" s="522"/>
+      <c r="M5" s="522"/>
+      <c r="N5" s="522"/>
+      <c r="O5" s="522" t="s">
         <v>326</v>
       </c>
-      <c r="P5" s="507"/>
+      <c r="P5" s="522"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
@@ -35274,7 +36255,7 @@
       <c r="D6" s="107"/>
       <c r="E6" s="108"/>
       <c r="F6" s="110"/>
-      <c r="G6" s="508" t="s">
+      <c r="G6" s="527" t="s">
         <v>327</v>
       </c>
       <c r="H6" s="86"/>
@@ -35304,25 +36285,25 @@
       <c r="E7" s="110"/>
       <c r="F7" s="110"/>
       <c r="G7" s="436"/>
-      <c r="H7" s="509" t="s">
+      <c r="H7" s="528" t="s">
         <v>329</v>
       </c>
-      <c r="I7" s="512" t="s">
+      <c r="I7" s="531" t="s">
         <v>330</v>
       </c>
-      <c r="J7" s="513"/>
-      <c r="K7" s="514" t="s">
+      <c r="J7" s="532"/>
+      <c r="K7" s="533" t="s">
         <v>331</v>
       </c>
-      <c r="L7" s="515"/>
-      <c r="M7" s="512" t="s">
+      <c r="L7" s="534"/>
+      <c r="M7" s="531" t="s">
         <v>332</v>
       </c>
-      <c r="N7" s="513"/>
-      <c r="O7" s="519" t="s">
+      <c r="N7" s="532"/>
+      <c r="O7" s="538" t="s">
         <v>333</v>
       </c>
-      <c r="P7" s="520"/>
+      <c r="P7" s="539"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
@@ -35335,15 +36316,15 @@
       <c r="E8" s="112"/>
       <c r="F8" s="110"/>
       <c r="G8" s="436"/>
-      <c r="H8" s="510"/>
+      <c r="H8" s="529"/>
       <c r="I8" s="426"/>
       <c r="J8" s="428"/>
       <c r="K8" s="416"/>
-      <c r="L8" s="516"/>
+      <c r="L8" s="535"/>
       <c r="M8" s="426"/>
       <c r="N8" s="428"/>
-      <c r="O8" s="521"/>
-      <c r="P8" s="522"/>
+      <c r="O8" s="540"/>
+      <c r="P8" s="541"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="33" t="s">
         <v>61</v>
@@ -35362,15 +36343,15 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="436"/>
-      <c r="H9" s="510"/>
+      <c r="H9" s="529"/>
       <c r="I9" s="426"/>
       <c r="J9" s="428"/>
       <c r="K9" s="416"/>
-      <c r="L9" s="516"/>
+      <c r="L9" s="535"/>
       <c r="M9" s="426"/>
       <c r="N9" s="428"/>
-      <c r="O9" s="521"/>
-      <c r="P9" s="522"/>
+      <c r="O9" s="540"/>
+      <c r="P9" s="541"/>
       <c r="Q9" s="5" t="s">
         <v>2</v>
       </c>
@@ -35391,15 +36372,15 @@
       <c r="E10" s="3"/>
       <c r="F10" s="6"/>
       <c r="G10" s="436"/>
-      <c r="H10" s="510"/>
+      <c r="H10" s="529"/>
       <c r="I10" s="426"/>
       <c r="J10" s="428"/>
       <c r="K10" s="416"/>
-      <c r="L10" s="516"/>
+      <c r="L10" s="535"/>
       <c r="M10" s="426"/>
       <c r="N10" s="428"/>
-      <c r="O10" s="521"/>
-      <c r="P10" s="522"/>
+      <c r="O10" s="540"/>
+      <c r="P10" s="541"/>
       <c r="Q10" s="5" t="s">
         <v>66</v>
       </c>
@@ -35416,15 +36397,15 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="436"/>
-      <c r="H11" s="510"/>
+      <c r="H11" s="529"/>
       <c r="I11" s="426"/>
       <c r="J11" s="428"/>
       <c r="K11" s="416"/>
-      <c r="L11" s="516"/>
+      <c r="L11" s="535"/>
       <c r="M11" s="426"/>
       <c r="N11" s="428"/>
-      <c r="O11" s="521"/>
-      <c r="P11" s="522"/>
+      <c r="O11" s="540"/>
+      <c r="P11" s="541"/>
       <c r="Q11" s="5">
         <v>1000</v>
       </c>
@@ -35443,15 +36424,15 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="436"/>
-      <c r="H12" s="510"/>
+      <c r="H12" s="529"/>
       <c r="I12" s="426"/>
       <c r="J12" s="428"/>
       <c r="K12" s="416"/>
-      <c r="L12" s="516"/>
+      <c r="L12" s="535"/>
       <c r="M12" s="426"/>
       <c r="N12" s="428"/>
-      <c r="O12" s="521"/>
-      <c r="P12" s="522"/>
+      <c r="O12" s="540"/>
+      <c r="P12" s="541"/>
       <c r="Q12" s="5" t="s">
         <v>2</v>
       </c>
@@ -35466,15 +36447,15 @@
       <c r="E13" s="9"/>
       <c r="F13" s="6"/>
       <c r="G13" s="436"/>
-      <c r="H13" s="510"/>
+      <c r="H13" s="529"/>
       <c r="I13" s="426"/>
       <c r="J13" s="428"/>
       <c r="K13" s="416"/>
-      <c r="L13" s="516"/>
+      <c r="L13" s="535"/>
       <c r="M13" s="426"/>
       <c r="N13" s="428"/>
-      <c r="O13" s="521"/>
-      <c r="P13" s="522"/>
+      <c r="O13" s="540"/>
+      <c r="P13" s="541"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="33"/>
       <c r="S13" s="33"/>
@@ -35487,15 +36468,15 @@
       <c r="E14" s="3"/>
       <c r="F14" s="6"/>
       <c r="G14" s="436"/>
-      <c r="H14" s="510"/>
+      <c r="H14" s="529"/>
       <c r="I14" s="426"/>
       <c r="J14" s="428"/>
       <c r="K14" s="416"/>
-      <c r="L14" s="516"/>
+      <c r="L14" s="535"/>
       <c r="M14" s="426"/>
       <c r="N14" s="428"/>
-      <c r="O14" s="521"/>
-      <c r="P14" s="522"/>
+      <c r="O14" s="540"/>
+      <c r="P14" s="541"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="33"/>
       <c r="S14" s="33"/>
@@ -35510,15 +36491,15 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="436"/>
-      <c r="H15" s="510"/>
+      <c r="H15" s="529"/>
       <c r="I15" s="426"/>
       <c r="J15" s="428"/>
       <c r="K15" s="416"/>
-      <c r="L15" s="516"/>
+      <c r="L15" s="535"/>
       <c r="M15" s="426"/>
       <c r="N15" s="428"/>
-      <c r="O15" s="521"/>
-      <c r="P15" s="522"/>
+      <c r="O15" s="540"/>
+      <c r="P15" s="541"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
@@ -35531,15 +36512,15 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="436"/>
-      <c r="H16" s="510"/>
+      <c r="H16" s="529"/>
       <c r="I16" s="426"/>
       <c r="J16" s="428"/>
       <c r="K16" s="416"/>
-      <c r="L16" s="516"/>
+      <c r="L16" s="535"/>
       <c r="M16" s="426"/>
       <c r="N16" s="428"/>
-      <c r="O16" s="521"/>
-      <c r="P16" s="522"/>
+      <c r="O16" s="540"/>
+      <c r="P16" s="541"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
@@ -35552,15 +36533,15 @@
       <c r="E17" s="9"/>
       <c r="F17" s="6"/>
       <c r="G17" s="436"/>
-      <c r="H17" s="510"/>
+      <c r="H17" s="529"/>
       <c r="I17" s="426"/>
       <c r="J17" s="428"/>
       <c r="K17" s="416"/>
-      <c r="L17" s="516"/>
+      <c r="L17" s="535"/>
       <c r="M17" s="426"/>
       <c r="N17" s="428"/>
-      <c r="O17" s="521"/>
-      <c r="P17" s="522"/>
+      <c r="O17" s="540"/>
+      <c r="P17" s="541"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
@@ -35573,15 +36554,15 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="436"/>
-      <c r="H18" s="510"/>
+      <c r="H18" s="529"/>
       <c r="I18" s="426"/>
       <c r="J18" s="428"/>
       <c r="K18" s="416"/>
-      <c r="L18" s="516"/>
+      <c r="L18" s="535"/>
       <c r="M18" s="426"/>
       <c r="N18" s="428"/>
-      <c r="O18" s="521"/>
-      <c r="P18" s="522"/>
+      <c r="O18" s="540"/>
+      <c r="P18" s="541"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
@@ -35596,15 +36577,15 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="436"/>
-      <c r="H19" s="510"/>
+      <c r="H19" s="529"/>
       <c r="I19" s="426"/>
       <c r="J19" s="428"/>
       <c r="K19" s="416"/>
-      <c r="L19" s="516"/>
+      <c r="L19" s="535"/>
       <c r="M19" s="426"/>
       <c r="N19" s="428"/>
-      <c r="O19" s="521"/>
-      <c r="P19" s="522"/>
+      <c r="O19" s="540"/>
+      <c r="P19" s="541"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
@@ -35617,15 +36598,15 @@
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="437"/>
-      <c r="H20" s="511"/>
+      <c r="H20" s="530"/>
       <c r="I20" s="429"/>
       <c r="J20" s="431"/>
-      <c r="K20" s="517"/>
-      <c r="L20" s="518"/>
+      <c r="K20" s="536"/>
+      <c r="L20" s="537"/>
       <c r="M20" s="429"/>
       <c r="N20" s="431"/>
-      <c r="O20" s="523"/>
-      <c r="P20" s="524"/>
+      <c r="O20" s="542"/>
+      <c r="P20" s="543"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
@@ -35706,53 +36687,53 @@
       <c r="U23" s="9"/>
     </row>
     <row r="25" spans="1:22" ht="21">
-      <c r="B25" s="525" t="s">
+      <c r="B25" s="517" t="s">
         <v>749</v>
       </c>
-      <c r="C25" s="525"/>
-      <c r="D25" s="525"/>
-      <c r="E25" s="525"/>
-      <c r="F25" s="525"/>
-      <c r="G25" s="525"/>
-      <c r="H25" s="525"/>
-      <c r="I25" s="525"/>
-      <c r="J25" s="525"/>
-      <c r="K25" s="525"/>
-      <c r="L25" s="525"/>
-      <c r="M25" s="525"/>
-      <c r="N25" s="525"/>
-      <c r="O25" s="525"/>
-      <c r="P25" s="525"/>
-      <c r="Q25" s="525"/>
-      <c r="R25" s="525"/>
-      <c r="S25" s="525"/>
-      <c r="T25" s="525"/>
-      <c r="U25" s="525"/>
-      <c r="V25" s="525"/>
+      <c r="C25" s="517"/>
+      <c r="D25" s="517"/>
+      <c r="E25" s="517"/>
+      <c r="F25" s="517"/>
+      <c r="G25" s="517"/>
+      <c r="H25" s="517"/>
+      <c r="I25" s="517"/>
+      <c r="J25" s="517"/>
+      <c r="K25" s="517"/>
+      <c r="L25" s="517"/>
+      <c r="M25" s="517"/>
+      <c r="N25" s="517"/>
+      <c r="O25" s="517"/>
+      <c r="P25" s="517"/>
+      <c r="Q25" s="517"/>
+      <c r="R25" s="517"/>
+      <c r="S25" s="517"/>
+      <c r="T25" s="517"/>
+      <c r="U25" s="517"/>
+      <c r="V25" s="517"/>
     </row>
     <row r="26" spans="1:22" ht="15.75" thickBot="1">
-      <c r="C26" s="526" t="s">
+      <c r="C26" s="518" t="s">
         <v>360</v>
       </c>
-      <c r="D26" s="526"/>
-      <c r="E26" s="526"/>
-      <c r="F26" s="526"/>
-      <c r="G26" s="526"/>
-      <c r="H26" s="526"/>
-      <c r="I26" s="526"/>
-      <c r="J26" s="526"/>
-      <c r="K26" s="526"/>
-      <c r="L26" s="526"/>
-      <c r="M26" s="526"/>
+      <c r="D26" s="518"/>
+      <c r="E26" s="518"/>
+      <c r="F26" s="518"/>
+      <c r="G26" s="518"/>
+      <c r="H26" s="518"/>
+      <c r="I26" s="518"/>
+      <c r="J26" s="518"/>
+      <c r="K26" s="518"/>
+      <c r="L26" s="518"/>
+      <c r="M26" s="518"/>
     </row>
     <row r="27" spans="1:22" ht="15.75" thickBot="1">
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="527" t="s">
+      <c r="E27" s="519" t="s">
         <v>57</v>
       </c>
-      <c r="F27" s="528"/>
-      <c r="G27" s="528"/>
+      <c r="F27" s="520"/>
+      <c r="G27" s="520"/>
       <c r="H27" s="420"/>
       <c r="I27" s="420"/>
       <c r="J27" s="420"/>
@@ -35795,11 +36776,11 @@
         <v>995</v>
       </c>
       <c r="M29" s="6"/>
-      <c r="O29" s="529" t="s">
+      <c r="O29" s="521" t="s">
         <v>58</v>
       </c>
-      <c r="P29" s="529"/>
-      <c r="Q29" s="529"/>
+      <c r="P29" s="521"/>
+      <c r="Q29" s="521"/>
     </row>
     <row r="30" spans="1:22" ht="15.75" thickBot="1">
       <c r="C30" s="4"/>
@@ -35853,21 +36834,21 @@
         <v>69</v>
       </c>
       <c r="D32" s="6"/>
-      <c r="E32" s="533" t="s">
+      <c r="E32" s="514" t="s">
         <v>753</v>
       </c>
-      <c r="F32" s="534"/>
-      <c r="G32" s="535"/>
-      <c r="H32" s="533" t="s">
+      <c r="F32" s="515"/>
+      <c r="G32" s="516"/>
+      <c r="H32" s="514" t="s">
         <v>754</v>
       </c>
-      <c r="I32" s="534"/>
-      <c r="J32" s="535"/>
-      <c r="K32" s="533" t="s">
+      <c r="I32" s="515"/>
+      <c r="J32" s="516"/>
+      <c r="K32" s="514" t="s">
         <v>755</v>
       </c>
-      <c r="L32" s="534"/>
-      <c r="M32" s="535"/>
+      <c r="L32" s="515"/>
+      <c r="M32" s="516"/>
       <c r="N32" s="5" t="s">
         <v>2</v>
       </c>
@@ -35887,15 +36868,15 @@
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="533"/>
-      <c r="F33" s="534"/>
-      <c r="G33" s="535"/>
-      <c r="H33" s="533"/>
-      <c r="I33" s="534"/>
-      <c r="J33" s="535"/>
-      <c r="K33" s="533"/>
-      <c r="L33" s="534"/>
-      <c r="M33" s="535"/>
+      <c r="E33" s="514"/>
+      <c r="F33" s="515"/>
+      <c r="G33" s="516"/>
+      <c r="H33" s="514"/>
+      <c r="I33" s="515"/>
+      <c r="J33" s="516"/>
+      <c r="K33" s="514"/>
+      <c r="L33" s="515"/>
+      <c r="M33" s="516"/>
       <c r="N33" s="5" t="s">
         <v>66</v>
       </c>
@@ -35918,15 +36899,15 @@
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="533"/>
-      <c r="F34" s="534"/>
-      <c r="G34" s="535"/>
-      <c r="H34" s="533"/>
-      <c r="I34" s="534"/>
-      <c r="J34" s="535"/>
-      <c r="K34" s="533"/>
-      <c r="L34" s="534"/>
-      <c r="M34" s="535"/>
+      <c r="E34" s="514"/>
+      <c r="F34" s="515"/>
+      <c r="G34" s="516"/>
+      <c r="H34" s="514"/>
+      <c r="I34" s="515"/>
+      <c r="J34" s="516"/>
+      <c r="K34" s="514"/>
+      <c r="L34" s="515"/>
+      <c r="M34" s="516"/>
       <c r="N34" s="5">
         <v>1000</v>
       </c>
@@ -35937,15 +36918,15 @@
     <row r="35" spans="1:22">
       <c r="C35" s="1"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="533"/>
-      <c r="F35" s="534"/>
-      <c r="G35" s="535"/>
-      <c r="H35" s="533"/>
-      <c r="I35" s="534"/>
-      <c r="J35" s="535"/>
-      <c r="K35" s="533"/>
-      <c r="L35" s="534"/>
-      <c r="M35" s="535"/>
+      <c r="E35" s="514"/>
+      <c r="F35" s="515"/>
+      <c r="G35" s="516"/>
+      <c r="H35" s="514"/>
+      <c r="I35" s="515"/>
+      <c r="J35" s="516"/>
+      <c r="K35" s="514"/>
+      <c r="L35" s="515"/>
+      <c r="M35" s="516"/>
       <c r="N35" s="5" t="s">
         <v>2</v>
       </c>
@@ -36076,15 +37057,15 @@
     <row r="42" spans="1:22" ht="19.5" thickBot="1">
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="537"/>
-      <c r="F42" s="538"/>
-      <c r="G42" s="538"/>
-      <c r="H42" s="538"/>
-      <c r="I42" s="538"/>
-      <c r="J42" s="538"/>
-      <c r="K42" s="538"/>
-      <c r="L42" s="538"/>
-      <c r="M42" s="539"/>
+      <c r="E42" s="507"/>
+      <c r="F42" s="508"/>
+      <c r="G42" s="508"/>
+      <c r="H42" s="508"/>
+      <c r="I42" s="508"/>
+      <c r="J42" s="508"/>
+      <c r="K42" s="508"/>
+      <c r="L42" s="508"/>
+      <c r="M42" s="509"/>
       <c r="N42" s="35" t="s">
         <v>365</v>
       </c>
@@ -36139,55 +37120,55 @@
       </c>
     </row>
     <row r="47" spans="1:22" ht="21">
-      <c r="B47" s="525" t="s">
+      <c r="B47" s="517" t="s">
         <v>751</v>
       </c>
-      <c r="C47" s="525"/>
-      <c r="D47" s="525"/>
-      <c r="E47" s="525"/>
-      <c r="F47" s="525"/>
-      <c r="G47" s="525"/>
-      <c r="H47" s="525"/>
-      <c r="I47" s="525"/>
-      <c r="J47" s="525"/>
-      <c r="K47" s="525"/>
-      <c r="L47" s="525"/>
-      <c r="M47" s="525"/>
-      <c r="N47" s="525"/>
-      <c r="O47" s="525"/>
-      <c r="P47" s="525"/>
-      <c r="Q47" s="525"/>
-      <c r="R47" s="525"/>
-      <c r="S47" s="525"/>
-      <c r="T47" s="525"/>
-      <c r="U47" s="525"/>
-      <c r="V47" s="525"/>
+      <c r="C47" s="517"/>
+      <c r="D47" s="517"/>
+      <c r="E47" s="517"/>
+      <c r="F47" s="517"/>
+      <c r="G47" s="517"/>
+      <c r="H47" s="517"/>
+      <c r="I47" s="517"/>
+      <c r="J47" s="517"/>
+      <c r="K47" s="517"/>
+      <c r="L47" s="517"/>
+      <c r="M47" s="517"/>
+      <c r="N47" s="517"/>
+      <c r="O47" s="517"/>
+      <c r="P47" s="517"/>
+      <c r="Q47" s="517"/>
+      <c r="R47" s="517"/>
+      <c r="S47" s="517"/>
+      <c r="T47" s="517"/>
+      <c r="U47" s="517"/>
+      <c r="V47" s="517"/>
     </row>
     <row r="48" spans="1:22" ht="15.75" thickBot="1">
-      <c r="C48" s="526" t="s">
+      <c r="C48" s="518" t="s">
         <v>360</v>
       </c>
-      <c r="D48" s="526"/>
-      <c r="E48" s="526"/>
-      <c r="F48" s="526"/>
-      <c r="G48" s="526"/>
-      <c r="H48" s="526"/>
-      <c r="I48" s="526"/>
-      <c r="J48" s="526"/>
-      <c r="K48" s="526"/>
-      <c r="L48" s="526"/>
-      <c r="M48" s="526"/>
+      <c r="D48" s="518"/>
+      <c r="E48" s="518"/>
+      <c r="F48" s="518"/>
+      <c r="G48" s="518"/>
+      <c r="H48" s="518"/>
+      <c r="I48" s="518"/>
+      <c r="J48" s="518"/>
+      <c r="K48" s="518"/>
+      <c r="L48" s="518"/>
+      <c r="M48" s="518"/>
       <c r="S48" s="24"/>
       <c r="T48" s="24"/>
     </row>
     <row r="49" spans="1:24" ht="15.75" thickBot="1">
       <c r="C49" s="1"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="527" t="s">
+      <c r="E49" s="519" t="s">
         <v>57</v>
       </c>
-      <c r="F49" s="528"/>
-      <c r="G49" s="528"/>
+      <c r="F49" s="520"/>
+      <c r="G49" s="520"/>
       <c r="H49" s="420"/>
       <c r="I49" s="420"/>
       <c r="J49" s="420"/>
@@ -36213,16 +37194,16 @@
       <c r="G50" s="177" t="s">
         <v>1267</v>
       </c>
-      <c r="H50" s="530" t="s">
+      <c r="H50" s="523" t="s">
         <v>754</v>
       </c>
-      <c r="I50" s="531"/>
-      <c r="J50" s="532"/>
-      <c r="K50" s="530" t="s">
+      <c r="I50" s="524"/>
+      <c r="J50" s="525"/>
+      <c r="K50" s="523" t="s">
         <v>755</v>
       </c>
-      <c r="L50" s="531"/>
-      <c r="M50" s="532"/>
+      <c r="L50" s="524"/>
+      <c r="M50" s="525"/>
       <c r="S50" s="24"/>
       <c r="T50" s="24"/>
       <c r="W50" t="s">
@@ -36236,20 +37217,20 @@
         <v>769</v>
       </c>
       <c r="F51" s="218"/>
-      <c r="G51" s="536" t="s">
+      <c r="G51" s="526" t="s">
         <v>777</v>
       </c>
-      <c r="H51" s="533"/>
-      <c r="I51" s="534"/>
-      <c r="J51" s="535"/>
-      <c r="K51" s="533"/>
-      <c r="L51" s="534"/>
-      <c r="M51" s="535"/>
-      <c r="O51" s="529" t="s">
+      <c r="H51" s="514"/>
+      <c r="I51" s="515"/>
+      <c r="J51" s="516"/>
+      <c r="K51" s="514"/>
+      <c r="L51" s="515"/>
+      <c r="M51" s="516"/>
+      <c r="O51" s="521" t="s">
         <v>58</v>
       </c>
-      <c r="P51" s="529"/>
-      <c r="Q51" s="529"/>
+      <c r="P51" s="521"/>
+      <c r="Q51" s="521"/>
       <c r="S51" s="205"/>
       <c r="T51" s="205"/>
       <c r="W51" s="35" t="s">
@@ -36263,13 +37244,13 @@
         <v>770</v>
       </c>
       <c r="F52" s="219"/>
-      <c r="G52" s="536"/>
-      <c r="H52" s="533"/>
-      <c r="I52" s="534"/>
-      <c r="J52" s="535"/>
-      <c r="K52" s="533"/>
-      <c r="L52" s="534"/>
-      <c r="M52" s="535"/>
+      <c r="G52" s="526"/>
+      <c r="H52" s="514"/>
+      <c r="I52" s="515"/>
+      <c r="J52" s="516"/>
+      <c r="K52" s="514"/>
+      <c r="L52" s="515"/>
+      <c r="M52" s="516"/>
       <c r="S52" s="24"/>
       <c r="T52" s="24"/>
     </row>
@@ -36280,13 +37261,13 @@
         <v>771</v>
       </c>
       <c r="F53" s="220"/>
-      <c r="G53" s="536"/>
-      <c r="H53" s="533"/>
-      <c r="I53" s="534"/>
-      <c r="J53" s="535"/>
-      <c r="K53" s="533"/>
-      <c r="L53" s="534"/>
-      <c r="M53" s="535"/>
+      <c r="G53" s="526"/>
+      <c r="H53" s="514"/>
+      <c r="I53" s="515"/>
+      <c r="J53" s="516"/>
+      <c r="K53" s="514"/>
+      <c r="L53" s="515"/>
+      <c r="M53" s="516"/>
       <c r="N53" s="5"/>
       <c r="O53" s="33" t="s">
         <v>61</v>
@@ -36325,7 +37306,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="206"/>
       <c r="F54" s="221"/>
-      <c r="G54" s="542" t="s">
+      <c r="G54" s="512" t="s">
         <v>781</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -36372,11 +37353,11 @@
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="540" t="s">
+      <c r="E55" s="510" t="s">
         <v>782</v>
       </c>
-      <c r="F55" s="541"/>
-      <c r="G55" s="543"/>
+      <c r="F55" s="511"/>
+      <c r="G55" s="513"/>
       <c r="H55" s="113" t="s">
         <v>773</v>
       </c>
@@ -36420,9 +37401,9 @@
     <row r="56" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="C56" s="8"/>
       <c r="D56" s="9"/>
-      <c r="E56" s="540"/>
-      <c r="F56" s="541"/>
-      <c r="G56" s="543"/>
+      <c r="E56" s="510"/>
+      <c r="F56" s="511"/>
+      <c r="G56" s="513"/>
       <c r="H56" s="113" t="s">
         <v>774</v>
       </c>
@@ -36452,9 +37433,9 @@
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="540"/>
-      <c r="F57" s="541"/>
-      <c r="G57" s="543"/>
+      <c r="E57" s="510"/>
+      <c r="F57" s="511"/>
+      <c r="G57" s="513"/>
       <c r="H57" s="4" t="s">
         <v>786</v>
       </c>
@@ -36484,9 +37465,9 @@
         <v>71</v>
       </c>
       <c r="D58" s="6"/>
-      <c r="E58" s="540"/>
-      <c r="F58" s="541"/>
-      <c r="G58" s="543"/>
+      <c r="E58" s="510"/>
+      <c r="F58" s="511"/>
+      <c r="G58" s="513"/>
       <c r="H58" s="210" t="s">
         <v>772</v>
       </c>
@@ -36511,9 +37492,9 @@
     <row r="59" spans="1:24">
       <c r="C59" s="4"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="540"/>
-      <c r="F59" s="541"/>
-      <c r="G59" s="543"/>
+      <c r="E59" s="510"/>
+      <c r="F59" s="511"/>
+      <c r="G59" s="513"/>
       <c r="H59" s="210" t="s">
         <v>354</v>
       </c>
@@ -36538,9 +37519,9 @@
     <row r="60" spans="1:24" ht="15.75" thickBot="1">
       <c r="C60" s="8"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="540"/>
-      <c r="F60" s="541"/>
-      <c r="G60" s="543"/>
+      <c r="E60" s="510"/>
+      <c r="F60" s="511"/>
+      <c r="G60" s="513"/>
       <c r="H60" s="212"/>
       <c r="I60" s="213" t="s">
         <v>788</v>
@@ -36560,9 +37541,9 @@
     <row r="61" spans="1:24">
       <c r="C61" s="4"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="540"/>
-      <c r="F61" s="541"/>
-      <c r="G61" s="543"/>
+      <c r="E61" s="510"/>
+      <c r="F61" s="511"/>
+      <c r="G61" s="513"/>
       <c r="H61" s="212"/>
       <c r="I61" s="213" t="s">
         <v>789</v>
@@ -36582,7 +37563,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="201"/>
       <c r="F62" s="217"/>
-      <c r="G62" s="543"/>
+      <c r="G62" s="513"/>
       <c r="H62" s="214"/>
       <c r="I62" s="216" t="s">
         <v>790</v>
@@ -36624,17 +37605,17 @@
     <row r="64" spans="1:24" ht="19.5" thickBot="1">
       <c r="C64" s="8"/>
       <c r="D64" s="9"/>
-      <c r="E64" s="537" t="s">
+      <c r="E64" s="507" t="s">
         <v>1268</v>
       </c>
-      <c r="F64" s="538"/>
-      <c r="G64" s="538"/>
-      <c r="H64" s="538"/>
-      <c r="I64" s="538"/>
-      <c r="J64" s="538"/>
-      <c r="K64" s="538"/>
-      <c r="L64" s="538"/>
-      <c r="M64" s="539"/>
+      <c r="F64" s="508"/>
+      <c r="G64" s="508"/>
+      <c r="H64" s="508"/>
+      <c r="I64" s="508"/>
+      <c r="J64" s="508"/>
+      <c r="K64" s="508"/>
+      <c r="L64" s="508"/>
+      <c r="M64" s="509"/>
       <c r="N64" s="35" t="s">
         <v>365</v>
       </c>
@@ -37732,30 +38713,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E64:M64"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:M66"/>
-    <mergeCell ref="E55:F61"/>
-    <mergeCell ref="G54:G62"/>
-    <mergeCell ref="E32:G35"/>
-    <mergeCell ref="H32:J35"/>
-    <mergeCell ref="K32:M35"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="H22:N22"/>
-    <mergeCell ref="B2:V2"/>
-    <mergeCell ref="B25:V25"/>
-    <mergeCell ref="C26:M26"/>
-    <mergeCell ref="E27:M27"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="K50:M53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="E42:M42"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:M44"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="E68:G68"/>
     <mergeCell ref="H68:M68"/>
@@ -37772,6 +38729,30 @@
     <mergeCell ref="E49:M49"/>
     <mergeCell ref="O51:Q51"/>
     <mergeCell ref="H50:J53"/>
+    <mergeCell ref="K50:M53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="E42:M42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:M44"/>
+    <mergeCell ref="B2:V2"/>
+    <mergeCell ref="B25:V25"/>
+    <mergeCell ref="C26:M26"/>
+    <mergeCell ref="E27:M27"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="E32:G35"/>
+    <mergeCell ref="H32:J35"/>
+    <mergeCell ref="K32:M35"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="E64:M64"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:M66"/>
+    <mergeCell ref="E55:F61"/>
+    <mergeCell ref="G54:G62"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="T9" r:id="rId1"/>
@@ -37961,10 +38942,10 @@
       <c r="L7" s="261"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="B8" s="481"/>
-      <c r="C8" s="481"/>
-      <c r="D8" s="481"/>
-      <c r="E8" s="481"/>
+      <c r="B8" s="487"/>
+      <c r="C8" s="487"/>
+      <c r="D8" s="487"/>
+      <c r="E8" s="487"/>
       <c r="G8" t="s">
         <v>1307</v>
       </c>
@@ -38791,18 +39772,18 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:18" ht="15.75" thickBot="1">
-      <c r="C2" s="526" t="s">
+      <c r="C2" s="518" t="s">
         <v>360</v>
       </c>
-      <c r="D2" s="526"/>
-      <c r="E2" s="526"/>
-      <c r="F2" s="526"/>
-      <c r="G2" s="526"/>
-      <c r="H2" s="526"/>
-      <c r="I2" s="526"/>
-      <c r="J2" s="526"/>
-      <c r="K2" s="526"/>
-      <c r="L2" s="526"/>
+      <c r="D2" s="518"/>
+      <c r="E2" s="518"/>
+      <c r="F2" s="518"/>
+      <c r="G2" s="518"/>
+      <c r="H2" s="518"/>
+      <c r="I2" s="518"/>
+      <c r="J2" s="518"/>
+      <c r="K2" s="518"/>
+      <c r="L2" s="518"/>
       <c r="N2" t="s">
         <v>1917</v>
       </c>
@@ -38810,10 +39791,10 @@
     <row r="3" spans="1:18" ht="15.75" thickBot="1">
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="527" t="s">
+      <c r="E3" s="519" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="528"/>
+      <c r="F3" s="520"/>
       <c r="G3" s="420"/>
       <c r="H3" s="420"/>
       <c r="I3" s="420"/>
@@ -38859,11 +39840,11 @@
         <v>370</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="N5" s="529" t="s">
+      <c r="N5" s="521" t="s">
         <v>58</v>
       </c>
-      <c r="O5" s="529"/>
-      <c r="P5" s="529"/>
+      <c r="O5" s="521"/>
+      <c r="P5" s="521"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1">
       <c r="A6" t="s">
@@ -38920,20 +39901,20 @@
         <v>69</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="533" t="s">
+      <c r="E8" s="514" t="s">
         <v>361</v>
       </c>
-      <c r="F8" s="535"/>
-      <c r="G8" s="533" t="s">
+      <c r="F8" s="516"/>
+      <c r="G8" s="514" t="s">
         <v>362</v>
       </c>
-      <c r="H8" s="534"/>
-      <c r="I8" s="535"/>
-      <c r="J8" s="533" t="s">
+      <c r="H8" s="515"/>
+      <c r="I8" s="516"/>
+      <c r="J8" s="514" t="s">
         <v>363</v>
       </c>
-      <c r="K8" s="534"/>
-      <c r="L8" s="535"/>
+      <c r="K8" s="515"/>
+      <c r="L8" s="516"/>
       <c r="M8" s="5" t="s">
         <v>2</v>
       </c>
@@ -38953,14 +39934,14 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="533"/>
-      <c r="F9" s="535"/>
-      <c r="G9" s="533"/>
-      <c r="H9" s="534"/>
-      <c r="I9" s="535"/>
-      <c r="J9" s="533"/>
-      <c r="K9" s="534"/>
-      <c r="L9" s="535"/>
+      <c r="E9" s="514"/>
+      <c r="F9" s="516"/>
+      <c r="G9" s="514"/>
+      <c r="H9" s="515"/>
+      <c r="I9" s="516"/>
+      <c r="J9" s="514"/>
+      <c r="K9" s="515"/>
+      <c r="L9" s="516"/>
       <c r="M9" s="5" t="s">
         <v>66</v>
       </c>
@@ -38977,14 +39958,14 @@
     <row r="10" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="533"/>
-      <c r="F10" s="535"/>
-      <c r="G10" s="533"/>
-      <c r="H10" s="534"/>
-      <c r="I10" s="535"/>
-      <c r="J10" s="533"/>
-      <c r="K10" s="534"/>
-      <c r="L10" s="535"/>
+      <c r="E10" s="514"/>
+      <c r="F10" s="516"/>
+      <c r="G10" s="514"/>
+      <c r="H10" s="515"/>
+      <c r="I10" s="516"/>
+      <c r="J10" s="514"/>
+      <c r="K10" s="515"/>
+      <c r="L10" s="516"/>
       <c r="M10" s="5">
         <v>1000</v>
       </c>
@@ -38998,14 +39979,14 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="533"/>
-      <c r="F11" s="535"/>
-      <c r="G11" s="533"/>
-      <c r="H11" s="534"/>
-      <c r="I11" s="535"/>
-      <c r="J11" s="533"/>
-      <c r="K11" s="534"/>
-      <c r="L11" s="535"/>
+      <c r="E11" s="514"/>
+      <c r="F11" s="516"/>
+      <c r="G11" s="514"/>
+      <c r="H11" s="515"/>
+      <c r="I11" s="516"/>
+      <c r="J11" s="514"/>
+      <c r="K11" s="515"/>
+      <c r="L11" s="516"/>
       <c r="M11" s="5" t="s">
         <v>2</v>
       </c>
@@ -39199,10 +40180,10 @@
       <c r="G19" s="553" t="s">
         <v>75</v>
       </c>
-      <c r="H19" s="526"/>
-      <c r="I19" s="526"/>
-      <c r="J19" s="526"/>
-      <c r="K19" s="526"/>
+      <c r="H19" s="518"/>
+      <c r="I19" s="518"/>
+      <c r="J19" s="518"/>
+      <c r="K19" s="518"/>
       <c r="L19" s="554"/>
     </row>
     <row r="20" spans="1:18" ht="15.75" thickBot="1"/>
@@ -40600,22 +41581,22 @@
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="507" t="s">
+      <c r="E3" s="522" t="s">
         <v>324</v>
       </c>
-      <c r="F3" s="507"/>
-      <c r="G3" s="507" t="s">
+      <c r="F3" s="522"/>
+      <c r="G3" s="522" t="s">
         <v>325</v>
       </c>
-      <c r="H3" s="507"/>
-      <c r="I3" s="507"/>
-      <c r="J3" s="507"/>
-      <c r="K3" s="507"/>
-      <c r="L3" s="507"/>
-      <c r="M3" s="507" t="s">
+      <c r="H3" s="522"/>
+      <c r="I3" s="522"/>
+      <c r="J3" s="522"/>
+      <c r="K3" s="522"/>
+      <c r="L3" s="522"/>
+      <c r="M3" s="522" t="s">
         <v>326</v>
       </c>
-      <c r="N3" s="507"/>
+      <c r="N3" s="522"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
@@ -40626,7 +41607,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="107"/>
       <c r="D4" s="108"/>
-      <c r="E4" s="508" t="s">
+      <c r="E4" s="527" t="s">
         <v>327</v>
       </c>
       <c r="F4" s="103"/>
@@ -40660,16 +41641,16 @@
       </c>
       <c r="G5" s="448"/>
       <c r="H5" s="449"/>
-      <c r="I5" s="596" t="s">
+      <c r="I5" s="559" t="s">
         <v>399</v>
       </c>
-      <c r="J5" s="597"/>
-      <c r="K5" s="597"/>
-      <c r="L5" s="515"/>
-      <c r="M5" s="596" t="s">
+      <c r="J5" s="560"/>
+      <c r="K5" s="560"/>
+      <c r="L5" s="534"/>
+      <c r="M5" s="559" t="s">
         <v>400</v>
       </c>
-      <c r="N5" s="515"/>
+      <c r="N5" s="534"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -40687,9 +41668,9 @@
       <c r="I6" s="416"/>
       <c r="J6" s="414"/>
       <c r="K6" s="414"/>
-      <c r="L6" s="516"/>
+      <c r="L6" s="535"/>
       <c r="M6" s="416"/>
-      <c r="N6" s="516"/>
+      <c r="N6" s="535"/>
       <c r="O6" s="5"/>
       <c r="P6" s="33" t="s">
         <v>61</v>
@@ -40713,9 +41694,9 @@
       <c r="I7" s="416"/>
       <c r="J7" s="414"/>
       <c r="K7" s="414"/>
-      <c r="L7" s="516"/>
+      <c r="L7" s="535"/>
       <c r="M7" s="416"/>
-      <c r="N7" s="516"/>
+      <c r="N7" s="535"/>
       <c r="O7" s="5" t="s">
         <v>2</v>
       </c>
@@ -40741,9 +41722,9 @@
       <c r="I8" s="416"/>
       <c r="J8" s="414"/>
       <c r="K8" s="414"/>
-      <c r="L8" s="516"/>
+      <c r="L8" s="535"/>
       <c r="M8" s="416"/>
-      <c r="N8" s="516"/>
+      <c r="N8" s="535"/>
       <c r="O8" s="5" t="s">
         <v>66</v>
       </c>
@@ -40771,9 +41752,9 @@
       <c r="I9" s="416"/>
       <c r="J9" s="414"/>
       <c r="K9" s="414"/>
-      <c r="L9" s="516"/>
+      <c r="L9" s="535"/>
       <c r="M9" s="416"/>
-      <c r="N9" s="516"/>
+      <c r="N9" s="535"/>
       <c r="O9" s="5">
         <v>1000</v>
       </c>
@@ -40797,9 +41778,9 @@
       <c r="I10" s="416"/>
       <c r="J10" s="414"/>
       <c r="K10" s="414"/>
-      <c r="L10" s="516"/>
+      <c r="L10" s="535"/>
       <c r="M10" s="416"/>
-      <c r="N10" s="516"/>
+      <c r="N10" s="535"/>
       <c r="O10" s="5" t="s">
         <v>2</v>
       </c>
@@ -40819,9 +41800,9 @@
       <c r="I11" s="416"/>
       <c r="J11" s="414"/>
       <c r="K11" s="414"/>
-      <c r="L11" s="516"/>
+      <c r="L11" s="535"/>
       <c r="M11" s="416"/>
-      <c r="N11" s="516"/>
+      <c r="N11" s="535"/>
       <c r="O11" s="5"/>
       <c r="P11" s="33"/>
       <c r="Q11" s="33"/>
@@ -40839,9 +41820,9 @@
       <c r="I12" s="416"/>
       <c r="J12" s="414"/>
       <c r="K12" s="414"/>
-      <c r="L12" s="516"/>
+      <c r="L12" s="535"/>
       <c r="M12" s="416"/>
-      <c r="N12" s="516"/>
+      <c r="N12" s="535"/>
       <c r="O12" s="5"/>
       <c r="P12" s="33"/>
       <c r="Q12" s="33"/>
@@ -40861,9 +41842,9 @@
       <c r="I13" s="416"/>
       <c r="J13" s="414"/>
       <c r="K13" s="414"/>
-      <c r="L13" s="516"/>
+      <c r="L13" s="535"/>
       <c r="M13" s="416"/>
-      <c r="N13" s="516"/>
+      <c r="N13" s="535"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
@@ -40881,9 +41862,9 @@
       <c r="I14" s="416"/>
       <c r="J14" s="414"/>
       <c r="K14" s="414"/>
-      <c r="L14" s="516"/>
+      <c r="L14" s="535"/>
       <c r="M14" s="416"/>
-      <c r="N14" s="516"/>
+      <c r="N14" s="535"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
@@ -40901,9 +41882,9 @@
       <c r="I15" s="416"/>
       <c r="J15" s="414"/>
       <c r="K15" s="414"/>
-      <c r="L15" s="516"/>
+      <c r="L15" s="535"/>
       <c r="M15" s="416"/>
-      <c r="N15" s="516"/>
+      <c r="N15" s="535"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
@@ -40921,9 +41902,9 @@
       <c r="I16" s="416"/>
       <c r="J16" s="414"/>
       <c r="K16" s="414"/>
-      <c r="L16" s="516"/>
+      <c r="L16" s="535"/>
       <c r="M16" s="416"/>
-      <c r="N16" s="516"/>
+      <c r="N16" s="535"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
@@ -40943,9 +41924,9 @@
       <c r="I17" s="416"/>
       <c r="J17" s="414"/>
       <c r="K17" s="414"/>
-      <c r="L17" s="516"/>
+      <c r="L17" s="535"/>
       <c r="M17" s="416"/>
-      <c r="N17" s="516"/>
+      <c r="N17" s="535"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
@@ -40960,12 +41941,12 @@
       <c r="F18" s="453"/>
       <c r="G18" s="454"/>
       <c r="H18" s="455"/>
-      <c r="I18" s="517"/>
-      <c r="J18" s="598"/>
-      <c r="K18" s="598"/>
-      <c r="L18" s="518"/>
-      <c r="M18" s="517"/>
-      <c r="N18" s="518"/>
+      <c r="I18" s="536"/>
+      <c r="J18" s="561"/>
+      <c r="K18" s="561"/>
+      <c r="L18" s="537"/>
+      <c r="M18" s="536"/>
+      <c r="N18" s="537"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
@@ -41041,29 +42022,29 @@
       <c r="S21" s="9"/>
     </row>
     <row r="24" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B24" s="529" t="s">
+      <c r="B24" s="521" t="s">
         <v>360</v>
       </c>
-      <c r="C24" s="529"/>
-      <c r="D24" s="526"/>
-      <c r="E24" s="526"/>
-      <c r="F24" s="526"/>
-      <c r="G24" s="526"/>
-      <c r="H24" s="526"/>
-      <c r="I24" s="526"/>
-      <c r="J24" s="526"/>
-      <c r="K24" s="526"/>
-      <c r="M24" s="559" t="s">
+      <c r="C24" s="521"/>
+      <c r="D24" s="518"/>
+      <c r="E24" s="518"/>
+      <c r="F24" s="518"/>
+      <c r="G24" s="518"/>
+      <c r="H24" s="518"/>
+      <c r="I24" s="518"/>
+      <c r="J24" s="518"/>
+      <c r="K24" s="518"/>
+      <c r="M24" s="588" t="s">
         <v>58</v>
       </c>
-      <c r="N24" s="559"/>
-      <c r="O24" s="559"/>
+      <c r="N24" s="588"/>
+      <c r="O24" s="588"/>
     </row>
     <row r="25" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B25" s="560" t="s">
+      <c r="B25" s="589" t="s">
         <v>630</v>
       </c>
-      <c r="C25" s="495"/>
+      <c r="C25" s="496"/>
       <c r="D25" s="420" t="s">
         <v>57</v>
       </c>
@@ -41085,22 +42066,22 @@
       </c>
     </row>
     <row r="26" spans="2:19">
-      <c r="B26" s="496"/>
-      <c r="C26" s="497"/>
-      <c r="D26" s="573" t="s">
+      <c r="B26" s="497"/>
+      <c r="C26" s="498"/>
+      <c r="D26" s="562" t="s">
         <v>623</v>
       </c>
-      <c r="E26" s="574"/>
-      <c r="F26" s="591" t="s">
+      <c r="E26" s="563"/>
+      <c r="F26" s="581" t="s">
         <v>623</v>
       </c>
-      <c r="G26" s="592"/>
-      <c r="H26" s="593"/>
-      <c r="I26" s="595" t="s">
+      <c r="G26" s="582"/>
+      <c r="H26" s="583"/>
+      <c r="I26" s="586" t="s">
         <v>1353</v>
       </c>
-      <c r="J26" s="592"/>
-      <c r="K26" s="593"/>
+      <c r="J26" s="582"/>
+      <c r="K26" s="583"/>
       <c r="L26" s="5" t="s">
         <v>2</v>
       </c>
@@ -41115,22 +42096,22 @@
       </c>
     </row>
     <row r="27" spans="2:19">
-      <c r="B27" s="496"/>
-      <c r="C27" s="497"/>
-      <c r="D27" s="571" t="s">
+      <c r="B27" s="497"/>
+      <c r="C27" s="498"/>
+      <c r="D27" s="564" t="s">
         <v>628</v>
       </c>
-      <c r="E27" s="575"/>
-      <c r="F27" s="594" t="s">
+      <c r="E27" s="565"/>
+      <c r="F27" s="584" t="s">
         <v>624</v>
       </c>
-      <c r="G27" s="571"/>
-      <c r="H27" s="572"/>
-      <c r="I27" s="570" t="s">
+      <c r="G27" s="564"/>
+      <c r="H27" s="585"/>
+      <c r="I27" s="587" t="s">
         <v>1354</v>
       </c>
-      <c r="J27" s="571"/>
-      <c r="K27" s="572"/>
+      <c r="J27" s="564"/>
+      <c r="K27" s="585"/>
       <c r="L27" s="5" t="s">
         <v>2</v>
       </c>
@@ -41145,22 +42126,22 @@
       </c>
     </row>
     <row r="28" spans="2:19">
-      <c r="B28" s="496"/>
-      <c r="C28" s="497"/>
-      <c r="D28" s="571" t="s">
+      <c r="B28" s="497"/>
+      <c r="C28" s="498"/>
+      <c r="D28" s="564" t="s">
         <v>625</v>
       </c>
-      <c r="E28" s="575"/>
-      <c r="F28" s="594" t="s">
+      <c r="E28" s="565"/>
+      <c r="F28" s="584" t="s">
         <v>625</v>
       </c>
-      <c r="G28" s="571"/>
-      <c r="H28" s="572"/>
-      <c r="I28" s="570" t="s">
+      <c r="G28" s="564"/>
+      <c r="H28" s="585"/>
+      <c r="I28" s="587" t="s">
         <v>1355</v>
       </c>
-      <c r="J28" s="571"/>
-      <c r="K28" s="572"/>
+      <c r="J28" s="564"/>
+      <c r="K28" s="585"/>
       <c r="L28" s="5" t="s">
         <v>2</v>
       </c>
@@ -41169,22 +42150,22 @@
       <c r="O28" s="33"/>
     </row>
     <row r="29" spans="2:19">
-      <c r="B29" s="498"/>
-      <c r="C29" s="499"/>
-      <c r="D29" s="571" t="s">
+      <c r="B29" s="499"/>
+      <c r="C29" s="500"/>
+      <c r="D29" s="564" t="s">
         <v>626</v>
       </c>
-      <c r="E29" s="575"/>
-      <c r="F29" s="594" t="s">
+      <c r="E29" s="565"/>
+      <c r="F29" s="584" t="s">
         <v>626</v>
       </c>
-      <c r="G29" s="571"/>
-      <c r="H29" s="572"/>
-      <c r="I29" s="570" t="s">
+      <c r="G29" s="564"/>
+      <c r="H29" s="585"/>
+      <c r="I29" s="587" t="s">
         <v>1356</v>
       </c>
-      <c r="J29" s="571"/>
-      <c r="K29" s="572"/>
+      <c r="J29" s="564"/>
+      <c r="K29" s="585"/>
       <c r="L29" s="24" t="s">
         <v>2</v>
       </c>
@@ -41197,20 +42178,20 @@
         <v>629</v>
       </c>
       <c r="C30" s="424"/>
-      <c r="D30" s="576" t="s">
+      <c r="D30" s="566" t="s">
         <v>361</v>
       </c>
-      <c r="E30" s="577"/>
-      <c r="F30" s="582" t="s">
+      <c r="E30" s="567"/>
+      <c r="F30" s="572" t="s">
         <v>362</v>
       </c>
-      <c r="G30" s="583"/>
-      <c r="H30" s="577"/>
-      <c r="I30" s="582" t="s">
+      <c r="G30" s="573"/>
+      <c r="H30" s="567"/>
+      <c r="I30" s="572" t="s">
         <v>363</v>
       </c>
-      <c r="J30" s="583"/>
-      <c r="K30" s="588"/>
+      <c r="J30" s="573"/>
+      <c r="K30" s="578"/>
       <c r="L30" s="5"/>
       <c r="M30" s="33"/>
       <c r="N30" s="33"/>
@@ -41219,14 +42200,14 @@
     <row r="31" spans="2:19">
       <c r="B31" s="426"/>
       <c r="C31" s="427"/>
-      <c r="D31" s="578"/>
-      <c r="E31" s="579"/>
-      <c r="F31" s="584"/>
-      <c r="G31" s="585"/>
-      <c r="H31" s="579"/>
-      <c r="I31" s="584"/>
-      <c r="J31" s="585"/>
-      <c r="K31" s="589"/>
+      <c r="D31" s="568"/>
+      <c r="E31" s="569"/>
+      <c r="F31" s="574"/>
+      <c r="G31" s="575"/>
+      <c r="H31" s="569"/>
+      <c r="I31" s="574"/>
+      <c r="J31" s="575"/>
+      <c r="K31" s="579"/>
       <c r="L31" s="5"/>
       <c r="M31" s="33"/>
       <c r="N31" s="33"/>
@@ -41235,107 +42216,107 @@
     <row r="32" spans="2:19">
       <c r="B32" s="426"/>
       <c r="C32" s="427"/>
-      <c r="D32" s="578"/>
-      <c r="E32" s="579"/>
-      <c r="F32" s="584"/>
-      <c r="G32" s="585"/>
-      <c r="H32" s="579"/>
-      <c r="I32" s="584"/>
-      <c r="J32" s="585"/>
-      <c r="K32" s="589"/>
+      <c r="D32" s="568"/>
+      <c r="E32" s="569"/>
+      <c r="F32" s="574"/>
+      <c r="G32" s="575"/>
+      <c r="H32" s="569"/>
+      <c r="I32" s="574"/>
+      <c r="J32" s="575"/>
+      <c r="K32" s="579"/>
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="2:14">
       <c r="B33" s="426"/>
       <c r="C33" s="427"/>
-      <c r="D33" s="580"/>
-      <c r="E33" s="581"/>
-      <c r="F33" s="586"/>
-      <c r="G33" s="587"/>
-      <c r="H33" s="581"/>
-      <c r="I33" s="586"/>
-      <c r="J33" s="587"/>
-      <c r="K33" s="590"/>
+      <c r="D33" s="570"/>
+      <c r="E33" s="571"/>
+      <c r="F33" s="576"/>
+      <c r="G33" s="577"/>
+      <c r="H33" s="571"/>
+      <c r="I33" s="576"/>
+      <c r="J33" s="577"/>
+      <c r="K33" s="580"/>
     </row>
     <row r="34" spans="2:14">
       <c r="B34" s="426"/>
       <c r="C34" s="428"/>
-      <c r="D34" s="561" t="s">
+      <c r="D34" s="590" t="s">
         <v>616</v>
       </c>
-      <c r="E34" s="562"/>
-      <c r="F34" s="561" t="s">
+      <c r="E34" s="591"/>
+      <c r="F34" s="590" t="s">
         <v>374</v>
       </c>
-      <c r="G34" s="567"/>
-      <c r="H34" s="562"/>
-      <c r="I34" s="561" t="s">
+      <c r="G34" s="596"/>
+      <c r="H34" s="591"/>
+      <c r="I34" s="590" t="s">
         <v>631</v>
       </c>
-      <c r="J34" s="567"/>
-      <c r="K34" s="562"/>
+      <c r="J34" s="596"/>
+      <c r="K34" s="591"/>
     </row>
     <row r="35" spans="2:14">
       <c r="B35" s="426"/>
       <c r="C35" s="428"/>
-      <c r="D35" s="563"/>
-      <c r="E35" s="564"/>
-      <c r="F35" s="563"/>
-      <c r="G35" s="568"/>
-      <c r="H35" s="564"/>
-      <c r="I35" s="563"/>
-      <c r="J35" s="568"/>
-      <c r="K35" s="564"/>
+      <c r="D35" s="592"/>
+      <c r="E35" s="593"/>
+      <c r="F35" s="592"/>
+      <c r="G35" s="597"/>
+      <c r="H35" s="593"/>
+      <c r="I35" s="592"/>
+      <c r="J35" s="597"/>
+      <c r="K35" s="593"/>
     </row>
     <row r="36" spans="2:14">
       <c r="B36" s="426"/>
       <c r="C36" s="428"/>
-      <c r="D36" s="563"/>
-      <c r="E36" s="564"/>
-      <c r="F36" s="563"/>
-      <c r="G36" s="568"/>
-      <c r="H36" s="564"/>
-      <c r="I36" s="563"/>
-      <c r="J36" s="568"/>
-      <c r="K36" s="564"/>
+      <c r="D36" s="592"/>
+      <c r="E36" s="593"/>
+      <c r="F36" s="592"/>
+      <c r="G36" s="597"/>
+      <c r="H36" s="593"/>
+      <c r="I36" s="592"/>
+      <c r="J36" s="597"/>
+      <c r="K36" s="593"/>
     </row>
     <row r="37" spans="2:14">
       <c r="B37" s="426"/>
       <c r="C37" s="428"/>
-      <c r="D37" s="563"/>
-      <c r="E37" s="564"/>
-      <c r="F37" s="563"/>
-      <c r="G37" s="568"/>
-      <c r="H37" s="564"/>
-      <c r="I37" s="563"/>
-      <c r="J37" s="568"/>
-      <c r="K37" s="564"/>
+      <c r="D37" s="592"/>
+      <c r="E37" s="593"/>
+      <c r="F37" s="592"/>
+      <c r="G37" s="597"/>
+      <c r="H37" s="593"/>
+      <c r="I37" s="592"/>
+      <c r="J37" s="597"/>
+      <c r="K37" s="593"/>
     </row>
     <row r="38" spans="2:14" ht="15.75" thickBot="1">
       <c r="B38" s="426"/>
       <c r="C38" s="428"/>
-      <c r="D38" s="565"/>
-      <c r="E38" s="566"/>
-      <c r="F38" s="565"/>
-      <c r="G38" s="569"/>
-      <c r="H38" s="566"/>
-      <c r="I38" s="565"/>
-      <c r="J38" s="569"/>
-      <c r="K38" s="566"/>
+      <c r="D38" s="594"/>
+      <c r="E38" s="595"/>
+      <c r="F38" s="594"/>
+      <c r="G38" s="598"/>
+      <c r="H38" s="595"/>
+      <c r="I38" s="594"/>
+      <c r="J38" s="598"/>
+      <c r="K38" s="595"/>
     </row>
     <row r="39" spans="2:14" ht="19.5" thickBot="1">
       <c r="B39" s="429"/>
       <c r="C39" s="431"/>
-      <c r="D39" s="537" t="s">
+      <c r="D39" s="507" t="s">
         <v>364</v>
       </c>
-      <c r="E39" s="538"/>
-      <c r="F39" s="538"/>
-      <c r="G39" s="538"/>
-      <c r="H39" s="538"/>
-      <c r="I39" s="538"/>
-      <c r="J39" s="538"/>
-      <c r="K39" s="539"/>
+      <c r="E39" s="508"/>
+      <c r="F39" s="508"/>
+      <c r="G39" s="508"/>
+      <c r="H39" s="508"/>
+      <c r="I39" s="508"/>
+      <c r="J39" s="508"/>
+      <c r="K39" s="509"/>
       <c r="L39" s="35" t="s">
         <v>365</v>
       </c>
@@ -41372,16 +42353,17 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="E4:E18"/>
-    <mergeCell ref="M5:N18"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="F5:H18"/>
-    <mergeCell ref="I5:L18"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="B30:C39"/>
+    <mergeCell ref="B25:C29"/>
+    <mergeCell ref="D34:E38"/>
+    <mergeCell ref="F34:H38"/>
+    <mergeCell ref="I34:K38"/>
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="F41:K41"/>
@@ -41398,17 +42380,16 @@
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="I26:K26"/>
     <mergeCell ref="I27:K27"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="B30:C39"/>
-    <mergeCell ref="B25:C29"/>
-    <mergeCell ref="D34:E38"/>
-    <mergeCell ref="F34:H38"/>
-    <mergeCell ref="I34:K38"/>
-    <mergeCell ref="D39:K39"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="F5:H18"/>
+    <mergeCell ref="I5:L18"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="E4:E18"/>
+    <mergeCell ref="M5:N18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="R7" r:id="rId1"/>
@@ -43360,8 +44341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8:N13"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/jee_latest_st.xlsx
+++ b/jee_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="7590" firstSheet="8" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="7590" firstSheet="13" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="network" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4845" uniqueCount="2206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4874" uniqueCount="2231">
   <si>
     <t>java server - tomcat</t>
   </si>
@@ -7640,9 +7640,6 @@
     <t>United</t>
   </si>
   <si>
-    <t>providing services</t>
-  </si>
-  <si>
     <t>AA123 - 6 pm</t>
   </si>
   <si>
@@ -7652,16 +7649,94 @@
     <t>Web - internet</t>
   </si>
   <si>
-    <t>Platform independnce</t>
-  </si>
-  <si>
-    <t>Paypal</t>
-  </si>
-  <si>
-    <t>soap</t>
-  </si>
-  <si>
-    <t>rest</t>
+    <t>Provider/ publisher</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>publisher</t>
+  </si>
+  <si>
+    <t>platform dependancy</t>
+  </si>
+  <si>
+    <t>Strng=Ny to String=Ca</t>
+  </si>
+  <si>
+    <t>&lt;/operation&gt;</t>
+  </si>
+  <si>
+    <t>http over xml</t>
+  </si>
+  <si>
+    <t>simple mail transfer protocol</t>
+  </si>
+  <si>
+    <t>Fedex</t>
+  </si>
+  <si>
+    <t>USPS</t>
+  </si>
+  <si>
+    <t>String src=NY</t>
+  </si>
+  <si>
+    <t>String dest=chicago</t>
+  </si>
+  <si>
+    <t>performance issue</t>
+  </si>
+  <si>
+    <t>AA123</t>
+  </si>
+  <si>
+    <t>AA256</t>
+  </si>
+  <si>
+    <t>AA444</t>
+  </si>
+  <si>
+    <t>smtp://www.americanairline.com/getFlights</t>
+  </si>
+  <si>
+    <t>userid==john&amp;pass=john123</t>
+  </si>
+  <si>
+    <t>src=ny&amp;dest=chicago</t>
+  </si>
+  <si>
+    <t>path param</t>
+  </si>
+  <si>
+    <t>query param</t>
+  </si>
+  <si>
+    <t>http://www.americanairline.com/getFlights?wsdl</t>
+  </si>
+  <si>
+    <t>consumer and webservice client</t>
+  </si>
+  <si>
+    <t>Jaxb</t>
+  </si>
+  <si>
+    <t>JavaXmlBinding</t>
+  </si>
+  <si>
+    <t>http://localhost/add?wsdl</t>
+  </si>
+  <si>
+    <t>has-a</t>
+  </si>
+  <si>
+    <t>product p; Common</t>
+  </si>
+  <si>
+    <t>shoppingCart sc; specific , until the log out</t>
+  </si>
+  <si>
+    <t>String name; Common</t>
   </si>
 </sst>
 </file>
@@ -9127,6 +9202,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9288,6 +9365,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9703,17 +9789,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -10050,7 +10125,7 @@
       <c r="M2" s="24" t="s">
         <v>1331</v>
       </c>
-      <c r="U2" s="422" t="s">
+      <c r="U2" s="424" t="s">
         <v>1844</v>
       </c>
       <c r="V2" s="24" t="s">
@@ -10073,7 +10148,7 @@
       <c r="R3" s="24" t="s">
         <v>1845</v>
       </c>
-      <c r="U3" s="423"/>
+      <c r="U3" s="425"/>
       <c r="V3" s="24" t="s">
         <v>147</v>
       </c>
@@ -10101,7 +10176,7 @@
       <c r="S4" s="24" t="s">
         <v>1848</v>
       </c>
-      <c r="U4" s="423"/>
+      <c r="U4" s="425"/>
       <c r="V4" s="24" t="s">
         <v>1840</v>
       </c>
@@ -11225,10 +11300,10 @@
       <c r="C68" s="126">
         <v>1</v>
       </c>
-      <c r="D68" s="424" t="s">
+      <c r="D68" s="426" t="s">
         <v>1924</v>
       </c>
-      <c r="E68" s="424" t="s">
+      <c r="E68" s="426" t="s">
         <v>27</v>
       </c>
       <c r="F68" s="126"/>
@@ -11250,8 +11325,8 @@
       <c r="C69" s="278">
         <v>2</v>
       </c>
-      <c r="D69" s="424"/>
-      <c r="E69" s="424"/>
+      <c r="D69" s="426"/>
+      <c r="E69" s="426"/>
       <c r="F69" s="278">
         <v>21211</v>
       </c>
@@ -11271,10 +11346,10 @@
         <v>1880</v>
       </c>
       <c r="C70" s="126"/>
-      <c r="D70" s="424" t="s">
+      <c r="D70" s="426" t="s">
         <v>1871</v>
       </c>
-      <c r="E70" s="424" t="s">
+      <c r="E70" s="426" t="s">
         <v>31</v>
       </c>
       <c r="F70" s="126"/>
@@ -11304,8 +11379,8 @@
         <v>1880</v>
       </c>
       <c r="C71" s="126"/>
-      <c r="D71" s="424"/>
-      <c r="E71" s="424"/>
+      <c r="D71" s="426"/>
+      <c r="E71" s="426"/>
       <c r="F71" s="126"/>
       <c r="G71" s="249" t="s">
         <v>1884</v>
@@ -11677,7 +11752,7 @@
       <c r="F107" s="24" t="s">
         <v>1910</v>
       </c>
-      <c r="I107" s="420">
+      <c r="I107" s="422">
         <v>22</v>
       </c>
       <c r="J107" s="24" t="s">
@@ -11692,7 +11767,7 @@
       <c r="F108" s="24" t="s">
         <v>1911</v>
       </c>
-      <c r="I108" s="421"/>
+      <c r="I108" s="423"/>
       <c r="P108" s="126"/>
     </row>
     <row r="109" spans="3:16">
@@ -14361,7 +14436,7 @@
         <v>2100</v>
       </c>
       <c r="K268" s="4"/>
-      <c r="L268" s="462"/>
+      <c r="L268" s="464"/>
       <c r="M268" s="5"/>
       <c r="N268" s="33"/>
       <c r="O268" s="33"/>
@@ -14376,7 +14451,7 @@
         <v>2187</v>
       </c>
       <c r="K269" s="4"/>
-      <c r="L269" s="463"/>
+      <c r="L269" s="465"/>
       <c r="M269" s="5"/>
       <c r="N269" s="33"/>
       <c r="O269" s="33"/>
@@ -14743,8 +14818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X293"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K94" sqref="K94:M98"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14825,13 +14900,13 @@
         <v>60</v>
       </c>
       <c r="J3" s="120"/>
-      <c r="K3" s="472"/>
-      <c r="L3" s="472"/>
-      <c r="M3" s="472"/>
-      <c r="N3" s="472"/>
-      <c r="O3" s="472"/>
-      <c r="P3" s="472"/>
-      <c r="Q3" s="473"/>
+      <c r="K3" s="474"/>
+      <c r="L3" s="474"/>
+      <c r="M3" s="474"/>
+      <c r="N3" s="474"/>
+      <c r="O3" s="474"/>
+      <c r="P3" s="474"/>
+      <c r="Q3" s="475"/>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
       <c r="T3" s="26" t="s">
@@ -15142,13 +15217,13 @@
       </c>
     </row>
     <row r="12" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A12" s="426" t="s">
+      <c r="A12" s="428" t="s">
         <v>415</v>
       </c>
-      <c r="B12" s="464"/>
-      <c r="C12" s="464"/>
-      <c r="D12" s="464"/>
-      <c r="E12" s="465"/>
+      <c r="B12" s="466"/>
+      <c r="C12" s="466"/>
+      <c r="D12" s="466"/>
+      <c r="E12" s="467"/>
       <c r="F12" t="s">
         <v>428</v>
       </c>
@@ -15175,11 +15250,11 @@
       <c r="V12" s="6"/>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13" s="466"/>
-      <c r="B13" s="467"/>
-      <c r="C13" s="467"/>
-      <c r="D13" s="467"/>
-      <c r="E13" s="468"/>
+      <c r="A13" s="468"/>
+      <c r="B13" s="469"/>
+      <c r="C13" s="469"/>
+      <c r="D13" s="469"/>
+      <c r="E13" s="470"/>
       <c r="F13" t="s">
         <v>6</v>
       </c>
@@ -15206,11 +15281,11 @@
       <c r="V13" s="6"/>
     </row>
     <row r="14" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A14" s="466"/>
-      <c r="B14" s="467"/>
-      <c r="C14" s="467"/>
-      <c r="D14" s="467"/>
-      <c r="E14" s="468"/>
+      <c r="A14" s="468"/>
+      <c r="B14" s="469"/>
+      <c r="C14" s="469"/>
+      <c r="D14" s="469"/>
+      <c r="E14" s="470"/>
       <c r="F14" t="s">
         <v>425</v>
       </c>
@@ -15239,11 +15314,11 @@
       <c r="V14" s="6"/>
     </row>
     <row r="15" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A15" s="469"/>
-      <c r="B15" s="470"/>
-      <c r="C15" s="470"/>
-      <c r="D15" s="470"/>
-      <c r="E15" s="471"/>
+      <c r="A15" s="471"/>
+      <c r="B15" s="472"/>
+      <c r="C15" s="472"/>
+      <c r="D15" s="472"/>
+      <c r="E15" s="473"/>
       <c r="F15" s="24"/>
       <c r="H15" s="141"/>
       <c r="I15" s="4" t="s">
@@ -15313,17 +15388,17 @@
       <c r="F17" s="137"/>
       <c r="G17" s="101"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="441" t="s">
+      <c r="I17" s="443" t="s">
         <v>795</v>
       </c>
-      <c r="J17" s="441"/>
-      <c r="K17" s="441"/>
-      <c r="L17" s="441"/>
-      <c r="M17" s="441"/>
-      <c r="N17" s="441"/>
-      <c r="O17" s="441"/>
-      <c r="P17" s="441"/>
-      <c r="Q17" s="441"/>
+      <c r="J17" s="443"/>
+      <c r="K17" s="443"/>
+      <c r="L17" s="443"/>
+      <c r="M17" s="443"/>
+      <c r="N17" s="443"/>
+      <c r="O17" s="443"/>
+      <c r="P17" s="443"/>
+      <c r="Q17" s="443"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5" t="s">
         <v>196</v>
@@ -16354,7 +16429,7 @@
       <c r="K62" s="24" t="s">
         <v>2164</v>
       </c>
-      <c r="L62" s="612" t="s">
+      <c r="L62" s="476" t="s">
         <v>391</v>
       </c>
       <c r="M62" s="12" t="s">
@@ -16386,7 +16461,7 @@
       <c r="I63" s="58"/>
       <c r="J63" s="24"/>
       <c r="K63" s="24"/>
-      <c r="L63" s="613"/>
+      <c r="L63" s="477"/>
       <c r="M63" s="12" t="s">
         <v>202</v>
       </c>
@@ -16418,7 +16493,7 @@
       <c r="I64" s="58"/>
       <c r="J64" s="24"/>
       <c r="K64" s="24"/>
-      <c r="L64" s="614"/>
+      <c r="L64" s="478"/>
       <c r="M64" s="12"/>
       <c r="N64" s="24"/>
       <c r="O64" s="24"/>
@@ -24127,7 +24202,7 @@
       <c r="L109" s="2"/>
       <c r="M109" s="3"/>
       <c r="N109" s="5"/>
-      <c r="O109" s="474">
+      <c r="O109" s="479">
         <v>123</v>
       </c>
       <c r="P109" s="238" t="s">
@@ -24149,7 +24224,7 @@
       <c r="L110" s="5"/>
       <c r="M110" s="6"/>
       <c r="N110" s="5"/>
-      <c r="O110" s="451"/>
+      <c r="O110" s="453"/>
       <c r="P110" s="238"/>
       <c r="Q110" s="33" t="s">
         <v>202</v>
@@ -24167,7 +24242,7 @@
       <c r="L111" s="5"/>
       <c r="M111" s="6"/>
       <c r="N111" s="5"/>
-      <c r="O111" s="451"/>
+      <c r="O111" s="453"/>
       <c r="P111" s="238"/>
       <c r="Q111" s="33" t="s">
         <v>674</v>
@@ -24185,7 +24260,7 @@
       <c r="L112" s="5"/>
       <c r="M112" s="6"/>
       <c r="N112" s="5"/>
-      <c r="O112" s="451"/>
+      <c r="O112" s="453"/>
       <c r="P112" s="238"/>
       <c r="Q112" s="33"/>
     </row>
@@ -24204,7 +24279,7 @@
       <c r="L113" s="5"/>
       <c r="M113" s="6"/>
       <c r="N113" s="5"/>
-      <c r="O113" s="452"/>
+      <c r="O113" s="454"/>
       <c r="P113" s="238"/>
       <c r="Q113" s="33"/>
     </row>
@@ -24229,7 +24304,7 @@
       <c r="L114" s="5"/>
       <c r="M114" s="6"/>
       <c r="N114" s="5"/>
-      <c r="O114" s="474">
+      <c r="O114" s="479">
         <v>456</v>
       </c>
       <c r="P114" s="238" t="s">
@@ -24251,7 +24326,7 @@
       <c r="L115" s="5"/>
       <c r="M115" s="6"/>
       <c r="N115" s="5"/>
-      <c r="O115" s="451"/>
+      <c r="O115" s="453"/>
       <c r="P115" s="238"/>
       <c r="Q115" s="33" t="s">
         <v>1066</v>
@@ -24272,7 +24347,7 @@
       <c r="L116" s="5"/>
       <c r="M116" s="6"/>
       <c r="N116" s="5"/>
-      <c r="O116" s="451"/>
+      <c r="O116" s="453"/>
       <c r="P116" s="238"/>
       <c r="Q116" s="33"/>
     </row>
@@ -24291,7 +24366,7 @@
       <c r="L117" s="5"/>
       <c r="M117" s="6"/>
       <c r="N117" s="5"/>
-      <c r="O117" s="452"/>
+      <c r="O117" s="454"/>
       <c r="P117" s="238"/>
       <c r="Q117" s="33"/>
     </row>
@@ -24307,7 +24382,7 @@
       <c r="L118" s="5"/>
       <c r="M118" s="6"/>
       <c r="N118" s="5"/>
-      <c r="O118" s="474">
+      <c r="O118" s="479">
         <v>777</v>
       </c>
       <c r="P118" s="238"/>
@@ -24330,7 +24405,7 @@
       <c r="L119" s="5"/>
       <c r="M119" s="6"/>
       <c r="N119" s="5"/>
-      <c r="O119" s="451"/>
+      <c r="O119" s="453"/>
       <c r="P119" s="238"/>
       <c r="Q119" s="33"/>
     </row>
@@ -24349,7 +24424,7 @@
       <c r="L120" s="5"/>
       <c r="M120" s="6"/>
       <c r="N120" s="5"/>
-      <c r="O120" s="451"/>
+      <c r="O120" s="453"/>
       <c r="P120" s="238"/>
       <c r="Q120" s="33"/>
     </row>
@@ -24368,7 +24443,7 @@
       <c r="L121" s="5"/>
       <c r="M121" s="6"/>
       <c r="N121" s="5"/>
-      <c r="O121" s="452"/>
+      <c r="O121" s="454"/>
       <c r="P121" s="238"/>
       <c r="Q121" s="33"/>
     </row>
@@ -24530,10 +24605,10 @@
       <c r="L133" s="2"/>
       <c r="M133" s="3"/>
       <c r="N133" s="5"/>
-      <c r="O133" s="478">
+      <c r="O133" s="483">
         <v>123</v>
       </c>
-      <c r="P133" s="475" t="s">
+      <c r="P133" s="480" t="s">
         <v>496</v>
       </c>
       <c r="Q133" s="254" t="s">
@@ -24552,8 +24627,8 @@
       <c r="L134" s="5"/>
       <c r="M134" s="6"/>
       <c r="N134" s="5"/>
-      <c r="O134" s="479"/>
-      <c r="P134" s="476"/>
+      <c r="O134" s="484"/>
+      <c r="P134" s="481"/>
       <c r="Q134" s="254" t="s">
         <v>202</v>
       </c>
@@ -24570,8 +24645,8 @@
       <c r="L135" s="5"/>
       <c r="M135" s="6"/>
       <c r="N135" s="5"/>
-      <c r="O135" s="479"/>
-      <c r="P135" s="476"/>
+      <c r="O135" s="484"/>
+      <c r="P135" s="481"/>
       <c r="Q135" s="254"/>
     </row>
     <row r="136" spans="1:17" ht="15.75" thickBot="1">
@@ -24590,8 +24665,8 @@
       <c r="L136" s="5"/>
       <c r="M136" s="6"/>
       <c r="N136" s="5"/>
-      <c r="O136" s="479"/>
-      <c r="P136" s="476"/>
+      <c r="O136" s="484"/>
+      <c r="P136" s="481"/>
       <c r="Q136" s="254"/>
     </row>
     <row r="137" spans="1:17" ht="15.75" thickBot="1">
@@ -24613,8 +24688,8 @@
       <c r="L137" s="26"/>
       <c r="M137" s="34"/>
       <c r="N137" s="26"/>
-      <c r="O137" s="480"/>
-      <c r="P137" s="477"/>
+      <c r="O137" s="485"/>
+      <c r="P137" s="482"/>
       <c r="Q137" s="254"/>
     </row>
     <row r="138" spans="1:17">
@@ -24634,7 +24709,7 @@
       <c r="L138" s="5"/>
       <c r="M138" s="6"/>
       <c r="N138" s="5"/>
-      <c r="O138" s="474"/>
+      <c r="O138" s="479"/>
       <c r="P138" s="238"/>
       <c r="Q138" s="33"/>
     </row>
@@ -24650,7 +24725,7 @@
       <c r="L139" s="5"/>
       <c r="M139" s="6"/>
       <c r="N139" s="5"/>
-      <c r="O139" s="451"/>
+      <c r="O139" s="453"/>
       <c r="P139" s="238"/>
       <c r="Q139" s="33"/>
     </row>
@@ -24668,7 +24743,7 @@
       <c r="L140" s="38"/>
       <c r="M140" s="44"/>
       <c r="N140" s="5"/>
-      <c r="O140" s="451"/>
+      <c r="O140" s="453"/>
       <c r="P140" s="238"/>
       <c r="Q140" s="33"/>
     </row>
@@ -24687,7 +24762,7 @@
       <c r="L141" s="5"/>
       <c r="M141" s="6"/>
       <c r="N141" s="5"/>
-      <c r="O141" s="452"/>
+      <c r="O141" s="454"/>
       <c r="P141" s="238"/>
       <c r="Q141" s="33"/>
     </row>
@@ -24705,7 +24780,7 @@
       <c r="L142" s="5"/>
       <c r="M142" s="6"/>
       <c r="N142" s="5"/>
-      <c r="O142" s="474"/>
+      <c r="O142" s="479"/>
       <c r="P142" s="238"/>
       <c r="Q142" s="33"/>
     </row>
@@ -24725,7 +24800,7 @@
       </c>
       <c r="M143" s="253"/>
       <c r="N143" s="142"/>
-      <c r="O143" s="451"/>
+      <c r="O143" s="453"/>
       <c r="P143" s="238"/>
       <c r="Q143" s="33"/>
     </row>
@@ -24741,7 +24816,7 @@
       <c r="L144" s="5"/>
       <c r="M144" s="6"/>
       <c r="N144" s="5"/>
-      <c r="O144" s="451"/>
+      <c r="O144" s="453"/>
       <c r="P144" s="238"/>
       <c r="Q144" s="33"/>
     </row>
@@ -24761,7 +24836,7 @@
       <c r="L145" s="5"/>
       <c r="M145" s="6"/>
       <c r="N145" s="5"/>
-      <c r="O145" s="452"/>
+      <c r="O145" s="454"/>
       <c r="P145" s="238"/>
       <c r="Q145" s="33"/>
     </row>
@@ -27119,8 +27194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z123"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E116" sqref="E116"/>
+    <sheetView tabSelected="1" topLeftCell="D9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27149,8 +27224,8 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="482"/>
-      <c r="B2" s="429"/>
+      <c r="A2" s="487"/>
+      <c r="B2" s="431"/>
       <c r="C2" s="27" t="s">
         <v>1343</v>
       </c>
@@ -27168,8 +27243,8 @@
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A3" s="482"/>
-      <c r="B3" s="429"/>
+      <c r="A3" s="487"/>
+      <c r="B3" s="431"/>
       <c r="C3" s="4" t="s">
         <v>169</v>
       </c>
@@ -27193,8 +27268,8 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A4" s="483"/>
-      <c r="B4" s="484"/>
+      <c r="A4" s="488"/>
+      <c r="B4" s="489"/>
       <c r="C4" s="7" t="s">
         <v>1537</v>
       </c>
@@ -27235,8 +27310,8 @@
       <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="482"/>
-      <c r="B7" s="429"/>
+      <c r="A7" s="487"/>
+      <c r="B7" s="431"/>
       <c r="C7" s="27" t="s">
         <v>1343</v>
       </c>
@@ -27252,8 +27327,8 @@
       <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A8" s="482"/>
-      <c r="B8" s="429"/>
+      <c r="A8" s="487"/>
+      <c r="B8" s="431"/>
       <c r="C8" s="4" t="s">
         <v>169</v>
       </c>
@@ -27273,8 +27348,8 @@
       <c r="N8" s="9"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A9" s="483"/>
-      <c r="B9" s="484"/>
+      <c r="A9" s="488"/>
+      <c r="B9" s="489"/>
       <c r="C9" s="7" t="s">
         <v>1540</v>
       </c>
@@ -27308,6 +27383,9 @@
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
+      <c r="L12" t="s">
+        <v>1202</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="89"/>
@@ -27317,6 +27395,12 @@
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
+      <c r="M13" t="s">
+        <v>2227</v>
+      </c>
+      <c r="N13" t="s">
+        <v>2228</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="339"/>
@@ -27324,12 +27408,18 @@
       <c r="C14" s="24"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
+      <c r="N14" t="s">
+        <v>2229</v>
+      </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1">
       <c r="A15" s="339"/>
       <c r="B15" s="325"/>
       <c r="C15" s="340" t="s">
         <v>235</v>
+      </c>
+      <c r="N15" t="s">
+        <v>2230</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -27604,8 +27694,8 @@
       </c>
     </row>
     <row r="35" spans="1:26">
-      <c r="A35" s="482"/>
-      <c r="B35" s="429"/>
+      <c r="A35" s="487"/>
+      <c r="B35" s="431"/>
       <c r="C35" s="27" t="s">
         <v>1343</v>
       </c>
@@ -27626,8 +27716,8 @@
       </c>
     </row>
     <row r="36" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A36" s="482"/>
-      <c r="B36" s="429"/>
+      <c r="A36" s="487"/>
+      <c r="B36" s="431"/>
       <c r="C36" s="4"/>
       <c r="D36" s="5" t="s">
         <v>202</v>
@@ -27654,8 +27744,8 @@
       </c>
     </row>
     <row r="37" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A37" s="483"/>
-      <c r="B37" s="484"/>
+      <c r="A37" s="488"/>
+      <c r="B37" s="489"/>
       <c r="C37" s="7" t="s">
         <v>1549</v>
       </c>
@@ -27699,8 +27789,8 @@
       <c r="N39" s="6"/>
     </row>
     <row r="40" spans="1:26">
-      <c r="A40" s="482"/>
-      <c r="B40" s="429"/>
+      <c r="A40" s="487"/>
+      <c r="B40" s="431"/>
       <c r="C40" s="27" t="s">
         <v>1343</v>
       </c>
@@ -27716,8 +27806,8 @@
       <c r="N40" s="6"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A41" s="482"/>
-      <c r="B41" s="429"/>
+      <c r="A41" s="487"/>
+      <c r="B41" s="431"/>
       <c r="C41" s="4"/>
       <c r="D41" s="5" t="s">
         <v>169</v>
@@ -27735,8 +27825,8 @@
       <c r="N41" s="9"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A42" s="483"/>
-      <c r="B42" s="484"/>
+      <c r="A42" s="488"/>
+      <c r="B42" s="489"/>
       <c r="C42" s="7" t="s">
         <v>1550</v>
       </c>
@@ -29123,7 +29213,7 @@
       <c r="E114" s="24" t="s">
         <v>1539</v>
       </c>
-      <c r="I114" s="462" t="s">
+      <c r="I114" s="464" t="s">
         <v>1585</v>
       </c>
       <c r="J114" s="341" t="s">
@@ -29144,7 +29234,7 @@
       <c r="B115" s="7"/>
       <c r="C115" s="82"/>
       <c r="D115" s="83"/>
-      <c r="I115" s="481"/>
+      <c r="I115" s="486"/>
       <c r="J115" s="5"/>
       <c r="K115" s="33"/>
       <c r="L115" s="33"/>
@@ -29158,7 +29248,7 @@
       <c r="E116" t="s">
         <v>142</v>
       </c>
-      <c r="I116" s="463"/>
+      <c r="I116" s="465"/>
       <c r="J116" s="5"/>
       <c r="K116" s="5"/>
       <c r="L116" s="5"/>
@@ -29200,7 +29290,7 @@
       <c r="N119" s="6"/>
     </row>
     <row r="120" spans="2:14">
-      <c r="I120" s="462" t="s">
+      <c r="I120" s="464" t="s">
         <v>1586</v>
       </c>
       <c r="J120" s="5"/>
@@ -29210,7 +29300,7 @@
       <c r="N120" s="6"/>
     </row>
     <row r="121" spans="2:14">
-      <c r="I121" s="481"/>
+      <c r="I121" s="486"/>
       <c r="J121" s="5"/>
       <c r="K121" s="5"/>
       <c r="L121" s="5"/>
@@ -29218,7 +29308,7 @@
       <c r="N121" s="6"/>
     </row>
     <row r="122" spans="2:14" ht="15.75" thickBot="1">
-      <c r="I122" s="463"/>
+      <c r="I122" s="465"/>
       <c r="J122" s="5"/>
       <c r="K122" s="5"/>
       <c r="L122" s="5"/>
@@ -30283,10 +30373,10 @@
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="485" t="s">
+      <c r="L35" s="490" t="s">
         <v>212</v>
       </c>
-      <c r="M35" s="485"/>
+      <c r="M35" s="490"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
@@ -32216,10 +32306,10 @@
       </c>
     </row>
     <row r="155" spans="1:17">
-      <c r="A155" s="486" t="s">
+      <c r="A155" s="491" t="s">
         <v>665</v>
       </c>
-      <c r="B155" s="486"/>
+      <c r="B155" s="491"/>
     </row>
     <row r="156" spans="1:17">
       <c r="A156" s="68" t="s">
@@ -33017,18 +33107,18 @@
       </c>
     </row>
     <row r="29" spans="2:16">
-      <c r="B29" s="487" t="s">
+      <c r="B29" s="492" t="s">
         <v>941</v>
       </c>
-      <c r="C29" s="487"/>
-      <c r="D29" s="487"/>
-      <c r="E29" s="487"/>
-      <c r="F29" s="487"/>
-      <c r="I29" s="487" t="s">
+      <c r="C29" s="492"/>
+      <c r="D29" s="492"/>
+      <c r="E29" s="492"/>
+      <c r="F29" s="492"/>
+      <c r="I29" s="492" t="s">
         <v>1130</v>
       </c>
-      <c r="J29" s="487"/>
-      <c r="K29" s="487"/>
+      <c r="J29" s="492"/>
+      <c r="K29" s="492"/>
     </row>
     <row r="31" spans="2:16">
       <c r="B31" t="s">
@@ -34666,8 +34756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:R255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N44" sqref="N44:N46"/>
+    <sheetView topLeftCell="A205" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D212" sqref="D212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -34705,18 +34795,18 @@
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1">
       <c r="D6" s="4"/>
-      <c r="E6" s="488" t="s">
+      <c r="E6" s="493" t="s">
         <v>244</v>
       </c>
-      <c r="F6" s="489"/>
-      <c r="G6" s="490" t="s">
+      <c r="F6" s="494"/>
+      <c r="G6" s="495" t="s">
         <v>57</v>
       </c>
-      <c r="H6" s="490"/>
-      <c r="I6" s="490"/>
-      <c r="J6" s="490"/>
-      <c r="K6" s="490"/>
-      <c r="L6" s="489"/>
+      <c r="H6" s="495"/>
+      <c r="I6" s="495"/>
+      <c r="J6" s="495"/>
+      <c r="K6" s="495"/>
+      <c r="L6" s="494"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="26" t="s">
@@ -34729,7 +34819,7 @@
       <c r="B7" t="s">
         <v>1198</v>
       </c>
-      <c r="D7" s="500">
+      <c r="D7" s="505">
         <v>80</v>
       </c>
       <c r="E7" s="119"/>
@@ -34747,7 +34837,7 @@
       <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1">
-      <c r="D8" s="500"/>
+      <c r="D8" s="505"/>
       <c r="E8" s="106" t="s">
         <v>246</v>
       </c>
@@ -34780,7 +34870,7 @@
       <c r="B9" t="s">
         <v>245</v>
       </c>
-      <c r="D9" s="500"/>
+      <c r="D9" s="505"/>
       <c r="E9" s="121"/>
       <c r="F9" s="245"/>
       <c r="G9" s="121"/>
@@ -34807,7 +34897,7 @@
       <c r="A10" t="s">
         <v>1203</v>
       </c>
-      <c r="D10" s="500"/>
+      <c r="D10" s="505"/>
       <c r="E10" s="119"/>
       <c r="F10" s="120"/>
       <c r="G10" s="119"/>
@@ -34834,7 +34924,7 @@
       <c r="B11" t="s">
         <v>1608</v>
       </c>
-      <c r="D11" s="500"/>
+      <c r="D11" s="505"/>
       <c r="E11" s="106" t="s">
         <v>250</v>
       </c>
@@ -34863,7 +34953,7 @@
       <c r="B12" s="156" t="s">
         <v>254</v>
       </c>
-      <c r="D12" s="500"/>
+      <c r="D12" s="505"/>
       <c r="E12" s="121"/>
       <c r="F12" s="245"/>
       <c r="G12" s="121"/>
@@ -34884,7 +34974,7 @@
       <c r="B13" t="s">
         <v>1199</v>
       </c>
-      <c r="D13" s="500"/>
+      <c r="D13" s="505"/>
       <c r="E13" s="119"/>
       <c r="F13" s="120"/>
       <c r="G13" s="119"/>
@@ -34903,7 +34993,7 @@
       <c r="B14" t="s">
         <v>1200</v>
       </c>
-      <c r="D14" s="500"/>
+      <c r="D14" s="505"/>
       <c r="E14" s="106" t="s">
         <v>255</v>
       </c>
@@ -34930,7 +35020,7 @@
       <c r="B15" t="s">
         <v>1201</v>
       </c>
-      <c r="D15" s="500"/>
+      <c r="D15" s="505"/>
       <c r="E15" s="121"/>
       <c r="F15" s="245"/>
       <c r="G15" s="121"/>
@@ -34949,7 +35039,7 @@
       <c r="B16" t="s">
         <v>1202</v>
       </c>
-      <c r="D16" s="500"/>
+      <c r="D16" s="505"/>
       <c r="E16" s="119"/>
       <c r="F16" s="120"/>
       <c r="G16" s="24"/>
@@ -34967,7 +35057,7 @@
       <c r="Q16" s="6"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1">
-      <c r="D17" s="500"/>
+      <c r="D17" s="505"/>
       <c r="E17" s="106" t="s">
         <v>259</v>
       </c>
@@ -34996,7 +35086,7 @@
       <c r="A18" t="s">
         <v>1606</v>
       </c>
-      <c r="D18" s="500"/>
+      <c r="D18" s="505"/>
       <c r="E18" s="121"/>
       <c r="F18" s="245"/>
       <c r="G18" s="47"/>
@@ -35016,20 +35106,20 @@
         <v>1607</v>
       </c>
       <c r="D19" s="8"/>
-      <c r="E19" s="491" t="s">
+      <c r="E19" s="496" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="492"/>
-      <c r="G19" s="491" t="s">
+      <c r="F19" s="497"/>
+      <c r="G19" s="496" t="s">
         <v>74</v>
       </c>
-      <c r="H19" s="492"/>
-      <c r="I19" s="491" t="s">
+      <c r="H19" s="497"/>
+      <c r="I19" s="496" t="s">
         <v>75</v>
       </c>
-      <c r="J19" s="493"/>
-      <c r="K19" s="493"/>
-      <c r="L19" s="492"/>
+      <c r="J19" s="498"/>
+      <c r="K19" s="498"/>
+      <c r="L19" s="497"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
@@ -35094,12 +35184,12 @@
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="501"/>
-      <c r="H24" s="501"/>
-      <c r="I24" s="501"/>
-      <c r="J24" s="501"/>
-      <c r="K24" s="501"/>
-      <c r="L24" s="501"/>
+      <c r="G24" s="506"/>
+      <c r="H24" s="506"/>
+      <c r="I24" s="506"/>
+      <c r="J24" s="506"/>
+      <c r="K24" s="506"/>
+      <c r="L24" s="506"/>
       <c r="O24" s="35" t="s">
         <v>58</v>
       </c>
@@ -35377,6 +35467,9 @@
         <v>1597</v>
       </c>
       <c r="J41" s="3"/>
+      <c r="L41" t="s">
+        <v>2206</v>
+      </c>
     </row>
     <row r="42" spans="1:17">
       <c r="C42" s="4"/>
@@ -35402,7 +35495,13 @@
       <c r="I43" s="5"/>
       <c r="J43" s="6"/>
       <c r="L43" t="s">
-        <v>2202</v>
+        <v>2201</v>
+      </c>
+      <c r="O43" t="s">
+        <v>563</v>
+      </c>
+      <c r="P43" t="s">
+        <v>2207</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -35415,16 +35514,19 @@
       <c r="D44" s="6" t="s">
         <v>1444</v>
       </c>
-      <c r="E44" s="428" t="s">
+      <c r="E44" s="430" t="s">
         <v>1596</v>
       </c>
-      <c r="F44" s="429"/>
+      <c r="F44" s="431"/>
       <c r="G44" s="4"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="6"/>
-      <c r="N44" t="s">
-        <v>2204</v>
+      <c r="L44" t="s">
+        <v>2202</v>
+      </c>
+      <c r="O44" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -35434,18 +35536,14 @@
       <c r="D45" s="6" t="s">
         <v>853</v>
       </c>
-      <c r="E45" s="428"/>
-      <c r="F45" s="429"/>
+      <c r="E45" s="430"/>
+      <c r="F45" s="431"/>
       <c r="G45" s="4"/>
-      <c r="H45" s="5"/>
+      <c r="H45" s="5" t="s">
+        <v>2205</v>
+      </c>
       <c r="I45" s="5"/>
       <c r="J45" s="6"/>
-      <c r="L45" t="s">
-        <v>2203</v>
-      </c>
-      <c r="N45" t="s">
-        <v>2205</v>
-      </c>
     </row>
     <row r="46" spans="1:17">
       <c r="C46" s="4"/>
@@ -35465,7 +35563,7 @@
       </c>
       <c r="J46" s="6"/>
       <c r="L46" t="s">
-        <v>561</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="15.75" thickBot="1">
@@ -35475,7 +35573,9 @@
         <v>497</v>
       </c>
       <c r="G47" s="168"/>
-      <c r="H47" s="348"/>
+      <c r="H47" s="348" t="s">
+        <v>2223</v>
+      </c>
       <c r="I47" s="346"/>
       <c r="J47" s="347"/>
     </row>
@@ -35487,7 +35587,7 @@
     </row>
     <row r="49" spans="1:17" ht="15.75" thickBot="1">
       <c r="F49" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="G49" s="345"/>
       <c r="H49" s="35" t="s">
@@ -35513,7 +35613,9 @@
         <v>906</v>
       </c>
       <c r="G50" s="28"/>
-      <c r="H50" s="35"/>
+      <c r="H50" s="35" t="s">
+        <v>1012</v>
+      </c>
       <c r="I50" s="28"/>
       <c r="J50" s="35"/>
       <c r="M50" s="35"/>
@@ -35525,7 +35627,7 @@
       <c r="G51" s="345"/>
       <c r="H51" s="35"/>
       <c r="I51" s="28"/>
-      <c r="J51" s="615"/>
+      <c r="J51" s="420"/>
       <c r="M51" s="35"/>
       <c r="P51" s="35"/>
     </row>
@@ -35541,17 +35643,17 @@
       </c>
       <c r="H52" s="164"/>
       <c r="I52" s="162"/>
-      <c r="J52" s="616" t="s">
+      <c r="J52" s="421" t="s">
         <v>271</v>
       </c>
       <c r="K52" s="161"/>
       <c r="L52" s="313"/>
-      <c r="M52" s="616" t="s">
+      <c r="M52" s="421" t="s">
         <v>2197</v>
       </c>
       <c r="N52" s="161"/>
       <c r="O52" s="162"/>
-      <c r="P52" s="616" t="s">
+      <c r="P52" s="421" t="s">
         <v>272</v>
       </c>
       <c r="Q52" s="3"/>
@@ -35565,7 +35667,7 @@
       </c>
       <c r="G53" s="20"/>
       <c r="H53" s="165" t="s">
-        <v>2198</v>
+        <v>2203</v>
       </c>
       <c r="J53" s="30"/>
       <c r="K53" s="6"/>
@@ -35605,7 +35707,7 @@
       <c r="C55" s="4"/>
       <c r="D55" s="6"/>
       <c r="G55" s="22" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="H55" s="23"/>
       <c r="J55" s="8"/>
@@ -35619,7 +35721,7 @@
       <c r="C56" s="8"/>
       <c r="D56" s="9"/>
       <c r="G56" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -35698,7 +35800,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="65" spans="2:13">
+    <row r="65" spans="2:14">
       <c r="B65" s="52" t="s">
         <v>577</v>
       </c>
@@ -35709,7 +35811,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="66" spans="2:13">
+    <row r="66" spans="2:14">
       <c r="B66" s="52" t="s">
         <v>578</v>
       </c>
@@ -35720,7 +35822,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="67" spans="2:13">
+    <row r="67" spans="2:14">
       <c r="B67" s="52" t="s">
         <v>576</v>
       </c>
@@ -35731,7 +35833,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="68" spans="2:13">
+    <row r="68" spans="2:14">
       <c r="B68" s="52" t="s">
         <v>579</v>
       </c>
@@ -35742,7 +35844,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="69" spans="2:13">
+    <row r="69" spans="2:14">
       <c r="B69" s="52" t="s">
         <v>580</v>
       </c>
@@ -35753,7 +35855,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="70" spans="2:13">
+    <row r="70" spans="2:14">
       <c r="B70" s="52" t="s">
         <v>583</v>
       </c>
@@ -35764,7 +35866,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="71" spans="2:13">
+    <row r="71" spans="2:14">
       <c r="B71" s="52" t="s">
         <v>713</v>
       </c>
@@ -35775,12 +35877,15 @@
         <v>715</v>
       </c>
     </row>
-    <row r="72" spans="2:13">
+    <row r="72" spans="2:14">
       <c r="C72" t="s">
         <v>910</v>
       </c>
-    </row>
-    <row r="73" spans="2:13">
+      <c r="M72" t="s">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14">
       <c r="D73" t="s">
         <v>713</v>
       </c>
@@ -35788,7 +35893,12 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="75" spans="2:13">
+    <row r="74" spans="2:14">
+      <c r="M74" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14">
       <c r="D75" t="s">
         <v>561</v>
       </c>
@@ -35796,7 +35906,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="76" spans="2:13" ht="15.75" thickBot="1">
+    <row r="76" spans="2:14" ht="15.75" thickBot="1">
       <c r="B76" t="s">
         <v>266</v>
       </c>
@@ -35804,7 +35914,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="77" spans="2:13">
+    <row r="77" spans="2:14">
       <c r="B77" s="1" t="s">
         <v>223</v>
       </c>
@@ -35818,8 +35928,11 @@
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
       <c r="M77" s="3"/>
-    </row>
-    <row r="78" spans="2:13">
+      <c r="N77" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14">
       <c r="B78" s="4" t="s">
         <v>1175</v>
       </c>
@@ -35843,8 +35956,11 @@
       </c>
       <c r="L78" s="5"/>
       <c r="M78" s="6"/>
-    </row>
-    <row r="79" spans="2:13">
+      <c r="N78" s="24" t="s">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14">
       <c r="B79" s="4"/>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
@@ -35858,8 +35974,11 @@
       </c>
       <c r="L79" s="5"/>
       <c r="M79" s="6"/>
-    </row>
-    <row r="80" spans="2:13">
+      <c r="N79" t="s">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14">
       <c r="B80" s="4"/>
       <c r="C80" s="5" t="s">
         <v>1174</v>
@@ -35910,6 +36029,9 @@
       </c>
       <c r="L82" s="5"/>
       <c r="M82" s="6"/>
+      <c r="N82" t="s">
+        <v>2214</v>
+      </c>
     </row>
     <row r="83" spans="2:15">
       <c r="B83" s="4"/>
@@ -35926,6 +36048,9 @@
       <c r="K83" s="5"/>
       <c r="L83" s="5"/>
       <c r="M83" s="6"/>
+      <c r="N83" t="s">
+        <v>2215</v>
+      </c>
     </row>
     <row r="84" spans="2:15">
       <c r="B84" s="4"/>
@@ -35939,6 +36064,9 @@
       <c r="K84" s="5"/>
       <c r="L84" s="5"/>
       <c r="M84" s="6"/>
+      <c r="N84" t="s">
+        <v>2216</v>
+      </c>
     </row>
     <row r="85" spans="2:15" ht="15.75" thickBot="1">
       <c r="B85" s="8"/>
@@ -35957,6 +36085,25 @@
       <c r="G86" t="s">
         <v>1180</v>
       </c>
+      <c r="J86" s="16" t="s">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="87" spans="2:15">
+      <c r="J87" t="s">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="88" spans="2:15">
+      <c r="G88" t="s">
+        <v>2209</v>
+      </c>
+      <c r="H88" t="s">
+        <v>2210</v>
+      </c>
+      <c r="I88" t="s">
+        <v>2208</v>
+      </c>
     </row>
     <row r="91" spans="2:15" ht="15.75" thickBot="1">
       <c r="D91" t="s">
@@ -35983,7 +36130,9 @@
         <v>223</v>
       </c>
       <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
+      <c r="D93" s="2" t="s">
+        <v>2220</v>
+      </c>
       <c r="E93" s="3"/>
       <c r="F93" t="s">
         <v>1187</v>
@@ -36000,7 +36149,9 @@
         <v>1175</v>
       </c>
       <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
+      <c r="D94" s="5" t="s">
+        <v>2221</v>
+      </c>
       <c r="E94" s="6"/>
       <c r="F94" t="s">
         <v>1189</v>
@@ -36008,7 +36159,7 @@
       <c r="L94" s="4" t="s">
         <v>790</v>
       </c>
-      <c r="M94" s="5" t="s">
+      <c r="M94" s="38" t="s">
         <v>1186</v>
       </c>
       <c r="N94" s="5"/>
@@ -36059,14 +36210,14 @@
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
       <c r="E97" s="6"/>
-      <c r="F97" s="502" t="s">
+      <c r="F97" s="507" t="s">
         <v>1059</v>
       </c>
-      <c r="G97" s="487"/>
-      <c r="H97" s="487"/>
-      <c r="I97" s="487"/>
-      <c r="J97" s="487"/>
-      <c r="K97" s="503"/>
+      <c r="G97" s="492"/>
+      <c r="H97" s="492"/>
+      <c r="I97" s="492"/>
+      <c r="J97" s="492"/>
+      <c r="K97" s="508"/>
       <c r="L97" s="4" t="s">
         <v>1188</v>
       </c>
@@ -37918,7 +38069,9 @@
       <c r="H207" s="24"/>
       <c r="I207" s="24"/>
       <c r="J207" s="24"/>
-      <c r="K207" s="119"/>
+      <c r="K207" s="289" t="s">
+        <v>2226</v>
+      </c>
       <c r="L207" s="131"/>
       <c r="M207" s="131"/>
       <c r="N207" s="131"/>
@@ -38075,13 +38228,13 @@
       <c r="Q214" s="24"/>
     </row>
     <row r="215" spans="2:17">
-      <c r="B215" s="494" t="s">
+      <c r="B215" s="499" t="s">
         <v>1676</v>
       </c>
-      <c r="C215" s="497"/>
-      <c r="D215" s="497"/>
-      <c r="E215" s="497"/>
-      <c r="F215" s="498"/>
+      <c r="C215" s="502"/>
+      <c r="D215" s="502"/>
+      <c r="E215" s="502"/>
+      <c r="F215" s="503"/>
       <c r="G215" s="204"/>
       <c r="H215" s="204"/>
       <c r="I215" s="204"/>
@@ -38099,40 +38252,44 @@
       <c r="Q215" s="24"/>
     </row>
     <row r="216" spans="2:17">
-      <c r="B216" s="499"/>
-      <c r="C216" s="497"/>
-      <c r="D216" s="497"/>
-      <c r="E216" s="497"/>
-      <c r="F216" s="498"/>
+      <c r="B216" s="504"/>
+      <c r="C216" s="502"/>
+      <c r="D216" s="502"/>
+      <c r="E216" s="502"/>
+      <c r="F216" s="503"/>
       <c r="G216" s="24"/>
       <c r="H216" s="24"/>
-      <c r="I216" s="24"/>
+      <c r="I216" s="24" t="s">
+        <v>2224</v>
+      </c>
       <c r="J216" s="24"/>
-      <c r="K216" s="494" t="s">
+      <c r="K216" s="499" t="s">
         <v>1662</v>
       </c>
-      <c r="L216" s="495"/>
-      <c r="M216" s="495"/>
-      <c r="N216" s="495"/>
-      <c r="O216" s="496"/>
+      <c r="L216" s="500"/>
+      <c r="M216" s="500"/>
+      <c r="N216" s="500"/>
+      <c r="O216" s="501"/>
       <c r="P216" s="24"/>
       <c r="Q216" s="24"/>
     </row>
     <row r="217" spans="2:17">
-      <c r="B217" s="499"/>
-      <c r="C217" s="497"/>
-      <c r="D217" s="497"/>
-      <c r="E217" s="497"/>
-      <c r="F217" s="498"/>
+      <c r="B217" s="504"/>
+      <c r="C217" s="502"/>
+      <c r="D217" s="502"/>
+      <c r="E217" s="502"/>
+      <c r="F217" s="503"/>
       <c r="G217" s="24"/>
       <c r="H217" s="24"/>
-      <c r="I217" s="24"/>
+      <c r="I217" s="24" t="s">
+        <v>2225</v>
+      </c>
       <c r="J217" s="24"/>
-      <c r="K217" s="494"/>
-      <c r="L217" s="495"/>
-      <c r="M217" s="495"/>
-      <c r="N217" s="495"/>
-      <c r="O217" s="496"/>
+      <c r="K217" s="499"/>
+      <c r="L217" s="500"/>
+      <c r="M217" s="500"/>
+      <c r="N217" s="500"/>
+      <c r="O217" s="501"/>
       <c r="P217" s="24"/>
       <c r="Q217" s="24"/>
     </row>
@@ -38893,9 +39050,11 @@
     <hyperlink ref="C41" r:id="rId7"/>
     <hyperlink ref="C50" r:id="rId8"/>
     <hyperlink ref="D4" r:id="rId9"/>
+    <hyperlink ref="J86" r:id="rId10"/>
+    <hyperlink ref="K207" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
 
@@ -38913,12 +39072,12 @@
       <c r="A1" s="362" t="s">
         <v>1696</v>
       </c>
-      <c r="H1" s="504" t="s">
+      <c r="H1" s="509" t="s">
         <v>1697</v>
       </c>
-      <c r="I1" s="504"/>
-      <c r="J1" s="504"/>
-      <c r="K1" s="504"/>
+      <c r="I1" s="509"/>
+      <c r="J1" s="509"/>
+      <c r="K1" s="509"/>
       <c r="M1" s="12" t="s">
         <v>1698</v>
       </c>
@@ -38936,10 +39095,10 @@
       <c r="A2" s="362" t="s">
         <v>1702</v>
       </c>
-      <c r="H2" s="504"/>
-      <c r="I2" s="504"/>
-      <c r="J2" s="504"/>
-      <c r="K2" s="504"/>
+      <c r="H2" s="509"/>
+      <c r="I2" s="509"/>
+      <c r="J2" s="509"/>
+      <c r="K2" s="509"/>
       <c r="M2" s="33" t="s">
         <v>764</v>
       </c>
@@ -38957,10 +39116,10 @@
       <c r="A3" s="362" t="s">
         <v>1704</v>
       </c>
-      <c r="H3" s="504"/>
-      <c r="I3" s="504"/>
-      <c r="J3" s="504"/>
-      <c r="K3" s="504"/>
+      <c r="H3" s="509"/>
+      <c r="I3" s="509"/>
+      <c r="J3" s="509"/>
+      <c r="K3" s="509"/>
       <c r="M3" s="33" t="s">
         <v>765</v>
       </c>
@@ -38978,10 +39137,10 @@
       <c r="A4" s="362" t="s">
         <v>1706</v>
       </c>
-      <c r="H4" s="504"/>
-      <c r="I4" s="504"/>
-      <c r="J4" s="504"/>
-      <c r="K4" s="504"/>
+      <c r="H4" s="509"/>
+      <c r="I4" s="509"/>
+      <c r="J4" s="509"/>
+      <c r="K4" s="509"/>
       <c r="M4" s="33" t="s">
         <v>937</v>
       </c>
@@ -38996,10 +39155,10 @@
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="H5" s="504"/>
-      <c r="I5" s="504"/>
-      <c r="J5" s="504"/>
-      <c r="K5" s="504"/>
+      <c r="H5" s="509"/>
+      <c r="I5" s="509"/>
+      <c r="J5" s="509"/>
+      <c r="K5" s="509"/>
       <c r="Q5" s="33" t="s">
         <v>1703</v>
       </c>
@@ -39008,10 +39167,10 @@
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="H6" s="504"/>
-      <c r="I6" s="504"/>
-      <c r="J6" s="504"/>
-      <c r="K6" s="504"/>
+      <c r="H6" s="509"/>
+      <c r="I6" s="509"/>
+      <c r="J6" s="509"/>
+      <c r="K6" s="509"/>
       <c r="Q6" s="33" t="s">
         <v>1705</v>
       </c>
@@ -39028,12 +39187,12 @@
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="H9" s="505" t="s">
+      <c r="H9" s="510" t="s">
         <v>1708</v>
       </c>
-      <c r="I9" s="505"/>
-      <c r="J9" s="505"/>
-      <c r="K9" s="505"/>
+      <c r="I9" s="510"/>
+      <c r="J9" s="510"/>
+      <c r="K9" s="510"/>
       <c r="M9" t="s">
         <v>1709</v>
       </c>
@@ -39042,10 +39201,10 @@
       <c r="A10" s="363" t="s">
         <v>1710</v>
       </c>
-      <c r="H10" s="505"/>
-      <c r="I10" s="505"/>
-      <c r="J10" s="505"/>
-      <c r="K10" s="505"/>
+      <c r="H10" s="510"/>
+      <c r="I10" s="510"/>
+      <c r="J10" s="510"/>
+      <c r="K10" s="510"/>
       <c r="M10" t="s">
         <v>1711</v>
       </c>
@@ -39054,10 +39213,10 @@
       <c r="A11" s="363" t="s">
         <v>1712</v>
       </c>
-      <c r="H11" s="505"/>
-      <c r="I11" s="505"/>
-      <c r="J11" s="505"/>
-      <c r="K11" s="505"/>
+      <c r="H11" s="510"/>
+      <c r="I11" s="510"/>
+      <c r="J11" s="510"/>
+      <c r="K11" s="510"/>
       <c r="M11" t="s">
         <v>1713</v>
       </c>
@@ -39066,10 +39225,10 @@
       <c r="A12" s="363" t="s">
         <v>1714</v>
       </c>
-      <c r="H12" s="505"/>
-      <c r="I12" s="505"/>
-      <c r="J12" s="505"/>
-      <c r="K12" s="505"/>
+      <c r="H12" s="510"/>
+      <c r="I12" s="510"/>
+      <c r="J12" s="510"/>
+      <c r="K12" s="510"/>
       <c r="M12" t="s">
         <v>1715</v>
       </c>
@@ -39091,11 +39250,11 @@
       <c r="A16" s="16" t="s">
         <v>1719</v>
       </c>
-      <c r="I16" s="504" t="s">
+      <c r="I16" s="509" t="s">
         <v>1720</v>
       </c>
-      <c r="J16" s="504"/>
-      <c r="K16" s="504"/>
+      <c r="J16" s="509"/>
+      <c r="K16" s="509"/>
       <c r="M16" t="s">
         <v>1721</v>
       </c>
@@ -39107,9 +39266,9 @@
       <c r="A17" s="362" t="s">
         <v>1722</v>
       </c>
-      <c r="I17" s="504"/>
-      <c r="J17" s="504"/>
-      <c r="K17" s="504"/>
+      <c r="I17" s="509"/>
+      <c r="J17" s="509"/>
+      <c r="K17" s="509"/>
       <c r="M17" t="s">
         <v>1723</v>
       </c>
@@ -39121,9 +39280,9 @@
       <c r="A18" s="362" t="s">
         <v>1724</v>
       </c>
-      <c r="I18" s="504"/>
-      <c r="J18" s="504"/>
-      <c r="K18" s="504"/>
+      <c r="I18" s="509"/>
+      <c r="J18" s="509"/>
+      <c r="K18" s="509"/>
       <c r="M18" t="s">
         <v>1725</v>
       </c>
@@ -39132,19 +39291,19 @@
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="I19" s="504"/>
-      <c r="J19" s="504"/>
-      <c r="K19" s="504"/>
+      <c r="I19" s="509"/>
+      <c r="J19" s="509"/>
+      <c r="K19" s="509"/>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="362" t="s">
         <v>1726</v>
       </c>
-      <c r="I22" s="504" t="s">
+      <c r="I22" s="509" t="s">
         <v>1727</v>
       </c>
-      <c r="J22" s="504"/>
-      <c r="K22" s="504"/>
+      <c r="J22" s="509"/>
+      <c r="K22" s="509"/>
       <c r="N22" s="35" t="s">
         <v>1728</v>
       </c>
@@ -39156,9 +39315,9 @@
       <c r="A23" s="362" t="s">
         <v>1729</v>
       </c>
-      <c r="I23" s="504"/>
-      <c r="J23" s="504"/>
-      <c r="K23" s="504"/>
+      <c r="I23" s="509"/>
+      <c r="J23" s="509"/>
+      <c r="K23" s="509"/>
       <c r="M23" s="358">
         <v>0</v>
       </c>
@@ -39170,9 +39329,9 @@
       </c>
     </row>
     <row r="24" spans="1:17">
-      <c r="I24" s="504"/>
-      <c r="J24" s="504"/>
-      <c r="K24" s="504"/>
+      <c r="I24" s="509"/>
+      <c r="J24" s="509"/>
+      <c r="K24" s="509"/>
       <c r="M24" s="358">
         <v>1</v>
       </c>
@@ -39184,9 +39343,9 @@
       </c>
     </row>
     <row r="25" spans="1:17">
-      <c r="I25" s="504"/>
-      <c r="J25" s="504"/>
-      <c r="K25" s="504"/>
+      <c r="I25" s="509"/>
+      <c r="J25" s="509"/>
+      <c r="K25" s="509"/>
       <c r="M25" s="358">
         <v>2</v>
       </c>
@@ -39198,9 +39357,9 @@
       </c>
     </row>
     <row r="26" spans="1:17">
-      <c r="I26" s="504"/>
-      <c r="J26" s="504"/>
-      <c r="K26" s="504"/>
+      <c r="I26" s="509"/>
+      <c r="J26" s="509"/>
+      <c r="K26" s="509"/>
       <c r="M26" s="358">
         <v>3</v>
       </c>
@@ -40343,13 +40502,13 @@
       <c r="C20" s="90">
         <v>43908</v>
       </c>
-      <c r="D20" s="506" t="s">
+      <c r="D20" s="511" t="s">
         <v>291</v>
       </c>
-      <c r="E20" s="506"/>
-      <c r="F20" s="506"/>
-      <c r="G20" s="506"/>
-      <c r="H20" s="506"/>
+      <c r="E20" s="511"/>
+      <c r="F20" s="511"/>
+      <c r="G20" s="511"/>
+      <c r="H20" s="511"/>
       <c r="I20" s="33" t="s">
         <v>292</v>
       </c>
@@ -40360,37 +40519,37 @@
       <c r="N20" s="33"/>
     </row>
     <row r="21" spans="3:14">
-      <c r="C21" s="507">
+      <c r="C21" s="512">
         <v>43909</v>
       </c>
-      <c r="D21" s="506"/>
-      <c r="E21" s="506"/>
-      <c r="F21" s="506"/>
-      <c r="G21" s="506"/>
-      <c r="H21" s="506"/>
+      <c r="D21" s="511"/>
+      <c r="E21" s="511"/>
+      <c r="F21" s="511"/>
+      <c r="G21" s="511"/>
+      <c r="H21" s="511"/>
       <c r="I21" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="J21" s="506"/>
-      <c r="K21" s="506"/>
-      <c r="L21" s="506" t="s">
+      <c r="J21" s="511"/>
+      <c r="K21" s="511"/>
+      <c r="L21" s="511" t="s">
         <v>294</v>
       </c>
-      <c r="M21" s="506"/>
-      <c r="N21" s="506"/>
+      <c r="M21" s="511"/>
+      <c r="N21" s="511"/>
     </row>
     <row r="22" spans="3:14">
-      <c r="C22" s="507"/>
-      <c r="D22" s="506"/>
-      <c r="E22" s="506"/>
-      <c r="F22" s="506"/>
-      <c r="G22" s="506"/>
-      <c r="H22" s="506"/>
-      <c r="I22" s="425" t="s">
+      <c r="C22" s="512"/>
+      <c r="D22" s="511"/>
+      <c r="E22" s="511"/>
+      <c r="F22" s="511"/>
+      <c r="G22" s="511"/>
+      <c r="H22" s="511"/>
+      <c r="I22" s="427" t="s">
         <v>295</v>
       </c>
-      <c r="J22" s="506"/>
-      <c r="K22" s="506"/>
+      <c r="J22" s="511"/>
+      <c r="K22" s="511"/>
       <c r="L22" s="91" t="s">
         <v>296</v>
       </c>
@@ -40398,31 +40557,31 @@
       <c r="N22" s="33"/>
     </row>
     <row r="23" spans="3:14">
-      <c r="C23" s="507"/>
-      <c r="D23" s="506"/>
-      <c r="E23" s="506"/>
-      <c r="F23" s="506"/>
-      <c r="G23" s="506"/>
-      <c r="H23" s="506"/>
-      <c r="I23" s="425"/>
-      <c r="J23" s="506"/>
-      <c r="K23" s="506"/>
-      <c r="L23" s="506" t="s">
+      <c r="C23" s="512"/>
+      <c r="D23" s="511"/>
+      <c r="E23" s="511"/>
+      <c r="F23" s="511"/>
+      <c r="G23" s="511"/>
+      <c r="H23" s="511"/>
+      <c r="I23" s="427"/>
+      <c r="J23" s="511"/>
+      <c r="K23" s="511"/>
+      <c r="L23" s="511" t="s">
         <v>297</v>
       </c>
-      <c r="M23" s="506"/>
-      <c r="N23" s="506"/>
+      <c r="M23" s="511"/>
+      <c r="N23" s="511"/>
     </row>
     <row r="24" spans="3:14">
-      <c r="C24" s="507"/>
-      <c r="D24" s="506"/>
-      <c r="E24" s="506"/>
-      <c r="F24" s="506"/>
-      <c r="G24" s="506"/>
-      <c r="H24" s="506"/>
-      <c r="I24" s="425"/>
-      <c r="J24" s="506"/>
-      <c r="K24" s="506"/>
+      <c r="C24" s="512"/>
+      <c r="D24" s="511"/>
+      <c r="E24" s="511"/>
+      <c r="F24" s="511"/>
+      <c r="G24" s="511"/>
+      <c r="H24" s="511"/>
+      <c r="I24" s="427"/>
+      <c r="J24" s="511"/>
+      <c r="K24" s="511"/>
       <c r="L24" s="92" t="s">
         <v>295</v>
       </c>
@@ -40433,13 +40592,13 @@
       <c r="C25" s="90">
         <v>43910</v>
       </c>
-      <c r="D25" s="506" t="s">
+      <c r="D25" s="511" t="s">
         <v>298</v>
       </c>
-      <c r="E25" s="506"/>
-      <c r="F25" s="506"/>
-      <c r="G25" s="506"/>
-      <c r="H25" s="506"/>
+      <c r="E25" s="511"/>
+      <c r="F25" s="511"/>
+      <c r="G25" s="511"/>
+      <c r="H25" s="511"/>
       <c r="I25" s="33" t="s">
         <v>299</v>
       </c>
@@ -40453,16 +40612,16 @@
       <c r="C26" s="90">
         <v>43911</v>
       </c>
-      <c r="D26" s="508"/>
-      <c r="E26" s="509"/>
-      <c r="F26" s="509"/>
-      <c r="G26" s="509"/>
-      <c r="H26" s="510"/>
-      <c r="I26" s="515" t="s">
+      <c r="D26" s="513"/>
+      <c r="E26" s="514"/>
+      <c r="F26" s="514"/>
+      <c r="G26" s="514"/>
+      <c r="H26" s="515"/>
+      <c r="I26" s="520" t="s">
         <v>295</v>
       </c>
-      <c r="J26" s="508"/>
-      <c r="K26" s="510"/>
+      <c r="J26" s="513"/>
+      <c r="K26" s="515"/>
       <c r="L26" s="91" t="s">
         <v>296</v>
       </c>
@@ -40471,30 +40630,30 @@
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="33"/>
-      <c r="D27" s="511"/>
-      <c r="E27" s="501"/>
-      <c r="F27" s="501"/>
-      <c r="G27" s="501"/>
-      <c r="H27" s="512"/>
-      <c r="I27" s="516"/>
-      <c r="J27" s="511"/>
-      <c r="K27" s="512"/>
-      <c r="L27" s="506" t="s">
+      <c r="D27" s="516"/>
+      <c r="E27" s="506"/>
+      <c r="F27" s="506"/>
+      <c r="G27" s="506"/>
+      <c r="H27" s="517"/>
+      <c r="I27" s="521"/>
+      <c r="J27" s="516"/>
+      <c r="K27" s="517"/>
+      <c r="L27" s="511" t="s">
         <v>300</v>
       </c>
-      <c r="M27" s="506"/>
-      <c r="N27" s="506"/>
+      <c r="M27" s="511"/>
+      <c r="N27" s="511"/>
     </row>
     <row r="28" spans="3:14">
       <c r="C28" s="33"/>
-      <c r="D28" s="511"/>
-      <c r="E28" s="501"/>
-      <c r="F28" s="501"/>
-      <c r="G28" s="501"/>
-      <c r="H28" s="512"/>
-      <c r="I28" s="516"/>
-      <c r="J28" s="511"/>
-      <c r="K28" s="512"/>
+      <c r="D28" s="516"/>
+      <c r="E28" s="506"/>
+      <c r="F28" s="506"/>
+      <c r="G28" s="506"/>
+      <c r="H28" s="517"/>
+      <c r="I28" s="521"/>
+      <c r="J28" s="516"/>
+      <c r="K28" s="517"/>
       <c r="L28" s="92" t="s">
         <v>295</v>
       </c>
@@ -40503,14 +40662,14 @@
     </row>
     <row r="29" spans="3:14">
       <c r="C29" s="33"/>
-      <c r="D29" s="513"/>
-      <c r="E29" s="485"/>
-      <c r="F29" s="485"/>
-      <c r="G29" s="485"/>
-      <c r="H29" s="514"/>
-      <c r="I29" s="517"/>
-      <c r="J29" s="513"/>
-      <c r="K29" s="514"/>
+      <c r="D29" s="518"/>
+      <c r="E29" s="490"/>
+      <c r="F29" s="490"/>
+      <c r="G29" s="490"/>
+      <c r="H29" s="519"/>
+      <c r="I29" s="522"/>
+      <c r="J29" s="518"/>
+      <c r="K29" s="519"/>
       <c r="L29" s="93" t="s">
         <v>301</v>
       </c>
@@ -40558,13 +40717,13 @@
       <c r="C33" s="90">
         <v>43908</v>
       </c>
-      <c r="D33" s="506" t="s">
+      <c r="D33" s="511" t="s">
         <v>291</v>
       </c>
-      <c r="E33" s="506"/>
-      <c r="F33" s="506"/>
-      <c r="G33" s="506"/>
-      <c r="H33" s="506"/>
+      <c r="E33" s="511"/>
+      <c r="F33" s="511"/>
+      <c r="G33" s="511"/>
+      <c r="H33" s="511"/>
       <c r="I33" s="33" t="s">
         <v>292</v>
       </c>
@@ -40575,33 +40734,33 @@
       <c r="N33" s="33"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="C34" s="507">
+      <c r="C34" s="512">
         <v>43909</v>
       </c>
-      <c r="D34" s="506"/>
-      <c r="E34" s="506"/>
-      <c r="F34" s="506"/>
-      <c r="G34" s="506"/>
-      <c r="H34" s="506"/>
-      <c r="I34" s="518"/>
-      <c r="J34" s="506"/>
-      <c r="K34" s="506"/>
-      <c r="L34" s="506" t="s">
+      <c r="D34" s="511"/>
+      <c r="E34" s="511"/>
+      <c r="F34" s="511"/>
+      <c r="G34" s="511"/>
+      <c r="H34" s="511"/>
+      <c r="I34" s="523"/>
+      <c r="J34" s="511"/>
+      <c r="K34" s="511"/>
+      <c r="L34" s="511" t="s">
         <v>294</v>
       </c>
-      <c r="M34" s="506"/>
-      <c r="N34" s="506"/>
+      <c r="M34" s="511"/>
+      <c r="N34" s="511"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="C35" s="507"/>
-      <c r="D35" s="506"/>
-      <c r="E35" s="506"/>
-      <c r="F35" s="506"/>
-      <c r="G35" s="506"/>
-      <c r="H35" s="506"/>
-      <c r="I35" s="519"/>
-      <c r="J35" s="506"/>
-      <c r="K35" s="506"/>
+      <c r="C35" s="512"/>
+      <c r="D35" s="511"/>
+      <c r="E35" s="511"/>
+      <c r="F35" s="511"/>
+      <c r="G35" s="511"/>
+      <c r="H35" s="511"/>
+      <c r="I35" s="524"/>
+      <c r="J35" s="511"/>
+      <c r="K35" s="511"/>
       <c r="L35" s="91" t="s">
         <v>296</v>
       </c>
@@ -40609,31 +40768,31 @@
       <c r="N35" s="33"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="C36" s="507"/>
-      <c r="D36" s="506"/>
-      <c r="E36" s="506"/>
-      <c r="F36" s="506"/>
-      <c r="G36" s="506"/>
-      <c r="H36" s="506"/>
-      <c r="I36" s="519"/>
-      <c r="J36" s="506"/>
-      <c r="K36" s="506"/>
-      <c r="L36" s="506" t="s">
+      <c r="C36" s="512"/>
+      <c r="D36" s="511"/>
+      <c r="E36" s="511"/>
+      <c r="F36" s="511"/>
+      <c r="G36" s="511"/>
+      <c r="H36" s="511"/>
+      <c r="I36" s="524"/>
+      <c r="J36" s="511"/>
+      <c r="K36" s="511"/>
+      <c r="L36" s="511" t="s">
         <v>297</v>
       </c>
-      <c r="M36" s="506"/>
-      <c r="N36" s="506"/>
+      <c r="M36" s="511"/>
+      <c r="N36" s="511"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="C37" s="507"/>
-      <c r="D37" s="506"/>
-      <c r="E37" s="506"/>
-      <c r="F37" s="506"/>
-      <c r="G37" s="506"/>
-      <c r="H37" s="506"/>
-      <c r="I37" s="520"/>
-      <c r="J37" s="506"/>
-      <c r="K37" s="506"/>
+      <c r="C37" s="512"/>
+      <c r="D37" s="511"/>
+      <c r="E37" s="511"/>
+      <c r="F37" s="511"/>
+      <c r="G37" s="511"/>
+      <c r="H37" s="511"/>
+      <c r="I37" s="525"/>
+      <c r="J37" s="511"/>
+      <c r="K37" s="511"/>
       <c r="L37" s="92" t="s">
         <v>302</v>
       </c>
@@ -40644,13 +40803,13 @@
       <c r="C38" s="90">
         <v>43910</v>
       </c>
-      <c r="D38" s="506" t="s">
+      <c r="D38" s="511" t="s">
         <v>298</v>
       </c>
-      <c r="E38" s="506"/>
-      <c r="F38" s="506"/>
-      <c r="G38" s="506"/>
-      <c r="H38" s="506"/>
+      <c r="E38" s="511"/>
+      <c r="F38" s="511"/>
+      <c r="G38" s="511"/>
+      <c r="H38" s="511"/>
       <c r="I38" s="33" t="s">
         <v>299</v>
       </c>
@@ -40664,14 +40823,14 @@
       <c r="C39" s="90">
         <v>43911</v>
       </c>
-      <c r="D39" s="508"/>
-      <c r="E39" s="509"/>
-      <c r="F39" s="509"/>
-      <c r="G39" s="509"/>
-      <c r="H39" s="510"/>
-      <c r="I39" s="515"/>
-      <c r="J39" s="508"/>
-      <c r="K39" s="510"/>
+      <c r="D39" s="513"/>
+      <c r="E39" s="514"/>
+      <c r="F39" s="514"/>
+      <c r="G39" s="514"/>
+      <c r="H39" s="515"/>
+      <c r="I39" s="520"/>
+      <c r="J39" s="513"/>
+      <c r="K39" s="515"/>
       <c r="L39" s="91" t="s">
         <v>296</v>
       </c>
@@ -40680,30 +40839,30 @@
     </row>
     <row r="40" spans="1:14">
       <c r="C40" s="33"/>
-      <c r="D40" s="511"/>
-      <c r="E40" s="501"/>
-      <c r="F40" s="501"/>
-      <c r="G40" s="501"/>
-      <c r="H40" s="512"/>
-      <c r="I40" s="516"/>
-      <c r="J40" s="511"/>
-      <c r="K40" s="512"/>
-      <c r="L40" s="506" t="s">
+      <c r="D40" s="516"/>
+      <c r="E40" s="506"/>
+      <c r="F40" s="506"/>
+      <c r="G40" s="506"/>
+      <c r="H40" s="517"/>
+      <c r="I40" s="521"/>
+      <c r="J40" s="516"/>
+      <c r="K40" s="517"/>
+      <c r="L40" s="511" t="s">
         <v>300</v>
       </c>
-      <c r="M40" s="506"/>
-      <c r="N40" s="506"/>
+      <c r="M40" s="511"/>
+      <c r="N40" s="511"/>
     </row>
     <row r="41" spans="1:14">
       <c r="C41" s="33"/>
-      <c r="D41" s="511"/>
-      <c r="E41" s="501"/>
-      <c r="F41" s="501"/>
-      <c r="G41" s="501"/>
-      <c r="H41" s="512"/>
-      <c r="I41" s="517"/>
-      <c r="J41" s="511"/>
-      <c r="K41" s="512"/>
+      <c r="D41" s="516"/>
+      <c r="E41" s="506"/>
+      <c r="F41" s="506"/>
+      <c r="G41" s="506"/>
+      <c r="H41" s="517"/>
+      <c r="I41" s="522"/>
+      <c r="J41" s="516"/>
+      <c r="K41" s="517"/>
       <c r="L41" s="92" t="s">
         <v>302</v>
       </c>
@@ -40712,16 +40871,16 @@
     </row>
     <row r="42" spans="1:14">
       <c r="C42" s="33"/>
-      <c r="D42" s="513"/>
-      <c r="E42" s="485"/>
-      <c r="F42" s="485"/>
-      <c r="G42" s="485"/>
-      <c r="H42" s="514"/>
+      <c r="D42" s="518"/>
+      <c r="E42" s="490"/>
+      <c r="F42" s="490"/>
+      <c r="G42" s="490"/>
+      <c r="H42" s="519"/>
       <c r="I42" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="J42" s="513"/>
-      <c r="K42" s="514"/>
+      <c r="J42" s="518"/>
+      <c r="K42" s="519"/>
       <c r="L42" s="93" t="s">
         <v>301</v>
       </c>
@@ -41347,29 +41506,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="21">
-      <c r="B2" s="531" t="s">
+      <c r="B2" s="536" t="s">
         <v>717</v>
       </c>
-      <c r="C2" s="531"/>
-      <c r="D2" s="531"/>
-      <c r="E2" s="531"/>
-      <c r="F2" s="531"/>
-      <c r="G2" s="531"/>
-      <c r="H2" s="531"/>
-      <c r="I2" s="531"/>
-      <c r="J2" s="531"/>
-      <c r="K2" s="531"/>
-      <c r="L2" s="531"/>
-      <c r="M2" s="531"/>
-      <c r="N2" s="531"/>
-      <c r="O2" s="531"/>
-      <c r="P2" s="531"/>
-      <c r="Q2" s="531"/>
-      <c r="R2" s="531"/>
-      <c r="S2" s="531"/>
-      <c r="T2" s="531"/>
-      <c r="U2" s="531"/>
-      <c r="V2" s="531"/>
+      <c r="C2" s="536"/>
+      <c r="D2" s="536"/>
+      <c r="E2" s="536"/>
+      <c r="F2" s="536"/>
+      <c r="G2" s="536"/>
+      <c r="H2" s="536"/>
+      <c r="I2" s="536"/>
+      <c r="J2" s="536"/>
+      <c r="K2" s="536"/>
+      <c r="L2" s="536"/>
+      <c r="M2" s="536"/>
+      <c r="N2" s="536"/>
+      <c r="O2" s="536"/>
+      <c r="P2" s="536"/>
+      <c r="Q2" s="536"/>
+      <c r="R2" s="536"/>
+      <c r="S2" s="536"/>
+      <c r="T2" s="536"/>
+      <c r="U2" s="536"/>
+      <c r="V2" s="536"/>
     </row>
     <row r="3" spans="2:22" ht="15.75" thickBot="1"/>
     <row r="4" spans="2:22">
@@ -41402,22 +41561,22 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="536" t="s">
+      <c r="G5" s="541" t="s">
         <v>323</v>
       </c>
-      <c r="H5" s="536"/>
-      <c r="I5" s="536" t="s">
+      <c r="H5" s="541"/>
+      <c r="I5" s="541" t="s">
         <v>324</v>
       </c>
-      <c r="J5" s="536"/>
-      <c r="K5" s="536"/>
-      <c r="L5" s="536"/>
-      <c r="M5" s="536"/>
-      <c r="N5" s="536"/>
-      <c r="O5" s="536" t="s">
+      <c r="J5" s="541"/>
+      <c r="K5" s="541"/>
+      <c r="L5" s="541"/>
+      <c r="M5" s="541"/>
+      <c r="N5" s="541"/>
+      <c r="O5" s="541" t="s">
         <v>325</v>
       </c>
-      <c r="P5" s="536"/>
+      <c r="P5" s="541"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
@@ -41429,7 +41588,7 @@
       <c r="D6" s="107"/>
       <c r="E6" s="108"/>
       <c r="F6" s="110"/>
-      <c r="G6" s="541" t="s">
+      <c r="G6" s="546" t="s">
         <v>326</v>
       </c>
       <c r="H6" s="86"/>
@@ -41458,26 +41617,26 @@
       </c>
       <c r="E7" s="110"/>
       <c r="F7" s="110"/>
-      <c r="G7" s="451"/>
-      <c r="H7" s="542" t="s">
+      <c r="G7" s="453"/>
+      <c r="H7" s="547" t="s">
         <v>328</v>
       </c>
-      <c r="I7" s="545" t="s">
+      <c r="I7" s="550" t="s">
         <v>329</v>
       </c>
-      <c r="J7" s="427"/>
-      <c r="K7" s="546" t="s">
+      <c r="J7" s="429"/>
+      <c r="K7" s="551" t="s">
         <v>330</v>
       </c>
-      <c r="L7" s="547"/>
-      <c r="M7" s="545" t="s">
+      <c r="L7" s="552"/>
+      <c r="M7" s="550" t="s">
         <v>331</v>
       </c>
-      <c r="N7" s="427"/>
-      <c r="O7" s="551" t="s">
+      <c r="N7" s="429"/>
+      <c r="O7" s="556" t="s">
         <v>332</v>
       </c>
-      <c r="P7" s="552"/>
+      <c r="P7" s="557"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
@@ -41489,16 +41648,16 @@
       <c r="D8" s="111"/>
       <c r="E8" s="112"/>
       <c r="F8" s="110"/>
-      <c r="G8" s="451"/>
-      <c r="H8" s="543"/>
-      <c r="I8" s="428"/>
-      <c r="J8" s="429"/>
-      <c r="K8" s="437"/>
-      <c r="L8" s="548"/>
-      <c r="M8" s="428"/>
-      <c r="N8" s="429"/>
-      <c r="O8" s="553"/>
-      <c r="P8" s="554"/>
+      <c r="G8" s="453"/>
+      <c r="H8" s="548"/>
+      <c r="I8" s="430"/>
+      <c r="J8" s="431"/>
+      <c r="K8" s="439"/>
+      <c r="L8" s="553"/>
+      <c r="M8" s="430"/>
+      <c r="N8" s="431"/>
+      <c r="O8" s="558"/>
+      <c r="P8" s="559"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="33" t="s">
         <v>61</v>
@@ -41516,16 +41675,16 @@
       <c r="D9" s="4"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="451"/>
-      <c r="H9" s="543"/>
-      <c r="I9" s="428"/>
-      <c r="J9" s="429"/>
-      <c r="K9" s="437"/>
-      <c r="L9" s="548"/>
-      <c r="M9" s="428"/>
-      <c r="N9" s="429"/>
-      <c r="O9" s="553"/>
-      <c r="P9" s="554"/>
+      <c r="G9" s="453"/>
+      <c r="H9" s="548"/>
+      <c r="I9" s="430"/>
+      <c r="J9" s="431"/>
+      <c r="K9" s="439"/>
+      <c r="L9" s="553"/>
+      <c r="M9" s="430"/>
+      <c r="N9" s="431"/>
+      <c r="O9" s="558"/>
+      <c r="P9" s="559"/>
       <c r="Q9" s="5" t="s">
         <v>2</v>
       </c>
@@ -41545,16 +41704,16 @@
       <c r="D10" s="1"/>
       <c r="E10" s="3"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="451"/>
-      <c r="H10" s="543"/>
-      <c r="I10" s="428"/>
-      <c r="J10" s="429"/>
-      <c r="K10" s="437"/>
-      <c r="L10" s="548"/>
-      <c r="M10" s="428"/>
-      <c r="N10" s="429"/>
-      <c r="O10" s="553"/>
-      <c r="P10" s="554"/>
+      <c r="G10" s="453"/>
+      <c r="H10" s="548"/>
+      <c r="I10" s="430"/>
+      <c r="J10" s="431"/>
+      <c r="K10" s="439"/>
+      <c r="L10" s="553"/>
+      <c r="M10" s="430"/>
+      <c r="N10" s="431"/>
+      <c r="O10" s="558"/>
+      <c r="P10" s="559"/>
       <c r="Q10" s="5" t="s">
         <v>66</v>
       </c>
@@ -41570,16 +41729,16 @@
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="451"/>
-      <c r="H11" s="543"/>
-      <c r="I11" s="428"/>
-      <c r="J11" s="429"/>
-      <c r="K11" s="437"/>
-      <c r="L11" s="548"/>
-      <c r="M11" s="428"/>
-      <c r="N11" s="429"/>
-      <c r="O11" s="553"/>
-      <c r="P11" s="554"/>
+      <c r="G11" s="453"/>
+      <c r="H11" s="548"/>
+      <c r="I11" s="430"/>
+      <c r="J11" s="431"/>
+      <c r="K11" s="439"/>
+      <c r="L11" s="553"/>
+      <c r="M11" s="430"/>
+      <c r="N11" s="431"/>
+      <c r="O11" s="558"/>
+      <c r="P11" s="559"/>
       <c r="Q11" s="5">
         <v>1000</v>
       </c>
@@ -41597,16 +41756,16 @@
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="451"/>
-      <c r="H12" s="543"/>
-      <c r="I12" s="428"/>
-      <c r="J12" s="429"/>
-      <c r="K12" s="437"/>
-      <c r="L12" s="548"/>
-      <c r="M12" s="428"/>
-      <c r="N12" s="429"/>
-      <c r="O12" s="553"/>
-      <c r="P12" s="554"/>
+      <c r="G12" s="453"/>
+      <c r="H12" s="548"/>
+      <c r="I12" s="430"/>
+      <c r="J12" s="431"/>
+      <c r="K12" s="439"/>
+      <c r="L12" s="553"/>
+      <c r="M12" s="430"/>
+      <c r="N12" s="431"/>
+      <c r="O12" s="558"/>
+      <c r="P12" s="559"/>
       <c r="Q12" s="5" t="s">
         <v>2</v>
       </c>
@@ -41620,16 +41779,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="451"/>
-      <c r="H13" s="543"/>
-      <c r="I13" s="428"/>
-      <c r="J13" s="429"/>
-      <c r="K13" s="437"/>
-      <c r="L13" s="548"/>
-      <c r="M13" s="428"/>
-      <c r="N13" s="429"/>
-      <c r="O13" s="553"/>
-      <c r="P13" s="554"/>
+      <c r="G13" s="453"/>
+      <c r="H13" s="548"/>
+      <c r="I13" s="430"/>
+      <c r="J13" s="431"/>
+      <c r="K13" s="439"/>
+      <c r="L13" s="553"/>
+      <c r="M13" s="430"/>
+      <c r="N13" s="431"/>
+      <c r="O13" s="558"/>
+      <c r="P13" s="559"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="33"/>
       <c r="S13" s="33"/>
@@ -41641,16 +41800,16 @@
       <c r="D14" s="1"/>
       <c r="E14" s="3"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="451"/>
-      <c r="H14" s="543"/>
-      <c r="I14" s="428"/>
-      <c r="J14" s="429"/>
-      <c r="K14" s="437"/>
-      <c r="L14" s="548"/>
-      <c r="M14" s="428"/>
-      <c r="N14" s="429"/>
-      <c r="O14" s="553"/>
-      <c r="P14" s="554"/>
+      <c r="G14" s="453"/>
+      <c r="H14" s="548"/>
+      <c r="I14" s="430"/>
+      <c r="J14" s="431"/>
+      <c r="K14" s="439"/>
+      <c r="L14" s="553"/>
+      <c r="M14" s="430"/>
+      <c r="N14" s="431"/>
+      <c r="O14" s="558"/>
+      <c r="P14" s="559"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="33"/>
       <c r="S14" s="33"/>
@@ -41664,16 +41823,16 @@
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="451"/>
-      <c r="H15" s="543"/>
-      <c r="I15" s="428"/>
-      <c r="J15" s="429"/>
-      <c r="K15" s="437"/>
-      <c r="L15" s="548"/>
-      <c r="M15" s="428"/>
-      <c r="N15" s="429"/>
-      <c r="O15" s="553"/>
-      <c r="P15" s="554"/>
+      <c r="G15" s="453"/>
+      <c r="H15" s="548"/>
+      <c r="I15" s="430"/>
+      <c r="J15" s="431"/>
+      <c r="K15" s="439"/>
+      <c r="L15" s="553"/>
+      <c r="M15" s="430"/>
+      <c r="N15" s="431"/>
+      <c r="O15" s="558"/>
+      <c r="P15" s="559"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
@@ -41685,16 +41844,16 @@
       <c r="D16" s="4"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="451"/>
-      <c r="H16" s="543"/>
-      <c r="I16" s="428"/>
-      <c r="J16" s="429"/>
-      <c r="K16" s="437"/>
-      <c r="L16" s="548"/>
-      <c r="M16" s="428"/>
-      <c r="N16" s="429"/>
-      <c r="O16" s="553"/>
-      <c r="P16" s="554"/>
+      <c r="G16" s="453"/>
+      <c r="H16" s="548"/>
+      <c r="I16" s="430"/>
+      <c r="J16" s="431"/>
+      <c r="K16" s="439"/>
+      <c r="L16" s="553"/>
+      <c r="M16" s="430"/>
+      <c r="N16" s="431"/>
+      <c r="O16" s="558"/>
+      <c r="P16" s="559"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
@@ -41706,16 +41865,16 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="451"/>
-      <c r="H17" s="543"/>
-      <c r="I17" s="428"/>
-      <c r="J17" s="429"/>
-      <c r="K17" s="437"/>
-      <c r="L17" s="548"/>
-      <c r="M17" s="428"/>
-      <c r="N17" s="429"/>
-      <c r="O17" s="553"/>
-      <c r="P17" s="554"/>
+      <c r="G17" s="453"/>
+      <c r="H17" s="548"/>
+      <c r="I17" s="430"/>
+      <c r="J17" s="431"/>
+      <c r="K17" s="439"/>
+      <c r="L17" s="553"/>
+      <c r="M17" s="430"/>
+      <c r="N17" s="431"/>
+      <c r="O17" s="558"/>
+      <c r="P17" s="559"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
@@ -41727,16 +41886,16 @@
       <c r="D18" s="4"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="451"/>
-      <c r="H18" s="543"/>
-      <c r="I18" s="428"/>
-      <c r="J18" s="429"/>
-      <c r="K18" s="437"/>
-      <c r="L18" s="548"/>
-      <c r="M18" s="428"/>
-      <c r="N18" s="429"/>
-      <c r="O18" s="553"/>
-      <c r="P18" s="554"/>
+      <c r="G18" s="453"/>
+      <c r="H18" s="548"/>
+      <c r="I18" s="430"/>
+      <c r="J18" s="431"/>
+      <c r="K18" s="439"/>
+      <c r="L18" s="553"/>
+      <c r="M18" s="430"/>
+      <c r="N18" s="431"/>
+      <c r="O18" s="558"/>
+      <c r="P18" s="559"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
@@ -41750,16 +41909,16 @@
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="451"/>
-      <c r="H19" s="543"/>
-      <c r="I19" s="428"/>
-      <c r="J19" s="429"/>
-      <c r="K19" s="437"/>
-      <c r="L19" s="548"/>
-      <c r="M19" s="428"/>
-      <c r="N19" s="429"/>
-      <c r="O19" s="553"/>
-      <c r="P19" s="554"/>
+      <c r="G19" s="453"/>
+      <c r="H19" s="548"/>
+      <c r="I19" s="430"/>
+      <c r="J19" s="431"/>
+      <c r="K19" s="439"/>
+      <c r="L19" s="553"/>
+      <c r="M19" s="430"/>
+      <c r="N19" s="431"/>
+      <c r="O19" s="558"/>
+      <c r="P19" s="559"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
@@ -41771,16 +41930,16 @@
       <c r="D20" s="8"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="452"/>
-      <c r="H20" s="544"/>
-      <c r="I20" s="430"/>
-      <c r="J20" s="431"/>
-      <c r="K20" s="549"/>
-      <c r="L20" s="550"/>
-      <c r="M20" s="430"/>
-      <c r="N20" s="431"/>
-      <c r="O20" s="555"/>
-      <c r="P20" s="556"/>
+      <c r="G20" s="454"/>
+      <c r="H20" s="549"/>
+      <c r="I20" s="432"/>
+      <c r="J20" s="433"/>
+      <c r="K20" s="554"/>
+      <c r="L20" s="555"/>
+      <c r="M20" s="432"/>
+      <c r="N20" s="433"/>
+      <c r="O20" s="560"/>
+      <c r="P20" s="561"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
@@ -41810,27 +41969,27 @@
     </row>
     <row r="22" spans="1:22" ht="15.75" thickBot="1">
       <c r="C22" s="4"/>
-      <c r="D22" s="438" t="s">
+      <c r="D22" s="440" t="s">
         <v>73</v>
       </c>
-      <c r="E22" s="439"/>
+      <c r="E22" s="441"/>
       <c r="F22" s="197"/>
       <c r="G22" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="H22" s="438" t="s">
+      <c r="H22" s="440" t="s">
         <v>75</v>
       </c>
-      <c r="I22" s="447"/>
-      <c r="J22" s="447"/>
-      <c r="K22" s="447"/>
-      <c r="L22" s="447"/>
-      <c r="M22" s="447"/>
-      <c r="N22" s="439"/>
-      <c r="O22" s="438" t="s">
+      <c r="I22" s="449"/>
+      <c r="J22" s="449"/>
+      <c r="K22" s="449"/>
+      <c r="L22" s="449"/>
+      <c r="M22" s="449"/>
+      <c r="N22" s="441"/>
+      <c r="O22" s="440" t="s">
         <v>333</v>
       </c>
-      <c r="P22" s="439"/>
+      <c r="P22" s="441"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
@@ -41861,59 +42020,59 @@
       <c r="U23" s="9"/>
     </row>
     <row r="25" spans="1:22" ht="21">
-      <c r="B25" s="531" t="s">
+      <c r="B25" s="536" t="s">
         <v>716</v>
       </c>
-      <c r="C25" s="531"/>
-      <c r="D25" s="531"/>
-      <c r="E25" s="531"/>
-      <c r="F25" s="531"/>
-      <c r="G25" s="531"/>
-      <c r="H25" s="531"/>
-      <c r="I25" s="531"/>
-      <c r="J25" s="531"/>
-      <c r="K25" s="531"/>
-      <c r="L25" s="531"/>
-      <c r="M25" s="531"/>
-      <c r="N25" s="531"/>
-      <c r="O25" s="531"/>
-      <c r="P25" s="531"/>
-      <c r="Q25" s="531"/>
-      <c r="R25" s="531"/>
-      <c r="S25" s="531"/>
-      <c r="T25" s="531"/>
-      <c r="U25" s="531"/>
-      <c r="V25" s="531"/>
+      <c r="C25" s="536"/>
+      <c r="D25" s="536"/>
+      <c r="E25" s="536"/>
+      <c r="F25" s="536"/>
+      <c r="G25" s="536"/>
+      <c r="H25" s="536"/>
+      <c r="I25" s="536"/>
+      <c r="J25" s="536"/>
+      <c r="K25" s="536"/>
+      <c r="L25" s="536"/>
+      <c r="M25" s="536"/>
+      <c r="N25" s="536"/>
+      <c r="O25" s="536"/>
+      <c r="P25" s="536"/>
+      <c r="Q25" s="536"/>
+      <c r="R25" s="536"/>
+      <c r="S25" s="536"/>
+      <c r="T25" s="536"/>
+      <c r="U25" s="536"/>
+      <c r="V25" s="536"/>
     </row>
     <row r="26" spans="1:22" ht="15.75" thickBot="1">
-      <c r="C26" s="532" t="s">
+      <c r="C26" s="537" t="s">
         <v>359</v>
       </c>
-      <c r="D26" s="532"/>
-      <c r="E26" s="532"/>
-      <c r="F26" s="532"/>
-      <c r="G26" s="532"/>
-      <c r="H26" s="532"/>
-      <c r="I26" s="532"/>
-      <c r="J26" s="532"/>
-      <c r="K26" s="532"/>
-      <c r="L26" s="532"/>
-      <c r="M26" s="532"/>
+      <c r="D26" s="537"/>
+      <c r="E26" s="537"/>
+      <c r="F26" s="537"/>
+      <c r="G26" s="537"/>
+      <c r="H26" s="537"/>
+      <c r="I26" s="537"/>
+      <c r="J26" s="537"/>
+      <c r="K26" s="537"/>
+      <c r="L26" s="537"/>
+      <c r="M26" s="537"/>
     </row>
     <row r="27" spans="1:22" ht="15.75" thickBot="1">
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="533" t="s">
+      <c r="E27" s="538" t="s">
         <v>57</v>
       </c>
-      <c r="F27" s="534"/>
-      <c r="G27" s="534"/>
-      <c r="H27" s="441"/>
-      <c r="I27" s="441"/>
-      <c r="J27" s="441"/>
-      <c r="K27" s="441"/>
-      <c r="L27" s="441"/>
-      <c r="M27" s="442"/>
+      <c r="F27" s="539"/>
+      <c r="G27" s="539"/>
+      <c r="H27" s="443"/>
+      <c r="I27" s="443"/>
+      <c r="J27" s="443"/>
+      <c r="K27" s="443"/>
+      <c r="L27" s="443"/>
+      <c r="M27" s="444"/>
     </row>
     <row r="28" spans="1:22">
       <c r="C28" s="4" t="s">
@@ -41950,11 +42109,11 @@
         <v>938</v>
       </c>
       <c r="M29" s="6"/>
-      <c r="O29" s="535" t="s">
+      <c r="O29" s="540" t="s">
         <v>58</v>
       </c>
-      <c r="P29" s="535"/>
-      <c r="Q29" s="535"/>
+      <c r="P29" s="540"/>
+      <c r="Q29" s="540"/>
     </row>
     <row r="30" spans="1:22" ht="15.75" thickBot="1">
       <c r="C30" s="4"/>
@@ -42008,21 +42167,21 @@
         <v>69</v>
       </c>
       <c r="D32" s="6"/>
-      <c r="E32" s="528" t="s">
+      <c r="E32" s="533" t="s">
         <v>720</v>
       </c>
-      <c r="F32" s="529"/>
-      <c r="G32" s="530"/>
-      <c r="H32" s="528" t="s">
+      <c r="F32" s="534"/>
+      <c r="G32" s="535"/>
+      <c r="H32" s="533" t="s">
         <v>721</v>
       </c>
-      <c r="I32" s="529"/>
-      <c r="J32" s="530"/>
-      <c r="K32" s="528" t="s">
+      <c r="I32" s="534"/>
+      <c r="J32" s="535"/>
+      <c r="K32" s="533" t="s">
         <v>722</v>
       </c>
-      <c r="L32" s="529"/>
-      <c r="M32" s="530"/>
+      <c r="L32" s="534"/>
+      <c r="M32" s="535"/>
       <c r="N32" s="5" t="s">
         <v>2</v>
       </c>
@@ -42042,15 +42201,15 @@
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="528"/>
-      <c r="F33" s="529"/>
-      <c r="G33" s="530"/>
-      <c r="H33" s="528"/>
-      <c r="I33" s="529"/>
-      <c r="J33" s="530"/>
-      <c r="K33" s="528"/>
-      <c r="L33" s="529"/>
-      <c r="M33" s="530"/>
+      <c r="E33" s="533"/>
+      <c r="F33" s="534"/>
+      <c r="G33" s="535"/>
+      <c r="H33" s="533"/>
+      <c r="I33" s="534"/>
+      <c r="J33" s="535"/>
+      <c r="K33" s="533"/>
+      <c r="L33" s="534"/>
+      <c r="M33" s="535"/>
       <c r="N33" s="5" t="s">
         <v>66</v>
       </c>
@@ -42073,15 +42232,15 @@
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="528"/>
-      <c r="F34" s="529"/>
-      <c r="G34" s="530"/>
-      <c r="H34" s="528"/>
-      <c r="I34" s="529"/>
-      <c r="J34" s="530"/>
-      <c r="K34" s="528"/>
-      <c r="L34" s="529"/>
-      <c r="M34" s="530"/>
+      <c r="E34" s="533"/>
+      <c r="F34" s="534"/>
+      <c r="G34" s="535"/>
+      <c r="H34" s="533"/>
+      <c r="I34" s="534"/>
+      <c r="J34" s="535"/>
+      <c r="K34" s="533"/>
+      <c r="L34" s="534"/>
+      <c r="M34" s="535"/>
       <c r="N34" s="5">
         <v>1000</v>
       </c>
@@ -42092,15 +42251,15 @@
     <row r="35" spans="1:22">
       <c r="C35" s="1"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="528"/>
-      <c r="F35" s="529"/>
-      <c r="G35" s="530"/>
-      <c r="H35" s="528"/>
-      <c r="I35" s="529"/>
-      <c r="J35" s="530"/>
-      <c r="K35" s="528"/>
-      <c r="L35" s="529"/>
-      <c r="M35" s="530"/>
+      <c r="E35" s="533"/>
+      <c r="F35" s="534"/>
+      <c r="G35" s="535"/>
+      <c r="H35" s="533"/>
+      <c r="I35" s="534"/>
+      <c r="J35" s="535"/>
+      <c r="K35" s="533"/>
+      <c r="L35" s="534"/>
+      <c r="M35" s="535"/>
       <c r="N35" s="5" t="s">
         <v>2</v>
       </c>
@@ -42231,15 +42390,15 @@
     <row r="42" spans="1:22" ht="19.5" thickBot="1">
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="521"/>
-      <c r="F42" s="522"/>
-      <c r="G42" s="522"/>
-      <c r="H42" s="522"/>
-      <c r="I42" s="522"/>
-      <c r="J42" s="522"/>
-      <c r="K42" s="522"/>
-      <c r="L42" s="522"/>
-      <c r="M42" s="523"/>
+      <c r="E42" s="526"/>
+      <c r="F42" s="527"/>
+      <c r="G42" s="527"/>
+      <c r="H42" s="527"/>
+      <c r="I42" s="527"/>
+      <c r="J42" s="527"/>
+      <c r="K42" s="527"/>
+      <c r="L42" s="527"/>
+      <c r="M42" s="528"/>
       <c r="N42" s="35" t="s">
         <v>364</v>
       </c>
@@ -42258,23 +42417,23 @@
       <c r="K43" s="5"/>
     </row>
     <row r="44" spans="1:22" ht="15.75" thickBot="1">
-      <c r="C44" s="438" t="s">
+      <c r="C44" s="440" t="s">
         <v>73</v>
       </c>
-      <c r="D44" s="439"/>
-      <c r="E44" s="438" t="s">
+      <c r="D44" s="441"/>
+      <c r="E44" s="440" t="s">
         <v>74</v>
       </c>
-      <c r="F44" s="447"/>
-      <c r="G44" s="439"/>
-      <c r="H44" s="438" t="s">
+      <c r="F44" s="449"/>
+      <c r="G44" s="441"/>
+      <c r="H44" s="440" t="s">
         <v>75</v>
       </c>
-      <c r="I44" s="447"/>
-      <c r="J44" s="447"/>
-      <c r="K44" s="447"/>
-      <c r="L44" s="447"/>
-      <c r="M44" s="439"/>
+      <c r="I44" s="449"/>
+      <c r="J44" s="449"/>
+      <c r="K44" s="449"/>
+      <c r="L44" s="449"/>
+      <c r="M44" s="441"/>
       <c r="Q44" t="s">
         <v>719</v>
       </c>
@@ -42294,61 +42453,61 @@
       </c>
     </row>
     <row r="47" spans="1:22" ht="21">
-      <c r="B47" s="531" t="s">
+      <c r="B47" s="536" t="s">
         <v>718</v>
       </c>
-      <c r="C47" s="531"/>
-      <c r="D47" s="531"/>
-      <c r="E47" s="531"/>
-      <c r="F47" s="531"/>
-      <c r="G47" s="531"/>
-      <c r="H47" s="531"/>
-      <c r="I47" s="531"/>
-      <c r="J47" s="531"/>
-      <c r="K47" s="531"/>
-      <c r="L47" s="531"/>
-      <c r="M47" s="531"/>
-      <c r="N47" s="531"/>
-      <c r="O47" s="531"/>
-      <c r="P47" s="531"/>
-      <c r="Q47" s="531"/>
-      <c r="R47" s="531"/>
-      <c r="S47" s="531"/>
-      <c r="T47" s="531"/>
-      <c r="U47" s="531"/>
-      <c r="V47" s="531"/>
+      <c r="C47" s="536"/>
+      <c r="D47" s="536"/>
+      <c r="E47" s="536"/>
+      <c r="F47" s="536"/>
+      <c r="G47" s="536"/>
+      <c r="H47" s="536"/>
+      <c r="I47" s="536"/>
+      <c r="J47" s="536"/>
+      <c r="K47" s="536"/>
+      <c r="L47" s="536"/>
+      <c r="M47" s="536"/>
+      <c r="N47" s="536"/>
+      <c r="O47" s="536"/>
+      <c r="P47" s="536"/>
+      <c r="Q47" s="536"/>
+      <c r="R47" s="536"/>
+      <c r="S47" s="536"/>
+      <c r="T47" s="536"/>
+      <c r="U47" s="536"/>
+      <c r="V47" s="536"/>
     </row>
     <row r="48" spans="1:22" ht="15.75" thickBot="1">
-      <c r="C48" s="532" t="s">
+      <c r="C48" s="537" t="s">
         <v>359</v>
       </c>
-      <c r="D48" s="532"/>
-      <c r="E48" s="532"/>
-      <c r="F48" s="532"/>
-      <c r="G48" s="532"/>
-      <c r="H48" s="532"/>
-      <c r="I48" s="532"/>
-      <c r="J48" s="532"/>
-      <c r="K48" s="532"/>
-      <c r="L48" s="532"/>
-      <c r="M48" s="532"/>
+      <c r="D48" s="537"/>
+      <c r="E48" s="537"/>
+      <c r="F48" s="537"/>
+      <c r="G48" s="537"/>
+      <c r="H48" s="537"/>
+      <c r="I48" s="537"/>
+      <c r="J48" s="537"/>
+      <c r="K48" s="537"/>
+      <c r="L48" s="537"/>
+      <c r="M48" s="537"/>
       <c r="S48" s="24"/>
       <c r="T48" s="24"/>
     </row>
     <row r="49" spans="1:24" ht="15.75" thickBot="1">
       <c r="C49" s="1"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="533" t="s">
+      <c r="E49" s="538" t="s">
         <v>57</v>
       </c>
-      <c r="F49" s="534"/>
-      <c r="G49" s="534"/>
-      <c r="H49" s="441"/>
-      <c r="I49" s="441"/>
-      <c r="J49" s="441"/>
-      <c r="K49" s="441"/>
-      <c r="L49" s="441"/>
-      <c r="M49" s="442"/>
+      <c r="F49" s="539"/>
+      <c r="G49" s="539"/>
+      <c r="H49" s="443"/>
+      <c r="I49" s="443"/>
+      <c r="J49" s="443"/>
+      <c r="K49" s="443"/>
+      <c r="L49" s="443"/>
+      <c r="M49" s="444"/>
       <c r="S49" s="24"/>
       <c r="T49" s="24"/>
       <c r="U49" s="18"/>
@@ -42368,16 +42527,16 @@
       <c r="G50" s="177" t="s">
         <v>1205</v>
       </c>
-      <c r="H50" s="537" t="s">
+      <c r="H50" s="542" t="s">
         <v>721</v>
       </c>
-      <c r="I50" s="538"/>
-      <c r="J50" s="539"/>
-      <c r="K50" s="537" t="s">
+      <c r="I50" s="543"/>
+      <c r="J50" s="544"/>
+      <c r="K50" s="542" t="s">
         <v>722</v>
       </c>
-      <c r="L50" s="538"/>
-      <c r="M50" s="539"/>
+      <c r="L50" s="543"/>
+      <c r="M50" s="544"/>
       <c r="S50" s="24"/>
       <c r="T50" s="24"/>
       <c r="W50" t="s">
@@ -42391,20 +42550,20 @@
         <v>736</v>
       </c>
       <c r="F51" s="218"/>
-      <c r="G51" s="540" t="s">
+      <c r="G51" s="545" t="s">
         <v>744</v>
       </c>
-      <c r="H51" s="528"/>
-      <c r="I51" s="529"/>
-      <c r="J51" s="530"/>
-      <c r="K51" s="528"/>
-      <c r="L51" s="529"/>
-      <c r="M51" s="530"/>
-      <c r="O51" s="535" t="s">
+      <c r="H51" s="533"/>
+      <c r="I51" s="534"/>
+      <c r="J51" s="535"/>
+      <c r="K51" s="533"/>
+      <c r="L51" s="534"/>
+      <c r="M51" s="535"/>
+      <c r="O51" s="540" t="s">
         <v>58</v>
       </c>
-      <c r="P51" s="535"/>
-      <c r="Q51" s="535"/>
+      <c r="P51" s="540"/>
+      <c r="Q51" s="540"/>
       <c r="S51" s="205"/>
       <c r="T51" s="205"/>
       <c r="W51" s="35" t="s">
@@ -42418,13 +42577,13 @@
         <v>737</v>
       </c>
       <c r="F52" s="219"/>
-      <c r="G52" s="540"/>
-      <c r="H52" s="528"/>
-      <c r="I52" s="529"/>
-      <c r="J52" s="530"/>
-      <c r="K52" s="528"/>
-      <c r="L52" s="529"/>
-      <c r="M52" s="530"/>
+      <c r="G52" s="545"/>
+      <c r="H52" s="533"/>
+      <c r="I52" s="534"/>
+      <c r="J52" s="535"/>
+      <c r="K52" s="533"/>
+      <c r="L52" s="534"/>
+      <c r="M52" s="535"/>
       <c r="S52" s="24"/>
       <c r="T52" s="24"/>
     </row>
@@ -42435,13 +42594,13 @@
         <v>738</v>
       </c>
       <c r="F53" s="220"/>
-      <c r="G53" s="540"/>
-      <c r="H53" s="528"/>
-      <c r="I53" s="529"/>
-      <c r="J53" s="530"/>
-      <c r="K53" s="528"/>
-      <c r="L53" s="529"/>
-      <c r="M53" s="530"/>
+      <c r="G53" s="545"/>
+      <c r="H53" s="533"/>
+      <c r="I53" s="534"/>
+      <c r="J53" s="535"/>
+      <c r="K53" s="533"/>
+      <c r="L53" s="534"/>
+      <c r="M53" s="535"/>
       <c r="N53" s="5"/>
       <c r="O53" s="33" t="s">
         <v>61</v>
@@ -42480,7 +42639,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="206"/>
       <c r="F54" s="221"/>
-      <c r="G54" s="526" t="s">
+      <c r="G54" s="531" t="s">
         <v>748</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -42527,11 +42686,11 @@
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="524" t="s">
+      <c r="E55" s="529" t="s">
         <v>749</v>
       </c>
-      <c r="F55" s="525"/>
-      <c r="G55" s="527"/>
+      <c r="F55" s="530"/>
+      <c r="G55" s="532"/>
       <c r="H55" s="113" t="s">
         <v>740</v>
       </c>
@@ -42575,9 +42734,9 @@
     <row r="56" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="C56" s="8"/>
       <c r="D56" s="9"/>
-      <c r="E56" s="524"/>
-      <c r="F56" s="525"/>
-      <c r="G56" s="527"/>
+      <c r="E56" s="529"/>
+      <c r="F56" s="530"/>
+      <c r="G56" s="532"/>
       <c r="H56" s="113" t="s">
         <v>741</v>
       </c>
@@ -42607,9 +42766,9 @@
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="524"/>
-      <c r="F57" s="525"/>
-      <c r="G57" s="527"/>
+      <c r="E57" s="529"/>
+      <c r="F57" s="530"/>
+      <c r="G57" s="532"/>
       <c r="H57" s="4" t="s">
         <v>753</v>
       </c>
@@ -42639,9 +42798,9 @@
         <v>71</v>
       </c>
       <c r="D58" s="6"/>
-      <c r="E58" s="524"/>
-      <c r="F58" s="525"/>
-      <c r="G58" s="527"/>
+      <c r="E58" s="529"/>
+      <c r="F58" s="530"/>
+      <c r="G58" s="532"/>
       <c r="H58" s="210" t="s">
         <v>739</v>
       </c>
@@ -42666,9 +42825,9 @@
     <row r="59" spans="1:24">
       <c r="C59" s="4"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="524"/>
-      <c r="F59" s="525"/>
-      <c r="G59" s="527"/>
+      <c r="E59" s="529"/>
+      <c r="F59" s="530"/>
+      <c r="G59" s="532"/>
       <c r="H59" s="210" t="s">
         <v>353</v>
       </c>
@@ -42693,9 +42852,9 @@
     <row r="60" spans="1:24" ht="15.75" thickBot="1">
       <c r="C60" s="8"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="524"/>
-      <c r="F60" s="525"/>
-      <c r="G60" s="527"/>
+      <c r="E60" s="529"/>
+      <c r="F60" s="530"/>
+      <c r="G60" s="532"/>
       <c r="H60" s="212"/>
       <c r="I60" s="213" t="s">
         <v>755</v>
@@ -42715,9 +42874,9 @@
     <row r="61" spans="1:24">
       <c r="C61" s="4"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="524"/>
-      <c r="F61" s="525"/>
-      <c r="G61" s="527"/>
+      <c r="E61" s="529"/>
+      <c r="F61" s="530"/>
+      <c r="G61" s="532"/>
       <c r="H61" s="212"/>
       <c r="I61" s="213" t="s">
         <v>756</v>
@@ -42737,7 +42896,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="201"/>
       <c r="F62" s="217"/>
-      <c r="G62" s="527"/>
+      <c r="G62" s="532"/>
       <c r="H62" s="214"/>
       <c r="I62" s="216" t="s">
         <v>757</v>
@@ -42779,17 +42938,17 @@
     <row r="64" spans="1:24" ht="19.5" thickBot="1">
       <c r="C64" s="8"/>
       <c r="D64" s="9"/>
-      <c r="E64" s="521" t="s">
+      <c r="E64" s="526" t="s">
         <v>1206</v>
       </c>
-      <c r="F64" s="522"/>
-      <c r="G64" s="522"/>
-      <c r="H64" s="522"/>
-      <c r="I64" s="522"/>
-      <c r="J64" s="522"/>
-      <c r="K64" s="522"/>
-      <c r="L64" s="522"/>
-      <c r="M64" s="523"/>
+      <c r="F64" s="527"/>
+      <c r="G64" s="527"/>
+      <c r="H64" s="527"/>
+      <c r="I64" s="527"/>
+      <c r="J64" s="527"/>
+      <c r="K64" s="527"/>
+      <c r="L64" s="527"/>
+      <c r="M64" s="528"/>
       <c r="N64" s="35" t="s">
         <v>364</v>
       </c>
@@ -42818,23 +42977,23 @@
       </c>
     </row>
     <row r="66" spans="2:24" ht="15.75" thickBot="1">
-      <c r="C66" s="438" t="s">
+      <c r="C66" s="440" t="s">
         <v>73</v>
       </c>
-      <c r="D66" s="439"/>
-      <c r="E66" s="438" t="s">
+      <c r="D66" s="441"/>
+      <c r="E66" s="440" t="s">
         <v>74</v>
       </c>
-      <c r="F66" s="447"/>
-      <c r="G66" s="439"/>
-      <c r="H66" s="438" t="s">
+      <c r="F66" s="449"/>
+      <c r="G66" s="441"/>
+      <c r="H66" s="440" t="s">
         <v>75</v>
       </c>
-      <c r="I66" s="447"/>
-      <c r="J66" s="447"/>
-      <c r="K66" s="447"/>
-      <c r="L66" s="447"/>
-      <c r="M66" s="439"/>
+      <c r="I66" s="449"/>
+      <c r="J66" s="449"/>
+      <c r="K66" s="449"/>
+      <c r="L66" s="449"/>
+      <c r="M66" s="441"/>
       <c r="Q66" t="s">
         <v>719</v>
       </c>
@@ -42855,23 +43014,23 @@
       </c>
     </row>
     <row r="68" spans="2:24">
-      <c r="C68" s="506" t="s">
+      <c r="C68" s="511" t="s">
         <v>60</v>
       </c>
-      <c r="D68" s="506"/>
-      <c r="E68" s="506" t="s">
+      <c r="D68" s="511"/>
+      <c r="E68" s="511" t="s">
         <v>911</v>
       </c>
-      <c r="F68" s="506"/>
-      <c r="G68" s="506"/>
-      <c r="H68" s="506" t="s">
+      <c r="F68" s="511"/>
+      <c r="G68" s="511"/>
+      <c r="H68" s="511" t="s">
         <v>927</v>
       </c>
-      <c r="I68" s="506"/>
-      <c r="J68" s="506"/>
-      <c r="K68" s="506"/>
-      <c r="L68" s="506"/>
-      <c r="M68" s="506"/>
+      <c r="I68" s="511"/>
+      <c r="J68" s="511"/>
+      <c r="K68" s="511"/>
+      <c r="L68" s="511"/>
+      <c r="M68" s="511"/>
       <c r="S68" s="24"/>
       <c r="T68" s="24"/>
       <c r="U68" s="2" t="s">
@@ -43960,12 +44119,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="B1" s="557" t="s">
+      <c r="B1" s="562" t="s">
         <v>343</v>
       </c>
-      <c r="C1" s="557"/>
-      <c r="D1" s="557"/>
-      <c r="E1" s="557"/>
+      <c r="C1" s="562"/>
+      <c r="D1" s="562"/>
+      <c r="E1" s="562"/>
       <c r="I1" s="262" t="s">
         <v>1237</v>
       </c>
@@ -44116,10 +44275,10 @@
       <c r="L7" s="260"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="B8" s="501"/>
-      <c r="C8" s="501"/>
-      <c r="D8" s="501"/>
-      <c r="E8" s="501"/>
+      <c r="B8" s="506"/>
+      <c r="C8" s="506"/>
+      <c r="D8" s="506"/>
+      <c r="E8" s="506"/>
       <c r="G8" t="s">
         <v>1245</v>
       </c>
@@ -44295,11 +44454,11 @@
       </c>
     </row>
     <row r="25" spans="1:18">
-      <c r="B25" s="558" t="s">
+      <c r="B25" s="563" t="s">
         <v>1235</v>
       </c>
-      <c r="C25" s="559"/>
-      <c r="D25" s="559"/>
+      <c r="C25" s="564"/>
+      <c r="D25" s="564"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -44778,36 +44937,36 @@
       </c>
     </row>
     <row r="63" spans="2:17">
-      <c r="C63" s="506" t="s">
+      <c r="C63" s="511" t="s">
         <v>1811</v>
       </c>
-      <c r="D63" s="506"/>
-      <c r="E63" s="506"/>
-      <c r="F63" s="506"/>
-      <c r="G63" s="506"/>
-      <c r="H63" s="506"/>
-      <c r="I63" s="506"/>
+      <c r="D63" s="511"/>
+      <c r="E63" s="511"/>
+      <c r="F63" s="511"/>
+      <c r="G63" s="511"/>
+      <c r="H63" s="511"/>
+      <c r="I63" s="511"/>
       <c r="K63" t="s">
         <v>1818</v>
       </c>
     </row>
     <row r="64" spans="2:17">
-      <c r="C64" s="506"/>
-      <c r="D64" s="506"/>
-      <c r="E64" s="506"/>
-      <c r="F64" s="506"/>
-      <c r="G64" s="506"/>
-      <c r="H64" s="506"/>
-      <c r="I64" s="506"/>
+      <c r="C64" s="511"/>
+      <c r="D64" s="511"/>
+      <c r="E64" s="511"/>
+      <c r="F64" s="511"/>
+      <c r="G64" s="511"/>
+      <c r="H64" s="511"/>
+      <c r="I64" s="511"/>
     </row>
     <row r="65" spans="1:12">
-      <c r="C65" s="506"/>
-      <c r="D65" s="506"/>
-      <c r="E65" s="506"/>
-      <c r="F65" s="506"/>
-      <c r="G65" s="506"/>
-      <c r="H65" s="506"/>
-      <c r="I65" s="506"/>
+      <c r="C65" s="511"/>
+      <c r="D65" s="511"/>
+      <c r="E65" s="511"/>
+      <c r="F65" s="511"/>
+      <c r="G65" s="511"/>
+      <c r="H65" s="511"/>
+      <c r="I65" s="511"/>
       <c r="J65" t="s">
         <v>1816</v>
       </c>
@@ -44821,24 +44980,24 @@
       </c>
     </row>
     <row r="67" spans="1:12">
-      <c r="C67" s="506" t="s">
+      <c r="C67" s="511" t="s">
         <v>1227</v>
       </c>
-      <c r="D67" s="506"/>
-      <c r="E67" s="506"/>
-      <c r="F67" s="506"/>
-      <c r="G67" s="506"/>
-      <c r="H67" s="506"/>
-      <c r="I67" s="506"/>
+      <c r="D67" s="511"/>
+      <c r="E67" s="511"/>
+      <c r="F67" s="511"/>
+      <c r="G67" s="511"/>
+      <c r="H67" s="511"/>
+      <c r="I67" s="511"/>
     </row>
     <row r="68" spans="1:12">
-      <c r="C68" s="506"/>
-      <c r="D68" s="506"/>
-      <c r="E68" s="506"/>
-      <c r="F68" s="506"/>
-      <c r="G68" s="506"/>
-      <c r="H68" s="506"/>
-      <c r="I68" s="506"/>
+      <c r="C68" s="511"/>
+      <c r="D68" s="511"/>
+      <c r="E68" s="511"/>
+      <c r="F68" s="511"/>
+      <c r="G68" s="511"/>
+      <c r="H68" s="511"/>
+      <c r="I68" s="511"/>
       <c r="J68" t="s">
         <v>1815</v>
       </c>
@@ -44855,24 +45014,24 @@
       </c>
     </row>
     <row r="70" spans="1:12">
-      <c r="C70" s="506" t="s">
+      <c r="C70" s="511" t="s">
         <v>278</v>
       </c>
-      <c r="D70" s="506"/>
-      <c r="E70" s="506"/>
-      <c r="F70" s="506"/>
-      <c r="G70" s="506"/>
-      <c r="H70" s="506"/>
-      <c r="I70" s="506"/>
+      <c r="D70" s="511"/>
+      <c r="E70" s="511"/>
+      <c r="F70" s="511"/>
+      <c r="G70" s="511"/>
+      <c r="H70" s="511"/>
+      <c r="I70" s="511"/>
     </row>
     <row r="71" spans="1:12">
-      <c r="C71" s="506"/>
-      <c r="D71" s="506"/>
-      <c r="E71" s="506"/>
-      <c r="F71" s="506"/>
-      <c r="G71" s="506"/>
-      <c r="H71" s="506"/>
-      <c r="I71" s="506"/>
+      <c r="C71" s="511"/>
+      <c r="D71" s="511"/>
+      <c r="E71" s="511"/>
+      <c r="F71" s="511"/>
+      <c r="G71" s="511"/>
+      <c r="H71" s="511"/>
+      <c r="I71" s="511"/>
       <c r="J71" t="s">
         <v>1812</v>
       </c>
@@ -44946,18 +45105,18 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:18" ht="15.75" thickBot="1">
-      <c r="C2" s="532" t="s">
+      <c r="C2" s="537" t="s">
         <v>359</v>
       </c>
-      <c r="D2" s="532"/>
-      <c r="E2" s="532"/>
-      <c r="F2" s="532"/>
-      <c r="G2" s="532"/>
-      <c r="H2" s="532"/>
-      <c r="I2" s="532"/>
-      <c r="J2" s="532"/>
-      <c r="K2" s="532"/>
-      <c r="L2" s="532"/>
+      <c r="D2" s="537"/>
+      <c r="E2" s="537"/>
+      <c r="F2" s="537"/>
+      <c r="G2" s="537"/>
+      <c r="H2" s="537"/>
+      <c r="I2" s="537"/>
+      <c r="J2" s="537"/>
+      <c r="K2" s="537"/>
+      <c r="L2" s="537"/>
       <c r="N2" t="s">
         <v>1825</v>
       </c>
@@ -44965,16 +45124,16 @@
     <row r="3" spans="1:18" ht="15.75" thickBot="1">
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="533" t="s">
+      <c r="E3" s="538" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="534"/>
-      <c r="G3" s="441"/>
-      <c r="H3" s="441"/>
-      <c r="I3" s="441"/>
-      <c r="J3" s="441"/>
-      <c r="K3" s="441"/>
-      <c r="L3" s="442"/>
+      <c r="F3" s="539"/>
+      <c r="G3" s="443"/>
+      <c r="H3" s="443"/>
+      <c r="I3" s="443"/>
+      <c r="J3" s="443"/>
+      <c r="K3" s="443"/>
+      <c r="L3" s="444"/>
       <c r="P3" t="s">
         <v>1826</v>
       </c>
@@ -45014,11 +45173,11 @@
         <v>369</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="N5" s="535" t="s">
+      <c r="N5" s="540" t="s">
         <v>58</v>
       </c>
-      <c r="O5" s="535"/>
-      <c r="P5" s="535"/>
+      <c r="O5" s="540"/>
+      <c r="P5" s="540"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1">
       <c r="A6" t="s">
@@ -45075,20 +45234,20 @@
         <v>69</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="528" t="s">
+      <c r="E8" s="533" t="s">
         <v>360</v>
       </c>
-      <c r="F8" s="530"/>
-      <c r="G8" s="528" t="s">
+      <c r="F8" s="535"/>
+      <c r="G8" s="533" t="s">
         <v>361</v>
       </c>
-      <c r="H8" s="529"/>
-      <c r="I8" s="530"/>
-      <c r="J8" s="528" t="s">
+      <c r="H8" s="534"/>
+      <c r="I8" s="535"/>
+      <c r="J8" s="533" t="s">
         <v>362</v>
       </c>
-      <c r="K8" s="529"/>
-      <c r="L8" s="530"/>
+      <c r="K8" s="534"/>
+      <c r="L8" s="535"/>
       <c r="M8" s="5" t="s">
         <v>2</v>
       </c>
@@ -45108,14 +45267,14 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="528"/>
-      <c r="F9" s="530"/>
-      <c r="G9" s="528"/>
-      <c r="H9" s="529"/>
-      <c r="I9" s="530"/>
-      <c r="J9" s="528"/>
-      <c r="K9" s="529"/>
-      <c r="L9" s="530"/>
+      <c r="E9" s="533"/>
+      <c r="F9" s="535"/>
+      <c r="G9" s="533"/>
+      <c r="H9" s="534"/>
+      <c r="I9" s="535"/>
+      <c r="J9" s="533"/>
+      <c r="K9" s="534"/>
+      <c r="L9" s="535"/>
       <c r="M9" s="5" t="s">
         <v>66</v>
       </c>
@@ -45132,14 +45291,14 @@
     <row r="10" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="528"/>
-      <c r="F10" s="530"/>
-      <c r="G10" s="528"/>
-      <c r="H10" s="529"/>
-      <c r="I10" s="530"/>
-      <c r="J10" s="528"/>
-      <c r="K10" s="529"/>
-      <c r="L10" s="530"/>
+      <c r="E10" s="533"/>
+      <c r="F10" s="535"/>
+      <c r="G10" s="533"/>
+      <c r="H10" s="534"/>
+      <c r="I10" s="535"/>
+      <c r="J10" s="533"/>
+      <c r="K10" s="534"/>
+      <c r="L10" s="535"/>
       <c r="M10" s="5">
         <v>1000</v>
       </c>
@@ -45153,14 +45312,14 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="528"/>
-      <c r="F11" s="530"/>
-      <c r="G11" s="528"/>
-      <c r="H11" s="529"/>
-      <c r="I11" s="530"/>
-      <c r="J11" s="528"/>
-      <c r="K11" s="529"/>
-      <c r="L11" s="530"/>
+      <c r="E11" s="533"/>
+      <c r="F11" s="535"/>
+      <c r="G11" s="533"/>
+      <c r="H11" s="534"/>
+      <c r="I11" s="535"/>
+      <c r="J11" s="533"/>
+      <c r="K11" s="534"/>
+      <c r="L11" s="535"/>
       <c r="M11" s="5" t="s">
         <v>2</v>
       </c>
@@ -45290,16 +45449,16 @@
     <row r="17" spans="1:18" ht="18.75">
       <c r="C17" s="4"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="568" t="s">
+      <c r="E17" s="573" t="s">
         <v>363</v>
       </c>
-      <c r="F17" s="569"/>
-      <c r="G17" s="569"/>
-      <c r="H17" s="569"/>
-      <c r="I17" s="569"/>
-      <c r="J17" s="569"/>
-      <c r="K17" s="569"/>
-      <c r="L17" s="570"/>
+      <c r="F17" s="574"/>
+      <c r="G17" s="574"/>
+      <c r="H17" s="574"/>
+      <c r="I17" s="574"/>
+      <c r="J17" s="574"/>
+      <c r="K17" s="574"/>
+      <c r="L17" s="575"/>
       <c r="M17" s="35" t="s">
         <v>364</v>
       </c>
@@ -45316,22 +45475,22 @@
       <c r="A18" t="s">
         <v>1769</v>
       </c>
-      <c r="C18" s="571" t="s">
+      <c r="C18" s="576" t="s">
         <v>1768</v>
       </c>
-      <c r="D18" s="571"/>
-      <c r="E18" s="571" t="s">
+      <c r="D18" s="576"/>
+      <c r="E18" s="576" t="s">
         <v>1771</v>
       </c>
-      <c r="F18" s="571"/>
-      <c r="G18" s="571"/>
-      <c r="H18" s="571"/>
-      <c r="I18" s="571"/>
-      <c r="J18" s="571" t="s">
+      <c r="F18" s="576"/>
+      <c r="G18" s="576"/>
+      <c r="H18" s="576"/>
+      <c r="I18" s="576"/>
+      <c r="J18" s="576" t="s">
         <v>1772</v>
       </c>
-      <c r="K18" s="571"/>
-      <c r="L18" s="571"/>
+      <c r="K18" s="576"/>
+      <c r="L18" s="576"/>
       <c r="P18" t="s">
         <v>1157</v>
       </c>
@@ -45343,40 +45502,40 @@
       <c r="A19" t="s">
         <v>1770</v>
       </c>
-      <c r="C19" s="566" t="s">
+      <c r="C19" s="571" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="567"/>
-      <c r="E19" s="566" t="s">
+      <c r="D19" s="572"/>
+      <c r="E19" s="571" t="s">
         <v>74</v>
       </c>
-      <c r="F19" s="567"/>
-      <c r="G19" s="566" t="s">
+      <c r="F19" s="572"/>
+      <c r="G19" s="571" t="s">
         <v>75</v>
       </c>
-      <c r="H19" s="532"/>
-      <c r="I19" s="532"/>
-      <c r="J19" s="532"/>
-      <c r="K19" s="532"/>
-      <c r="L19" s="567"/>
+      <c r="H19" s="537"/>
+      <c r="I19" s="537"/>
+      <c r="J19" s="537"/>
+      <c r="K19" s="537"/>
+      <c r="L19" s="572"/>
     </row>
     <row r="20" spans="1:18" ht="15.75" thickBot="1"/>
     <row r="21" spans="1:18" ht="15" customHeight="1">
-      <c r="E21" s="560" t="s">
+      <c r="E21" s="565" t="s">
         <v>940</v>
       </c>
-      <c r="F21" s="561"/>
+      <c r="F21" s="566"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="E22" s="562"/>
-      <c r="F22" s="563"/>
+      <c r="E22" s="567"/>
+      <c r="F22" s="568"/>
       <c r="J22" t="s">
         <v>944</v>
       </c>
     </row>
     <row r="23" spans="1:18">
-      <c r="E23" s="562"/>
-      <c r="F23" s="563"/>
+      <c r="E23" s="567"/>
+      <c r="F23" s="568"/>
       <c r="H23" t="s">
         <v>947</v>
       </c>
@@ -45388,8 +45547,8 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="15.75" thickBot="1">
-      <c r="E24" s="564"/>
-      <c r="F24" s="565"/>
+      <c r="E24" s="569"/>
+      <c r="F24" s="570"/>
     </row>
     <row r="25" spans="1:18" ht="15.75" thickBot="1"/>
     <row r="26" spans="1:18" ht="15.75" thickBot="1">
@@ -46755,22 +46914,22 @@
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="536" t="s">
+      <c r="E3" s="541" t="s">
         <v>323</v>
       </c>
-      <c r="F3" s="536"/>
-      <c r="G3" s="536" t="s">
+      <c r="F3" s="541"/>
+      <c r="G3" s="541" t="s">
         <v>324</v>
       </c>
-      <c r="H3" s="536"/>
-      <c r="I3" s="536"/>
-      <c r="J3" s="536"/>
-      <c r="K3" s="536"/>
-      <c r="L3" s="536"/>
-      <c r="M3" s="536" t="s">
+      <c r="H3" s="541"/>
+      <c r="I3" s="541"/>
+      <c r="J3" s="541"/>
+      <c r="K3" s="541"/>
+      <c r="L3" s="541"/>
+      <c r="M3" s="541" t="s">
         <v>325</v>
       </c>
-      <c r="N3" s="536"/>
+      <c r="N3" s="541"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
@@ -46781,7 +46940,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="107"/>
       <c r="D4" s="108"/>
-      <c r="E4" s="541" t="s">
+      <c r="E4" s="546" t="s">
         <v>326</v>
       </c>
       <c r="F4" s="103"/>
@@ -46809,22 +46968,22 @@
         <v>60</v>
       </c>
       <c r="D5" s="110"/>
-      <c r="E5" s="451"/>
-      <c r="F5" s="426" t="s">
+      <c r="E5" s="453"/>
+      <c r="F5" s="428" t="s">
         <v>397</v>
       </c>
-      <c r="G5" s="464"/>
-      <c r="H5" s="465"/>
-      <c r="I5" s="572" t="s">
+      <c r="G5" s="466"/>
+      <c r="H5" s="467"/>
+      <c r="I5" s="577" t="s">
         <v>398</v>
       </c>
-      <c r="J5" s="573"/>
-      <c r="K5" s="573"/>
-      <c r="L5" s="547"/>
-      <c r="M5" s="572" t="s">
+      <c r="J5" s="578"/>
+      <c r="K5" s="578"/>
+      <c r="L5" s="552"/>
+      <c r="M5" s="577" t="s">
         <v>399</v>
       </c>
-      <c r="N5" s="547"/>
+      <c r="N5" s="552"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -46835,16 +46994,16 @@
       <c r="B6" s="4"/>
       <c r="C6" s="111"/>
       <c r="D6" s="112"/>
-      <c r="E6" s="451"/>
-      <c r="F6" s="466"/>
-      <c r="G6" s="467"/>
-      <c r="H6" s="468"/>
-      <c r="I6" s="437"/>
-      <c r="J6" s="435"/>
-      <c r="K6" s="435"/>
-      <c r="L6" s="548"/>
-      <c r="M6" s="437"/>
-      <c r="N6" s="548"/>
+      <c r="E6" s="453"/>
+      <c r="F6" s="468"/>
+      <c r="G6" s="469"/>
+      <c r="H6" s="470"/>
+      <c r="I6" s="439"/>
+      <c r="J6" s="437"/>
+      <c r="K6" s="437"/>
+      <c r="L6" s="553"/>
+      <c r="M6" s="439"/>
+      <c r="N6" s="553"/>
       <c r="O6" s="5"/>
       <c r="P6" s="33" t="s">
         <v>61</v>
@@ -46861,16 +47020,16 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="451"/>
-      <c r="F7" s="466"/>
-      <c r="G7" s="467"/>
-      <c r="H7" s="468"/>
-      <c r="I7" s="437"/>
-      <c r="J7" s="435"/>
-      <c r="K7" s="435"/>
-      <c r="L7" s="548"/>
-      <c r="M7" s="437"/>
-      <c r="N7" s="548"/>
+      <c r="E7" s="453"/>
+      <c r="F7" s="468"/>
+      <c r="G7" s="469"/>
+      <c r="H7" s="470"/>
+      <c r="I7" s="439"/>
+      <c r="J7" s="437"/>
+      <c r="K7" s="437"/>
+      <c r="L7" s="553"/>
+      <c r="M7" s="439"/>
+      <c r="N7" s="553"/>
       <c r="O7" s="5" t="s">
         <v>2</v>
       </c>
@@ -46889,16 +47048,16 @@
       <c r="B8" s="4"/>
       <c r="C8" s="1"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="451"/>
-      <c r="F8" s="466"/>
-      <c r="G8" s="467"/>
-      <c r="H8" s="468"/>
-      <c r="I8" s="437"/>
-      <c r="J8" s="435"/>
-      <c r="K8" s="435"/>
-      <c r="L8" s="548"/>
-      <c r="M8" s="437"/>
-      <c r="N8" s="548"/>
+      <c r="E8" s="453"/>
+      <c r="F8" s="468"/>
+      <c r="G8" s="469"/>
+      <c r="H8" s="470"/>
+      <c r="I8" s="439"/>
+      <c r="J8" s="437"/>
+      <c r="K8" s="437"/>
+      <c r="L8" s="553"/>
+      <c r="M8" s="439"/>
+      <c r="N8" s="553"/>
       <c r="O8" s="5" t="s">
         <v>66</v>
       </c>
@@ -46919,16 +47078,16 @@
         <v>69</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="451"/>
-      <c r="F9" s="466"/>
-      <c r="G9" s="467"/>
-      <c r="H9" s="468"/>
-      <c r="I9" s="437"/>
-      <c r="J9" s="435"/>
-      <c r="K9" s="435"/>
-      <c r="L9" s="548"/>
-      <c r="M9" s="437"/>
-      <c r="N9" s="548"/>
+      <c r="E9" s="453"/>
+      <c r="F9" s="468"/>
+      <c r="G9" s="469"/>
+      <c r="H9" s="470"/>
+      <c r="I9" s="439"/>
+      <c r="J9" s="437"/>
+      <c r="K9" s="437"/>
+      <c r="L9" s="553"/>
+      <c r="M9" s="439"/>
+      <c r="N9" s="553"/>
       <c r="O9" s="5">
         <v>1000</v>
       </c>
@@ -46945,16 +47104,16 @@
         <v>342</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="451"/>
-      <c r="F10" s="466"/>
-      <c r="G10" s="467"/>
-      <c r="H10" s="468"/>
-      <c r="I10" s="437"/>
-      <c r="J10" s="435"/>
-      <c r="K10" s="435"/>
-      <c r="L10" s="548"/>
-      <c r="M10" s="437"/>
-      <c r="N10" s="548"/>
+      <c r="E10" s="453"/>
+      <c r="F10" s="468"/>
+      <c r="G10" s="469"/>
+      <c r="H10" s="470"/>
+      <c r="I10" s="439"/>
+      <c r="J10" s="437"/>
+      <c r="K10" s="437"/>
+      <c r="L10" s="553"/>
+      <c r="M10" s="439"/>
+      <c r="N10" s="553"/>
       <c r="O10" s="5" t="s">
         <v>2</v>
       </c>
@@ -46967,16 +47126,16 @@
       <c r="B11" s="4"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="451"/>
-      <c r="F11" s="466"/>
-      <c r="G11" s="467"/>
-      <c r="H11" s="468"/>
-      <c r="I11" s="437"/>
-      <c r="J11" s="435"/>
-      <c r="K11" s="435"/>
-      <c r="L11" s="548"/>
-      <c r="M11" s="437"/>
-      <c r="N11" s="548"/>
+      <c r="E11" s="453"/>
+      <c r="F11" s="468"/>
+      <c r="G11" s="469"/>
+      <c r="H11" s="470"/>
+      <c r="I11" s="439"/>
+      <c r="J11" s="437"/>
+      <c r="K11" s="437"/>
+      <c r="L11" s="553"/>
+      <c r="M11" s="439"/>
+      <c r="N11" s="553"/>
       <c r="O11" s="5"/>
       <c r="P11" s="33"/>
       <c r="Q11" s="33"/>
@@ -46987,16 +47146,16 @@
       <c r="B12" s="4"/>
       <c r="C12" s="1"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="451"/>
-      <c r="F12" s="466"/>
-      <c r="G12" s="467"/>
-      <c r="H12" s="468"/>
-      <c r="I12" s="437"/>
-      <c r="J12" s="435"/>
-      <c r="K12" s="435"/>
-      <c r="L12" s="548"/>
-      <c r="M12" s="437"/>
-      <c r="N12" s="548"/>
+      <c r="E12" s="453"/>
+      <c r="F12" s="468"/>
+      <c r="G12" s="469"/>
+      <c r="H12" s="470"/>
+      <c r="I12" s="439"/>
+      <c r="J12" s="437"/>
+      <c r="K12" s="437"/>
+      <c r="L12" s="553"/>
+      <c r="M12" s="439"/>
+      <c r="N12" s="553"/>
       <c r="O12" s="5"/>
       <c r="P12" s="33"/>
       <c r="Q12" s="33"/>
@@ -47009,16 +47168,16 @@
         <v>71</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="451"/>
-      <c r="F13" s="466"/>
-      <c r="G13" s="467"/>
-      <c r="H13" s="468"/>
-      <c r="I13" s="437"/>
-      <c r="J13" s="435"/>
-      <c r="K13" s="435"/>
-      <c r="L13" s="548"/>
-      <c r="M13" s="437"/>
-      <c r="N13" s="548"/>
+      <c r="E13" s="453"/>
+      <c r="F13" s="468"/>
+      <c r="G13" s="469"/>
+      <c r="H13" s="470"/>
+      <c r="I13" s="439"/>
+      <c r="J13" s="437"/>
+      <c r="K13" s="437"/>
+      <c r="L13" s="553"/>
+      <c r="M13" s="439"/>
+      <c r="N13" s="553"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
@@ -47029,16 +47188,16 @@
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="451"/>
-      <c r="F14" s="466"/>
-      <c r="G14" s="467"/>
-      <c r="H14" s="468"/>
-      <c r="I14" s="437"/>
-      <c r="J14" s="435"/>
-      <c r="K14" s="435"/>
-      <c r="L14" s="548"/>
-      <c r="M14" s="437"/>
-      <c r="N14" s="548"/>
+      <c r="E14" s="453"/>
+      <c r="F14" s="468"/>
+      <c r="G14" s="469"/>
+      <c r="H14" s="470"/>
+      <c r="I14" s="439"/>
+      <c r="J14" s="437"/>
+      <c r="K14" s="437"/>
+      <c r="L14" s="553"/>
+      <c r="M14" s="439"/>
+      <c r="N14" s="553"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
@@ -47049,16 +47208,16 @@
       <c r="B15" s="4"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="451"/>
-      <c r="F15" s="466"/>
-      <c r="G15" s="467"/>
-      <c r="H15" s="468"/>
-      <c r="I15" s="437"/>
-      <c r="J15" s="435"/>
-      <c r="K15" s="435"/>
-      <c r="L15" s="548"/>
-      <c r="M15" s="437"/>
-      <c r="N15" s="548"/>
+      <c r="E15" s="453"/>
+      <c r="F15" s="468"/>
+      <c r="G15" s="469"/>
+      <c r="H15" s="470"/>
+      <c r="I15" s="439"/>
+      <c r="J15" s="437"/>
+      <c r="K15" s="437"/>
+      <c r="L15" s="553"/>
+      <c r="M15" s="439"/>
+      <c r="N15" s="553"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
@@ -47069,16 +47228,16 @@
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="451"/>
-      <c r="F16" s="466"/>
-      <c r="G16" s="467"/>
-      <c r="H16" s="468"/>
-      <c r="I16" s="437"/>
-      <c r="J16" s="435"/>
-      <c r="K16" s="435"/>
-      <c r="L16" s="548"/>
-      <c r="M16" s="437"/>
-      <c r="N16" s="548"/>
+      <c r="E16" s="453"/>
+      <c r="F16" s="468"/>
+      <c r="G16" s="469"/>
+      <c r="H16" s="470"/>
+      <c r="I16" s="439"/>
+      <c r="J16" s="437"/>
+      <c r="K16" s="437"/>
+      <c r="L16" s="553"/>
+      <c r="M16" s="439"/>
+      <c r="N16" s="553"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
@@ -47091,16 +47250,16 @@
         <v>72</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="451"/>
-      <c r="F17" s="466"/>
-      <c r="G17" s="467"/>
-      <c r="H17" s="468"/>
-      <c r="I17" s="437"/>
-      <c r="J17" s="435"/>
-      <c r="K17" s="435"/>
-      <c r="L17" s="548"/>
-      <c r="M17" s="437"/>
-      <c r="N17" s="548"/>
+      <c r="E17" s="453"/>
+      <c r="F17" s="468"/>
+      <c r="G17" s="469"/>
+      <c r="H17" s="470"/>
+      <c r="I17" s="439"/>
+      <c r="J17" s="437"/>
+      <c r="K17" s="437"/>
+      <c r="L17" s="553"/>
+      <c r="M17" s="439"/>
+      <c r="N17" s="553"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
@@ -47111,16 +47270,16 @@
       <c r="B18" s="4"/>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="452"/>
-      <c r="F18" s="469"/>
-      <c r="G18" s="470"/>
-      <c r="H18" s="471"/>
-      <c r="I18" s="549"/>
-      <c r="J18" s="574"/>
-      <c r="K18" s="574"/>
-      <c r="L18" s="550"/>
-      <c r="M18" s="549"/>
-      <c r="N18" s="550"/>
+      <c r="E18" s="454"/>
+      <c r="F18" s="471"/>
+      <c r="G18" s="472"/>
+      <c r="H18" s="473"/>
+      <c r="I18" s="554"/>
+      <c r="J18" s="579"/>
+      <c r="K18" s="579"/>
+      <c r="L18" s="555"/>
+      <c r="M18" s="554"/>
+      <c r="N18" s="555"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
@@ -47149,26 +47308,26 @@
     </row>
     <row r="20" spans="2:19" ht="15.75" thickBot="1">
       <c r="B20" s="4"/>
-      <c r="C20" s="438" t="s">
+      <c r="C20" s="440" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="439"/>
+      <c r="D20" s="441"/>
       <c r="E20" s="102" t="s">
         <v>74</v>
       </c>
-      <c r="F20" s="438" t="s">
+      <c r="F20" s="440" t="s">
         <v>75</v>
       </c>
-      <c r="G20" s="447"/>
-      <c r="H20" s="447"/>
-      <c r="I20" s="447"/>
-      <c r="J20" s="447"/>
-      <c r="K20" s="447"/>
-      <c r="L20" s="439"/>
-      <c r="M20" s="438" t="s">
+      <c r="G20" s="449"/>
+      <c r="H20" s="449"/>
+      <c r="I20" s="449"/>
+      <c r="J20" s="449"/>
+      <c r="K20" s="449"/>
+      <c r="L20" s="441"/>
+      <c r="M20" s="440" t="s">
         <v>333</v>
       </c>
-      <c r="N20" s="439"/>
+      <c r="N20" s="441"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
@@ -47196,39 +47355,39 @@
       <c r="S21" s="9"/>
     </row>
     <row r="24" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B24" s="535" t="s">
+      <c r="B24" s="540" t="s">
         <v>359</v>
       </c>
-      <c r="C24" s="535"/>
-      <c r="D24" s="532"/>
-      <c r="E24" s="532"/>
-      <c r="F24" s="532"/>
-      <c r="G24" s="532"/>
-      <c r="H24" s="532"/>
-      <c r="I24" s="532"/>
-      <c r="J24" s="532"/>
-      <c r="K24" s="532"/>
-      <c r="M24" s="601" t="s">
+      <c r="C24" s="540"/>
+      <c r="D24" s="537"/>
+      <c r="E24" s="537"/>
+      <c r="F24" s="537"/>
+      <c r="G24" s="537"/>
+      <c r="H24" s="537"/>
+      <c r="I24" s="537"/>
+      <c r="J24" s="537"/>
+      <c r="K24" s="537"/>
+      <c r="M24" s="606" t="s">
         <v>58</v>
       </c>
-      <c r="N24" s="601"/>
-      <c r="O24" s="601"/>
+      <c r="N24" s="606"/>
+      <c r="O24" s="606"/>
     </row>
     <row r="25" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B25" s="602" t="s">
+      <c r="B25" s="607" t="s">
         <v>611</v>
       </c>
-      <c r="C25" s="510"/>
-      <c r="D25" s="441" t="s">
+      <c r="C25" s="515"/>
+      <c r="D25" s="443" t="s">
         <v>57</v>
       </c>
-      <c r="E25" s="441"/>
-      <c r="F25" s="441"/>
-      <c r="G25" s="441"/>
-      <c r="H25" s="441"/>
-      <c r="I25" s="441"/>
-      <c r="J25" s="441"/>
-      <c r="K25" s="442"/>
+      <c r="E25" s="443"/>
+      <c r="F25" s="443"/>
+      <c r="G25" s="443"/>
+      <c r="H25" s="443"/>
+      <c r="I25" s="443"/>
+      <c r="J25" s="443"/>
+      <c r="K25" s="444"/>
       <c r="M25" s="33" t="s">
         <v>61</v>
       </c>
@@ -47240,22 +47399,22 @@
       </c>
     </row>
     <row r="26" spans="2:19">
-      <c r="B26" s="511"/>
-      <c r="C26" s="512"/>
-      <c r="D26" s="575" t="s">
+      <c r="B26" s="516"/>
+      <c r="C26" s="517"/>
+      <c r="D26" s="580" t="s">
         <v>604</v>
       </c>
-      <c r="E26" s="576"/>
-      <c r="F26" s="594" t="s">
+      <c r="E26" s="581"/>
+      <c r="F26" s="599" t="s">
         <v>604</v>
       </c>
-      <c r="G26" s="595"/>
-      <c r="H26" s="596"/>
-      <c r="I26" s="599" t="s">
+      <c r="G26" s="600"/>
+      <c r="H26" s="601"/>
+      <c r="I26" s="604" t="s">
         <v>1291</v>
       </c>
-      <c r="J26" s="595"/>
-      <c r="K26" s="596"/>
+      <c r="J26" s="600"/>
+      <c r="K26" s="601"/>
       <c r="L26" s="5" t="s">
         <v>2</v>
       </c>
@@ -47270,22 +47429,22 @@
       </c>
     </row>
     <row r="27" spans="2:19">
-      <c r="B27" s="511"/>
-      <c r="C27" s="512"/>
-      <c r="D27" s="577" t="s">
+      <c r="B27" s="516"/>
+      <c r="C27" s="517"/>
+      <c r="D27" s="582" t="s">
         <v>609</v>
       </c>
-      <c r="E27" s="578"/>
-      <c r="F27" s="597" t="s">
+      <c r="E27" s="583"/>
+      <c r="F27" s="602" t="s">
         <v>605</v>
       </c>
-      <c r="G27" s="577"/>
-      <c r="H27" s="598"/>
-      <c r="I27" s="600" t="s">
+      <c r="G27" s="582"/>
+      <c r="H27" s="603"/>
+      <c r="I27" s="605" t="s">
         <v>1292</v>
       </c>
-      <c r="J27" s="577"/>
-      <c r="K27" s="598"/>
+      <c r="J27" s="582"/>
+      <c r="K27" s="603"/>
       <c r="L27" s="5" t="s">
         <v>2</v>
       </c>
@@ -47300,22 +47459,22 @@
       </c>
     </row>
     <row r="28" spans="2:19">
-      <c r="B28" s="511"/>
-      <c r="C28" s="512"/>
-      <c r="D28" s="577" t="s">
+      <c r="B28" s="516"/>
+      <c r="C28" s="517"/>
+      <c r="D28" s="582" t="s">
         <v>606</v>
       </c>
-      <c r="E28" s="578"/>
-      <c r="F28" s="597" t="s">
+      <c r="E28" s="583"/>
+      <c r="F28" s="602" t="s">
         <v>606</v>
       </c>
-      <c r="G28" s="577"/>
-      <c r="H28" s="598"/>
-      <c r="I28" s="600" t="s">
+      <c r="G28" s="582"/>
+      <c r="H28" s="603"/>
+      <c r="I28" s="605" t="s">
         <v>1293</v>
       </c>
-      <c r="J28" s="577"/>
-      <c r="K28" s="598"/>
+      <c r="J28" s="582"/>
+      <c r="K28" s="603"/>
       <c r="L28" s="5" t="s">
         <v>2</v>
       </c>
@@ -47324,22 +47483,22 @@
       <c r="O28" s="33"/>
     </row>
     <row r="29" spans="2:19">
-      <c r="B29" s="513"/>
-      <c r="C29" s="514"/>
-      <c r="D29" s="577" t="s">
+      <c r="B29" s="518"/>
+      <c r="C29" s="519"/>
+      <c r="D29" s="582" t="s">
         <v>607</v>
       </c>
-      <c r="E29" s="578"/>
-      <c r="F29" s="597" t="s">
+      <c r="E29" s="583"/>
+      <c r="F29" s="602" t="s">
         <v>607</v>
       </c>
-      <c r="G29" s="577"/>
-      <c r="H29" s="598"/>
-      <c r="I29" s="600" t="s">
+      <c r="G29" s="582"/>
+      <c r="H29" s="603"/>
+      <c r="I29" s="605" t="s">
         <v>1294</v>
       </c>
-      <c r="J29" s="577"/>
-      <c r="K29" s="598"/>
+      <c r="J29" s="582"/>
+      <c r="K29" s="603"/>
       <c r="L29" s="24" t="s">
         <v>2</v>
       </c>
@@ -47348,149 +47507,149 @@
       <c r="O29" s="33"/>
     </row>
     <row r="30" spans="2:19">
-      <c r="B30" s="443" t="s">
+      <c r="B30" s="445" t="s">
         <v>610</v>
       </c>
-      <c r="C30" s="445"/>
-      <c r="D30" s="579" t="s">
+      <c r="C30" s="447"/>
+      <c r="D30" s="584" t="s">
         <v>360</v>
       </c>
-      <c r="E30" s="580"/>
-      <c r="F30" s="585" t="s">
+      <c r="E30" s="585"/>
+      <c r="F30" s="590" t="s">
         <v>361</v>
       </c>
-      <c r="G30" s="586"/>
-      <c r="H30" s="580"/>
-      <c r="I30" s="585" t="s">
+      <c r="G30" s="591"/>
+      <c r="H30" s="585"/>
+      <c r="I30" s="590" t="s">
         <v>362</v>
       </c>
-      <c r="J30" s="586"/>
-      <c r="K30" s="591"/>
+      <c r="J30" s="591"/>
+      <c r="K30" s="596"/>
       <c r="L30" s="5"/>
       <c r="M30" s="33"/>
       <c r="N30" s="33"/>
       <c r="O30" s="33"/>
     </row>
     <row r="31" spans="2:19">
-      <c r="B31" s="428"/>
-      <c r="C31" s="433"/>
-      <c r="D31" s="581"/>
-      <c r="E31" s="582"/>
-      <c r="F31" s="587"/>
-      <c r="G31" s="588"/>
-      <c r="H31" s="582"/>
-      <c r="I31" s="587"/>
-      <c r="J31" s="588"/>
-      <c r="K31" s="592"/>
+      <c r="B31" s="430"/>
+      <c r="C31" s="435"/>
+      <c r="D31" s="586"/>
+      <c r="E31" s="587"/>
+      <c r="F31" s="592"/>
+      <c r="G31" s="593"/>
+      <c r="H31" s="587"/>
+      <c r="I31" s="592"/>
+      <c r="J31" s="593"/>
+      <c r="K31" s="597"/>
       <c r="L31" s="5"/>
       <c r="M31" s="33"/>
       <c r="N31" s="33"/>
       <c r="O31" s="33"/>
     </row>
     <row r="32" spans="2:19">
-      <c r="B32" s="428"/>
-      <c r="C32" s="433"/>
-      <c r="D32" s="581"/>
-      <c r="E32" s="582"/>
-      <c r="F32" s="587"/>
-      <c r="G32" s="588"/>
-      <c r="H32" s="582"/>
-      <c r="I32" s="587"/>
-      <c r="J32" s="588"/>
-      <c r="K32" s="592"/>
+      <c r="B32" s="430"/>
+      <c r="C32" s="435"/>
+      <c r="D32" s="586"/>
+      <c r="E32" s="587"/>
+      <c r="F32" s="592"/>
+      <c r="G32" s="593"/>
+      <c r="H32" s="587"/>
+      <c r="I32" s="592"/>
+      <c r="J32" s="593"/>
+      <c r="K32" s="597"/>
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="428"/>
-      <c r="C33" s="433"/>
-      <c r="D33" s="583"/>
-      <c r="E33" s="584"/>
-      <c r="F33" s="589"/>
-      <c r="G33" s="590"/>
-      <c r="H33" s="584"/>
-      <c r="I33" s="589"/>
-      <c r="J33" s="590"/>
-      <c r="K33" s="593"/>
+      <c r="B33" s="430"/>
+      <c r="C33" s="435"/>
+      <c r="D33" s="588"/>
+      <c r="E33" s="589"/>
+      <c r="F33" s="594"/>
+      <c r="G33" s="595"/>
+      <c r="H33" s="589"/>
+      <c r="I33" s="594"/>
+      <c r="J33" s="595"/>
+      <c r="K33" s="598"/>
     </row>
     <row r="34" spans="2:14">
-      <c r="B34" s="428"/>
-      <c r="C34" s="429"/>
-      <c r="D34" s="603" t="s">
+      <c r="B34" s="430"/>
+      <c r="C34" s="431"/>
+      <c r="D34" s="608" t="s">
         <v>597</v>
       </c>
-      <c r="E34" s="604"/>
-      <c r="F34" s="603" t="s">
+      <c r="E34" s="609"/>
+      <c r="F34" s="608" t="s">
         <v>373</v>
       </c>
-      <c r="G34" s="609"/>
-      <c r="H34" s="604"/>
-      <c r="I34" s="603" t="s">
+      <c r="G34" s="614"/>
+      <c r="H34" s="609"/>
+      <c r="I34" s="608" t="s">
         <v>612</v>
       </c>
-      <c r="J34" s="609"/>
-      <c r="K34" s="604"/>
+      <c r="J34" s="614"/>
+      <c r="K34" s="609"/>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35" s="428"/>
-      <c r="C35" s="429"/>
-      <c r="D35" s="605"/>
-      <c r="E35" s="606"/>
-      <c r="F35" s="605"/>
-      <c r="G35" s="610"/>
-      <c r="H35" s="606"/>
-      <c r="I35" s="605"/>
-      <c r="J35" s="610"/>
-      <c r="K35" s="606"/>
+      <c r="B35" s="430"/>
+      <c r="C35" s="431"/>
+      <c r="D35" s="610"/>
+      <c r="E35" s="611"/>
+      <c r="F35" s="610"/>
+      <c r="G35" s="615"/>
+      <c r="H35" s="611"/>
+      <c r="I35" s="610"/>
+      <c r="J35" s="615"/>
+      <c r="K35" s="611"/>
     </row>
     <row r="36" spans="2:14">
-      <c r="B36" s="428"/>
-      <c r="C36" s="429"/>
-      <c r="D36" s="605"/>
-      <c r="E36" s="606"/>
-      <c r="F36" s="605"/>
-      <c r="G36" s="610"/>
-      <c r="H36" s="606"/>
-      <c r="I36" s="605"/>
-      <c r="J36" s="610"/>
-      <c r="K36" s="606"/>
+      <c r="B36" s="430"/>
+      <c r="C36" s="431"/>
+      <c r="D36" s="610"/>
+      <c r="E36" s="611"/>
+      <c r="F36" s="610"/>
+      <c r="G36" s="615"/>
+      <c r="H36" s="611"/>
+      <c r="I36" s="610"/>
+      <c r="J36" s="615"/>
+      <c r="K36" s="611"/>
     </row>
     <row r="37" spans="2:14">
-      <c r="B37" s="428"/>
-      <c r="C37" s="429"/>
-      <c r="D37" s="605"/>
-      <c r="E37" s="606"/>
-      <c r="F37" s="605"/>
-      <c r="G37" s="610"/>
-      <c r="H37" s="606"/>
-      <c r="I37" s="605"/>
-      <c r="J37" s="610"/>
-      <c r="K37" s="606"/>
+      <c r="B37" s="430"/>
+      <c r="C37" s="431"/>
+      <c r="D37" s="610"/>
+      <c r="E37" s="611"/>
+      <c r="F37" s="610"/>
+      <c r="G37" s="615"/>
+      <c r="H37" s="611"/>
+      <c r="I37" s="610"/>
+      <c r="J37" s="615"/>
+      <c r="K37" s="611"/>
     </row>
     <row r="38" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B38" s="428"/>
-      <c r="C38" s="429"/>
-      <c r="D38" s="607"/>
-      <c r="E38" s="608"/>
-      <c r="F38" s="607"/>
-      <c r="G38" s="611"/>
-      <c r="H38" s="608"/>
-      <c r="I38" s="607"/>
-      <c r="J38" s="611"/>
-      <c r="K38" s="608"/>
+      <c r="B38" s="430"/>
+      <c r="C38" s="431"/>
+      <c r="D38" s="612"/>
+      <c r="E38" s="613"/>
+      <c r="F38" s="612"/>
+      <c r="G38" s="616"/>
+      <c r="H38" s="613"/>
+      <c r="I38" s="612"/>
+      <c r="J38" s="616"/>
+      <c r="K38" s="613"/>
     </row>
     <row r="39" spans="2:14" ht="19.5" thickBot="1">
-      <c r="B39" s="430"/>
-      <c r="C39" s="431"/>
-      <c r="D39" s="521" t="s">
+      <c r="B39" s="432"/>
+      <c r="C39" s="433"/>
+      <c r="D39" s="526" t="s">
         <v>363</v>
       </c>
-      <c r="E39" s="522"/>
-      <c r="F39" s="522"/>
-      <c r="G39" s="522"/>
-      <c r="H39" s="522"/>
-      <c r="I39" s="522"/>
-      <c r="J39" s="522"/>
-      <c r="K39" s="523"/>
+      <c r="E39" s="527"/>
+      <c r="F39" s="527"/>
+      <c r="G39" s="527"/>
+      <c r="H39" s="527"/>
+      <c r="I39" s="527"/>
+      <c r="J39" s="527"/>
+      <c r="K39" s="528"/>
       <c r="L39" s="35" t="s">
         <v>364</v>
       </c>
@@ -47508,22 +47667,22 @@
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B41" s="438" t="s">
+      <c r="B41" s="440" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="439"/>
-      <c r="D41" s="438" t="s">
+      <c r="C41" s="441"/>
+      <c r="D41" s="440" t="s">
         <v>74</v>
       </c>
-      <c r="E41" s="439"/>
-      <c r="F41" s="438" t="s">
+      <c r="E41" s="441"/>
+      <c r="F41" s="440" t="s">
         <v>75</v>
       </c>
-      <c r="G41" s="447"/>
-      <c r="H41" s="447"/>
-      <c r="I41" s="447"/>
-      <c r="J41" s="447"/>
-      <c r="K41" s="439"/>
+      <c r="G41" s="449"/>
+      <c r="H41" s="449"/>
+      <c r="I41" s="449"/>
+      <c r="J41" s="449"/>
+      <c r="K41" s="441"/>
     </row>
   </sheetData>
   <mergeCells count="37">
@@ -48310,7 +48469,7 @@
       </c>
     </row>
     <row r="50" spans="1:14">
-      <c r="D50" s="425" t="s">
+      <c r="D50" s="427" t="s">
         <v>69</v>
       </c>
       <c r="E50" s="33" t="s">
@@ -48318,7 +48477,7 @@
       </c>
     </row>
     <row r="51" spans="1:14">
-      <c r="D51" s="425"/>
+      <c r="D51" s="427"/>
       <c r="E51" s="33" t="s">
         <v>2015</v>
       </c>
@@ -48327,7 +48486,7 @@
       </c>
     </row>
     <row r="52" spans="1:14">
-      <c r="D52" s="425"/>
+      <c r="D52" s="427"/>
       <c r="E52" s="33" t="s">
         <v>2016</v>
       </c>
@@ -48852,15 +49011,15 @@
         <v>1778</v>
       </c>
       <c r="H108" s="4"/>
-      <c r="I108" s="426" t="s">
+      <c r="I108" s="428" t="s">
         <v>2120</v>
       </c>
-      <c r="J108" s="427"/>
-      <c r="K108" s="426" t="s">
+      <c r="J108" s="429"/>
+      <c r="K108" s="428" t="s">
         <v>2129</v>
       </c>
-      <c r="L108" s="432"/>
-      <c r="M108" s="427"/>
+      <c r="L108" s="434"/>
+      <c r="M108" s="429"/>
       <c r="N108" s="5"/>
       <c r="O108" s="6"/>
     </row>
@@ -48872,41 +49031,41 @@
         <v>926</v>
       </c>
       <c r="H109" s="4"/>
-      <c r="I109" s="428"/>
-      <c r="J109" s="429"/>
-      <c r="K109" s="428"/>
-      <c r="L109" s="433"/>
-      <c r="M109" s="429"/>
+      <c r="I109" s="430"/>
+      <c r="J109" s="431"/>
+      <c r="K109" s="430"/>
+      <c r="L109" s="435"/>
+      <c r="M109" s="431"/>
       <c r="N109" s="5"/>
       <c r="O109" s="6"/>
     </row>
     <row r="110" spans="1:15">
       <c r="H110" s="4"/>
-      <c r="I110" s="428"/>
-      <c r="J110" s="429"/>
-      <c r="K110" s="428"/>
-      <c r="L110" s="433"/>
-      <c r="M110" s="429"/>
+      <c r="I110" s="430"/>
+      <c r="J110" s="431"/>
+      <c r="K110" s="430"/>
+      <c r="L110" s="435"/>
+      <c r="M110" s="431"/>
       <c r="N110" s="5"/>
       <c r="O110" s="6"/>
     </row>
     <row r="111" spans="1:15">
       <c r="H111" s="4"/>
-      <c r="I111" s="428"/>
-      <c r="J111" s="429"/>
-      <c r="K111" s="428"/>
-      <c r="L111" s="433"/>
-      <c r="M111" s="429"/>
+      <c r="I111" s="430"/>
+      <c r="J111" s="431"/>
+      <c r="K111" s="430"/>
+      <c r="L111" s="435"/>
+      <c r="M111" s="431"/>
       <c r="N111" s="5"/>
       <c r="O111" s="6"/>
     </row>
     <row r="112" spans="1:15" ht="15.75" thickBot="1">
       <c r="H112" s="4"/>
-      <c r="I112" s="428"/>
-      <c r="J112" s="429"/>
-      <c r="K112" s="428"/>
-      <c r="L112" s="433"/>
-      <c r="M112" s="429"/>
+      <c r="I112" s="430"/>
+      <c r="J112" s="431"/>
+      <c r="K112" s="430"/>
+      <c r="L112" s="435"/>
+      <c r="M112" s="431"/>
       <c r="N112" s="5"/>
       <c r="O112" s="6"/>
     </row>
@@ -48917,11 +49076,11 @@
       <c r="B113" s="2"/>
       <c r="C113" s="3"/>
       <c r="H113" s="4"/>
-      <c r="I113" s="428"/>
-      <c r="J113" s="429"/>
-      <c r="K113" s="430"/>
-      <c r="L113" s="434"/>
-      <c r="M113" s="431"/>
+      <c r="I113" s="430"/>
+      <c r="J113" s="431"/>
+      <c r="K113" s="432"/>
+      <c r="L113" s="436"/>
+      <c r="M113" s="433"/>
       <c r="N113" s="5"/>
       <c r="O113" s="6"/>
     </row>
@@ -48932,8 +49091,8 @@
       </c>
       <c r="C114" s="6"/>
       <c r="H114" s="4"/>
-      <c r="I114" s="428"/>
-      <c r="J114" s="429"/>
+      <c r="I114" s="430"/>
+      <c r="J114" s="431"/>
       <c r="K114" s="408" t="s">
         <v>80</v>
       </c>
@@ -48951,8 +49110,8 @@
         <v>2126</v>
       </c>
       <c r="H115" s="4"/>
-      <c r="I115" s="428"/>
-      <c r="J115" s="429"/>
+      <c r="I115" s="430"/>
+      <c r="J115" s="431"/>
       <c r="K115" s="408" t="s">
         <v>1585</v>
       </c>
@@ -48968,8 +49127,8 @@
       <c r="B116" s="10"/>
       <c r="C116" s="9"/>
       <c r="H116" s="4"/>
-      <c r="I116" s="428"/>
-      <c r="J116" s="429"/>
+      <c r="I116" s="430"/>
+      <c r="J116" s="431"/>
       <c r="K116" s="411"/>
       <c r="L116" s="412"/>
       <c r="M116" s="413"/>
@@ -48978,8 +49137,8 @@
     </row>
     <row r="117" spans="1:15" ht="15.75" thickBot="1">
       <c r="H117" s="4"/>
-      <c r="I117" s="428"/>
-      <c r="J117" s="429"/>
+      <c r="I117" s="430"/>
+      <c r="J117" s="431"/>
       <c r="K117" s="414" t="s">
         <v>2122</v>
       </c>
@@ -48997,8 +49156,8 @@
       <c r="B118" s="2"/>
       <c r="C118" s="3"/>
       <c r="H118" s="4"/>
-      <c r="I118" s="428"/>
-      <c r="J118" s="429"/>
+      <c r="I118" s="430"/>
+      <c r="J118" s="431"/>
       <c r="K118" s="417"/>
       <c r="L118" s="418"/>
       <c r="M118" s="419"/>
@@ -49014,8 +49173,8 @@
         <v>2130</v>
       </c>
       <c r="H119" s="4"/>
-      <c r="I119" s="430"/>
-      <c r="J119" s="431"/>
+      <c r="I119" s="432"/>
+      <c r="J119" s="433"/>
       <c r="K119" s="411"/>
       <c r="L119" s="412"/>
       <c r="M119" s="413"/>
@@ -49131,7 +49290,7 @@
       <c r="K3" s="390"/>
       <c r="L3" s="390"/>
       <c r="M3" s="391"/>
-      <c r="N3" s="437" t="s">
+      <c r="N3" s="439" t="s">
         <v>2025</v>
       </c>
     </row>
@@ -49149,7 +49308,7 @@
       <c r="K4" s="404"/>
       <c r="L4" s="404"/>
       <c r="M4" s="405"/>
-      <c r="N4" s="437"/>
+      <c r="N4" s="439"/>
     </row>
     <row r="5" spans="3:14">
       <c r="C5" s="279">
@@ -49165,7 +49324,7 @@
       <c r="K5" s="381"/>
       <c r="L5" s="381"/>
       <c r="M5" s="382"/>
-      <c r="N5" s="435" t="s">
+      <c r="N5" s="437" t="s">
         <v>777</v>
       </c>
     </row>
@@ -49183,7 +49342,7 @@
       <c r="K6" s="384"/>
       <c r="L6" s="384"/>
       <c r="M6" s="385"/>
-      <c r="N6" s="435"/>
+      <c r="N6" s="437"/>
     </row>
     <row r="7" spans="3:14">
       <c r="C7" s="279">
@@ -49199,7 +49358,7 @@
       <c r="K7" s="384"/>
       <c r="L7" s="384"/>
       <c r="M7" s="385"/>
-      <c r="N7" s="435"/>
+      <c r="N7" s="437"/>
     </row>
     <row r="8" spans="3:14">
       <c r="C8" s="279">
@@ -49215,7 +49374,7 @@
       <c r="K8" s="384"/>
       <c r="L8" s="384"/>
       <c r="M8" s="385"/>
-      <c r="N8" s="435"/>
+      <c r="N8" s="437"/>
     </row>
     <row r="9" spans="3:14">
       <c r="C9" s="279">
@@ -49231,7 +49390,7 @@
       <c r="K9" s="384"/>
       <c r="L9" s="384"/>
       <c r="M9" s="385"/>
-      <c r="N9" s="435"/>
+      <c r="N9" s="437"/>
     </row>
     <row r="10" spans="3:14">
       <c r="C10" s="279">
@@ -49247,7 +49406,7 @@
       <c r="K10" s="384"/>
       <c r="L10" s="384"/>
       <c r="M10" s="385"/>
-      <c r="N10" s="435"/>
+      <c r="N10" s="437"/>
     </row>
     <row r="11" spans="3:14" ht="15.75" thickBot="1">
       <c r="C11" s="279">
@@ -49263,7 +49422,7 @@
       <c r="K11" s="387"/>
       <c r="L11" s="387"/>
       <c r="M11" s="388"/>
-      <c r="N11" s="435"/>
+      <c r="N11" s="437"/>
     </row>
     <row r="12" spans="3:14" ht="15.75" thickBot="1">
       <c r="C12" s="279">
@@ -49333,7 +49492,7 @@
       <c r="K15" s="390"/>
       <c r="L15" s="390"/>
       <c r="M15" s="391"/>
-      <c r="N15" s="437" t="s">
+      <c r="N15" s="439" t="s">
         <v>2025</v>
       </c>
     </row>
@@ -49351,7 +49510,7 @@
       <c r="K16" s="393"/>
       <c r="L16" s="393"/>
       <c r="M16" s="394"/>
-      <c r="N16" s="437"/>
+      <c r="N16" s="439"/>
     </row>
     <row r="17" spans="2:15">
       <c r="C17" s="279">
@@ -49367,7 +49526,7 @@
       <c r="K17" s="401"/>
       <c r="L17" s="401"/>
       <c r="M17" s="402"/>
-      <c r="N17" s="437" t="s">
+      <c r="N17" s="439" t="s">
         <v>777</v>
       </c>
     </row>
@@ -49385,7 +49544,7 @@
       <c r="K18" s="401"/>
       <c r="L18" s="401"/>
       <c r="M18" s="402"/>
-      <c r="N18" s="437"/>
+      <c r="N18" s="439"/>
     </row>
     <row r="19" spans="2:15">
       <c r="C19" s="279">
@@ -49401,7 +49560,7 @@
       <c r="K19" s="401"/>
       <c r="L19" s="401"/>
       <c r="M19" s="402"/>
-      <c r="N19" s="437"/>
+      <c r="N19" s="439"/>
       <c r="O19" s="24" t="s">
         <v>2029</v>
       </c>
@@ -49424,7 +49583,7 @@
       <c r="K20" s="401"/>
       <c r="L20" s="401"/>
       <c r="M20" s="402"/>
-      <c r="N20" s="437"/>
+      <c r="N20" s="439"/>
     </row>
     <row r="21" spans="2:15">
       <c r="C21" s="279">
@@ -49440,7 +49599,7 @@
       <c r="K21" s="401"/>
       <c r="L21" s="401"/>
       <c r="M21" s="402"/>
-      <c r="N21" s="437"/>
+      <c r="N21" s="439"/>
     </row>
     <row r="22" spans="2:15">
       <c r="C22" s="279">
@@ -49456,7 +49615,7 @@
       <c r="K22" s="401"/>
       <c r="L22" s="401"/>
       <c r="M22" s="402"/>
-      <c r="N22" s="437"/>
+      <c r="N22" s="439"/>
     </row>
     <row r="23" spans="2:15" ht="15.75" thickBot="1">
       <c r="C23" s="279">
@@ -49472,7 +49631,7 @@
       <c r="K23" s="401"/>
       <c r="L23" s="401"/>
       <c r="M23" s="402"/>
-      <c r="N23" s="437"/>
+      <c r="N23" s="439"/>
     </row>
     <row r="24" spans="2:15" ht="15.75" thickBot="1">
       <c r="C24" s="279">
@@ -49575,79 +49734,79 @@
       <c r="L45" s="124"/>
     </row>
     <row r="134" spans="3:3">
-      <c r="C134" s="435"/>
+      <c r="C134" s="437"/>
     </row>
     <row r="135" spans="3:3">
-      <c r="C135" s="435"/>
+      <c r="C135" s="437"/>
     </row>
     <row r="136" spans="3:3">
-      <c r="C136" s="435"/>
+      <c r="C136" s="437"/>
     </row>
     <row r="137" spans="3:3">
-      <c r="C137" s="435"/>
+      <c r="C137" s="437"/>
     </row>
     <row r="138" spans="3:3">
-      <c r="C138" s="435"/>
+      <c r="C138" s="437"/>
     </row>
     <row r="139" spans="3:3">
-      <c r="C139" s="435"/>
+      <c r="C139" s="437"/>
     </row>
     <row r="140" spans="3:3">
-      <c r="C140" s="435"/>
+      <c r="C140" s="437"/>
     </row>
     <row r="141" spans="3:3">
-      <c r="C141" s="435"/>
+      <c r="C141" s="437"/>
     </row>
     <row r="142" spans="3:3">
-      <c r="C142" s="435"/>
+      <c r="C142" s="437"/>
     </row>
     <row r="147" spans="4:4">
-      <c r="D147" s="436"/>
+      <c r="D147" s="438"/>
     </row>
     <row r="148" spans="4:4">
-      <c r="D148" s="435"/>
+      <c r="D148" s="437"/>
     </row>
     <row r="149" spans="4:4">
-      <c r="D149" s="435"/>
+      <c r="D149" s="437"/>
     </row>
     <row r="150" spans="4:4">
-      <c r="D150" s="435"/>
+      <c r="D150" s="437"/>
     </row>
     <row r="151" spans="4:4">
-      <c r="D151" s="435"/>
+      <c r="D151" s="437"/>
     </row>
     <row r="152" spans="4:4">
-      <c r="D152" s="435"/>
+      <c r="D152" s="437"/>
     </row>
     <row r="153" spans="4:4">
-      <c r="D153" s="435"/>
+      <c r="D153" s="437"/>
     </row>
     <row r="182" spans="14:14">
-      <c r="N182" s="435"/>
+      <c r="N182" s="437"/>
     </row>
     <row r="183" spans="14:14">
-      <c r="N183" s="435"/>
+      <c r="N183" s="437"/>
     </row>
     <row r="184" spans="14:14">
-      <c r="N184" s="435"/>
+      <c r="N184" s="437"/>
     </row>
     <row r="185" spans="14:14">
-      <c r="N185" s="435"/>
+      <c r="N185" s="437"/>
     </row>
     <row r="186" spans="14:14">
-      <c r="N186" s="435"/>
+      <c r="N186" s="437"/>
     </row>
     <row r="187" spans="14:14">
-      <c r="N187" s="435"/>
+      <c r="N187" s="437"/>
     </row>
     <row r="188" spans="14:14">
-      <c r="N188" s="435"/>
+      <c r="N188" s="437"/>
     </row>
     <row r="189" spans="14:14">
-      <c r="N189" s="435"/>
+      <c r="N189" s="437"/>
     </row>
     <row r="190" spans="14:14">
-      <c r="N190" s="435"/>
+      <c r="N190" s="437"/>
     </row>
     <row r="199" spans="3:3">
       <c r="C199" s="280"/>
@@ -49759,14 +49918,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V168"/>
   <sheetViews>
-    <sheetView topLeftCell="A107" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:E14"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="7" max="7" width="25.140625" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" customWidth="1"/>
     <col min="13" max="13" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -49817,14 +49976,14 @@
       <c r="H4" s="4"/>
       <c r="I4" s="1"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="440" t="s">
+      <c r="K4" s="442" t="s">
         <v>57</v>
       </c>
-      <c r="L4" s="441"/>
-      <c r="M4" s="441"/>
-      <c r="N4" s="441"/>
-      <c r="O4" s="441"/>
-      <c r="P4" s="442"/>
+      <c r="L4" s="443"/>
+      <c r="M4" s="443"/>
+      <c r="N4" s="443"/>
+      <c r="O4" s="443"/>
+      <c r="P4" s="444"/>
       <c r="Q4" s="89" t="s">
         <v>147</v>
       </c>
@@ -49928,7 +50087,7 @@
         <v>11</v>
       </c>
       <c r="S7" s="46" t="s">
-        <v>64</v>
+        <v>228</v>
       </c>
       <c r="T7" s="46" t="s">
         <v>65</v>
@@ -49956,10 +50115,10 @@
       <c r="L8" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="M8" s="448" t="s">
+      <c r="M8" s="450" t="s">
         <v>89</v>
       </c>
-      <c r="N8" s="449"/>
+      <c r="N8" s="451"/>
       <c r="O8" s="5" t="s">
         <v>17</v>
       </c>
@@ -49993,8 +50152,8 @@
       <c r="L9" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="M9" s="449"/>
-      <c r="N9" s="449"/>
+      <c r="M9" s="451"/>
+      <c r="N9" s="451"/>
       <c r="O9" s="5" t="s">
         <v>66</v>
       </c>
@@ -50034,8 +50193,8 @@
       <c r="L10" s="5" t="s">
         <v>793</v>
       </c>
-      <c r="M10" s="449"/>
-      <c r="N10" s="449"/>
+      <c r="M10" s="451"/>
+      <c r="N10" s="451"/>
       <c r="O10" s="5"/>
       <c r="P10" s="178" t="s">
         <v>237</v>
@@ -50048,13 +50207,13 @@
       <c r="T10" s="33"/>
     </row>
     <row r="11" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A11" s="443" t="s">
+      <c r="A11" s="445" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="444"/>
-      <c r="C11" s="445"/>
-      <c r="D11" s="445"/>
-      <c r="E11" s="446"/>
+      <c r="B11" s="446"/>
+      <c r="C11" s="447"/>
+      <c r="D11" s="447"/>
+      <c r="E11" s="448"/>
       <c r="F11" t="s">
         <v>1014</v>
       </c>
@@ -50063,8 +50222,8 @@
       <c r="J11" s="10"/>
       <c r="K11" s="4"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="449"/>
-      <c r="N11" s="449"/>
+      <c r="M11" s="451"/>
+      <c r="N11" s="451"/>
       <c r="O11" s="5"/>
       <c r="P11" s="178" t="s">
         <v>238</v>
@@ -50074,11 +50233,11 @@
       <c r="T11" s="33"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="428"/>
-      <c r="B12" s="433"/>
-      <c r="C12" s="433"/>
-      <c r="D12" s="433"/>
-      <c r="E12" s="429"/>
+      <c r="A12" s="430"/>
+      <c r="B12" s="435"/>
+      <c r="C12" s="435"/>
+      <c r="D12" s="435"/>
+      <c r="E12" s="431"/>
       <c r="F12" t="s">
         <v>631</v>
       </c>
@@ -50089,8 +50248,8 @@
         <v>796</v>
       </c>
       <c r="L12" s="5"/>
-      <c r="M12" s="449"/>
-      <c r="N12" s="449"/>
+      <c r="M12" s="451"/>
+      <c r="N12" s="451"/>
       <c r="O12" s="5"/>
       <c r="P12" s="178" t="s">
         <v>904</v>
@@ -50100,11 +50259,11 @@
       <c r="T12" s="33"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="428"/>
-      <c r="B13" s="433"/>
-      <c r="C13" s="433"/>
-      <c r="D13" s="433"/>
-      <c r="E13" s="429"/>
+      <c r="A13" s="430"/>
+      <c r="B13" s="435"/>
+      <c r="C13" s="435"/>
+      <c r="D13" s="435"/>
+      <c r="E13" s="431"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4" t="s">
         <v>71</v>
@@ -50114,8 +50273,8 @@
         <v>2092</v>
       </c>
       <c r="L13" s="24"/>
-      <c r="M13" s="449"/>
-      <c r="N13" s="449"/>
+      <c r="M13" s="451"/>
+      <c r="N13" s="451"/>
       <c r="O13" s="26"/>
       <c r="P13" s="178"/>
       <c r="S13" t="s">
@@ -50123,11 +50282,11 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A14" s="430"/>
-      <c r="B14" s="434"/>
-      <c r="C14" s="434"/>
-      <c r="D14" s="434"/>
-      <c r="E14" s="431"/>
+      <c r="A14" s="432"/>
+      <c r="B14" s="436"/>
+      <c r="C14" s="436"/>
+      <c r="D14" s="436"/>
+      <c r="E14" s="433"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
@@ -50303,20 +50462,20 @@
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="438" t="s">
+      <c r="I20" s="440" t="s">
         <v>73</v>
       </c>
-      <c r="J20" s="439"/>
-      <c r="K20" s="438" t="s">
+      <c r="J20" s="441"/>
+      <c r="K20" s="440" t="s">
         <v>74</v>
       </c>
-      <c r="L20" s="439"/>
-      <c r="M20" s="438" t="s">
+      <c r="L20" s="441"/>
+      <c r="M20" s="440" t="s">
         <v>1097</v>
       </c>
-      <c r="N20" s="447"/>
-      <c r="O20" s="447"/>
-      <c r="P20" s="439"/>
+      <c r="N20" s="449"/>
+      <c r="O20" s="449"/>
+      <c r="P20" s="441"/>
       <c r="S20" t="s">
         <v>147</v>
       </c>
@@ -50366,7 +50525,9 @@
       <c r="R23" s="7" t="s">
         <v>889</v>
       </c>
-      <c r="S23" s="82"/>
+      <c r="S23" s="82" t="s">
+        <v>58</v>
+      </c>
       <c r="T23" s="83"/>
       <c r="V23" t="s">
         <v>1103</v>
@@ -50879,13 +51040,13 @@
       <c r="Q84" s="6"/>
     </row>
     <row r="85" spans="1:17">
-      <c r="A85" s="454" t="s">
+      <c r="A85" s="456" t="s">
         <v>994</v>
       </c>
-      <c r="B85" s="433"/>
-      <c r="C85" s="433"/>
-      <c r="D85" s="433"/>
-      <c r="E85" s="433"/>
+      <c r="B85" s="435"/>
+      <c r="C85" s="435"/>
+      <c r="D85" s="435"/>
+      <c r="E85" s="435"/>
       <c r="F85" s="6" t="s">
         <v>998</v>
       </c>
@@ -50932,14 +51093,14 @@
       <c r="H87" s="4"/>
       <c r="I87" s="30"/>
       <c r="J87" s="26"/>
-      <c r="K87" s="461" t="s">
+      <c r="K87" s="463" t="s">
         <v>997</v>
       </c>
-      <c r="L87" s="456"/>
-      <c r="M87" s="461" t="s">
+      <c r="L87" s="458"/>
+      <c r="M87" s="463" t="s">
         <v>1008</v>
       </c>
-      <c r="N87" s="456"/>
+      <c r="N87" s="458"/>
       <c r="O87" s="26"/>
       <c r="P87" s="34"/>
       <c r="Q87" s="6"/>
@@ -50956,10 +51117,10 @@
       <c r="H88" s="4"/>
       <c r="I88" s="30"/>
       <c r="J88" s="26"/>
-      <c r="K88" s="459"/>
-      <c r="L88" s="460"/>
-      <c r="M88" s="457"/>
-      <c r="N88" s="458"/>
+      <c r="K88" s="461"/>
+      <c r="L88" s="462"/>
+      <c r="M88" s="459"/>
+      <c r="N88" s="460"/>
       <c r="O88" s="26"/>
       <c r="P88" s="34"/>
       <c r="Q88" s="6"/>
@@ -50978,12 +51139,12 @@
       </c>
       <c r="I89" s="30"/>
       <c r="J89" s="26"/>
-      <c r="K89" s="455" t="s">
+      <c r="K89" s="457" t="s">
         <v>989</v>
       </c>
-      <c r="L89" s="456"/>
-      <c r="M89" s="457"/>
-      <c r="N89" s="458"/>
+      <c r="L89" s="458"/>
+      <c r="M89" s="459"/>
+      <c r="N89" s="460"/>
       <c r="O89" s="26"/>
       <c r="P89" s="34"/>
       <c r="Q89" s="6"/>
@@ -50998,10 +51159,10 @@
       <c r="H90" s="4"/>
       <c r="I90" s="30"/>
       <c r="J90" s="26"/>
-      <c r="K90" s="459"/>
-      <c r="L90" s="460"/>
-      <c r="M90" s="457"/>
-      <c r="N90" s="458"/>
+      <c r="K90" s="461"/>
+      <c r="L90" s="462"/>
+      <c r="M90" s="459"/>
+      <c r="N90" s="460"/>
       <c r="O90" s="26"/>
       <c r="P90" s="34"/>
       <c r="Q90" s="6"/>
@@ -51018,12 +51179,12 @@
       <c r="H91" s="4"/>
       <c r="I91" s="30"/>
       <c r="J91" s="26"/>
-      <c r="K91" s="455" t="s">
+      <c r="K91" s="457" t="s">
         <v>990</v>
       </c>
-      <c r="L91" s="456"/>
-      <c r="M91" s="457"/>
-      <c r="N91" s="458"/>
+      <c r="L91" s="458"/>
+      <c r="M91" s="459"/>
+      <c r="N91" s="460"/>
       <c r="O91" s="26"/>
       <c r="P91" s="34"/>
       <c r="Q91" s="6"/>
@@ -51040,10 +51201,10 @@
       <c r="H92" s="4"/>
       <c r="I92" s="30"/>
       <c r="J92" s="26"/>
-      <c r="K92" s="459"/>
-      <c r="L92" s="460"/>
-      <c r="M92" s="457"/>
-      <c r="N92" s="458"/>
+      <c r="K92" s="461"/>
+      <c r="L92" s="462"/>
+      <c r="M92" s="459"/>
+      <c r="N92" s="460"/>
       <c r="O92" s="26"/>
       <c r="P92" s="34"/>
       <c r="Q92" s="6"/>
@@ -51058,12 +51219,12 @@
       <c r="H93" s="4"/>
       <c r="I93" s="30"/>
       <c r="J93" s="26"/>
-      <c r="K93" s="455" t="s">
+      <c r="K93" s="457" t="s">
         <v>991</v>
       </c>
-      <c r="L93" s="456"/>
-      <c r="M93" s="457"/>
-      <c r="N93" s="458"/>
+      <c r="L93" s="458"/>
+      <c r="M93" s="459"/>
+      <c r="N93" s="460"/>
       <c r="O93" s="26"/>
       <c r="P93" s="34"/>
       <c r="Q93" s="6"/>
@@ -51075,10 +51236,10 @@
       <c r="H94" s="4"/>
       <c r="I94" s="30"/>
       <c r="J94" s="26"/>
-      <c r="K94" s="457"/>
-      <c r="L94" s="458"/>
-      <c r="M94" s="457"/>
-      <c r="N94" s="458"/>
+      <c r="K94" s="459"/>
+      <c r="L94" s="460"/>
+      <c r="M94" s="459"/>
+      <c r="N94" s="460"/>
       <c r="O94" s="26"/>
       <c r="P94" s="34"/>
       <c r="Q94" s="6"/>
@@ -51092,10 +51253,10 @@
       <c r="H95" s="4"/>
       <c r="I95" s="30"/>
       <c r="J95" s="26"/>
-      <c r="K95" s="459"/>
-      <c r="L95" s="460"/>
-      <c r="M95" s="459"/>
-      <c r="N95" s="460"/>
+      <c r="K95" s="461"/>
+      <c r="L95" s="462"/>
+      <c r="M95" s="461"/>
+      <c r="N95" s="462"/>
       <c r="O95" s="26"/>
       <c r="P95" s="34"/>
       <c r="Q95" s="6"/>
@@ -51112,14 +51273,14 @@
       <c r="H96" s="4"/>
       <c r="I96" s="30"/>
       <c r="J96" s="26"/>
-      <c r="K96" s="453" t="s">
+      <c r="K96" s="455" t="s">
         <v>992</v>
       </c>
-      <c r="L96" s="453"/>
-      <c r="M96" s="453" t="s">
+      <c r="L96" s="455"/>
+      <c r="M96" s="455" t="s">
         <v>993</v>
       </c>
-      <c r="N96" s="453"/>
+      <c r="N96" s="455"/>
       <c r="O96" s="26"/>
       <c r="P96" s="34"/>
       <c r="Q96" s="6"/>
@@ -51243,7 +51404,7 @@
       <c r="E115" s="82"/>
       <c r="F115" s="83"/>
       <c r="I115" s="4"/>
-      <c r="J115" s="450" t="s">
+      <c r="J115" s="452" t="s">
         <v>1023</v>
       </c>
       <c r="K115" s="2"/>
@@ -51260,7 +51421,7 @@
       <c r="E116" s="5"/>
       <c r="F116" s="6"/>
       <c r="I116" s="4"/>
-      <c r="J116" s="451"/>
+      <c r="J116" s="453"/>
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
       <c r="M116" s="3"/>
@@ -51275,7 +51436,7 @@
       <c r="E117" s="5"/>
       <c r="F117" s="6"/>
       <c r="I117" s="4"/>
-      <c r="J117" s="451"/>
+      <c r="J117" s="453"/>
       <c r="K117" s="5" t="s">
         <v>23</v>
       </c>
@@ -51292,7 +51453,7 @@
       <c r="E118" s="5"/>
       <c r="F118" s="6"/>
       <c r="I118" s="4"/>
-      <c r="J118" s="451"/>
+      <c r="J118" s="453"/>
       <c r="K118" s="5"/>
       <c r="L118" s="5"/>
       <c r="M118" s="6"/>
@@ -51307,7 +51468,7 @@
       <c r="E119" s="5"/>
       <c r="F119" s="6"/>
       <c r="I119" s="4"/>
-      <c r="J119" s="451"/>
+      <c r="J119" s="453"/>
       <c r="K119" s="5" t="s">
         <v>475</v>
       </c>
@@ -51327,7 +51488,7 @@
         <v>1022</v>
       </c>
       <c r="I120" s="4"/>
-      <c r="J120" s="451"/>
+      <c r="J120" s="453"/>
       <c r="K120" s="10"/>
       <c r="L120" s="10"/>
       <c r="M120" s="9"/>
@@ -51347,7 +51508,7 @@
         <v>145</v>
       </c>
       <c r="I121" s="4"/>
-      <c r="J121" s="451"/>
+      <c r="J121" s="453"/>
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
       <c r="M121" s="3"/>
@@ -51364,7 +51525,7 @@
       <c r="E122" s="5"/>
       <c r="F122" s="6"/>
       <c r="I122" s="4"/>
-      <c r="J122" s="451"/>
+      <c r="J122" s="453"/>
       <c r="K122" s="5"/>
       <c r="L122" s="5" t="s">
         <v>1019</v>
@@ -51383,7 +51544,7 @@
       <c r="E123" s="5"/>
       <c r="F123" s="6"/>
       <c r="I123" s="4"/>
-      <c r="J123" s="451"/>
+      <c r="J123" s="453"/>
       <c r="K123" s="5"/>
       <c r="L123" s="5" t="s">
         <v>1017</v>
@@ -51400,7 +51561,7 @@
       <c r="E124" s="5"/>
       <c r="F124" s="6"/>
       <c r="I124" s="4"/>
-      <c r="J124" s="451"/>
+      <c r="J124" s="453"/>
       <c r="K124" s="5"/>
       <c r="L124" s="5" t="s">
         <v>23</v>
@@ -51417,7 +51578,7 @@
       <c r="E125" s="5"/>
       <c r="F125" s="6"/>
       <c r="I125" s="4"/>
-      <c r="J125" s="451"/>
+      <c r="J125" s="453"/>
       <c r="K125" s="10"/>
       <c r="L125" s="10"/>
       <c r="M125" s="9"/>
@@ -51432,7 +51593,7 @@
       <c r="E126" s="10"/>
       <c r="F126" s="9"/>
       <c r="I126" s="4"/>
-      <c r="J126" s="452"/>
+      <c r="J126" s="454"/>
       <c r="K126" s="10"/>
       <c r="L126" s="10"/>
       <c r="M126" s="10"/>
@@ -51958,10 +52119,10 @@
         <v>147</v>
       </c>
       <c r="L160" s="4"/>
-      <c r="M160" s="438" t="s">
+      <c r="M160" s="440" t="s">
         <v>73</v>
       </c>
-      <c r="N160" s="439"/>
+      <c r="N160" s="441"/>
       <c r="O160" s="286" t="s">
         <v>74</v>
       </c>
@@ -52101,17 +52262,17 @@
     <mergeCell ref="M87:N95"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="T7" r:id="rId1"/>
-    <hyperlink ref="S7" r:id="rId2"/>
-    <hyperlink ref="A5" r:id="rId3"/>
-    <hyperlink ref="M14" r:id="rId4"/>
-    <hyperlink ref="A85" r:id="rId5"/>
-    <hyperlink ref="C10" r:id="rId6"/>
-    <hyperlink ref="B115" r:id="rId7"/>
-    <hyperlink ref="I114" r:id="rId8"/>
-    <hyperlink ref="C121" r:id="rId9"/>
-    <hyperlink ref="D144" r:id="rId10"/>
-    <hyperlink ref="T150" r:id="rId11"/>
+    <hyperlink ref="A5" r:id="rId1"/>
+    <hyperlink ref="M14" r:id="rId2"/>
+    <hyperlink ref="A85" r:id="rId3"/>
+    <hyperlink ref="C10" r:id="rId4"/>
+    <hyperlink ref="B115" r:id="rId5"/>
+    <hyperlink ref="I114" r:id="rId6"/>
+    <hyperlink ref="C121" r:id="rId7"/>
+    <hyperlink ref="D144" r:id="rId8"/>
+    <hyperlink ref="T150" r:id="rId9"/>
+    <hyperlink ref="S7" r:id="rId10" display="john2@"/>
+    <hyperlink ref="T7" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId12"/>

--- a/jee_latest_st.xlsx
+++ b/jee_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="7590" firstSheet="13" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="7590" firstSheet="18" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="network" sheetId="1" r:id="rId1"/>
@@ -31,13 +31,15 @@
     <sheet name="spring" sheetId="18" r:id="rId22"/>
     <sheet name="spring beans scope" sheetId="19" r:id="rId23"/>
     <sheet name="junit" sheetId="20" r:id="rId24"/>
+    <sheet name="spring aspect" sheetId="27" r:id="rId25"/>
+    <sheet name="FINAL-PROJECT" sheetId="28" r:id="rId26"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4874" uniqueCount="2231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5045" uniqueCount="2321">
   <si>
     <t>java server - tomcat</t>
   </si>
@@ -7661,9 +7663,6 @@
     <t>platform dependancy</t>
   </si>
   <si>
-    <t>Strng=Ny to String=Ca</t>
-  </si>
-  <si>
     <t>&lt;/operation&gt;</t>
   </si>
   <si>
@@ -7737,6 +7736,282 @@
   </si>
   <si>
     <t>String name; Common</t>
+  </si>
+  <si>
+    <t>Cutomer</t>
+  </si>
+  <si>
+    <t>Controller program</t>
+  </si>
+  <si>
+    <t>search algorthm</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>business code</t>
+  </si>
+  <si>
+    <t>Business program</t>
+  </si>
+  <si>
+    <t>is this customer</t>
+  </si>
+  <si>
+    <t>tryinng to do</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>Rest webservice</t>
+  </si>
+  <si>
+    <t>servlet</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt; unauthorized - blocked &lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>Data access layer</t>
+  </si>
+  <si>
+    <t>useri0</t>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>WEBPAGES</t>
+  </si>
+  <si>
+    <t>html,css, js image</t>
+  </si>
+  <si>
+    <t>spring controller</t>
+  </si>
+  <si>
+    <t>company business logic code</t>
+  </si>
+  <si>
+    <t>access company and customers data</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>MVC architecture</t>
+  </si>
+  <si>
+    <t>JEE</t>
+  </si>
+  <si>
+    <t>Programming language</t>
+  </si>
+  <si>
+    <t>program allows us to write software</t>
+  </si>
+  <si>
+    <t>Types of s/w</t>
+  </si>
+  <si>
+    <t>website sw   iphone sw  mobile sw  native sw</t>
+  </si>
+  <si>
+    <t>Design of s/w</t>
+  </si>
+  <si>
+    <t>how do u design website sw</t>
+  </si>
+  <si>
+    <t>MVC a design/architecture on how to design website</t>
+  </si>
+  <si>
+    <t>Spring framework</t>
+  </si>
+  <si>
+    <t>Tool to develop based upon MVC architecture</t>
+  </si>
+  <si>
+    <t>strut framework</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>web layer</t>
+  </si>
+  <si>
+    <t>Core container layer</t>
+  </si>
+  <si>
+    <t>Test Framework</t>
+  </si>
+  <si>
+    <t>@Controller
+@RestController</t>
+  </si>
+  <si>
+    <t>@Aspect</t>
+  </si>
+  <si>
+    <t>ShoppingCart</t>
+  </si>
+  <si>
+    <t>singleton</t>
+  </si>
+  <si>
+    <t>ipaddress user pwd</t>
+  </si>
+  <si>
+    <t>configuration</t>
+  </si>
+  <si>
+    <t>common</t>
+  </si>
+  <si>
+    <t>for all customer</t>
+  </si>
+  <si>
+    <t>ASPECT</t>
+  </si>
+  <si>
+    <t>Point Cut</t>
+  </si>
+  <si>
+    <t>ProgramA</t>
+  </si>
+  <si>
+    <t>ProgramB</t>
+  </si>
+  <si>
+    <t>at autowired</t>
+  </si>
+  <si>
+    <t>loggin</t>
+  </si>
+  <si>
+    <t>ProgramB pb;</t>
+  </si>
+  <si>
+    <t>validation</t>
+  </si>
+  <si>
+    <t>public void method(){</t>
+  </si>
+  <si>
+    <t>JoinPoint</t>
+  </si>
+  <si>
+    <t>secutiry</t>
+  </si>
+  <si>
+    <t>pb.login();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
+  </si>
+  <si>
+    <t>public void login(){</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>performance</t>
+  </si>
+  <si>
+    <t>exception handling</t>
+  </si>
+  <si>
+    <t>any time some one call ProgramB login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@Controller
+</t>
+  </si>
+  <si>
+    <t>Product_name</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>add product</t>
+  </si>
+  <si>
+    <t>FULL STACK WEB PROJECT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@RestController
+</t>
+  </si>
+  <si>
+    <t>http://localhost/getPrice/iphone</t>
+  </si>
+  <si>
+    <t>open in browser</t>
+  </si>
+  <si>
+    <t>FULL STACK MICRO-SERVICE PROJECT</t>
+  </si>
+  <si>
+    <t>Sprinng MVC Controller</t>
+  </si>
+  <si>
+    <t>Rest Controller</t>
+  </si>
+  <si>
+    <t>Spring MVC controller</t>
+  </si>
+  <si>
+    <t>Struts</t>
+  </si>
+  <si>
+    <t>http://localhost/updatePrice/iphone/1100</t>
+  </si>
+  <si>
+    <t>LoginController</t>
+  </si>
+  <si>
+    <t>ProfileAspect</t>
+  </si>
+  <si>
+    <t>Design Table</t>
+  </si>
+  <si>
+    <t>Products</t>
+  </si>
+  <si>
+    <t>Product_name,price</t>
+  </si>
+  <si>
+    <t>Web project End to End</t>
+  </si>
+  <si>
+    <t>Design a webpage that can take product name and price with button add product</t>
+  </si>
+  <si>
+    <t>develop Spring MVC controller(servlet) program that can process this input</t>
+  </si>
+  <si>
+    <t>develop Spring service program to process the business logic</t>
+  </si>
+  <si>
+    <t>develop Spring repository to insert the data in product table</t>
+  </si>
+  <si>
+    <t>Microservice project End to End</t>
+  </si>
+  <si>
+    <t>Develop rest program to take product name input and return price of the product</t>
+  </si>
+  <si>
+    <t>develop Spring repository to read the price of product from product table</t>
   </si>
 </sst>
 </file>
@@ -7959,7 +8234,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8086,8 +8361,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="39">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -8525,6 +8806,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -8533,7 +8844,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="617">
+  <cellXfs count="633">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -9204,6 +9515,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9516,6 +9836,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9630,9 +9956,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -9651,6 +9974,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9668,6 +9994,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -9787,6 +10116,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10125,7 +10484,7 @@
       <c r="M2" s="24" t="s">
         <v>1331</v>
       </c>
-      <c r="U2" s="424" t="s">
+      <c r="U2" s="427" t="s">
         <v>1844</v>
       </c>
       <c r="V2" s="24" t="s">
@@ -10148,7 +10507,7 @@
       <c r="R3" s="24" t="s">
         <v>1845</v>
       </c>
-      <c r="U3" s="425"/>
+      <c r="U3" s="428"/>
       <c r="V3" s="24" t="s">
         <v>147</v>
       </c>
@@ -10176,7 +10535,7 @@
       <c r="S4" s="24" t="s">
         <v>1848</v>
       </c>
-      <c r="U4" s="425"/>
+      <c r="U4" s="428"/>
       <c r="V4" s="24" t="s">
         <v>1840</v>
       </c>
@@ -11300,10 +11659,10 @@
       <c r="C68" s="126">
         <v>1</v>
       </c>
-      <c r="D68" s="426" t="s">
+      <c r="D68" s="429" t="s">
         <v>1924</v>
       </c>
-      <c r="E68" s="426" t="s">
+      <c r="E68" s="429" t="s">
         <v>27</v>
       </c>
       <c r="F68" s="126"/>
@@ -11325,8 +11684,8 @@
       <c r="C69" s="278">
         <v>2</v>
       </c>
-      <c r="D69" s="426"/>
-      <c r="E69" s="426"/>
+      <c r="D69" s="429"/>
+      <c r="E69" s="429"/>
       <c r="F69" s="278">
         <v>21211</v>
       </c>
@@ -11346,10 +11705,10 @@
         <v>1880</v>
       </c>
       <c r="C70" s="126"/>
-      <c r="D70" s="426" t="s">
+      <c r="D70" s="429" t="s">
         <v>1871</v>
       </c>
-      <c r="E70" s="426" t="s">
+      <c r="E70" s="429" t="s">
         <v>31</v>
       </c>
       <c r="F70" s="126"/>
@@ -11379,8 +11738,8 @@
         <v>1880</v>
       </c>
       <c r="C71" s="126"/>
-      <c r="D71" s="426"/>
-      <c r="E71" s="426"/>
+      <c r="D71" s="429"/>
+      <c r="E71" s="429"/>
       <c r="F71" s="126"/>
       <c r="G71" s="249" t="s">
         <v>1884</v>
@@ -11752,7 +12111,7 @@
       <c r="F107" s="24" t="s">
         <v>1910</v>
       </c>
-      <c r="I107" s="422">
+      <c r="I107" s="425">
         <v>22</v>
       </c>
       <c r="J107" s="24" t="s">
@@ -11767,7 +12126,7 @@
       <c r="F108" s="24" t="s">
         <v>1911</v>
       </c>
-      <c r="I108" s="423"/>
+      <c r="I108" s="426"/>
       <c r="P108" s="126"/>
     </row>
     <row r="109" spans="3:16">
@@ -14436,7 +14795,7 @@
         <v>2100</v>
       </c>
       <c r="K268" s="4"/>
-      <c r="L268" s="464"/>
+      <c r="L268" s="467"/>
       <c r="M268" s="5"/>
       <c r="N268" s="33"/>
       <c r="O268" s="33"/>
@@ -14451,7 +14810,7 @@
         <v>2187</v>
       </c>
       <c r="K269" s="4"/>
-      <c r="L269" s="465"/>
+      <c r="L269" s="468"/>
       <c r="M269" s="5"/>
       <c r="N269" s="33"/>
       <c r="O269" s="33"/>
@@ -14900,13 +15259,13 @@
         <v>60</v>
       </c>
       <c r="J3" s="120"/>
-      <c r="K3" s="474"/>
-      <c r="L3" s="474"/>
-      <c r="M3" s="474"/>
-      <c r="N3" s="474"/>
-      <c r="O3" s="474"/>
-      <c r="P3" s="474"/>
-      <c r="Q3" s="475"/>
+      <c r="K3" s="477"/>
+      <c r="L3" s="477"/>
+      <c r="M3" s="477"/>
+      <c r="N3" s="477"/>
+      <c r="O3" s="477"/>
+      <c r="P3" s="477"/>
+      <c r="Q3" s="478"/>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
       <c r="T3" s="26" t="s">
@@ -15217,13 +15576,13 @@
       </c>
     </row>
     <row r="12" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A12" s="428" t="s">
+      <c r="A12" s="431" t="s">
         <v>415</v>
       </c>
-      <c r="B12" s="466"/>
-      <c r="C12" s="466"/>
-      <c r="D12" s="466"/>
-      <c r="E12" s="467"/>
+      <c r="B12" s="469"/>
+      <c r="C12" s="469"/>
+      <c r="D12" s="469"/>
+      <c r="E12" s="470"/>
       <c r="F12" t="s">
         <v>428</v>
       </c>
@@ -15250,11 +15609,11 @@
       <c r="V12" s="6"/>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13" s="468"/>
-      <c r="B13" s="469"/>
-      <c r="C13" s="469"/>
-      <c r="D13" s="469"/>
-      <c r="E13" s="470"/>
+      <c r="A13" s="471"/>
+      <c r="B13" s="472"/>
+      <c r="C13" s="472"/>
+      <c r="D13" s="472"/>
+      <c r="E13" s="473"/>
       <c r="F13" t="s">
         <v>6</v>
       </c>
@@ -15281,11 +15640,11 @@
       <c r="V13" s="6"/>
     </row>
     <row r="14" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A14" s="468"/>
-      <c r="B14" s="469"/>
-      <c r="C14" s="469"/>
-      <c r="D14" s="469"/>
-      <c r="E14" s="470"/>
+      <c r="A14" s="471"/>
+      <c r="B14" s="472"/>
+      <c r="C14" s="472"/>
+      <c r="D14" s="472"/>
+      <c r="E14" s="473"/>
       <c r="F14" t="s">
         <v>425</v>
       </c>
@@ -15314,11 +15673,11 @@
       <c r="V14" s="6"/>
     </row>
     <row r="15" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A15" s="471"/>
-      <c r="B15" s="472"/>
-      <c r="C15" s="472"/>
-      <c r="D15" s="472"/>
-      <c r="E15" s="473"/>
+      <c r="A15" s="474"/>
+      <c r="B15" s="475"/>
+      <c r="C15" s="475"/>
+      <c r="D15" s="475"/>
+      <c r="E15" s="476"/>
       <c r="F15" s="24"/>
       <c r="H15" s="141"/>
       <c r="I15" s="4" t="s">
@@ -15388,17 +15747,17 @@
       <c r="F17" s="137"/>
       <c r="G17" s="101"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="443" t="s">
+      <c r="I17" s="446" t="s">
         <v>795</v>
       </c>
-      <c r="J17" s="443"/>
-      <c r="K17" s="443"/>
-      <c r="L17" s="443"/>
-      <c r="M17" s="443"/>
-      <c r="N17" s="443"/>
-      <c r="O17" s="443"/>
-      <c r="P17" s="443"/>
-      <c r="Q17" s="443"/>
+      <c r="J17" s="446"/>
+      <c r="K17" s="446"/>
+      <c r="L17" s="446"/>
+      <c r="M17" s="446"/>
+      <c r="N17" s="446"/>
+      <c r="O17" s="446"/>
+      <c r="P17" s="446"/>
+      <c r="Q17" s="446"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5" t="s">
         <v>196</v>
@@ -16429,7 +16788,7 @@
       <c r="K62" s="24" t="s">
         <v>2164</v>
       </c>
-      <c r="L62" s="476" t="s">
+      <c r="L62" s="479" t="s">
         <v>391</v>
       </c>
       <c r="M62" s="12" t="s">
@@ -16461,7 +16820,7 @@
       <c r="I63" s="58"/>
       <c r="J63" s="24"/>
       <c r="K63" s="24"/>
-      <c r="L63" s="477"/>
+      <c r="L63" s="480"/>
       <c r="M63" s="12" t="s">
         <v>202</v>
       </c>
@@ -16493,7 +16852,7 @@
       <c r="I64" s="58"/>
       <c r="J64" s="24"/>
       <c r="K64" s="24"/>
-      <c r="L64" s="478"/>
+      <c r="L64" s="481"/>
       <c r="M64" s="12"/>
       <c r="N64" s="24"/>
       <c r="O64" s="24"/>
@@ -24202,7 +24561,7 @@
       <c r="L109" s="2"/>
       <c r="M109" s="3"/>
       <c r="N109" s="5"/>
-      <c r="O109" s="479">
+      <c r="O109" s="482">
         <v>123</v>
       </c>
       <c r="P109" s="238" t="s">
@@ -24224,7 +24583,7 @@
       <c r="L110" s="5"/>
       <c r="M110" s="6"/>
       <c r="N110" s="5"/>
-      <c r="O110" s="453"/>
+      <c r="O110" s="456"/>
       <c r="P110" s="238"/>
       <c r="Q110" s="33" t="s">
         <v>202</v>
@@ -24242,7 +24601,7 @@
       <c r="L111" s="5"/>
       <c r="M111" s="6"/>
       <c r="N111" s="5"/>
-      <c r="O111" s="453"/>
+      <c r="O111" s="456"/>
       <c r="P111" s="238"/>
       <c r="Q111" s="33" t="s">
         <v>674</v>
@@ -24260,7 +24619,7 @@
       <c r="L112" s="5"/>
       <c r="M112" s="6"/>
       <c r="N112" s="5"/>
-      <c r="O112" s="453"/>
+      <c r="O112" s="456"/>
       <c r="P112" s="238"/>
       <c r="Q112" s="33"/>
     </row>
@@ -24279,7 +24638,7 @@
       <c r="L113" s="5"/>
       <c r="M113" s="6"/>
       <c r="N113" s="5"/>
-      <c r="O113" s="454"/>
+      <c r="O113" s="457"/>
       <c r="P113" s="238"/>
       <c r="Q113" s="33"/>
     </row>
@@ -24304,7 +24663,7 @@
       <c r="L114" s="5"/>
       <c r="M114" s="6"/>
       <c r="N114" s="5"/>
-      <c r="O114" s="479">
+      <c r="O114" s="482">
         <v>456</v>
       </c>
       <c r="P114" s="238" t="s">
@@ -24326,7 +24685,7 @@
       <c r="L115" s="5"/>
       <c r="M115" s="6"/>
       <c r="N115" s="5"/>
-      <c r="O115" s="453"/>
+      <c r="O115" s="456"/>
       <c r="P115" s="238"/>
       <c r="Q115" s="33" t="s">
         <v>1066</v>
@@ -24347,7 +24706,7 @@
       <c r="L116" s="5"/>
       <c r="M116" s="6"/>
       <c r="N116" s="5"/>
-      <c r="O116" s="453"/>
+      <c r="O116" s="456"/>
       <c r="P116" s="238"/>
       <c r="Q116" s="33"/>
     </row>
@@ -24366,7 +24725,7 @@
       <c r="L117" s="5"/>
       <c r="M117" s="6"/>
       <c r="N117" s="5"/>
-      <c r="O117" s="454"/>
+      <c r="O117" s="457"/>
       <c r="P117" s="238"/>
       <c r="Q117" s="33"/>
     </row>
@@ -24382,7 +24741,7 @@
       <c r="L118" s="5"/>
       <c r="M118" s="6"/>
       <c r="N118" s="5"/>
-      <c r="O118" s="479">
+      <c r="O118" s="482">
         <v>777</v>
       </c>
       <c r="P118" s="238"/>
@@ -24405,7 +24764,7 @@
       <c r="L119" s="5"/>
       <c r="M119" s="6"/>
       <c r="N119" s="5"/>
-      <c r="O119" s="453"/>
+      <c r="O119" s="456"/>
       <c r="P119" s="238"/>
       <c r="Q119" s="33"/>
     </row>
@@ -24424,7 +24783,7 @@
       <c r="L120" s="5"/>
       <c r="M120" s="6"/>
       <c r="N120" s="5"/>
-      <c r="O120" s="453"/>
+      <c r="O120" s="456"/>
       <c r="P120" s="238"/>
       <c r="Q120" s="33"/>
     </row>
@@ -24443,7 +24802,7 @@
       <c r="L121" s="5"/>
       <c r="M121" s="6"/>
       <c r="N121" s="5"/>
-      <c r="O121" s="454"/>
+      <c r="O121" s="457"/>
       <c r="P121" s="238"/>
       <c r="Q121" s="33"/>
     </row>
@@ -24605,10 +24964,10 @@
       <c r="L133" s="2"/>
       <c r="M133" s="3"/>
       <c r="N133" s="5"/>
-      <c r="O133" s="483">
+      <c r="O133" s="486">
         <v>123</v>
       </c>
-      <c r="P133" s="480" t="s">
+      <c r="P133" s="483" t="s">
         <v>496</v>
       </c>
       <c r="Q133" s="254" t="s">
@@ -24627,8 +24986,8 @@
       <c r="L134" s="5"/>
       <c r="M134" s="6"/>
       <c r="N134" s="5"/>
-      <c r="O134" s="484"/>
-      <c r="P134" s="481"/>
+      <c r="O134" s="487"/>
+      <c r="P134" s="484"/>
       <c r="Q134" s="254" t="s">
         <v>202</v>
       </c>
@@ -24645,8 +25004,8 @@
       <c r="L135" s="5"/>
       <c r="M135" s="6"/>
       <c r="N135" s="5"/>
-      <c r="O135" s="484"/>
-      <c r="P135" s="481"/>
+      <c r="O135" s="487"/>
+      <c r="P135" s="484"/>
       <c r="Q135" s="254"/>
     </row>
     <row r="136" spans="1:17" ht="15.75" thickBot="1">
@@ -24665,8 +25024,8 @@
       <c r="L136" s="5"/>
       <c r="M136" s="6"/>
       <c r="N136" s="5"/>
-      <c r="O136" s="484"/>
-      <c r="P136" s="481"/>
+      <c r="O136" s="487"/>
+      <c r="P136" s="484"/>
       <c r="Q136" s="254"/>
     </row>
     <row r="137" spans="1:17" ht="15.75" thickBot="1">
@@ -24688,8 +25047,8 @@
       <c r="L137" s="26"/>
       <c r="M137" s="34"/>
       <c r="N137" s="26"/>
-      <c r="O137" s="485"/>
-      <c r="P137" s="482"/>
+      <c r="O137" s="488"/>
+      <c r="P137" s="485"/>
       <c r="Q137" s="254"/>
     </row>
     <row r="138" spans="1:17">
@@ -24709,7 +25068,7 @@
       <c r="L138" s="5"/>
       <c r="M138" s="6"/>
       <c r="N138" s="5"/>
-      <c r="O138" s="479"/>
+      <c r="O138" s="482"/>
       <c r="P138" s="238"/>
       <c r="Q138" s="33"/>
     </row>
@@ -24725,7 +25084,7 @@
       <c r="L139" s="5"/>
       <c r="M139" s="6"/>
       <c r="N139" s="5"/>
-      <c r="O139" s="453"/>
+      <c r="O139" s="456"/>
       <c r="P139" s="238"/>
       <c r="Q139" s="33"/>
     </row>
@@ -24743,7 +25102,7 @@
       <c r="L140" s="38"/>
       <c r="M140" s="44"/>
       <c r="N140" s="5"/>
-      <c r="O140" s="453"/>
+      <c r="O140" s="456"/>
       <c r="P140" s="238"/>
       <c r="Q140" s="33"/>
     </row>
@@ -24762,7 +25121,7 @@
       <c r="L141" s="5"/>
       <c r="M141" s="6"/>
       <c r="N141" s="5"/>
-      <c r="O141" s="454"/>
+      <c r="O141" s="457"/>
       <c r="P141" s="238"/>
       <c r="Q141" s="33"/>
     </row>
@@ -24780,7 +25139,7 @@
       <c r="L142" s="5"/>
       <c r="M142" s="6"/>
       <c r="N142" s="5"/>
-      <c r="O142" s="479"/>
+      <c r="O142" s="482"/>
       <c r="P142" s="238"/>
       <c r="Q142" s="33"/>
     </row>
@@ -24800,7 +25159,7 @@
       </c>
       <c r="M143" s="253"/>
       <c r="N143" s="142"/>
-      <c r="O143" s="453"/>
+      <c r="O143" s="456"/>
       <c r="P143" s="238"/>
       <c r="Q143" s="33"/>
     </row>
@@ -24816,7 +25175,7 @@
       <c r="L144" s="5"/>
       <c r="M144" s="6"/>
       <c r="N144" s="5"/>
-      <c r="O144" s="453"/>
+      <c r="O144" s="456"/>
       <c r="P144" s="238"/>
       <c r="Q144" s="33"/>
     </row>
@@ -24836,7 +25195,7 @@
       <c r="L145" s="5"/>
       <c r="M145" s="6"/>
       <c r="N145" s="5"/>
-      <c r="O145" s="454"/>
+      <c r="O145" s="457"/>
       <c r="P145" s="238"/>
       <c r="Q145" s="33"/>
     </row>
@@ -27194,8 +27553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView topLeftCell="A26" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27224,8 +27583,8 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="487"/>
-      <c r="B2" s="431"/>
+      <c r="A2" s="490"/>
+      <c r="B2" s="434"/>
       <c r="C2" s="27" t="s">
         <v>1343</v>
       </c>
@@ -27243,8 +27602,8 @@
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A3" s="487"/>
-      <c r="B3" s="431"/>
+      <c r="A3" s="490"/>
+      <c r="B3" s="434"/>
       <c r="C3" s="4" t="s">
         <v>169</v>
       </c>
@@ -27268,8 +27627,8 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A4" s="488"/>
-      <c r="B4" s="489"/>
+      <c r="A4" s="491"/>
+      <c r="B4" s="492"/>
       <c r="C4" s="7" t="s">
         <v>1537</v>
       </c>
@@ -27310,8 +27669,8 @@
       <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="487"/>
-      <c r="B7" s="431"/>
+      <c r="A7" s="490"/>
+      <c r="B7" s="434"/>
       <c r="C7" s="27" t="s">
         <v>1343</v>
       </c>
@@ -27327,8 +27686,8 @@
       <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A8" s="487"/>
-      <c r="B8" s="431"/>
+      <c r="A8" s="490"/>
+      <c r="B8" s="434"/>
       <c r="C8" s="4" t="s">
         <v>169</v>
       </c>
@@ -27348,8 +27707,8 @@
       <c r="N8" s="9"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A9" s="488"/>
-      <c r="B9" s="489"/>
+      <c r="A9" s="491"/>
+      <c r="B9" s="492"/>
       <c r="C9" s="7" t="s">
         <v>1540</v>
       </c>
@@ -27396,10 +27755,10 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="M13" t="s">
+        <v>2226</v>
+      </c>
+      <c r="N13" t="s">
         <v>2227</v>
-      </c>
-      <c r="N13" t="s">
-        <v>2228</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -27409,7 +27768,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="N14" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1">
@@ -27419,7 +27778,7 @@
         <v>235</v>
       </c>
       <c r="N15" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -27694,8 +28053,8 @@
       </c>
     </row>
     <row r="35" spans="1:26">
-      <c r="A35" s="487"/>
-      <c r="B35" s="431"/>
+      <c r="A35" s="490"/>
+      <c r="B35" s="434"/>
       <c r="C35" s="27" t="s">
         <v>1343</v>
       </c>
@@ -27716,8 +28075,8 @@
       </c>
     </row>
     <row r="36" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A36" s="487"/>
-      <c r="B36" s="431"/>
+      <c r="A36" s="490"/>
+      <c r="B36" s="434"/>
       <c r="C36" s="4"/>
       <c r="D36" s="5" t="s">
         <v>202</v>
@@ -27744,8 +28103,8 @@
       </c>
     </row>
     <row r="37" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A37" s="488"/>
-      <c r="B37" s="489"/>
+      <c r="A37" s="491"/>
+      <c r="B37" s="492"/>
       <c r="C37" s="7" t="s">
         <v>1549</v>
       </c>
@@ -27789,8 +28148,8 @@
       <c r="N39" s="6"/>
     </row>
     <row r="40" spans="1:26">
-      <c r="A40" s="487"/>
-      <c r="B40" s="431"/>
+      <c r="A40" s="490"/>
+      <c r="B40" s="434"/>
       <c r="C40" s="27" t="s">
         <v>1343</v>
       </c>
@@ -27806,8 +28165,8 @@
       <c r="N40" s="6"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A41" s="487"/>
-      <c r="B41" s="431"/>
+      <c r="A41" s="490"/>
+      <c r="B41" s="434"/>
       <c r="C41" s="4"/>
       <c r="D41" s="5" t="s">
         <v>169</v>
@@ -27825,8 +28184,8 @@
       <c r="N41" s="9"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A42" s="488"/>
-      <c r="B42" s="489"/>
+      <c r="A42" s="491"/>
+      <c r="B42" s="492"/>
       <c r="C42" s="7" t="s">
         <v>1550</v>
       </c>
@@ -29213,7 +29572,7 @@
       <c r="E114" s="24" t="s">
         <v>1539</v>
       </c>
-      <c r="I114" s="464" t="s">
+      <c r="I114" s="467" t="s">
         <v>1585</v>
       </c>
       <c r="J114" s="341" t="s">
@@ -29234,7 +29593,7 @@
       <c r="B115" s="7"/>
       <c r="C115" s="82"/>
       <c r="D115" s="83"/>
-      <c r="I115" s="486"/>
+      <c r="I115" s="489"/>
       <c r="J115" s="5"/>
       <c r="K115" s="33"/>
       <c r="L115" s="33"/>
@@ -29248,7 +29607,7 @@
       <c r="E116" t="s">
         <v>142</v>
       </c>
-      <c r="I116" s="465"/>
+      <c r="I116" s="468"/>
       <c r="J116" s="5"/>
       <c r="K116" s="5"/>
       <c r="L116" s="5"/>
@@ -29290,7 +29649,7 @@
       <c r="N119" s="6"/>
     </row>
     <row r="120" spans="2:14">
-      <c r="I120" s="464" t="s">
+      <c r="I120" s="467" t="s">
         <v>1586</v>
       </c>
       <c r="J120" s="5"/>
@@ -29300,7 +29659,7 @@
       <c r="N120" s="6"/>
     </row>
     <row r="121" spans="2:14">
-      <c r="I121" s="486"/>
+      <c r="I121" s="489"/>
       <c r="J121" s="5"/>
       <c r="K121" s="5"/>
       <c r="L121" s="5"/>
@@ -29308,7 +29667,7 @@
       <c r="N121" s="6"/>
     </row>
     <row r="122" spans="2:14" ht="15.75" thickBot="1">
-      <c r="I122" s="465"/>
+      <c r="I122" s="468"/>
       <c r="J122" s="5"/>
       <c r="K122" s="5"/>
       <c r="L122" s="5"/>
@@ -30373,10 +30732,10 @@
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="490" t="s">
+      <c r="L35" s="493" t="s">
         <v>212</v>
       </c>
-      <c r="M35" s="490"/>
+      <c r="M35" s="493"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
@@ -32306,10 +32665,10 @@
       </c>
     </row>
     <row r="155" spans="1:17">
-      <c r="A155" s="491" t="s">
+      <c r="A155" s="494" t="s">
         <v>665</v>
       </c>
-      <c r="B155" s="491"/>
+      <c r="B155" s="494"/>
     </row>
     <row r="156" spans="1:17">
       <c r="A156" s="68" t="s">
@@ -33107,18 +33466,18 @@
       </c>
     </row>
     <row r="29" spans="2:16">
-      <c r="B29" s="492" t="s">
+      <c r="B29" s="495" t="s">
         <v>941</v>
       </c>
-      <c r="C29" s="492"/>
-      <c r="D29" s="492"/>
-      <c r="E29" s="492"/>
-      <c r="F29" s="492"/>
-      <c r="I29" s="492" t="s">
+      <c r="C29" s="495"/>
+      <c r="D29" s="495"/>
+      <c r="E29" s="495"/>
+      <c r="F29" s="495"/>
+      <c r="I29" s="495" t="s">
         <v>1130</v>
       </c>
-      <c r="J29" s="492"/>
-      <c r="K29" s="492"/>
+      <c r="J29" s="495"/>
+      <c r="K29" s="495"/>
     </row>
     <row r="31" spans="2:16">
       <c r="B31" t="s">
@@ -34756,8 +35115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:R255"/>
   <sheetViews>
-    <sheetView topLeftCell="A205" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D212" sqref="D212"/>
+    <sheetView topLeftCell="A39" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51:G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -34795,18 +35154,18 @@
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1">
       <c r="D6" s="4"/>
-      <c r="E6" s="493" t="s">
+      <c r="E6" s="496" t="s">
         <v>244</v>
       </c>
-      <c r="F6" s="494"/>
-      <c r="G6" s="495" t="s">
+      <c r="F6" s="497"/>
+      <c r="G6" s="498" t="s">
         <v>57</v>
       </c>
-      <c r="H6" s="495"/>
-      <c r="I6" s="495"/>
-      <c r="J6" s="495"/>
-      <c r="K6" s="495"/>
-      <c r="L6" s="494"/>
+      <c r="H6" s="498"/>
+      <c r="I6" s="498"/>
+      <c r="J6" s="498"/>
+      <c r="K6" s="498"/>
+      <c r="L6" s="497"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="26" t="s">
@@ -34819,7 +35178,7 @@
       <c r="B7" t="s">
         <v>1198</v>
       </c>
-      <c r="D7" s="505">
+      <c r="D7" s="508">
         <v>80</v>
       </c>
       <c r="E7" s="119"/>
@@ -34837,7 +35196,7 @@
       <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1">
-      <c r="D8" s="505"/>
+      <c r="D8" s="508"/>
       <c r="E8" s="106" t="s">
         <v>246</v>
       </c>
@@ -34870,7 +35229,7 @@
       <c r="B9" t="s">
         <v>245</v>
       </c>
-      <c r="D9" s="505"/>
+      <c r="D9" s="508"/>
       <c r="E9" s="121"/>
       <c r="F9" s="245"/>
       <c r="G9" s="121"/>
@@ -34897,7 +35256,7 @@
       <c r="A10" t="s">
         <v>1203</v>
       </c>
-      <c r="D10" s="505"/>
+      <c r="D10" s="508"/>
       <c r="E10" s="119"/>
       <c r="F10" s="120"/>
       <c r="G10" s="119"/>
@@ -34924,7 +35283,7 @@
       <c r="B11" t="s">
         <v>1608</v>
       </c>
-      <c r="D11" s="505"/>
+      <c r="D11" s="508"/>
       <c r="E11" s="106" t="s">
         <v>250</v>
       </c>
@@ -34953,7 +35312,7 @@
       <c r="B12" s="156" t="s">
         <v>254</v>
       </c>
-      <c r="D12" s="505"/>
+      <c r="D12" s="508"/>
       <c r="E12" s="121"/>
       <c r="F12" s="245"/>
       <c r="G12" s="121"/>
@@ -34974,7 +35333,7 @@
       <c r="B13" t="s">
         <v>1199</v>
       </c>
-      <c r="D13" s="505"/>
+      <c r="D13" s="508"/>
       <c r="E13" s="119"/>
       <c r="F13" s="120"/>
       <c r="G13" s="119"/>
@@ -34993,7 +35352,7 @@
       <c r="B14" t="s">
         <v>1200</v>
       </c>
-      <c r="D14" s="505"/>
+      <c r="D14" s="508"/>
       <c r="E14" s="106" t="s">
         <v>255</v>
       </c>
@@ -35020,7 +35379,7 @@
       <c r="B15" t="s">
         <v>1201</v>
       </c>
-      <c r="D15" s="505"/>
+      <c r="D15" s="508"/>
       <c r="E15" s="121"/>
       <c r="F15" s="245"/>
       <c r="G15" s="121"/>
@@ -35039,7 +35398,7 @@
       <c r="B16" t="s">
         <v>1202</v>
       </c>
-      <c r="D16" s="505"/>
+      <c r="D16" s="508"/>
       <c r="E16" s="119"/>
       <c r="F16" s="120"/>
       <c r="G16" s="24"/>
@@ -35057,7 +35416,7 @@
       <c r="Q16" s="6"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1">
-      <c r="D17" s="505"/>
+      <c r="D17" s="508"/>
       <c r="E17" s="106" t="s">
         <v>259</v>
       </c>
@@ -35086,7 +35445,7 @@
       <c r="A18" t="s">
         <v>1606</v>
       </c>
-      <c r="D18" s="505"/>
+      <c r="D18" s="508"/>
       <c r="E18" s="121"/>
       <c r="F18" s="245"/>
       <c r="G18" s="47"/>
@@ -35106,20 +35465,20 @@
         <v>1607</v>
       </c>
       <c r="D19" s="8"/>
-      <c r="E19" s="496" t="s">
+      <c r="E19" s="499" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="497"/>
-      <c r="G19" s="496" t="s">
+      <c r="F19" s="500"/>
+      <c r="G19" s="499" t="s">
         <v>74</v>
       </c>
-      <c r="H19" s="497"/>
-      <c r="I19" s="496" t="s">
+      <c r="H19" s="500"/>
+      <c r="I19" s="499" t="s">
         <v>75</v>
       </c>
-      <c r="J19" s="498"/>
-      <c r="K19" s="498"/>
-      <c r="L19" s="497"/>
+      <c r="J19" s="501"/>
+      <c r="K19" s="501"/>
+      <c r="L19" s="500"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
@@ -35184,12 +35543,12 @@
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="506"/>
-      <c r="H24" s="506"/>
-      <c r="I24" s="506"/>
-      <c r="J24" s="506"/>
-      <c r="K24" s="506"/>
-      <c r="L24" s="506"/>
+      <c r="G24" s="509"/>
+      <c r="H24" s="509"/>
+      <c r="I24" s="509"/>
+      <c r="J24" s="509"/>
+      <c r="K24" s="509"/>
+      <c r="L24" s="509"/>
       <c r="O24" s="35" t="s">
         <v>58</v>
       </c>
@@ -35468,7 +35827,7 @@
       </c>
       <c r="J41" s="3"/>
       <c r="L41" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -35491,7 +35850,9 @@
       <c r="G43" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="H43" s="5"/>
+      <c r="H43" s="5" t="s">
+        <v>155</v>
+      </c>
       <c r="I43" s="5"/>
       <c r="J43" s="6"/>
       <c r="L43" t="s">
@@ -35501,7 +35862,7 @@
         <v>563</v>
       </c>
       <c r="P43" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -35514,12 +35875,14 @@
       <c r="D44" s="6" t="s">
         <v>1444</v>
       </c>
-      <c r="E44" s="430" t="s">
+      <c r="E44" s="433" t="s">
         <v>1596</v>
       </c>
-      <c r="F44" s="431"/>
+      <c r="F44" s="434"/>
       <c r="G44" s="4"/>
-      <c r="H44" s="5"/>
+      <c r="H44" s="5" t="s">
+        <v>2305</v>
+      </c>
       <c r="I44" s="5"/>
       <c r="J44" s="6"/>
       <c r="L44" t="s">
@@ -35536,11 +35899,11 @@
       <c r="D45" s="6" t="s">
         <v>853</v>
       </c>
-      <c r="E45" s="430"/>
-      <c r="F45" s="431"/>
+      <c r="E45" s="433"/>
+      <c r="F45" s="434"/>
       <c r="G45" s="4"/>
       <c r="H45" s="5" t="s">
-        <v>2205</v>
+        <v>2306</v>
       </c>
       <c r="I45" s="5"/>
       <c r="J45" s="6"/>
@@ -35574,7 +35937,7 @@
       </c>
       <c r="G47" s="168"/>
       <c r="H47" s="348" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="I47" s="346"/>
       <c r="J47" s="347"/>
@@ -35624,6 +35987,9 @@
     <row r="51" spans="1:17" ht="15.75" thickBot="1">
       <c r="C51" s="4"/>
       <c r="D51" s="6"/>
+      <c r="F51" t="s">
+        <v>2304</v>
+      </c>
       <c r="G51" s="345"/>
       <c r="H51" s="35"/>
       <c r="I51" s="28"/>
@@ -35882,7 +36248,7 @@
         <v>910</v>
       </c>
       <c r="M72" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="73" spans="2:14">
@@ -35895,7 +36261,7 @@
     </row>
     <row r="74" spans="2:14">
       <c r="M74" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="75" spans="2:14">
@@ -35929,7 +36295,7 @@
       <c r="L77" s="2"/>
       <c r="M77" s="3"/>
       <c r="N77" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="78" spans="2:14">
@@ -35957,7 +36323,7 @@
       <c r="L78" s="5"/>
       <c r="M78" s="6"/>
       <c r="N78" s="24" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="79" spans="2:14">
@@ -35975,7 +36341,7 @@
       <c r="L79" s="5"/>
       <c r="M79" s="6"/>
       <c r="N79" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="80" spans="2:14">
@@ -36030,7 +36396,7 @@
       <c r="L82" s="5"/>
       <c r="M82" s="6"/>
       <c r="N82" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="83" spans="2:15">
@@ -36049,7 +36415,7 @@
       <c r="L83" s="5"/>
       <c r="M83" s="6"/>
       <c r="N83" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="84" spans="2:15">
@@ -36065,7 +36431,7 @@
       <c r="L84" s="5"/>
       <c r="M84" s="6"/>
       <c r="N84" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="85" spans="2:15" ht="15.75" thickBot="1">
@@ -36086,23 +36452,23 @@
         <v>1180</v>
       </c>
       <c r="J86" s="16" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="87" spans="2:15">
       <c r="J87" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="88" spans="2:15">
       <c r="G88" t="s">
+        <v>2208</v>
+      </c>
+      <c r="H88" t="s">
         <v>2209</v>
       </c>
-      <c r="H88" t="s">
-        <v>2210</v>
-      </c>
       <c r="I88" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="91" spans="2:15" ht="15.75" thickBot="1">
@@ -36131,7 +36497,7 @@
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="E93" s="3"/>
       <c r="F93" t="s">
@@ -36150,7 +36516,7 @@
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="5" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="E94" s="6"/>
       <c r="F94" t="s">
@@ -36210,14 +36576,14 @@
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
       <c r="E97" s="6"/>
-      <c r="F97" s="507" t="s">
+      <c r="F97" s="510" t="s">
         <v>1059</v>
       </c>
-      <c r="G97" s="492"/>
-      <c r="H97" s="492"/>
-      <c r="I97" s="492"/>
-      <c r="J97" s="492"/>
-      <c r="K97" s="508"/>
+      <c r="G97" s="495"/>
+      <c r="H97" s="495"/>
+      <c r="I97" s="495"/>
+      <c r="J97" s="495"/>
+      <c r="K97" s="511"/>
       <c r="L97" s="4" t="s">
         <v>1188</v>
       </c>
@@ -38070,7 +38436,7 @@
       <c r="I207" s="24"/>
       <c r="J207" s="24"/>
       <c r="K207" s="289" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="L207" s="131"/>
       <c r="M207" s="131"/>
@@ -38228,13 +38594,13 @@
       <c r="Q214" s="24"/>
     </row>
     <row r="215" spans="2:17">
-      <c r="B215" s="499" t="s">
+      <c r="B215" s="502" t="s">
         <v>1676</v>
       </c>
-      <c r="C215" s="502"/>
-      <c r="D215" s="502"/>
-      <c r="E215" s="502"/>
-      <c r="F215" s="503"/>
+      <c r="C215" s="505"/>
+      <c r="D215" s="505"/>
+      <c r="E215" s="505"/>
+      <c r="F215" s="506"/>
       <c r="G215" s="204"/>
       <c r="H215" s="204"/>
       <c r="I215" s="204"/>
@@ -38252,44 +38618,44 @@
       <c r="Q215" s="24"/>
     </row>
     <row r="216" spans="2:17">
-      <c r="B216" s="504"/>
-      <c r="C216" s="502"/>
-      <c r="D216" s="502"/>
-      <c r="E216" s="502"/>
-      <c r="F216" s="503"/>
+      <c r="B216" s="507"/>
+      <c r="C216" s="505"/>
+      <c r="D216" s="505"/>
+      <c r="E216" s="505"/>
+      <c r="F216" s="506"/>
       <c r="G216" s="24"/>
       <c r="H216" s="24"/>
       <c r="I216" s="24" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="J216" s="24"/>
-      <c r="K216" s="499" t="s">
+      <c r="K216" s="502" t="s">
         <v>1662</v>
       </c>
-      <c r="L216" s="500"/>
-      <c r="M216" s="500"/>
-      <c r="N216" s="500"/>
-      <c r="O216" s="501"/>
+      <c r="L216" s="503"/>
+      <c r="M216" s="503"/>
+      <c r="N216" s="503"/>
+      <c r="O216" s="504"/>
       <c r="P216" s="24"/>
       <c r="Q216" s="24"/>
     </row>
     <row r="217" spans="2:17">
-      <c r="B217" s="504"/>
-      <c r="C217" s="502"/>
-      <c r="D217" s="502"/>
-      <c r="E217" s="502"/>
-      <c r="F217" s="503"/>
+      <c r="B217" s="507"/>
+      <c r="C217" s="505"/>
+      <c r="D217" s="505"/>
+      <c r="E217" s="505"/>
+      <c r="F217" s="506"/>
       <c r="G217" s="24"/>
       <c r="H217" s="24"/>
       <c r="I217" s="24" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="J217" s="24"/>
-      <c r="K217" s="499"/>
-      <c r="L217" s="500"/>
-      <c r="M217" s="500"/>
-      <c r="N217" s="500"/>
-      <c r="O217" s="501"/>
+      <c r="K217" s="502"/>
+      <c r="L217" s="503"/>
+      <c r="M217" s="503"/>
+      <c r="N217" s="503"/>
+      <c r="O217" s="504"/>
       <c r="P217" s="24"/>
       <c r="Q217" s="24"/>
     </row>
@@ -39072,12 +39438,12 @@
       <c r="A1" s="362" t="s">
         <v>1696</v>
       </c>
-      <c r="H1" s="509" t="s">
+      <c r="H1" s="512" t="s">
         <v>1697</v>
       </c>
-      <c r="I1" s="509"/>
-      <c r="J1" s="509"/>
-      <c r="K1" s="509"/>
+      <c r="I1" s="512"/>
+      <c r="J1" s="512"/>
+      <c r="K1" s="512"/>
       <c r="M1" s="12" t="s">
         <v>1698</v>
       </c>
@@ -39095,10 +39461,10 @@
       <c r="A2" s="362" t="s">
         <v>1702</v>
       </c>
-      <c r="H2" s="509"/>
-      <c r="I2" s="509"/>
-      <c r="J2" s="509"/>
-      <c r="K2" s="509"/>
+      <c r="H2" s="512"/>
+      <c r="I2" s="512"/>
+      <c r="J2" s="512"/>
+      <c r="K2" s="512"/>
       <c r="M2" s="33" t="s">
         <v>764</v>
       </c>
@@ -39116,10 +39482,10 @@
       <c r="A3" s="362" t="s">
         <v>1704</v>
       </c>
-      <c r="H3" s="509"/>
-      <c r="I3" s="509"/>
-      <c r="J3" s="509"/>
-      <c r="K3" s="509"/>
+      <c r="H3" s="512"/>
+      <c r="I3" s="512"/>
+      <c r="J3" s="512"/>
+      <c r="K3" s="512"/>
       <c r="M3" s="33" t="s">
         <v>765</v>
       </c>
@@ -39137,10 +39503,10 @@
       <c r="A4" s="362" t="s">
         <v>1706</v>
       </c>
-      <c r="H4" s="509"/>
-      <c r="I4" s="509"/>
-      <c r="J4" s="509"/>
-      <c r="K4" s="509"/>
+      <c r="H4" s="512"/>
+      <c r="I4" s="512"/>
+      <c r="J4" s="512"/>
+      <c r="K4" s="512"/>
       <c r="M4" s="33" t="s">
         <v>937</v>
       </c>
@@ -39155,10 +39521,10 @@
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="H5" s="509"/>
-      <c r="I5" s="509"/>
-      <c r="J5" s="509"/>
-      <c r="K5" s="509"/>
+      <c r="H5" s="512"/>
+      <c r="I5" s="512"/>
+      <c r="J5" s="512"/>
+      <c r="K5" s="512"/>
       <c r="Q5" s="33" t="s">
         <v>1703</v>
       </c>
@@ -39167,10 +39533,10 @@
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="H6" s="509"/>
-      <c r="I6" s="509"/>
-      <c r="J6" s="509"/>
-      <c r="K6" s="509"/>
+      <c r="H6" s="512"/>
+      <c r="I6" s="512"/>
+      <c r="J6" s="512"/>
+      <c r="K6" s="512"/>
       <c r="Q6" s="33" t="s">
         <v>1705</v>
       </c>
@@ -39187,12 +39553,12 @@
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="H9" s="510" t="s">
+      <c r="H9" s="513" t="s">
         <v>1708</v>
       </c>
-      <c r="I9" s="510"/>
-      <c r="J9" s="510"/>
-      <c r="K9" s="510"/>
+      <c r="I9" s="513"/>
+      <c r="J9" s="513"/>
+      <c r="K9" s="513"/>
       <c r="M9" t="s">
         <v>1709</v>
       </c>
@@ -39201,10 +39567,10 @@
       <c r="A10" s="363" t="s">
         <v>1710</v>
       </c>
-      <c r="H10" s="510"/>
-      <c r="I10" s="510"/>
-      <c r="J10" s="510"/>
-      <c r="K10" s="510"/>
+      <c r="H10" s="513"/>
+      <c r="I10" s="513"/>
+      <c r="J10" s="513"/>
+      <c r="K10" s="513"/>
       <c r="M10" t="s">
         <v>1711</v>
       </c>
@@ -39213,10 +39579,10 @@
       <c r="A11" s="363" t="s">
         <v>1712</v>
       </c>
-      <c r="H11" s="510"/>
-      <c r="I11" s="510"/>
-      <c r="J11" s="510"/>
-      <c r="K11" s="510"/>
+      <c r="H11" s="513"/>
+      <c r="I11" s="513"/>
+      <c r="J11" s="513"/>
+      <c r="K11" s="513"/>
       <c r="M11" t="s">
         <v>1713</v>
       </c>
@@ -39225,10 +39591,10 @@
       <c r="A12" s="363" t="s">
         <v>1714</v>
       </c>
-      <c r="H12" s="510"/>
-      <c r="I12" s="510"/>
-      <c r="J12" s="510"/>
-      <c r="K12" s="510"/>
+      <c r="H12" s="513"/>
+      <c r="I12" s="513"/>
+      <c r="J12" s="513"/>
+      <c r="K12" s="513"/>
       <c r="M12" t="s">
         <v>1715</v>
       </c>
@@ -39250,11 +39616,11 @@
       <c r="A16" s="16" t="s">
         <v>1719</v>
       </c>
-      <c r="I16" s="509" t="s">
+      <c r="I16" s="512" t="s">
         <v>1720</v>
       </c>
-      <c r="J16" s="509"/>
-      <c r="K16" s="509"/>
+      <c r="J16" s="512"/>
+      <c r="K16" s="512"/>
       <c r="M16" t="s">
         <v>1721</v>
       </c>
@@ -39266,9 +39632,9 @@
       <c r="A17" s="362" t="s">
         <v>1722</v>
       </c>
-      <c r="I17" s="509"/>
-      <c r="J17" s="509"/>
-      <c r="K17" s="509"/>
+      <c r="I17" s="512"/>
+      <c r="J17" s="512"/>
+      <c r="K17" s="512"/>
       <c r="M17" t="s">
         <v>1723</v>
       </c>
@@ -39280,9 +39646,9 @@
       <c r="A18" s="362" t="s">
         <v>1724</v>
       </c>
-      <c r="I18" s="509"/>
-      <c r="J18" s="509"/>
-      <c r="K18" s="509"/>
+      <c r="I18" s="512"/>
+      <c r="J18" s="512"/>
+      <c r="K18" s="512"/>
       <c r="M18" t="s">
         <v>1725</v>
       </c>
@@ -39291,19 +39657,19 @@
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="I19" s="509"/>
-      <c r="J19" s="509"/>
-      <c r="K19" s="509"/>
+      <c r="I19" s="512"/>
+      <c r="J19" s="512"/>
+      <c r="K19" s="512"/>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="362" t="s">
         <v>1726</v>
       </c>
-      <c r="I22" s="509" t="s">
+      <c r="I22" s="512" t="s">
         <v>1727</v>
       </c>
-      <c r="J22" s="509"/>
-      <c r="K22" s="509"/>
+      <c r="J22" s="512"/>
+      <c r="K22" s="512"/>
       <c r="N22" s="35" t="s">
         <v>1728</v>
       </c>
@@ -39315,9 +39681,9 @@
       <c r="A23" s="362" t="s">
         <v>1729</v>
       </c>
-      <c r="I23" s="509"/>
-      <c r="J23" s="509"/>
-      <c r="K23" s="509"/>
+      <c r="I23" s="512"/>
+      <c r="J23" s="512"/>
+      <c r="K23" s="512"/>
       <c r="M23" s="358">
         <v>0</v>
       </c>
@@ -39329,9 +39695,9 @@
       </c>
     </row>
     <row r="24" spans="1:17">
-      <c r="I24" s="509"/>
-      <c r="J24" s="509"/>
-      <c r="K24" s="509"/>
+      <c r="I24" s="512"/>
+      <c r="J24" s="512"/>
+      <c r="K24" s="512"/>
       <c r="M24" s="358">
         <v>1</v>
       </c>
@@ -39343,9 +39709,9 @@
       </c>
     </row>
     <row r="25" spans="1:17">
-      <c r="I25" s="509"/>
-      <c r="J25" s="509"/>
-      <c r="K25" s="509"/>
+      <c r="I25" s="512"/>
+      <c r="J25" s="512"/>
+      <c r="K25" s="512"/>
       <c r="M25" s="358">
         <v>2</v>
       </c>
@@ -39357,9 +39723,9 @@
       </c>
     </row>
     <row r="26" spans="1:17">
-      <c r="I26" s="509"/>
-      <c r="J26" s="509"/>
-      <c r="K26" s="509"/>
+      <c r="I26" s="512"/>
+      <c r="J26" s="512"/>
+      <c r="K26" s="512"/>
       <c r="M26" s="358">
         <v>3</v>
       </c>
@@ -40502,13 +40868,13 @@
       <c r="C20" s="90">
         <v>43908</v>
       </c>
-      <c r="D20" s="511" t="s">
+      <c r="D20" s="514" t="s">
         <v>291</v>
       </c>
-      <c r="E20" s="511"/>
-      <c r="F20" s="511"/>
-      <c r="G20" s="511"/>
-      <c r="H20" s="511"/>
+      <c r="E20" s="514"/>
+      <c r="F20" s="514"/>
+      <c r="G20" s="514"/>
+      <c r="H20" s="514"/>
       <c r="I20" s="33" t="s">
         <v>292</v>
       </c>
@@ -40519,37 +40885,37 @@
       <c r="N20" s="33"/>
     </row>
     <row r="21" spans="3:14">
-      <c r="C21" s="512">
+      <c r="C21" s="515">
         <v>43909</v>
       </c>
-      <c r="D21" s="511"/>
-      <c r="E21" s="511"/>
-      <c r="F21" s="511"/>
-      <c r="G21" s="511"/>
-      <c r="H21" s="511"/>
+      <c r="D21" s="514"/>
+      <c r="E21" s="514"/>
+      <c r="F21" s="514"/>
+      <c r="G21" s="514"/>
+      <c r="H21" s="514"/>
       <c r="I21" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="J21" s="511"/>
-      <c r="K21" s="511"/>
-      <c r="L21" s="511" t="s">
+      <c r="J21" s="514"/>
+      <c r="K21" s="514"/>
+      <c r="L21" s="514" t="s">
         <v>294</v>
       </c>
-      <c r="M21" s="511"/>
-      <c r="N21" s="511"/>
+      <c r="M21" s="514"/>
+      <c r="N21" s="514"/>
     </row>
     <row r="22" spans="3:14">
-      <c r="C22" s="512"/>
-      <c r="D22" s="511"/>
-      <c r="E22" s="511"/>
-      <c r="F22" s="511"/>
-      <c r="G22" s="511"/>
-      <c r="H22" s="511"/>
-      <c r="I22" s="427" t="s">
+      <c r="C22" s="515"/>
+      <c r="D22" s="514"/>
+      <c r="E22" s="514"/>
+      <c r="F22" s="514"/>
+      <c r="G22" s="514"/>
+      <c r="H22" s="514"/>
+      <c r="I22" s="430" t="s">
         <v>295</v>
       </c>
-      <c r="J22" s="511"/>
-      <c r="K22" s="511"/>
+      <c r="J22" s="514"/>
+      <c r="K22" s="514"/>
       <c r="L22" s="91" t="s">
         <v>296</v>
       </c>
@@ -40557,31 +40923,31 @@
       <c r="N22" s="33"/>
     </row>
     <row r="23" spans="3:14">
-      <c r="C23" s="512"/>
-      <c r="D23" s="511"/>
-      <c r="E23" s="511"/>
-      <c r="F23" s="511"/>
-      <c r="G23" s="511"/>
-      <c r="H23" s="511"/>
-      <c r="I23" s="427"/>
-      <c r="J23" s="511"/>
-      <c r="K23" s="511"/>
-      <c r="L23" s="511" t="s">
+      <c r="C23" s="515"/>
+      <c r="D23" s="514"/>
+      <c r="E23" s="514"/>
+      <c r="F23" s="514"/>
+      <c r="G23" s="514"/>
+      <c r="H23" s="514"/>
+      <c r="I23" s="430"/>
+      <c r="J23" s="514"/>
+      <c r="K23" s="514"/>
+      <c r="L23" s="514" t="s">
         <v>297</v>
       </c>
-      <c r="M23" s="511"/>
-      <c r="N23" s="511"/>
+      <c r="M23" s="514"/>
+      <c r="N23" s="514"/>
     </row>
     <row r="24" spans="3:14">
-      <c r="C24" s="512"/>
-      <c r="D24" s="511"/>
-      <c r="E24" s="511"/>
-      <c r="F24" s="511"/>
-      <c r="G24" s="511"/>
-      <c r="H24" s="511"/>
-      <c r="I24" s="427"/>
-      <c r="J24" s="511"/>
-      <c r="K24" s="511"/>
+      <c r="C24" s="515"/>
+      <c r="D24" s="514"/>
+      <c r="E24" s="514"/>
+      <c r="F24" s="514"/>
+      <c r="G24" s="514"/>
+      <c r="H24" s="514"/>
+      <c r="I24" s="430"/>
+      <c r="J24" s="514"/>
+      <c r="K24" s="514"/>
       <c r="L24" s="92" t="s">
         <v>295</v>
       </c>
@@ -40592,13 +40958,13 @@
       <c r="C25" s="90">
         <v>43910</v>
       </c>
-      <c r="D25" s="511" t="s">
+      <c r="D25" s="514" t="s">
         <v>298</v>
       </c>
-      <c r="E25" s="511"/>
-      <c r="F25" s="511"/>
-      <c r="G25" s="511"/>
-      <c r="H25" s="511"/>
+      <c r="E25" s="514"/>
+      <c r="F25" s="514"/>
+      <c r="G25" s="514"/>
+      <c r="H25" s="514"/>
       <c r="I25" s="33" t="s">
         <v>299</v>
       </c>
@@ -40612,16 +40978,16 @@
       <c r="C26" s="90">
         <v>43911</v>
       </c>
-      <c r="D26" s="513"/>
-      <c r="E26" s="514"/>
-      <c r="F26" s="514"/>
-      <c r="G26" s="514"/>
-      <c r="H26" s="515"/>
-      <c r="I26" s="520" t="s">
+      <c r="D26" s="516"/>
+      <c r="E26" s="517"/>
+      <c r="F26" s="517"/>
+      <c r="G26" s="517"/>
+      <c r="H26" s="518"/>
+      <c r="I26" s="523" t="s">
         <v>295</v>
       </c>
-      <c r="J26" s="513"/>
-      <c r="K26" s="515"/>
+      <c r="J26" s="516"/>
+      <c r="K26" s="518"/>
       <c r="L26" s="91" t="s">
         <v>296</v>
       </c>
@@ -40630,30 +40996,30 @@
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="33"/>
-      <c r="D27" s="516"/>
-      <c r="E27" s="506"/>
-      <c r="F27" s="506"/>
-      <c r="G27" s="506"/>
-      <c r="H27" s="517"/>
-      <c r="I27" s="521"/>
-      <c r="J27" s="516"/>
-      <c r="K27" s="517"/>
-      <c r="L27" s="511" t="s">
+      <c r="D27" s="519"/>
+      <c r="E27" s="509"/>
+      <c r="F27" s="509"/>
+      <c r="G27" s="509"/>
+      <c r="H27" s="520"/>
+      <c r="I27" s="524"/>
+      <c r="J27" s="519"/>
+      <c r="K27" s="520"/>
+      <c r="L27" s="514" t="s">
         <v>300</v>
       </c>
-      <c r="M27" s="511"/>
-      <c r="N27" s="511"/>
+      <c r="M27" s="514"/>
+      <c r="N27" s="514"/>
     </row>
     <row r="28" spans="3:14">
       <c r="C28" s="33"/>
-      <c r="D28" s="516"/>
-      <c r="E28" s="506"/>
-      <c r="F28" s="506"/>
-      <c r="G28" s="506"/>
-      <c r="H28" s="517"/>
-      <c r="I28" s="521"/>
-      <c r="J28" s="516"/>
-      <c r="K28" s="517"/>
+      <c r="D28" s="519"/>
+      <c r="E28" s="509"/>
+      <c r="F28" s="509"/>
+      <c r="G28" s="509"/>
+      <c r="H28" s="520"/>
+      <c r="I28" s="524"/>
+      <c r="J28" s="519"/>
+      <c r="K28" s="520"/>
       <c r="L28" s="92" t="s">
         <v>295</v>
       </c>
@@ -40662,14 +41028,14 @@
     </row>
     <row r="29" spans="3:14">
       <c r="C29" s="33"/>
-      <c r="D29" s="518"/>
-      <c r="E29" s="490"/>
-      <c r="F29" s="490"/>
-      <c r="G29" s="490"/>
-      <c r="H29" s="519"/>
-      <c r="I29" s="522"/>
-      <c r="J29" s="518"/>
-      <c r="K29" s="519"/>
+      <c r="D29" s="521"/>
+      <c r="E29" s="493"/>
+      <c r="F29" s="493"/>
+      <c r="G29" s="493"/>
+      <c r="H29" s="522"/>
+      <c r="I29" s="525"/>
+      <c r="J29" s="521"/>
+      <c r="K29" s="522"/>
       <c r="L29" s="93" t="s">
         <v>301</v>
       </c>
@@ -40717,13 +41083,13 @@
       <c r="C33" s="90">
         <v>43908</v>
       </c>
-      <c r="D33" s="511" t="s">
+      <c r="D33" s="514" t="s">
         <v>291</v>
       </c>
-      <c r="E33" s="511"/>
-      <c r="F33" s="511"/>
-      <c r="G33" s="511"/>
-      <c r="H33" s="511"/>
+      <c r="E33" s="514"/>
+      <c r="F33" s="514"/>
+      <c r="G33" s="514"/>
+      <c r="H33" s="514"/>
       <c r="I33" s="33" t="s">
         <v>292</v>
       </c>
@@ -40734,33 +41100,33 @@
       <c r="N33" s="33"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="C34" s="512">
+      <c r="C34" s="515">
         <v>43909</v>
       </c>
-      <c r="D34" s="511"/>
-      <c r="E34" s="511"/>
-      <c r="F34" s="511"/>
-      <c r="G34" s="511"/>
-      <c r="H34" s="511"/>
-      <c r="I34" s="523"/>
-      <c r="J34" s="511"/>
-      <c r="K34" s="511"/>
-      <c r="L34" s="511" t="s">
+      <c r="D34" s="514"/>
+      <c r="E34" s="514"/>
+      <c r="F34" s="514"/>
+      <c r="G34" s="514"/>
+      <c r="H34" s="514"/>
+      <c r="I34" s="526"/>
+      <c r="J34" s="514"/>
+      <c r="K34" s="514"/>
+      <c r="L34" s="514" t="s">
         <v>294</v>
       </c>
-      <c r="M34" s="511"/>
-      <c r="N34" s="511"/>
+      <c r="M34" s="514"/>
+      <c r="N34" s="514"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="C35" s="512"/>
-      <c r="D35" s="511"/>
-      <c r="E35" s="511"/>
-      <c r="F35" s="511"/>
-      <c r="G35" s="511"/>
-      <c r="H35" s="511"/>
-      <c r="I35" s="524"/>
-      <c r="J35" s="511"/>
-      <c r="K35" s="511"/>
+      <c r="C35" s="515"/>
+      <c r="D35" s="514"/>
+      <c r="E35" s="514"/>
+      <c r="F35" s="514"/>
+      <c r="G35" s="514"/>
+      <c r="H35" s="514"/>
+      <c r="I35" s="527"/>
+      <c r="J35" s="514"/>
+      <c r="K35" s="514"/>
       <c r="L35" s="91" t="s">
         <v>296</v>
       </c>
@@ -40768,31 +41134,31 @@
       <c r="N35" s="33"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="C36" s="512"/>
-      <c r="D36" s="511"/>
-      <c r="E36" s="511"/>
-      <c r="F36" s="511"/>
-      <c r="G36" s="511"/>
-      <c r="H36" s="511"/>
-      <c r="I36" s="524"/>
-      <c r="J36" s="511"/>
-      <c r="K36" s="511"/>
-      <c r="L36" s="511" t="s">
+      <c r="C36" s="515"/>
+      <c r="D36" s="514"/>
+      <c r="E36" s="514"/>
+      <c r="F36" s="514"/>
+      <c r="G36" s="514"/>
+      <c r="H36" s="514"/>
+      <c r="I36" s="527"/>
+      <c r="J36" s="514"/>
+      <c r="K36" s="514"/>
+      <c r="L36" s="514" t="s">
         <v>297</v>
       </c>
-      <c r="M36" s="511"/>
-      <c r="N36" s="511"/>
+      <c r="M36" s="514"/>
+      <c r="N36" s="514"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="C37" s="512"/>
-      <c r="D37" s="511"/>
-      <c r="E37" s="511"/>
-      <c r="F37" s="511"/>
-      <c r="G37" s="511"/>
-      <c r="H37" s="511"/>
-      <c r="I37" s="525"/>
-      <c r="J37" s="511"/>
-      <c r="K37" s="511"/>
+      <c r="C37" s="515"/>
+      <c r="D37" s="514"/>
+      <c r="E37" s="514"/>
+      <c r="F37" s="514"/>
+      <c r="G37" s="514"/>
+      <c r="H37" s="514"/>
+      <c r="I37" s="528"/>
+      <c r="J37" s="514"/>
+      <c r="K37" s="514"/>
       <c r="L37" s="92" t="s">
         <v>302</v>
       </c>
@@ -40803,13 +41169,13 @@
       <c r="C38" s="90">
         <v>43910</v>
       </c>
-      <c r="D38" s="511" t="s">
+      <c r="D38" s="514" t="s">
         <v>298</v>
       </c>
-      <c r="E38" s="511"/>
-      <c r="F38" s="511"/>
-      <c r="G38" s="511"/>
-      <c r="H38" s="511"/>
+      <c r="E38" s="514"/>
+      <c r="F38" s="514"/>
+      <c r="G38" s="514"/>
+      <c r="H38" s="514"/>
       <c r="I38" s="33" t="s">
         <v>299</v>
       </c>
@@ -40823,14 +41189,14 @@
       <c r="C39" s="90">
         <v>43911</v>
       </c>
-      <c r="D39" s="513"/>
-      <c r="E39" s="514"/>
-      <c r="F39" s="514"/>
-      <c r="G39" s="514"/>
-      <c r="H39" s="515"/>
-      <c r="I39" s="520"/>
-      <c r="J39" s="513"/>
-      <c r="K39" s="515"/>
+      <c r="D39" s="516"/>
+      <c r="E39" s="517"/>
+      <c r="F39" s="517"/>
+      <c r="G39" s="517"/>
+      <c r="H39" s="518"/>
+      <c r="I39" s="523"/>
+      <c r="J39" s="516"/>
+      <c r="K39" s="518"/>
       <c r="L39" s="91" t="s">
         <v>296</v>
       </c>
@@ -40839,30 +41205,30 @@
     </row>
     <row r="40" spans="1:14">
       <c r="C40" s="33"/>
-      <c r="D40" s="516"/>
-      <c r="E40" s="506"/>
-      <c r="F40" s="506"/>
-      <c r="G40" s="506"/>
-      <c r="H40" s="517"/>
-      <c r="I40" s="521"/>
-      <c r="J40" s="516"/>
-      <c r="K40" s="517"/>
-      <c r="L40" s="511" t="s">
+      <c r="D40" s="519"/>
+      <c r="E40" s="509"/>
+      <c r="F40" s="509"/>
+      <c r="G40" s="509"/>
+      <c r="H40" s="520"/>
+      <c r="I40" s="524"/>
+      <c r="J40" s="519"/>
+      <c r="K40" s="520"/>
+      <c r="L40" s="514" t="s">
         <v>300</v>
       </c>
-      <c r="M40" s="511"/>
-      <c r="N40" s="511"/>
+      <c r="M40" s="514"/>
+      <c r="N40" s="514"/>
     </row>
     <row r="41" spans="1:14">
       <c r="C41" s="33"/>
-      <c r="D41" s="516"/>
-      <c r="E41" s="506"/>
-      <c r="F41" s="506"/>
-      <c r="G41" s="506"/>
-      <c r="H41" s="517"/>
-      <c r="I41" s="522"/>
-      <c r="J41" s="516"/>
-      <c r="K41" s="517"/>
+      <c r="D41" s="519"/>
+      <c r="E41" s="509"/>
+      <c r="F41" s="509"/>
+      <c r="G41" s="509"/>
+      <c r="H41" s="520"/>
+      <c r="I41" s="525"/>
+      <c r="J41" s="519"/>
+      <c r="K41" s="520"/>
       <c r="L41" s="92" t="s">
         <v>302</v>
       </c>
@@ -40871,16 +41237,16 @@
     </row>
     <row r="42" spans="1:14">
       <c r="C42" s="33"/>
-      <c r="D42" s="518"/>
-      <c r="E42" s="490"/>
-      <c r="F42" s="490"/>
-      <c r="G42" s="490"/>
-      <c r="H42" s="519"/>
+      <c r="D42" s="521"/>
+      <c r="E42" s="493"/>
+      <c r="F42" s="493"/>
+      <c r="G42" s="493"/>
+      <c r="H42" s="522"/>
       <c r="I42" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="J42" s="518"/>
-      <c r="K42" s="519"/>
+      <c r="J42" s="521"/>
+      <c r="K42" s="522"/>
       <c r="L42" s="93" t="s">
         <v>301</v>
       </c>
@@ -41492,10 +41858,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:X155"/>
+  <dimension ref="A2:X268"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G108" sqref="G108"/>
+    <sheetView topLeftCell="A68" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F239" sqref="F239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -41506,29 +41872,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="21">
-      <c r="B2" s="536" t="s">
+      <c r="B2" s="541" t="s">
         <v>717</v>
       </c>
-      <c r="C2" s="536"/>
-      <c r="D2" s="536"/>
-      <c r="E2" s="536"/>
-      <c r="F2" s="536"/>
-      <c r="G2" s="536"/>
-      <c r="H2" s="536"/>
-      <c r="I2" s="536"/>
-      <c r="J2" s="536"/>
-      <c r="K2" s="536"/>
-      <c r="L2" s="536"/>
-      <c r="M2" s="536"/>
-      <c r="N2" s="536"/>
-      <c r="O2" s="536"/>
-      <c r="P2" s="536"/>
-      <c r="Q2" s="536"/>
-      <c r="R2" s="536"/>
-      <c r="S2" s="536"/>
-      <c r="T2" s="536"/>
-      <c r="U2" s="536"/>
-      <c r="V2" s="536"/>
+      <c r="C2" s="541"/>
+      <c r="D2" s="541"/>
+      <c r="E2" s="541"/>
+      <c r="F2" s="541"/>
+      <c r="G2" s="541"/>
+      <c r="H2" s="541"/>
+      <c r="I2" s="541"/>
+      <c r="J2" s="541"/>
+      <c r="K2" s="541"/>
+      <c r="L2" s="541"/>
+      <c r="M2" s="541"/>
+      <c r="N2" s="541"/>
+      <c r="O2" s="541"/>
+      <c r="P2" s="541"/>
+      <c r="Q2" s="541"/>
+      <c r="R2" s="541"/>
+      <c r="S2" s="541"/>
+      <c r="T2" s="541"/>
+      <c r="U2" s="541"/>
+      <c r="V2" s="541"/>
     </row>
     <row r="3" spans="2:22" ht="15.75" thickBot="1"/>
     <row r="4" spans="2:22">
@@ -41561,22 +41927,22 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="541" t="s">
+      <c r="G5" s="546" t="s">
         <v>323</v>
       </c>
-      <c r="H5" s="541"/>
-      <c r="I5" s="541" t="s">
+      <c r="H5" s="546"/>
+      <c r="I5" s="546" t="s">
         <v>324</v>
       </c>
-      <c r="J5" s="541"/>
-      <c r="K5" s="541"/>
-      <c r="L5" s="541"/>
-      <c r="M5" s="541"/>
-      <c r="N5" s="541"/>
-      <c r="O5" s="541" t="s">
+      <c r="J5" s="546"/>
+      <c r="K5" s="546"/>
+      <c r="L5" s="546"/>
+      <c r="M5" s="546"/>
+      <c r="N5" s="546"/>
+      <c r="O5" s="546" t="s">
         <v>325</v>
       </c>
-      <c r="P5" s="541"/>
+      <c r="P5" s="546"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
@@ -41588,7 +41954,7 @@
       <c r="D6" s="107"/>
       <c r="E6" s="108"/>
       <c r="F6" s="110"/>
-      <c r="G6" s="546" t="s">
+      <c r="G6" s="551" t="s">
         <v>326</v>
       </c>
       <c r="H6" s="86"/>
@@ -41617,26 +41983,26 @@
       </c>
       <c r="E7" s="110"/>
       <c r="F7" s="110"/>
-      <c r="G7" s="453"/>
-      <c r="H7" s="547" t="s">
+      <c r="G7" s="456"/>
+      <c r="H7" s="552" t="s">
         <v>328</v>
       </c>
-      <c r="I7" s="550" t="s">
+      <c r="I7" s="555" t="s">
         <v>329</v>
       </c>
-      <c r="J7" s="429"/>
-      <c r="K7" s="551" t="s">
+      <c r="J7" s="432"/>
+      <c r="K7" s="556" t="s">
         <v>330</v>
       </c>
-      <c r="L7" s="552"/>
-      <c r="M7" s="550" t="s">
+      <c r="L7" s="557"/>
+      <c r="M7" s="555" t="s">
         <v>331</v>
       </c>
-      <c r="N7" s="429"/>
-      <c r="O7" s="556" t="s">
+      <c r="N7" s="432"/>
+      <c r="O7" s="561" t="s">
         <v>332</v>
       </c>
-      <c r="P7" s="557"/>
+      <c r="P7" s="562"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
@@ -41648,16 +42014,16 @@
       <c r="D8" s="111"/>
       <c r="E8" s="112"/>
       <c r="F8" s="110"/>
-      <c r="G8" s="453"/>
-      <c r="H8" s="548"/>
-      <c r="I8" s="430"/>
-      <c r="J8" s="431"/>
-      <c r="K8" s="439"/>
-      <c r="L8" s="553"/>
-      <c r="M8" s="430"/>
-      <c r="N8" s="431"/>
-      <c r="O8" s="558"/>
-      <c r="P8" s="559"/>
+      <c r="G8" s="456"/>
+      <c r="H8" s="553"/>
+      <c r="I8" s="433"/>
+      <c r="J8" s="434"/>
+      <c r="K8" s="442"/>
+      <c r="L8" s="558"/>
+      <c r="M8" s="433"/>
+      <c r="N8" s="434"/>
+      <c r="O8" s="563"/>
+      <c r="P8" s="564"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="33" t="s">
         <v>61</v>
@@ -41675,16 +42041,16 @@
       <c r="D9" s="4"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="453"/>
-      <c r="H9" s="548"/>
-      <c r="I9" s="430"/>
-      <c r="J9" s="431"/>
-      <c r="K9" s="439"/>
-      <c r="L9" s="553"/>
-      <c r="M9" s="430"/>
-      <c r="N9" s="431"/>
-      <c r="O9" s="558"/>
-      <c r="P9" s="559"/>
+      <c r="G9" s="456"/>
+      <c r="H9" s="553"/>
+      <c r="I9" s="433"/>
+      <c r="J9" s="434"/>
+      <c r="K9" s="442"/>
+      <c r="L9" s="558"/>
+      <c r="M9" s="433"/>
+      <c r="N9" s="434"/>
+      <c r="O9" s="563"/>
+      <c r="P9" s="564"/>
       <c r="Q9" s="5" t="s">
         <v>2</v>
       </c>
@@ -41704,16 +42070,16 @@
       <c r="D10" s="1"/>
       <c r="E10" s="3"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="453"/>
-      <c r="H10" s="548"/>
-      <c r="I10" s="430"/>
-      <c r="J10" s="431"/>
-      <c r="K10" s="439"/>
-      <c r="L10" s="553"/>
-      <c r="M10" s="430"/>
-      <c r="N10" s="431"/>
-      <c r="O10" s="558"/>
-      <c r="P10" s="559"/>
+      <c r="G10" s="456"/>
+      <c r="H10" s="553"/>
+      <c r="I10" s="433"/>
+      <c r="J10" s="434"/>
+      <c r="K10" s="442"/>
+      <c r="L10" s="558"/>
+      <c r="M10" s="433"/>
+      <c r="N10" s="434"/>
+      <c r="O10" s="563"/>
+      <c r="P10" s="564"/>
       <c r="Q10" s="5" t="s">
         <v>66</v>
       </c>
@@ -41729,16 +42095,16 @@
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="453"/>
-      <c r="H11" s="548"/>
-      <c r="I11" s="430"/>
-      <c r="J11" s="431"/>
-      <c r="K11" s="439"/>
-      <c r="L11" s="553"/>
-      <c r="M11" s="430"/>
-      <c r="N11" s="431"/>
-      <c r="O11" s="558"/>
-      <c r="P11" s="559"/>
+      <c r="G11" s="456"/>
+      <c r="H11" s="553"/>
+      <c r="I11" s="433"/>
+      <c r="J11" s="434"/>
+      <c r="K11" s="442"/>
+      <c r="L11" s="558"/>
+      <c r="M11" s="433"/>
+      <c r="N11" s="434"/>
+      <c r="O11" s="563"/>
+      <c r="P11" s="564"/>
       <c r="Q11" s="5">
         <v>1000</v>
       </c>
@@ -41756,16 +42122,16 @@
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="453"/>
-      <c r="H12" s="548"/>
-      <c r="I12" s="430"/>
-      <c r="J12" s="431"/>
-      <c r="K12" s="439"/>
-      <c r="L12" s="553"/>
-      <c r="M12" s="430"/>
-      <c r="N12" s="431"/>
-      <c r="O12" s="558"/>
-      <c r="P12" s="559"/>
+      <c r="G12" s="456"/>
+      <c r="H12" s="553"/>
+      <c r="I12" s="433"/>
+      <c r="J12" s="434"/>
+      <c r="K12" s="442"/>
+      <c r="L12" s="558"/>
+      <c r="M12" s="433"/>
+      <c r="N12" s="434"/>
+      <c r="O12" s="563"/>
+      <c r="P12" s="564"/>
       <c r="Q12" s="5" t="s">
         <v>2</v>
       </c>
@@ -41779,16 +42145,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="453"/>
-      <c r="H13" s="548"/>
-      <c r="I13" s="430"/>
-      <c r="J13" s="431"/>
-      <c r="K13" s="439"/>
-      <c r="L13" s="553"/>
-      <c r="M13" s="430"/>
-      <c r="N13" s="431"/>
-      <c r="O13" s="558"/>
-      <c r="P13" s="559"/>
+      <c r="G13" s="456"/>
+      <c r="H13" s="553"/>
+      <c r="I13" s="433"/>
+      <c r="J13" s="434"/>
+      <c r="K13" s="442"/>
+      <c r="L13" s="558"/>
+      <c r="M13" s="433"/>
+      <c r="N13" s="434"/>
+      <c r="O13" s="563"/>
+      <c r="P13" s="564"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="33"/>
       <c r="S13" s="33"/>
@@ -41800,16 +42166,16 @@
       <c r="D14" s="1"/>
       <c r="E14" s="3"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="453"/>
-      <c r="H14" s="548"/>
-      <c r="I14" s="430"/>
-      <c r="J14" s="431"/>
-      <c r="K14" s="439"/>
-      <c r="L14" s="553"/>
-      <c r="M14" s="430"/>
-      <c r="N14" s="431"/>
-      <c r="O14" s="558"/>
-      <c r="P14" s="559"/>
+      <c r="G14" s="456"/>
+      <c r="H14" s="553"/>
+      <c r="I14" s="433"/>
+      <c r="J14" s="434"/>
+      <c r="K14" s="442"/>
+      <c r="L14" s="558"/>
+      <c r="M14" s="433"/>
+      <c r="N14" s="434"/>
+      <c r="O14" s="563"/>
+      <c r="P14" s="564"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="33"/>
       <c r="S14" s="33"/>
@@ -41823,16 +42189,16 @@
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="453"/>
-      <c r="H15" s="548"/>
-      <c r="I15" s="430"/>
-      <c r="J15" s="431"/>
-      <c r="K15" s="439"/>
-      <c r="L15" s="553"/>
-      <c r="M15" s="430"/>
-      <c r="N15" s="431"/>
-      <c r="O15" s="558"/>
-      <c r="P15" s="559"/>
+      <c r="G15" s="456"/>
+      <c r="H15" s="553"/>
+      <c r="I15" s="433"/>
+      <c r="J15" s="434"/>
+      <c r="K15" s="442"/>
+      <c r="L15" s="558"/>
+      <c r="M15" s="433"/>
+      <c r="N15" s="434"/>
+      <c r="O15" s="563"/>
+      <c r="P15" s="564"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
@@ -41844,16 +42210,16 @@
       <c r="D16" s="4"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="453"/>
-      <c r="H16" s="548"/>
-      <c r="I16" s="430"/>
-      <c r="J16" s="431"/>
-      <c r="K16" s="439"/>
-      <c r="L16" s="553"/>
-      <c r="M16" s="430"/>
-      <c r="N16" s="431"/>
-      <c r="O16" s="558"/>
-      <c r="P16" s="559"/>
+      <c r="G16" s="456"/>
+      <c r="H16" s="553"/>
+      <c r="I16" s="433"/>
+      <c r="J16" s="434"/>
+      <c r="K16" s="442"/>
+      <c r="L16" s="558"/>
+      <c r="M16" s="433"/>
+      <c r="N16" s="434"/>
+      <c r="O16" s="563"/>
+      <c r="P16" s="564"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
@@ -41865,16 +42231,16 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="453"/>
-      <c r="H17" s="548"/>
-      <c r="I17" s="430"/>
-      <c r="J17" s="431"/>
-      <c r="K17" s="439"/>
-      <c r="L17" s="553"/>
-      <c r="M17" s="430"/>
-      <c r="N17" s="431"/>
-      <c r="O17" s="558"/>
-      <c r="P17" s="559"/>
+      <c r="G17" s="456"/>
+      <c r="H17" s="553"/>
+      <c r="I17" s="433"/>
+      <c r="J17" s="434"/>
+      <c r="K17" s="442"/>
+      <c r="L17" s="558"/>
+      <c r="M17" s="433"/>
+      <c r="N17" s="434"/>
+      <c r="O17" s="563"/>
+      <c r="P17" s="564"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
@@ -41886,16 +42252,16 @@
       <c r="D18" s="4"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="453"/>
-      <c r="H18" s="548"/>
-      <c r="I18" s="430"/>
-      <c r="J18" s="431"/>
-      <c r="K18" s="439"/>
-      <c r="L18" s="553"/>
-      <c r="M18" s="430"/>
-      <c r="N18" s="431"/>
-      <c r="O18" s="558"/>
-      <c r="P18" s="559"/>
+      <c r="G18" s="456"/>
+      <c r="H18" s="553"/>
+      <c r="I18" s="433"/>
+      <c r="J18" s="434"/>
+      <c r="K18" s="442"/>
+      <c r="L18" s="558"/>
+      <c r="M18" s="433"/>
+      <c r="N18" s="434"/>
+      <c r="O18" s="563"/>
+      <c r="P18" s="564"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
@@ -41909,16 +42275,16 @@
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="453"/>
-      <c r="H19" s="548"/>
-      <c r="I19" s="430"/>
-      <c r="J19" s="431"/>
-      <c r="K19" s="439"/>
-      <c r="L19" s="553"/>
-      <c r="M19" s="430"/>
-      <c r="N19" s="431"/>
-      <c r="O19" s="558"/>
-      <c r="P19" s="559"/>
+      <c r="G19" s="456"/>
+      <c r="H19" s="553"/>
+      <c r="I19" s="433"/>
+      <c r="J19" s="434"/>
+      <c r="K19" s="442"/>
+      <c r="L19" s="558"/>
+      <c r="M19" s="433"/>
+      <c r="N19" s="434"/>
+      <c r="O19" s="563"/>
+      <c r="P19" s="564"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
@@ -41930,16 +42296,16 @@
       <c r="D20" s="8"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="454"/>
-      <c r="H20" s="549"/>
-      <c r="I20" s="432"/>
-      <c r="J20" s="433"/>
-      <c r="K20" s="554"/>
-      <c r="L20" s="555"/>
-      <c r="M20" s="432"/>
-      <c r="N20" s="433"/>
-      <c r="O20" s="560"/>
-      <c r="P20" s="561"/>
+      <c r="G20" s="457"/>
+      <c r="H20" s="554"/>
+      <c r="I20" s="435"/>
+      <c r="J20" s="436"/>
+      <c r="K20" s="559"/>
+      <c r="L20" s="560"/>
+      <c r="M20" s="435"/>
+      <c r="N20" s="436"/>
+      <c r="O20" s="565"/>
+      <c r="P20" s="566"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
@@ -41969,27 +42335,27 @@
     </row>
     <row r="22" spans="1:22" ht="15.75" thickBot="1">
       <c r="C22" s="4"/>
-      <c r="D22" s="440" t="s">
+      <c r="D22" s="443" t="s">
         <v>73</v>
       </c>
-      <c r="E22" s="441"/>
+      <c r="E22" s="444"/>
       <c r="F22" s="197"/>
       <c r="G22" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="H22" s="440" t="s">
+      <c r="H22" s="443" t="s">
         <v>75</v>
       </c>
-      <c r="I22" s="449"/>
-      <c r="J22" s="449"/>
-      <c r="K22" s="449"/>
-      <c r="L22" s="449"/>
-      <c r="M22" s="449"/>
-      <c r="N22" s="441"/>
-      <c r="O22" s="440" t="s">
+      <c r="I22" s="452"/>
+      <c r="J22" s="452"/>
+      <c r="K22" s="452"/>
+      <c r="L22" s="452"/>
+      <c r="M22" s="452"/>
+      <c r="N22" s="444"/>
+      <c r="O22" s="443" t="s">
         <v>333</v>
       </c>
-      <c r="P22" s="441"/>
+      <c r="P22" s="444"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
@@ -42020,59 +42386,59 @@
       <c r="U23" s="9"/>
     </row>
     <row r="25" spans="1:22" ht="21">
-      <c r="B25" s="536" t="s">
+      <c r="B25" s="541" t="s">
         <v>716</v>
       </c>
-      <c r="C25" s="536"/>
-      <c r="D25" s="536"/>
-      <c r="E25" s="536"/>
-      <c r="F25" s="536"/>
-      <c r="G25" s="536"/>
-      <c r="H25" s="536"/>
-      <c r="I25" s="536"/>
-      <c r="J25" s="536"/>
-      <c r="K25" s="536"/>
-      <c r="L25" s="536"/>
-      <c r="M25" s="536"/>
-      <c r="N25" s="536"/>
-      <c r="O25" s="536"/>
-      <c r="P25" s="536"/>
-      <c r="Q25" s="536"/>
-      <c r="R25" s="536"/>
-      <c r="S25" s="536"/>
-      <c r="T25" s="536"/>
-      <c r="U25" s="536"/>
-      <c r="V25" s="536"/>
+      <c r="C25" s="541"/>
+      <c r="D25" s="541"/>
+      <c r="E25" s="541"/>
+      <c r="F25" s="541"/>
+      <c r="G25" s="541"/>
+      <c r="H25" s="541"/>
+      <c r="I25" s="541"/>
+      <c r="J25" s="541"/>
+      <c r="K25" s="541"/>
+      <c r="L25" s="541"/>
+      <c r="M25" s="541"/>
+      <c r="N25" s="541"/>
+      <c r="O25" s="541"/>
+      <c r="P25" s="541"/>
+      <c r="Q25" s="541"/>
+      <c r="R25" s="541"/>
+      <c r="S25" s="541"/>
+      <c r="T25" s="541"/>
+      <c r="U25" s="541"/>
+      <c r="V25" s="541"/>
     </row>
     <row r="26" spans="1:22" ht="15.75" thickBot="1">
-      <c r="C26" s="537" t="s">
+      <c r="C26" s="542" t="s">
         <v>359</v>
       </c>
-      <c r="D26" s="537"/>
-      <c r="E26" s="537"/>
-      <c r="F26" s="537"/>
-      <c r="G26" s="537"/>
-      <c r="H26" s="537"/>
-      <c r="I26" s="537"/>
-      <c r="J26" s="537"/>
-      <c r="K26" s="537"/>
-      <c r="L26" s="537"/>
-      <c r="M26" s="537"/>
+      <c r="D26" s="542"/>
+      <c r="E26" s="542"/>
+      <c r="F26" s="542"/>
+      <c r="G26" s="542"/>
+      <c r="H26" s="542"/>
+      <c r="I26" s="542"/>
+      <c r="J26" s="542"/>
+      <c r="K26" s="542"/>
+      <c r="L26" s="542"/>
+      <c r="M26" s="542"/>
     </row>
     <row r="27" spans="1:22" ht="15.75" thickBot="1">
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="538" t="s">
+      <c r="E27" s="543" t="s">
         <v>57</v>
       </c>
-      <c r="F27" s="539"/>
-      <c r="G27" s="539"/>
-      <c r="H27" s="443"/>
-      <c r="I27" s="443"/>
-      <c r="J27" s="443"/>
-      <c r="K27" s="443"/>
-      <c r="L27" s="443"/>
-      <c r="M27" s="444"/>
+      <c r="F27" s="544"/>
+      <c r="G27" s="544"/>
+      <c r="H27" s="446"/>
+      <c r="I27" s="446"/>
+      <c r="J27" s="446"/>
+      <c r="K27" s="446"/>
+      <c r="L27" s="446"/>
+      <c r="M27" s="447"/>
     </row>
     <row r="28" spans="1:22">
       <c r="C28" s="4" t="s">
@@ -42109,11 +42475,11 @@
         <v>938</v>
       </c>
       <c r="M29" s="6"/>
-      <c r="O29" s="540" t="s">
+      <c r="O29" s="545" t="s">
         <v>58</v>
       </c>
-      <c r="P29" s="540"/>
-      <c r="Q29" s="540"/>
+      <c r="P29" s="545"/>
+      <c r="Q29" s="545"/>
     </row>
     <row r="30" spans="1:22" ht="15.75" thickBot="1">
       <c r="C30" s="4"/>
@@ -42167,21 +42533,21 @@
         <v>69</v>
       </c>
       <c r="D32" s="6"/>
-      <c r="E32" s="533" t="s">
+      <c r="E32" s="538" t="s">
         <v>720</v>
       </c>
-      <c r="F32" s="534"/>
-      <c r="G32" s="535"/>
-      <c r="H32" s="533" t="s">
+      <c r="F32" s="539"/>
+      <c r="G32" s="540"/>
+      <c r="H32" s="538" t="s">
         <v>721</v>
       </c>
-      <c r="I32" s="534"/>
-      <c r="J32" s="535"/>
-      <c r="K32" s="533" t="s">
+      <c r="I32" s="539"/>
+      <c r="J32" s="540"/>
+      <c r="K32" s="538" t="s">
         <v>722</v>
       </c>
-      <c r="L32" s="534"/>
-      <c r="M32" s="535"/>
+      <c r="L32" s="539"/>
+      <c r="M32" s="540"/>
       <c r="N32" s="5" t="s">
         <v>2</v>
       </c>
@@ -42201,15 +42567,15 @@
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="533"/>
-      <c r="F33" s="534"/>
-      <c r="G33" s="535"/>
-      <c r="H33" s="533"/>
-      <c r="I33" s="534"/>
-      <c r="J33" s="535"/>
-      <c r="K33" s="533"/>
-      <c r="L33" s="534"/>
-      <c r="M33" s="535"/>
+      <c r="E33" s="538"/>
+      <c r="F33" s="539"/>
+      <c r="G33" s="540"/>
+      <c r="H33" s="538"/>
+      <c r="I33" s="539"/>
+      <c r="J33" s="540"/>
+      <c r="K33" s="538"/>
+      <c r="L33" s="539"/>
+      <c r="M33" s="540"/>
       <c r="N33" s="5" t="s">
         <v>66</v>
       </c>
@@ -42232,15 +42598,15 @@
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="533"/>
-      <c r="F34" s="534"/>
-      <c r="G34" s="535"/>
-      <c r="H34" s="533"/>
-      <c r="I34" s="534"/>
-      <c r="J34" s="535"/>
-      <c r="K34" s="533"/>
-      <c r="L34" s="534"/>
-      <c r="M34" s="535"/>
+      <c r="E34" s="538"/>
+      <c r="F34" s="539"/>
+      <c r="G34" s="540"/>
+      <c r="H34" s="538"/>
+      <c r="I34" s="539"/>
+      <c r="J34" s="540"/>
+      <c r="K34" s="538"/>
+      <c r="L34" s="539"/>
+      <c r="M34" s="540"/>
       <c r="N34" s="5">
         <v>1000</v>
       </c>
@@ -42251,15 +42617,15 @@
     <row r="35" spans="1:22">
       <c r="C35" s="1"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="533"/>
-      <c r="F35" s="534"/>
-      <c r="G35" s="535"/>
-      <c r="H35" s="533"/>
-      <c r="I35" s="534"/>
-      <c r="J35" s="535"/>
-      <c r="K35" s="533"/>
-      <c r="L35" s="534"/>
-      <c r="M35" s="535"/>
+      <c r="E35" s="538"/>
+      <c r="F35" s="539"/>
+      <c r="G35" s="540"/>
+      <c r="H35" s="538"/>
+      <c r="I35" s="539"/>
+      <c r="J35" s="540"/>
+      <c r="K35" s="538"/>
+      <c r="L35" s="539"/>
+      <c r="M35" s="540"/>
       <c r="N35" s="5" t="s">
         <v>2</v>
       </c>
@@ -42390,15 +42756,15 @@
     <row r="42" spans="1:22" ht="19.5" thickBot="1">
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="526"/>
-      <c r="F42" s="527"/>
-      <c r="G42" s="527"/>
-      <c r="H42" s="527"/>
-      <c r="I42" s="527"/>
-      <c r="J42" s="527"/>
-      <c r="K42" s="527"/>
-      <c r="L42" s="527"/>
-      <c r="M42" s="528"/>
+      <c r="E42" s="531"/>
+      <c r="F42" s="532"/>
+      <c r="G42" s="532"/>
+      <c r="H42" s="532"/>
+      <c r="I42" s="532"/>
+      <c r="J42" s="532"/>
+      <c r="K42" s="532"/>
+      <c r="L42" s="532"/>
+      <c r="M42" s="533"/>
       <c r="N42" s="35" t="s">
         <v>364</v>
       </c>
@@ -42417,23 +42783,23 @@
       <c r="K43" s="5"/>
     </row>
     <row r="44" spans="1:22" ht="15.75" thickBot="1">
-      <c r="C44" s="440" t="s">
+      <c r="C44" s="443" t="s">
         <v>73</v>
       </c>
-      <c r="D44" s="441"/>
-      <c r="E44" s="440" t="s">
+      <c r="D44" s="444"/>
+      <c r="E44" s="443" t="s">
         <v>74</v>
       </c>
-      <c r="F44" s="449"/>
-      <c r="G44" s="441"/>
-      <c r="H44" s="440" t="s">
+      <c r="F44" s="452"/>
+      <c r="G44" s="444"/>
+      <c r="H44" s="443" t="s">
         <v>75</v>
       </c>
-      <c r="I44" s="449"/>
-      <c r="J44" s="449"/>
-      <c r="K44" s="449"/>
-      <c r="L44" s="449"/>
-      <c r="M44" s="441"/>
+      <c r="I44" s="452"/>
+      <c r="J44" s="452"/>
+      <c r="K44" s="452"/>
+      <c r="L44" s="452"/>
+      <c r="M44" s="444"/>
       <c r="Q44" t="s">
         <v>719</v>
       </c>
@@ -42453,61 +42819,61 @@
       </c>
     </row>
     <row r="47" spans="1:22" ht="21">
-      <c r="B47" s="536" t="s">
+      <c r="B47" s="541" t="s">
         <v>718</v>
       </c>
-      <c r="C47" s="536"/>
-      <c r="D47" s="536"/>
-      <c r="E47" s="536"/>
-      <c r="F47" s="536"/>
-      <c r="G47" s="536"/>
-      <c r="H47" s="536"/>
-      <c r="I47" s="536"/>
-      <c r="J47" s="536"/>
-      <c r="K47" s="536"/>
-      <c r="L47" s="536"/>
-      <c r="M47" s="536"/>
-      <c r="N47" s="536"/>
-      <c r="O47" s="536"/>
-      <c r="P47" s="536"/>
-      <c r="Q47" s="536"/>
-      <c r="R47" s="536"/>
-      <c r="S47" s="536"/>
-      <c r="T47" s="536"/>
-      <c r="U47" s="536"/>
-      <c r="V47" s="536"/>
+      <c r="C47" s="541"/>
+      <c r="D47" s="541"/>
+      <c r="E47" s="541"/>
+      <c r="F47" s="541"/>
+      <c r="G47" s="541"/>
+      <c r="H47" s="541"/>
+      <c r="I47" s="541"/>
+      <c r="J47" s="541"/>
+      <c r="K47" s="541"/>
+      <c r="L47" s="541"/>
+      <c r="M47" s="541"/>
+      <c r="N47" s="541"/>
+      <c r="O47" s="541"/>
+      <c r="P47" s="541"/>
+      <c r="Q47" s="541"/>
+      <c r="R47" s="541"/>
+      <c r="S47" s="541"/>
+      <c r="T47" s="541"/>
+      <c r="U47" s="541"/>
+      <c r="V47" s="541"/>
     </row>
     <row r="48" spans="1:22" ht="15.75" thickBot="1">
-      <c r="C48" s="537" t="s">
+      <c r="C48" s="542" t="s">
         <v>359</v>
       </c>
-      <c r="D48" s="537"/>
-      <c r="E48" s="537"/>
-      <c r="F48" s="537"/>
-      <c r="G48" s="537"/>
-      <c r="H48" s="537"/>
-      <c r="I48" s="537"/>
-      <c r="J48" s="537"/>
-      <c r="K48" s="537"/>
-      <c r="L48" s="537"/>
-      <c r="M48" s="537"/>
+      <c r="D48" s="542"/>
+      <c r="E48" s="542"/>
+      <c r="F48" s="542"/>
+      <c r="G48" s="542"/>
+      <c r="H48" s="542"/>
+      <c r="I48" s="542"/>
+      <c r="J48" s="542"/>
+      <c r="K48" s="542"/>
+      <c r="L48" s="542"/>
+      <c r="M48" s="542"/>
       <c r="S48" s="24"/>
       <c r="T48" s="24"/>
     </row>
     <row r="49" spans="1:24" ht="15.75" thickBot="1">
       <c r="C49" s="1"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="538" t="s">
+      <c r="E49" s="543" t="s">
         <v>57</v>
       </c>
-      <c r="F49" s="539"/>
-      <c r="G49" s="539"/>
-      <c r="H49" s="443"/>
-      <c r="I49" s="443"/>
-      <c r="J49" s="443"/>
-      <c r="K49" s="443"/>
-      <c r="L49" s="443"/>
-      <c r="M49" s="444"/>
+      <c r="F49" s="544"/>
+      <c r="G49" s="544"/>
+      <c r="H49" s="446"/>
+      <c r="I49" s="446"/>
+      <c r="J49" s="446"/>
+      <c r="K49" s="446"/>
+      <c r="L49" s="446"/>
+      <c r="M49" s="447"/>
       <c r="S49" s="24"/>
       <c r="T49" s="24"/>
       <c r="U49" s="18"/>
@@ -42527,16 +42893,16 @@
       <c r="G50" s="177" t="s">
         <v>1205</v>
       </c>
-      <c r="H50" s="542" t="s">
+      <c r="H50" s="547" t="s">
         <v>721</v>
       </c>
-      <c r="I50" s="543"/>
-      <c r="J50" s="544"/>
-      <c r="K50" s="542" t="s">
+      <c r="I50" s="548"/>
+      <c r="J50" s="549"/>
+      <c r="K50" s="547" t="s">
         <v>722</v>
       </c>
-      <c r="L50" s="543"/>
-      <c r="M50" s="544"/>
+      <c r="L50" s="548"/>
+      <c r="M50" s="549"/>
       <c r="S50" s="24"/>
       <c r="T50" s="24"/>
       <c r="W50" t="s">
@@ -42550,20 +42916,20 @@
         <v>736</v>
       </c>
       <c r="F51" s="218"/>
-      <c r="G51" s="545" t="s">
+      <c r="G51" s="550" t="s">
         <v>744</v>
       </c>
-      <c r="H51" s="533"/>
-      <c r="I51" s="534"/>
-      <c r="J51" s="535"/>
-      <c r="K51" s="533"/>
-      <c r="L51" s="534"/>
-      <c r="M51" s="535"/>
-      <c r="O51" s="540" t="s">
+      <c r="H51" s="538"/>
+      <c r="I51" s="539"/>
+      <c r="J51" s="540"/>
+      <c r="K51" s="538"/>
+      <c r="L51" s="539"/>
+      <c r="M51" s="540"/>
+      <c r="O51" s="545" t="s">
         <v>58</v>
       </c>
-      <c r="P51" s="540"/>
-      <c r="Q51" s="540"/>
+      <c r="P51" s="545"/>
+      <c r="Q51" s="545"/>
       <c r="S51" s="205"/>
       <c r="T51" s="205"/>
       <c r="W51" s="35" t="s">
@@ -42577,13 +42943,13 @@
         <v>737</v>
       </c>
       <c r="F52" s="219"/>
-      <c r="G52" s="545"/>
-      <c r="H52" s="533"/>
-      <c r="I52" s="534"/>
-      <c r="J52" s="535"/>
-      <c r="K52" s="533"/>
-      <c r="L52" s="534"/>
-      <c r="M52" s="535"/>
+      <c r="G52" s="550"/>
+      <c r="H52" s="538"/>
+      <c r="I52" s="539"/>
+      <c r="J52" s="540"/>
+      <c r="K52" s="538"/>
+      <c r="L52" s="539"/>
+      <c r="M52" s="540"/>
       <c r="S52" s="24"/>
       <c r="T52" s="24"/>
     </row>
@@ -42594,13 +42960,13 @@
         <v>738</v>
       </c>
       <c r="F53" s="220"/>
-      <c r="G53" s="545"/>
-      <c r="H53" s="533"/>
-      <c r="I53" s="534"/>
-      <c r="J53" s="535"/>
-      <c r="K53" s="533"/>
-      <c r="L53" s="534"/>
-      <c r="M53" s="535"/>
+      <c r="G53" s="550"/>
+      <c r="H53" s="538"/>
+      <c r="I53" s="539"/>
+      <c r="J53" s="540"/>
+      <c r="K53" s="538"/>
+      <c r="L53" s="539"/>
+      <c r="M53" s="540"/>
       <c r="N53" s="5"/>
       <c r="O53" s="33" t="s">
         <v>61</v>
@@ -42639,7 +43005,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="206"/>
       <c r="F54" s="221"/>
-      <c r="G54" s="531" t="s">
+      <c r="G54" s="536" t="s">
         <v>748</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -42686,11 +43052,11 @@
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="529" t="s">
+      <c r="E55" s="534" t="s">
         <v>749</v>
       </c>
-      <c r="F55" s="530"/>
-      <c r="G55" s="532"/>
+      <c r="F55" s="535"/>
+      <c r="G55" s="537"/>
       <c r="H55" s="113" t="s">
         <v>740</v>
       </c>
@@ -42734,9 +43100,9 @@
     <row r="56" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="C56" s="8"/>
       <c r="D56" s="9"/>
-      <c r="E56" s="529"/>
-      <c r="F56" s="530"/>
-      <c r="G56" s="532"/>
+      <c r="E56" s="534"/>
+      <c r="F56" s="535"/>
+      <c r="G56" s="537"/>
       <c r="H56" s="113" t="s">
         <v>741</v>
       </c>
@@ -42766,9 +43132,9 @@
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="529"/>
-      <c r="F57" s="530"/>
-      <c r="G57" s="532"/>
+      <c r="E57" s="534"/>
+      <c r="F57" s="535"/>
+      <c r="G57" s="537"/>
       <c r="H57" s="4" t="s">
         <v>753</v>
       </c>
@@ -42798,9 +43164,9 @@
         <v>71</v>
       </c>
       <c r="D58" s="6"/>
-      <c r="E58" s="529"/>
-      <c r="F58" s="530"/>
-      <c r="G58" s="532"/>
+      <c r="E58" s="534"/>
+      <c r="F58" s="535"/>
+      <c r="G58" s="537"/>
       <c r="H58" s="210" t="s">
         <v>739</v>
       </c>
@@ -42825,9 +43191,9 @@
     <row r="59" spans="1:24">
       <c r="C59" s="4"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="529"/>
-      <c r="F59" s="530"/>
-      <c r="G59" s="532"/>
+      <c r="E59" s="534"/>
+      <c r="F59" s="535"/>
+      <c r="G59" s="537"/>
       <c r="H59" s="210" t="s">
         <v>353</v>
       </c>
@@ -42852,9 +43218,9 @@
     <row r="60" spans="1:24" ht="15.75" thickBot="1">
       <c r="C60" s="8"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="529"/>
-      <c r="F60" s="530"/>
-      <c r="G60" s="532"/>
+      <c r="E60" s="534"/>
+      <c r="F60" s="535"/>
+      <c r="G60" s="537"/>
       <c r="H60" s="212"/>
       <c r="I60" s="213" t="s">
         <v>755</v>
@@ -42874,9 +43240,9 @@
     <row r="61" spans="1:24">
       <c r="C61" s="4"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="529"/>
-      <c r="F61" s="530"/>
-      <c r="G61" s="532"/>
+      <c r="E61" s="534"/>
+      <c r="F61" s="535"/>
+      <c r="G61" s="537"/>
       <c r="H61" s="212"/>
       <c r="I61" s="213" t="s">
         <v>756</v>
@@ -42896,7 +43262,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="201"/>
       <c r="F62" s="217"/>
-      <c r="G62" s="532"/>
+      <c r="G62" s="537"/>
       <c r="H62" s="214"/>
       <c r="I62" s="216" t="s">
         <v>757</v>
@@ -42938,17 +43304,17 @@
     <row r="64" spans="1:24" ht="19.5" thickBot="1">
       <c r="C64" s="8"/>
       <c r="D64" s="9"/>
-      <c r="E64" s="526" t="s">
+      <c r="E64" s="531" t="s">
         <v>1206</v>
       </c>
-      <c r="F64" s="527"/>
-      <c r="G64" s="527"/>
-      <c r="H64" s="527"/>
-      <c r="I64" s="527"/>
-      <c r="J64" s="527"/>
-      <c r="K64" s="527"/>
-      <c r="L64" s="527"/>
-      <c r="M64" s="528"/>
+      <c r="F64" s="532"/>
+      <c r="G64" s="532"/>
+      <c r="H64" s="532"/>
+      <c r="I64" s="532"/>
+      <c r="J64" s="532"/>
+      <c r="K64" s="532"/>
+      <c r="L64" s="532"/>
+      <c r="M64" s="533"/>
       <c r="N64" s="35" t="s">
         <v>364</v>
       </c>
@@ -42977,23 +43343,23 @@
       </c>
     </row>
     <row r="66" spans="2:24" ht="15.75" thickBot="1">
-      <c r="C66" s="440" t="s">
+      <c r="C66" s="443" t="s">
         <v>73</v>
       </c>
-      <c r="D66" s="441"/>
-      <c r="E66" s="440" t="s">
+      <c r="D66" s="444"/>
+      <c r="E66" s="443" t="s">
         <v>74</v>
       </c>
-      <c r="F66" s="449"/>
-      <c r="G66" s="441"/>
-      <c r="H66" s="440" t="s">
+      <c r="F66" s="452"/>
+      <c r="G66" s="444"/>
+      <c r="H66" s="443" t="s">
         <v>75</v>
       </c>
-      <c r="I66" s="449"/>
-      <c r="J66" s="449"/>
-      <c r="K66" s="449"/>
-      <c r="L66" s="449"/>
-      <c r="M66" s="441"/>
+      <c r="I66" s="452"/>
+      <c r="J66" s="452"/>
+      <c r="K66" s="452"/>
+      <c r="L66" s="452"/>
+      <c r="M66" s="444"/>
       <c r="Q66" t="s">
         <v>719</v>
       </c>
@@ -43014,23 +43380,23 @@
       </c>
     </row>
     <row r="68" spans="2:24">
-      <c r="C68" s="511" t="s">
+      <c r="C68" s="514" t="s">
         <v>60</v>
       </c>
-      <c r="D68" s="511"/>
-      <c r="E68" s="511" t="s">
+      <c r="D68" s="514"/>
+      <c r="E68" s="514" t="s">
         <v>911</v>
       </c>
-      <c r="F68" s="511"/>
-      <c r="G68" s="511"/>
-      <c r="H68" s="511" t="s">
+      <c r="F68" s="514"/>
+      <c r="G68" s="514"/>
+      <c r="H68" s="514" t="s">
         <v>927</v>
       </c>
-      <c r="I68" s="511"/>
-      <c r="J68" s="511"/>
-      <c r="K68" s="511"/>
-      <c r="L68" s="511"/>
-      <c r="M68" s="511"/>
+      <c r="I68" s="514"/>
+      <c r="J68" s="514"/>
+      <c r="K68" s="514"/>
+      <c r="L68" s="514"/>
+      <c r="M68" s="514"/>
       <c r="S68" s="24"/>
       <c r="T68" s="24"/>
       <c r="U68" s="2" t="s">
@@ -44044,8 +44410,347 @@
         <v>765</v>
       </c>
     </row>
+    <row r="231" spans="2:17">
+      <c r="H231" t="s">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="232" spans="2:17">
+      <c r="H232" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="233" spans="2:17">
+      <c r="H233" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="234" spans="2:17" ht="15.75" thickBot="1">
+      <c r="H234" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="235" spans="2:17" ht="15.75" thickBot="1">
+      <c r="B235" t="s">
+        <v>2230</v>
+      </c>
+      <c r="H235" s="1" t="s">
+        <v>2231</v>
+      </c>
+      <c r="I235" s="3"/>
+      <c r="J235" s="1" t="s">
+        <v>2235</v>
+      </c>
+      <c r="K235" s="2"/>
+      <c r="L235" s="3"/>
+      <c r="M235" s="1" t="s">
+        <v>2242</v>
+      </c>
+      <c r="N235" s="3"/>
+    </row>
+    <row r="236" spans="2:17">
+      <c r="B236" s="1"/>
+      <c r="C236" s="3"/>
+      <c r="H236" s="4"/>
+      <c r="I236" s="6"/>
+      <c r="J236" s="4"/>
+      <c r="K236" s="5"/>
+      <c r="L236" s="6"/>
+      <c r="M236" s="4"/>
+      <c r="N236" s="6"/>
+      <c r="P236" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="2:17" ht="15.75" thickBot="1">
+      <c r="B237" s="4"/>
+      <c r="C237" s="6"/>
+      <c r="H237" s="4"/>
+      <c r="I237" s="6"/>
+      <c r="J237" s="4"/>
+      <c r="K237" s="5"/>
+      <c r="L237" s="6"/>
+      <c r="M237" s="4"/>
+      <c r="N237" s="6"/>
+      <c r="P237" t="s">
+        <v>2243</v>
+      </c>
+      <c r="Q237" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="238" spans="2:17" ht="15.75" thickBot="1">
+      <c r="B238" s="11" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C238" s="6"/>
+      <c r="H238" s="4" t="s">
+        <v>2236</v>
+      </c>
+      <c r="I238" s="6"/>
+      <c r="J238" s="4" t="s">
+        <v>909</v>
+      </c>
+      <c r="K238" s="5"/>
+      <c r="L238" s="6"/>
+      <c r="M238" s="4"/>
+      <c r="N238" s="6"/>
+      <c r="P238" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q238" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="239" spans="2:17">
+      <c r="B239" s="4" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C239" s="6" t="s">
+        <v>2233</v>
+      </c>
+      <c r="H239" s="4" t="s">
+        <v>2237</v>
+      </c>
+      <c r="I239" s="6"/>
+      <c r="J239" s="4" t="s">
+        <v>2232</v>
+      </c>
+      <c r="K239" s="5"/>
+      <c r="L239" s="6"/>
+      <c r="M239" s="4"/>
+      <c r="N239" s="6"/>
+      <c r="O239" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="2:17" ht="15.75" thickBot="1">
+      <c r="B240" s="8"/>
+      <c r="C240" s="9" t="s">
+        <v>2241</v>
+      </c>
+      <c r="H240" s="4" t="s">
+        <v>2238</v>
+      </c>
+      <c r="I240" s="6"/>
+      <c r="J240" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="K240" s="5"/>
+      <c r="L240" s="6"/>
+      <c r="M240" s="4"/>
+      <c r="N240" s="6"/>
+      <c r="P240" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="241" spans="2:18">
+      <c r="H241" s="4"/>
+      <c r="I241" s="6"/>
+      <c r="J241" s="4"/>
+      <c r="K241" s="5"/>
+      <c r="L241" s="6"/>
+      <c r="M241" s="4"/>
+      <c r="N241" s="6"/>
+      <c r="P241" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q241" t="s">
+        <v>169</v>
+      </c>
+      <c r="R241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="2:18">
+      <c r="H242" s="4"/>
+      <c r="I242" s="6"/>
+      <c r="J242" s="4" t="s">
+        <v>2234</v>
+      </c>
+      <c r="K242" s="5"/>
+      <c r="L242" s="6"/>
+      <c r="M242" s="4"/>
+      <c r="N242" s="6"/>
+    </row>
+    <row r="243" spans="2:18">
+      <c r="H243" s="4"/>
+      <c r="I243" s="6"/>
+      <c r="J243" s="4"/>
+      <c r="K243" s="5"/>
+      <c r="L243" s="6"/>
+      <c r="M243" s="4"/>
+      <c r="N243" s="6"/>
+      <c r="P243" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="244" spans="2:18" ht="15.75" thickBot="1">
+      <c r="H244" s="8"/>
+      <c r="I244" s="9"/>
+      <c r="J244" s="8"/>
+      <c r="K244" s="10"/>
+      <c r="L244" s="9"/>
+      <c r="M244" s="8"/>
+      <c r="N244" s="9"/>
+      <c r="P244" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q244">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="245" spans="2:18">
+      <c r="B245" s="495" t="s">
+        <v>2264</v>
+      </c>
+      <c r="C245" s="495"/>
+      <c r="H245" s="529" t="s">
+        <v>2265</v>
+      </c>
+      <c r="I245" s="529"/>
+      <c r="J245" s="529"/>
+      <c r="K245" s="529"/>
+      <c r="L245" s="529"/>
+      <c r="M245" s="529" t="s">
+        <v>2242</v>
+      </c>
+      <c r="N245" s="529"/>
+      <c r="P245" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q245">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="246" spans="2:18">
+      <c r="B246" s="530" t="s">
+        <v>2266</v>
+      </c>
+      <c r="C246" s="530"/>
+      <c r="D246" s="530"/>
+      <c r="E246" s="530"/>
+      <c r="F246" s="530"/>
+      <c r="G246" s="530"/>
+      <c r="H246" s="530"/>
+      <c r="I246" s="530"/>
+      <c r="J246" s="530"/>
+      <c r="K246" s="530"/>
+      <c r="L246" s="530"/>
+      <c r="M246" s="530"/>
+      <c r="N246" s="530"/>
+    </row>
+    <row r="247" spans="2:18">
+      <c r="E247" t="s">
+        <v>2244</v>
+      </c>
+      <c r="F247" t="s">
+        <v>2244</v>
+      </c>
+      <c r="G247" t="s">
+        <v>2245</v>
+      </c>
+      <c r="H247" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="248" spans="2:18">
+      <c r="E248" t="s">
+        <v>711</v>
+      </c>
+      <c r="F248" t="s">
+        <v>711</v>
+      </c>
+      <c r="G248" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="249" spans="2:18">
+      <c r="E249" s="490" t="s">
+        <v>2250</v>
+      </c>
+      <c r="F249" t="s">
+        <v>1597</v>
+      </c>
+      <c r="G249" t="s">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="250" spans="2:18">
+      <c r="E250" s="490"/>
+      <c r="F250" t="s">
+        <v>333</v>
+      </c>
+      <c r="G250" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="252" spans="2:18">
+      <c r="E252" t="s">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="257" spans="2:6">
+      <c r="C257" t="s">
+        <v>2252</v>
+      </c>
+      <c r="D257" t="s">
+        <v>923</v>
+      </c>
+      <c r="E257" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F257" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="259" spans="2:6">
+      <c r="B259" t="s">
+        <v>2252</v>
+      </c>
+      <c r="C259" t="s">
+        <v>2253</v>
+      </c>
+      <c r="F259" t="s">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="261" spans="2:6">
+      <c r="B261" t="s">
+        <v>2255</v>
+      </c>
+      <c r="D261" t="s">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="263" spans="2:6">
+      <c r="B263" t="s">
+        <v>2257</v>
+      </c>
+      <c r="D263" t="s">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="264" spans="2:6">
+      <c r="D264" t="s">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="266" spans="2:6">
+      <c r="B266" t="s">
+        <v>2260</v>
+      </c>
+      <c r="E266" t="s">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="268" spans="2:6">
+      <c r="B268" t="s">
+        <v>2262</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="45">
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="E68:G68"/>
     <mergeCell ref="H68:M68"/>
@@ -44086,6 +44791,11 @@
     <mergeCell ref="H66:M66"/>
     <mergeCell ref="E55:F61"/>
     <mergeCell ref="G54:G62"/>
+    <mergeCell ref="E249:E250"/>
+    <mergeCell ref="B245:C245"/>
+    <mergeCell ref="H245:L245"/>
+    <mergeCell ref="M245:N245"/>
+    <mergeCell ref="B246:N246"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="T9" r:id="rId1"/>
@@ -44109,7 +44819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R74"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D10" sqref="D10:F11"/>
     </sheetView>
   </sheetViews>
@@ -44119,12 +44829,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="B1" s="562" t="s">
+      <c r="B1" s="567" t="s">
         <v>343</v>
       </c>
-      <c r="C1" s="562"/>
-      <c r="D1" s="562"/>
-      <c r="E1" s="562"/>
+      <c r="C1" s="567"/>
+      <c r="D1" s="567"/>
+      <c r="E1" s="567"/>
       <c r="I1" s="262" t="s">
         <v>1237</v>
       </c>
@@ -44275,10 +44985,10 @@
       <c r="L7" s="260"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="B8" s="506"/>
-      <c r="C8" s="506"/>
-      <c r="D8" s="506"/>
-      <c r="E8" s="506"/>
+      <c r="B8" s="509"/>
+      <c r="C8" s="509"/>
+      <c r="D8" s="509"/>
+      <c r="E8" s="509"/>
       <c r="G8" t="s">
         <v>1245</v>
       </c>
@@ -44454,11 +45164,11 @@
       </c>
     </row>
     <row r="25" spans="1:18">
-      <c r="B25" s="563" t="s">
+      <c r="B25" s="568" t="s">
         <v>1235</v>
       </c>
-      <c r="C25" s="564"/>
-      <c r="D25" s="564"/>
+      <c r="C25" s="529"/>
+      <c r="D25" s="529"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -44937,36 +45647,36 @@
       </c>
     </row>
     <row r="63" spans="2:17">
-      <c r="C63" s="511" t="s">
+      <c r="C63" s="514" t="s">
         <v>1811</v>
       </c>
-      <c r="D63" s="511"/>
-      <c r="E63" s="511"/>
-      <c r="F63" s="511"/>
-      <c r="G63" s="511"/>
-      <c r="H63" s="511"/>
-      <c r="I63" s="511"/>
+      <c r="D63" s="514"/>
+      <c r="E63" s="514"/>
+      <c r="F63" s="514"/>
+      <c r="G63" s="514"/>
+      <c r="H63" s="514"/>
+      <c r="I63" s="514"/>
       <c r="K63" t="s">
         <v>1818</v>
       </c>
     </row>
     <row r="64" spans="2:17">
-      <c r="C64" s="511"/>
-      <c r="D64" s="511"/>
-      <c r="E64" s="511"/>
-      <c r="F64" s="511"/>
-      <c r="G64" s="511"/>
-      <c r="H64" s="511"/>
-      <c r="I64" s="511"/>
+      <c r="C64" s="514"/>
+      <c r="D64" s="514"/>
+      <c r="E64" s="514"/>
+      <c r="F64" s="514"/>
+      <c r="G64" s="514"/>
+      <c r="H64" s="514"/>
+      <c r="I64" s="514"/>
     </row>
     <row r="65" spans="1:12">
-      <c r="C65" s="511"/>
-      <c r="D65" s="511"/>
-      <c r="E65" s="511"/>
-      <c r="F65" s="511"/>
-      <c r="G65" s="511"/>
-      <c r="H65" s="511"/>
-      <c r="I65" s="511"/>
+      <c r="C65" s="514"/>
+      <c r="D65" s="514"/>
+      <c r="E65" s="514"/>
+      <c r="F65" s="514"/>
+      <c r="G65" s="514"/>
+      <c r="H65" s="514"/>
+      <c r="I65" s="514"/>
       <c r="J65" t="s">
         <v>1816</v>
       </c>
@@ -44980,24 +45690,24 @@
       </c>
     </row>
     <row r="67" spans="1:12">
-      <c r="C67" s="511" t="s">
+      <c r="C67" s="514" t="s">
         <v>1227</v>
       </c>
-      <c r="D67" s="511"/>
-      <c r="E67" s="511"/>
-      <c r="F67" s="511"/>
-      <c r="G67" s="511"/>
-      <c r="H67" s="511"/>
-      <c r="I67" s="511"/>
+      <c r="D67" s="514"/>
+      <c r="E67" s="514"/>
+      <c r="F67" s="514"/>
+      <c r="G67" s="514"/>
+      <c r="H67" s="514"/>
+      <c r="I67" s="514"/>
     </row>
     <row r="68" spans="1:12">
-      <c r="C68" s="511"/>
-      <c r="D68" s="511"/>
-      <c r="E68" s="511"/>
-      <c r="F68" s="511"/>
-      <c r="G68" s="511"/>
-      <c r="H68" s="511"/>
-      <c r="I68" s="511"/>
+      <c r="C68" s="514"/>
+      <c r="D68" s="514"/>
+      <c r="E68" s="514"/>
+      <c r="F68" s="514"/>
+      <c r="G68" s="514"/>
+      <c r="H68" s="514"/>
+      <c r="I68" s="514"/>
       <c r="J68" t="s">
         <v>1815</v>
       </c>
@@ -45014,24 +45724,24 @@
       </c>
     </row>
     <row r="70" spans="1:12">
-      <c r="C70" s="511" t="s">
+      <c r="C70" s="514" t="s">
         <v>278</v>
       </c>
-      <c r="D70" s="511"/>
-      <c r="E70" s="511"/>
-      <c r="F70" s="511"/>
-      <c r="G70" s="511"/>
-      <c r="H70" s="511"/>
-      <c r="I70" s="511"/>
+      <c r="D70" s="514"/>
+      <c r="E70" s="514"/>
+      <c r="F70" s="514"/>
+      <c r="G70" s="514"/>
+      <c r="H70" s="514"/>
+      <c r="I70" s="514"/>
     </row>
     <row r="71" spans="1:12">
-      <c r="C71" s="511"/>
-      <c r="D71" s="511"/>
-      <c r="E71" s="511"/>
-      <c r="F71" s="511"/>
-      <c r="G71" s="511"/>
-      <c r="H71" s="511"/>
-      <c r="I71" s="511"/>
+      <c r="C71" s="514"/>
+      <c r="D71" s="514"/>
+      <c r="E71" s="514"/>
+      <c r="F71" s="514"/>
+      <c r="G71" s="514"/>
+      <c r="H71" s="514"/>
+      <c r="I71" s="514"/>
       <c r="J71" t="s">
         <v>1812</v>
       </c>
@@ -45096,92 +45806,99 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:R104"/>
+  <dimension ref="A2:S104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D15"/>
+      <selection activeCell="C2" sqref="C2:Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="6" max="7" width="15.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1">
-      <c r="C2" s="537" t="s">
+    <row r="2" spans="1:19" ht="15.75" thickBot="1">
+      <c r="C2" s="542" t="s">
         <v>359</v>
       </c>
-      <c r="D2" s="537"/>
-      <c r="E2" s="537"/>
-      <c r="F2" s="537"/>
-      <c r="G2" s="537"/>
-      <c r="H2" s="537"/>
-      <c r="I2" s="537"/>
-      <c r="J2" s="537"/>
-      <c r="K2" s="537"/>
-      <c r="L2" s="537"/>
-      <c r="N2" t="s">
+      <c r="D2" s="542"/>
+      <c r="E2" s="542"/>
+      <c r="F2" s="542"/>
+      <c r="G2" s="542"/>
+      <c r="H2" s="542"/>
+      <c r="I2" s="542"/>
+      <c r="J2" s="542"/>
+      <c r="K2" s="542"/>
+      <c r="L2" s="542"/>
+      <c r="M2" s="542"/>
+      <c r="O2" t="s">
         <v>1825</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1">
+    <row r="3" spans="1:19" ht="15.75" thickBot="1">
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="538" t="s">
+      <c r="E3" s="543" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="539"/>
-      <c r="G3" s="443"/>
-      <c r="H3" s="443"/>
-      <c r="I3" s="443"/>
-      <c r="J3" s="443"/>
-      <c r="K3" s="443"/>
-      <c r="L3" s="444"/>
-      <c r="P3" t="s">
+      <c r="F3" s="544"/>
+      <c r="G3" s="446"/>
+      <c r="H3" s="446"/>
+      <c r="I3" s="446"/>
+      <c r="J3" s="446"/>
+      <c r="K3" s="446"/>
+      <c r="L3" s="446"/>
+      <c r="M3" s="447"/>
+      <c r="Q3" t="s">
         <v>1826</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="C4" s="4" t="s">
         <v>1207</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="1"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="3"/>
-      <c r="P4" t="s">
+      <c r="G4" s="2"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="3"/>
+      <c r="Q4" t="s">
         <v>1824</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>1827</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15.75" thickBot="1">
+    <row r="5" spans="1:19" ht="15.75" thickBot="1">
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
       <c r="E5" s="4" t="s">
         <v>155</v>
       </c>
       <c r="F5" s="6"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="5" t="s">
+      <c r="G5" s="5"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="L5" s="6"/>
-      <c r="N5" s="540" t="s">
+      <c r="M5" s="6"/>
+      <c r="O5" s="545" t="s">
         <v>58</v>
       </c>
-      <c r="O5" s="540"/>
-      <c r="P5" s="540"/>
-    </row>
-    <row r="6" spans="1:18" ht="15.75" thickBot="1">
+      <c r="P5" s="545"/>
+      <c r="Q5" s="545"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" thickBot="1">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="6"/>
@@ -45189,149 +45906,160 @@
         <v>367</v>
       </c>
       <c r="F6" s="6"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="5" t="s">
+      <c r="G6" s="5"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="5" t="s">
+      <c r="J6" s="6"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="L6" s="6"/>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="M6" s="6"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" t="s">
+        <v>172</v>
+      </c>
       <c r="C7" s="1"/>
       <c r="D7" s="3"/>
       <c r="E7" s="106" t="s">
         <v>366</v>
       </c>
       <c r="F7" s="58"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="24" t="s">
+      <c r="G7" s="24"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="24" t="s">
         <v>371</v>
       </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="33" t="s">
+      <c r="M7" s="6"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="O7" s="33" t="s">
+      <c r="P7" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="P7" s="33" t="s">
+      <c r="Q7" s="33" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15" customHeight="1">
+    <row r="8" spans="1:19" ht="15" customHeight="1">
       <c r="A8" s="52" t="s">
-        <v>902</v>
+        <v>152</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="533" t="s">
-        <v>360</v>
-      </c>
-      <c r="F8" s="535"/>
-      <c r="G8" s="533" t="s">
+      <c r="E8" s="575" t="s">
+        <v>2267</v>
+      </c>
+      <c r="F8" s="540"/>
+      <c r="G8" s="582" t="s">
+        <v>2268</v>
+      </c>
+      <c r="H8" s="538" t="s">
         <v>361</v>
       </c>
-      <c r="H8" s="534"/>
-      <c r="I8" s="535"/>
-      <c r="J8" s="533" t="s">
+      <c r="I8" s="539"/>
+      <c r="J8" s="540"/>
+      <c r="K8" s="538" t="s">
         <v>362</v>
       </c>
-      <c r="K8" s="534"/>
-      <c r="L8" s="535"/>
-      <c r="M8" s="5" t="s">
+      <c r="L8" s="539"/>
+      <c r="M8" s="540"/>
+      <c r="N8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="N8" s="33" t="s">
+      <c r="O8" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="O8" s="46" t="s">
+      <c r="P8" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="P8" s="46" t="s">
+      <c r="Q8" s="46" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="15" customHeight="1">
+    <row r="9" spans="1:19" ht="15" customHeight="1">
       <c r="B9" t="s">
         <v>307</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="533"/>
-      <c r="F9" s="535"/>
-      <c r="G9" s="533"/>
-      <c r="H9" s="534"/>
-      <c r="I9" s="535"/>
-      <c r="J9" s="533"/>
-      <c r="K9" s="534"/>
-      <c r="L9" s="535"/>
-      <c r="M9" s="5" t="s">
+      <c r="E9" s="538"/>
+      <c r="F9" s="540"/>
+      <c r="G9" s="582"/>
+      <c r="H9" s="538"/>
+      <c r="I9" s="539"/>
+      <c r="J9" s="540"/>
+      <c r="K9" s="538"/>
+      <c r="L9" s="539"/>
+      <c r="M9" s="540"/>
+      <c r="N9" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="N9" s="33" t="s">
+      <c r="O9" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="O9" s="33" t="s">
+      <c r="P9" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="P9" s="46" t="s">
+      <c r="Q9" s="46" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
+    <row r="10" spans="1:19" ht="15.75" customHeight="1" thickBot="1">
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="533"/>
-      <c r="F10" s="535"/>
-      <c r="G10" s="533"/>
-      <c r="H10" s="534"/>
-      <c r="I10" s="535"/>
-      <c r="J10" s="533"/>
-      <c r="K10" s="534"/>
-      <c r="L10" s="535"/>
-      <c r="M10" s="5">
+      <c r="E10" s="538"/>
+      <c r="F10" s="540"/>
+      <c r="G10" s="582"/>
+      <c r="H10" s="538"/>
+      <c r="I10" s="539"/>
+      <c r="J10" s="540"/>
+      <c r="K10" s="538"/>
+      <c r="L10" s="539"/>
+      <c r="M10" s="540"/>
+      <c r="N10" s="5">
         <v>1000</v>
       </c>
-      <c r="N10" s="33"/>
-      <c r="O10" s="46"/>
+      <c r="O10" s="33"/>
       <c r="P10" s="46"/>
-    </row>
-    <row r="11" spans="1:18" ht="15" customHeight="1">
+      <c r="Q10" s="46"/>
+    </row>
+    <row r="11" spans="1:19" ht="15" customHeight="1">
       <c r="A11" t="s">
         <v>1295</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="533"/>
-      <c r="F11" s="535"/>
-      <c r="G11" s="533"/>
-      <c r="H11" s="534"/>
-      <c r="I11" s="535"/>
-      <c r="J11" s="533"/>
-      <c r="K11" s="534"/>
-      <c r="L11" s="535"/>
-      <c r="M11" s="5" t="s">
+      <c r="E11" s="538"/>
+      <c r="F11" s="540"/>
+      <c r="G11" s="582"/>
+      <c r="H11" s="538"/>
+      <c r="I11" s="539"/>
+      <c r="J11" s="540"/>
+      <c r="K11" s="538"/>
+      <c r="L11" s="539"/>
+      <c r="M11" s="540"/>
+      <c r="N11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="N11" s="33" t="s">
+      <c r="O11" s="33" t="s">
         <v>1249</v>
       </c>
-      <c r="O11" s="33" t="s">
+      <c r="P11" s="33" t="s">
         <v>1823</v>
       </c>
-      <c r="P11" s="33"/>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="Q11" s="33"/>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
         <v>1296</v>
       </c>
@@ -45343,22 +46071,25 @@
         <v>1821</v>
       </c>
       <c r="F12" s="58"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="24" t="s">
+      <c r="G12" s="24"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="24" t="s">
         <v>1822</v>
       </c>
-      <c r="I12" s="58"/>
-      <c r="J12" s="106"/>
-      <c r="K12" s="24" t="s">
+      <c r="J12" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="K12" s="106"/>
+      <c r="L12" s="24" t="s">
         <v>374</v>
       </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="33"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="5"/>
       <c r="O12" s="33"/>
       <c r="P12" s="33"/>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="Q12" s="33"/>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" t="s">
         <v>1297</v>
       </c>
@@ -45366,18 +46097,25 @@
       <c r="D13" s="6"/>
       <c r="E13" s="106"/>
       <c r="F13" s="58"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="106"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="33"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="106" t="s">
+        <v>149</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>2269</v>
+      </c>
+      <c r="J13" s="58" t="s">
+        <v>496</v>
+      </c>
+      <c r="K13" s="106"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="5"/>
       <c r="O13" s="33"/>
       <c r="P13" s="33"/>
-    </row>
-    <row r="14" spans="1:18" ht="15.75" thickBot="1">
+      <c r="Q13" s="33"/>
+    </row>
+    <row r="14" spans="1:19" ht="15.75" thickBot="1">
       <c r="A14" t="s">
         <v>1298</v>
       </c>
@@ -45387,40 +46125,54 @@
         <v>375</v>
       </c>
       <c r="F14" s="6"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="24" t="s">
+      <c r="G14" s="5"/>
+      <c r="H14" s="4" t="s">
+        <v>2270</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="K14" s="4"/>
+      <c r="L14" s="24" t="s">
         <v>278</v>
       </c>
-      <c r="L14" s="6"/>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="M14" s="6"/>
+      <c r="O14" t="s">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="C15" s="4"/>
       <c r="D15" s="6"/>
       <c r="E15" s="114" t="s">
         <v>376</v>
       </c>
       <c r="F15" s="6"/>
-      <c r="G15" s="114" t="s">
+      <c r="G15" s="5"/>
+      <c r="H15" s="114" t="s">
         <v>376</v>
       </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="24" t="s">
+      <c r="I15" s="5"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="24" t="s">
         <v>938</v>
       </c>
-      <c r="L15" s="6"/>
-      <c r="P15" t="s">
+      <c r="M15" s="6"/>
+      <c r="O15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q15" t="s">
         <v>1154</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="15.75" thickBot="1">
+    <row r="16" spans="1:19" ht="15.75" thickBot="1">
       <c r="C16" s="4" t="s">
         <v>72</v>
       </c>
@@ -45429,133 +46181,152 @@
         <v>377</v>
       </c>
       <c r="F16" s="6"/>
-      <c r="G16" s="115" t="s">
+      <c r="G16" s="5"/>
+      <c r="H16" s="115" t="s">
         <v>378</v>
       </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="24" t="s">
+      <c r="I16" s="5"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="24" t="s">
         <v>939</v>
       </c>
-      <c r="L16" s="6"/>
-      <c r="P16" t="s">
+      <c r="M16" s="6"/>
+      <c r="O16" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q16" t="s">
         <v>1155</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="18.75">
+    <row r="17" spans="1:19" ht="18.75">
       <c r="C17" s="4"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="573" t="s">
+      <c r="E17" s="578" t="s">
         <v>363</v>
       </c>
-      <c r="F17" s="574"/>
-      <c r="G17" s="574"/>
-      <c r="H17" s="574"/>
-      <c r="I17" s="574"/>
-      <c r="J17" s="574"/>
-      <c r="K17" s="574"/>
-      <c r="L17" s="575"/>
-      <c r="M17" s="35" t="s">
+      <c r="F17" s="579"/>
+      <c r="G17" s="579"/>
+      <c r="H17" s="579"/>
+      <c r="I17" s="579"/>
+      <c r="J17" s="579"/>
+      <c r="K17" s="579"/>
+      <c r="L17" s="579"/>
+      <c r="M17" s="580"/>
+      <c r="N17" s="35" t="s">
         <v>364</v>
       </c>
-      <c r="N17" s="35"/>
       <c r="O17" s="35"/>
-      <c r="P17" t="s">
+      <c r="P17" s="35"/>
+      <c r="Q17" t="s">
         <v>1156</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:19">
       <c r="A18" t="s">
         <v>1769</v>
       </c>
-      <c r="C18" s="576" t="s">
+      <c r="C18" s="581" t="s">
         <v>1768</v>
       </c>
-      <c r="D18" s="576"/>
-      <c r="E18" s="576" t="s">
+      <c r="D18" s="581"/>
+      <c r="E18" s="581" t="s">
         <v>1771</v>
       </c>
-      <c r="F18" s="576"/>
-      <c r="G18" s="576"/>
-      <c r="H18" s="576"/>
-      <c r="I18" s="576"/>
-      <c r="J18" s="576" t="s">
+      <c r="F18" s="581"/>
+      <c r="G18" s="581"/>
+      <c r="H18" s="581"/>
+      <c r="I18" s="581"/>
+      <c r="J18" s="581"/>
+      <c r="K18" s="581" t="s">
         <v>1772</v>
       </c>
-      <c r="K18" s="576"/>
-      <c r="L18" s="576"/>
-      <c r="P18" t="s">
+      <c r="L18" s="581"/>
+      <c r="M18" s="581"/>
+      <c r="Q18" t="s">
         <v>1157</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="R18" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="15.75" thickBot="1">
+    <row r="19" spans="1:19" ht="15.75" thickBot="1">
       <c r="A19" t="s">
         <v>1770</v>
       </c>
-      <c r="C19" s="571" t="s">
+      <c r="C19" s="576" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="572"/>
-      <c r="E19" s="571" t="s">
+      <c r="D19" s="577"/>
+      <c r="E19" s="576" t="s">
         <v>74</v>
       </c>
-      <c r="F19" s="572"/>
-      <c r="G19" s="571" t="s">
+      <c r="F19" s="577"/>
+      <c r="G19" s="422"/>
+      <c r="H19" s="576" t="s">
         <v>75</v>
       </c>
-      <c r="H19" s="537"/>
-      <c r="I19" s="537"/>
-      <c r="J19" s="537"/>
-      <c r="K19" s="537"/>
-      <c r="L19" s="572"/>
-    </row>
-    <row r="20" spans="1:18" ht="15.75" thickBot="1"/>
-    <row r="21" spans="1:18" ht="15" customHeight="1">
-      <c r="E21" s="565" t="s">
+      <c r="I19" s="542"/>
+      <c r="J19" s="542"/>
+      <c r="K19" s="542"/>
+      <c r="L19" s="542"/>
+      <c r="M19" s="577"/>
+    </row>
+    <row r="20" spans="1:19" ht="15.75" thickBot="1"/>
+    <row r="21" spans="1:19" ht="15" customHeight="1">
+      <c r="E21" s="569" t="s">
         <v>940</v>
       </c>
-      <c r="F21" s="566"/>
-    </row>
-    <row r="22" spans="1:18">
-      <c r="E22" s="567"/>
-      <c r="F22" s="568"/>
-      <c r="J22" t="s">
+      <c r="F21" s="570"/>
+      <c r="G21" s="424"/>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="B22" t="s">
+        <v>2272</v>
+      </c>
+      <c r="E22" s="571"/>
+      <c r="F22" s="572"/>
+      <c r="G22" s="424"/>
+      <c r="K22" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
-      <c r="E23" s="567"/>
-      <c r="F23" s="568"/>
-      <c r="H23" t="s">
+    <row r="23" spans="1:19">
+      <c r="B23" t="s">
+        <v>2273</v>
+      </c>
+      <c r="E23" s="571"/>
+      <c r="F23" s="572"/>
+      <c r="G23" s="424"/>
+      <c r="I23" t="s">
         <v>947</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>945</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="15.75" thickBot="1">
-      <c r="E24" s="569"/>
-      <c r="F24" s="570"/>
-    </row>
-    <row r="25" spans="1:18" ht="15.75" thickBot="1"/>
-    <row r="26" spans="1:18" ht="15.75" thickBot="1">
-      <c r="G26" s="1" t="s">
+    <row r="24" spans="1:19" ht="15.75" thickBot="1">
+      <c r="B24" t="s">
+        <v>2274</v>
+      </c>
+      <c r="E24" s="573"/>
+      <c r="F24" s="574"/>
+      <c r="G24" s="424"/>
+    </row>
+    <row r="25" spans="1:19" ht="15.75" thickBot="1"/>
+    <row r="26" spans="1:19" ht="15.75" thickBot="1">
+      <c r="H26" s="1" t="s">
         <v>1208</v>
       </c>
-      <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -45565,279 +46336,279 @@
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
-      <c r="R26" s="3"/>
-    </row>
-    <row r="27" spans="1:18" ht="15.75" thickBot="1">
+      <c r="R26" s="2"/>
+      <c r="S26" s="3"/>
+    </row>
+    <row r="27" spans="1:19" ht="15.75" thickBot="1">
       <c r="B27" s="1" t="s">
         <v>429</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="3"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="5"/>
+      <c r="H27" s="4"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
-      <c r="L27" s="5" t="s">
+      <c r="L27" s="5"/>
+      <c r="M27" s="5" t="s">
         <v>1211</v>
       </c>
-      <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
-      <c r="R27" s="6"/>
-    </row>
-    <row r="28" spans="1:18">
+      <c r="R27" s="5"/>
+      <c r="S27" s="6"/>
+    </row>
+    <row r="28" spans="1:19">
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="6"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="1" t="s">
+      <c r="H28" s="4"/>
+      <c r="I28" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="5"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="3"/>
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
-      <c r="R28" s="6"/>
-    </row>
-    <row r="29" spans="1:18">
+      <c r="R28" s="5"/>
+      <c r="S28" s="6"/>
+    </row>
+    <row r="29" spans="1:19">
       <c r="B29" s="4"/>
       <c r="C29" s="5"/>
       <c r="D29" s="6"/>
       <c r="E29" t="s">
         <v>1210</v>
       </c>
-      <c r="G29" s="4"/>
       <c r="H29" s="4"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="5" t="s">
+      <c r="I29" s="4"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="L29" s="4" t="s">
+      <c r="M29" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="M29" s="5"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="5" t="s">
+      <c r="N29" s="5"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="5" t="s">
         <v>1212</v>
       </c>
-      <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
-      <c r="R29" s="6"/>
-    </row>
-    <row r="30" spans="1:18" ht="15.75" thickBot="1">
+      <c r="R29" s="5"/>
+      <c r="S29" s="6"/>
+    </row>
+    <row r="30" spans="1:19" ht="15.75" thickBot="1">
       <c r="B30" s="8"/>
       <c r="C30" s="10"/>
       <c r="D30" s="9"/>
-      <c r="G30" s="4"/>
       <c r="H30" s="4"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="5"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="9"/>
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
-      <c r="R30" s="6"/>
-    </row>
-    <row r="31" spans="1:18" ht="15.75" thickBot="1">
-      <c r="G31" s="4"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="6"/>
+    </row>
+    <row r="31" spans="1:19" ht="15.75" thickBot="1">
       <c r="H31" s="4"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="5"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="6"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
-      <c r="R31" s="6"/>
-    </row>
-    <row r="32" spans="1:18">
+      <c r="R31" s="5"/>
+      <c r="S31" s="6"/>
+    </row>
+    <row r="32" spans="1:19">
       <c r="B32" s="1" t="s">
         <v>154</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="3"/>
-      <c r="G32" s="4"/>
       <c r="H32" s="4"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="1" t="s">
+      <c r="I32" s="4"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="1" t="s">
         <v>1213</v>
       </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="5"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="3"/>
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
-      <c r="R32" s="6"/>
-    </row>
-    <row r="33" spans="1:18">
+      <c r="R32" s="5"/>
+      <c r="S32" s="6"/>
+    </row>
+    <row r="33" spans="1:19">
       <c r="B33" s="4"/>
       <c r="C33" s="5"/>
       <c r="D33" s="6"/>
       <c r="E33" t="s">
         <v>1214</v>
       </c>
-      <c r="G33" s="4"/>
       <c r="H33" s="4"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="5" t="s">
+      <c r="I33" s="4"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="5" t="s">
         <v>1215</v>
       </c>
-      <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
-      <c r="R33" s="6"/>
-    </row>
-    <row r="34" spans="1:18" ht="15.75" thickBot="1">
+      <c r="R33" s="5"/>
+      <c r="S33" s="6"/>
+    </row>
+    <row r="34" spans="1:19" ht="15.75" thickBot="1">
       <c r="B34" s="4"/>
       <c r="C34" s="5"/>
       <c r="D34" s="6"/>
       <c r="E34" t="s">
         <v>1216</v>
       </c>
-      <c r="G34" s="4"/>
       <c r="H34" s="4"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="5"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="9"/>
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
-      <c r="R34" s="6"/>
-    </row>
-    <row r="35" spans="1:18" ht="15.75" thickBot="1">
+      <c r="R34" s="5"/>
+      <c r="S34" s="6"/>
+    </row>
+    <row r="35" spans="1:19" ht="15.75" thickBot="1">
       <c r="B35" s="8"/>
       <c r="C35" s="10"/>
       <c r="D35" s="9"/>
-      <c r="G35" s="4"/>
       <c r="H35" s="4"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="5"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="6"/>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
-      <c r="R35" s="6"/>
-    </row>
-    <row r="36" spans="1:18" ht="15.75" thickBot="1">
-      <c r="G36" s="4"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="6"/>
+    </row>
+    <row r="36" spans="1:19" ht="15.75" thickBot="1">
       <c r="H36" s="4"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="5"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="6"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
-      <c r="R36" s="6"/>
-    </row>
-    <row r="37" spans="1:18">
+      <c r="R36" s="5"/>
+      <c r="S36" s="6"/>
+    </row>
+    <row r="37" spans="1:19">
       <c r="B37" s="1" t="s">
         <v>1209</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="3"/>
-      <c r="G37" s="4"/>
       <c r="H37" s="4"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="1" t="s">
+      <c r="I37" s="4"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="1" t="s">
         <v>1218</v>
       </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="5" t="s">
+      <c r="N37" s="2"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="5" t="s">
         <v>1219</v>
       </c>
-      <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
-      <c r="R37" s="6"/>
-    </row>
-    <row r="38" spans="1:18">
+      <c r="R37" s="5"/>
+      <c r="S37" s="6"/>
+    </row>
+    <row r="38" spans="1:19">
       <c r="B38" s="4"/>
       <c r="C38" s="5"/>
       <c r="D38" s="6"/>
       <c r="E38" t="s">
         <v>1217</v>
       </c>
-      <c r="G38" s="4"/>
       <c r="H38" s="4"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="5"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="6"/>
       <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
-      <c r="R38" s="6"/>
-    </row>
-    <row r="39" spans="1:18" ht="15.75" thickBot="1">
+      <c r="R38" s="5"/>
+      <c r="S38" s="6"/>
+    </row>
+    <row r="39" spans="1:19" ht="15.75" thickBot="1">
       <c r="B39" s="4"/>
       <c r="C39" s="5"/>
       <c r="D39" s="6"/>
-      <c r="G39" s="4"/>
       <c r="H39" s="4"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="5"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="9"/>
       <c r="P39" s="5"/>
       <c r="Q39" s="5"/>
-      <c r="R39" s="6"/>
-    </row>
-    <row r="40" spans="1:18" ht="15.75" thickBot="1">
+      <c r="R39" s="5"/>
+      <c r="S39" s="6"/>
+    </row>
+    <row r="40" spans="1:19" ht="15.75" thickBot="1">
       <c r="B40" s="8"/>
       <c r="C40" s="10"/>
       <c r="D40" s="9"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="5"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="9"/>
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
-      <c r="R40" s="6"/>
-    </row>
-    <row r="41" spans="1:18">
-      <c r="G41" s="4"/>
-      <c r="H41" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="6"/>
+    </row>
+    <row r="41" spans="1:19">
+      <c r="H41" s="4"/>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
@@ -45847,11 +46618,11 @@
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
       <c r="Q41" s="5"/>
-      <c r="R41" s="6"/>
-    </row>
-    <row r="42" spans="1:18" ht="15.75" thickBot="1">
-      <c r="G42" s="8"/>
-      <c r="H42" s="10"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="6"/>
+    </row>
+    <row r="42" spans="1:19" ht="15.75" thickBot="1">
+      <c r="H42" s="8"/>
       <c r="I42" s="10"/>
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
@@ -45861,51 +46632,52 @@
       <c r="O42" s="10"/>
       <c r="P42" s="10"/>
       <c r="Q42" s="10"/>
-      <c r="R42" s="9"/>
-    </row>
-    <row r="44" spans="1:18">
-      <c r="L44" s="260" t="s">
+      <c r="R42" s="10"/>
+      <c r="S42" s="9"/>
+    </row>
+    <row r="44" spans="1:19">
+      <c r="M44" s="260" t="s">
         <v>1224</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="15.75" thickBot="1">
-      <c r="L45" s="260" t="s">
+    <row r="45" spans="1:19" ht="15.75" thickBot="1">
+      <c r="M45" s="260" t="s">
         <v>1223</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="15.75" thickBot="1">
+    <row r="46" spans="1:19" ht="15.75" thickBot="1">
       <c r="A46" s="1" t="s">
         <v>429</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="3"/>
-      <c r="G46" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>1221</v>
       </c>
-      <c r="H46" s="2"/>
-      <c r="I46" s="3"/>
-      <c r="L46" s="1" t="s">
+      <c r="I46" s="2"/>
+      <c r="J46" s="3"/>
+      <c r="M46" s="1" t="s">
         <v>1222</v>
       </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="1:18" ht="15.75" thickBot="1">
+      <c r="N46" s="2"/>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="1:19" ht="15.75" thickBot="1">
       <c r="A47" s="4"/>
       <c r="B47" s="11" t="s">
         <v>512</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="6"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="6"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="6"/>
-    </row>
-    <row r="48" spans="1:18">
+      <c r="H47" s="4"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="6"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="6"/>
+    </row>
+    <row r="48" spans="1:19">
       <c r="A48" s="4"/>
       <c r="B48" s="5" t="s">
         <v>1220</v>
@@ -45914,103 +46686,103 @@
         <v>150</v>
       </c>
       <c r="D48" s="6"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="6"/>
-      <c r="J48" t="s">
+      <c r="H48" s="4"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="6"/>
+      <c r="K48" t="s">
         <v>342</v>
       </c>
-      <c r="L48" s="4"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="6"/>
-    </row>
-    <row r="49" spans="1:14">
+      <c r="M48" s="4"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="6"/>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" s="4"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="6"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="6"/>
-      <c r="L49" s="4" t="s">
+      <c r="H49" s="4"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="6"/>
+      <c r="M49" s="4" t="s">
         <v>936</v>
       </c>
-      <c r="M49" s="5" t="s">
+      <c r="N49" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="N49" s="6"/>
-    </row>
-    <row r="50" spans="1:14">
+      <c r="O49" s="6"/>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" s="4"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="6"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="6"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="5" t="s">
+      <c r="H50" s="4"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="6"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="N50" s="6"/>
-    </row>
-    <row r="51" spans="1:14">
+      <c r="O50" s="6"/>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" s="4"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="6"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="6"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="6"/>
-    </row>
-    <row r="52" spans="1:14" ht="15.75" thickBot="1">
+      <c r="H51" s="4"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="6"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="6"/>
+    </row>
+    <row r="52" spans="1:15" ht="15.75" thickBot="1">
       <c r="A52" s="8"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
       <c r="D52" s="9"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="6"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="9"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" thickBot="1">
-      <c r="G53" s="4"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="6"/>
-    </row>
-    <row r="54" spans="1:14" ht="15.75" thickBot="1">
+      <c r="H52" s="4"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="6"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="9"/>
+    </row>
+    <row r="53" spans="1:15" ht="15.75" thickBot="1">
+      <c r="H53" s="4"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="6"/>
+    </row>
+    <row r="54" spans="1:15" ht="15.75" thickBot="1">
       <c r="A54" s="1" t="s">
         <v>430</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="3"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="6"/>
-    </row>
-    <row r="55" spans="1:14" ht="15.75" thickBot="1">
+      <c r="H54" s="4"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="6"/>
+    </row>
+    <row r="55" spans="1:15" ht="15.75" thickBot="1">
       <c r="A55" s="4"/>
       <c r="B55" s="11" t="s">
         <v>431</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="6"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="6"/>
-      <c r="L55" s="1" t="s">
+      <c r="H55" s="4"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="6"/>
+      <c r="M55" s="1" t="s">
         <v>1222</v>
       </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="1:14">
+      <c r="N55" s="2"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56" s="4"/>
       <c r="B56" s="5" t="s">
         <v>1220</v>
@@ -46019,121 +46791,121 @@
         <v>150</v>
       </c>
       <c r="D56" s="6"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="6"/>
-      <c r="J56" t="s">
+      <c r="H56" s="4"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="6"/>
+      <c r="K56" t="s">
         <v>1168</v>
       </c>
-      <c r="L56" s="4"/>
-      <c r="M56" s="5"/>
-      <c r="N56" s="6"/>
-    </row>
-    <row r="57" spans="1:14">
+      <c r="M56" s="4"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="6"/>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57" s="4"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="6"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="6"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="5"/>
-      <c r="N57" s="6"/>
-    </row>
-    <row r="58" spans="1:14">
+      <c r="H57" s="4"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="6"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="6"/>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="6"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="6"/>
-      <c r="L58" s="4" t="s">
+      <c r="H58" s="4"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="6"/>
+      <c r="M58" s="4" t="s">
         <v>936</v>
       </c>
-      <c r="M58" s="5" t="s">
+      <c r="N58" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="N58" s="6"/>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="O58" s="6"/>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59" s="4"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="6"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="6"/>
-      <c r="L59" s="4"/>
-      <c r="M59" s="5" t="s">
+      <c r="H59" s="4"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="6"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="N59" s="6"/>
-    </row>
-    <row r="60" spans="1:14" ht="15.75" thickBot="1">
+      <c r="O59" s="6"/>
+    </row>
+    <row r="60" spans="1:15" ht="15.75" thickBot="1">
       <c r="A60" s="8"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
       <c r="D60" s="9"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="6"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="5"/>
-      <c r="N60" s="6"/>
-    </row>
-    <row r="61" spans="1:14" ht="15.75" thickBot="1">
-      <c r="G61" s="8"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="9"/>
-      <c r="L61" s="8"/>
-      <c r="M61" s="10"/>
-      <c r="N61" s="9"/>
-    </row>
-    <row r="64" spans="1:14">
-      <c r="L64" s="260" t="s">
+      <c r="H60" s="4"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="6"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="5"/>
+      <c r="O60" s="6"/>
+    </row>
+    <row r="61" spans="1:15" ht="15.75" thickBot="1">
+      <c r="H61" s="8"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="9"/>
+      <c r="M61" s="8"/>
+      <c r="N61" s="10"/>
+      <c r="O61" s="9"/>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="M64" s="260" t="s">
         <v>1224</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="15.75" thickBot="1">
-      <c r="L65" s="260" t="s">
+    <row r="65" spans="1:15" ht="15.75" thickBot="1">
+      <c r="M65" s="260" t="s">
         <v>1225</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="15.75" thickBot="1">
+    <row r="66" spans="1:15" ht="15.75" thickBot="1">
       <c r="A66" s="1" t="s">
         <v>429</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="3"/>
-      <c r="G66" s="1" t="s">
+      <c r="H66" s="1" t="s">
         <v>1221</v>
       </c>
-      <c r="H66" s="2"/>
-      <c r="I66" s="3"/>
-      <c r="L66" s="1" t="s">
+      <c r="I66" s="2"/>
+      <c r="J66" s="3"/>
+      <c r="M66" s="1" t="s">
         <v>1222</v>
       </c>
-      <c r="M66" s="2"/>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="1:14" ht="15.75" thickBot="1">
+      <c r="N66" s="2"/>
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="1:15" ht="15.75" thickBot="1">
       <c r="A67" s="4"/>
       <c r="B67" s="11" t="s">
         <v>512</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="6"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="6"/>
-      <c r="L67" s="4"/>
-      <c r="M67" s="5"/>
-      <c r="N67" s="6"/>
-    </row>
-    <row r="68" spans="1:14">
+      <c r="H67" s="4"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="6"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="5"/>
+      <c r="O67" s="6"/>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68" s="4"/>
       <c r="B68" s="5" t="s">
         <v>1220</v>
@@ -46142,111 +46914,111 @@
         <v>150</v>
       </c>
       <c r="D68" s="6"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="6"/>
-      <c r="J68" t="s">
+      <c r="H68" s="4"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="6"/>
+      <c r="K68" t="s">
         <v>342</v>
       </c>
-      <c r="L68" s="4"/>
-      <c r="M68" s="5"/>
-      <c r="N68" s="6"/>
-    </row>
-    <row r="69" spans="1:14">
+      <c r="M68" s="4"/>
+      <c r="N68" s="5"/>
+      <c r="O68" s="6"/>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69" s="4"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="6"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="6"/>
-      <c r="L69" s="4" t="s">
+      <c r="H69" s="4"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="6"/>
+      <c r="M69" s="4" t="s">
         <v>936</v>
       </c>
-      <c r="M69" s="5" t="s">
+      <c r="N69" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="N69" s="6"/>
-    </row>
-    <row r="70" spans="1:14">
+      <c r="O69" s="6"/>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70" s="4"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="6"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="6"/>
-      <c r="L70" s="4"/>
-      <c r="M70" s="5" t="s">
+      <c r="H70" s="4"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="6"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="N70" s="6"/>
-    </row>
-    <row r="71" spans="1:14">
+      <c r="O70" s="6"/>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71" s="4"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="6"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="6"/>
-      <c r="L71" s="4"/>
-      <c r="M71" s="5" t="s">
+      <c r="H71" s="4"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="6"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="N71" s="6"/>
-    </row>
-    <row r="72" spans="1:14" ht="15.75" thickBot="1">
+      <c r="O71" s="6"/>
+    </row>
+    <row r="72" spans="1:15" ht="15.75" thickBot="1">
       <c r="A72" s="8"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
       <c r="D72" s="9"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="6"/>
-      <c r="L72" s="4"/>
-      <c r="M72" s="24" t="s">
+      <c r="H72" s="4"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="6"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="24" t="s">
         <v>431</v>
       </c>
-      <c r="N72" s="6"/>
-    </row>
-    <row r="73" spans="1:14" ht="15.75" thickBot="1">
-      <c r="G73" s="4"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="6"/>
-      <c r="L73" s="4"/>
-      <c r="M73" s="5"/>
-      <c r="N73" s="6"/>
-    </row>
-    <row r="74" spans="1:14" ht="15.75" thickBot="1">
+      <c r="O72" s="6"/>
+    </row>
+    <row r="73" spans="1:15" ht="15.75" thickBot="1">
+      <c r="H73" s="4"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="6"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="5"/>
+      <c r="O73" s="6"/>
+    </row>
+    <row r="74" spans="1:15" ht="15.75" thickBot="1">
       <c r="A74" s="1" t="s">
         <v>430</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="3"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="6"/>
-      <c r="L74" s="4"/>
-      <c r="M74" s="5"/>
-      <c r="N74" s="6"/>
-    </row>
-    <row r="75" spans="1:14" ht="15.75" thickBot="1">
+      <c r="H74" s="4"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="6"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="5"/>
+      <c r="O74" s="6"/>
+    </row>
+    <row r="75" spans="1:15" ht="15.75" thickBot="1">
       <c r="A75" s="4"/>
       <c r="B75" s="11" t="s">
         <v>431</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="6"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="6"/>
-      <c r="L75" s="4"/>
-      <c r="M75" s="5"/>
-      <c r="N75" s="6"/>
-    </row>
-    <row r="76" spans="1:14">
+      <c r="H75" s="4"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="6"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="5"/>
+      <c r="O75" s="6"/>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76" s="4"/>
       <c r="B76" s="5" t="s">
         <v>1220</v>
@@ -46255,107 +47027,107 @@
         <v>150</v>
       </c>
       <c r="D76" s="6"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="6"/>
-      <c r="J76" t="s">
+      <c r="H76" s="4"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="6"/>
+      <c r="K76" t="s">
         <v>1168</v>
       </c>
-      <c r="L76" s="4"/>
-      <c r="M76" s="5"/>
-      <c r="N76" s="6"/>
-    </row>
-    <row r="77" spans="1:14">
+      <c r="M76" s="4"/>
+      <c r="N76" s="5"/>
+      <c r="O76" s="6"/>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77" s="4"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="6"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="6"/>
-      <c r="L77" s="4"/>
-      <c r="M77" s="5"/>
-      <c r="N77" s="6"/>
-    </row>
-    <row r="78" spans="1:14">
+      <c r="H77" s="4"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="6"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="5"/>
+      <c r="O77" s="6"/>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78" s="4"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="6"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="6"/>
-      <c r="L78" s="4"/>
-      <c r="M78" s="5"/>
-      <c r="N78" s="6"/>
-    </row>
-    <row r="79" spans="1:14">
+      <c r="H78" s="4"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="6"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="5"/>
+      <c r="O78" s="6"/>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79" s="4"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="6"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="6"/>
-      <c r="L79" s="4"/>
-      <c r="M79" s="5"/>
-      <c r="N79" s="6"/>
-    </row>
-    <row r="80" spans="1:14" ht="15.75" thickBot="1">
+      <c r="H79" s="4"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="6"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="5"/>
+      <c r="O79" s="6"/>
+    </row>
+    <row r="80" spans="1:15" ht="15.75" thickBot="1">
       <c r="A80" s="8"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
       <c r="D80" s="9"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="6"/>
-      <c r="L80" s="4"/>
-      <c r="M80" s="5"/>
-      <c r="N80" s="6"/>
-    </row>
-    <row r="81" spans="2:14" ht="15.75" thickBot="1">
-      <c r="G81" s="8"/>
-      <c r="H81" s="10"/>
-      <c r="I81" s="9"/>
-      <c r="L81" s="8"/>
-      <c r="M81" s="10"/>
-      <c r="N81" s="9"/>
-    </row>
-    <row r="92" spans="2:14" ht="15.75" thickBot="1">
-      <c r="I92" s="260" t="s">
+      <c r="H80" s="4"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="6"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="5"/>
+      <c r="O80" s="6"/>
+    </row>
+    <row r="81" spans="2:15" ht="15.75" thickBot="1">
+      <c r="H81" s="8"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="9"/>
+      <c r="M81" s="8"/>
+      <c r="N81" s="10"/>
+      <c r="O81" s="9"/>
+    </row>
+    <row r="92" spans="2:15" ht="15.75" thickBot="1">
+      <c r="J92" s="260" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="93" spans="2:14">
+    <row r="93" spans="2:15">
       <c r="B93" s="1"/>
       <c r="C93" s="2"/>
       <c r="D93" s="3"/>
       <c r="F93" t="s">
         <v>1784</v>
       </c>
-      <c r="I93" s="365" t="s">
+      <c r="J93" s="365" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="94" spans="2:14">
+    <row r="94" spans="2:15">
       <c r="B94" s="4"/>
       <c r="C94" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D94" s="6"/>
-      <c r="I94" s="260" t="s">
+      <c r="J94" s="260" t="s">
         <v>1779</v>
       </c>
     </row>
-    <row r="95" spans="2:14">
+    <row r="95" spans="2:15">
       <c r="B95" s="4"/>
       <c r="C95" s="5" t="s">
         <v>834</v>
       </c>
       <c r="D95" s="6"/>
-      <c r="I95" s="260"/>
-    </row>
-    <row r="96" spans="2:14" ht="15.75" thickBot="1">
+      <c r="J95" s="260"/>
+    </row>
+    <row r="96" spans="2:15" ht="15.75" thickBot="1">
       <c r="B96" s="4"/>
       <c r="C96" s="5" t="s">
         <v>86</v>
@@ -46363,22 +47135,22 @@
       <c r="D96" s="6" t="s">
         <v>1778</v>
       </c>
-      <c r="I96" s="260" t="s">
+      <c r="J96" s="260" t="s">
         <v>1780</v>
       </c>
     </row>
-    <row r="97" spans="2:11">
+    <row r="97" spans="2:12">
       <c r="B97" s="1"/>
       <c r="C97" s="2"/>
       <c r="D97" s="3"/>
-      <c r="I97" s="260" t="s">
+      <c r="J97" s="260" t="s">
         <v>1787</v>
       </c>
-      <c r="K97" t="s">
+      <c r="L97" t="s">
         <v>1788</v>
       </c>
     </row>
-    <row r="98" spans="2:11" ht="15.75" thickBot="1">
+    <row r="98" spans="2:12" ht="15.75" thickBot="1">
       <c r="B98" s="8" t="s">
         <v>1785</v>
       </c>
@@ -46386,18 +47158,18 @@
       <c r="D98" s="9" t="s">
         <v>1786</v>
       </c>
-      <c r="I98" s="260"/>
-    </row>
-    <row r="99" spans="2:11" ht="15.75" thickBot="1">
-      <c r="I99" s="260"/>
-    </row>
-    <row r="100" spans="2:11">
+      <c r="J98" s="260"/>
+    </row>
+    <row r="99" spans="2:12" ht="15.75" thickBot="1">
+      <c r="J99" s="260"/>
+    </row>
+    <row r="100" spans="2:12">
       <c r="B100" s="1"/>
       <c r="C100" s="2"/>
       <c r="D100" s="3"/>
-      <c r="I100" s="260"/>
-    </row>
-    <row r="101" spans="2:11">
+      <c r="J100" s="260"/>
+    </row>
+    <row r="101" spans="2:12">
       <c r="B101" s="4"/>
       <c r="C101" s="5" t="s">
         <v>817</v>
@@ -46406,9 +47178,9 @@
       <c r="F101" t="s">
         <v>1782</v>
       </c>
-      <c r="I101" s="260"/>
-    </row>
-    <row r="102" spans="2:11">
+      <c r="J101" s="260"/>
+    </row>
+    <row r="102" spans="2:12">
       <c r="B102" s="4"/>
       <c r="C102" s="5" t="s">
         <v>1080</v>
@@ -46416,44 +47188,45 @@
       <c r="D102" s="6" t="s">
         <v>1781</v>
       </c>
-      <c r="I102" s="260"/>
-    </row>
-    <row r="103" spans="2:11">
+      <c r="J102" s="260"/>
+    </row>
+    <row r="103" spans="2:12">
       <c r="B103" s="4"/>
       <c r="C103" s="5"/>
       <c r="D103" s="6"/>
       <c r="F103" t="s">
         <v>1783</v>
       </c>
-      <c r="I103" s="260"/>
-    </row>
-    <row r="104" spans="2:11" ht="15.75" thickBot="1">
+      <c r="J103" s="260"/>
+    </row>
+    <row r="104" spans="2:12" ht="15.75" thickBot="1">
       <c r="B104" s="8"/>
       <c r="C104" s="10"/>
       <c r="D104" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
     <mergeCell ref="E21:F24"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="C2:M2"/>
     <mergeCell ref="E8:F11"/>
-    <mergeCell ref="G8:I11"/>
-    <mergeCell ref="J8:L11"/>
+    <mergeCell ref="H8:J11"/>
+    <mergeCell ref="K8:M11"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E3:L3"/>
-    <mergeCell ref="G19:L19"/>
-    <mergeCell ref="E17:L17"/>
+    <mergeCell ref="E3:M3"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="E17:M17"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="G8:G11"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="P8" r:id="rId1"/>
-    <hyperlink ref="P9" r:id="rId2"/>
-    <hyperlink ref="O8" r:id="rId3" display="john2@"/>
-    <hyperlink ref="I93" r:id="rId4"/>
+    <hyperlink ref="Q8" r:id="rId1"/>
+    <hyperlink ref="Q9" r:id="rId2"/>
+    <hyperlink ref="P8" r:id="rId3" display="john2@"/>
+    <hyperlink ref="J93" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -46464,7 +47237,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q24"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -46875,7 +47648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:S41"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27:E27"/>
     </sheetView>
   </sheetViews>
@@ -46914,22 +47687,22 @@
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="541" t="s">
+      <c r="E3" s="546" t="s">
         <v>323</v>
       </c>
-      <c r="F3" s="541"/>
-      <c r="G3" s="541" t="s">
+      <c r="F3" s="546"/>
+      <c r="G3" s="546" t="s">
         <v>324</v>
       </c>
-      <c r="H3" s="541"/>
-      <c r="I3" s="541"/>
-      <c r="J3" s="541"/>
-      <c r="K3" s="541"/>
-      <c r="L3" s="541"/>
-      <c r="M3" s="541" t="s">
+      <c r="H3" s="546"/>
+      <c r="I3" s="546"/>
+      <c r="J3" s="546"/>
+      <c r="K3" s="546"/>
+      <c r="L3" s="546"/>
+      <c r="M3" s="546" t="s">
         <v>325</v>
       </c>
-      <c r="N3" s="541"/>
+      <c r="N3" s="546"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
@@ -46940,7 +47713,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="107"/>
       <c r="D4" s="108"/>
-      <c r="E4" s="546" t="s">
+      <c r="E4" s="551" t="s">
         <v>326</v>
       </c>
       <c r="F4" s="103"/>
@@ -46968,22 +47741,22 @@
         <v>60</v>
       </c>
       <c r="D5" s="110"/>
-      <c r="E5" s="453"/>
-      <c r="F5" s="428" t="s">
+      <c r="E5" s="456"/>
+      <c r="F5" s="431" t="s">
         <v>397</v>
       </c>
-      <c r="G5" s="466"/>
-      <c r="H5" s="467"/>
-      <c r="I5" s="577" t="s">
+      <c r="G5" s="469"/>
+      <c r="H5" s="470"/>
+      <c r="I5" s="583" t="s">
         <v>398</v>
       </c>
-      <c r="J5" s="578"/>
-      <c r="K5" s="578"/>
-      <c r="L5" s="552"/>
-      <c r="M5" s="577" t="s">
+      <c r="J5" s="584"/>
+      <c r="K5" s="584"/>
+      <c r="L5" s="557"/>
+      <c r="M5" s="583" t="s">
         <v>399</v>
       </c>
-      <c r="N5" s="552"/>
+      <c r="N5" s="557"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -46994,16 +47767,16 @@
       <c r="B6" s="4"/>
       <c r="C6" s="111"/>
       <c r="D6" s="112"/>
-      <c r="E6" s="453"/>
-      <c r="F6" s="468"/>
-      <c r="G6" s="469"/>
-      <c r="H6" s="470"/>
-      <c r="I6" s="439"/>
-      <c r="J6" s="437"/>
-      <c r="K6" s="437"/>
-      <c r="L6" s="553"/>
-      <c r="M6" s="439"/>
-      <c r="N6" s="553"/>
+      <c r="E6" s="456"/>
+      <c r="F6" s="471"/>
+      <c r="G6" s="472"/>
+      <c r="H6" s="473"/>
+      <c r="I6" s="442"/>
+      <c r="J6" s="440"/>
+      <c r="K6" s="440"/>
+      <c r="L6" s="558"/>
+      <c r="M6" s="442"/>
+      <c r="N6" s="558"/>
       <c r="O6" s="5"/>
       <c r="P6" s="33" t="s">
         <v>61</v>
@@ -47020,16 +47793,16 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="453"/>
-      <c r="F7" s="468"/>
-      <c r="G7" s="469"/>
-      <c r="H7" s="470"/>
-      <c r="I7" s="439"/>
-      <c r="J7" s="437"/>
-      <c r="K7" s="437"/>
-      <c r="L7" s="553"/>
-      <c r="M7" s="439"/>
-      <c r="N7" s="553"/>
+      <c r="E7" s="456"/>
+      <c r="F7" s="471"/>
+      <c r="G7" s="472"/>
+      <c r="H7" s="473"/>
+      <c r="I7" s="442"/>
+      <c r="J7" s="440"/>
+      <c r="K7" s="440"/>
+      <c r="L7" s="558"/>
+      <c r="M7" s="442"/>
+      <c r="N7" s="558"/>
       <c r="O7" s="5" t="s">
         <v>2</v>
       </c>
@@ -47048,16 +47821,16 @@
       <c r="B8" s="4"/>
       <c r="C8" s="1"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="453"/>
-      <c r="F8" s="468"/>
-      <c r="G8" s="469"/>
-      <c r="H8" s="470"/>
-      <c r="I8" s="439"/>
-      <c r="J8" s="437"/>
-      <c r="K8" s="437"/>
-      <c r="L8" s="553"/>
-      <c r="M8" s="439"/>
-      <c r="N8" s="553"/>
+      <c r="E8" s="456"/>
+      <c r="F8" s="471"/>
+      <c r="G8" s="472"/>
+      <c r="H8" s="473"/>
+      <c r="I8" s="442"/>
+      <c r="J8" s="440"/>
+      <c r="K8" s="440"/>
+      <c r="L8" s="558"/>
+      <c r="M8" s="442"/>
+      <c r="N8" s="558"/>
       <c r="O8" s="5" t="s">
         <v>66</v>
       </c>
@@ -47078,16 +47851,16 @@
         <v>69</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="453"/>
-      <c r="F9" s="468"/>
-      <c r="G9" s="469"/>
-      <c r="H9" s="470"/>
-      <c r="I9" s="439"/>
-      <c r="J9" s="437"/>
-      <c r="K9" s="437"/>
-      <c r="L9" s="553"/>
-      <c r="M9" s="439"/>
-      <c r="N9" s="553"/>
+      <c r="E9" s="456"/>
+      <c r="F9" s="471"/>
+      <c r="G9" s="472"/>
+      <c r="H9" s="473"/>
+      <c r="I9" s="442"/>
+      <c r="J9" s="440"/>
+      <c r="K9" s="440"/>
+      <c r="L9" s="558"/>
+      <c r="M9" s="442"/>
+      <c r="N9" s="558"/>
       <c r="O9" s="5">
         <v>1000</v>
       </c>
@@ -47104,16 +47877,16 @@
         <v>342</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="453"/>
-      <c r="F10" s="468"/>
-      <c r="G10" s="469"/>
-      <c r="H10" s="470"/>
-      <c r="I10" s="439"/>
-      <c r="J10" s="437"/>
-      <c r="K10" s="437"/>
-      <c r="L10" s="553"/>
-      <c r="M10" s="439"/>
-      <c r="N10" s="553"/>
+      <c r="E10" s="456"/>
+      <c r="F10" s="471"/>
+      <c r="G10" s="472"/>
+      <c r="H10" s="473"/>
+      <c r="I10" s="442"/>
+      <c r="J10" s="440"/>
+      <c r="K10" s="440"/>
+      <c r="L10" s="558"/>
+      <c r="M10" s="442"/>
+      <c r="N10" s="558"/>
       <c r="O10" s="5" t="s">
         <v>2</v>
       </c>
@@ -47126,16 +47899,16 @@
       <c r="B11" s="4"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="453"/>
-      <c r="F11" s="468"/>
-      <c r="G11" s="469"/>
-      <c r="H11" s="470"/>
-      <c r="I11" s="439"/>
-      <c r="J11" s="437"/>
-      <c r="K11" s="437"/>
-      <c r="L11" s="553"/>
-      <c r="M11" s="439"/>
-      <c r="N11" s="553"/>
+      <c r="E11" s="456"/>
+      <c r="F11" s="471"/>
+      <c r="G11" s="472"/>
+      <c r="H11" s="473"/>
+      <c r="I11" s="442"/>
+      <c r="J11" s="440"/>
+      <c r="K11" s="440"/>
+      <c r="L11" s="558"/>
+      <c r="M11" s="442"/>
+      <c r="N11" s="558"/>
       <c r="O11" s="5"/>
       <c r="P11" s="33"/>
       <c r="Q11" s="33"/>
@@ -47146,16 +47919,16 @@
       <c r="B12" s="4"/>
       <c r="C12" s="1"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="453"/>
-      <c r="F12" s="468"/>
-      <c r="G12" s="469"/>
-      <c r="H12" s="470"/>
-      <c r="I12" s="439"/>
-      <c r="J12" s="437"/>
-      <c r="K12" s="437"/>
-      <c r="L12" s="553"/>
-      <c r="M12" s="439"/>
-      <c r="N12" s="553"/>
+      <c r="E12" s="456"/>
+      <c r="F12" s="471"/>
+      <c r="G12" s="472"/>
+      <c r="H12" s="473"/>
+      <c r="I12" s="442"/>
+      <c r="J12" s="440"/>
+      <c r="K12" s="440"/>
+      <c r="L12" s="558"/>
+      <c r="M12" s="442"/>
+      <c r="N12" s="558"/>
       <c r="O12" s="5"/>
       <c r="P12" s="33"/>
       <c r="Q12" s="33"/>
@@ -47168,16 +47941,16 @@
         <v>71</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="453"/>
-      <c r="F13" s="468"/>
-      <c r="G13" s="469"/>
-      <c r="H13" s="470"/>
-      <c r="I13" s="439"/>
-      <c r="J13" s="437"/>
-      <c r="K13" s="437"/>
-      <c r="L13" s="553"/>
-      <c r="M13" s="439"/>
-      <c r="N13" s="553"/>
+      <c r="E13" s="456"/>
+      <c r="F13" s="471"/>
+      <c r="G13" s="472"/>
+      <c r="H13" s="473"/>
+      <c r="I13" s="442"/>
+      <c r="J13" s="440"/>
+      <c r="K13" s="440"/>
+      <c r="L13" s="558"/>
+      <c r="M13" s="442"/>
+      <c r="N13" s="558"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
@@ -47188,16 +47961,16 @@
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="453"/>
-      <c r="F14" s="468"/>
-      <c r="G14" s="469"/>
-      <c r="H14" s="470"/>
-      <c r="I14" s="439"/>
-      <c r="J14" s="437"/>
-      <c r="K14" s="437"/>
-      <c r="L14" s="553"/>
-      <c r="M14" s="439"/>
-      <c r="N14" s="553"/>
+      <c r="E14" s="456"/>
+      <c r="F14" s="471"/>
+      <c r="G14" s="472"/>
+      <c r="H14" s="473"/>
+      <c r="I14" s="442"/>
+      <c r="J14" s="440"/>
+      <c r="K14" s="440"/>
+      <c r="L14" s="558"/>
+      <c r="M14" s="442"/>
+      <c r="N14" s="558"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
@@ -47208,16 +47981,16 @@
       <c r="B15" s="4"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="453"/>
-      <c r="F15" s="468"/>
-      <c r="G15" s="469"/>
-      <c r="H15" s="470"/>
-      <c r="I15" s="439"/>
-      <c r="J15" s="437"/>
-      <c r="K15" s="437"/>
-      <c r="L15" s="553"/>
-      <c r="M15" s="439"/>
-      <c r="N15" s="553"/>
+      <c r="E15" s="456"/>
+      <c r="F15" s="471"/>
+      <c r="G15" s="472"/>
+      <c r="H15" s="473"/>
+      <c r="I15" s="442"/>
+      <c r="J15" s="440"/>
+      <c r="K15" s="440"/>
+      <c r="L15" s="558"/>
+      <c r="M15" s="442"/>
+      <c r="N15" s="558"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
@@ -47228,16 +48001,16 @@
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="453"/>
-      <c r="F16" s="468"/>
-      <c r="G16" s="469"/>
-      <c r="H16" s="470"/>
-      <c r="I16" s="439"/>
-      <c r="J16" s="437"/>
-      <c r="K16" s="437"/>
-      <c r="L16" s="553"/>
-      <c r="M16" s="439"/>
-      <c r="N16" s="553"/>
+      <c r="E16" s="456"/>
+      <c r="F16" s="471"/>
+      <c r="G16" s="472"/>
+      <c r="H16" s="473"/>
+      <c r="I16" s="442"/>
+      <c r="J16" s="440"/>
+      <c r="K16" s="440"/>
+      <c r="L16" s="558"/>
+      <c r="M16" s="442"/>
+      <c r="N16" s="558"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
@@ -47250,16 +48023,16 @@
         <v>72</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="453"/>
-      <c r="F17" s="468"/>
-      <c r="G17" s="469"/>
-      <c r="H17" s="470"/>
-      <c r="I17" s="439"/>
-      <c r="J17" s="437"/>
-      <c r="K17" s="437"/>
-      <c r="L17" s="553"/>
-      <c r="M17" s="439"/>
-      <c r="N17" s="553"/>
+      <c r="E17" s="456"/>
+      <c r="F17" s="471"/>
+      <c r="G17" s="472"/>
+      <c r="H17" s="473"/>
+      <c r="I17" s="442"/>
+      <c r="J17" s="440"/>
+      <c r="K17" s="440"/>
+      <c r="L17" s="558"/>
+      <c r="M17" s="442"/>
+      <c r="N17" s="558"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
@@ -47270,16 +48043,16 @@
       <c r="B18" s="4"/>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="454"/>
-      <c r="F18" s="471"/>
-      <c r="G18" s="472"/>
-      <c r="H18" s="473"/>
-      <c r="I18" s="554"/>
-      <c r="J18" s="579"/>
-      <c r="K18" s="579"/>
-      <c r="L18" s="555"/>
-      <c r="M18" s="554"/>
-      <c r="N18" s="555"/>
+      <c r="E18" s="457"/>
+      <c r="F18" s="474"/>
+      <c r="G18" s="475"/>
+      <c r="H18" s="476"/>
+      <c r="I18" s="559"/>
+      <c r="J18" s="585"/>
+      <c r="K18" s="585"/>
+      <c r="L18" s="560"/>
+      <c r="M18" s="559"/>
+      <c r="N18" s="560"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
@@ -47308,26 +48081,26 @@
     </row>
     <row r="20" spans="2:19" ht="15.75" thickBot="1">
       <c r="B20" s="4"/>
-      <c r="C20" s="440" t="s">
+      <c r="C20" s="443" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="441"/>
+      <c r="D20" s="444"/>
       <c r="E20" s="102" t="s">
         <v>74</v>
       </c>
-      <c r="F20" s="440" t="s">
+      <c r="F20" s="443" t="s">
         <v>75</v>
       </c>
-      <c r="G20" s="449"/>
-      <c r="H20" s="449"/>
-      <c r="I20" s="449"/>
-      <c r="J20" s="449"/>
-      <c r="K20" s="449"/>
-      <c r="L20" s="441"/>
-      <c r="M20" s="440" t="s">
+      <c r="G20" s="452"/>
+      <c r="H20" s="452"/>
+      <c r="I20" s="452"/>
+      <c r="J20" s="452"/>
+      <c r="K20" s="452"/>
+      <c r="L20" s="444"/>
+      <c r="M20" s="443" t="s">
         <v>333</v>
       </c>
-      <c r="N20" s="441"/>
+      <c r="N20" s="444"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
@@ -47355,39 +48128,39 @@
       <c r="S21" s="9"/>
     </row>
     <row r="24" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B24" s="540" t="s">
+      <c r="B24" s="545" t="s">
         <v>359</v>
       </c>
-      <c r="C24" s="540"/>
-      <c r="D24" s="537"/>
-      <c r="E24" s="537"/>
-      <c r="F24" s="537"/>
-      <c r="G24" s="537"/>
-      <c r="H24" s="537"/>
-      <c r="I24" s="537"/>
-      <c r="J24" s="537"/>
-      <c r="K24" s="537"/>
-      <c r="M24" s="606" t="s">
+      <c r="C24" s="545"/>
+      <c r="D24" s="542"/>
+      <c r="E24" s="542"/>
+      <c r="F24" s="542"/>
+      <c r="G24" s="542"/>
+      <c r="H24" s="542"/>
+      <c r="I24" s="542"/>
+      <c r="J24" s="542"/>
+      <c r="K24" s="542"/>
+      <c r="M24" s="612" t="s">
         <v>58</v>
       </c>
-      <c r="N24" s="606"/>
-      <c r="O24" s="606"/>
+      <c r="N24" s="612"/>
+      <c r="O24" s="612"/>
     </row>
     <row r="25" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B25" s="607" t="s">
+      <c r="B25" s="613" t="s">
         <v>611</v>
       </c>
-      <c r="C25" s="515"/>
-      <c r="D25" s="443" t="s">
+      <c r="C25" s="518"/>
+      <c r="D25" s="446" t="s">
         <v>57</v>
       </c>
-      <c r="E25" s="443"/>
-      <c r="F25" s="443"/>
-      <c r="G25" s="443"/>
-      <c r="H25" s="443"/>
-      <c r="I25" s="443"/>
-      <c r="J25" s="443"/>
-      <c r="K25" s="444"/>
+      <c r="E25" s="446"/>
+      <c r="F25" s="446"/>
+      <c r="G25" s="446"/>
+      <c r="H25" s="446"/>
+      <c r="I25" s="446"/>
+      <c r="J25" s="446"/>
+      <c r="K25" s="447"/>
       <c r="M25" s="33" t="s">
         <v>61</v>
       </c>
@@ -47399,22 +48172,22 @@
       </c>
     </row>
     <row r="26" spans="2:19">
-      <c r="B26" s="516"/>
-      <c r="C26" s="517"/>
-      <c r="D26" s="580" t="s">
+      <c r="B26" s="519"/>
+      <c r="C26" s="520"/>
+      <c r="D26" s="586" t="s">
         <v>604</v>
       </c>
-      <c r="E26" s="581"/>
-      <c r="F26" s="599" t="s">
+      <c r="E26" s="587"/>
+      <c r="F26" s="605" t="s">
         <v>604</v>
       </c>
-      <c r="G26" s="600"/>
-      <c r="H26" s="601"/>
-      <c r="I26" s="604" t="s">
+      <c r="G26" s="606"/>
+      <c r="H26" s="607"/>
+      <c r="I26" s="610" t="s">
         <v>1291</v>
       </c>
-      <c r="J26" s="600"/>
-      <c r="K26" s="601"/>
+      <c r="J26" s="606"/>
+      <c r="K26" s="607"/>
       <c r="L26" s="5" t="s">
         <v>2</v>
       </c>
@@ -47429,22 +48202,22 @@
       </c>
     </row>
     <row r="27" spans="2:19">
-      <c r="B27" s="516"/>
-      <c r="C27" s="517"/>
-      <c r="D27" s="582" t="s">
+      <c r="B27" s="519"/>
+      <c r="C27" s="520"/>
+      <c r="D27" s="588" t="s">
         <v>609</v>
       </c>
-      <c r="E27" s="583"/>
-      <c r="F27" s="602" t="s">
+      <c r="E27" s="589"/>
+      <c r="F27" s="608" t="s">
         <v>605</v>
       </c>
-      <c r="G27" s="582"/>
-      <c r="H27" s="603"/>
-      <c r="I27" s="605" t="s">
+      <c r="G27" s="588"/>
+      <c r="H27" s="609"/>
+      <c r="I27" s="611" t="s">
         <v>1292</v>
       </c>
-      <c r="J27" s="582"/>
-      <c r="K27" s="603"/>
+      <c r="J27" s="588"/>
+      <c r="K27" s="609"/>
       <c r="L27" s="5" t="s">
         <v>2</v>
       </c>
@@ -47459,22 +48232,22 @@
       </c>
     </row>
     <row r="28" spans="2:19">
-      <c r="B28" s="516"/>
-      <c r="C28" s="517"/>
-      <c r="D28" s="582" t="s">
+      <c r="B28" s="519"/>
+      <c r="C28" s="520"/>
+      <c r="D28" s="588" t="s">
         <v>606</v>
       </c>
-      <c r="E28" s="583"/>
-      <c r="F28" s="602" t="s">
+      <c r="E28" s="589"/>
+      <c r="F28" s="608" t="s">
         <v>606</v>
       </c>
-      <c r="G28" s="582"/>
-      <c r="H28" s="603"/>
-      <c r="I28" s="605" t="s">
+      <c r="G28" s="588"/>
+      <c r="H28" s="609"/>
+      <c r="I28" s="611" t="s">
         <v>1293</v>
       </c>
-      <c r="J28" s="582"/>
-      <c r="K28" s="603"/>
+      <c r="J28" s="588"/>
+      <c r="K28" s="609"/>
       <c r="L28" s="5" t="s">
         <v>2</v>
       </c>
@@ -47483,22 +48256,22 @@
       <c r="O28" s="33"/>
     </row>
     <row r="29" spans="2:19">
-      <c r="B29" s="518"/>
-      <c r="C29" s="519"/>
-      <c r="D29" s="582" t="s">
+      <c r="B29" s="521"/>
+      <c r="C29" s="522"/>
+      <c r="D29" s="588" t="s">
         <v>607</v>
       </c>
-      <c r="E29" s="583"/>
-      <c r="F29" s="602" t="s">
+      <c r="E29" s="589"/>
+      <c r="F29" s="608" t="s">
         <v>607</v>
       </c>
-      <c r="G29" s="582"/>
-      <c r="H29" s="603"/>
-      <c r="I29" s="605" t="s">
+      <c r="G29" s="588"/>
+      <c r="H29" s="609"/>
+      <c r="I29" s="611" t="s">
         <v>1294</v>
       </c>
-      <c r="J29" s="582"/>
-      <c r="K29" s="603"/>
+      <c r="J29" s="588"/>
+      <c r="K29" s="609"/>
       <c r="L29" s="24" t="s">
         <v>2</v>
       </c>
@@ -47507,149 +48280,149 @@
       <c r="O29" s="33"/>
     </row>
     <row r="30" spans="2:19">
-      <c r="B30" s="445" t="s">
+      <c r="B30" s="448" t="s">
         <v>610</v>
       </c>
-      <c r="C30" s="447"/>
-      <c r="D30" s="584" t="s">
+      <c r="C30" s="450"/>
+      <c r="D30" s="590" t="s">
         <v>360</v>
       </c>
-      <c r="E30" s="585"/>
-      <c r="F30" s="590" t="s">
+      <c r="E30" s="591"/>
+      <c r="F30" s="596" t="s">
         <v>361</v>
       </c>
-      <c r="G30" s="591"/>
-      <c r="H30" s="585"/>
-      <c r="I30" s="590" t="s">
+      <c r="G30" s="597"/>
+      <c r="H30" s="591"/>
+      <c r="I30" s="596" t="s">
         <v>362</v>
       </c>
-      <c r="J30" s="591"/>
-      <c r="K30" s="596"/>
+      <c r="J30" s="597"/>
+      <c r="K30" s="602"/>
       <c r="L30" s="5"/>
       <c r="M30" s="33"/>
       <c r="N30" s="33"/>
       <c r="O30" s="33"/>
     </row>
     <row r="31" spans="2:19">
-      <c r="B31" s="430"/>
-      <c r="C31" s="435"/>
-      <c r="D31" s="586"/>
-      <c r="E31" s="587"/>
-      <c r="F31" s="592"/>
-      <c r="G31" s="593"/>
-      <c r="H31" s="587"/>
-      <c r="I31" s="592"/>
-      <c r="J31" s="593"/>
-      <c r="K31" s="597"/>
+      <c r="B31" s="433"/>
+      <c r="C31" s="438"/>
+      <c r="D31" s="592"/>
+      <c r="E31" s="593"/>
+      <c r="F31" s="598"/>
+      <c r="G31" s="599"/>
+      <c r="H31" s="593"/>
+      <c r="I31" s="598"/>
+      <c r="J31" s="599"/>
+      <c r="K31" s="603"/>
       <c r="L31" s="5"/>
       <c r="M31" s="33"/>
       <c r="N31" s="33"/>
       <c r="O31" s="33"/>
     </row>
     <row r="32" spans="2:19">
-      <c r="B32" s="430"/>
-      <c r="C32" s="435"/>
-      <c r="D32" s="586"/>
-      <c r="E32" s="587"/>
-      <c r="F32" s="592"/>
-      <c r="G32" s="593"/>
-      <c r="H32" s="587"/>
-      <c r="I32" s="592"/>
-      <c r="J32" s="593"/>
-      <c r="K32" s="597"/>
+      <c r="B32" s="433"/>
+      <c r="C32" s="438"/>
+      <c r="D32" s="592"/>
+      <c r="E32" s="593"/>
+      <c r="F32" s="598"/>
+      <c r="G32" s="599"/>
+      <c r="H32" s="593"/>
+      <c r="I32" s="598"/>
+      <c r="J32" s="599"/>
+      <c r="K32" s="603"/>
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="430"/>
-      <c r="C33" s="435"/>
-      <c r="D33" s="588"/>
-      <c r="E33" s="589"/>
-      <c r="F33" s="594"/>
-      <c r="G33" s="595"/>
-      <c r="H33" s="589"/>
-      <c r="I33" s="594"/>
-      <c r="J33" s="595"/>
-      <c r="K33" s="598"/>
+      <c r="B33" s="433"/>
+      <c r="C33" s="438"/>
+      <c r="D33" s="594"/>
+      <c r="E33" s="595"/>
+      <c r="F33" s="600"/>
+      <c r="G33" s="601"/>
+      <c r="H33" s="595"/>
+      <c r="I33" s="600"/>
+      <c r="J33" s="601"/>
+      <c r="K33" s="604"/>
     </row>
     <row r="34" spans="2:14">
-      <c r="B34" s="430"/>
-      <c r="C34" s="431"/>
-      <c r="D34" s="608" t="s">
+      <c r="B34" s="433"/>
+      <c r="C34" s="434"/>
+      <c r="D34" s="614" t="s">
         <v>597</v>
       </c>
-      <c r="E34" s="609"/>
-      <c r="F34" s="608" t="s">
+      <c r="E34" s="615"/>
+      <c r="F34" s="614" t="s">
         <v>373</v>
       </c>
-      <c r="G34" s="614"/>
-      <c r="H34" s="609"/>
-      <c r="I34" s="608" t="s">
+      <c r="G34" s="620"/>
+      <c r="H34" s="615"/>
+      <c r="I34" s="614" t="s">
         <v>612</v>
       </c>
-      <c r="J34" s="614"/>
-      <c r="K34" s="609"/>
+      <c r="J34" s="620"/>
+      <c r="K34" s="615"/>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35" s="430"/>
-      <c r="C35" s="431"/>
-      <c r="D35" s="610"/>
-      <c r="E35" s="611"/>
-      <c r="F35" s="610"/>
-      <c r="G35" s="615"/>
-      <c r="H35" s="611"/>
-      <c r="I35" s="610"/>
-      <c r="J35" s="615"/>
-      <c r="K35" s="611"/>
+      <c r="B35" s="433"/>
+      <c r="C35" s="434"/>
+      <c r="D35" s="616"/>
+      <c r="E35" s="617"/>
+      <c r="F35" s="616"/>
+      <c r="G35" s="621"/>
+      <c r="H35" s="617"/>
+      <c r="I35" s="616"/>
+      <c r="J35" s="621"/>
+      <c r="K35" s="617"/>
     </row>
     <row r="36" spans="2:14">
-      <c r="B36" s="430"/>
-      <c r="C36" s="431"/>
-      <c r="D36" s="610"/>
-      <c r="E36" s="611"/>
-      <c r="F36" s="610"/>
-      <c r="G36" s="615"/>
-      <c r="H36" s="611"/>
-      <c r="I36" s="610"/>
-      <c r="J36" s="615"/>
-      <c r="K36" s="611"/>
+      <c r="B36" s="433"/>
+      <c r="C36" s="434"/>
+      <c r="D36" s="616"/>
+      <c r="E36" s="617"/>
+      <c r="F36" s="616"/>
+      <c r="G36" s="621"/>
+      <c r="H36" s="617"/>
+      <c r="I36" s="616"/>
+      <c r="J36" s="621"/>
+      <c r="K36" s="617"/>
     </row>
     <row r="37" spans="2:14">
-      <c r="B37" s="430"/>
-      <c r="C37" s="431"/>
-      <c r="D37" s="610"/>
-      <c r="E37" s="611"/>
-      <c r="F37" s="610"/>
-      <c r="G37" s="615"/>
-      <c r="H37" s="611"/>
-      <c r="I37" s="610"/>
-      <c r="J37" s="615"/>
-      <c r="K37" s="611"/>
+      <c r="B37" s="433"/>
+      <c r="C37" s="434"/>
+      <c r="D37" s="616"/>
+      <c r="E37" s="617"/>
+      <c r="F37" s="616"/>
+      <c r="G37" s="621"/>
+      <c r="H37" s="617"/>
+      <c r="I37" s="616"/>
+      <c r="J37" s="621"/>
+      <c r="K37" s="617"/>
     </row>
     <row r="38" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B38" s="430"/>
-      <c r="C38" s="431"/>
-      <c r="D38" s="612"/>
-      <c r="E38" s="613"/>
-      <c r="F38" s="612"/>
-      <c r="G38" s="616"/>
-      <c r="H38" s="613"/>
-      <c r="I38" s="612"/>
-      <c r="J38" s="616"/>
-      <c r="K38" s="613"/>
+      <c r="B38" s="433"/>
+      <c r="C38" s="434"/>
+      <c r="D38" s="618"/>
+      <c r="E38" s="619"/>
+      <c r="F38" s="618"/>
+      <c r="G38" s="622"/>
+      <c r="H38" s="619"/>
+      <c r="I38" s="618"/>
+      <c r="J38" s="622"/>
+      <c r="K38" s="619"/>
     </row>
     <row r="39" spans="2:14" ht="19.5" thickBot="1">
-      <c r="B39" s="432"/>
-      <c r="C39" s="433"/>
-      <c r="D39" s="526" t="s">
+      <c r="B39" s="435"/>
+      <c r="C39" s="436"/>
+      <c r="D39" s="531" t="s">
         <v>363</v>
       </c>
-      <c r="E39" s="527"/>
-      <c r="F39" s="527"/>
-      <c r="G39" s="527"/>
-      <c r="H39" s="527"/>
-      <c r="I39" s="527"/>
-      <c r="J39" s="527"/>
-      <c r="K39" s="528"/>
+      <c r="E39" s="532"/>
+      <c r="F39" s="532"/>
+      <c r="G39" s="532"/>
+      <c r="H39" s="532"/>
+      <c r="I39" s="532"/>
+      <c r="J39" s="532"/>
+      <c r="K39" s="533"/>
       <c r="L39" s="35" t="s">
         <v>364</v>
       </c>
@@ -47667,22 +48440,22 @@
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B41" s="440" t="s">
+      <c r="B41" s="443" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="441"/>
-      <c r="D41" s="440" t="s">
+      <c r="C41" s="444"/>
+      <c r="D41" s="443" t="s">
         <v>74</v>
       </c>
-      <c r="E41" s="441"/>
-      <c r="F41" s="440" t="s">
+      <c r="E41" s="444"/>
+      <c r="F41" s="443" t="s">
         <v>75</v>
       </c>
-      <c r="G41" s="449"/>
-      <c r="H41" s="449"/>
-      <c r="I41" s="449"/>
-      <c r="J41" s="449"/>
-      <c r="K41" s="441"/>
+      <c r="G41" s="452"/>
+      <c r="H41" s="452"/>
+      <c r="I41" s="452"/>
+      <c r="J41" s="452"/>
+      <c r="K41" s="444"/>
     </row>
   </sheetData>
   <mergeCells count="37">
@@ -47737,6 +48510,996 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="D5:Q19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8:J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="4:17">
+      <c r="I5" t="s">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="6" spans="4:17" ht="15.75" thickBot="1">
+      <c r="J6" s="35" t="s">
+        <v>2276</v>
+      </c>
+      <c r="K6" s="35"/>
+    </row>
+    <row r="7" spans="4:17">
+      <c r="D7" s="180" t="s">
+        <v>2277</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="3"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="N7" s="180" t="s">
+        <v>2278</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="3"/>
+    </row>
+    <row r="8" spans="4:17">
+      <c r="D8" s="4" t="s">
+        <v>2279</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
+      <c r="J8" s="35" t="s">
+        <v>2280</v>
+      </c>
+      <c r="K8" s="35"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="6"/>
+    </row>
+    <row r="9" spans="4:17">
+      <c r="D9" s="4" t="s">
+        <v>2281</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
+      <c r="J9" s="35" t="s">
+        <v>2282</v>
+      </c>
+      <c r="K9" s="35"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="6"/>
+    </row>
+    <row r="10" spans="4:17">
+      <c r="D10" s="4" t="s">
+        <v>2283</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6" t="s">
+        <v>2284</v>
+      </c>
+      <c r="J10" s="35" t="s">
+        <v>2285</v>
+      </c>
+      <c r="K10" s="35"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="6"/>
+    </row>
+    <row r="11" spans="4:17">
+      <c r="D11" s="4"/>
+      <c r="E11" s="26" t="s">
+        <v>2286</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="J11" s="35" t="s">
+        <v>2287</v>
+      </c>
+      <c r="K11" s="35" t="s">
+        <v>2288</v>
+      </c>
+      <c r="L11" t="s">
+        <v>70</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>2289</v>
+      </c>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="6"/>
+    </row>
+    <row r="12" spans="4:17">
+      <c r="D12" s="4"/>
+      <c r="F12" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="J12" s="35" t="s">
+        <v>2287</v>
+      </c>
+      <c r="K12" s="35" t="s">
+        <v>2288</v>
+      </c>
+      <c r="L12" t="s">
+        <v>2290</v>
+      </c>
+      <c r="N12" s="4"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="6"/>
+    </row>
+    <row r="13" spans="4:17">
+      <c r="D13" s="4"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="J13" s="35" t="s">
+        <v>2291</v>
+      </c>
+      <c r="K13" s="35"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="6"/>
+    </row>
+    <row r="14" spans="4:17">
+      <c r="D14" s="4"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6"/>
+      <c r="J14" s="35" t="s">
+        <v>2292</v>
+      </c>
+      <c r="K14" s="35"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="6"/>
+    </row>
+    <row r="15" spans="4:17">
+      <c r="D15" s="4"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="6"/>
+    </row>
+    <row r="16" spans="4:17">
+      <c r="D16" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="N16" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="6"/>
+    </row>
+    <row r="17" spans="4:17">
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="6"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="6"/>
+    </row>
+    <row r="18" spans="4:17" ht="15.75" thickBot="1">
+      <c r="D18" s="8"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="9"/>
+      <c r="I18" t="s">
+        <v>2293</v>
+      </c>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="9"/>
+    </row>
+    <row r="19" spans="4:17">
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" customWidth="1"/>
+    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="C1" s="632" t="s">
+        <v>2298</v>
+      </c>
+      <c r="D1" s="632"/>
+      <c r="E1" s="632"/>
+      <c r="F1" s="632"/>
+      <c r="G1" s="632"/>
+      <c r="H1" s="632"/>
+      <c r="I1" s="632"/>
+      <c r="J1" s="632"/>
+      <c r="K1" s="632"/>
+      <c r="L1" s="632"/>
+      <c r="M1" s="632"/>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" thickBot="1">
+      <c r="C3" s="542" t="s">
+        <v>359</v>
+      </c>
+      <c r="D3" s="542"/>
+      <c r="E3" s="542"/>
+      <c r="F3" s="542"/>
+      <c r="G3" s="542"/>
+      <c r="H3" s="542"/>
+      <c r="I3" s="542"/>
+      <c r="J3" s="542"/>
+      <c r="K3" s="542"/>
+      <c r="L3" s="542"/>
+      <c r="M3" s="542"/>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" thickBot="1">
+      <c r="C4" s="1"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="543" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="544"/>
+      <c r="G4" s="446"/>
+      <c r="H4" s="446"/>
+      <c r="I4" s="446"/>
+      <c r="J4" s="446"/>
+      <c r="K4" s="446"/>
+      <c r="L4" s="446"/>
+      <c r="M4" s="447"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="C5" s="623" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="624"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="C6" s="623"/>
+      <c r="D6" s="624"/>
+      <c r="E6" s="4" t="s">
+        <v>2303</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="6"/>
+      <c r="O6" s="545" t="s">
+        <v>58</v>
+      </c>
+      <c r="P6" s="545"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" s="623"/>
+      <c r="D7" s="624"/>
+      <c r="E7" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="6"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="33">
+        <v>1000</v>
+      </c>
+      <c r="C8" s="623"/>
+      <c r="D8" s="624"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="106"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="33" t="s">
+        <v>2295</v>
+      </c>
+      <c r="P8" s="33" t="s">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="35" t="s">
+        <v>2297</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C9" s="623"/>
+      <c r="D9" s="624"/>
+      <c r="E9" s="575" t="s">
+        <v>2294</v>
+      </c>
+      <c r="F9" s="540"/>
+      <c r="G9" s="582" t="s">
+        <v>2268</v>
+      </c>
+      <c r="H9" s="538" t="s">
+        <v>361</v>
+      </c>
+      <c r="I9" s="539"/>
+      <c r="J9" s="540"/>
+      <c r="K9" s="538" t="s">
+        <v>362</v>
+      </c>
+      <c r="L9" s="539"/>
+      <c r="M9" s="540"/>
+      <c r="N9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O9" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P9" s="46">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="16" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C10" s="623"/>
+      <c r="D10" s="624"/>
+      <c r="E10" s="538"/>
+      <c r="F10" s="540"/>
+      <c r="G10" s="582"/>
+      <c r="H10" s="538"/>
+      <c r="I10" s="539"/>
+      <c r="J10" s="540"/>
+      <c r="K10" s="538"/>
+      <c r="L10" s="539"/>
+      <c r="M10" s="540"/>
+      <c r="N10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="O10" s="33"/>
+      <c r="P10" s="46"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="C11" s="623"/>
+      <c r="D11" s="624"/>
+      <c r="E11" s="538"/>
+      <c r="F11" s="540"/>
+      <c r="G11" s="582"/>
+      <c r="H11" s="538"/>
+      <c r="I11" s="539"/>
+      <c r="J11" s="540"/>
+      <c r="K11" s="538"/>
+      <c r="L11" s="539"/>
+      <c r="M11" s="540"/>
+      <c r="N11" s="5">
+        <v>1000</v>
+      </c>
+      <c r="O11" s="33"/>
+      <c r="P11" s="46"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="C12" s="623"/>
+      <c r="D12" s="624"/>
+      <c r="E12" s="538"/>
+      <c r="F12" s="540"/>
+      <c r="G12" s="582"/>
+      <c r="H12" s="538"/>
+      <c r="I12" s="539"/>
+      <c r="J12" s="540"/>
+      <c r="K12" s="538"/>
+      <c r="L12" s="539"/>
+      <c r="M12" s="540"/>
+      <c r="N12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="C13" s="623"/>
+      <c r="D13" s="624"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="106"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="C14" s="623"/>
+      <c r="D14" s="624"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="106"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="C15" s="623"/>
+      <c r="D15" s="624"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="6"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="C16" s="623"/>
+      <c r="D16" s="624"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="6"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="C17" s="623"/>
+      <c r="D17" s="624"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="6"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="C18" s="581" t="s">
+        <v>1768</v>
+      </c>
+      <c r="D18" s="581"/>
+      <c r="E18" s="581" t="s">
+        <v>1771</v>
+      </c>
+      <c r="F18" s="581"/>
+      <c r="G18" s="581"/>
+      <c r="H18" s="581"/>
+      <c r="I18" s="581"/>
+      <c r="J18" s="581"/>
+      <c r="K18" s="581" t="s">
+        <v>1772</v>
+      </c>
+      <c r="L18" s="581"/>
+      <c r="M18" s="581"/>
+    </row>
+    <row r="19" spans="1:16" ht="15.75" thickBot="1">
+      <c r="C19" s="576" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="577"/>
+      <c r="E19" s="576" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="577"/>
+      <c r="G19" s="423"/>
+      <c r="H19" s="576" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19" s="542"/>
+      <c r="J19" s="542"/>
+      <c r="K19" s="542"/>
+      <c r="L19" s="542"/>
+      <c r="M19" s="577"/>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="E24" s="631" t="s">
+        <v>2302</v>
+      </c>
+      <c r="F24" s="631"/>
+      <c r="G24" s="631"/>
+      <c r="H24" s="631"/>
+      <c r="I24" s="631"/>
+      <c r="J24" s="631"/>
+      <c r="K24" s="631"/>
+      <c r="L24" s="631"/>
+      <c r="M24" s="631"/>
+    </row>
+    <row r="25" spans="1:16" ht="15.75" thickBot="1"/>
+    <row r="26" spans="1:16" ht="15.75" thickBot="1">
+      <c r="C26" s="205"/>
+      <c r="D26" s="205"/>
+      <c r="E26" s="628" t="s">
+        <v>359</v>
+      </c>
+      <c r="F26" s="629"/>
+      <c r="G26" s="629"/>
+      <c r="H26" s="629"/>
+      <c r="I26" s="629"/>
+      <c r="J26" s="629"/>
+      <c r="K26" s="629"/>
+      <c r="L26" s="629"/>
+      <c r="M26" s="630"/>
+    </row>
+    <row r="27" spans="1:16" ht="15.75" thickBot="1">
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="543" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="544"/>
+      <c r="G27" s="446"/>
+      <c r="H27" s="446"/>
+      <c r="I27" s="446"/>
+      <c r="J27" s="446"/>
+      <c r="K27" s="446"/>
+      <c r="L27" s="446"/>
+      <c r="M27" s="447"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="C28" s="625"/>
+      <c r="D28" s="625"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" t="s">
+        <v>2301</v>
+      </c>
+      <c r="C29" s="625"/>
+      <c r="D29" s="625"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="6"/>
+      <c r="O29" s="545" t="s">
+        <v>58</v>
+      </c>
+      <c r="P29" s="545"/>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="29" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="625"/>
+      <c r="D30" s="625"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="6"/>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="625"/>
+      <c r="D31" s="625"/>
+      <c r="E31" s="106"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="106"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="106"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="33" t="s">
+        <v>2295</v>
+      </c>
+      <c r="P31" s="33" t="s">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="24"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="625"/>
+      <c r="D32" s="625"/>
+      <c r="E32" s="575" t="s">
+        <v>2299</v>
+      </c>
+      <c r="F32" s="540"/>
+      <c r="G32" s="582" t="s">
+        <v>2268</v>
+      </c>
+      <c r="H32" s="538" t="s">
+        <v>361</v>
+      </c>
+      <c r="I32" s="539"/>
+      <c r="J32" s="540"/>
+      <c r="K32" s="538" t="s">
+        <v>362</v>
+      </c>
+      <c r="L32" s="539"/>
+      <c r="M32" s="540"/>
+      <c r="N32" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O32" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P32" s="46">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="C33" s="625"/>
+      <c r="D33" s="625"/>
+      <c r="E33" s="538"/>
+      <c r="F33" s="540"/>
+      <c r="G33" s="582"/>
+      <c r="H33" s="538"/>
+      <c r="I33" s="539"/>
+      <c r="J33" s="540"/>
+      <c r="K33" s="538"/>
+      <c r="L33" s="539"/>
+      <c r="M33" s="540"/>
+      <c r="N33" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="O33" s="33"/>
+      <c r="P33" s="46"/>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34">
+        <v>1000</v>
+      </c>
+      <c r="C34" s="625"/>
+      <c r="D34" s="625"/>
+      <c r="E34" s="538"/>
+      <c r="F34" s="540"/>
+      <c r="G34" s="582"/>
+      <c r="H34" s="538"/>
+      <c r="I34" s="539"/>
+      <c r="J34" s="540"/>
+      <c r="K34" s="538"/>
+      <c r="L34" s="539"/>
+      <c r="M34" s="540"/>
+      <c r="N34" s="5">
+        <v>1000</v>
+      </c>
+      <c r="O34" s="33"/>
+      <c r="P34" s="46"/>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="C35" s="625"/>
+      <c r="D35" s="625"/>
+      <c r="E35" s="538"/>
+      <c r="F35" s="540"/>
+      <c r="G35" s="582"/>
+      <c r="H35" s="538"/>
+      <c r="I35" s="539"/>
+      <c r="J35" s="540"/>
+      <c r="K35" s="538"/>
+      <c r="L35" s="539"/>
+      <c r="M35" s="540"/>
+      <c r="N35" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O35" s="33"/>
+      <c r="P35" s="33"/>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="C36" s="625"/>
+      <c r="D36" s="625"/>
+      <c r="E36" s="106"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="106"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="58"/>
+      <c r="K36" s="106"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="33"/>
+      <c r="P36" s="33"/>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="C37" s="625"/>
+      <c r="D37" s="625"/>
+      <c r="E37" s="106"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="106"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="58"/>
+      <c r="K37" s="106"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="33"/>
+      <c r="P37" s="33"/>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" s="29" t="s">
+        <v>2307</v>
+      </c>
+      <c r="C38" s="625"/>
+      <c r="D38" s="625"/>
+      <c r="E38" s="113"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="6"/>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="C39" s="625"/>
+      <c r="D39" s="625"/>
+      <c r="E39" s="114"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="114"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="6"/>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="C40" s="625"/>
+      <c r="D40" s="625"/>
+      <c r="E40" s="115"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="115"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="6"/>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="C41" s="428"/>
+      <c r="D41" s="428"/>
+      <c r="E41" s="626" t="s">
+        <v>1771</v>
+      </c>
+      <c r="F41" s="581"/>
+      <c r="G41" s="581"/>
+      <c r="H41" s="581"/>
+      <c r="I41" s="581"/>
+      <c r="J41" s="581"/>
+      <c r="K41" s="581" t="s">
+        <v>1772</v>
+      </c>
+      <c r="L41" s="581"/>
+      <c r="M41" s="627"/>
+    </row>
+    <row r="42" spans="1:16" ht="15.75" thickBot="1">
+      <c r="C42" s="428"/>
+      <c r="D42" s="428"/>
+      <c r="E42" s="576" t="s">
+        <v>74</v>
+      </c>
+      <c r="F42" s="577"/>
+      <c r="G42" s="423"/>
+      <c r="H42" s="576" t="s">
+        <v>75</v>
+      </c>
+      <c r="I42" s="542"/>
+      <c r="J42" s="542"/>
+      <c r="K42" s="542"/>
+      <c r="L42" s="542"/>
+      <c r="M42" s="577"/>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="E44" t="s">
+        <v>2308</v>
+      </c>
+      <c r="G44" t="s">
+        <v>2309</v>
+      </c>
+      <c r="H44" t="s">
+        <v>248</v>
+      </c>
+      <c r="K44" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48" t="s">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="B49" t="s">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="C50" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="B53" t="s">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="B54" t="s">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="B55" t="s">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="B56" t="s">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="B59" t="s">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="B60" t="s">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="B61" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="E24:M24"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="H42:M42"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="E27:M27"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="E32:F35"/>
+    <mergeCell ref="G32:G35"/>
+    <mergeCell ref="H32:J35"/>
+    <mergeCell ref="K32:M35"/>
+    <mergeCell ref="E26:M26"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="C5:D17"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="E4:M4"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="E9:F12"/>
+    <mergeCell ref="G9:G12"/>
+    <mergeCell ref="H9:J12"/>
+    <mergeCell ref="K9:M12"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A30" r:id="rId1"/>
+    <hyperlink ref="A38" r:id="rId2"/>
+    <hyperlink ref="A10" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId4"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I34"/>
@@ -48469,7 +50232,7 @@
       </c>
     </row>
     <row r="50" spans="1:14">
-      <c r="D50" s="427" t="s">
+      <c r="D50" s="430" t="s">
         <v>69</v>
       </c>
       <c r="E50" s="33" t="s">
@@ -48477,7 +50240,7 @@
       </c>
     </row>
     <row r="51" spans="1:14">
-      <c r="D51" s="427"/>
+      <c r="D51" s="430"/>
       <c r="E51" s="33" t="s">
         <v>2015</v>
       </c>
@@ -48486,7 +50249,7 @@
       </c>
     </row>
     <row r="52" spans="1:14">
-      <c r="D52" s="427"/>
+      <c r="D52" s="430"/>
       <c r="E52" s="33" t="s">
         <v>2016</v>
       </c>
@@ -49011,15 +50774,15 @@
         <v>1778</v>
       </c>
       <c r="H108" s="4"/>
-      <c r="I108" s="428" t="s">
+      <c r="I108" s="431" t="s">
         <v>2120</v>
       </c>
-      <c r="J108" s="429"/>
-      <c r="K108" s="428" t="s">
+      <c r="J108" s="432"/>
+      <c r="K108" s="431" t="s">
         <v>2129</v>
       </c>
-      <c r="L108" s="434"/>
-      <c r="M108" s="429"/>
+      <c r="L108" s="437"/>
+      <c r="M108" s="432"/>
       <c r="N108" s="5"/>
       <c r="O108" s="6"/>
     </row>
@@ -49031,41 +50794,41 @@
         <v>926</v>
       </c>
       <c r="H109" s="4"/>
-      <c r="I109" s="430"/>
-      <c r="J109" s="431"/>
-      <c r="K109" s="430"/>
-      <c r="L109" s="435"/>
-      <c r="M109" s="431"/>
+      <c r="I109" s="433"/>
+      <c r="J109" s="434"/>
+      <c r="K109" s="433"/>
+      <c r="L109" s="438"/>
+      <c r="M109" s="434"/>
       <c r="N109" s="5"/>
       <c r="O109" s="6"/>
     </row>
     <row r="110" spans="1:15">
       <c r="H110" s="4"/>
-      <c r="I110" s="430"/>
-      <c r="J110" s="431"/>
-      <c r="K110" s="430"/>
-      <c r="L110" s="435"/>
-      <c r="M110" s="431"/>
+      <c r="I110" s="433"/>
+      <c r="J110" s="434"/>
+      <c r="K110" s="433"/>
+      <c r="L110" s="438"/>
+      <c r="M110" s="434"/>
       <c r="N110" s="5"/>
       <c r="O110" s="6"/>
     </row>
     <row r="111" spans="1:15">
       <c r="H111" s="4"/>
-      <c r="I111" s="430"/>
-      <c r="J111" s="431"/>
-      <c r="K111" s="430"/>
-      <c r="L111" s="435"/>
-      <c r="M111" s="431"/>
+      <c r="I111" s="433"/>
+      <c r="J111" s="434"/>
+      <c r="K111" s="433"/>
+      <c r="L111" s="438"/>
+      <c r="M111" s="434"/>
       <c r="N111" s="5"/>
       <c r="O111" s="6"/>
     </row>
     <row r="112" spans="1:15" ht="15.75" thickBot="1">
       <c r="H112" s="4"/>
-      <c r="I112" s="430"/>
-      <c r="J112" s="431"/>
-      <c r="K112" s="430"/>
-      <c r="L112" s="435"/>
-      <c r="M112" s="431"/>
+      <c r="I112" s="433"/>
+      <c r="J112" s="434"/>
+      <c r="K112" s="433"/>
+      <c r="L112" s="438"/>
+      <c r="M112" s="434"/>
       <c r="N112" s="5"/>
       <c r="O112" s="6"/>
     </row>
@@ -49076,11 +50839,11 @@
       <c r="B113" s="2"/>
       <c r="C113" s="3"/>
       <c r="H113" s="4"/>
-      <c r="I113" s="430"/>
-      <c r="J113" s="431"/>
-      <c r="K113" s="432"/>
-      <c r="L113" s="436"/>
-      <c r="M113" s="433"/>
+      <c r="I113" s="433"/>
+      <c r="J113" s="434"/>
+      <c r="K113" s="435"/>
+      <c r="L113" s="439"/>
+      <c r="M113" s="436"/>
       <c r="N113" s="5"/>
       <c r="O113" s="6"/>
     </row>
@@ -49091,8 +50854,8 @@
       </c>
       <c r="C114" s="6"/>
       <c r="H114" s="4"/>
-      <c r="I114" s="430"/>
-      <c r="J114" s="431"/>
+      <c r="I114" s="433"/>
+      <c r="J114" s="434"/>
       <c r="K114" s="408" t="s">
         <v>80</v>
       </c>
@@ -49110,8 +50873,8 @@
         <v>2126</v>
       </c>
       <c r="H115" s="4"/>
-      <c r="I115" s="430"/>
-      <c r="J115" s="431"/>
+      <c r="I115" s="433"/>
+      <c r="J115" s="434"/>
       <c r="K115" s="408" t="s">
         <v>1585</v>
       </c>
@@ -49127,8 +50890,8 @@
       <c r="B116" s="10"/>
       <c r="C116" s="9"/>
       <c r="H116" s="4"/>
-      <c r="I116" s="430"/>
-      <c r="J116" s="431"/>
+      <c r="I116" s="433"/>
+      <c r="J116" s="434"/>
       <c r="K116" s="411"/>
       <c r="L116" s="412"/>
       <c r="M116" s="413"/>
@@ -49137,8 +50900,8 @@
     </row>
     <row r="117" spans="1:15" ht="15.75" thickBot="1">
       <c r="H117" s="4"/>
-      <c r="I117" s="430"/>
-      <c r="J117" s="431"/>
+      <c r="I117" s="433"/>
+      <c r="J117" s="434"/>
       <c r="K117" s="414" t="s">
         <v>2122</v>
       </c>
@@ -49156,8 +50919,8 @@
       <c r="B118" s="2"/>
       <c r="C118" s="3"/>
       <c r="H118" s="4"/>
-      <c r="I118" s="430"/>
-      <c r="J118" s="431"/>
+      <c r="I118" s="433"/>
+      <c r="J118" s="434"/>
       <c r="K118" s="417"/>
       <c r="L118" s="418"/>
       <c r="M118" s="419"/>
@@ -49173,8 +50936,8 @@
         <v>2130</v>
       </c>
       <c r="H119" s="4"/>
-      <c r="I119" s="432"/>
-      <c r="J119" s="433"/>
+      <c r="I119" s="435"/>
+      <c r="J119" s="436"/>
       <c r="K119" s="411"/>
       <c r="L119" s="412"/>
       <c r="M119" s="413"/>
@@ -49290,7 +51053,7 @@
       <c r="K3" s="390"/>
       <c r="L3" s="390"/>
       <c r="M3" s="391"/>
-      <c r="N3" s="439" t="s">
+      <c r="N3" s="442" t="s">
         <v>2025</v>
       </c>
     </row>
@@ -49308,7 +51071,7 @@
       <c r="K4" s="404"/>
       <c r="L4" s="404"/>
       <c r="M4" s="405"/>
-      <c r="N4" s="439"/>
+      <c r="N4" s="442"/>
     </row>
     <row r="5" spans="3:14">
       <c r="C5" s="279">
@@ -49324,7 +51087,7 @@
       <c r="K5" s="381"/>
       <c r="L5" s="381"/>
       <c r="M5" s="382"/>
-      <c r="N5" s="437" t="s">
+      <c r="N5" s="440" t="s">
         <v>777</v>
       </c>
     </row>
@@ -49342,7 +51105,7 @@
       <c r="K6" s="384"/>
       <c r="L6" s="384"/>
       <c r="M6" s="385"/>
-      <c r="N6" s="437"/>
+      <c r="N6" s="440"/>
     </row>
     <row r="7" spans="3:14">
       <c r="C7" s="279">
@@ -49358,7 +51121,7 @@
       <c r="K7" s="384"/>
       <c r="L7" s="384"/>
       <c r="M7" s="385"/>
-      <c r="N7" s="437"/>
+      <c r="N7" s="440"/>
     </row>
     <row r="8" spans="3:14">
       <c r="C8" s="279">
@@ -49374,7 +51137,7 @@
       <c r="K8" s="384"/>
       <c r="L8" s="384"/>
       <c r="M8" s="385"/>
-      <c r="N8" s="437"/>
+      <c r="N8" s="440"/>
     </row>
     <row r="9" spans="3:14">
       <c r="C9" s="279">
@@ -49390,7 +51153,7 @@
       <c r="K9" s="384"/>
       <c r="L9" s="384"/>
       <c r="M9" s="385"/>
-      <c r="N9" s="437"/>
+      <c r="N9" s="440"/>
     </row>
     <row r="10" spans="3:14">
       <c r="C10" s="279">
@@ -49406,7 +51169,7 @@
       <c r="K10" s="384"/>
       <c r="L10" s="384"/>
       <c r="M10" s="385"/>
-      <c r="N10" s="437"/>
+      <c r="N10" s="440"/>
     </row>
     <row r="11" spans="3:14" ht="15.75" thickBot="1">
       <c r="C11" s="279">
@@ -49422,7 +51185,7 @@
       <c r="K11" s="387"/>
       <c r="L11" s="387"/>
       <c r="M11" s="388"/>
-      <c r="N11" s="437"/>
+      <c r="N11" s="440"/>
     </row>
     <row r="12" spans="3:14" ht="15.75" thickBot="1">
       <c r="C12" s="279">
@@ -49492,7 +51255,7 @@
       <c r="K15" s="390"/>
       <c r="L15" s="390"/>
       <c r="M15" s="391"/>
-      <c r="N15" s="439" t="s">
+      <c r="N15" s="442" t="s">
         <v>2025</v>
       </c>
     </row>
@@ -49510,7 +51273,7 @@
       <c r="K16" s="393"/>
       <c r="L16" s="393"/>
       <c r="M16" s="394"/>
-      <c r="N16" s="439"/>
+      <c r="N16" s="442"/>
     </row>
     <row r="17" spans="2:15">
       <c r="C17" s="279">
@@ -49526,7 +51289,7 @@
       <c r="K17" s="401"/>
       <c r="L17" s="401"/>
       <c r="M17" s="402"/>
-      <c r="N17" s="439" t="s">
+      <c r="N17" s="442" t="s">
         <v>777</v>
       </c>
     </row>
@@ -49544,7 +51307,7 @@
       <c r="K18" s="401"/>
       <c r="L18" s="401"/>
       <c r="M18" s="402"/>
-      <c r="N18" s="439"/>
+      <c r="N18" s="442"/>
     </row>
     <row r="19" spans="2:15">
       <c r="C19" s="279">
@@ -49560,7 +51323,7 @@
       <c r="K19" s="401"/>
       <c r="L19" s="401"/>
       <c r="M19" s="402"/>
-      <c r="N19" s="439"/>
+      <c r="N19" s="442"/>
       <c r="O19" s="24" t="s">
         <v>2029</v>
       </c>
@@ -49583,7 +51346,7 @@
       <c r="K20" s="401"/>
       <c r="L20" s="401"/>
       <c r="M20" s="402"/>
-      <c r="N20" s="439"/>
+      <c r="N20" s="442"/>
     </row>
     <row r="21" spans="2:15">
       <c r="C21" s="279">
@@ -49599,7 +51362,7 @@
       <c r="K21" s="401"/>
       <c r="L21" s="401"/>
       <c r="M21" s="402"/>
-      <c r="N21" s="439"/>
+      <c r="N21" s="442"/>
     </row>
     <row r="22" spans="2:15">
       <c r="C22" s="279">
@@ -49615,7 +51378,7 @@
       <c r="K22" s="401"/>
       <c r="L22" s="401"/>
       <c r="M22" s="402"/>
-      <c r="N22" s="439"/>
+      <c r="N22" s="442"/>
     </row>
     <row r="23" spans="2:15" ht="15.75" thickBot="1">
       <c r="C23" s="279">
@@ -49631,7 +51394,7 @@
       <c r="K23" s="401"/>
       <c r="L23" s="401"/>
       <c r="M23" s="402"/>
-      <c r="N23" s="439"/>
+      <c r="N23" s="442"/>
     </row>
     <row r="24" spans="2:15" ht="15.75" thickBot="1">
       <c r="C24" s="279">
@@ -49734,79 +51497,79 @@
       <c r="L45" s="124"/>
     </row>
     <row r="134" spans="3:3">
-      <c r="C134" s="437"/>
+      <c r="C134" s="440"/>
     </row>
     <row r="135" spans="3:3">
-      <c r="C135" s="437"/>
+      <c r="C135" s="440"/>
     </row>
     <row r="136" spans="3:3">
-      <c r="C136" s="437"/>
+      <c r="C136" s="440"/>
     </row>
     <row r="137" spans="3:3">
-      <c r="C137" s="437"/>
+      <c r="C137" s="440"/>
     </row>
     <row r="138" spans="3:3">
-      <c r="C138" s="437"/>
+      <c r="C138" s="440"/>
     </row>
     <row r="139" spans="3:3">
-      <c r="C139" s="437"/>
+      <c r="C139" s="440"/>
     </row>
     <row r="140" spans="3:3">
-      <c r="C140" s="437"/>
+      <c r="C140" s="440"/>
     </row>
     <row r="141" spans="3:3">
-      <c r="C141" s="437"/>
+      <c r="C141" s="440"/>
     </row>
     <row r="142" spans="3:3">
-      <c r="C142" s="437"/>
+      <c r="C142" s="440"/>
     </row>
     <row r="147" spans="4:4">
-      <c r="D147" s="438"/>
+      <c r="D147" s="441"/>
     </row>
     <row r="148" spans="4:4">
-      <c r="D148" s="437"/>
+      <c r="D148" s="440"/>
     </row>
     <row r="149" spans="4:4">
-      <c r="D149" s="437"/>
+      <c r="D149" s="440"/>
     </row>
     <row r="150" spans="4:4">
-      <c r="D150" s="437"/>
+      <c r="D150" s="440"/>
     </row>
     <row r="151" spans="4:4">
-      <c r="D151" s="437"/>
+      <c r="D151" s="440"/>
     </row>
     <row r="152" spans="4:4">
-      <c r="D152" s="437"/>
+      <c r="D152" s="440"/>
     </row>
     <row r="153" spans="4:4">
-      <c r="D153" s="437"/>
+      <c r="D153" s="440"/>
     </row>
     <row r="182" spans="14:14">
-      <c r="N182" s="437"/>
+      <c r="N182" s="440"/>
     </row>
     <row r="183" spans="14:14">
-      <c r="N183" s="437"/>
+      <c r="N183" s="440"/>
     </row>
     <row r="184" spans="14:14">
-      <c r="N184" s="437"/>
+      <c r="N184" s="440"/>
     </row>
     <row r="185" spans="14:14">
-      <c r="N185" s="437"/>
+      <c r="N185" s="440"/>
     </row>
     <row r="186" spans="14:14">
-      <c r="N186" s="437"/>
+      <c r="N186" s="440"/>
     </row>
     <row r="187" spans="14:14">
-      <c r="N187" s="437"/>
+      <c r="N187" s="440"/>
     </row>
     <row r="188" spans="14:14">
-      <c r="N188" s="437"/>
+      <c r="N188" s="440"/>
     </row>
     <row r="189" spans="14:14">
-      <c r="N189" s="437"/>
+      <c r="N189" s="440"/>
     </row>
     <row r="190" spans="14:14">
-      <c r="N190" s="437"/>
+      <c r="N190" s="440"/>
     </row>
     <row r="199" spans="3:3">
       <c r="C199" s="280"/>
@@ -49919,7 +51682,7 @@
   <dimension ref="A1:V168"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="M8" sqref="M8:N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -49976,14 +51739,14 @@
       <c r="H4" s="4"/>
       <c r="I4" s="1"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="442" t="s">
+      <c r="K4" s="445" t="s">
         <v>57</v>
       </c>
-      <c r="L4" s="443"/>
-      <c r="M4" s="443"/>
-      <c r="N4" s="443"/>
-      <c r="O4" s="443"/>
-      <c r="P4" s="444"/>
+      <c r="L4" s="446"/>
+      <c r="M4" s="446"/>
+      <c r="N4" s="446"/>
+      <c r="O4" s="446"/>
+      <c r="P4" s="447"/>
       <c r="Q4" s="89" t="s">
         <v>147</v>
       </c>
@@ -50115,10 +51878,10 @@
       <c r="L8" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="M8" s="450" t="s">
+      <c r="M8" s="453" t="s">
         <v>89</v>
       </c>
-      <c r="N8" s="451"/>
+      <c r="N8" s="454"/>
       <c r="O8" s="5" t="s">
         <v>17</v>
       </c>
@@ -50152,8 +51915,8 @@
       <c r="L9" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="M9" s="451"/>
-      <c r="N9" s="451"/>
+      <c r="M9" s="454"/>
+      <c r="N9" s="454"/>
       <c r="O9" s="5" t="s">
         <v>66</v>
       </c>
@@ -50193,8 +51956,8 @@
       <c r="L10" s="5" t="s">
         <v>793</v>
       </c>
-      <c r="M10" s="451"/>
-      <c r="N10" s="451"/>
+      <c r="M10" s="454"/>
+      <c r="N10" s="454"/>
       <c r="O10" s="5"/>
       <c r="P10" s="178" t="s">
         <v>237</v>
@@ -50207,13 +51970,13 @@
       <c r="T10" s="33"/>
     </row>
     <row r="11" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A11" s="445" t="s">
+      <c r="A11" s="448" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="446"/>
-      <c r="C11" s="447"/>
-      <c r="D11" s="447"/>
-      <c r="E11" s="448"/>
+      <c r="B11" s="449"/>
+      <c r="C11" s="450"/>
+      <c r="D11" s="450"/>
+      <c r="E11" s="451"/>
       <c r="F11" t="s">
         <v>1014</v>
       </c>
@@ -50222,8 +51985,8 @@
       <c r="J11" s="10"/>
       <c r="K11" s="4"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="451"/>
-      <c r="N11" s="451"/>
+      <c r="M11" s="454"/>
+      <c r="N11" s="454"/>
       <c r="O11" s="5"/>
       <c r="P11" s="178" t="s">
         <v>238</v>
@@ -50233,11 +51996,11 @@
       <c r="T11" s="33"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="430"/>
-      <c r="B12" s="435"/>
-      <c r="C12" s="435"/>
-      <c r="D12" s="435"/>
-      <c r="E12" s="431"/>
+      <c r="A12" s="433"/>
+      <c r="B12" s="438"/>
+      <c r="C12" s="438"/>
+      <c r="D12" s="438"/>
+      <c r="E12" s="434"/>
       <c r="F12" t="s">
         <v>631</v>
       </c>
@@ -50248,8 +52011,8 @@
         <v>796</v>
       </c>
       <c r="L12" s="5"/>
-      <c r="M12" s="451"/>
-      <c r="N12" s="451"/>
+      <c r="M12" s="454"/>
+      <c r="N12" s="454"/>
       <c r="O12" s="5"/>
       <c r="P12" s="178" t="s">
         <v>904</v>
@@ -50259,11 +52022,11 @@
       <c r="T12" s="33"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="430"/>
-      <c r="B13" s="435"/>
-      <c r="C13" s="435"/>
-      <c r="D13" s="435"/>
-      <c r="E13" s="431"/>
+      <c r="A13" s="433"/>
+      <c r="B13" s="438"/>
+      <c r="C13" s="438"/>
+      <c r="D13" s="438"/>
+      <c r="E13" s="434"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4" t="s">
         <v>71</v>
@@ -50273,8 +52036,8 @@
         <v>2092</v>
       </c>
       <c r="L13" s="24"/>
-      <c r="M13" s="451"/>
-      <c r="N13" s="451"/>
+      <c r="M13" s="454"/>
+      <c r="N13" s="454"/>
       <c r="O13" s="26"/>
       <c r="P13" s="178"/>
       <c r="S13" t="s">
@@ -50282,11 +52045,11 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A14" s="432"/>
-      <c r="B14" s="436"/>
-      <c r="C14" s="436"/>
-      <c r="D14" s="436"/>
-      <c r="E14" s="433"/>
+      <c r="A14" s="435"/>
+      <c r="B14" s="439"/>
+      <c r="C14" s="439"/>
+      <c r="D14" s="439"/>
+      <c r="E14" s="436"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
@@ -50462,20 +52225,20 @@
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="440" t="s">
+      <c r="I20" s="443" t="s">
         <v>73</v>
       </c>
-      <c r="J20" s="441"/>
-      <c r="K20" s="440" t="s">
+      <c r="J20" s="444"/>
+      <c r="K20" s="443" t="s">
         <v>74</v>
       </c>
-      <c r="L20" s="441"/>
-      <c r="M20" s="440" t="s">
+      <c r="L20" s="444"/>
+      <c r="M20" s="443" t="s">
         <v>1097</v>
       </c>
-      <c r="N20" s="449"/>
-      <c r="O20" s="449"/>
-      <c r="P20" s="441"/>
+      <c r="N20" s="452"/>
+      <c r="O20" s="452"/>
+      <c r="P20" s="444"/>
       <c r="S20" t="s">
         <v>147</v>
       </c>
@@ -51040,13 +52803,13 @@
       <c r="Q84" s="6"/>
     </row>
     <row r="85" spans="1:17">
-      <c r="A85" s="456" t="s">
+      <c r="A85" s="459" t="s">
         <v>994</v>
       </c>
-      <c r="B85" s="435"/>
-      <c r="C85" s="435"/>
-      <c r="D85" s="435"/>
-      <c r="E85" s="435"/>
+      <c r="B85" s="438"/>
+      <c r="C85" s="438"/>
+      <c r="D85" s="438"/>
+      <c r="E85" s="438"/>
       <c r="F85" s="6" t="s">
         <v>998</v>
       </c>
@@ -51093,14 +52856,14 @@
       <c r="H87" s="4"/>
       <c r="I87" s="30"/>
       <c r="J87" s="26"/>
-      <c r="K87" s="463" t="s">
+      <c r="K87" s="466" t="s">
         <v>997</v>
       </c>
-      <c r="L87" s="458"/>
-      <c r="M87" s="463" t="s">
+      <c r="L87" s="461"/>
+      <c r="M87" s="466" t="s">
         <v>1008</v>
       </c>
-      <c r="N87" s="458"/>
+      <c r="N87" s="461"/>
       <c r="O87" s="26"/>
       <c r="P87" s="34"/>
       <c r="Q87" s="6"/>
@@ -51117,10 +52880,10 @@
       <c r="H88" s="4"/>
       <c r="I88" s="30"/>
       <c r="J88" s="26"/>
-      <c r="K88" s="461"/>
-      <c r="L88" s="462"/>
-      <c r="M88" s="459"/>
-      <c r="N88" s="460"/>
+      <c r="K88" s="464"/>
+      <c r="L88" s="465"/>
+      <c r="M88" s="462"/>
+      <c r="N88" s="463"/>
       <c r="O88" s="26"/>
       <c r="P88" s="34"/>
       <c r="Q88" s="6"/>
@@ -51139,12 +52902,12 @@
       </c>
       <c r="I89" s="30"/>
       <c r="J89" s="26"/>
-      <c r="K89" s="457" t="s">
+      <c r="K89" s="460" t="s">
         <v>989</v>
       </c>
-      <c r="L89" s="458"/>
-      <c r="M89" s="459"/>
-      <c r="N89" s="460"/>
+      <c r="L89" s="461"/>
+      <c r="M89" s="462"/>
+      <c r="N89" s="463"/>
       <c r="O89" s="26"/>
       <c r="P89" s="34"/>
       <c r="Q89" s="6"/>
@@ -51159,10 +52922,10 @@
       <c r="H90" s="4"/>
       <c r="I90" s="30"/>
       <c r="J90" s="26"/>
-      <c r="K90" s="461"/>
-      <c r="L90" s="462"/>
-      <c r="M90" s="459"/>
-      <c r="N90" s="460"/>
+      <c r="K90" s="464"/>
+      <c r="L90" s="465"/>
+      <c r="M90" s="462"/>
+      <c r="N90" s="463"/>
       <c r="O90" s="26"/>
       <c r="P90" s="34"/>
       <c r="Q90" s="6"/>
@@ -51179,12 +52942,12 @@
       <c r="H91" s="4"/>
       <c r="I91" s="30"/>
       <c r="J91" s="26"/>
-      <c r="K91" s="457" t="s">
+      <c r="K91" s="460" t="s">
         <v>990</v>
       </c>
-      <c r="L91" s="458"/>
-      <c r="M91" s="459"/>
-      <c r="N91" s="460"/>
+      <c r="L91" s="461"/>
+      <c r="M91" s="462"/>
+      <c r="N91" s="463"/>
       <c r="O91" s="26"/>
       <c r="P91" s="34"/>
       <c r="Q91" s="6"/>
@@ -51201,10 +52964,10 @@
       <c r="H92" s="4"/>
       <c r="I92" s="30"/>
       <c r="J92" s="26"/>
-      <c r="K92" s="461"/>
-      <c r="L92" s="462"/>
-      <c r="M92" s="459"/>
-      <c r="N92" s="460"/>
+      <c r="K92" s="464"/>
+      <c r="L92" s="465"/>
+      <c r="M92" s="462"/>
+      <c r="N92" s="463"/>
       <c r="O92" s="26"/>
       <c r="P92" s="34"/>
       <c r="Q92" s="6"/>
@@ -51219,12 +52982,12 @@
       <c r="H93" s="4"/>
       <c r="I93" s="30"/>
       <c r="J93" s="26"/>
-      <c r="K93" s="457" t="s">
+      <c r="K93" s="460" t="s">
         <v>991</v>
       </c>
-      <c r="L93" s="458"/>
-      <c r="M93" s="459"/>
-      <c r="N93" s="460"/>
+      <c r="L93" s="461"/>
+      <c r="M93" s="462"/>
+      <c r="N93" s="463"/>
       <c r="O93" s="26"/>
       <c r="P93" s="34"/>
       <c r="Q93" s="6"/>
@@ -51236,10 +52999,10 @@
       <c r="H94" s="4"/>
       <c r="I94" s="30"/>
       <c r="J94" s="26"/>
-      <c r="K94" s="459"/>
-      <c r="L94" s="460"/>
-      <c r="M94" s="459"/>
-      <c r="N94" s="460"/>
+      <c r="K94" s="462"/>
+      <c r="L94" s="463"/>
+      <c r="M94" s="462"/>
+      <c r="N94" s="463"/>
       <c r="O94" s="26"/>
       <c r="P94" s="34"/>
       <c r="Q94" s="6"/>
@@ -51253,10 +53016,10 @@
       <c r="H95" s="4"/>
       <c r="I95" s="30"/>
       <c r="J95" s="26"/>
-      <c r="K95" s="461"/>
-      <c r="L95" s="462"/>
-      <c r="M95" s="461"/>
-      <c r="N95" s="462"/>
+      <c r="K95" s="464"/>
+      <c r="L95" s="465"/>
+      <c r="M95" s="464"/>
+      <c r="N95" s="465"/>
       <c r="O95" s="26"/>
       <c r="P95" s="34"/>
       <c r="Q95" s="6"/>
@@ -51273,14 +53036,14 @@
       <c r="H96" s="4"/>
       <c r="I96" s="30"/>
       <c r="J96" s="26"/>
-      <c r="K96" s="455" t="s">
+      <c r="K96" s="458" t="s">
         <v>992</v>
       </c>
-      <c r="L96" s="455"/>
-      <c r="M96" s="455" t="s">
+      <c r="L96" s="458"/>
+      <c r="M96" s="458" t="s">
         <v>993</v>
       </c>
-      <c r="N96" s="455"/>
+      <c r="N96" s="458"/>
       <c r="O96" s="26"/>
       <c r="P96" s="34"/>
       <c r="Q96" s="6"/>
@@ -51404,7 +53167,7 @@
       <c r="E115" s="82"/>
       <c r="F115" s="83"/>
       <c r="I115" s="4"/>
-      <c r="J115" s="452" t="s">
+      <c r="J115" s="455" t="s">
         <v>1023</v>
       </c>
       <c r="K115" s="2"/>
@@ -51421,7 +53184,7 @@
       <c r="E116" s="5"/>
       <c r="F116" s="6"/>
       <c r="I116" s="4"/>
-      <c r="J116" s="453"/>
+      <c r="J116" s="456"/>
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
       <c r="M116" s="3"/>
@@ -51436,7 +53199,7 @@
       <c r="E117" s="5"/>
       <c r="F117" s="6"/>
       <c r="I117" s="4"/>
-      <c r="J117" s="453"/>
+      <c r="J117" s="456"/>
       <c r="K117" s="5" t="s">
         <v>23</v>
       </c>
@@ -51453,7 +53216,7 @@
       <c r="E118" s="5"/>
       <c r="F118" s="6"/>
       <c r="I118" s="4"/>
-      <c r="J118" s="453"/>
+      <c r="J118" s="456"/>
       <c r="K118" s="5"/>
       <c r="L118" s="5"/>
       <c r="M118" s="6"/>
@@ -51468,7 +53231,7 @@
       <c r="E119" s="5"/>
       <c r="F119" s="6"/>
       <c r="I119" s="4"/>
-      <c r="J119" s="453"/>
+      <c r="J119" s="456"/>
       <c r="K119" s="5" t="s">
         <v>475</v>
       </c>
@@ -51488,7 +53251,7 @@
         <v>1022</v>
       </c>
       <c r="I120" s="4"/>
-      <c r="J120" s="453"/>
+      <c r="J120" s="456"/>
       <c r="K120" s="10"/>
       <c r="L120" s="10"/>
       <c r="M120" s="9"/>
@@ -51508,7 +53271,7 @@
         <v>145</v>
       </c>
       <c r="I121" s="4"/>
-      <c r="J121" s="453"/>
+      <c r="J121" s="456"/>
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
       <c r="M121" s="3"/>
@@ -51525,7 +53288,7 @@
       <c r="E122" s="5"/>
       <c r="F122" s="6"/>
       <c r="I122" s="4"/>
-      <c r="J122" s="453"/>
+      <c r="J122" s="456"/>
       <c r="K122" s="5"/>
       <c r="L122" s="5" t="s">
         <v>1019</v>
@@ -51544,7 +53307,7 @@
       <c r="E123" s="5"/>
       <c r="F123" s="6"/>
       <c r="I123" s="4"/>
-      <c r="J123" s="453"/>
+      <c r="J123" s="456"/>
       <c r="K123" s="5"/>
       <c r="L123" s="5" t="s">
         <v>1017</v>
@@ -51561,7 +53324,7 @@
       <c r="E124" s="5"/>
       <c r="F124" s="6"/>
       <c r="I124" s="4"/>
-      <c r="J124" s="453"/>
+      <c r="J124" s="456"/>
       <c r="K124" s="5"/>
       <c r="L124" s="5" t="s">
         <v>23</v>
@@ -51578,7 +53341,7 @@
       <c r="E125" s="5"/>
       <c r="F125" s="6"/>
       <c r="I125" s="4"/>
-      <c r="J125" s="453"/>
+      <c r="J125" s="456"/>
       <c r="K125" s="10"/>
       <c r="L125" s="10"/>
       <c r="M125" s="9"/>
@@ -51593,7 +53356,7 @@
       <c r="E126" s="10"/>
       <c r="F126" s="9"/>
       <c r="I126" s="4"/>
-      <c r="J126" s="454"/>
+      <c r="J126" s="457"/>
       <c r="K126" s="10"/>
       <c r="L126" s="10"/>
       <c r="M126" s="10"/>
@@ -52119,10 +53882,10 @@
         <v>147</v>
       </c>
       <c r="L160" s="4"/>
-      <c r="M160" s="440" t="s">
+      <c r="M160" s="443" t="s">
         <v>73</v>
       </c>
-      <c r="N160" s="441"/>
+      <c r="N160" s="444"/>
       <c r="O160" s="286" t="s">
         <v>74</v>
       </c>
